--- a/factor_master.xlsx
+++ b/factor_master.xlsx
@@ -5,20 +5,21 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bkrai\Source\scratch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bkrai\Source\risk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75771364-9477-4E2B-8CDE-AD21D40E44C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12026009-65C3-4395-B293-161E1BF448AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{C31FDC5B-A809-4BFD-99CB-DA02246721F7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{C31FDC5B-A809-4BFD-99CB-DA02246721F7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
-    <sheet name="read" sheetId="1" r:id="rId3"/>
+    <sheet name="legacy" sheetId="5" r:id="rId1"/>
+    <sheet name="data" sheetId="3" r:id="rId2"/>
+    <sheet name="read" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId4"/>
+    <sheet name="read_old" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,8 +39,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="326">
   <si>
     <t>SPX</t>
   </si>
@@ -158,15 +181,6 @@
     <t>Not an ETF but typically referenced alongside fixed-income investments.</t>
   </si>
   <si>
-    <t>Asset Class</t>
-  </si>
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>Ticker</t>
-  </si>
-  <si>
     <t>Equities</t>
   </si>
   <si>
@@ -197,9 +211,6 @@
     <t>iShares iBoxx $ High Yield Corporate Bond ETF</t>
   </si>
   <si>
-    <t>Fixed Income</t>
-  </si>
-  <si>
     <t>TLT</t>
   </si>
   <si>
@@ -368,12 +379,6 @@
     <t>High-yield corporate bonds</t>
   </si>
   <si>
-    <t>Long-term U.S. Treasury bonds</t>
-  </si>
-  <si>
-    <t>Short-term U.S. Treasury bonds</t>
-  </si>
-  <si>
     <t>U.S. mortgage-backed securities</t>
   </si>
   <si>
@@ -435,12 +440,612 @@
   </si>
   <si>
     <t>Government bonds in developed markets</t>
+  </si>
+  <si>
+    <t>IEI</t>
+  </si>
+  <si>
+    <t>iShares 3-7 Year Treasury Bond ETF</t>
+  </si>
+  <si>
+    <t>Rates</t>
+  </si>
+  <si>
+    <t>Short-term U.S. Treasury bonds (1-3 years)</t>
+  </si>
+  <si>
+    <t>Intermediate-term U.S. Treasury bonds (3-7 years)</t>
+  </si>
+  <si>
+    <t>IEF</t>
+  </si>
+  <si>
+    <t>iShares 7-10 Year Treasury Bond ETF</t>
+  </si>
+  <si>
+    <t>Intermediate-term U.S. Treasury bonds (7-10 years)</t>
+  </si>
+  <si>
+    <t>Long-term U.S. Treasury bonds (20+ years)</t>
+  </si>
+  <si>
+    <t>TIP</t>
+  </si>
+  <si>
+    <t>iShares TIPS Bond ETF</t>
+  </si>
+  <si>
+    <t>U.S. Treasury Inflation-Protected Securities (TIPS)</t>
+  </si>
+  <si>
+    <t>S&amp;P 500</t>
+  </si>
+  <si>
+    <t>Russell 2000</t>
+  </si>
+  <si>
+    <t>Nasdaq 100</t>
+  </si>
+  <si>
+    <t>Nikkei 225</t>
+  </si>
+  <si>
+    <t>TPX</t>
+  </si>
+  <si>
+    <t>iShares TOPIX ETF</t>
+  </si>
+  <si>
+    <t>Tokyo Stock Price Index (TOPIX)</t>
+  </si>
+  <si>
+    <t>TOPIX</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Euro</t>
+  </si>
+  <si>
+    <t>Description_GPT</t>
+  </si>
+  <si>
+    <t>SPDR EURO STOXX 50 ETF</t>
+  </si>
+  <si>
+    <t>Eurostoxx 50</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Simplify Mortgage Backed Securities ETF</t>
+  </si>
+  <si>
+    <t>U.S. mortgage-backed securities (short duration)</t>
+  </si>
+  <si>
+    <t>Dow Jones 30</t>
+  </si>
+  <si>
+    <t>Eurostoxx Banks</t>
+  </si>
+  <si>
+    <t>SX7E</t>
+  </si>
+  <si>
+    <t>DAX (Germany)</t>
+  </si>
+  <si>
+    <t>CAC 40 (France)</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Industrials</t>
+  </si>
+  <si>
+    <t>Financials</t>
+  </si>
+  <si>
+    <t>Regional Banks</t>
+  </si>
+  <si>
+    <t>Communications</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Discretionary</t>
+  </si>
+  <si>
+    <t>Materials</t>
+  </si>
+  <si>
+    <t>Health Care</t>
+  </si>
+  <si>
+    <t>Utilities</t>
+  </si>
+  <si>
+    <t>Staples</t>
+  </si>
+  <si>
+    <t>Real Estate</t>
+  </si>
+  <si>
+    <t>TSX 60 (Canada)</t>
+  </si>
+  <si>
+    <t>DOW</t>
+  </si>
+  <si>
+    <t>XLK</t>
+  </si>
+  <si>
+    <t>XLI</t>
+  </si>
+  <si>
+    <t>XLF</t>
+  </si>
+  <si>
+    <t>KRE</t>
+  </si>
+  <si>
+    <t>XLC</t>
+  </si>
+  <si>
+    <t>XL</t>
+  </si>
+  <si>
+    <t>XLY</t>
+  </si>
+  <si>
+    <t>XLB</t>
+  </si>
+  <si>
+    <t>XLV</t>
+  </si>
+  <si>
+    <t>XLU</t>
+  </si>
+  <si>
+    <t>XLP</t>
+  </si>
+  <si>
+    <t>REIT</t>
+  </si>
+  <si>
+    <t>TSX</t>
+  </si>
+  <si>
+    <t>FTSE 100 (UK)</t>
+  </si>
+  <si>
+    <t>Nikkei 225 (Japan)</t>
+  </si>
+  <si>
+    <t>Topix (Japan domenstic)</t>
+  </si>
+  <si>
+    <t>Hang Seng (Hong Kong)</t>
+  </si>
+  <si>
+    <t>KOSPI 200 (Korea)</t>
+  </si>
+  <si>
+    <t>NIFTY 50 (India)</t>
+  </si>
+  <si>
+    <t>MSCI Brazil Index</t>
+  </si>
+  <si>
+    <t>CSI 300 (China)</t>
+  </si>
+  <si>
+    <t>MSCI EM</t>
+  </si>
+  <si>
+    <t>FTSE China 50</t>
+  </si>
+  <si>
+    <t>FTSE</t>
+  </si>
+  <si>
+    <t>KOSPI</t>
+  </si>
+  <si>
+    <t>NIFTY</t>
+  </si>
+  <si>
+    <t>EWZ</t>
+  </si>
+  <si>
+    <t>EEM</t>
+  </si>
+  <si>
+    <t>US IG CDX</t>
+  </si>
+  <si>
+    <t>US HY CDX</t>
+  </si>
+  <si>
+    <t>US IG Bond ETF</t>
+  </si>
+  <si>
+    <t>US HY Bond ETF</t>
+  </si>
+  <si>
+    <t>Leveraged Loans</t>
+  </si>
+  <si>
+    <t>LOAN</t>
+  </si>
+  <si>
+    <t>Eur MAIN CDX (IG)</t>
+  </si>
+  <si>
+    <t>Eur XOVER CDX (HY)</t>
+  </si>
+  <si>
+    <t>Eur Sen Fin CDX</t>
+  </si>
+  <si>
+    <t>MAIN</t>
+  </si>
+  <si>
+    <t>XOVER</t>
+  </si>
+  <si>
+    <t>SENFIN</t>
+  </si>
+  <si>
+    <t>US Agg Bond Index</t>
+  </si>
+  <si>
+    <t>1-3 Year Treasury ETF</t>
+  </si>
+  <si>
+    <t>7-10 Year Treasury ETF</t>
+  </si>
+  <si>
+    <t>20+ Year Treasury ETF</t>
+  </si>
+  <si>
+    <t>TIPS ETF</t>
+  </si>
+  <si>
+    <t>Muni ETF</t>
+  </si>
+  <si>
+    <t>AGG</t>
+  </si>
+  <si>
+    <t>MUB</t>
+  </si>
+  <si>
+    <t>GBP</t>
+  </si>
+  <si>
+    <t>USD 2-year swap</t>
+  </si>
+  <si>
+    <t>USD 5-year swap</t>
+  </si>
+  <si>
+    <t>USD 10-year swap</t>
+  </si>
+  <si>
+    <t>USD 20-year swap</t>
+  </si>
+  <si>
+    <t>USD 30-year swap</t>
+  </si>
+  <si>
+    <t>EUR 2-year swap</t>
+  </si>
+  <si>
+    <t>EUR 5-year swap</t>
+  </si>
+  <si>
+    <t>EUR 10-year swap</t>
+  </si>
+  <si>
+    <t>EUR 20-year swap</t>
+  </si>
+  <si>
+    <t>EUR 30-year swap</t>
+  </si>
+  <si>
+    <t>GBP 2-year swap</t>
+  </si>
+  <si>
+    <t>GBP 5-year swap</t>
+  </si>
+  <si>
+    <t>GBP 10-year swap</t>
+  </si>
+  <si>
+    <t>GBP 20-year swap</t>
+  </si>
+  <si>
+    <t>GBP 30-year swap</t>
+  </si>
+  <si>
+    <t>USD02</t>
+  </si>
+  <si>
+    <t>USD05</t>
+  </si>
+  <si>
+    <t>USD10</t>
+  </si>
+  <si>
+    <t>USD20</t>
+  </si>
+  <si>
+    <t>USD30</t>
+  </si>
+  <si>
+    <t>EUR02</t>
+  </si>
+  <si>
+    <t>EUR05</t>
+  </si>
+  <si>
+    <t>EUR10</t>
+  </si>
+  <si>
+    <t>EUR20</t>
+  </si>
+  <si>
+    <t>EUR30</t>
+  </si>
+  <si>
+    <t>GBP02</t>
+  </si>
+  <si>
+    <t>GBP05</t>
+  </si>
+  <si>
+    <t>GBP10</t>
+  </si>
+  <si>
+    <t>GBP20</t>
+  </si>
+  <si>
+    <t>GBP30</t>
+  </si>
+  <si>
+    <t>AUD</t>
+  </si>
+  <si>
+    <t>NZD</t>
+  </si>
+  <si>
+    <t>CHF</t>
+  </si>
+  <si>
+    <t>SEK</t>
+  </si>
+  <si>
+    <t>NOK</t>
+  </si>
+  <si>
+    <t>INR</t>
+  </si>
+  <si>
+    <t>TWD</t>
+  </si>
+  <si>
+    <t>KRW</t>
+  </si>
+  <si>
+    <t>BRL</t>
+  </si>
+  <si>
+    <t>MXN</t>
+  </si>
+  <si>
+    <t>TRY</t>
+  </si>
+  <si>
+    <t>RUB</t>
+  </si>
+  <si>
+    <t>GOLD</t>
+  </si>
+  <si>
+    <t>CRUDE</t>
+  </si>
+  <si>
+    <t>GSCI</t>
+  </si>
+  <si>
+    <t>Japanese Yen</t>
+  </si>
+  <si>
+    <t>British Pound</t>
+  </si>
+  <si>
+    <t>Australian Dollar</t>
+  </si>
+  <si>
+    <t>New Zealand Dollar</t>
+  </si>
+  <si>
+    <t>Canadian Dollar</t>
+  </si>
+  <si>
+    <t>Swiss Franc</t>
+  </si>
+  <si>
+    <t>Swedish Krona</t>
+  </si>
+  <si>
+    <t>Norwegian Krone</t>
+  </si>
+  <si>
+    <t>Chinese Yuan</t>
+  </si>
+  <si>
+    <t>Indian Rupee</t>
+  </si>
+  <si>
+    <t>New Taiwan Dollar</t>
+  </si>
+  <si>
+    <t>South Korean Won</t>
+  </si>
+  <si>
+    <t>Brazilian Real</t>
+  </si>
+  <si>
+    <t>Mexican Peso</t>
+  </si>
+  <si>
+    <t>Turkish Lira</t>
+  </si>
+  <si>
+    <t>Russian Ruble</t>
+  </si>
+  <si>
+    <t>Crude Oil</t>
+  </si>
+  <si>
+    <t>Active Vol</t>
+  </si>
+  <si>
+    <t>INDU</t>
+  </si>
+  <si>
+    <t>IYR</t>
+  </si>
+  <si>
+    <t>SPTSX60</t>
+  </si>
+  <si>
+    <t>UKX</t>
+  </si>
+  <si>
+    <t>HSI</t>
+  </si>
+  <si>
+    <t>KOSPI2</t>
+  </si>
+  <si>
+    <t>NIFTY5</t>
+  </si>
+  <si>
+    <t>IBOXUMAE</t>
+  </si>
+  <si>
+    <t>IBOXHYSE</t>
+  </si>
+  <si>
+    <t>BKLN</t>
+  </si>
+  <si>
+    <t>ITRXEBE</t>
+  </si>
+  <si>
+    <t>ITRXEXE</t>
+  </si>
+  <si>
+    <t>ITRXESE</t>
+  </si>
+  <si>
+    <t>EURUSD</t>
+  </si>
+  <si>
+    <t>USDJPY</t>
+  </si>
+  <si>
+    <t>GBPUSD</t>
+  </si>
+  <si>
+    <t>AUDUSD</t>
+  </si>
+  <si>
+    <t>NZDUSD</t>
+  </si>
+  <si>
+    <t>USDCAD</t>
+  </si>
+  <si>
+    <t>USDCHF</t>
+  </si>
+  <si>
+    <t>USDSEK</t>
+  </si>
+  <si>
+    <t>USDNOK</t>
+  </si>
+  <si>
+    <t>USDCNH</t>
+  </si>
+  <si>
+    <t>USDINR</t>
+  </si>
+  <si>
+    <t>USDTWD</t>
+  </si>
+  <si>
+    <t>USDKRW</t>
+  </si>
+  <si>
+    <t>USDBRL</t>
+  </si>
+  <si>
+    <t>USDMXN</t>
+  </si>
+  <si>
+    <t>USDTRY</t>
+  </si>
+  <si>
+    <t>USDRUB</t>
+  </si>
+  <si>
+    <t>GSG</t>
+  </si>
+  <si>
+    <t>asset class</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>Commdty</t>
+  </si>
+  <si>
+    <t>G7</t>
+  </si>
+  <si>
+    <t>Asia</t>
+  </si>
+  <si>
+    <t>subregion</t>
+  </si>
+  <si>
+    <t>Sectors</t>
+  </si>
+  <si>
+    <t>asset_class</t>
+  </si>
+  <si>
+    <t>description_override</t>
+  </si>
+  <si>
+    <t>^N225</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -487,13 +1092,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -504,12 +1105,93 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="12">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Table Style 1" pivot="0" count="2" xr9:uid="{26B58CFA-74FB-41FD-AB02-EC6D3EA4F4A1}">
+      <tableStyleElement type="wholeTable" dxfId="11"/>
+      <tableStyleElement type="headerRow" dxfId="10"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -519,6 +1201,25 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6DAD1482-C63D-400D-9F51-F22A8E35CAD8}" name="data" displayName="data" ref="A1:H37" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:H37" xr:uid="{6DAD1482-C63D-400D-9F51-F22A8E35CAD8}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{740DC173-AAC9-4239-A44E-C43F8517304D}" name="asset_class" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{A3BC3BB8-0420-458E-AECD-FD567519FA40}" name="region" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{0E50B2E3-0362-41DB-ACC2-478CC6F618A4}" name="factor_name" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{D181BF84-863F-4FD0-B518-14EA5B0FB18E}" name="description_override" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{1C40DF9B-2910-4DE6-A188-563938E39797}" name="Description_GPT" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{1806E074-6CB5-47AB-8FA3-EF0F6E429062}" name="Underlying" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{21539C17-C1CC-4FA9-A0E1-A2F8FF8AB52C}" name="Active" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{5A601067-D384-419C-A711-AD3034F77E28}" name="description" dataDxfId="0">
+      <calculatedColumnFormula>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -837,530 +1538,1412 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C29859C-7358-4E2F-B5CC-7696F1DAC449}">
-  <dimension ref="A1:E30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC6F81C3-35A2-4C92-A3A4-30A9105A6D5B}">
+  <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="64.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="4" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E6" t="s">
+        <v>173</v>
+      </c>
+      <c r="F6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>322</v>
+      </c>
+      <c r="D7" t="s">
+        <v>160</v>
+      </c>
+      <c r="E7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>322</v>
+      </c>
+      <c r="D8" t="s">
+        <v>161</v>
+      </c>
+      <c r="E8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>322</v>
+      </c>
+      <c r="D9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E9" t="s">
+        <v>176</v>
+      </c>
+      <c r="F9" t="s">
+        <v>176</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>322</v>
+      </c>
+      <c r="D10" t="s">
+        <v>163</v>
+      </c>
+      <c r="E10" t="s">
+        <v>177</v>
+      </c>
+      <c r="F10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>322</v>
+      </c>
+      <c r="D11" t="s">
+        <v>164</v>
+      </c>
+      <c r="E11" t="s">
+        <v>178</v>
+      </c>
+      <c r="F11" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>322</v>
+      </c>
+      <c r="D12" t="s">
+        <v>165</v>
+      </c>
+      <c r="E12" t="s">
+        <v>179</v>
+      </c>
+      <c r="F12" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>322</v>
+      </c>
+      <c r="D13" t="s">
+        <v>166</v>
+      </c>
+      <c r="E13" t="s">
+        <v>180</v>
+      </c>
+      <c r="F13" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>322</v>
+      </c>
+      <c r="D14" t="s">
+        <v>167</v>
+      </c>
+      <c r="E14" t="s">
+        <v>181</v>
+      </c>
+      <c r="F14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>322</v>
+      </c>
+      <c r="D15" t="s">
+        <v>168</v>
+      </c>
+      <c r="E15" t="s">
+        <v>182</v>
+      </c>
+      <c r="F15" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>169</v>
+      </c>
+      <c r="E16" t="s">
+        <v>183</v>
+      </c>
+      <c r="F16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" t="s">
+        <v>170</v>
+      </c>
+      <c r="E17" t="s">
+        <v>184</v>
+      </c>
+      <c r="F17" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" t="s">
+        <v>171</v>
+      </c>
+      <c r="E18" t="s">
+        <v>185</v>
+      </c>
+      <c r="F18" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" t="s">
+        <v>150</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" t="s">
+        <v>155</v>
+      </c>
+      <c r="E20" t="s">
+        <v>156</v>
+      </c>
+      <c r="F20" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" t="s">
+        <v>157</v>
+      </c>
+      <c r="E21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" t="s">
+        <v>158</v>
+      </c>
+      <c r="E22" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" t="s">
+        <v>186</v>
+      </c>
+      <c r="E23" t="s">
+        <v>196</v>
+      </c>
+      <c r="F23" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" t="s">
+        <v>187</v>
+      </c>
+      <c r="E24" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" t="s">
+        <v>188</v>
+      </c>
+      <c r="E25" t="s">
+        <v>142</v>
+      </c>
+      <c r="F25" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" t="s">
+        <v>189</v>
+      </c>
+      <c r="E26" t="s">
+        <v>289</v>
+      </c>
+      <c r="F26" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" t="s">
+        <v>190</v>
+      </c>
+      <c r="E27" t="s">
+        <v>197</v>
+      </c>
+      <c r="F27" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" t="s">
+        <v>191</v>
+      </c>
+      <c r="E28" t="s">
+        <v>198</v>
+      </c>
+      <c r="F28" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" t="s">
+        <v>192</v>
+      </c>
+      <c r="E29" t="s">
+        <v>199</v>
+      </c>
+      <c r="F29" t="s">
+        <v>199</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" t="s">
+        <v>193</v>
+      </c>
+      <c r="E30" t="s">
+        <v>82</v>
+      </c>
+      <c r="F30" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" t="s">
+        <v>195</v>
+      </c>
+      <c r="E31" t="s">
+        <v>80</v>
+      </c>
+      <c r="F31" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" t="s">
+        <v>194</v>
+      </c>
+      <c r="E32" t="s">
+        <v>200</v>
+      </c>
+      <c r="F32" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" t="s">
+        <v>201</v>
+      </c>
+      <c r="E33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" t="s">
+        <v>202</v>
+      </c>
+      <c r="E34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" t="s">
+        <v>203</v>
+      </c>
+      <c r="E35" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" t="s">
+        <v>204</v>
+      </c>
+      <c r="E36" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" t="s">
+        <v>205</v>
+      </c>
+      <c r="E37" t="s">
+        <v>206</v>
+      </c>
+      <c r="F37" t="s">
+        <v>294</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" t="s">
+        <v>207</v>
+      </c>
+      <c r="E38" t="s">
+        <v>210</v>
+      </c>
+      <c r="F38" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" t="s">
+        <v>208</v>
+      </c>
+      <c r="E39" t="s">
+        <v>211</v>
+      </c>
+      <c r="F39" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" t="s">
+        <v>209</v>
+      </c>
+      <c r="E40" t="s">
+        <v>212</v>
+      </c>
+      <c r="F40" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>128</v>
+      </c>
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" t="s">
+        <v>213</v>
+      </c>
+      <c r="E41" t="s">
+        <v>219</v>
+      </c>
+      <c r="F41" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>128</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" t="s">
+        <v>214</v>
+      </c>
+      <c r="E42" t="s">
+        <v>51</v>
+      </c>
+      <c r="F42" t="s">
+        <v>51</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>128</v>
+      </c>
+      <c r="B43" t="s">
+        <v>40</v>
+      </c>
+      <c r="D43" t="s">
+        <v>215</v>
+      </c>
+      <c r="E43" t="s">
+        <v>131</v>
+      </c>
+      <c r="F43" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>128</v>
+      </c>
+      <c r="B44" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44" t="s">
+        <v>216</v>
+      </c>
+      <c r="E44" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="F44" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="4" t="s">
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>128</v>
+      </c>
+      <c r="B45" t="s">
+        <v>40</v>
+      </c>
+      <c r="D45" t="s">
+        <v>217</v>
+      </c>
+      <c r="E45" t="s">
+        <v>135</v>
+      </c>
+      <c r="F45" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>128</v>
+      </c>
+      <c r="B46" t="s">
+        <v>40</v>
+      </c>
+      <c r="D46" t="s">
+        <v>218</v>
+      </c>
+      <c r="E46" t="s">
+        <v>220</v>
+      </c>
+      <c r="F46" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>128</v>
+      </c>
+      <c r="B47" t="s">
+        <v>40</v>
+      </c>
+      <c r="D47" t="s">
+        <v>222</v>
+      </c>
+      <c r="E47" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>128</v>
+      </c>
+      <c r="B48" t="s">
+        <v>40</v>
+      </c>
+      <c r="D48" t="s">
+        <v>223</v>
+      </c>
+      <c r="E48" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>128</v>
+      </c>
+      <c r="B49" t="s">
+        <v>40</v>
+      </c>
+      <c r="D49" t="s">
+        <v>224</v>
+      </c>
+      <c r="E49" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>128</v>
+      </c>
+      <c r="B50" t="s">
+        <v>40</v>
+      </c>
+      <c r="D50" t="s">
+        <v>225</v>
+      </c>
+      <c r="E50" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>128</v>
+      </c>
+      <c r="B51" t="s">
+        <v>40</v>
+      </c>
+      <c r="D51" t="s">
+        <v>226</v>
+      </c>
+      <c r="E51" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>128</v>
+      </c>
+      <c r="B52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" t="s">
+        <v>227</v>
+      </c>
+      <c r="E52" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>128</v>
+      </c>
+      <c r="B53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" t="s">
+        <v>228</v>
+      </c>
+      <c r="E53" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>128</v>
+      </c>
+      <c r="B54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" t="s">
+        <v>229</v>
+      </c>
+      <c r="E54" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>128</v>
+      </c>
+      <c r="B55" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" t="s">
+        <v>230</v>
+      </c>
+      <c r="E55" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>128</v>
+      </c>
+      <c r="B56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" t="s">
+        <v>231</v>
+      </c>
+      <c r="E56" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>128</v>
+      </c>
+      <c r="B57" t="s">
+        <v>221</v>
+      </c>
+      <c r="D57" t="s">
+        <v>232</v>
+      </c>
+      <c r="E57" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>128</v>
+      </c>
+      <c r="B58" t="s">
+        <v>221</v>
+      </c>
+      <c r="D58" t="s">
+        <v>233</v>
+      </c>
+      <c r="E58" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>128</v>
+      </c>
+      <c r="B59" t="s">
+        <v>221</v>
+      </c>
+      <c r="D59" t="s">
+        <v>234</v>
+      </c>
+      <c r="E59" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>128</v>
+      </c>
+      <c r="B60" t="s">
+        <v>221</v>
+      </c>
+      <c r="D60" t="s">
+        <v>235</v>
+      </c>
+      <c r="E60" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>128</v>
+      </c>
+      <c r="B61" t="s">
+        <v>221</v>
+      </c>
+      <c r="D61" t="s">
+        <v>236</v>
+      </c>
+      <c r="E61" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" t="s">
+        <v>319</v>
+      </c>
+      <c r="D62" t="s">
+        <v>147</v>
+      </c>
+      <c r="E62" t="s">
+        <v>68</v>
+      </c>
+      <c r="F62" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" t="s">
+        <v>319</v>
+      </c>
+      <c r="D63" t="s">
+        <v>267</v>
+      </c>
+      <c r="E63" t="s">
+        <v>71</v>
+      </c>
+      <c r="F63" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" t="s">
+        <v>319</v>
+      </c>
+      <c r="D64" t="s">
+        <v>268</v>
+      </c>
+      <c r="E64" t="s">
+        <v>221</v>
+      </c>
+      <c r="F64" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" t="s">
+        <v>252</v>
+      </c>
+      <c r="D65" t="s">
+        <v>269</v>
+      </c>
+      <c r="E65" t="s">
+        <v>252</v>
+      </c>
+      <c r="F65" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>252</v>
+      </c>
+      <c r="D66" t="s">
+        <v>270</v>
+      </c>
+      <c r="E66" t="s">
+        <v>253</v>
+      </c>
+      <c r="F66" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>318</v>
+      </c>
+      <c r="D67" t="s">
+        <v>271</v>
+      </c>
+      <c r="E67" t="s">
+        <v>88</v>
+      </c>
+      <c r="F67" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>65</v>
+      </c>
+      <c r="B68" t="s">
+        <v>318</v>
+      </c>
+      <c r="D68" t="s">
+        <v>272</v>
+      </c>
+      <c r="E68" t="s">
+        <v>254</v>
+      </c>
+      <c r="F68" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>65</v>
+      </c>
+      <c r="B69" t="s">
+        <v>318</v>
+      </c>
+      <c r="D69" t="s">
+        <v>273</v>
+      </c>
+      <c r="E69" t="s">
+        <v>255</v>
+      </c>
+      <c r="F69" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>65</v>
+      </c>
+      <c r="B70" t="s">
+        <v>318</v>
+      </c>
+      <c r="D70" t="s">
+        <v>274</v>
+      </c>
+      <c r="E70" t="s">
+        <v>256</v>
+      </c>
+      <c r="F70" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>65</v>
+      </c>
+      <c r="B71" t="s">
+        <v>320</v>
+      </c>
+      <c r="D71" t="s">
+        <v>275</v>
+      </c>
+      <c r="E71" t="s">
+        <v>79</v>
+      </c>
+      <c r="F71" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>65</v>
+      </c>
+      <c r="B72" t="s">
+        <v>320</v>
+      </c>
+      <c r="D72" t="s">
+        <v>276</v>
+      </c>
+      <c r="E72" t="s">
+        <v>257</v>
+      </c>
+      <c r="F72" t="s">
+        <v>308</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>65</v>
+      </c>
+      <c r="B73" t="s">
+        <v>320</v>
+      </c>
+      <c r="D73" t="s">
+        <v>277</v>
+      </c>
+      <c r="E73" t="s">
+        <v>258</v>
+      </c>
+      <c r="F73" t="s">
+        <v>309</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>65</v>
+      </c>
+      <c r="B74" t="s">
+        <v>320</v>
+      </c>
+      <c r="D74" t="s">
+        <v>278</v>
+      </c>
+      <c r="E74" t="s">
+        <v>259</v>
+      </c>
+      <c r="F74" t="s">
+        <v>310</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>65</v>
+      </c>
+      <c r="B75" t="s">
+        <v>74</v>
+      </c>
+      <c r="D75" t="s">
+        <v>279</v>
+      </c>
+      <c r="E75" t="s">
+        <v>260</v>
+      </c>
+      <c r="F75" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>65</v>
+      </c>
+      <c r="B76" t="s">
+        <v>74</v>
+      </c>
+      <c r="D76" t="s">
+        <v>280</v>
+      </c>
+      <c r="E76" t="s">
+        <v>261</v>
+      </c>
+      <c r="F76" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>65</v>
+      </c>
+      <c r="B77" t="s">
+        <v>74</v>
+      </c>
+      <c r="D77" t="s">
+        <v>281</v>
+      </c>
+      <c r="E77" t="s">
+        <v>262</v>
+      </c>
+      <c r="F77" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>65</v>
+      </c>
+      <c r="B78" t="s">
+        <v>74</v>
+      </c>
+      <c r="D78" t="s">
+        <v>282</v>
+      </c>
+      <c r="E78" t="s">
+        <v>263</v>
+      </c>
+      <c r="F78" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="B79" t="s">
+        <v>56</v>
+      </c>
+      <c r="D79" t="s">
+        <v>146</v>
+      </c>
+      <c r="E79" t="s">
+        <v>264</v>
+      </c>
+      <c r="F79" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="4" t="s">
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>56</v>
+      </c>
+      <c r="B80" t="s">
+        <v>56</v>
+      </c>
+      <c r="D80" t="s">
+        <v>283</v>
+      </c>
+      <c r="E80" t="s">
+        <v>265</v>
+      </c>
+      <c r="F80" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>131</v>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>56</v>
+      </c>
+      <c r="B81" t="s">
+        <v>56</v>
+      </c>
+      <c r="D81" t="s">
+        <v>266</v>
+      </c>
+      <c r="E81" t="s">
+        <v>266</v>
+      </c>
+      <c r="F81" t="s">
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -1369,117 +2952,1422 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{509EC1D2-D913-4E91-BF4A-1B9A2D2D358E}">
-  <dimension ref="A1:C9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C29859C-7358-4E2F-B5CC-7696F1DAC449}">
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="7"/>
-    <col min="2" max="2" width="102.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" customWidth="1"/>
+    <col min="5" max="5" width="64.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="G2" s="4">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>S&amp;P 500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="G3" s="4">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>Russell 2000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>Nasdaq 100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>Dow Jones 30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="D6" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>Eurostoxx 50</v>
+      </c>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>Eurostoxx Banks</v>
+      </c>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>DAX (Germany)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>iShares FTSE United Kingdom ETF</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>iShares MSCI Canada ETF</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>iShares MSCI Spain ETF</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>iShares MSCI Italy ETF</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>CAC 40 (France)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1</v>
+      </c>
+      <c r="H14" s="4" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>Nikkei 225</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1</v>
+      </c>
+      <c r="H15" s="4" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>TOPIX</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+      <c r="H16" s="4" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>iShares China Large-Cap ETF</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1</v>
+      </c>
+      <c r="H17" s="4" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>Xtrackers Harvest CSI 300 China A-Shares ETF</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="D18" s="4"/>
+      <c r="E18" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G18" s="4">
+        <v>1</v>
+      </c>
+      <c r="H18" s="4" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>iShares iBoxx $ Investment Grade Corporate Bond ETF</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="D19" s="4"/>
+      <c r="E19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1</v>
+      </c>
+      <c r="H19" s="4" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>iShares iBoxx $ High Yield Corporate Bond ETF</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1</v>
+      </c>
+      <c r="H20" s="4" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>iShares 1-3 Year Treasury Bond ETF</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G21" s="4">
+        <v>1</v>
+      </c>
+      <c r="H21" s="4" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>iShares 3-7 Year Treasury Bond ETF</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G22" s="4">
+        <v>1</v>
+      </c>
+      <c r="H22" s="4" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>iShares 7-10 Year Treasury Bond ETF</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="G23" s="4">
+        <v>1</v>
+      </c>
+      <c r="H23" s="4" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>iShares 20+ Year Treasury Bond ETF</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G24" s="4">
+        <v>1</v>
+      </c>
+      <c r="H24" s="4" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>iShares TIPS Bond ETF</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0</v>
+      </c>
+      <c r="H25" s="4" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>iShares MBS ETF</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="D26" s="4"/>
+      <c r="E26" t="s">
+        <v>152</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0</v>
+      </c>
+      <c r="H26" s="4" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>Simplify Mortgage Backed Securities ETF</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>38</v>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G27" s="4">
+        <v>1</v>
+      </c>
+      <c r="H27" s="4" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>AGNC Investment Corp.</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G28" s="4">
+        <v>1</v>
+      </c>
+      <c r="H28" s="4" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>iShares J.P. Morgan USD Emerging Markets Bond ETF</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0</v>
+      </c>
+      <c r="H29" s="4" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>WisdomTree Emerging Markets Local Debt Fund</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0</v>
+      </c>
+      <c r="H30" s="4" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>iShares International Government Bonds ETF</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G31" s="4">
+        <v>1</v>
+      </c>
+      <c r="H31" s="4" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>SPDR Gold Shares</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G32" s="4">
+        <v>1</v>
+      </c>
+      <c r="H32" s="4" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>iShares Silver Trust</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G33" s="4">
+        <v>1</v>
+      </c>
+      <c r="H33" s="4" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>United States Oil Fund</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G34" s="4">
+        <v>1</v>
+      </c>
+      <c r="H34" s="4" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>Invesco DB Commodity Index Tracking Fund</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G35" s="4">
+        <v>1</v>
+      </c>
+      <c r="H35" s="4" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>Invesco DB US Dollar Index Bullish Fund</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G36" s="4">
+        <v>1</v>
+      </c>
+      <c r="H36" s="4" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>Invesco CurrencyShares Euro Trust</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G37" s="4">
+        <v>1</v>
+      </c>
+      <c r="H37" s="4" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>Invesco CurrencyShares Japanese Yen Trust</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A08F2F-299B-47F7-8064-36693758F4E3}">
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="44.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="str" cm="1">
+        <f t="array" ref="A2:A31">_xlfn._xlws.FILTER(data[factor_name],data[Active])</f>
+        <v>SPY</v>
+      </c>
+      <c r="B2" t="str" cm="1">
+        <f t="array" ref="B2:D31">INDEX(data[],_xlfn.XMATCH(_xlfn.ANCHORARRAY(A2),data[factor_name]),_xlfn.XMATCH(B1:D1,data[#Headers]))</f>
+        <v>Equities</v>
+      </c>
+      <c r="C2" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D2" t="str">
+        <v>S&amp;P 500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="str">
+        <v>IWM</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C3" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Russell 2000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="str">
+        <v>QQQ</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C4" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Nasdaq 100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="str">
+        <v>DIA</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C5" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Dow Jones 30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="str">
+        <v>FEZ</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C6" t="str">
+        <v>EUR</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Eurostoxx 50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="str">
+        <v>DAX</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C7" t="str">
+        <v>EUR</v>
+      </c>
+      <c r="D7" t="str">
+        <v>DAX (Germany)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
+        <v>EWU</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C8" t="str">
+        <v>EUR</v>
+      </c>
+      <c r="D8" t="str">
+        <v>iShares FTSE United Kingdom ETF</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
+        <v>EWC</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C9" t="str">
+        <v>CAD</v>
+      </c>
+      <c r="D9" t="str">
+        <v>iShares MSCI Canada ETF</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="str">
+        <v>EWI</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C10" t="str">
+        <v>EUR</v>
+      </c>
+      <c r="D10" t="str">
+        <v>iShares MSCI Italy ETF</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="str">
+        <v>CAC</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C11" t="str">
+        <v>EUR</v>
+      </c>
+      <c r="D11" t="str">
+        <v>CAC 40 (France)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="str">
+        <v>^N225</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C12" t="str">
+        <v>JPY</v>
+      </c>
+      <c r="D12" t="str">
+        <v>Nikkei 225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="str">
+        <v>TPX</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C13" t="str">
+        <v>JPY</v>
+      </c>
+      <c r="D13" t="str">
+        <v>TOPIX</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="str">
+        <v>FXI</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C14" t="str">
+        <v>CNH</v>
+      </c>
+      <c r="D14" t="str">
+        <v>iShares China Large-Cap ETF</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="str">
+        <v>ASHR</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C15" t="str">
+        <v>CNH</v>
+      </c>
+      <c r="D15" t="str">
+        <v>Xtrackers Harvest CSI 300 China A-Shares ETF</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="str">
+        <v>LQD</v>
+      </c>
+      <c r="B16" t="str">
+        <v>Credit</v>
+      </c>
+      <c r="C16" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D16" t="str">
+        <v>iShares iBoxx $ Investment Grade Corporate Bond ETF</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="str">
+        <v>HYG</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Credit</v>
+      </c>
+      <c r="C17" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D17" t="str">
+        <v>iShares iBoxx $ High Yield Corporate Bond ETF</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="str">
+        <v>SHY</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Rates</v>
+      </c>
+      <c r="C18" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D18" t="str">
+        <v>iShares 1-3 Year Treasury Bond ETF</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="str">
+        <v>IEI</v>
+      </c>
+      <c r="B19" t="str">
+        <v>Rates</v>
+      </c>
+      <c r="C19" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D19" t="str">
+        <v>iShares 3-7 Year Treasury Bond ETF</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="str">
+        <v>IEF</v>
+      </c>
+      <c r="B20" t="str">
+        <v>Rates</v>
+      </c>
+      <c r="C20" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D20" t="str">
+        <v>iShares 7-10 Year Treasury Bond ETF</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="str">
+        <v>TLT</v>
+      </c>
+      <c r="B21" t="str">
+        <v>Rates</v>
+      </c>
+      <c r="C21" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D21" t="str">
+        <v>iShares 20+ Year Treasury Bond ETF</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="str">
+        <v>TIP</v>
+      </c>
+      <c r="B22" t="str">
+        <v>Rates</v>
+      </c>
+      <c r="C22" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D22" t="str">
+        <v>iShares TIPS Bond ETF</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="str">
+        <v>AGNC</v>
+      </c>
+      <c r="B23" t="str">
+        <v>Rates</v>
+      </c>
+      <c r="C23" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D23" t="str">
+        <v>AGNC Investment Corp.</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="str">
+        <v>EMB</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Rates</v>
+      </c>
+      <c r="C24" t="str">
+        <v>EM</v>
+      </c>
+      <c r="D24" t="str">
+        <v>iShares J.P. Morgan USD Emerging Markets Bond ETF</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="str">
+        <v>GLD</v>
+      </c>
+      <c r="B25" t="str">
+        <v>Commodities</v>
+      </c>
+      <c r="C25" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D25" t="str">
+        <v>SPDR Gold Shares</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="str">
+        <v>SLV</v>
+      </c>
+      <c r="B26" t="str">
+        <v>Commodities</v>
+      </c>
+      <c r="C26" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D26" t="str">
+        <v>iShares Silver Trust</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="str">
+        <v>USO</v>
+      </c>
+      <c r="B27" t="str">
+        <v>Commodities</v>
+      </c>
+      <c r="C27" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D27" t="str">
+        <v>United States Oil Fund</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="str">
+        <v>DBC</v>
+      </c>
+      <c r="B28" t="str">
+        <v>Commodities</v>
+      </c>
+      <c r="C28" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D28" t="str">
+        <v>Invesco DB Commodity Index Tracking Fund</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="str">
+        <v>UUP</v>
+      </c>
+      <c r="B29" t="str">
+        <v>Currencies</v>
+      </c>
+      <c r="C29" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D29" t="str">
+        <v>Invesco DB US Dollar Index Bullish Fund</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="str">
+        <v>FXE</v>
+      </c>
+      <c r="B30" t="str">
+        <v>Currencies</v>
+      </c>
+      <c r="C30" t="str">
+        <v>EUR</v>
+      </c>
+      <c r="D30" t="str">
+        <v>Invesco CurrencyShares Euro Trust</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="str">
+        <v>FXY</v>
+      </c>
+      <c r="B31" t="str">
+        <v>Currencies</v>
+      </c>
+      <c r="C31" t="str">
+        <v>JPY</v>
+      </c>
+      <c r="D31" t="str">
+        <v>Invesco CurrencyShares Japanese Yen Trust</v>
       </c>
     </row>
   </sheetData>
@@ -1487,12 +4375,130 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{509EC1D2-D913-4E91-BF4A-1B9A2D2D358E}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="102.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28B96AA-E903-4E49-8EE7-2DF563672EF4}">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B9"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1521,7 +4527,6 @@
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2"/>
       <c r="D2">
         <v>1</v>
       </c>

--- a/factor_master.xlsx
+++ b/factor_master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bkrai\Source\risk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12026009-65C3-4395-B293-161E1BF448AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A2C053-6576-4853-A63C-8E91E28C9B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{C31FDC5B-A809-4BFD-99CB-DA02246721F7}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="334">
   <si>
     <t>SPX</t>
   </si>
@@ -1040,6 +1040,30 @@
   </si>
   <si>
     <t>^N225</t>
+  </si>
+  <si>
+    <t>factor_name_new</t>
+  </si>
+  <si>
+    <t>TIPS</t>
+  </si>
+  <si>
+    <t>FTSEMIB.MI</t>
+  </si>
+  <si>
+    <t>BTP</t>
+  </si>
+  <si>
+    <t>IBEX</t>
+  </si>
+  <si>
+    <t>^IBEX</t>
+  </si>
+  <si>
+    <t>IBEX 35 (Spain)</t>
+  </si>
+  <si>
+    <t>FTSE MIB (Italy)</t>
   </si>
 </sst>
 </file>
@@ -1092,7 +1116,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1104,15 +1128,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="13">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1188,8 +1214,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Table Style 1" pivot="0" count="2" xr9:uid="{26B58CFA-74FB-41FD-AB02-EC6D3EA4F4A1}">
-      <tableStyleElement type="wholeTable" dxfId="11"/>
-      <tableStyleElement type="headerRow" dxfId="10"/>
+      <tableStyleElement type="wholeTable" dxfId="12"/>
+      <tableStyleElement type="headerRow" dxfId="11"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1204,17 +1230,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6DAD1482-C63D-400D-9F51-F22A8E35CAD8}" name="data" displayName="data" ref="A1:H37" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A1:H37" xr:uid="{6DAD1482-C63D-400D-9F51-F22A8E35CAD8}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{740DC173-AAC9-4239-A44E-C43F8517304D}" name="asset_class" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{A3BC3BB8-0420-458E-AECD-FD567519FA40}" name="region" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{0E50B2E3-0362-41DB-ACC2-478CC6F618A4}" name="factor_name" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{D181BF84-863F-4FD0-B518-14EA5B0FB18E}" name="description_override" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{1C40DF9B-2910-4DE6-A188-563938E39797}" name="Description_GPT" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{1806E074-6CB5-47AB-8FA3-EF0F6E429062}" name="Underlying" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{21539C17-C1CC-4FA9-A0E1-A2F8FF8AB52C}" name="Active" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{5A601067-D384-419C-A711-AD3034F77E28}" name="description" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6DAD1482-C63D-400D-9F51-F22A8E35CAD8}" name="data" displayName="data" ref="A1:I39" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:I39" xr:uid="{6DAD1482-C63D-400D-9F51-F22A8E35CAD8}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{740DC173-AAC9-4239-A44E-C43F8517304D}" name="asset_class" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{A3BC3BB8-0420-458E-AECD-FD567519FA40}" name="region" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{0E50B2E3-0362-41DB-ACC2-478CC6F618A4}" name="factor_name" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{02943B27-7FCB-4450-B8E0-CF0DB6CF5CCA}" name="factor_name_new" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{D181BF84-863F-4FD0-B518-14EA5B0FB18E}" name="description_override" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{1C40DF9B-2910-4DE6-A188-563938E39797}" name="Description_GPT" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{1806E074-6CB5-47AB-8FA3-EF0F6E429062}" name="Underlying" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{21539C17-C1CC-4FA9-A0E1-A2F8FF8AB52C}" name="Active" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{5A601067-D384-419C-A711-AD3034F77E28}" name="description" dataDxfId="1">
       <calculatedColumnFormula>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1541,7 +1568,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC6F81C3-35A2-4C92-A3A4-30A9105A6D5B}">
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2953,49 +2982,53 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C29859C-7358-4E2F-B5CC-7696F1DAC449}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.33203125" customWidth="1"/>
     <col min="2" max="2" width="8.44140625" customWidth="1"/>
-    <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" customWidth="1"/>
-    <col min="5" max="5" width="64.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" customWidth="1"/>
+    <col min="7" max="7" width="64.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>39</v>
       </c>
@@ -3006,23 +3039,26 @@
         <v>4</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="4">
+      <c r="H2" s="4">
         <v>1</v>
       </c>
-      <c r="H2" s="4" t="str">
+      <c r="I2" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>S&amp;P 500</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>39</v>
       </c>
@@ -3033,23 +3069,26 @@
         <v>5</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="4">
+      <c r="H3" s="4">
         <v>1</v>
       </c>
-      <c r="H3" s="4" t="str">
+      <c r="I3" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>Russell 2000</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>39</v>
       </c>
@@ -3060,23 +3099,26 @@
         <v>7</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="4">
+      <c r="H4" s="4">
         <v>1</v>
       </c>
-      <c r="H4" s="4" t="str">
+      <c r="I4" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>Nasdaq 100</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>39</v>
       </c>
@@ -3087,23 +3129,26 @@
         <v>44</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="G5" s="4">
+      <c r="H5" s="4">
         <v>1</v>
       </c>
-      <c r="H5" s="4" t="str">
+      <c r="I5" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>Dow Jones 30</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>39</v>
       </c>
@@ -3114,24 +3159,27 @@
         <v>13</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="4">
+      <c r="H6" s="4">
         <v>1</v>
       </c>
-      <c r="H6" s="4" t="str">
+      <c r="I6" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>Eurostoxx 50</v>
       </c>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>39</v>
       </c>
@@ -3142,72 +3190,79 @@
         <v>156</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="4">
+      <c r="G7" s="4"/>
+      <c r="H7" s="4">
         <v>0</v>
       </c>
-      <c r="H7" s="4" t="str">
+      <c r="I7" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>Eurostoxx Banks</v>
       </c>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>iShares FTSE United Kingdom ETF</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D9" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="G8" s="4">
+      <c r="H9" s="4">
         <v>1</v>
       </c>
-      <c r="H8" s="4" t="str">
+      <c r="I9" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>DAX (Germany)</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="G9" s="4">
-        <v>1</v>
-      </c>
-      <c r="H9" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>iShares FTSE United Kingdom ETF</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>39</v>
       </c>
@@ -3218,21 +3273,22 @@
         <v>89</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="4"/>
+      <c r="F10" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="G10" s="4">
+      <c r="H10" s="4">
         <v>1</v>
       </c>
-      <c r="H10" s="4" t="str">
+      <c r="I10" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>iShares MSCI Canada ETF</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>39</v>
       </c>
@@ -3240,675 +3296,778 @@
         <v>68</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>FTSE MIB (Italy)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1</v>
+      </c>
+      <c r="I12" s="4" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>CAC 40 (France)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1</v>
+      </c>
+      <c r="I13" s="4" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>iShares MSCI Italy ETF</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>IBEX 35 (Spain)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4" t="s">
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="G15" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="G11" s="4">
+      <c r="H15" s="4">
         <v>0</v>
       </c>
-      <c r="H11" s="4" t="str">
+      <c r="I15" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>iShares MSCI Spain ETF</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="G12" s="4">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="H16" s="4">
         <v>1</v>
       </c>
-      <c r="H12" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>iShares MSCI Italy ETF</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G13" s="4">
-        <v>1</v>
-      </c>
-      <c r="H13" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>CAC 40 (France)</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="G14" s="4">
-        <v>1</v>
-      </c>
-      <c r="H14" s="4" t="str">
+      <c r="I16" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>Nikkei 225</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="4" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C17" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D17" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="F17" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="G17" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="G15" s="4">
+      <c r="H17" s="4">
         <v>1</v>
       </c>
-      <c r="H15" s="4" t="str">
+      <c r="I17" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>TOPIX</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="4" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4" t="s">
+      <c r="D18" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="G18" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="G16" s="4">
+      <c r="H18" s="4">
         <v>1</v>
       </c>
-      <c r="H16" s="4" t="str">
+      <c r="I18" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>iShares China Large-Cap ETF</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="4" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4" t="s">
+      <c r="D19" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="G19" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="G17" s="4">
+      <c r="H19" s="4">
         <v>1</v>
       </c>
-      <c r="H17" s="4" t="str">
+      <c r="I19" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>Xtrackers Harvest CSI 300 China A-Shares ETF</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="4" t="s">
+      <c r="B20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4" t="s">
+      <c r="D20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="G20" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="G18" s="4">
+      <c r="H20" s="4">
         <v>1</v>
       </c>
-      <c r="H18" s="4" t="str">
+      <c r="I20" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>iShares iBoxx $ Investment Grade Corporate Bond ETF</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="4" t="s">
+      <c r="B21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4" t="s">
+      <c r="D21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="G21" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="G19" s="4">
+      <c r="H21" s="4">
         <v>1</v>
       </c>
-      <c r="H19" s="4" t="str">
+      <c r="I21" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>iShares iBoxx $ High Yield Corporate Bond ETF</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="4" t="s">
+      <c r="B22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4" t="s">
+      <c r="D22" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="G22" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="G20" s="4">
+      <c r="H22" s="4">
         <v>1</v>
       </c>
-      <c r="H20" s="4" t="str">
+      <c r="I22" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>iShares 1-3 Year Treasury Bond ETF</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="4" t="s">
+      <c r="B23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4" t="s">
+      <c r="D23" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="G23" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="G21" s="4">
+      <c r="H23" s="4">
         <v>1</v>
       </c>
-      <c r="H21" s="4" t="str">
+      <c r="I23" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>iShares 3-7 Year Treasury Bond ETF</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="4" t="s">
+      <c r="B24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4" t="s">
+      <c r="D24" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="G24" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="G22" s="4">
+      <c r="H24" s="4">
         <v>1</v>
       </c>
-      <c r="H22" s="4" t="str">
+      <c r="I24" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>iShares 7-10 Year Treasury Bond ETF</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="4" t="s">
+      <c r="B25" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4" t="s">
+      <c r="D25" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="G25" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G23" s="4">
+      <c r="H25" s="4">
         <v>1</v>
       </c>
-      <c r="H23" s="4" t="str">
+      <c r="I25" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>iShares 20+ Year Treasury Bond ETF</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="4" t="s">
+      <c r="B26" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4" t="s">
+      <c r="D26" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="G26" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="G24" s="4">
+      <c r="H26" s="4">
         <v>1</v>
       </c>
-      <c r="H24" s="4" t="str">
+      <c r="I26" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>iShares TIPS Bond ETF</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="4" t="s">
+      <c r="B27" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4" t="s">
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="G27" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="G25" s="4">
+      <c r="H27" s="4">
         <v>0</v>
       </c>
-      <c r="H25" s="4" t="str">
+      <c r="I27" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>iShares MBS ETF</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="4" t="s">
+      <c r="B28" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="4"/>
-      <c r="E26" t="s">
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" t="s">
         <v>152</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="G28" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="G26" s="4">
+      <c r="H28" s="4">
         <v>0</v>
       </c>
-      <c r="H26" s="4" t="str">
+      <c r="I28" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>Simplify Mortgage Backed Securities ETF</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="4" t="s">
+      <c r="B29" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4" t="s">
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="G29" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="G27" s="4">
+      <c r="H29" s="4">
         <v>1</v>
       </c>
-      <c r="H27" s="4" t="str">
+      <c r="I29" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>AGNC Investment Corp.</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B30" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C30" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4" t="s">
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="G30" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="G28" s="4">
+      <c r="H30" s="4">
         <v>1</v>
       </c>
-      <c r="H28" s="4" t="str">
+      <c r="I30" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>iShares J.P. Morgan USD Emerging Markets Bond ETF</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B31" t="s">
         <v>74</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C31" t="s">
         <v>75</v>
       </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5" t="s">
+      <c r="F31" t="s">
         <v>76</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="G31" t="s">
         <v>114</v>
       </c>
-      <c r="G29" s="4">
+      <c r="H31" s="4">
         <v>0</v>
       </c>
-      <c r="H29" s="4" t="str">
+      <c r="I31" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>WisdomTree Emerging Markets Local Debt Fund</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B32" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C32" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4" t="s">
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="G32" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="G30" s="4">
+      <c r="H32" s="4">
         <v>0</v>
       </c>
-      <c r="H30" s="4" t="str">
+      <c r="I32" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>iShares International Government Bonds ETF</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="4" t="s">
+      <c r="B33" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4" t="s">
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="G33" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="G31" s="4">
+      <c r="H33" s="4">
         <v>1</v>
       </c>
-      <c r="H31" s="4" t="str">
+      <c r="I33" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>SPDR Gold Shares</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="4" t="s">
+      <c r="B34" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4" t="s">
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="G34" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="G32" s="4">
+      <c r="H34" s="4">
         <v>1</v>
       </c>
-      <c r="H32" s="4" t="str">
+      <c r="I34" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>iShares Silver Trust</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" s="4" t="s">
+      <c r="B35" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4" t="s">
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="G35" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="G33" s="4">
+      <c r="H35" s="4">
         <v>1</v>
       </c>
-      <c r="H33" s="4" t="str">
+      <c r="I35" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>United States Oil Fund</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34" s="4" t="s">
+      <c r="B36" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4" t="s">
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="G36" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="G34" s="4">
+      <c r="H36" s="4">
         <v>1</v>
       </c>
-      <c r="H34" s="4" t="str">
+      <c r="I36" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>Invesco DB Commodity Index Tracking Fund</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35" s="4" t="s">
+      <c r="B37" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4" t="s">
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="G37" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="G35" s="4">
+      <c r="H37" s="4">
         <v>1</v>
       </c>
-      <c r="H35" s="4" t="str">
+      <c r="I37" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>Invesco DB US Dollar Index Bullish Fund</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B38" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C38" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4" t="s">
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="G38" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="G36" s="4">
+      <c r="H38" s="4">
         <v>1</v>
       </c>
-      <c r="H36" s="4" t="str">
+      <c r="I38" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>Invesco CurrencyShares Euro Trust</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>65</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B39" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C39" t="s">
         <v>72</v>
       </c>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5" t="s">
+      <c r="F39" t="s">
         <v>73</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="G39" t="s">
         <v>113</v>
       </c>
-      <c r="G37" s="4">
+      <c r="H39" s="4">
         <v>1</v>
       </c>
-      <c r="H37" s="4" t="str">
+      <c r="I39" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>Invesco CurrencyShares Japanese Yen Trust</v>
       </c>
@@ -3926,7 +4085,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4022,21 +4181,21 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
-        <v>DAX</v>
+        <v>EWU</v>
       </c>
       <c r="B7" t="str">
         <v>Equities</v>
       </c>
       <c r="C7" t="str">
-        <v>EUR</v>
+        <v>GBP</v>
       </c>
       <c r="D7" t="str">
-        <v>DAX (Germany)</v>
+        <v>iShares FTSE United Kingdom ETF</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
-        <v>EWU</v>
+        <v>DAX</v>
       </c>
       <c r="B8" t="str">
         <v>Equities</v>
@@ -4045,7 +4204,7 @@
         <v>EUR</v>
       </c>
       <c r="D8" t="str">
-        <v>iShares FTSE United Kingdom ETF</v>
+        <v>DAX (Germany)</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -4064,7 +4223,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
-        <v>EWI</v>
+        <v>CAC</v>
       </c>
       <c r="B10" t="str">
         <v>Equities</v>
@@ -4073,12 +4232,12 @@
         <v>EUR</v>
       </c>
       <c r="D10" t="str">
-        <v>iShares MSCI Italy ETF</v>
+        <v>CAC 40 (France)</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
-        <v>CAC</v>
+        <v>EWI</v>
       </c>
       <c r="B11" t="str">
         <v>Equities</v>
@@ -4087,7 +4246,7 @@
         <v>EUR</v>
       </c>
       <c r="D11" t="str">
-        <v>CAC 40 (France)</v>
+        <v>iShares MSCI Italy ETF</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">

--- a/factor_master.xlsx
+++ b/factor_master.xlsx
@@ -8,16 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bkrai\Source\risk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A2C053-6576-4853-A63C-8E91E28C9B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EACEFE12-EE88-4375-96A0-DDFCC1D24F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{C31FDC5B-A809-4BFD-99CB-DA02246721F7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="6" xr2:uid="{C31FDC5B-A809-4BFD-99CB-DA02246721F7}"/>
   </bookViews>
   <sheets>
     <sheet name="legacy" sheetId="5" r:id="rId1"/>
-    <sheet name="data" sheetId="3" r:id="rId2"/>
-    <sheet name="read" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId4"/>
-    <sheet name="read_old" sheetId="1" r:id="rId5"/>
+    <sheet name="gpt" sheetId="6" r:id="rId2"/>
+    <sheet name="data_new" sheetId="7" r:id="rId3"/>
+    <sheet name="lior" sheetId="9" r:id="rId4"/>
+    <sheet name="data" sheetId="3" r:id="rId5"/>
+    <sheet name="data_old" sheetId="8" r:id="rId6"/>
+    <sheet name="read" sheetId="4" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId8"/>
+    <sheet name="read_old" sheetId="1" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,9 +44,10 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
@@ -53,16 +58,30 @@
       </extLst>
     </bk>
   </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="428">
   <si>
     <t>SPX</t>
   </si>
@@ -598,9 +617,6 @@
     <t>XLC</t>
   </si>
   <si>
-    <t>XL</t>
-  </si>
-  <si>
     <t>XLY</t>
   </si>
   <si>
@@ -1064,13 +1080,298 @@
   </si>
   <si>
     <t>FTSE MIB (Italy)</t>
+  </si>
+  <si>
+    <t>tip</t>
+  </si>
+  <si>
+    <t>vtip</t>
+  </si>
+  <si>
+    <t>cmbs</t>
+  </si>
+  <si>
+    <t>vmbs</t>
+  </si>
+  <si>
+    <t>gld</t>
+  </si>
+  <si>
+    <t>lqd</t>
+  </si>
+  <si>
+    <t>lqdh</t>
+  </si>
+  <si>
+    <t>hyg</t>
+  </si>
+  <si>
+    <t>hygh</t>
+  </si>
+  <si>
+    <t>XLE</t>
+  </si>
+  <si>
+    <t>Emhy mdy vnq pff ashr kweb fxi aiq</t>
+  </si>
+  <si>
+    <t>VTIP</t>
+  </si>
+  <si>
+    <t>CMBS</t>
+  </si>
+  <si>
+    <t>VMBS</t>
+  </si>
+  <si>
+    <t>LQDH</t>
+  </si>
+  <si>
+    <t>HYGH</t>
+  </si>
+  <si>
+    <t>EMHY</t>
+  </si>
+  <si>
+    <t>Emhy</t>
+  </si>
+  <si>
+    <t>mdy</t>
+  </si>
+  <si>
+    <t>vnq</t>
+  </si>
+  <si>
+    <t>pff</t>
+  </si>
+  <si>
+    <t>ashr</t>
+  </si>
+  <si>
+    <t>kweb</t>
+  </si>
+  <si>
+    <t>fxi</t>
+  </si>
+  <si>
+    <t>aiq</t>
+  </si>
+  <si>
+    <t>Asset Class</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Ticker</t>
+  </si>
+  <si>
+    <t>MDY</t>
+  </si>
+  <si>
+    <t>SPDR S&amp;P MidCap 400 ETF Trust</t>
+  </si>
+  <si>
+    <t>S&amp;P MidCap 400 Index</t>
+  </si>
+  <si>
+    <t>VNQ</t>
+  </si>
+  <si>
+    <t>Vanguard Real Estate ETF</t>
+  </si>
+  <si>
+    <t>MSCI US REIT Index</t>
+  </si>
+  <si>
+    <t>PFF</t>
+  </si>
+  <si>
+    <t>iShares Preferred and Income Securities ETF</t>
+  </si>
+  <si>
+    <t>U.S. preferred stocks</t>
+  </si>
+  <si>
+    <t>Technology Select Sector SPDR Fund</t>
+  </si>
+  <si>
+    <t>U.S. technology sector</t>
+  </si>
+  <si>
+    <t>Industrial Select Sector SPDR Fund</t>
+  </si>
+  <si>
+    <t>U.S. industrial sector</t>
+  </si>
+  <si>
+    <t>Financial Select Sector SPDR Fund</t>
+  </si>
+  <si>
+    <t>U.S. financial sector</t>
+  </si>
+  <si>
+    <t>SPDR S&amp;P Regional Banking ETF</t>
+  </si>
+  <si>
+    <t>U.S. regional banking sector</t>
+  </si>
+  <si>
+    <t>Communication Services Select Sector SPDR</t>
+  </si>
+  <si>
+    <t>U.S. communication services sector</t>
+  </si>
+  <si>
+    <t>Energy Select Sector SPDR Fund</t>
+  </si>
+  <si>
+    <t>U.S. energy sector</t>
+  </si>
+  <si>
+    <t>Consumer Discretionary Select Sector SPDR</t>
+  </si>
+  <si>
+    <t>U.S. consumer discretionary sector</t>
+  </si>
+  <si>
+    <t>Materials Select Sector SPDR Fund</t>
+  </si>
+  <si>
+    <t>U.S. materials sector</t>
+  </si>
+  <si>
+    <t>Health Care Select Sector SPDR Fund</t>
+  </si>
+  <si>
+    <t>U.S. healthcare sector</t>
+  </si>
+  <si>
+    <t>Utilities Select Sector SPDR Fund</t>
+  </si>
+  <si>
+    <t>U.S. utilities sector</t>
+  </si>
+  <si>
+    <t>Consumer Staples Select Sector SPDR Fund</t>
+  </si>
+  <si>
+    <t>U.S. consumer staples sector</t>
+  </si>
+  <si>
+    <t>iShares U.S. Real Estate ETF</t>
+  </si>
+  <si>
+    <t>U.S. real estate</t>
+  </si>
+  <si>
+    <t>iShares STOXX Europe 600 Banks</t>
+  </si>
+  <si>
+    <t>STOXX Europe 600 Banks Index</t>
+  </si>
+  <si>
+    <t>FTSE 100 Index</t>
+  </si>
+  <si>
+    <t>FTSE MIB Index for Italy</t>
+  </si>
+  <si>
+    <t>IBEX 35 ETF</t>
+  </si>
+  <si>
+    <t>IBEX 35 Index for Spain</t>
+  </si>
+  <si>
+    <t>KWEB</t>
+  </si>
+  <si>
+    <t>KraneShares CSI China Internet ETF</t>
+  </si>
+  <si>
+    <t>Chinese internet sector</t>
+  </si>
+  <si>
+    <t>AIQ</t>
+  </si>
+  <si>
+    <t>Global X Artificial Intelligence &amp; Technology ETF</t>
+  </si>
+  <si>
+    <t>Global AI and technology companies</t>
+  </si>
+  <si>
+    <t>iShares Interest Rate Hedged Corporate Bond ETF</t>
+  </si>
+  <si>
+    <t>Interest rate-hedged corporate bonds</t>
+  </si>
+  <si>
+    <t>iShares Interest Rate Hedged High Yield Bond ETF</t>
+  </si>
+  <si>
+    <t>Interest rate-hedged high-yield bonds</t>
+  </si>
+  <si>
+    <t>iShares Emerging Markets High Yield Bond ETF</t>
+  </si>
+  <si>
+    <t>High-yield emerging market bonds</t>
+  </si>
+  <si>
+    <t>Vanguard Short-Term Inflation-Protected Securities ETF</t>
+  </si>
+  <si>
+    <t>Short-term TIPS</t>
+  </si>
+  <si>
+    <t>Mortgage-backed securities (MBS)</t>
+  </si>
+  <si>
+    <t>Vanguard Mortgage-Backed Securities ETF</t>
+  </si>
+  <si>
+    <t>Mortgage-backed securities</t>
+  </si>
+  <si>
+    <t>iShares CMBS ETF</t>
+  </si>
+  <si>
+    <t>Commercial mortgage-backed securities</t>
+  </si>
+  <si>
+    <t>U.S. dollar-denominated emerging market bonds</t>
+  </si>
+  <si>
+    <t>S&amp;P 400</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>Real Estate 2</t>
+  </si>
+  <si>
+    <t>Preferred</t>
+  </si>
+  <si>
+    <t>MCAP</t>
+  </si>
+  <si>
+    <t>Sector</t>
+  </si>
+  <si>
+    <t>IGB</t>
+  </si>
+  <si>
+    <t>HYB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1086,13 +1387,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1116,7 +1429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1131,16 +1444,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="24">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1214,8 +1585,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Table Style 1" pivot="0" count="2" xr9:uid="{26B58CFA-74FB-41FD-AB02-EC6D3EA4F4A1}">
-      <tableStyleElement type="wholeTable" dxfId="12"/>
-      <tableStyleElement type="headerRow" dxfId="11"/>
+      <tableStyleElement type="wholeTable" dxfId="23"/>
+      <tableStyleElement type="headerRow" dxfId="22"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1229,20 +1600,98 @@
 </styleSheet>
 </file>
 
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <rv s="0">
+    <v>13</v>
+    <v>3</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_error">
+    <k n="errorType" t="i"/>
+    <k n="subType" t="i"/>
+  </s>
+</rvStructures>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6DAD1482-C63D-400D-9F51-F22A8E35CAD8}" name="data" displayName="data" ref="A1:I39" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A1:I39" xr:uid="{6DAD1482-C63D-400D-9F51-F22A8E35CAD8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6DAD1482-C63D-400D-9F51-F22A8E35CAD8}" name="data" displayName="data" ref="A1:I62" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+  <autoFilter ref="A1:I62" xr:uid="{6DAD1482-C63D-400D-9F51-F22A8E35CAD8}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{740DC173-AAC9-4239-A44E-C43F8517304D}" name="asset_class" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{A3BC3BB8-0420-458E-AECD-FD567519FA40}" name="region" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{0E50B2E3-0362-41DB-ACC2-478CC6F618A4}" name="factor_name" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{02943B27-7FCB-4450-B8E0-CF0DB6CF5CCA}" name="factor_name_new" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{D181BF84-863F-4FD0-B518-14EA5B0FB18E}" name="description_override" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{1C40DF9B-2910-4DE6-A188-563938E39797}" name="Description_GPT" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{1806E074-6CB5-47AB-8FA3-EF0F6E429062}" name="Underlying" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{21539C17-C1CC-4FA9-A0E1-A2F8FF8AB52C}" name="Active" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{5A601067-D384-419C-A711-AD3034F77E28}" name="description" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{740DC173-AAC9-4239-A44E-C43F8517304D}" name="asset_class" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{A3BC3BB8-0420-458E-AECD-FD567519FA40}" name="region" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{0E50B2E3-0362-41DB-ACC2-478CC6F618A4}" name="factor_name" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{02943B27-7FCB-4450-B8E0-CF0DB6CF5CCA}" name="factor_name_new" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{D181BF84-863F-4FD0-B518-14EA5B0FB18E}" name="description_override" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{1C40DF9B-2910-4DE6-A188-563938E39797}" name="Description_GPT" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{1806E074-6CB5-47AB-8FA3-EF0F6E429062}" name="Underlying" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{21539C17-C1CC-4FA9-A0E1-A2F8FF8AB52C}" name="Active" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{5A601067-D384-419C-A711-AD3034F77E28}" name="description" dataDxfId="11">
       <calculatedColumnFormula>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F918301C-859F-40B7-9C3E-90E8F0495E68}" name="data_old" displayName="data_old" ref="A1:I45" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:I45" xr:uid="{6DAD1482-C63D-400D-9F51-F22A8E35CAD8}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{B19D2B17-9AC9-4F1B-B32E-D4F72AAE469F}" name="asset_class" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{2C7CF29D-8E72-4B0C-A212-31F2A25D75C9}" name="region" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{C7E89EEC-2B5D-4C94-9327-1AC8E33DE708}" name="factor_name" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{B3F9004A-8BEB-463E-A746-8189A2AC2B3E}" name="factor_name_new" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{51CD7FB3-58FE-4906-B73C-7726C0A9C471}" name="description_override" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{3CFF990B-3164-4533-821F-08CE7C6D82CA}" name="Description_GPT" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{DD86D53E-A9B4-4387-ABF9-F2625E77982D}" name="Underlying" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{D56FFF9A-72FF-42A4-B3D2-2F27AB16AF7A}" name="Active" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{8476DFDE-B4B1-4FD9-99B4-DF1F2ABBD7D5}" name="description" dataDxfId="0">
+      <calculatedColumnFormula>IF(data_old[[#This Row],[description_override]]="",data_old[[#This Row],[Description_GPT]],data_old[[#This Row],[description_override]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1568,8 +2017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC6F81C3-35A2-4C92-A3A4-30A9105A6D5B}">
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView showGridLines="0" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1579,13 +2028,13 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B1" t="s">
         <v>316</v>
       </c>
-      <c r="B1" t="s">
-        <v>317</v>
-      </c>
       <c r="C1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D1" t="s">
         <v>19</v>
@@ -1594,7 +2043,7 @@
         <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1654,7 +2103,7 @@
         <v>172</v>
       </c>
       <c r="F4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -1705,7 +2154,7 @@
         <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D7" t="s">
         <v>160</v>
@@ -1725,7 +2174,7 @@
         <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D8" t="s">
         <v>161</v>
@@ -1745,7 +2194,7 @@
         <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D9" t="s">
         <v>162</v>
@@ -1768,7 +2217,7 @@
         <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D10" t="s">
         <v>163</v>
@@ -1788,16 +2237,16 @@
         <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D11" t="s">
         <v>164</v>
       </c>
       <c r="E11" t="s">
-        <v>178</v>
+        <v>342</v>
       </c>
       <c r="F11" t="s">
-        <v>178</v>
+        <v>342</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -1808,16 +2257,16 @@
         <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D12" t="s">
         <v>165</v>
       </c>
       <c r="E12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1828,16 +2277,16 @@
         <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D13" t="s">
         <v>166</v>
       </c>
       <c r="E13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1848,16 +2297,16 @@
         <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D14" t="s">
         <v>167</v>
       </c>
       <c r="E14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1868,16 +2317,16 @@
         <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D15" t="s">
         <v>168</v>
       </c>
       <c r="E15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1891,10 +2340,10 @@
         <v>169</v>
       </c>
       <c r="E16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1908,10 +2357,10 @@
         <v>170</v>
       </c>
       <c r="E17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1925,10 +2374,10 @@
         <v>171</v>
       </c>
       <c r="E18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -2007,13 +2456,13 @@
         <v>68</v>
       </c>
       <c r="D23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F23" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -2024,7 +2473,7 @@
         <v>71</v>
       </c>
       <c r="D24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E24" t="s">
         <v>77</v>
@@ -2041,7 +2490,7 @@
         <v>71</v>
       </c>
       <c r="D25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E25" t="s">
         <v>142</v>
@@ -2058,13 +2507,13 @@
         <v>74</v>
       </c>
       <c r="D26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E26" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F26" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -2075,13 +2524,13 @@
         <v>74</v>
       </c>
       <c r="D27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F27" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -2092,13 +2541,13 @@
         <v>74</v>
       </c>
       <c r="D28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E28" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F28" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -2109,13 +2558,13 @@
         <v>74</v>
       </c>
       <c r="D29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E29" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F29" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2129,7 +2578,7 @@
         <v>74</v>
       </c>
       <c r="D30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E30" t="s">
         <v>82</v>
@@ -2146,7 +2595,7 @@
         <v>74</v>
       </c>
       <c r="D31" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E31" t="s">
         <v>80</v>
@@ -2163,13 +2612,13 @@
         <v>74</v>
       </c>
       <c r="D32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -2180,13 +2629,13 @@
         <v>40</v>
       </c>
       <c r="D33" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E33" t="s">
         <v>9</v>
       </c>
       <c r="F33" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -2197,13 +2646,13 @@
         <v>40</v>
       </c>
       <c r="D34" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E34" t="s">
         <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -2214,7 +2663,7 @@
         <v>40</v>
       </c>
       <c r="D35" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E35" t="s">
         <v>10</v>
@@ -2231,7 +2680,7 @@
         <v>40</v>
       </c>
       <c r="D36" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E36" t="s">
         <v>12</v>
@@ -2248,13 +2697,13 @@
         <v>40</v>
       </c>
       <c r="D37" t="s">
+        <v>204</v>
+      </c>
+      <c r="E37" t="s">
         <v>205</v>
       </c>
-      <c r="E37" t="s">
-        <v>206</v>
-      </c>
       <c r="F37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -2268,13 +2717,13 @@
         <v>68</v>
       </c>
       <c r="D38" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E38" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F38" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -2285,13 +2734,13 @@
         <v>68</v>
       </c>
       <c r="D39" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F39" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -2302,13 +2751,13 @@
         <v>68</v>
       </c>
       <c r="D40" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E40" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F40" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -2319,13 +2768,13 @@
         <v>40</v>
       </c>
       <c r="D41" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E41" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F41" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -2336,7 +2785,7 @@
         <v>40</v>
       </c>
       <c r="D42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E42" t="s">
         <v>51</v>
@@ -2356,7 +2805,7 @@
         <v>40</v>
       </c>
       <c r="D43" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E43" t="s">
         <v>131</v>
@@ -2373,7 +2822,7 @@
         <v>40</v>
       </c>
       <c r="D44" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E44" t="s">
         <v>49</v>
@@ -2390,7 +2839,7 @@
         <v>40</v>
       </c>
       <c r="D45" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E45" t="s">
         <v>135</v>
@@ -2407,13 +2856,13 @@
         <v>40</v>
       </c>
       <c r="D46" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E46" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F46" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -2424,10 +2873,10 @@
         <v>40</v>
       </c>
       <c r="D47" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E47" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -2438,10 +2887,10 @@
         <v>40</v>
       </c>
       <c r="D48" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E48" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -2452,10 +2901,10 @@
         <v>40</v>
       </c>
       <c r="D49" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E49" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -2466,10 +2915,10 @@
         <v>40</v>
       </c>
       <c r="D50" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E50" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -2480,10 +2929,10 @@
         <v>40</v>
       </c>
       <c r="D51" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -2494,10 +2943,10 @@
         <v>68</v>
       </c>
       <c r="D52" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E52" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -2508,10 +2957,10 @@
         <v>68</v>
       </c>
       <c r="D53" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E53" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -2522,10 +2971,10 @@
         <v>68</v>
       </c>
       <c r="D54" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E54" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -2536,10 +2985,10 @@
         <v>68</v>
       </c>
       <c r="D55" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E55" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -2550,10 +2999,10 @@
         <v>68</v>
       </c>
       <c r="D56" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E56" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -2561,13 +3010,13 @@
         <v>128</v>
       </c>
       <c r="B57" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D57" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E57" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -2575,13 +3024,13 @@
         <v>128</v>
       </c>
       <c r="B58" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D58" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E58" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -2589,13 +3038,13 @@
         <v>128</v>
       </c>
       <c r="B59" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D59" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E59" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -2603,13 +3052,13 @@
         <v>128</v>
       </c>
       <c r="B60" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D60" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E60" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -2617,13 +3066,13 @@
         <v>128</v>
       </c>
       <c r="B61" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D61" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E61" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -2631,7 +3080,7 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D62" t="s">
         <v>147</v>
@@ -2640,7 +3089,7 @@
         <v>68</v>
       </c>
       <c r="F62" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -2648,16 +3097,16 @@
         <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D63" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E63" t="s">
         <v>71</v>
       </c>
       <c r="F63" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -2665,16 +3114,16 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D64" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E64" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F64" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
@@ -2682,16 +3131,16 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D65" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E65" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F65" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
@@ -2699,16 +3148,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
+        <v>251</v>
+      </c>
+      <c r="D66" t="s">
+        <v>269</v>
+      </c>
+      <c r="E66" t="s">
         <v>252</v>
       </c>
-      <c r="D66" t="s">
-        <v>270</v>
-      </c>
-      <c r="E66" t="s">
-        <v>253</v>
-      </c>
       <c r="F66" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
@@ -2716,16 +3165,16 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D67" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E67" t="s">
         <v>88</v>
       </c>
       <c r="F67" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
@@ -2733,16 +3182,16 @@
         <v>65</v>
       </c>
       <c r="B68" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D68" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F68" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
@@ -2750,16 +3199,16 @@
         <v>65</v>
       </c>
       <c r="B69" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D69" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E69" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F69" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
@@ -2767,16 +3216,16 @@
         <v>65</v>
       </c>
       <c r="B70" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D70" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E70" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F70" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
@@ -2784,16 +3233,16 @@
         <v>65</v>
       </c>
       <c r="B71" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D71" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E71" t="s">
         <v>79</v>
       </c>
       <c r="F71" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
@@ -2801,16 +3250,16 @@
         <v>65</v>
       </c>
       <c r="B72" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D72" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E72" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F72" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -2821,16 +3270,16 @@
         <v>65</v>
       </c>
       <c r="B73" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D73" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E73" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F73" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -2841,16 +3290,16 @@
         <v>65</v>
       </c>
       <c r="B74" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D74" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E74" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F74" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -2864,13 +3313,13 @@
         <v>74</v>
       </c>
       <c r="D75" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E75" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F75" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
@@ -2881,13 +3330,13 @@
         <v>74</v>
       </c>
       <c r="D76" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E76" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F76" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
@@ -2898,13 +3347,13 @@
         <v>74</v>
       </c>
       <c r="D77" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E77" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F77" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
@@ -2915,13 +3364,13 @@
         <v>74</v>
       </c>
       <c r="D78" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E78" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F78" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
@@ -2935,7 +3384,7 @@
         <v>146</v>
       </c>
       <c r="E79" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F79" t="s">
         <v>57</v>
@@ -2949,10 +3398,10 @@
         <v>56</v>
       </c>
       <c r="D80" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E80" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F80" t="s">
         <v>61</v>
@@ -2966,13 +3415,13 @@
         <v>56</v>
       </c>
       <c r="D81" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E81" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F81" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -2981,12 +3430,4725 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D44DBA8-A8E6-40E1-8916-CA07A080AF7C}">
+  <dimension ref="A1:E61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A8E9F76-5104-49FC-BB43-6F7BA8306F2B}">
+  <dimension ref="A5:O65"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="44.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="13" width="10.33203125" customWidth="1"/>
+    <col min="14" max="14" width="44.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="45.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="45.77734375" customWidth="1"/>
+    <col min="19" max="19" width="45.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" cm="1">
+        <f t="array" ref="A5:A65">_xlfn.XMATCH(C5:C65,data[factor_name])</f>
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="str" cm="1">
+        <f t="array" ref="D5:D65">IF(G5:G65&lt;&gt;0,G5:G65,_xlfn.XLOOKUP(C5:C65,data[factor_name],data[description]))</f>
+        <v>S&amp;P 500</v>
+      </c>
+      <c r="E5" t="str" cm="1">
+        <f t="array" ref="E5:E65">IF(ISERROR(_xlfn.ANCHORARRAY(M5)),#N/A,IFERROR(_xlfn.ANCHORARRAY(N5),_xlfn.ANCHORARRAY(O5)))</f>
+        <v>SPDR S&amp;P 500 ETF Trust</v>
+      </c>
+      <c r="F5" t="e" cm="1">
+        <f t="array" ref="F5:F65">_xlfn.XLOOKUP(C5:C65,legacy!E2:E81,legacy!D2:D81)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="M5" t="b" cm="1">
+        <f t="array" ref="M5:M65">IFERROR(_xlfn.ANCHORARRAY(N5)&lt;&gt;_xlfn.ANCHORARRAY(O5),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N5" t="str" cm="1">
+        <f t="array" ref="N5:N65">_xlfn.LET(_xlpm.x,_xlfn.XLOOKUP(C5:C65,data[factor_name],data[Description_GPT]),IF(_xlpm.x=0,#N/A,_xlpm.x))</f>
+        <v>SPDR S&amp;P 500 ETF Trust</v>
+      </c>
+      <c r="O5" t="str" cm="1">
+        <f t="array" ref="O5:O65">_xlfn.XLOOKUP(C5:C65,gpt!C2:C61,gpt!D2:D61)</f>
+        <v>SPDR S&amp;P 500 ETF Trust</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>361</v>
+      </c>
+      <c r="D6" t="str">
+        <v>S&amp;P 400</v>
+      </c>
+      <c r="E6" t="str">
+        <v>SPDR S&amp;P MidCap 400 ETF Trust</v>
+      </c>
+      <c r="F6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="M6" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" t="str">
+        <v>SPDR S&amp;P MidCap 400 ETF Trust</v>
+      </c>
+      <c r="O6" t="str">
+        <v>SPDR S&amp;P MidCap 400 ETF Trust</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Russell 2000</v>
+      </c>
+      <c r="E7" t="str">
+        <v>iShares Russell 2000 ETF</v>
+      </c>
+      <c r="F7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="M7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" t="str">
+        <v>iShares Russell 2000 ETF</v>
+      </c>
+      <c r="O7" t="str">
+        <v>iShares Russell 2000 ETF</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Nasdaq 100</v>
+      </c>
+      <c r="E8" t="str">
+        <v>Invesco QQQ Trust</v>
+      </c>
+      <c r="F8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="M8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" t="str">
+        <v>Invesco QQQ Trust</v>
+      </c>
+      <c r="O8" t="str">
+        <v>Invesco QQQ Trust</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Dow Jones 30</v>
+      </c>
+      <c r="E9" t="str">
+        <v>SPDR Dow Jones Industrial Average ETF Trust</v>
+      </c>
+      <c r="F9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="M9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N9" t="str">
+        <v>SPDR Dow Jones Industrial Average ETF Trust</v>
+      </c>
+      <c r="O9" t="str">
+        <v>SPDR Dow Jones Industrial Average ETF Trust</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>173</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Technology</v>
+      </c>
+      <c r="E10" t="str">
+        <v>Technology Select Sector SPDR Fund</v>
+      </c>
+      <c r="F10" t="str">
+        <v>Technology</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="M10" t="b">
+        <v>0</v>
+      </c>
+      <c r="N10" t="str">
+        <v>Technology Select Sector SPDR Fund</v>
+      </c>
+      <c r="O10" t="str">
+        <v>Technology Select Sector SPDR Fund</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Industrials</v>
+      </c>
+      <c r="E11" t="str">
+        <v>Industrial Select Sector SPDR Fund</v>
+      </c>
+      <c r="F11" t="str">
+        <v>Industrials</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="M11" t="b">
+        <v>0</v>
+      </c>
+      <c r="N11" t="str">
+        <v>Industrial Select Sector SPDR Fund</v>
+      </c>
+      <c r="O11" t="str">
+        <v>Industrial Select Sector SPDR Fund</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D12" t="str">
+        <v>Financials</v>
+      </c>
+      <c r="E12" t="str">
+        <v>Financial Select Sector SPDR Fund</v>
+      </c>
+      <c r="F12" t="str">
+        <v>Financials</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="M12" t="b">
+        <v>0</v>
+      </c>
+      <c r="N12" t="str">
+        <v>Financial Select Sector SPDR Fund</v>
+      </c>
+      <c r="O12" t="str">
+        <v>Financial Select Sector SPDR Fund</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>176</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Regional Banks</v>
+      </c>
+      <c r="E13" t="str">
+        <v>SPDR S&amp;P Regional Banking ETF</v>
+      </c>
+      <c r="F13" t="str">
+        <v>Regional Banks</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="M13" t="b">
+        <v>0</v>
+      </c>
+      <c r="N13" t="str">
+        <v>SPDR S&amp;P Regional Banking ETF</v>
+      </c>
+      <c r="O13" t="str">
+        <v>SPDR S&amp;P Regional Banking ETF</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>177</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Communications</v>
+      </c>
+      <c r="E14" t="str">
+        <v>Communication Services Select Sector SPDR</v>
+      </c>
+      <c r="F14" t="str">
+        <v>Communications</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="M14" t="b">
+        <v>0</v>
+      </c>
+      <c r="N14" t="str">
+        <v>Communication Services Select Sector SPDR</v>
+      </c>
+      <c r="O14" t="str">
+        <v>Communication Services Select Sector SPDR</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>342</v>
+      </c>
+      <c r="D15" t="str">
+        <v>Energy</v>
+      </c>
+      <c r="E15" t="str">
+        <v>Energy Select Sector SPDR Fund</v>
+      </c>
+      <c r="F15" t="str">
+        <v>Energy</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="M15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N15" t="str">
+        <v>Energy Select Sector SPDR Fund</v>
+      </c>
+      <c r="O15" t="str">
+        <v>Energy Select Sector SPDR Fund</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>178</v>
+      </c>
+      <c r="D16" t="str">
+        <v>Discretionary</v>
+      </c>
+      <c r="E16" t="str">
+        <v>Consumer Discretionary Select Sector SPDR</v>
+      </c>
+      <c r="F16" t="str">
+        <v>Discretionary</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="M16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N16" t="str">
+        <v>Consumer Discretionary Select Sector SPDR</v>
+      </c>
+      <c r="O16" t="str">
+        <v>Consumer Discretionary Select Sector SPDR</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>179</v>
+      </c>
+      <c r="D17" t="str">
+        <v>Materials</v>
+      </c>
+      <c r="E17" t="str">
+        <v>Materials Select Sector SPDR Fund</v>
+      </c>
+      <c r="F17" t="str">
+        <v>Materials</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="M17" t="b">
+        <v>0</v>
+      </c>
+      <c r="N17" t="str">
+        <v>Materials Select Sector SPDR Fund</v>
+      </c>
+      <c r="O17" t="str">
+        <v>Materials Select Sector SPDR Fund</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>180</v>
+      </c>
+      <c r="D18" t="str">
+        <v>Health Care</v>
+      </c>
+      <c r="E18" t="str">
+        <v>Health Care Select Sector SPDR Fund</v>
+      </c>
+      <c r="F18" t="str">
+        <v>Health Care</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="M18" t="b">
+        <v>0</v>
+      </c>
+      <c r="N18" t="str">
+        <v>Health Care Select Sector SPDR Fund</v>
+      </c>
+      <c r="O18" t="str">
+        <v>Health Care Select Sector SPDR Fund</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D19" t="str">
+        <v>Utilities</v>
+      </c>
+      <c r="E19" t="str">
+        <v>Utilities Select Sector SPDR Fund</v>
+      </c>
+      <c r="F19" t="str">
+        <v>Utilities</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="M19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N19" t="str">
+        <v>Utilities Select Sector SPDR Fund</v>
+      </c>
+      <c r="O19" t="str">
+        <v>Utilities Select Sector SPDR Fund</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>182</v>
+      </c>
+      <c r="D20" t="str">
+        <v>Staples</v>
+      </c>
+      <c r="E20" t="str">
+        <v>Consumer Staples Select Sector SPDR Fund</v>
+      </c>
+      <c r="F20" t="str">
+        <v>Staples</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="M20" t="b">
+        <v>0</v>
+      </c>
+      <c r="N20" t="str">
+        <v>Consumer Staples Select Sector SPDR Fund</v>
+      </c>
+      <c r="O20" t="str">
+        <v>Consumer Staples Select Sector SPDR Fund</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
+        <v>285</v>
+      </c>
+      <c r="D21" t="str">
+        <v>Real Estate</v>
+      </c>
+      <c r="E21" t="str">
+        <v>iShares U.S. Real Estate ETF</v>
+      </c>
+      <c r="F21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="M21" t="b">
+        <v>0</v>
+      </c>
+      <c r="N21" t="str">
+        <v>iShares U.S. Real Estate ETF</v>
+      </c>
+      <c r="O21" t="str">
+        <v>iShares U.S. Real Estate ETF</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
+        <v>364</v>
+      </c>
+      <c r="D22" t="str">
+        <v>Real Estate 2</v>
+      </c>
+      <c r="E22" t="str">
+        <v>Vanguard Real Estate ETF</v>
+      </c>
+      <c r="F22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="M22" t="b">
+        <v>0</v>
+      </c>
+      <c r="N22" t="str">
+        <v>Vanguard Real Estate ETF</v>
+      </c>
+      <c r="O22" t="str">
+        <v>Vanguard Real Estate ETF</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>403</v>
+      </c>
+      <c r="D23" t="str">
+        <v>AI</v>
+      </c>
+      <c r="E23" t="str">
+        <v>Global X Artificial Intelligence &amp; Technology ETF</v>
+      </c>
+      <c r="F23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="M23" t="b">
+        <v>0</v>
+      </c>
+      <c r="N23" t="str">
+        <v>Global X Artificial Intelligence &amp; Technology ETF</v>
+      </c>
+      <c r="O23" t="str">
+        <v>Global X Artificial Intelligence &amp; Technology ETF</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>367</v>
+      </c>
+      <c r="D24" t="str">
+        <v>Preferred</v>
+      </c>
+      <c r="E24" t="str">
+        <v>iShares Preferred and Income Securities ETF</v>
+      </c>
+      <c r="F24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="M24" t="b">
+        <v>0</v>
+      </c>
+      <c r="N24" t="str">
+        <v>iShares Preferred and Income Securities ETF</v>
+      </c>
+      <c r="O24" t="str">
+        <v>iShares Preferred and Income Securities ETF</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>21</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" t="str">
+        <v>Eurostoxx 50</v>
+      </c>
+      <c r="E25" t="str">
+        <v>SPDR EURO STOXX 50 ETF</v>
+      </c>
+      <c r="F25" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G25" s="7"/>
+      <c r="M25" t="b">
+        <v>0</v>
+      </c>
+      <c r="N25" t="str">
+        <v>SPDR EURO STOXX 50 ETF</v>
+      </c>
+      <c r="O25" t="str">
+        <v>SPDR EURO STOXX 50 ETF</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>22</v>
+      </c>
+      <c r="C26" t="s">
+        <v>156</v>
+      </c>
+      <c r="D26" t="str">
+        <v>Eurostoxx Banks</v>
+      </c>
+      <c r="E26" t="str">
+        <v>iShares STOXX Europe 600 Banks</v>
+      </c>
+      <c r="F26" t="str">
+        <v>Eurostoxx Banks</v>
+      </c>
+      <c r="G26" s="7"/>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O26" t="str">
+        <v>iShares STOXX Europe 600 Banks</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>23</v>
+      </c>
+      <c r="C27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" t="str">
+        <v>iShares FTSE United Kingdom ETF</v>
+      </c>
+      <c r="E27" t="str">
+        <v>iShares FTSE United Kingdom ETF</v>
+      </c>
+      <c r="F27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G27" s="7"/>
+      <c r="M27" t="b">
+        <v>0</v>
+      </c>
+      <c r="N27" t="str">
+        <v>iShares FTSE United Kingdom ETF</v>
+      </c>
+      <c r="O27" t="str">
+        <v>iShares FTSE United Kingdom ETF</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>24</v>
+      </c>
+      <c r="C28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" t="str">
+        <v>DAX (Germany)</v>
+      </c>
+      <c r="E28" t="str">
+        <v>Xtrackers DAX Equity ETF</v>
+      </c>
+      <c r="F28" t="str">
+        <v>DAX (Germany)</v>
+      </c>
+      <c r="G28" s="7"/>
+      <c r="M28" t="b">
+        <v>0</v>
+      </c>
+      <c r="N28" t="str">
+        <v>Xtrackers DAX Equity ETF</v>
+      </c>
+      <c r="O28" t="str">
+        <v>Xtrackers DAX Equity ETF</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" t="str">
+        <v>iShares MSCI Canada ETF</v>
+      </c>
+      <c r="E29" t="str">
+        <v>iShares MSCI Canada ETF</v>
+      </c>
+      <c r="F29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G29" s="7"/>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29" t="str">
+        <v>iShares MSCI Canada ETF</v>
+      </c>
+      <c r="O29" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>327</v>
+      </c>
+      <c r="D30" t="str">
+        <v>FTSE MIB (Italy)</v>
+      </c>
+      <c r="E30" t="str">
+        <v>iShares MSCI Italy ETF</v>
+      </c>
+      <c r="F30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G30" s="7"/>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O30" t="str">
+        <v>iShares MSCI Italy ETF</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>27</v>
+      </c>
+      <c r="C31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" t="str">
+        <v>CAC 40 (France)</v>
+      </c>
+      <c r="E31" t="str">
+        <v>Lyxor CAC 40 ETF</v>
+      </c>
+      <c r="F31" t="str">
+        <v>CAC 40 (France)</v>
+      </c>
+      <c r="G31" s="7"/>
+      <c r="M31" t="b">
+        <v>0</v>
+      </c>
+      <c r="N31" t="str">
+        <v>Lyxor CAC 40 ETF</v>
+      </c>
+      <c r="O31" t="str">
+        <v>Lyxor CAC 40 ETF</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>28</v>
+      </c>
+      <c r="C32" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" t="str">
+        <v>iShares MSCI Italy ETF</v>
+      </c>
+      <c r="E32" t="str">
+        <v>iShares MSCI Italy ETF</v>
+      </c>
+      <c r="F32" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G32" s="7"/>
+      <c r="M32" t="b">
+        <v>0</v>
+      </c>
+      <c r="N32" t="str">
+        <v>iShares MSCI Italy ETF</v>
+      </c>
+      <c r="O32" t="str">
+        <v>iShares MSCI Italy ETF</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>29</v>
+      </c>
+      <c r="C33" t="s">
+        <v>330</v>
+      </c>
+      <c r="D33" t="str">
+        <v>IBEX 35 (Spain)</v>
+      </c>
+      <c r="E33" t="str">
+        <v>iShares MSCI Spain ETF</v>
+      </c>
+      <c r="F33" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G33" s="7"/>
+      <c r="M33" t="b">
+        <v>1</v>
+      </c>
+      <c r="N33" t="str">
+        <v>iShares MSCI Spain ETF</v>
+      </c>
+      <c r="O33" t="str">
+        <v>IBEX 35 ETF</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>30</v>
+      </c>
+      <c r="C34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" t="str">
+        <v>iShares MSCI Spain ETF</v>
+      </c>
+      <c r="E34" t="str">
+        <v>iShares MSCI Spain ETF</v>
+      </c>
+      <c r="F34" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G34" s="7"/>
+      <c r="M34" t="b">
+        <v>0</v>
+      </c>
+      <c r="N34" t="str">
+        <v>iShares MSCI Spain ETF</v>
+      </c>
+      <c r="O34" t="str">
+        <v>iShares MSCI Spain ETF</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>31</v>
+      </c>
+      <c r="C35" t="s">
+        <v>324</v>
+      </c>
+      <c r="D35" t="str">
+        <v>Nikkei 225</v>
+      </c>
+      <c r="E35" t="str">
+        <v>Nikkei 225 ETF</v>
+      </c>
+      <c r="F35" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G35" s="7"/>
+      <c r="M35" t="b">
+        <v>0</v>
+      </c>
+      <c r="N35" t="str">
+        <v>Nikkei 225 ETF</v>
+      </c>
+      <c r="O35" t="str">
+        <v>Nikkei 225 ETF</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>32</v>
+      </c>
+      <c r="C36" t="s">
+        <v>142</v>
+      </c>
+      <c r="D36" t="str">
+        <v>TOPIX</v>
+      </c>
+      <c r="E36" t="str">
+        <v>iShares TOPIX ETF</v>
+      </c>
+      <c r="F36" t="str">
+        <v>Topix (Japan domenstic)</v>
+      </c>
+      <c r="G36" s="7"/>
+      <c r="M36" t="b">
+        <v>0</v>
+      </c>
+      <c r="N36" t="str">
+        <v>iShares TOPIX ETF</v>
+      </c>
+      <c r="O36" t="str">
+        <v>iShares TOPIX ETF</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>33</v>
+      </c>
+      <c r="C37" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37" t="str">
+        <v>iShares China Large-Cap ETF</v>
+      </c>
+      <c r="E37" t="str">
+        <v>iShares China Large-Cap ETF</v>
+      </c>
+      <c r="F37" t="str">
+        <v>FTSE China 50</v>
+      </c>
+      <c r="G37" s="7"/>
+      <c r="M37" t="b">
+        <v>0</v>
+      </c>
+      <c r="N37" t="str">
+        <v>iShares China Large-Cap ETF</v>
+      </c>
+      <c r="O37" t="str">
+        <v>iShares China Large-Cap ETF</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>34</v>
+      </c>
+      <c r="C38" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" t="str">
+        <v>Xtrackers Harvest CSI 300 China A-Shares ETF</v>
+      </c>
+      <c r="E38" t="str">
+        <v>Xtrackers Harvest CSI 300 China A-Shares ETF</v>
+      </c>
+      <c r="F38" t="str">
+        <v>CSI 300 (China)</v>
+      </c>
+      <c r="G38" s="7"/>
+      <c r="M38" t="b">
+        <v>0</v>
+      </c>
+      <c r="N38" t="str">
+        <v>Xtrackers Harvest CSI 300 China A-Shares ETF</v>
+      </c>
+      <c r="O38" t="str">
+        <v>Xtrackers Harvest CSI 300 China A-Shares ETF</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>35</v>
+      </c>
+      <c r="C39" t="s">
+        <v>400</v>
+      </c>
+      <c r="D39" t="str">
+        <v>KraneShares CSI China Internet ETF</v>
+      </c>
+      <c r="E39" t="str">
+        <v>KraneShares CSI China Internet ETF</v>
+      </c>
+      <c r="F39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G39" s="7"/>
+      <c r="M39" t="b">
+        <v>0</v>
+      </c>
+      <c r="N39" t="str">
+        <v>KraneShares CSI China Internet ETF</v>
+      </c>
+      <c r="O39" t="str">
+        <v>KraneShares CSI China Internet ETF</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>36</v>
+      </c>
+      <c r="C40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" t="str">
+        <v>iShares iBoxx $ Investment Grade Corporate Bond ETF</v>
+      </c>
+      <c r="E40" t="str">
+        <v>iShares iBoxx $ Investment Grade Corporate Bond ETF</v>
+      </c>
+      <c r="F40" t="str">
+        <v>US IG Bond ETF</v>
+      </c>
+      <c r="G40" s="7"/>
+      <c r="M40" t="b">
+        <v>0</v>
+      </c>
+      <c r="N40" t="str">
+        <v>iShares iBoxx $ Investment Grade Corporate Bond ETF</v>
+      </c>
+      <c r="O40" t="str">
+        <v>iShares iBoxx $ Investment Grade Corporate Bond ETF</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>37</v>
+      </c>
+      <c r="C41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" t="str">
+        <v>iShares iBoxx $ High Yield Corporate Bond ETF</v>
+      </c>
+      <c r="E41" t="str">
+        <v>iShares iBoxx $ High Yield Corporate Bond ETF</v>
+      </c>
+      <c r="F41" t="str">
+        <v>US HY Bond ETF</v>
+      </c>
+      <c r="G41" s="7"/>
+      <c r="M41" t="b">
+        <v>0</v>
+      </c>
+      <c r="N41" t="str">
+        <v>iShares iBoxx $ High Yield Corporate Bond ETF</v>
+      </c>
+      <c r="O41" t="str">
+        <v>iShares iBoxx $ High Yield Corporate Bond ETF</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>38</v>
+      </c>
+      <c r="C42" t="s">
+        <v>347</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42" t="str">
+        <v>iShares Interest Rate Hedged Corporate Bond ETF</v>
+      </c>
+      <c r="F42" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G42" s="7"/>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O42" t="str">
+        <v>iShares Interest Rate Hedged Corporate Bond ETF</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>39</v>
+      </c>
+      <c r="C43" t="s">
+        <v>348</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43" t="str">
+        <v>iShares Interest Rate Hedged High Yield Bond ETF</v>
+      </c>
+      <c r="F43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G43" s="7"/>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O43" t="str">
+        <v>iShares Interest Rate Hedged High Yield Bond ETF</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>40</v>
+      </c>
+      <c r="C44" t="s">
+        <v>51</v>
+      </c>
+      <c r="D44" t="str">
+        <v>iShares 1-3 Year Treasury Bond ETF</v>
+      </c>
+      <c r="E44" t="str">
+        <v>iShares 1-3 Year Treasury Bond ETF</v>
+      </c>
+      <c r="F44" t="str">
+        <v>1-3 Year Treasury ETF</v>
+      </c>
+      <c r="G44" s="7"/>
+      <c r="M44" t="b">
+        <v>0</v>
+      </c>
+      <c r="N44" t="str">
+        <v>iShares 1-3 Year Treasury Bond ETF</v>
+      </c>
+      <c r="O44" t="str">
+        <v>iShares 1-3 Year Treasury Bond ETF</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>41</v>
+      </c>
+      <c r="C45" t="s">
+        <v>126</v>
+      </c>
+      <c r="D45" t="str">
+        <v>iShares 3-7 Year Treasury Bond ETF</v>
+      </c>
+      <c r="E45" t="str">
+        <v>iShares 3-7 Year Treasury Bond ETF</v>
+      </c>
+      <c r="F45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G45" s="7"/>
+      <c r="M45" t="b">
+        <v>0</v>
+      </c>
+      <c r="N45" t="str">
+        <v>iShares 3-7 Year Treasury Bond ETF</v>
+      </c>
+      <c r="O45" t="str">
+        <v>iShares 3-7 Year Treasury Bond ETF</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>42</v>
+      </c>
+      <c r="C46" t="s">
+        <v>131</v>
+      </c>
+      <c r="D46" t="str">
+        <v>iShares 7-10 Year Treasury Bond ETF</v>
+      </c>
+      <c r="E46" t="str">
+        <v>iShares 7-10 Year Treasury Bond ETF</v>
+      </c>
+      <c r="F46" t="str">
+        <v>7-10 Year Treasury ETF</v>
+      </c>
+      <c r="G46" s="7"/>
+      <c r="M46" t="b">
+        <v>0</v>
+      </c>
+      <c r="N46" t="str">
+        <v>iShares 7-10 Year Treasury Bond ETF</v>
+      </c>
+      <c r="O46" t="str">
+        <v>iShares 7-10 Year Treasury Bond ETF</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>43</v>
+      </c>
+      <c r="C47" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" t="str">
+        <v>iShares 20+ Year Treasury Bond ETF</v>
+      </c>
+      <c r="E47" t="str">
+        <v>iShares 20+ Year Treasury Bond ETF</v>
+      </c>
+      <c r="F47" t="str">
+        <v>20+ Year Treasury ETF</v>
+      </c>
+      <c r="G47" s="7"/>
+      <c r="M47" t="b">
+        <v>0</v>
+      </c>
+      <c r="N47" t="str">
+        <v>iShares 20+ Year Treasury Bond ETF</v>
+      </c>
+      <c r="O47" t="str">
+        <v>iShares 20+ Year Treasury Bond ETF</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>44</v>
+      </c>
+      <c r="C48" t="s">
+        <v>135</v>
+      </c>
+      <c r="D48" t="str">
+        <v>iShares TIPS Bond ETF</v>
+      </c>
+      <c r="E48" t="str">
+        <v>iShares TIPS Bond ETF</v>
+      </c>
+      <c r="F48" t="str">
+        <v>TIPS ETF</v>
+      </c>
+      <c r="G48" s="7"/>
+      <c r="M48" t="b">
+        <v>0</v>
+      </c>
+      <c r="N48" t="str">
+        <v>iShares TIPS Bond ETF</v>
+      </c>
+      <c r="O48" t="str">
+        <v>iShares TIPS Bond ETF</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>45</v>
+      </c>
+      <c r="C49" t="s">
+        <v>344</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49" t="str">
+        <v>Vanguard Short-Term Inflation-Protected Securities ETF</v>
+      </c>
+      <c r="F49" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G49" s="7"/>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O49" t="str">
+        <v>Vanguard Short-Term Inflation-Protected Securities ETF</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>46</v>
+      </c>
+      <c r="C50" t="s">
+        <v>53</v>
+      </c>
+      <c r="D50" t="str">
+        <v>iShares MBS ETF</v>
+      </c>
+      <c r="E50" t="str">
+        <v>iShares MBS ETF</v>
+      </c>
+      <c r="F50" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G50" s="7"/>
+      <c r="M50" t="b">
+        <v>0</v>
+      </c>
+      <c r="N50" t="str">
+        <v>iShares MBS ETF</v>
+      </c>
+      <c r="O50" t="str">
+        <v>iShares MBS ETF</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>47</v>
+      </c>
+      <c r="C51" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" t="str">
+        <v>Simplify Mortgage Backed Securities ETF</v>
+      </c>
+      <c r="E51" t="str">
+        <v>Simplify Mortgage Backed Securities ETF</v>
+      </c>
+      <c r="F51" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G51" s="7"/>
+      <c r="M51" t="b">
+        <v>0</v>
+      </c>
+      <c r="N51" t="str">
+        <v>Simplify Mortgage Backed Securities ETF</v>
+      </c>
+      <c r="O51" t="str">
+        <v>Simplify Mortgage Backed Securities ETF</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>48</v>
+      </c>
+      <c r="C52" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" t="str">
+        <v>AGNC Investment Corp.</v>
+      </c>
+      <c r="E52" t="str">
+        <v>AGNC Investment Corp.</v>
+      </c>
+      <c r="F52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G52" s="7"/>
+      <c r="M52" t="b">
+        <v>0</v>
+      </c>
+      <c r="N52" t="str">
+        <v>AGNC Investment Corp.</v>
+      </c>
+      <c r="O52" t="str">
+        <v>AGNC Investment Corp.</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>49</v>
+      </c>
+      <c r="C53" t="s">
+        <v>346</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53" t="str">
+        <v>Vanguard Mortgage-Backed Securities ETF</v>
+      </c>
+      <c r="F53" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G53" s="7"/>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O53" t="str">
+        <v>Vanguard Mortgage-Backed Securities ETF</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>50</v>
+      </c>
+      <c r="C54" t="s">
+        <v>345</v>
+      </c>
+      <c r="D54" t="str">
+        <v>CMBS</v>
+      </c>
+      <c r="E54" t="str">
+        <v>iShares CMBS ETF</v>
+      </c>
+      <c r="F54" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O54" t="str">
+        <v>iShares CMBS ETF</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>51</v>
+      </c>
+      <c r="C55" t="s">
+        <v>97</v>
+      </c>
+      <c r="D55" t="str">
+        <v>iShares J.P. Morgan USD Emerging Markets Bond ETF</v>
+      </c>
+      <c r="E55" t="str">
+        <v>iShares J.P. Morgan USD Emerging Markets Bond ETF</v>
+      </c>
+      <c r="F55" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G55" s="7"/>
+      <c r="M55" t="b">
+        <v>0</v>
+      </c>
+      <c r="N55" t="str">
+        <v>iShares J.P. Morgan USD Emerging Markets Bond ETF</v>
+      </c>
+      <c r="O55" t="str">
+        <v>iShares J.P. Morgan USD Emerging Markets Bond ETF</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>52</v>
+      </c>
+      <c r="C56" t="s">
+        <v>349</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56" t="str">
+        <v>iShares Emerging Markets High Yield Bond ETF</v>
+      </c>
+      <c r="F56" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G56" s="7"/>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O56" t="str">
+        <v>iShares Emerging Markets High Yield Bond ETF</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>53</v>
+      </c>
+      <c r="C57" t="s">
+        <v>75</v>
+      </c>
+      <c r="D57" t="str">
+        <v>WisdomTree Emerging Markets Local Debt Fund</v>
+      </c>
+      <c r="E57" t="str">
+        <v>WisdomTree Emerging Markets Local Debt Fund</v>
+      </c>
+      <c r="F57" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G57" s="7"/>
+      <c r="M57" t="b">
+        <v>0</v>
+      </c>
+      <c r="N57" t="str">
+        <v>WisdomTree Emerging Markets Local Debt Fund</v>
+      </c>
+      <c r="O57" t="str">
+        <v>WisdomTree Emerging Markets Local Debt Fund</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>54</v>
+      </c>
+      <c r="C58" t="s">
+        <v>99</v>
+      </c>
+      <c r="D58" t="str">
+        <v>iShares International Government Bonds ETF</v>
+      </c>
+      <c r="E58" t="str">
+        <v>iShares International Government Bonds ETF</v>
+      </c>
+      <c r="F58" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G58" s="7"/>
+      <c r="M58" t="b">
+        <v>0</v>
+      </c>
+      <c r="N58" t="str">
+        <v>iShares International Government Bonds ETF</v>
+      </c>
+      <c r="O58" t="str">
+        <v>iShares International Government Bonds ETF</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>55</v>
+      </c>
+      <c r="C59" t="s">
+        <v>57</v>
+      </c>
+      <c r="D59" t="str">
+        <v>SPDR Gold Shares</v>
+      </c>
+      <c r="E59" t="str">
+        <v>SPDR Gold Shares</v>
+      </c>
+      <c r="F59" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G59" s="7"/>
+      <c r="M59" t="b">
+        <v>0</v>
+      </c>
+      <c r="N59" t="str">
+        <v>SPDR Gold Shares</v>
+      </c>
+      <c r="O59" t="str">
+        <v>SPDR Gold Shares</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>56</v>
+      </c>
+      <c r="C60" t="s">
+        <v>59</v>
+      </c>
+      <c r="D60" t="str">
+        <v>iShares Silver Trust</v>
+      </c>
+      <c r="E60" t="str">
+        <v>iShares Silver Trust</v>
+      </c>
+      <c r="F60" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G60" s="7"/>
+      <c r="M60" t="b">
+        <v>0</v>
+      </c>
+      <c r="N60" t="str">
+        <v>iShares Silver Trust</v>
+      </c>
+      <c r="O60" t="str">
+        <v>iShares Silver Trust</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>57</v>
+      </c>
+      <c r="C61" t="s">
+        <v>61</v>
+      </c>
+      <c r="D61" t="str">
+        <v>United States Oil Fund</v>
+      </c>
+      <c r="E61" t="str">
+        <v>United States Oil Fund</v>
+      </c>
+      <c r="F61" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G61" s="7"/>
+      <c r="M61" t="b">
+        <v>0</v>
+      </c>
+      <c r="N61" t="str">
+        <v>United States Oil Fund</v>
+      </c>
+      <c r="O61" t="str">
+        <v>United States Oil Fund</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>58</v>
+      </c>
+      <c r="C62" t="s">
+        <v>63</v>
+      </c>
+      <c r="D62" t="str">
+        <v>Invesco DB Commodity Index Tracking Fund</v>
+      </c>
+      <c r="E62" t="str">
+        <v>Invesco DB Commodity Index Tracking Fund</v>
+      </c>
+      <c r="F62" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G62" s="7"/>
+      <c r="M62" t="b">
+        <v>0</v>
+      </c>
+      <c r="N62" t="str">
+        <v>Invesco DB Commodity Index Tracking Fund</v>
+      </c>
+      <c r="O62" t="str">
+        <v>Invesco DB Commodity Index Tracking Fund</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>59</v>
+      </c>
+      <c r="C63" t="s">
+        <v>66</v>
+      </c>
+      <c r="D63" t="str">
+        <v>Invesco DB US Dollar Index Bullish Fund</v>
+      </c>
+      <c r="E63" t="str">
+        <v>Invesco DB US Dollar Index Bullish Fund</v>
+      </c>
+      <c r="F63" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G63" s="7"/>
+      <c r="M63" t="b">
+        <v>0</v>
+      </c>
+      <c r="N63" t="str">
+        <v>Invesco DB US Dollar Index Bullish Fund</v>
+      </c>
+      <c r="O63" t="str">
+        <v>Invesco DB US Dollar Index Bullish Fund</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>60</v>
+      </c>
+      <c r="C64" t="s">
+        <v>69</v>
+      </c>
+      <c r="D64" t="str">
+        <v>Invesco CurrencyShares Euro Trust</v>
+      </c>
+      <c r="E64" t="str">
+        <v>Invesco CurrencyShares Euro Trust</v>
+      </c>
+      <c r="F64" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G64" s="7"/>
+      <c r="M64" t="b">
+        <v>0</v>
+      </c>
+      <c r="N64" t="str">
+        <v>Invesco CurrencyShares Euro Trust</v>
+      </c>
+      <c r="O64" t="str">
+        <v>Invesco CurrencyShares Euro Trust</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>61</v>
+      </c>
+      <c r="C65" t="s">
+        <v>72</v>
+      </c>
+      <c r="D65" t="str">
+        <v>Invesco CurrencyShares Japanese Yen Trust</v>
+      </c>
+      <c r="E65" t="str">
+        <v>Invesco CurrencyShares Japanese Yen Trust</v>
+      </c>
+      <c r="F65" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G65" s="7"/>
+      <c r="M65" t="b">
+        <v>0</v>
+      </c>
+      <c r="N65" t="str">
+        <v>Invesco CurrencyShares Japanese Yen Trust</v>
+      </c>
+      <c r="O65" t="str">
+        <v>Invesco CurrencyShares Japanese Yen Trust</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB67FE54-23CB-424E-AA4C-48055BA2B8E2}">
+  <dimension ref="A1:D32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B1" cm="1">
+        <f t="array" ref="B1:B9">_xlfn.XMATCH(A1:A9,data[factor_name])</f>
+        <v>44</v>
+      </c>
+      <c r="D1" cm="1">
+        <f t="array" ref="D1:D32">_xlfn.XLOOKUP(_xlfn._TRO_ALL(A:A),data[factor_name],data[Active])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B2">
+        <v>45</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B3">
+        <v>50</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>336</v>
+      </c>
+      <c r="B4">
+        <v>49</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>337</v>
+      </c>
+      <c r="B5">
+        <v>55</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>338</v>
+      </c>
+      <c r="B6">
+        <v>36</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>339</v>
+      </c>
+      <c r="B7">
+        <v>38</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>340</v>
+      </c>
+      <c r="B8">
+        <v>37</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>341</v>
+      </c>
+      <c r="B9">
+        <v>39</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D10" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D11" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="e" cm="1">
+        <f t="array" ref="A12">_xlfn.TEXTSPLIT(data!#REF!,," ")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B12" t="e" cm="1">
+        <f t="array" ref="B12">_xlfn.XMATCH(_xlfn.ANCHORARRAY(A12),data[factor_name])</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D12" t="e">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D13" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D14" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D15" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D16" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D17" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D18" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D19" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D20" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>173</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>174</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>175</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>176</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>177</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>342</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>178</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>179</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>180</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>181</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>182</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>285</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C29859C-7358-4E2F-B5CC-7696F1DAC449}">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="64.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.44140625" customWidth="1"/>
+    <col min="9" max="9" width="44.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>S&amp;P 500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>Russell 2000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="4" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>S&amp;P 400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1</v>
+      </c>
+      <c r="I5" s="4" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>Nasdaq 100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>Dow Jones 30</v>
+      </c>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4">
+        <v>1</v>
+      </c>
+      <c r="I7" s="8" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>Technology</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4">
+        <v>1</v>
+      </c>
+      <c r="I8" s="8" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>Industrials</v>
+      </c>
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4">
+        <v>1</v>
+      </c>
+      <c r="I9" s="8" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>Financials</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4">
+        <v>1</v>
+      </c>
+      <c r="I10" s="8" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>Regional Banks</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4">
+        <v>1</v>
+      </c>
+      <c r="I11" s="8" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>Communications</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4">
+        <v>1</v>
+      </c>
+      <c r="I12" s="8" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>Energy</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4">
+        <v>1</v>
+      </c>
+      <c r="I13" s="8" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>Discretionary</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4">
+        <v>1</v>
+      </c>
+      <c r="I14" s="8" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>Materials</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4">
+        <v>1</v>
+      </c>
+      <c r="I15" s="8" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>Health Care</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4">
+        <v>1</v>
+      </c>
+      <c r="I16" s="8" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>Utilities</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4">
+        <v>1</v>
+      </c>
+      <c r="I17" s="8" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>Staples</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4">
+        <v>1</v>
+      </c>
+      <c r="I18" s="8" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>iShares U.S. Real Estate ETF</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4">
+        <v>1</v>
+      </c>
+      <c r="I19" s="8" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>Vanguard Real Estate ETF</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4">
+        <v>1</v>
+      </c>
+      <c r="I20" s="8" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>AI</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4">
+        <v>1</v>
+      </c>
+      <c r="I21" s="8" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>Preferred</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" s="4">
+        <v>1</v>
+      </c>
+      <c r="I22" s="4" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>Eurostoxx 50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4">
+        <v>0</v>
+      </c>
+      <c r="I23" s="4" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>Eurostoxx Banks</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H24" s="4">
+        <v>1</v>
+      </c>
+      <c r="I24" s="4" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>iShares FTSE United Kingdom ETF</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H25" s="4">
+        <v>1</v>
+      </c>
+      <c r="I25" s="4" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>DAX (Germany)</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H26" s="4">
+        <v>1</v>
+      </c>
+      <c r="I26" s="4" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>iShares MSCI Canada ETF</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4">
+        <v>0</v>
+      </c>
+      <c r="I27" s="4" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>FTSE MIB (Italy)</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H28" s="4">
+        <v>1</v>
+      </c>
+      <c r="I28" s="4" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>CAC 40 (France)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H29" s="4">
+        <v>1</v>
+      </c>
+      <c r="I29" s="4" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>iShares MSCI Italy ETF</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H30" s="4">
+        <v>0</v>
+      </c>
+      <c r="I30" s="4" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>IBEX 35 (Spain)</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H31" s="4">
+        <v>0</v>
+      </c>
+      <c r="I31" s="4" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>iShares MSCI Spain ETF</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="H32" s="4">
+        <v>1</v>
+      </c>
+      <c r="I32" s="4" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>Nikkei 225</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="H33" s="4">
+        <v>1</v>
+      </c>
+      <c r="I33" s="4" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>TOPIX</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H34" s="4">
+        <v>1</v>
+      </c>
+      <c r="I34" s="4" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>iShares China Large-Cap ETF</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="H35" s="4">
+        <v>1</v>
+      </c>
+      <c r="I35" s="4" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>Xtrackers Harvest CSI 300 China A-Shares ETF</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4">
+        <v>1</v>
+      </c>
+      <c r="I36" s="4" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>KraneShares CSI China Internet ETF</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H37" s="4">
+        <v>1</v>
+      </c>
+      <c r="I37" s="4" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>iShares iBoxx $ Investment Grade Corporate Bond ETF</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H38" s="4">
+        <v>1</v>
+      </c>
+      <c r="I38" s="4" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>iShares iBoxx $ High Yield Corporate Bond ETF</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4">
+        <v>1</v>
+      </c>
+      <c r="I39" s="4">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4">
+        <v>1</v>
+      </c>
+      <c r="I40" s="4">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H41" s="4">
+        <v>1</v>
+      </c>
+      <c r="I41" s="4" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>iShares 1-3 Year Treasury Bond ETF</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="H42" s="4">
+        <v>1</v>
+      </c>
+      <c r="I42" s="4" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>iShares 3-7 Year Treasury Bond ETF</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="H43" s="4">
+        <v>1</v>
+      </c>
+      <c r="I43" s="4" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>iShares 7-10 Year Treasury Bond ETF</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H44" s="4">
+        <v>1</v>
+      </c>
+      <c r="I44" s="4" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>iShares 20+ Year Treasury Bond ETF</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="H45" s="4">
+        <v>1</v>
+      </c>
+      <c r="I45" s="4" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>iShares TIPS Bond ETF</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4">
+        <v>1</v>
+      </c>
+      <c r="I46" s="4"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H47" s="4">
+        <v>0</v>
+      </c>
+      <c r="I47" s="4" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>iShares MBS ETF</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" t="s">
+        <v>152</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="H48" s="4">
+        <v>0</v>
+      </c>
+      <c r="I48" s="4" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>Simplify Mortgage Backed Securities ETF</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H49" s="4">
+        <v>1</v>
+      </c>
+      <c r="I49" s="4" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>AGNC Investment Corp.</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4">
+        <v>1</v>
+      </c>
+      <c r="I50" s="4">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4">
+        <v>1</v>
+      </c>
+      <c r="I51" s="4">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="H52" s="4">
+        <v>1</v>
+      </c>
+      <c r="I52" s="4" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>iShares J.P. Morgan USD Emerging Markets Bond ETF</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4">
+        <v>1</v>
+      </c>
+      <c r="I53" s="4">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B54" t="s">
+        <v>74</v>
+      </c>
+      <c r="C54" t="s">
+        <v>75</v>
+      </c>
+      <c r="F54" t="s">
+        <v>76</v>
+      </c>
+      <c r="G54" t="s">
+        <v>114</v>
+      </c>
+      <c r="H54" s="4">
+        <v>0</v>
+      </c>
+      <c r="I54" s="4" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>WisdomTree Emerging Markets Local Debt Fund</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H55" s="4">
+        <v>0</v>
+      </c>
+      <c r="I55" s="4" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>iShares International Government Bonds ETF</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H56" s="4">
+        <v>1</v>
+      </c>
+      <c r="I56" s="4" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>SPDR Gold Shares</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H57" s="4">
+        <v>1</v>
+      </c>
+      <c r="I57" s="4" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>iShares Silver Trust</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H58" s="4">
+        <v>1</v>
+      </c>
+      <c r="I58" s="4" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>United States Oil Fund</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H59" s="4">
+        <v>1</v>
+      </c>
+      <c r="I59" s="4" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>Invesco DB Commodity Index Tracking Fund</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H60" s="4">
+        <v>1</v>
+      </c>
+      <c r="I60" s="4" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>Invesco DB US Dollar Index Bullish Fund</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H61" s="4">
+        <v>1</v>
+      </c>
+      <c r="I61" s="4" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>Invesco CurrencyShares Euro Trust</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" t="s">
+        <v>71</v>
+      </c>
+      <c r="C62" t="s">
+        <v>72</v>
+      </c>
+      <c r="F62" t="s">
+        <v>73</v>
+      </c>
+      <c r="G62" t="s">
+        <v>113</v>
+      </c>
+      <c r="H62" s="4">
+        <v>1</v>
+      </c>
+      <c r="I62" s="4" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>Invesco CurrencyShares Japanese Yen Trust</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BECED18-9D5B-4FAE-9BAD-99DBF8245FFA}">
+  <dimension ref="A1:M74"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2997,23 +8159,24 @@
     <col min="6" max="6" width="12.5546875" customWidth="1"/>
     <col min="7" max="7" width="64.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.44140625" customWidth="1"/>
+    <col min="9" max="9" width="44.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>148</v>
@@ -3028,7 +8191,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>39</v>
       </c>
@@ -3054,11 +8217,18 @@
         <v>1</v>
       </c>
       <c r="I2" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <f>IF(data_old[[#This Row],[description_override]]="",data_old[[#This Row],[Description_GPT]],data_old[[#This Row],[description_override]])</f>
         <v>S&amp;P 500</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L2" t="s">
+        <v>333</v>
+      </c>
+      <c r="M2" cm="1">
+        <f t="array" ref="M2:M74">_xlfn.XMATCH(_xlfn._TRO_ALL(L:L),gpt!C2:C61)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>39</v>
       </c>
@@ -3084,11 +8254,17 @@
         <v>1</v>
       </c>
       <c r="I3" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <f>IF(data_old[[#This Row],[description_override]]="",data_old[[#This Row],[Description_GPT]],data_old[[#This Row],[description_override]])</f>
         <v>Russell 2000</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L3" t="s">
+        <v>334</v>
+      </c>
+      <c r="M3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>39</v>
       </c>
@@ -3114,11 +8290,17 @@
         <v>1</v>
       </c>
       <c r="I4" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <f>IF(data_old[[#This Row],[description_override]]="",data_old[[#This Row],[Description_GPT]],data_old[[#This Row],[description_override]])</f>
         <v>Nasdaq 100</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L4" t="s">
+        <v>335</v>
+      </c>
+      <c r="M4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>39</v>
       </c>
@@ -3144,11 +8326,17 @@
         <v>1</v>
       </c>
       <c r="I5" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <f>IF(data_old[[#This Row],[description_override]]="",data_old[[#This Row],[Description_GPT]],data_old[[#This Row],[description_override]])</f>
         <v>Dow Jones 30</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L5" t="s">
+        <v>336</v>
+      </c>
+      <c r="M5">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>39</v>
       </c>
@@ -3174,12 +8362,18 @@
         <v>1</v>
       </c>
       <c r="I6" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <f>IF(data_old[[#This Row],[description_override]]="",data_old[[#This Row],[Description_GPT]],data_old[[#This Row],[description_override]])</f>
         <v>Eurostoxx 50</v>
       </c>
       <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L6" t="s">
+        <v>337</v>
+      </c>
+      <c r="M6">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>39</v>
       </c>
@@ -3201,17 +8395,23 @@
         <v>0</v>
       </c>
       <c r="I7" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <f>IF(data_old[[#This Row],[description_override]]="",data_old[[#This Row],[Description_GPT]],data_old[[#This Row],[description_override]])</f>
         <v>Eurostoxx Banks</v>
       </c>
       <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L7" t="s">
+        <v>338</v>
+      </c>
+      <c r="M7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>86</v>
@@ -3228,11 +8428,17 @@
         <v>1</v>
       </c>
       <c r="I8" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <f>IF(data_old[[#This Row],[description_override]]="",data_old[[#This Row],[Description_GPT]],data_old[[#This Row],[description_override]])</f>
         <v>iShares FTSE United Kingdom ETF</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L8" t="s">
+        <v>339</v>
+      </c>
+      <c r="M8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>39</v>
       </c>
@@ -3258,11 +8464,17 @@
         <v>1</v>
       </c>
       <c r="I9" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <f>IF(data_old[[#This Row],[description_override]]="",data_old[[#This Row],[Description_GPT]],data_old[[#This Row],[description_override]])</f>
         <v>DAX (Germany)</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L9" t="s">
+        <v>340</v>
+      </c>
+      <c r="M9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>39</v>
       </c>
@@ -3284,11 +8496,17 @@
         <v>1</v>
       </c>
       <c r="I10" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <f>IF(data_old[[#This Row],[description_override]]="",data_old[[#This Row],[Description_GPT]],data_old[[#This Row],[description_override]])</f>
         <v>iShares MSCI Canada ETF</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L10" t="s">
+        <v>341</v>
+      </c>
+      <c r="M10">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>39</v>
       </c>
@@ -3296,13 +8514,13 @@
         <v>68</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>329</v>
-      </c>
       <c r="E11" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -3310,11 +8528,17 @@
         <v>0</v>
       </c>
       <c r="I11" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <f>IF(data_old[[#This Row],[description_override]]="",data_old[[#This Row],[Description_GPT]],data_old[[#This Row],[description_override]])</f>
         <v>FTSE MIB (Italy)</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L11" t="s">
+        <v>350</v>
+      </c>
+      <c r="M11">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>39</v>
       </c>
@@ -3340,11 +8564,17 @@
         <v>1</v>
       </c>
       <c r="I12" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <f>IF(data_old[[#This Row],[description_override]]="",data_old[[#This Row],[Description_GPT]],data_old[[#This Row],[description_override]])</f>
         <v>CAC 40 (France)</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L12" t="s">
+        <v>351</v>
+      </c>
+      <c r="M12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>39</v>
       </c>
@@ -3366,11 +8596,17 @@
         <v>1</v>
       </c>
       <c r="I13" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <f>IF(data_old[[#This Row],[description_override]]="",data_old[[#This Row],[Description_GPT]],data_old[[#This Row],[description_override]])</f>
         <v>iShares MSCI Italy ETF</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L13" t="s">
+        <v>352</v>
+      </c>
+      <c r="M13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>39</v>
       </c>
@@ -3378,13 +8614,13 @@
         <v>68</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>331</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>332</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>92</v>
@@ -3396,11 +8632,17 @@
         <v>0</v>
       </c>
       <c r="I14" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <f>IF(data_old[[#This Row],[description_override]]="",data_old[[#This Row],[Description_GPT]],data_old[[#This Row],[description_override]])</f>
         <v>IBEX 35 (Spain)</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L14" t="s">
+        <v>353</v>
+      </c>
+      <c r="M14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>39</v>
       </c>
@@ -3422,11 +8664,17 @@
         <v>0</v>
       </c>
       <c r="I15" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <f>IF(data_old[[#This Row],[description_override]]="",data_old[[#This Row],[Description_GPT]],data_old[[#This Row],[description_override]])</f>
         <v>iShares MSCI Spain ETF</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L15" t="s">
+        <v>354</v>
+      </c>
+      <c r="M15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>39</v>
       </c>
@@ -3434,7 +8682,7 @@
         <v>71</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>77</v>
@@ -3452,11 +8700,17 @@
         <v>1</v>
       </c>
       <c r="I16" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <f>IF(data_old[[#This Row],[description_override]]="",data_old[[#This Row],[Description_GPT]],data_old[[#This Row],[description_override]])</f>
         <v>Nikkei 225</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L16" t="s">
+        <v>355</v>
+      </c>
+      <c r="M16">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>39</v>
       </c>
@@ -3482,11 +8736,17 @@
         <v>1</v>
       </c>
       <c r="I17" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <f>IF(data_old[[#This Row],[description_override]]="",data_old[[#This Row],[Description_GPT]],data_old[[#This Row],[description_override]])</f>
         <v>TOPIX</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L17" t="s">
+        <v>356</v>
+      </c>
+      <c r="M17">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>39</v>
       </c>
@@ -3510,11 +8770,17 @@
         <v>1</v>
       </c>
       <c r="I18" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <f>IF(data_old[[#This Row],[description_override]]="",data_old[[#This Row],[Description_GPT]],data_old[[#This Row],[description_override]])</f>
         <v>iShares China Large-Cap ETF</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L18" t="s">
+        <v>357</v>
+      </c>
+      <c r="M18">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>39</v>
       </c>
@@ -3538,11 +8804,17 @@
         <v>1</v>
       </c>
       <c r="I19" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <f>IF(data_old[[#This Row],[description_override]]="",data_old[[#This Row],[Description_GPT]],data_old[[#This Row],[description_override]])</f>
         <v>Xtrackers Harvest CSI 300 China A-Shares ETF</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L19" t="s">
+        <v>4</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>46</v>
       </c>
@@ -3566,11 +8838,17 @@
         <v>1</v>
       </c>
       <c r="I20" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <f>IF(data_old[[#This Row],[description_override]]="",data_old[[#This Row],[Description_GPT]],data_old[[#This Row],[description_override]])</f>
         <v>iShares iBoxx $ Investment Grade Corporate Bond ETF</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L20" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>46</v>
       </c>
@@ -3594,67 +8872,69 @@
         <v>1</v>
       </c>
       <c r="I21" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <f>IF(data_old[[#This Row],[description_override]]="",data_old[[#This Row],[Description_GPT]],data_old[[#This Row],[description_override]])</f>
         <v>iShares iBoxx $ High Yield Corporate Bond ETF</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L21" t="s">
+        <v>7</v>
+      </c>
+      <c r="M21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>128</v>
+        <v>46</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>237</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="D22" s="4"/>
       <c r="E22" s="4"/>
-      <c r="F22" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="H22" s="4">
-        <v>1</v>
-      </c>
-      <c r="I22" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>iShares 1-3 Year Treasury Bond ETF</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4">
+        <f>IF(data_old[[#This Row],[description_override]]="",data_old[[#This Row],[Description_GPT]],data_old[[#This Row],[description_override]])</f>
+        <v>0</v>
+      </c>
+      <c r="L22" t="s">
+        <v>44</v>
+      </c>
+      <c r="M22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>128</v>
+        <v>46</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>238</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="D23" s="4"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="H23" s="4">
-        <v>1</v>
-      </c>
-      <c r="I23" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>iShares 3-7 Year Treasury Bond ETF</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4">
+        <f>IF(data_old[[#This Row],[description_override]]="",data_old[[#This Row],[Description_GPT]],data_old[[#This Row],[description_override]])</f>
+        <v>0</v>
+      </c>
+      <c r="L23" t="s">
+        <v>13</v>
+      </c>
+      <c r="M23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>128</v>
       </c>
@@ -3662,27 +8942,33 @@
         <v>40</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>131</v>
+        <v>51</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4" t="s">
-        <v>132</v>
+        <v>52</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H24" s="4">
         <v>1</v>
       </c>
       <c r="I24" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>iShares 7-10 Year Treasury Bond ETF</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+        <f>IF(data_old[[#This Row],[description_override]]="",data_old[[#This Row],[Description_GPT]],data_old[[#This Row],[description_override]])</f>
+        <v>iShares 1-3 Year Treasury Bond ETF</v>
+      </c>
+      <c r="L24" t="s">
+        <v>156</v>
+      </c>
+      <c r="M24">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>128</v>
       </c>
@@ -3690,27 +8976,33 @@
         <v>40</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>49</v>
+        <v>126</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4" t="s">
-        <v>50</v>
+        <v>127</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H25" s="4">
         <v>1</v>
       </c>
       <c r="I25" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>iShares 20+ Year Treasury Bond ETF</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+        <f>IF(data_old[[#This Row],[description_override]]="",data_old[[#This Row],[Description_GPT]],data_old[[#This Row],[description_override]])</f>
+        <v>iShares 3-7 Year Treasury Bond ETF</v>
+      </c>
+      <c r="L25" t="s">
+        <v>86</v>
+      </c>
+      <c r="M25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>128</v>
       </c>
@@ -3718,27 +9010,33 @@
         <v>40</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>327</v>
+        <v>238</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H26" s="4">
         <v>1</v>
       </c>
       <c r="I26" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>iShares TIPS Bond ETF</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+        <f>IF(data_old[[#This Row],[description_override]]="",data_old[[#This Row],[Description_GPT]],data_old[[#This Row],[description_override]])</f>
+        <v>iShares 7-10 Year Treasury Bond ETF</v>
+      </c>
+      <c r="L26" t="s">
+        <v>84</v>
+      </c>
+      <c r="M26">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>128</v>
       </c>
@@ -3746,25 +9044,33 @@
         <v>40</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" s="4"/>
+        <v>49</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>240</v>
+      </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="H27" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>iShares MBS ETF</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+        <f>IF(data_old[[#This Row],[description_override]]="",data_old[[#This Row],[Description_GPT]],data_old[[#This Row],[description_override]])</f>
+        <v>iShares 20+ Year Treasury Bond ETF</v>
+      </c>
+      <c r="L27" t="s">
+        <v>89</v>
+      </c>
+      <c r="M27" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>128</v>
       </c>
@@ -3772,25 +9078,33 @@
         <v>40</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="4"/>
+        <v>135</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>326</v>
+      </c>
       <c r="E28" s="4"/>
-      <c r="F28" t="s">
-        <v>152</v>
+      <c r="F28" s="4" t="s">
+        <v>136</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="H28" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>Simplify Mortgage Backed Securities ETF</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+        <f>IF(data_old[[#This Row],[description_override]]="",data_old[[#This Row],[Description_GPT]],data_old[[#This Row],[description_override]])</f>
+        <v>iShares TIPS Bond ETF</v>
+      </c>
+      <c r="L28" t="s">
+        <v>327</v>
+      </c>
+      <c r="M28">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>128</v>
       </c>
@@ -3798,278 +9112,942 @@
         <v>40</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>15</v>
+        <v>344</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
-      <c r="F29" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H29" s="4">
-        <v>1</v>
-      </c>
-      <c r="I29" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>AGNC Investment Corp.</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="L29" t="s">
+        <v>95</v>
+      </c>
+      <c r="M29">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>128</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="H30" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>iShares J.P. Morgan USD Emerging Markets Bond ETF</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+        <f>IF(data_old[[#This Row],[description_override]]="",data_old[[#This Row],[Description_GPT]],data_old[[#This Row],[description_override]])</f>
+        <v>iShares MBS ETF</v>
+      </c>
+      <c r="L30" t="s">
+        <v>93</v>
+      </c>
+      <c r="M30">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B31" t="s">
-        <v>74</v>
-      </c>
-      <c r="C31" t="s">
-        <v>75</v>
-      </c>
+      <c r="B31" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
       <c r="F31" t="s">
-        <v>76</v>
-      </c>
-      <c r="G31" t="s">
-        <v>114</v>
+        <v>152</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>153</v>
       </c>
       <c r="H31" s="4">
         <v>0</v>
       </c>
       <c r="I31" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>WisdomTree Emerging Markets Local Debt Fund</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+        <f>IF(data_old[[#This Row],[description_override]]="",data_old[[#This Row],[Description_GPT]],data_old[[#This Row],[description_override]])</f>
+        <v>Simplify Mortgage Backed Securities ETF</v>
+      </c>
+      <c r="L31" t="s">
+        <v>330</v>
+      </c>
+      <c r="M31">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>128</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="H32" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>iShares International Government Bonds ETF</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+        <f>IF(data_old[[#This Row],[description_override]]="",data_old[[#This Row],[Description_GPT]],data_old[[#This Row],[description_override]])</f>
+        <v>AGNC Investment Corp.</v>
+      </c>
+      <c r="L32" t="s">
+        <v>91</v>
+      </c>
+      <c r="M32">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>57</v>
+        <v>346</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
-      <c r="F33" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H33" s="4">
-        <v>1</v>
-      </c>
-      <c r="I33" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>SPDR Gold Shares</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4">
+        <f>IF(data_old[[#This Row],[description_override]]="",data_old[[#This Row],[Description_GPT]],data_old[[#This Row],[description_override]])</f>
+        <v>0</v>
+      </c>
+      <c r="L33" t="s">
+        <v>324</v>
+      </c>
+      <c r="M33">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D34" s="4"/>
+        <v>345</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>345</v>
+      </c>
       <c r="E34" s="4"/>
-      <c r="F34" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="H34" s="4">
-        <v>1</v>
-      </c>
-      <c r="I34" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>iShares Silver Trust</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4">
+        <f>IF(data_old[[#This Row],[description_override]]="",data_old[[#This Row],[Description_GPT]],data_old[[#This Row],[description_override]])</f>
+        <v>0</v>
+      </c>
+      <c r="L34" t="s">
+        <v>142</v>
+      </c>
+      <c r="M34">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="H35" s="4">
         <v>1</v>
       </c>
       <c r="I35" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>United States Oil Fund</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+        <f>IF(data_old[[#This Row],[description_override]]="",data_old[[#This Row],[Description_GPT]],data_old[[#This Row],[description_override]])</f>
+        <v>iShares J.P. Morgan USD Emerging Markets Bond ETF</v>
+      </c>
+      <c r="L35" t="s">
+        <v>80</v>
+      </c>
+      <c r="M35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>63</v>
+        <v>349</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
-      <c r="F36" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="H36" s="4">
-        <v>1</v>
-      </c>
-      <c r="I36" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>Invesco DB Commodity Index Tracking Fund</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4">
+        <f>IF(data_old[[#This Row],[description_override]]="",data_old[[#This Row],[Description_GPT]],data_old[[#This Row],[description_override]])</f>
+        <v>0</v>
+      </c>
+      <c r="L36" t="s">
+        <v>82</v>
+      </c>
+      <c r="M36">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>111</v>
+        <v>128</v>
+      </c>
+      <c r="B37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" t="s">
+        <v>75</v>
+      </c>
+      <c r="F37" t="s">
+        <v>76</v>
+      </c>
+      <c r="G37" t="s">
+        <v>114</v>
       </c>
       <c r="H37" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>Invesco DB US Dollar Index Bullish Fund</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+        <f>IF(data_old[[#This Row],[description_override]]="",data_old[[#This Row],[Description_GPT]],data_old[[#This Row],[description_override]])</f>
+        <v>WisdomTree Emerging Markets Local Debt Fund</v>
+      </c>
+      <c r="L37" t="s">
+        <v>10</v>
+      </c>
+      <c r="M37">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H38" s="4">
+        <v>0</v>
+      </c>
+      <c r="I38" s="4" t="str">
+        <f>IF(data_old[[#This Row],[description_override]]="",data_old[[#This Row],[Description_GPT]],data_old[[#This Row],[description_override]])</f>
+        <v>iShares International Government Bonds ETF</v>
+      </c>
+      <c r="L38" t="s">
+        <v>12</v>
+      </c>
+      <c r="M38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H39" s="4">
+        <v>1</v>
+      </c>
+      <c r="I39" s="4" t="str">
+        <f>IF(data_old[[#This Row],[description_override]]="",data_old[[#This Row],[Description_GPT]],data_old[[#This Row],[description_override]])</f>
+        <v>SPDR Gold Shares</v>
+      </c>
+      <c r="L39" t="s">
+        <v>347</v>
+      </c>
+      <c r="M39">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H40" s="4">
+        <v>1</v>
+      </c>
+      <c r="I40" s="4" t="str">
+        <f>IF(data_old[[#This Row],[description_override]]="",data_old[[#This Row],[Description_GPT]],data_old[[#This Row],[description_override]])</f>
+        <v>iShares Silver Trust</v>
+      </c>
+      <c r="L40" t="s">
+        <v>348</v>
+      </c>
+      <c r="M40">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H41" s="4">
+        <v>1</v>
+      </c>
+      <c r="I41" s="4" t="str">
+        <f>IF(data_old[[#This Row],[description_override]]="",data_old[[#This Row],[Description_GPT]],data_old[[#This Row],[description_override]])</f>
+        <v>United States Oil Fund</v>
+      </c>
+      <c r="L41" t="s">
+        <v>51</v>
+      </c>
+      <c r="M41">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H42" s="4">
+        <v>1</v>
+      </c>
+      <c r="I42" s="4" t="str">
+        <f>IF(data_old[[#This Row],[description_override]]="",data_old[[#This Row],[Description_GPT]],data_old[[#This Row],[description_override]])</f>
+        <v>Invesco DB Commodity Index Tracking Fund</v>
+      </c>
+      <c r="L42" t="s">
+        <v>126</v>
+      </c>
+      <c r="M42">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H43" s="4">
+        <v>1</v>
+      </c>
+      <c r="I43" s="4" t="str">
+        <f>IF(data_old[[#This Row],[description_override]]="",data_old[[#This Row],[Description_GPT]],data_old[[#This Row],[description_override]])</f>
+        <v>Invesco DB US Dollar Index Bullish Fund</v>
+      </c>
+      <c r="L43" t="s">
+        <v>131</v>
+      </c>
+      <c r="M43">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="G44" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="H38" s="4">
-        <v>1</v>
-      </c>
-      <c r="I38" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+      <c r="H44" s="4">
+        <v>1</v>
+      </c>
+      <c r="I44" s="4" t="str">
+        <f>IF(data_old[[#This Row],[description_override]]="",data_old[[#This Row],[Description_GPT]],data_old[[#This Row],[description_override]])</f>
         <v>Invesco CurrencyShares Euro Trust</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="L44" t="s">
+        <v>49</v>
+      </c>
+      <c r="M44">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>65</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B45" t="s">
         <v>71</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C45" t="s">
         <v>72</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F45" t="s">
         <v>73</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G45" t="s">
         <v>113</v>
       </c>
-      <c r="H39" s="4">
-        <v>1</v>
-      </c>
-      <c r="I39" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+      <c r="H45" s="4">
+        <v>1</v>
+      </c>
+      <c r="I45" s="4" t="str">
+        <f>IF(data_old[[#This Row],[description_override]]="",data_old[[#This Row],[Description_GPT]],data_old[[#This Row],[description_override]])</f>
         <v>Invesco CurrencyShares Japanese Yen Trust</v>
+      </c>
+      <c r="L45" t="s">
+        <v>135</v>
+      </c>
+      <c r="M45">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L46" t="s">
+        <v>344</v>
+      </c>
+      <c r="M46">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>343</v>
+      </c>
+      <c r="L47" t="s">
+        <v>53</v>
+      </c>
+      <c r="M47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L48" t="s">
+        <v>14</v>
+      </c>
+      <c r="M48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C49" t="s">
+        <v>333</v>
+      </c>
+      <c r="D49" cm="1">
+        <f t="array" ref="D49:D57">_xlfn.XMATCH(C49:C57,data_old[factor_name])</f>
+        <v>27</v>
+      </c>
+      <c r="F49" t="e" cm="1" vm="1">
+        <f t="array" ref="F49">_xlfn.TEXTJOIN(", ",,_xlfn._xlws.FILTER(C49:C57,ISERROR(_xlfn.ANCHORARRAY(D49))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L49" t="s">
+        <v>15</v>
+      </c>
+      <c r="M49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C50" t="s">
+        <v>334</v>
+      </c>
+      <c r="D50">
+        <v>28</v>
+      </c>
+      <c r="L50" t="s">
+        <v>346</v>
+      </c>
+      <c r="M50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C51" t="s">
+        <v>335</v>
+      </c>
+      <c r="D51">
+        <v>33</v>
+      </c>
+      <c r="L51" t="s">
+        <v>345</v>
+      </c>
+      <c r="M51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C52" t="s">
+        <v>336</v>
+      </c>
+      <c r="D52">
+        <v>32</v>
+      </c>
+      <c r="F52" t="s">
+        <v>173</v>
+      </c>
+      <c r="L52" t="s">
+        <v>97</v>
+      </c>
+      <c r="M52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C53" t="s">
+        <v>337</v>
+      </c>
+      <c r="D53">
+        <v>38</v>
+      </c>
+      <c r="F53" t="s">
+        <v>174</v>
+      </c>
+      <c r="L53" t="s">
+        <v>349</v>
+      </c>
+      <c r="M53">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C54" t="s">
+        <v>338</v>
+      </c>
+      <c r="D54">
+        <v>19</v>
+      </c>
+      <c r="F54" t="s">
+        <v>175</v>
+      </c>
+      <c r="L54" t="s">
+        <v>75</v>
+      </c>
+      <c r="M54">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C55" t="s">
+        <v>339</v>
+      </c>
+      <c r="D55">
+        <v>21</v>
+      </c>
+      <c r="F55" t="s">
+        <v>176</v>
+      </c>
+      <c r="L55" t="s">
+        <v>99</v>
+      </c>
+      <c r="M55">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C56" t="s">
+        <v>340</v>
+      </c>
+      <c r="D56">
+        <v>20</v>
+      </c>
+      <c r="F56" t="s">
+        <v>177</v>
+      </c>
+      <c r="L56" t="s">
+        <v>57</v>
+      </c>
+      <c r="M56">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C57" t="s">
+        <v>341</v>
+      </c>
+      <c r="D57">
+        <v>22</v>
+      </c>
+      <c r="F57" t="s">
+        <v>342</v>
+      </c>
+      <c r="J57" t="s">
+        <v>333</v>
+      </c>
+      <c r="L57" t="s">
+        <v>59</v>
+      </c>
+      <c r="M57">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="F58" t="s">
+        <v>178</v>
+      </c>
+      <c r="J58" t="s">
+        <v>334</v>
+      </c>
+      <c r="L58" t="s">
+        <v>61</v>
+      </c>
+      <c r="M58">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="F59" t="s">
+        <v>179</v>
+      </c>
+      <c r="J59" t="s">
+        <v>335</v>
+      </c>
+      <c r="L59" t="s">
+        <v>63</v>
+      </c>
+      <c r="M59">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C60" t="str" cm="1">
+        <f t="array" ref="C60:C67">_xlfn.TEXTSPLIT(C47,," ")</f>
+        <v>Emhy</v>
+      </c>
+      <c r="D60" cm="1">
+        <f t="array" ref="D60:D67">_xlfn.XMATCH(_xlfn.ANCHORARRAY(C60),data_old[factor_name])</f>
+        <v>35</v>
+      </c>
+      <c r="F60" t="s">
+        <v>180</v>
+      </c>
+      <c r="J60" t="s">
+        <v>336</v>
+      </c>
+      <c r="L60" t="s">
+        <v>66</v>
+      </c>
+      <c r="M60">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C61" t="str">
+        <v>mdy</v>
+      </c>
+      <c r="D61" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F61" t="s">
+        <v>181</v>
+      </c>
+      <c r="J61" t="s">
+        <v>337</v>
+      </c>
+      <c r="L61" t="s">
+        <v>69</v>
+      </c>
+      <c r="M61">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C62" t="str">
+        <v>vnq</v>
+      </c>
+      <c r="D62" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F62" t="s">
+        <v>182</v>
+      </c>
+      <c r="J62" t="s">
+        <v>338</v>
+      </c>
+      <c r="L62" t="s">
+        <v>72</v>
+      </c>
+      <c r="M62">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C63" t="str">
+        <v>pff</v>
+      </c>
+      <c r="D63" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F63" t="s">
+        <v>285</v>
+      </c>
+      <c r="J63" t="s">
+        <v>339</v>
+      </c>
+      <c r="L63" t="s">
+        <v>173</v>
+      </c>
+      <c r="M63">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C64" t="str">
+        <v>ashr</v>
+      </c>
+      <c r="D64">
+        <v>18</v>
+      </c>
+      <c r="J64" t="s">
+        <v>340</v>
+      </c>
+      <c r="L64" t="s">
+        <v>174</v>
+      </c>
+      <c r="M64">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C65" t="str">
+        <v>kweb</v>
+      </c>
+      <c r="D65" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J65" t="s">
+        <v>341</v>
+      </c>
+      <c r="L65" t="s">
+        <v>175</v>
+      </c>
+      <c r="M65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C66" t="str">
+        <v>fxi</v>
+      </c>
+      <c r="D66">
+        <v>17</v>
+      </c>
+      <c r="J66" t="s">
+        <v>350</v>
+      </c>
+      <c r="L66" t="s">
+        <v>176</v>
+      </c>
+      <c r="M66">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C67" t="str">
+        <v>aiq</v>
+      </c>
+      <c r="D67" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J67" t="s">
+        <v>351</v>
+      </c>
+      <c r="L67" t="s">
+        <v>177</v>
+      </c>
+      <c r="M67">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="J68" t="s">
+        <v>352</v>
+      </c>
+      <c r="L68" t="s">
+        <v>342</v>
+      </c>
+      <c r="M68">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="J69" t="s">
+        <v>353</v>
+      </c>
+      <c r="L69" t="s">
+        <v>178</v>
+      </c>
+      <c r="M69">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="J70" t="s">
+        <v>354</v>
+      </c>
+      <c r="L70" t="s">
+        <v>179</v>
+      </c>
+      <c r="M70">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="J71" t="s">
+        <v>355</v>
+      </c>
+      <c r="L71" t="s">
+        <v>180</v>
+      </c>
+      <c r="M71">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="J72" t="s">
+        <v>356</v>
+      </c>
+      <c r="L72" t="s">
+        <v>181</v>
+      </c>
+      <c r="M72">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="J73" t="s">
+        <v>357</v>
+      </c>
+      <c r="L73" t="s">
+        <v>182</v>
+      </c>
+      <c r="M73">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="L74" t="s">
+        <v>285</v>
+      </c>
+      <c r="M74">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -4080,12 +10058,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A08F2F-299B-47F7-8064-36693758F4E3}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4098,10 +10076,10 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D1" t="s">
         <v>19</v>
@@ -4109,11 +10087,11 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="str" cm="1">
-        <f t="array" ref="A2:A31">_xlfn._xlws.FILTER(data[factor_name],data[Active])</f>
+        <f t="array" ref="A2:A54">_xlfn._xlws.FILTER(data[factor_name],data[Active])</f>
         <v>SPY</v>
       </c>
       <c r="B2" t="str" cm="1">
-        <f t="array" ref="B2:D31">INDEX(data[],_xlfn.XMATCH(_xlfn.ANCHORARRAY(A2),data[factor_name]),_xlfn.XMATCH(B1:D1,data[#Headers]))</f>
+        <f t="array" ref="B2:D54">INDEX(data[],_xlfn.XMATCH(_xlfn.ANCHORARRAY(A2),data[factor_name]),_xlfn.XMATCH(B1:D1,data[#Headers]))</f>
         <v>Equities</v>
       </c>
       <c r="C2" t="str">
@@ -4139,7 +10117,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
-        <v>QQQ</v>
+        <v>MDY</v>
       </c>
       <c r="B4" t="str">
         <v>Equities</v>
@@ -4148,12 +10126,12 @@
         <v>USD</v>
       </c>
       <c r="D4" t="str">
-        <v>Nasdaq 100</v>
+        <v>S&amp;P 400</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
-        <v>DIA</v>
+        <v>QQQ</v>
       </c>
       <c r="B5" t="str">
         <v>Equities</v>
@@ -4162,370 +10140,692 @@
         <v>USD</v>
       </c>
       <c r="D5" t="str">
-        <v>Dow Jones 30</v>
+        <v>Nasdaq 100</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
-        <v>FEZ</v>
+        <v>DIA</v>
       </c>
       <c r="B6" t="str">
         <v>Equities</v>
       </c>
       <c r="C6" t="str">
-        <v>EUR</v>
+        <v>USD</v>
       </c>
       <c r="D6" t="str">
-        <v>Eurostoxx 50</v>
+        <v>Dow Jones 30</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
-        <v>EWU</v>
+        <v>XLK</v>
       </c>
       <c r="B7" t="str">
-        <v>Equities</v>
+        <v>Sector</v>
       </c>
       <c r="C7" t="str">
-        <v>GBP</v>
+        <v>USD</v>
       </c>
       <c r="D7" t="str">
-        <v>iShares FTSE United Kingdom ETF</v>
+        <v>Technology</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
-        <v>DAX</v>
+        <v>XLI</v>
       </c>
       <c r="B8" t="str">
-        <v>Equities</v>
+        <v>Sector</v>
       </c>
       <c r="C8" t="str">
-        <v>EUR</v>
+        <v>USD</v>
       </c>
       <c r="D8" t="str">
-        <v>DAX (Germany)</v>
+        <v>Industrials</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
-        <v>EWC</v>
+        <v>XLF</v>
       </c>
       <c r="B9" t="str">
-        <v>Equities</v>
+        <v>Sector</v>
       </c>
       <c r="C9" t="str">
-        <v>CAD</v>
+        <v>USD</v>
       </c>
       <c r="D9" t="str">
-        <v>iShares MSCI Canada ETF</v>
+        <v>Financials</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
-        <v>CAC</v>
+        <v>KRE</v>
       </c>
       <c r="B10" t="str">
-        <v>Equities</v>
+        <v>Sector</v>
       </c>
       <c r="C10" t="str">
-        <v>EUR</v>
+        <v>USD</v>
       </c>
       <c r="D10" t="str">
-        <v>CAC 40 (France)</v>
+        <v>Regional Banks</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
-        <v>EWI</v>
+        <v>XLC</v>
       </c>
       <c r="B11" t="str">
-        <v>Equities</v>
+        <v>Sector</v>
       </c>
       <c r="C11" t="str">
-        <v>EUR</v>
+        <v>USD</v>
       </c>
       <c r="D11" t="str">
-        <v>iShares MSCI Italy ETF</v>
+        <v>Communications</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
-        <v>^N225</v>
+        <v>XLE</v>
       </c>
       <c r="B12" t="str">
-        <v>Equities</v>
+        <v>Sector</v>
       </c>
       <c r="C12" t="str">
-        <v>JPY</v>
+        <v>USD</v>
       </c>
       <c r="D12" t="str">
-        <v>Nikkei 225</v>
+        <v>Energy</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
-        <v>TPX</v>
+        <v>XLY</v>
       </c>
       <c r="B13" t="str">
-        <v>Equities</v>
+        <v>Sector</v>
       </c>
       <c r="C13" t="str">
-        <v>JPY</v>
+        <v>USD</v>
       </c>
       <c r="D13" t="str">
-        <v>TOPIX</v>
+        <v>Discretionary</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
-        <v>FXI</v>
+        <v>XLB</v>
       </c>
       <c r="B14" t="str">
-        <v>Equities</v>
+        <v>Sector</v>
       </c>
       <c r="C14" t="str">
-        <v>CNH</v>
+        <v>USD</v>
       </c>
       <c r="D14" t="str">
-        <v>iShares China Large-Cap ETF</v>
+        <v>Materials</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
-        <v>ASHR</v>
+        <v>XLV</v>
       </c>
       <c r="B15" t="str">
-        <v>Equities</v>
+        <v>Sector</v>
       </c>
       <c r="C15" t="str">
-        <v>CNH</v>
+        <v>USD</v>
       </c>
       <c r="D15" t="str">
-        <v>Xtrackers Harvest CSI 300 China A-Shares ETF</v>
+        <v>Health Care</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
-        <v>LQD</v>
+        <v>XLU</v>
       </c>
       <c r="B16" t="str">
-        <v>Credit</v>
+        <v>Sector</v>
       </c>
       <c r="C16" t="str">
         <v>USD</v>
       </c>
       <c r="D16" t="str">
-        <v>iShares iBoxx $ Investment Grade Corporate Bond ETF</v>
+        <v>Utilities</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
-        <v>HYG</v>
+        <v>XLP</v>
       </c>
       <c r="B17" t="str">
-        <v>Credit</v>
+        <v>Sector</v>
       </c>
       <c r="C17" t="str">
         <v>USD</v>
       </c>
       <c r="D17" t="str">
-        <v>iShares iBoxx $ High Yield Corporate Bond ETF</v>
+        <v>Staples</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
-        <v>SHY</v>
+        <v>IYR</v>
       </c>
       <c r="B18" t="str">
-        <v>Rates</v>
+        <v>Equities</v>
       </c>
       <c r="C18" t="str">
         <v>USD</v>
       </c>
       <c r="D18" t="str">
-        <v>iShares 1-3 Year Treasury Bond ETF</v>
+        <v>iShares U.S. Real Estate ETF</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
-        <v>IEI</v>
+        <v>VNQ</v>
       </c>
       <c r="B19" t="str">
-        <v>Rates</v>
+        <v>Equities</v>
       </c>
       <c r="C19" t="str">
         <v>USD</v>
       </c>
       <c r="D19" t="str">
-        <v>iShares 3-7 Year Treasury Bond ETF</v>
+        <v>Vanguard Real Estate ETF</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
-        <v>IEF</v>
+        <v>AIQ</v>
       </c>
       <c r="B20" t="str">
-        <v>Rates</v>
+        <v>Equities</v>
       </c>
       <c r="C20" t="str">
         <v>USD</v>
       </c>
       <c r="D20" t="str">
-        <v>iShares 7-10 Year Treasury Bond ETF</v>
+        <v>AI</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
-        <v>TLT</v>
+        <v>PFF</v>
       </c>
       <c r="B21" t="str">
-        <v>Rates</v>
+        <v>Equities</v>
       </c>
       <c r="C21" t="str">
         <v>USD</v>
       </c>
       <c r="D21" t="str">
-        <v>iShares 20+ Year Treasury Bond ETF</v>
+        <v>Preferred</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
-        <v>TIP</v>
+        <v>FEZ</v>
       </c>
       <c r="B22" t="str">
-        <v>Rates</v>
+        <v>Equities</v>
       </c>
       <c r="C22" t="str">
-        <v>USD</v>
+        <v>EUR</v>
       </c>
       <c r="D22" t="str">
-        <v>iShares TIPS Bond ETF</v>
+        <v>Eurostoxx 50</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
-        <v>AGNC</v>
+        <v>EWU</v>
       </c>
       <c r="B23" t="str">
-        <v>Rates</v>
+        <v>Equities</v>
       </c>
       <c r="C23" t="str">
-        <v>USD</v>
+        <v>GBP</v>
       </c>
       <c r="D23" t="str">
-        <v>AGNC Investment Corp.</v>
+        <v>iShares FTSE United Kingdom ETF</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
-        <v>EMB</v>
+        <v>DAX</v>
       </c>
       <c r="B24" t="str">
-        <v>Rates</v>
+        <v>Equities</v>
       </c>
       <c r="C24" t="str">
-        <v>EM</v>
+        <v>EUR</v>
       </c>
       <c r="D24" t="str">
-        <v>iShares J.P. Morgan USD Emerging Markets Bond ETF</v>
+        <v>DAX (Germany)</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
-        <v>GLD</v>
+        <v>EWC</v>
       </c>
       <c r="B25" t="str">
-        <v>Commodities</v>
+        <v>Equities</v>
       </c>
       <c r="C25" t="str">
-        <v>USD</v>
+        <v>CAD</v>
       </c>
       <c r="D25" t="str">
-        <v>SPDR Gold Shares</v>
+        <v>iShares MSCI Canada ETF</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
-        <v>SLV</v>
+        <v>CAC</v>
       </c>
       <c r="B26" t="str">
-        <v>Commodities</v>
+        <v>Equities</v>
       </c>
       <c r="C26" t="str">
-        <v>USD</v>
+        <v>EUR</v>
       </c>
       <c r="D26" t="str">
-        <v>iShares Silver Trust</v>
+        <v>CAC 40 (France)</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
-        <v>USO</v>
+        <v>EWI</v>
       </c>
       <c r="B27" t="str">
-        <v>Commodities</v>
+        <v>Equities</v>
       </c>
       <c r="C27" t="str">
-        <v>USD</v>
+        <v>EUR</v>
       </c>
       <c r="D27" t="str">
-        <v>United States Oil Fund</v>
+        <v>iShares MSCI Italy ETF</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="str">
-        <v>DBC</v>
+        <v>^N225</v>
       </c>
       <c r="B28" t="str">
-        <v>Commodities</v>
+        <v>Equities</v>
       </c>
       <c r="C28" t="str">
-        <v>USD</v>
+        <v>JPY</v>
       </c>
       <c r="D28" t="str">
-        <v>Invesco DB Commodity Index Tracking Fund</v>
+        <v>Nikkei 225</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="str">
-        <v>UUP</v>
+        <v>TPX</v>
       </c>
       <c r="B29" t="str">
-        <v>Currencies</v>
+        <v>Equities</v>
       </c>
       <c r="C29" t="str">
-        <v>USD</v>
+        <v>JPY</v>
       </c>
       <c r="D29" t="str">
-        <v>Invesco DB US Dollar Index Bullish Fund</v>
+        <v>TOPIX</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
-        <v>FXE</v>
+        <v>FXI</v>
       </c>
       <c r="B30" t="str">
-        <v>Currencies</v>
+        <v>Equities</v>
       </c>
       <c r="C30" t="str">
-        <v>EUR</v>
+        <v>CNH</v>
       </c>
       <c r="D30" t="str">
-        <v>Invesco CurrencyShares Euro Trust</v>
+        <v>iShares China Large-Cap ETF</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
+        <v>ASHR</v>
+      </c>
+      <c r="B31" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C31" t="str">
+        <v>CNH</v>
+      </c>
+      <c r="D31" t="str">
+        <v>Xtrackers Harvest CSI 300 China A-Shares ETF</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="str">
+        <v>KWEB</v>
+      </c>
+      <c r="B32" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C32" t="str">
+        <v>CNH</v>
+      </c>
+      <c r="D32" t="str">
+        <v>KraneShares CSI China Internet ETF</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="str">
+        <v>LQD</v>
+      </c>
+      <c r="B33" t="str">
+        <v>Credit</v>
+      </c>
+      <c r="C33" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D33" t="str">
+        <v>iShares iBoxx $ Investment Grade Corporate Bond ETF</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="str">
+        <v>HYG</v>
+      </c>
+      <c r="B34" t="str">
+        <v>Credit</v>
+      </c>
+      <c r="C34" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D34" t="str">
+        <v>iShares iBoxx $ High Yield Corporate Bond ETF</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="str">
+        <v>LQDH</v>
+      </c>
+      <c r="B35" t="str">
+        <v>Credit</v>
+      </c>
+      <c r="C35" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="str">
+        <v>HYGH</v>
+      </c>
+      <c r="B36" t="str">
+        <v>Credit</v>
+      </c>
+      <c r="C36" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="str">
+        <v>SHY</v>
+      </c>
+      <c r="B37" t="str">
+        <v>Rates</v>
+      </c>
+      <c r="C37" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D37" t="str">
+        <v>iShares 1-3 Year Treasury Bond ETF</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="str">
+        <v>IEI</v>
+      </c>
+      <c r="B38" t="str">
+        <v>Rates</v>
+      </c>
+      <c r="C38" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D38" t="str">
+        <v>iShares 3-7 Year Treasury Bond ETF</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="str">
+        <v>IEF</v>
+      </c>
+      <c r="B39" t="str">
+        <v>Rates</v>
+      </c>
+      <c r="C39" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D39" t="str">
+        <v>iShares 7-10 Year Treasury Bond ETF</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="str">
+        <v>TLT</v>
+      </c>
+      <c r="B40" t="str">
+        <v>Rates</v>
+      </c>
+      <c r="C40" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D40" t="str">
+        <v>iShares 20+ Year Treasury Bond ETF</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="str">
+        <v>TIP</v>
+      </c>
+      <c r="B41" t="str">
+        <v>Rates</v>
+      </c>
+      <c r="C41" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D41" t="str">
+        <v>iShares TIPS Bond ETF</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="str">
+        <v>VTIP</v>
+      </c>
+      <c r="B42" t="str">
+        <v>Rates</v>
+      </c>
+      <c r="C42" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="str">
+        <v>AGNC</v>
+      </c>
+      <c r="B43" t="str">
+        <v>Rates</v>
+      </c>
+      <c r="C43" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D43" t="str">
+        <v>AGNC Investment Corp.</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="str">
+        <v>VMBS</v>
+      </c>
+      <c r="B44" t="str">
+        <v>Rates</v>
+      </c>
+      <c r="C44" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="str">
+        <v>CMBS</v>
+      </c>
+      <c r="B45" t="str">
+        <v>Rates</v>
+      </c>
+      <c r="C45" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="str">
+        <v>EMB</v>
+      </c>
+      <c r="B46" t="str">
+        <v>Rates</v>
+      </c>
+      <c r="C46" t="str">
+        <v>EM</v>
+      </c>
+      <c r="D46" t="str">
+        <v>iShares J.P. Morgan USD Emerging Markets Bond ETF</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="str">
+        <v>EMHY</v>
+      </c>
+      <c r="B47" t="str">
+        <v>Rates</v>
+      </c>
+      <c r="C47" t="str">
+        <v>EM</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="str">
+        <v>GLD</v>
+      </c>
+      <c r="B48" t="str">
+        <v>Commodities</v>
+      </c>
+      <c r="C48" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D48" t="str">
+        <v>SPDR Gold Shares</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="str">
+        <v>SLV</v>
+      </c>
+      <c r="B49" t="str">
+        <v>Commodities</v>
+      </c>
+      <c r="C49" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D49" t="str">
+        <v>iShares Silver Trust</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="str">
+        <v>USO</v>
+      </c>
+      <c r="B50" t="str">
+        <v>Commodities</v>
+      </c>
+      <c r="C50" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D50" t="str">
+        <v>United States Oil Fund</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="str">
+        <v>DBC</v>
+      </c>
+      <c r="B51" t="str">
+        <v>Commodities</v>
+      </c>
+      <c r="C51" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D51" t="str">
+        <v>Invesco DB Commodity Index Tracking Fund</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="str">
+        <v>UUP</v>
+      </c>
+      <c r="B52" t="str">
+        <v>Currencies</v>
+      </c>
+      <c r="C52" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D52" t="str">
+        <v>Invesco DB US Dollar Index Bullish Fund</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="str">
+        <v>FXE</v>
+      </c>
+      <c r="B53" t="str">
+        <v>Currencies</v>
+      </c>
+      <c r="C53" t="str">
+        <v>EUR</v>
+      </c>
+      <c r="D53" t="str">
+        <v>Invesco CurrencyShares Euro Trust</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="str">
         <v>FXY</v>
       </c>
-      <c r="B31" t="str">
+      <c r="B54" t="str">
         <v>Currencies</v>
       </c>
-      <c r="C31" t="str">
+      <c r="C54" t="str">
         <v>JPY</v>
       </c>
-      <c r="D31" t="str">
+      <c r="D54" t="str">
         <v>Invesco CurrencyShares Japanese Yen Trust</v>
       </c>
     </row>
@@ -4534,7 +10834,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{509EC1D2-D913-4E91-BF4A-1B9A2D2D358E}">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -4652,7 +10952,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28B96AA-E903-4E49-8EE7-2DF563672EF4}">
   <dimension ref="A1:D9"/>
   <sheetViews>

--- a/factor_master.xlsx
+++ b/factor_master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bkrai\Source\risk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EACEFE12-EE88-4375-96A0-DDFCC1D24F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{034C9F5B-E626-4125-92C2-5C938D259E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="6" xr2:uid="{C31FDC5B-A809-4BFD-99CB-DA02246721F7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="4" xr2:uid="{C31FDC5B-A809-4BFD-99CB-DA02246721F7}"/>
   </bookViews>
   <sheets>
     <sheet name="legacy" sheetId="5" r:id="rId1"/>
@@ -18,10 +18,10 @@
     <sheet name="data_new" sheetId="7" r:id="rId3"/>
     <sheet name="lior" sheetId="9" r:id="rId4"/>
     <sheet name="data" sheetId="3" r:id="rId5"/>
-    <sheet name="data_old" sheetId="8" r:id="rId6"/>
-    <sheet name="read" sheetId="4" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId8"/>
-    <sheet name="read_old" sheetId="1" r:id="rId9"/>
+    <sheet name="read" sheetId="4" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId7"/>
+    <sheet name="read_old" sheetId="1" r:id="rId8"/>
+    <sheet name="data_old" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1559" uniqueCount="430">
   <si>
     <t>SPX</t>
   </si>
@@ -1365,6 +1365,12 @@
   </si>
   <si>
     <t>HYB</t>
+  </si>
+  <si>
+    <t>hyper_factor</t>
+  </si>
+  <si>
+    <t>MWTIX</t>
   </si>
 </sst>
 </file>
@@ -1456,7 +1462,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="25">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1585,8 +1594,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Table Style 1" pivot="0" count="2" xr9:uid="{26B58CFA-74FB-41FD-AB02-EC6D3EA4F4A1}">
-      <tableStyleElement type="wholeTable" dxfId="23"/>
-      <tableStyleElement type="headerRow" dxfId="22"/>
+      <tableStyleElement type="wholeTable" dxfId="24"/>
+      <tableStyleElement type="headerRow" dxfId="23"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1659,18 +1668,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6DAD1482-C63D-400D-9F51-F22A8E35CAD8}" name="data" displayName="data" ref="A1:I62" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
-  <autoFilter ref="A1:I62" xr:uid="{6DAD1482-C63D-400D-9F51-F22A8E35CAD8}"/>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{740DC173-AAC9-4239-A44E-C43F8517304D}" name="asset_class" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{A3BC3BB8-0420-458E-AECD-FD567519FA40}" name="region" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{0E50B2E3-0362-41DB-ACC2-478CC6F618A4}" name="factor_name" dataDxfId="17"/>
-    <tableColumn id="8" xr3:uid="{02943B27-7FCB-4450-B8E0-CF0DB6CF5CCA}" name="factor_name_new" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{D181BF84-863F-4FD0-B518-14EA5B0FB18E}" name="description_override" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{1C40DF9B-2910-4DE6-A188-563938E39797}" name="Description_GPT" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{1806E074-6CB5-47AB-8FA3-EF0F6E429062}" name="Underlying" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{21539C17-C1CC-4FA9-A0E1-A2F8FF8AB52C}" name="Active" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{5A601067-D384-419C-A711-AD3034F77E28}" name="description" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6DAD1482-C63D-400D-9F51-F22A8E35CAD8}" name="data" displayName="data" ref="A1:J64" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+  <autoFilter ref="A1:J64" xr:uid="{6DAD1482-C63D-400D-9F51-F22A8E35CAD8}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{740DC173-AAC9-4239-A44E-C43F8517304D}" name="asset_class" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{A3BC3BB8-0420-458E-AECD-FD567519FA40}" name="region" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{0E50B2E3-0362-41DB-ACC2-478CC6F618A4}" name="factor_name" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{02943B27-7FCB-4450-B8E0-CF0DB6CF5CCA}" name="factor_name_new" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{D181BF84-863F-4FD0-B518-14EA5B0FB18E}" name="description_override" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{1C40DF9B-2910-4DE6-A188-563938E39797}" name="Description_GPT" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{1806E074-6CB5-47AB-8FA3-EF0F6E429062}" name="Underlying" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{21539C17-C1CC-4FA9-A0E1-A2F8FF8AB52C}" name="Active" dataDxfId="13"/>
+    <tableColumn id="37" xr3:uid="{DE50B7AE-5F67-471C-BE48-8BFA5076EDB0}" name="hyper_factor" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{5A601067-D384-419C-A711-AD3034F77E28}" name="description" dataDxfId="12">
       <calculatedColumnFormula>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1679,18 +1689,18 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F918301C-859F-40B7-9C3E-90E8F0495E68}" name="data_old" displayName="data_old" ref="A1:I45" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F918301C-859F-40B7-9C3E-90E8F0495E68}" name="data_old" displayName="data_old" ref="A1:I45" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A1:I45" xr:uid="{6DAD1482-C63D-400D-9F51-F22A8E35CAD8}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{B19D2B17-9AC9-4F1B-B32E-D4F72AAE469F}" name="asset_class" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{2C7CF29D-8E72-4B0C-A212-31F2A25D75C9}" name="region" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{C7E89EEC-2B5D-4C94-9327-1AC8E33DE708}" name="factor_name" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{B3F9004A-8BEB-463E-A746-8189A2AC2B3E}" name="factor_name_new" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{51CD7FB3-58FE-4906-B73C-7726C0A9C471}" name="description_override" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{3CFF990B-3164-4533-821F-08CE7C6D82CA}" name="Description_GPT" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{DD86D53E-A9B4-4387-ABF9-F2625E77982D}" name="Underlying" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{D56FFF9A-72FF-42A4-B3D2-2F27AB16AF7A}" name="Active" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{8476DFDE-B4B1-4FD9-99B4-DF1F2ABBD7D5}" name="description" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{B19D2B17-9AC9-4F1B-B32E-D4F72AAE469F}" name="asset_class" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{2C7CF29D-8E72-4B0C-A212-31F2A25D75C9}" name="region" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{C7E89EEC-2B5D-4C94-9327-1AC8E33DE708}" name="factor_name" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{B3F9004A-8BEB-463E-A746-8189A2AC2B3E}" name="factor_name_new" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{51CD7FB3-58FE-4906-B73C-7726C0A9C471}" name="description_override" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{3CFF990B-3164-4533-821F-08CE7C6D82CA}" name="Description_GPT" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{DD86D53E-A9B4-4387-ABF9-F2625E77982D}" name="Underlying" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{D56FFF9A-72FF-42A4-B3D2-2F27AB16AF7A}" name="Active" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{8476DFDE-B4B1-4FD9-99B4-DF1F2ABBD7D5}" name="description" dataDxfId="1">
       <calculatedColumnFormula>IF(data_old[[#This Row],[description_override]]="",data_old[[#This Row],[Description_GPT]],data_old[[#This Row],[description_override]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2017,9 +2027,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC6F81C3-35A2-4C92-A3A4-30A9105A6D5B}">
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5595,7 +5603,7 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -5622,7 +5630,7 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C45" t="s">
         <v>126</v>
@@ -5649,7 +5657,7 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C46" t="s">
         <v>131</v>
@@ -5676,7 +5684,7 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C47" t="s">
         <v>49</v>
@@ -5703,7 +5711,7 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C48" t="s">
         <v>135</v>
@@ -5730,7 +5738,7 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C49" t="s">
         <v>344</v>
@@ -5757,7 +5765,7 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C50" t="s">
         <v>53</v>
@@ -5784,7 +5792,7 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C51" t="s">
         <v>14</v>
@@ -5811,7 +5819,7 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C52" t="s">
         <v>15</v>
@@ -5838,7 +5846,7 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C53" t="s">
         <v>346</v>
@@ -5865,7 +5873,7 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C54" t="s">
         <v>345</v>
@@ -5894,7 +5902,7 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C55" t="s">
         <v>97</v>
@@ -5921,7 +5929,7 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C56" t="s">
         <v>349</v>
@@ -5948,7 +5956,7 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C57" t="s">
         <v>75</v>
@@ -5975,7 +5983,7 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C58" t="s">
         <v>99</v>
@@ -6002,7 +6010,7 @@
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C59" t="s">
         <v>57</v>
@@ -6029,7 +6037,7 @@
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C60" t="s">
         <v>59</v>
@@ -6056,7 +6064,7 @@
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C61" t="s">
         <v>61</v>
@@ -6083,7 +6091,7 @@
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C62" t="s">
         <v>63</v>
@@ -6110,7 +6118,7 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C63" t="s">
         <v>66</v>
@@ -6137,7 +6145,7 @@
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C64" t="s">
         <v>69</v>
@@ -6164,7 +6172,7 @@
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -6198,9 +6206,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB67FE54-23CB-424E-AA4C-48055BA2B8E2}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -6210,7 +6216,7 @@
       </c>
       <c r="B1" cm="1">
         <f t="array" ref="B1:B9">_xlfn.XMATCH(A1:A9,data[factor_name])</f>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D1" cm="1">
         <f t="array" ref="D1:D32">_xlfn.XLOOKUP(_xlfn._TRO_ALL(A:A),data[factor_name],data[Active])</f>
@@ -6222,7 +6228,7 @@
         <v>334</v>
       </c>
       <c r="B2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -6233,7 +6239,7 @@
         <v>335</v>
       </c>
       <c r="B3">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -6244,7 +6250,7 @@
         <v>336</v>
       </c>
       <c r="B4">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -6255,7 +6261,7 @@
         <v>337</v>
       </c>
       <c r="B5">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -6471,23 +6477,24 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C29859C-7358-4E2F-B5CC-7696F1DAC449}">
-  <dimension ref="A1:K62"/>
+  <dimension ref="A1:L64"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.33203125" customWidth="1"/>
     <col min="2" max="2" width="8.44140625" customWidth="1"/>
     <col min="4" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="44.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="64.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.44140625" customWidth="1"/>
-    <col min="9" max="9" width="44.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="59.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>322</v>
       </c>
@@ -6513,10 +6520,13 @@
         <v>151</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>39</v>
       </c>
@@ -6541,12 +6551,15 @@
       <c r="H2" s="4">
         <v>1</v>
       </c>
-      <c r="I2" s="4" t="str">
+      <c r="I2" s="4">
+        <v>1</v>
+      </c>
+      <c r="J2" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>S&amp;P 500</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>39</v>
       </c>
@@ -6571,12 +6584,13 @@
       <c r="H3" s="4">
         <v>1</v>
       </c>
-      <c r="I3" s="4" t="str">
+      <c r="I3" s="4"/>
+      <c r="J3" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>Russell 2000</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>39</v>
       </c>
@@ -6601,12 +6615,13 @@
       <c r="H4" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="4" t="str">
+      <c r="I4" s="4"/>
+      <c r="J4" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>S&amp;P 400</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>39</v>
       </c>
@@ -6631,12 +6646,13 @@
       <c r="H5" s="4">
         <v>1</v>
       </c>
-      <c r="I5" s="4" t="str">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>Nasdaq 100</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>39</v>
       </c>
@@ -6661,13 +6677,14 @@
       <c r="H6" s="4">
         <v>1</v>
       </c>
-      <c r="I6" s="4" t="str">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>Dow Jones 30</v>
       </c>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>425</v>
       </c>
@@ -6688,14 +6705,15 @@
       <c r="H7" s="4">
         <v>1</v>
       </c>
-      <c r="I7" s="8" t="str">
+      <c r="I7" s="4"/>
+      <c r="J7" s="8" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>Technology</v>
       </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="9"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K7" s="2"/>
+      <c r="L7" s="9"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>425</v>
       </c>
@@ -6716,13 +6734,14 @@
       <c r="H8" s="4">
         <v>1</v>
       </c>
-      <c r="I8" s="8" t="str">
+      <c r="I8" s="4"/>
+      <c r="J8" s="8" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>Industrials</v>
       </c>
-      <c r="K8" s="9"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8" s="9"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>425</v>
       </c>
@@ -6743,12 +6762,13 @@
       <c r="H9" s="4">
         <v>1</v>
       </c>
-      <c r="I9" s="8" t="str">
+      <c r="I9" s="4"/>
+      <c r="J9" s="8" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>Financials</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>425</v>
       </c>
@@ -6769,12 +6789,13 @@
       <c r="H10" s="4">
         <v>1</v>
       </c>
-      <c r="I10" s="8" t="str">
+      <c r="I10" s="4"/>
+      <c r="J10" s="8" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>Regional Banks</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>425</v>
       </c>
@@ -6795,12 +6816,13 @@
       <c r="H11" s="4">
         <v>1</v>
       </c>
-      <c r="I11" s="8" t="str">
+      <c r="I11" s="4"/>
+      <c r="J11" s="8" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>Communications</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>425</v>
       </c>
@@ -6821,12 +6843,13 @@
       <c r="H12" s="4">
         <v>1</v>
       </c>
-      <c r="I12" s="8" t="str">
+      <c r="I12" s="4"/>
+      <c r="J12" s="8" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>Energy</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>425</v>
       </c>
@@ -6847,12 +6870,13 @@
       <c r="H13" s="4">
         <v>1</v>
       </c>
-      <c r="I13" s="8" t="str">
+      <c r="I13" s="4"/>
+      <c r="J13" s="8" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>Discretionary</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>425</v>
       </c>
@@ -6873,12 +6897,13 @@
       <c r="H14" s="4">
         <v>1</v>
       </c>
-      <c r="I14" s="8" t="str">
+      <c r="I14" s="4"/>
+      <c r="J14" s="8" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>Materials</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>425</v>
       </c>
@@ -6899,12 +6924,13 @@
       <c r="H15" s="4">
         <v>1</v>
       </c>
-      <c r="I15" s="8" t="str">
+      <c r="I15" s="4"/>
+      <c r="J15" s="8" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>Health Care</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>425</v>
       </c>
@@ -6925,12 +6951,13 @@
       <c r="H16" s="4">
         <v>1</v>
       </c>
-      <c r="I16" s="8" t="str">
+      <c r="I16" s="4"/>
+      <c r="J16" s="8" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>Utilities</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>425</v>
       </c>
@@ -6951,12 +6978,13 @@
       <c r="H17" s="4">
         <v>1</v>
       </c>
-      <c r="I17" s="8" t="str">
+      <c r="I17" s="4"/>
+      <c r="J17" s="8" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>Staples</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>39</v>
       </c>
@@ -6975,12 +7003,13 @@
       <c r="H18" s="4">
         <v>1</v>
       </c>
-      <c r="I18" s="8" t="str">
+      <c r="I18" s="4"/>
+      <c r="J18" s="8" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>iShares U.S. Real Estate ETF</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>39</v>
       </c>
@@ -6999,12 +7028,13 @@
       <c r="H19" s="4">
         <v>1</v>
       </c>
-      <c r="I19" s="8" t="str">
+      <c r="I19" s="4"/>
+      <c r="J19" s="8" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>Vanguard Real Estate ETF</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>39</v>
       </c>
@@ -7025,12 +7055,13 @@
       <c r="H20" s="4">
         <v>1</v>
       </c>
-      <c r="I20" s="8" t="str">
+      <c r="I20" s="4"/>
+      <c r="J20" s="8" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>AI</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>39</v>
       </c>
@@ -7051,12 +7082,13 @@
       <c r="H21" s="4">
         <v>1</v>
       </c>
-      <c r="I21" s="8" t="str">
+      <c r="I21" s="4"/>
+      <c r="J21" s="8" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>Preferred</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>39</v>
       </c>
@@ -7081,12 +7113,13 @@
       <c r="H22" s="4">
         <v>1</v>
       </c>
-      <c r="I22" s="4" t="str">
+      <c r="I22" s="4"/>
+      <c r="J22" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>Eurostoxx 50</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>39</v>
       </c>
@@ -7107,12 +7140,13 @@
       <c r="H23" s="4">
         <v>0</v>
       </c>
-      <c r="I23" s="4" t="str">
+      <c r="I23" s="4"/>
+      <c r="J23" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>Eurostoxx Banks</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>39</v>
       </c>
@@ -7133,12 +7167,13 @@
       <c r="H24" s="4">
         <v>1</v>
       </c>
-      <c r="I24" s="4" t="str">
+      <c r="I24" s="4"/>
+      <c r="J24" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>iShares FTSE United Kingdom ETF</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>39</v>
       </c>
@@ -7163,12 +7198,13 @@
       <c r="H25" s="4">
         <v>1</v>
       </c>
-      <c r="I25" s="4" t="str">
+      <c r="I25" s="4"/>
+      <c r="J25" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>DAX (Germany)</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>39</v>
       </c>
@@ -7189,12 +7225,13 @@
       <c r="H26" s="4">
         <v>1</v>
       </c>
-      <c r="I26" s="4" t="str">
+      <c r="I26" s="4"/>
+      <c r="J26" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>iShares MSCI Canada ETF</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>39</v>
       </c>
@@ -7215,12 +7252,13 @@
       <c r="H27" s="4">
         <v>0</v>
       </c>
-      <c r="I27" s="4" t="str">
+      <c r="I27" s="4"/>
+      <c r="J27" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>FTSE MIB (Italy)</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>39</v>
       </c>
@@ -7245,12 +7283,13 @@
       <c r="H28" s="4">
         <v>1</v>
       </c>
-      <c r="I28" s="4" t="str">
+      <c r="I28" s="4"/>
+      <c r="J28" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>CAC 40 (France)</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>39</v>
       </c>
@@ -7271,12 +7310,13 @@
       <c r="H29" s="4">
         <v>1</v>
       </c>
-      <c r="I29" s="4" t="str">
+      <c r="I29" s="4"/>
+      <c r="J29" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>iShares MSCI Italy ETF</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>39</v>
       </c>
@@ -7301,12 +7341,13 @@
       <c r="H30" s="4">
         <v>0</v>
       </c>
-      <c r="I30" s="4" t="str">
+      <c r="I30" s="4"/>
+      <c r="J30" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>IBEX 35 (Spain)</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>39</v>
       </c>
@@ -7327,12 +7368,13 @@
       <c r="H31" s="4">
         <v>0</v>
       </c>
-      <c r="I31" s="4" t="str">
+      <c r="I31" s="4"/>
+      <c r="J31" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>iShares MSCI Spain ETF</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>39</v>
       </c>
@@ -7357,12 +7399,13 @@
       <c r="H32" s="4">
         <v>1</v>
       </c>
-      <c r="I32" s="4" t="str">
+      <c r="I32" s="4"/>
+      <c r="J32" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>Nikkei 225</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>39</v>
       </c>
@@ -7387,12 +7430,13 @@
       <c r="H33" s="4">
         <v>1</v>
       </c>
-      <c r="I33" s="4" t="str">
+      <c r="I33" s="4"/>
+      <c r="J33" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>TOPIX</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>39</v>
       </c>
@@ -7415,12 +7459,13 @@
       <c r="H34" s="4">
         <v>1</v>
       </c>
-      <c r="I34" s="4" t="str">
+      <c r="I34" s="4"/>
+      <c r="J34" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>iShares China Large-Cap ETF</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>39</v>
       </c>
@@ -7443,12 +7488,13 @@
       <c r="H35" s="4">
         <v>1</v>
       </c>
-      <c r="I35" s="4" t="str">
+      <c r="I35" s="4"/>
+      <c r="J35" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>Xtrackers Harvest CSI 300 China A-Shares ETF</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>39</v>
       </c>
@@ -7469,12 +7515,13 @@
       <c r="H36" s="4">
         <v>1</v>
       </c>
-      <c r="I36" s="4" t="str">
+      <c r="I36" s="4"/>
+      <c r="J36" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>KraneShares CSI China Internet ETF</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>46</v>
       </c>
@@ -7497,12 +7544,13 @@
       <c r="H37" s="4">
         <v>1</v>
       </c>
-      <c r="I37" s="4" t="str">
+      <c r="I37" s="4"/>
+      <c r="J37" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>iShares iBoxx $ Investment Grade Corporate Bond ETF</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>46</v>
       </c>
@@ -7525,12 +7573,13 @@
       <c r="H38" s="4">
         <v>1</v>
       </c>
-      <c r="I38" s="4" t="str">
+      <c r="I38" s="4"/>
+      <c r="J38" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>iShares iBoxx $ High Yield Corporate Bond ETF</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>46</v>
       </c>
@@ -7549,12 +7598,13 @@
       <c r="H39" s="4">
         <v>1</v>
       </c>
-      <c r="I39" s="4">
+      <c r="I39" s="4"/>
+      <c r="J39" s="4">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>46</v>
       </c>
@@ -7573,169 +7623,179 @@
       <c r="H40" s="4">
         <v>1</v>
       </c>
-      <c r="I40" s="4">
+      <c r="I40" s="4"/>
+      <c r="J40" s="4">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4">
+        <v>1</v>
+      </c>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4">
+        <v>1</v>
+      </c>
+      <c r="I42" s="4">
+        <v>1</v>
+      </c>
+      <c r="J42" s="4">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C41" s="4" t="s">
+      <c r="B43" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D43" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4" t="s">
+      <c r="E43" s="4"/>
+      <c r="F43" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G41" s="4" t="s">
+      <c r="G43" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="H41" s="4">
-        <v>1</v>
-      </c>
-      <c r="I41" s="4" t="str">
+      <c r="H43" s="4">
+        <v>1</v>
+      </c>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>iShares 1-3 Year Treasury Bond ETF</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C42" s="4" t="s">
+      <c r="B44" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D44" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4" t="s">
+      <c r="E44" s="4"/>
+      <c r="F44" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="G42" s="4" t="s">
+      <c r="G44" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="H42" s="4">
-        <v>1</v>
-      </c>
-      <c r="I42" s="4" t="str">
+      <c r="H44" s="4">
+        <v>1</v>
+      </c>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>iShares 3-7 Year Treasury Bond ETF</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C43" s="4" t="s">
+      <c r="B45" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D45" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4" t="s">
+      <c r="E45" s="4"/>
+      <c r="F45" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="G43" s="4" t="s">
+      <c r="G45" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="H43" s="4">
-        <v>1</v>
-      </c>
-      <c r="I43" s="4" t="str">
+      <c r="H45" s="4">
+        <v>1</v>
+      </c>
+      <c r="I45" s="4">
+        <v>1</v>
+      </c>
+      <c r="J45" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>iShares 7-10 Year Treasury Bond ETF</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C44" s="4" t="s">
+      <c r="B46" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D46" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4" t="s">
+      <c r="E46" s="4"/>
+      <c r="F46" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G44" s="4" t="s">
+      <c r="G46" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="H44" s="4">
-        <v>1</v>
-      </c>
-      <c r="I44" s="4" t="str">
+      <c r="H46" s="4">
+        <v>1</v>
+      </c>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>iShares 20+ Year Treasury Bond ETF</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="H45" s="4">
-        <v>1</v>
-      </c>
-      <c r="I45" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>iShares TIPS Bond ETF</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4">
-        <v>1</v>
-      </c>
-      <c r="I46" s="4"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>128</v>
       </c>
@@ -7743,25 +7803,26 @@
         <v>40</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>53</v>
+        <v>135</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4" t="s">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="H47" s="4">
-        <v>0</v>
-      </c>
-      <c r="I47" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>iShares MBS ETF</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+        <v>iShares TIPS Bond ETF</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>128</v>
       </c>
@@ -7769,25 +7830,19 @@
         <v>40</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>14</v>
+        <v>344</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
-      <c r="F48" t="s">
-        <v>152</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>153</v>
-      </c>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
       <c r="H48" s="4">
-        <v>0</v>
-      </c>
-      <c r="I48" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>Simplify Mortgage Backed Securities ETF</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>128</v>
       </c>
@@ -7795,103 +7850,111 @@
         <v>40</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H49" s="4">
+        <v>0</v>
+      </c>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>iShares MBS ETF</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" t="s">
+        <v>152</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="H50" s="4">
+        <v>0</v>
+      </c>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>Simplify Mortgage Backed Securities ETF</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G49" s="4" t="s">
+      <c r="G51" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H49" s="4">
-        <v>1</v>
-      </c>
-      <c r="I49" s="4" t="str">
+      <c r="H51" s="4">
+        <v>1</v>
+      </c>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>AGNC Investment Corp.</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4">
-        <v>1</v>
-      </c>
-      <c r="I50" s="4">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4">
-        <v>1</v>
-      </c>
-      <c r="I51" s="4">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>128</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>97</v>
+        <v>346</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
-      <c r="F52" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>124</v>
-      </c>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
       <c r="H52" s="4">
         <v>1</v>
       </c>
-      <c r="I52" s="4" t="str">
+      <c r="I52" s="4"/>
+      <c r="J52" s="4">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>iShares J.P. Morgan USD Emerging Markets Bond ETF</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>128</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
@@ -7900,114 +7963,115 @@
       <c r="H53" s="4">
         <v>1</v>
       </c>
-      <c r="I53" s="4">
+      <c r="I53" s="4"/>
+      <c r="J53" s="4">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="H54" s="4">
+        <v>1</v>
+      </c>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>iShares J.P. Morgan USD Emerging Markets Bond ETF</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4">
+        <v>1</v>
+      </c>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B56" t="s">
+        <v>74</v>
+      </c>
+      <c r="C56" t="s">
         <v>75</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F56" t="s">
         <v>76</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G56" t="s">
         <v>114</v>
       </c>
-      <c r="H54" s="4">
-        <v>0</v>
-      </c>
-      <c r="I54" s="4" t="str">
+      <c r="H56" s="4">
+        <v>0</v>
+      </c>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>WisdomTree Emerging Markets Local Debt Fund</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="4" t="s">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B57" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C57" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="H55" s="4">
-        <v>0</v>
-      </c>
-      <c r="I55" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>iShares International Government Bonds ETF</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H56" s="4">
-        <v>1</v>
-      </c>
-      <c r="I56" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>SPDR Gold Shares</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="H57" s="4">
-        <v>1</v>
-      </c>
-      <c r="I57" s="4" t="str">
+        <v>0</v>
+      </c>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>iShares Silver Trust</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+        <v>iShares International Government Bonds ETF</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>56</v>
       </c>
@@ -8015,25 +8079,26 @@
         <v>40</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H58" s="4">
         <v>1</v>
       </c>
-      <c r="I58" s="4" t="str">
+      <c r="I58" s="4"/>
+      <c r="J58" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>United States Oil Fund</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+        <v>SPDR Gold Shares</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>56</v>
       </c>
@@ -8041,96 +8106,154 @@
         <v>40</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H59" s="4">
         <v>1</v>
       </c>
-      <c r="I59" s="4" t="str">
+      <c r="I59" s="4"/>
+      <c r="J59" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>Invesco DB Commodity Index Tracking Fund</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+        <v>iShares Silver Trust</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H60" s="4">
         <v>1</v>
       </c>
-      <c r="I60" s="4" t="str">
+      <c r="I60" s="4"/>
+      <c r="J60" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>Invesco DB US Dollar Index Bullish Fund</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+        <v>United States Oil Fund</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H61" s="4">
+        <v>1</v>
+      </c>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>Invesco DB Commodity Index Tracking Fund</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H62" s="4">
+        <v>1</v>
+      </c>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>Invesco DB US Dollar Index Bullish Fund</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G61" s="4" t="s">
+      <c r="G63" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="H61" s="4">
-        <v>1</v>
-      </c>
-      <c r="I61" s="4" t="str">
+      <c r="H63" s="4">
+        <v>1</v>
+      </c>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>Invesco CurrencyShares Euro Trust</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>65</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B64" t="s">
         <v>71</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C64" t="s">
         <v>72</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F64" t="s">
         <v>73</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G64" t="s">
         <v>113</v>
       </c>
-      <c r="H62" s="4">
-        <v>1</v>
-      </c>
-      <c r="I62" s="4" t="str">
+      <c r="H64" s="4">
+        <v>1</v>
+      </c>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>Invesco CurrencyShares Japanese Yen Trust</v>
       </c>
@@ -8145,10 +8268,1220 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A08F2F-299B-47F7-8064-36693758F4E3}">
+  <dimension ref="A1:E56"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="44.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D1" t="s">
+        <v>428</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="str" cm="1">
+        <f t="array" ref="A2:A56">_xlfn._xlws.FILTER(data[factor_name],data[Active])</f>
+        <v>SPY</v>
+      </c>
+      <c r="B2" t="str" cm="1">
+        <f t="array" ref="B2:E56">INDEX(data[],_xlfn.XMATCH(_xlfn.ANCHORARRAY(A2),data[factor_name]),_xlfn.XMATCH(B1:E1,data[#Headers]))</f>
+        <v>Equities</v>
+      </c>
+      <c r="C2" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="str">
+        <v>S&amp;P 500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="str">
+        <v>IWM</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C3" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Russell 2000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="str">
+        <v>MDY</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C4" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="str">
+        <v>S&amp;P 400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="str">
+        <v>QQQ</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C5" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="str">
+        <v>Nasdaq 100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="str">
+        <v>DIA</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C6" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="str">
+        <v>Dow Jones 30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="str">
+        <v>XLK</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Sector</v>
+      </c>
+      <c r="C7" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="str">
+        <v>Technology</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
+        <v>XLI</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Sector</v>
+      </c>
+      <c r="C8" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="str">
+        <v>Industrials</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
+        <v>XLF</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Sector</v>
+      </c>
+      <c r="C9" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="str">
+        <v>Financials</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="str">
+        <v>KRE</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Sector</v>
+      </c>
+      <c r="C10" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="str">
+        <v>Regional Banks</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="str">
+        <v>XLC</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Sector</v>
+      </c>
+      <c r="C11" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="str">
+        <v>Communications</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="str">
+        <v>XLE</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Sector</v>
+      </c>
+      <c r="C12" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="str">
+        <v>Energy</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="str">
+        <v>XLY</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Sector</v>
+      </c>
+      <c r="C13" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="str">
+        <v>Discretionary</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="str">
+        <v>XLB</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Sector</v>
+      </c>
+      <c r="C14" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="str">
+        <v>Materials</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="str">
+        <v>XLV</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Sector</v>
+      </c>
+      <c r="C15" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="str">
+        <v>Health Care</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="str">
+        <v>XLU</v>
+      </c>
+      <c r="B16" t="str">
+        <v>Sector</v>
+      </c>
+      <c r="C16" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="str">
+        <v>Utilities</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="str">
+        <v>XLP</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Sector</v>
+      </c>
+      <c r="C17" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="str">
+        <v>Staples</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="str">
+        <v>IYR</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C18" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="str">
+        <v>iShares U.S. Real Estate ETF</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="str">
+        <v>VNQ</v>
+      </c>
+      <c r="B19" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C19" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="str">
+        <v>Vanguard Real Estate ETF</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="str">
+        <v>AIQ</v>
+      </c>
+      <c r="B20" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C20" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="str">
+        <v>AI</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="str">
+        <v>PFF</v>
+      </c>
+      <c r="B21" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C21" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="str">
+        <v>Preferred</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="str">
+        <v>FEZ</v>
+      </c>
+      <c r="B22" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C22" t="str">
+        <v>EUR</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="str">
+        <v>Eurostoxx 50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="str">
+        <v>EWU</v>
+      </c>
+      <c r="B23" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C23" t="str">
+        <v>GBP</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="str">
+        <v>iShares FTSE United Kingdom ETF</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="str">
+        <v>DAX</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C24" t="str">
+        <v>EUR</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="str">
+        <v>DAX (Germany)</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="str">
+        <v>EWC</v>
+      </c>
+      <c r="B25" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C25" t="str">
+        <v>CAD</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="str">
+        <v>iShares MSCI Canada ETF</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="str">
+        <v>CAC</v>
+      </c>
+      <c r="B26" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C26" t="str">
+        <v>EUR</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" t="str">
+        <v>CAC 40 (France)</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="str">
+        <v>EWI</v>
+      </c>
+      <c r="B27" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C27" t="str">
+        <v>EUR</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" t="str">
+        <v>iShares MSCI Italy ETF</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="str">
+        <v>^N225</v>
+      </c>
+      <c r="B28" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C28" t="str">
+        <v>JPY</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" t="str">
+        <v>Nikkei 225</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="str">
+        <v>TPX</v>
+      </c>
+      <c r="B29" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C29" t="str">
+        <v>JPY</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" t="str">
+        <v>TOPIX</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="str">
+        <v>FXI</v>
+      </c>
+      <c r="B30" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C30" t="str">
+        <v>CNH</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="str">
+        <v>iShares China Large-Cap ETF</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="str">
+        <v>ASHR</v>
+      </c>
+      <c r="B31" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C31" t="str">
+        <v>CNH</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" t="str">
+        <v>Xtrackers Harvest CSI 300 China A-Shares ETF</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="str">
+        <v>KWEB</v>
+      </c>
+      <c r="B32" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C32" t="str">
+        <v>CNH</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" t="str">
+        <v>KraneShares CSI China Internet ETF</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="str">
+        <v>LQD</v>
+      </c>
+      <c r="B33" t="str">
+        <v>Credit</v>
+      </c>
+      <c r="C33" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33" t="str">
+        <v>iShares iBoxx $ Investment Grade Corporate Bond ETF</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="str">
+        <v>HYG</v>
+      </c>
+      <c r="B34" t="str">
+        <v>Credit</v>
+      </c>
+      <c r="C34" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34" t="str">
+        <v>iShares iBoxx $ High Yield Corporate Bond ETF</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="str">
+        <v>LQDH</v>
+      </c>
+      <c r="B35" t="str">
+        <v>Credit</v>
+      </c>
+      <c r="C35" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="str">
+        <v>HYGH</v>
+      </c>
+      <c r="B36" t="str">
+        <v>Credit</v>
+      </c>
+      <c r="C36" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="str">
+        <v>AGG</v>
+      </c>
+      <c r="B37" t="str">
+        <v>Credit</v>
+      </c>
+      <c r="C37" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="str">
+        <v>MWTIX</v>
+      </c>
+      <c r="B38" t="str">
+        <v>Credit</v>
+      </c>
+      <c r="C38" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="str">
+        <v>SHY</v>
+      </c>
+      <c r="B39" t="str">
+        <v>Rates</v>
+      </c>
+      <c r="C39" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39" t="str">
+        <v>iShares 1-3 Year Treasury Bond ETF</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="str">
+        <v>IEI</v>
+      </c>
+      <c r="B40" t="str">
+        <v>Rates</v>
+      </c>
+      <c r="C40" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40" t="str">
+        <v>iShares 3-7 Year Treasury Bond ETF</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="str">
+        <v>IEF</v>
+      </c>
+      <c r="B41" t="str">
+        <v>Rates</v>
+      </c>
+      <c r="C41" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" t="str">
+        <v>iShares 7-10 Year Treasury Bond ETF</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="str">
+        <v>TLT</v>
+      </c>
+      <c r="B42" t="str">
+        <v>Rates</v>
+      </c>
+      <c r="C42" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42" t="str">
+        <v>iShares 20+ Year Treasury Bond ETF</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="str">
+        <v>TIP</v>
+      </c>
+      <c r="B43" t="str">
+        <v>Rates</v>
+      </c>
+      <c r="C43" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43" t="str">
+        <v>iShares TIPS Bond ETF</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="str">
+        <v>VTIP</v>
+      </c>
+      <c r="B44" t="str">
+        <v>Rates</v>
+      </c>
+      <c r="C44" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="str">
+        <v>AGNC</v>
+      </c>
+      <c r="B45" t="str">
+        <v>Rates</v>
+      </c>
+      <c r="C45" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45" t="str">
+        <v>AGNC Investment Corp.</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="str">
+        <v>VMBS</v>
+      </c>
+      <c r="B46" t="str">
+        <v>Rates</v>
+      </c>
+      <c r="C46" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="str">
+        <v>CMBS</v>
+      </c>
+      <c r="B47" t="str">
+        <v>Rates</v>
+      </c>
+      <c r="C47" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="str">
+        <v>EMB</v>
+      </c>
+      <c r="B48" t="str">
+        <v>Rates</v>
+      </c>
+      <c r="C48" t="str">
+        <v>EM</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48" t="str">
+        <v>iShares J.P. Morgan USD Emerging Markets Bond ETF</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" t="str">
+        <v>EMHY</v>
+      </c>
+      <c r="B49" t="str">
+        <v>Rates</v>
+      </c>
+      <c r="C49" t="str">
+        <v>EM</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" t="str">
+        <v>GLD</v>
+      </c>
+      <c r="B50" t="str">
+        <v>Commodities</v>
+      </c>
+      <c r="C50" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50" t="str">
+        <v>SPDR Gold Shares</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" t="str">
+        <v>SLV</v>
+      </c>
+      <c r="B51" t="str">
+        <v>Commodities</v>
+      </c>
+      <c r="C51" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51" t="str">
+        <v>iShares Silver Trust</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" t="str">
+        <v>USO</v>
+      </c>
+      <c r="B52" t="str">
+        <v>Commodities</v>
+      </c>
+      <c r="C52" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52" t="str">
+        <v>United States Oil Fund</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" t="str">
+        <v>DBC</v>
+      </c>
+      <c r="B53" t="str">
+        <v>Commodities</v>
+      </c>
+      <c r="C53" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53" t="str">
+        <v>Invesco DB Commodity Index Tracking Fund</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" t="str">
+        <v>UUP</v>
+      </c>
+      <c r="B54" t="str">
+        <v>Currencies</v>
+      </c>
+      <c r="C54" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54" t="str">
+        <v>Invesco DB US Dollar Index Bullish Fund</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" t="str">
+        <v>FXE</v>
+      </c>
+      <c r="B55" t="str">
+        <v>Currencies</v>
+      </c>
+      <c r="C55" t="str">
+        <v>EUR</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55" t="str">
+        <v>Invesco CurrencyShares Euro Trust</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" t="str">
+        <v>FXY</v>
+      </c>
+      <c r="B56" t="str">
+        <v>Currencies</v>
+      </c>
+      <c r="C56" t="str">
+        <v>JPY</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56" t="str">
+        <v>Invesco CurrencyShares Japanese Yen Trust</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{509EC1D2-D913-4E91-BF4A-1B9A2D2D358E}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="102.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28B96AA-E903-4E49-8EE7-2DF563672EF4}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BECED18-9D5B-4FAE-9BAD-99DBF8245FFA}">
   <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:I25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -10056,1018 +11389,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A08F2F-299B-47F7-8064-36693758F4E3}">
-  <dimension ref="A1:D54"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="4" max="4" width="44.21875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>322</v>
-      </c>
-      <c r="C1" t="s">
-        <v>316</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="str" cm="1">
-        <f t="array" ref="A2:A54">_xlfn._xlws.FILTER(data[factor_name],data[Active])</f>
-        <v>SPY</v>
-      </c>
-      <c r="B2" t="str" cm="1">
-        <f t="array" ref="B2:D54">INDEX(data[],_xlfn.XMATCH(_xlfn.ANCHORARRAY(A2),data[factor_name]),_xlfn.XMATCH(B1:D1,data[#Headers]))</f>
-        <v>Equities</v>
-      </c>
-      <c r="C2" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D2" t="str">
-        <v>S&amp;P 500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="str">
-        <v>IWM</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Equities</v>
-      </c>
-      <c r="C3" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D3" t="str">
-        <v>Russell 2000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="str">
-        <v>MDY</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Equities</v>
-      </c>
-      <c r="C4" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D4" t="str">
-        <v>S&amp;P 400</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="str">
-        <v>QQQ</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Equities</v>
-      </c>
-      <c r="C5" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D5" t="str">
-        <v>Nasdaq 100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="str">
-        <v>DIA</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Equities</v>
-      </c>
-      <c r="C6" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D6" t="str">
-        <v>Dow Jones 30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="str">
-        <v>XLK</v>
-      </c>
-      <c r="B7" t="str">
-        <v>Sector</v>
-      </c>
-      <c r="C7" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D7" t="str">
-        <v>Technology</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="str">
-        <v>XLI</v>
-      </c>
-      <c r="B8" t="str">
-        <v>Sector</v>
-      </c>
-      <c r="C8" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D8" t="str">
-        <v>Industrials</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="str">
-        <v>XLF</v>
-      </c>
-      <c r="B9" t="str">
-        <v>Sector</v>
-      </c>
-      <c r="C9" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D9" t="str">
-        <v>Financials</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="str">
-        <v>KRE</v>
-      </c>
-      <c r="B10" t="str">
-        <v>Sector</v>
-      </c>
-      <c r="C10" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D10" t="str">
-        <v>Regional Banks</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="str">
-        <v>XLC</v>
-      </c>
-      <c r="B11" t="str">
-        <v>Sector</v>
-      </c>
-      <c r="C11" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D11" t="str">
-        <v>Communications</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="str">
-        <v>XLE</v>
-      </c>
-      <c r="B12" t="str">
-        <v>Sector</v>
-      </c>
-      <c r="C12" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D12" t="str">
-        <v>Energy</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="str">
-        <v>XLY</v>
-      </c>
-      <c r="B13" t="str">
-        <v>Sector</v>
-      </c>
-      <c r="C13" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D13" t="str">
-        <v>Discretionary</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="str">
-        <v>XLB</v>
-      </c>
-      <c r="B14" t="str">
-        <v>Sector</v>
-      </c>
-      <c r="C14" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D14" t="str">
-        <v>Materials</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="str">
-        <v>XLV</v>
-      </c>
-      <c r="B15" t="str">
-        <v>Sector</v>
-      </c>
-      <c r="C15" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D15" t="str">
-        <v>Health Care</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="str">
-        <v>XLU</v>
-      </c>
-      <c r="B16" t="str">
-        <v>Sector</v>
-      </c>
-      <c r="C16" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D16" t="str">
-        <v>Utilities</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="str">
-        <v>XLP</v>
-      </c>
-      <c r="B17" t="str">
-        <v>Sector</v>
-      </c>
-      <c r="C17" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D17" t="str">
-        <v>Staples</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="str">
-        <v>IYR</v>
-      </c>
-      <c r="B18" t="str">
-        <v>Equities</v>
-      </c>
-      <c r="C18" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D18" t="str">
-        <v>iShares U.S. Real Estate ETF</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="str">
-        <v>VNQ</v>
-      </c>
-      <c r="B19" t="str">
-        <v>Equities</v>
-      </c>
-      <c r="C19" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D19" t="str">
-        <v>Vanguard Real Estate ETF</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="str">
-        <v>AIQ</v>
-      </c>
-      <c r="B20" t="str">
-        <v>Equities</v>
-      </c>
-      <c r="C20" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D20" t="str">
-        <v>AI</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="str">
-        <v>PFF</v>
-      </c>
-      <c r="B21" t="str">
-        <v>Equities</v>
-      </c>
-      <c r="C21" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D21" t="str">
-        <v>Preferred</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="str">
-        <v>FEZ</v>
-      </c>
-      <c r="B22" t="str">
-        <v>Equities</v>
-      </c>
-      <c r="C22" t="str">
-        <v>EUR</v>
-      </c>
-      <c r="D22" t="str">
-        <v>Eurostoxx 50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="str">
-        <v>EWU</v>
-      </c>
-      <c r="B23" t="str">
-        <v>Equities</v>
-      </c>
-      <c r="C23" t="str">
-        <v>GBP</v>
-      </c>
-      <c r="D23" t="str">
-        <v>iShares FTSE United Kingdom ETF</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="str">
-        <v>DAX</v>
-      </c>
-      <c r="B24" t="str">
-        <v>Equities</v>
-      </c>
-      <c r="C24" t="str">
-        <v>EUR</v>
-      </c>
-      <c r="D24" t="str">
-        <v>DAX (Germany)</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="str">
-        <v>EWC</v>
-      </c>
-      <c r="B25" t="str">
-        <v>Equities</v>
-      </c>
-      <c r="C25" t="str">
-        <v>CAD</v>
-      </c>
-      <c r="D25" t="str">
-        <v>iShares MSCI Canada ETF</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="str">
-        <v>CAC</v>
-      </c>
-      <c r="B26" t="str">
-        <v>Equities</v>
-      </c>
-      <c r="C26" t="str">
-        <v>EUR</v>
-      </c>
-      <c r="D26" t="str">
-        <v>CAC 40 (France)</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" t="str">
-        <v>EWI</v>
-      </c>
-      <c r="B27" t="str">
-        <v>Equities</v>
-      </c>
-      <c r="C27" t="str">
-        <v>EUR</v>
-      </c>
-      <c r="D27" t="str">
-        <v>iShares MSCI Italy ETF</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" t="str">
-        <v>^N225</v>
-      </c>
-      <c r="B28" t="str">
-        <v>Equities</v>
-      </c>
-      <c r="C28" t="str">
-        <v>JPY</v>
-      </c>
-      <c r="D28" t="str">
-        <v>Nikkei 225</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="str">
-        <v>TPX</v>
-      </c>
-      <c r="B29" t="str">
-        <v>Equities</v>
-      </c>
-      <c r="C29" t="str">
-        <v>JPY</v>
-      </c>
-      <c r="D29" t="str">
-        <v>TOPIX</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" t="str">
-        <v>FXI</v>
-      </c>
-      <c r="B30" t="str">
-        <v>Equities</v>
-      </c>
-      <c r="C30" t="str">
-        <v>CNH</v>
-      </c>
-      <c r="D30" t="str">
-        <v>iShares China Large-Cap ETF</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="str">
-        <v>ASHR</v>
-      </c>
-      <c r="B31" t="str">
-        <v>Equities</v>
-      </c>
-      <c r="C31" t="str">
-        <v>CNH</v>
-      </c>
-      <c r="D31" t="str">
-        <v>Xtrackers Harvest CSI 300 China A-Shares ETF</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" t="str">
-        <v>KWEB</v>
-      </c>
-      <c r="B32" t="str">
-        <v>Equities</v>
-      </c>
-      <c r="C32" t="str">
-        <v>CNH</v>
-      </c>
-      <c r="D32" t="str">
-        <v>KraneShares CSI China Internet ETF</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" t="str">
-        <v>LQD</v>
-      </c>
-      <c r="B33" t="str">
-        <v>Credit</v>
-      </c>
-      <c r="C33" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D33" t="str">
-        <v>iShares iBoxx $ Investment Grade Corporate Bond ETF</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" t="str">
-        <v>HYG</v>
-      </c>
-      <c r="B34" t="str">
-        <v>Credit</v>
-      </c>
-      <c r="C34" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D34" t="str">
-        <v>iShares iBoxx $ High Yield Corporate Bond ETF</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" t="str">
-        <v>LQDH</v>
-      </c>
-      <c r="B35" t="str">
-        <v>Credit</v>
-      </c>
-      <c r="C35" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" t="str">
-        <v>HYGH</v>
-      </c>
-      <c r="B36" t="str">
-        <v>Credit</v>
-      </c>
-      <c r="C36" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" t="str">
-        <v>SHY</v>
-      </c>
-      <c r="B37" t="str">
-        <v>Rates</v>
-      </c>
-      <c r="C37" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D37" t="str">
-        <v>iShares 1-3 Year Treasury Bond ETF</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" t="str">
-        <v>IEI</v>
-      </c>
-      <c r="B38" t="str">
-        <v>Rates</v>
-      </c>
-      <c r="C38" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D38" t="str">
-        <v>iShares 3-7 Year Treasury Bond ETF</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" t="str">
-        <v>IEF</v>
-      </c>
-      <c r="B39" t="str">
-        <v>Rates</v>
-      </c>
-      <c r="C39" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D39" t="str">
-        <v>iShares 7-10 Year Treasury Bond ETF</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" t="str">
-        <v>TLT</v>
-      </c>
-      <c r="B40" t="str">
-        <v>Rates</v>
-      </c>
-      <c r="C40" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D40" t="str">
-        <v>iShares 20+ Year Treasury Bond ETF</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" t="str">
-        <v>TIP</v>
-      </c>
-      <c r="B41" t="str">
-        <v>Rates</v>
-      </c>
-      <c r="C41" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D41" t="str">
-        <v>iShares TIPS Bond ETF</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" t="str">
-        <v>VTIP</v>
-      </c>
-      <c r="B42" t="str">
-        <v>Rates</v>
-      </c>
-      <c r="C42" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" t="str">
-        <v>AGNC</v>
-      </c>
-      <c r="B43" t="str">
-        <v>Rates</v>
-      </c>
-      <c r="C43" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D43" t="str">
-        <v>AGNC Investment Corp.</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" t="str">
-        <v>VMBS</v>
-      </c>
-      <c r="B44" t="str">
-        <v>Rates</v>
-      </c>
-      <c r="C44" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" t="str">
-        <v>CMBS</v>
-      </c>
-      <c r="B45" t="str">
-        <v>Rates</v>
-      </c>
-      <c r="C45" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" t="str">
-        <v>EMB</v>
-      </c>
-      <c r="B46" t="str">
-        <v>Rates</v>
-      </c>
-      <c r="C46" t="str">
-        <v>EM</v>
-      </c>
-      <c r="D46" t="str">
-        <v>iShares J.P. Morgan USD Emerging Markets Bond ETF</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" t="str">
-        <v>EMHY</v>
-      </c>
-      <c r="B47" t="str">
-        <v>Rates</v>
-      </c>
-      <c r="C47" t="str">
-        <v>EM</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" t="str">
-        <v>GLD</v>
-      </c>
-      <c r="B48" t="str">
-        <v>Commodities</v>
-      </c>
-      <c r="C48" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D48" t="str">
-        <v>SPDR Gold Shares</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" t="str">
-        <v>SLV</v>
-      </c>
-      <c r="B49" t="str">
-        <v>Commodities</v>
-      </c>
-      <c r="C49" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D49" t="str">
-        <v>iShares Silver Trust</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" t="str">
-        <v>USO</v>
-      </c>
-      <c r="B50" t="str">
-        <v>Commodities</v>
-      </c>
-      <c r="C50" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D50" t="str">
-        <v>United States Oil Fund</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" t="str">
-        <v>DBC</v>
-      </c>
-      <c r="B51" t="str">
-        <v>Commodities</v>
-      </c>
-      <c r="C51" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D51" t="str">
-        <v>Invesco DB Commodity Index Tracking Fund</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" t="str">
-        <v>UUP</v>
-      </c>
-      <c r="B52" t="str">
-        <v>Currencies</v>
-      </c>
-      <c r="C52" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D52" t="str">
-        <v>Invesco DB US Dollar Index Bullish Fund</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" t="str">
-        <v>FXE</v>
-      </c>
-      <c r="B53" t="str">
-        <v>Currencies</v>
-      </c>
-      <c r="C53" t="str">
-        <v>EUR</v>
-      </c>
-      <c r="D53" t="str">
-        <v>Invesco CurrencyShares Euro Trust</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" t="str">
-        <v>FXY</v>
-      </c>
-      <c r="B54" t="str">
-        <v>Currencies</v>
-      </c>
-      <c r="C54" t="str">
-        <v>JPY</v>
-      </c>
-      <c r="D54" t="str">
-        <v>Invesco CurrencyShares Japanese Yen Trust</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{509EC1D2-D913-4E91-BF4A-1B9A2D2D358E}">
-  <dimension ref="A1:C9"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="102.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28B96AA-E903-4E49-8EE7-2DF563672EF4}">
-  <dimension ref="A1:D9"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/factor_master.xlsx
+++ b/factor_master.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bkrai\Source\risk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AAF7574-526E-4857-A029-F28FB009A76F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D747E5-6DDB-4352-86AE-6D577A474DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="5" xr2:uid="{C31FDC5B-A809-4BFD-99CB-DA02246721F7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="7" xr2:uid="{C31FDC5B-A809-4BFD-99CB-DA02246721F7}"/>
   </bookViews>
   <sheets>
-    <sheet name="legacy" sheetId="5" r:id="rId1"/>
-    <sheet name="gpt" sheetId="6" r:id="rId2"/>
-    <sheet name="data_new" sheetId="7" r:id="rId3"/>
-    <sheet name="lior" sheetId="9" r:id="rId4"/>
-    <sheet name="portfolios" sheetId="10" r:id="rId5"/>
-    <sheet name="data" sheetId="3" r:id="rId6"/>
-    <sheet name="read2" sheetId="12" r:id="rId7"/>
-    <sheet name="read" sheetId="4" r:id="rId8"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId9"/>
-    <sheet name="read_old" sheetId="1" r:id="rId10"/>
-    <sheet name="data_old" sheetId="8" r:id="rId11"/>
+    <sheet name="composites" sheetId="13" r:id="rId1"/>
+    <sheet name="read_composites" sheetId="14" r:id="rId2"/>
+    <sheet name="legacy" sheetId="5" r:id="rId3"/>
+    <sheet name="gpt" sheetId="6" r:id="rId4"/>
+    <sheet name="data_new" sheetId="7" r:id="rId5"/>
+    <sheet name="lior" sheetId="9" r:id="rId6"/>
+    <sheet name="data" sheetId="3" r:id="rId7"/>
+    <sheet name="read" sheetId="12" r:id="rId8"/>
+    <sheet name="read_old2" sheetId="4" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId10"/>
+    <sheet name="read_old" sheetId="1" r:id="rId11"/>
+    <sheet name="data_old" sheetId="8" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -83,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1636" uniqueCount="450">
   <si>
     <t>SPX</t>
   </si>
@@ -1427,6 +1428,12 @@
   </si>
   <si>
     <t>BSV</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>portfolio_name</t>
   </si>
 </sst>
 </file>
@@ -2080,1412 +2087,142 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC6F81C3-35A2-4C92-A3A4-30A9105A6D5B}">
-  <dimension ref="A1:G81"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75C34FC6-78FE-492E-BECF-2EB9A04778A9}">
+  <dimension ref="A2:G14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="4" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B1" t="s">
-        <v>316</v>
-      </c>
-      <c r="C1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>283</v>
-      </c>
-    </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>39</v>
-      </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>430</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E2" t="s">
-        <v>0</v>
+        <v>433</v>
       </c>
       <c r="F2" t="s">
-        <v>0</v>
+        <v>421</v>
+      </c>
+      <c r="G2" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" t="s">
-        <v>40</v>
+        <v>175</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1</v>
+        <v>434</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" t="s">
-        <v>40</v>
+        <v>431</v>
+      </c>
+      <c r="B4">
+        <v>-1</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>434</v>
       </c>
       <c r="D4" t="s">
-        <v>154</v>
-      </c>
-      <c r="E4" t="s">
-        <v>172</v>
-      </c>
-      <c r="F4" t="s">
-        <v>284</v>
+        <v>432</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" t="s">
-        <v>40</v>
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" t="s">
-        <v>140</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" t="s">
-        <v>6</v>
+        <v>434</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" t="s">
-        <v>40</v>
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>-1</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" t="s">
-        <v>159</v>
-      </c>
-      <c r="E6" t="s">
-        <v>173</v>
-      </c>
-      <c r="F6" t="s">
-        <v>173</v>
+        <v>434</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" t="s">
-        <v>40</v>
+        <v>236</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>321</v>
+        <v>435</v>
       </c>
       <c r="D7" t="s">
-        <v>160</v>
-      </c>
-      <c r="E7" t="s">
-        <v>174</v>
-      </c>
-      <c r="F7" t="s">
-        <v>174</v>
+        <v>436</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" t="s">
-        <v>40</v>
+        <v>238</v>
+      </c>
+      <c r="B8">
+        <v>-1</v>
       </c>
       <c r="C8" t="s">
-        <v>321</v>
-      </c>
-      <c r="D8" t="s">
-        <v>161</v>
-      </c>
-      <c r="E8" t="s">
-        <v>175</v>
-      </c>
-      <c r="F8" t="s">
-        <v>175</v>
+        <v>435</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" t="s">
-        <v>321</v>
-      </c>
-      <c r="D9" t="s">
-        <v>162</v>
-      </c>
-      <c r="E9" t="s">
-        <v>176</v>
-      </c>
-      <c r="F9" t="s">
-        <v>176</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
+        <v>135</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" t="s">
-        <v>321</v>
+        <v>49</v>
+      </c>
+      <c r="B10">
+        <v>-1</v>
       </c>
       <c r="D10" t="s">
-        <v>163</v>
-      </c>
-      <c r="E10" t="s">
-        <v>177</v>
-      </c>
-      <c r="F10" t="s">
-        <v>177</v>
+        <v>437</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" t="s">
-        <v>321</v>
-      </c>
-      <c r="D11" t="s">
-        <v>164</v>
-      </c>
-      <c r="E11" t="s">
-        <v>342</v>
-      </c>
-      <c r="F11" t="s">
-        <v>342</v>
+        <v>403</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" t="s">
-        <v>321</v>
-      </c>
-      <c r="D12" t="s">
-        <v>165</v>
-      </c>
-      <c r="E12" t="s">
-        <v>178</v>
-      </c>
-      <c r="F12" t="s">
-        <v>178</v>
+        <v>438</v>
+      </c>
+      <c r="F12">
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" t="s">
-        <v>321</v>
-      </c>
-      <c r="D13" t="s">
-        <v>166</v>
-      </c>
-      <c r="E13" t="s">
-        <v>179</v>
-      </c>
-      <c r="F13" t="s">
-        <v>179</v>
+        <v>440</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" t="s">
-        <v>321</v>
-      </c>
-      <c r="D14" t="s">
-        <v>167</v>
-      </c>
-      <c r="E14" t="s">
-        <v>180</v>
-      </c>
-      <c r="F14" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" t="s">
-        <v>321</v>
-      </c>
-      <c r="D15" t="s">
-        <v>168</v>
-      </c>
-      <c r="E15" t="s">
-        <v>181</v>
-      </c>
-      <c r="F15" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" t="s">
-        <v>169</v>
-      </c>
-      <c r="E16" t="s">
-        <v>182</v>
-      </c>
-      <c r="F16" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" t="s">
-        <v>170</v>
-      </c>
-      <c r="E17" t="s">
-        <v>183</v>
-      </c>
-      <c r="F17" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" t="s">
-        <v>171</v>
-      </c>
-      <c r="E18" t="s">
-        <v>184</v>
-      </c>
-      <c r="F18" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" t="s">
-        <v>150</v>
-      </c>
-      <c r="E19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" t="s">
-        <v>155</v>
-      </c>
-      <c r="E20" t="s">
-        <v>156</v>
-      </c>
-      <c r="F20" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" t="s">
-        <v>157</v>
-      </c>
-      <c r="E21" t="s">
-        <v>84</v>
-      </c>
-      <c r="F21" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" t="s">
-        <v>158</v>
-      </c>
-      <c r="E22" t="s">
-        <v>95</v>
-      </c>
-      <c r="F22" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" t="s">
-        <v>185</v>
-      </c>
-      <c r="E23" t="s">
-        <v>195</v>
-      </c>
-      <c r="F23" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" t="s">
-        <v>186</v>
-      </c>
-      <c r="E24" t="s">
-        <v>77</v>
-      </c>
-      <c r="F24" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" t="s">
-        <v>71</v>
-      </c>
-      <c r="D25" t="s">
-        <v>187</v>
-      </c>
-      <c r="E25" t="s">
-        <v>142</v>
-      </c>
-      <c r="F25" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" t="s">
-        <v>74</v>
-      </c>
-      <c r="D26" t="s">
-        <v>188</v>
-      </c>
-      <c r="E26" t="s">
-        <v>288</v>
-      </c>
-      <c r="F26" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" t="s">
-        <v>74</v>
-      </c>
-      <c r="D27" t="s">
-        <v>189</v>
-      </c>
-      <c r="E27" t="s">
-        <v>196</v>
-      </c>
-      <c r="F27" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" t="s">
-        <v>190</v>
-      </c>
-      <c r="E28" t="s">
-        <v>197</v>
-      </c>
-      <c r="F28" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" t="s">
-        <v>74</v>
-      </c>
-      <c r="D29" t="s">
-        <v>191</v>
-      </c>
-      <c r="E29" t="s">
-        <v>198</v>
-      </c>
-      <c r="F29" t="s">
-        <v>198</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" t="s">
-        <v>74</v>
-      </c>
-      <c r="D30" t="s">
-        <v>192</v>
-      </c>
-      <c r="E30" t="s">
-        <v>82</v>
-      </c>
-      <c r="F30" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" t="s">
-        <v>74</v>
-      </c>
-      <c r="D31" t="s">
-        <v>194</v>
-      </c>
-      <c r="E31" t="s">
-        <v>80</v>
-      </c>
-      <c r="F31" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" t="s">
-        <v>74</v>
-      </c>
-      <c r="D32" t="s">
-        <v>193</v>
-      </c>
-      <c r="E32" t="s">
-        <v>199</v>
-      </c>
-      <c r="F32" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>46</v>
-      </c>
-      <c r="B33" t="s">
-        <v>40</v>
-      </c>
-      <c r="D33" t="s">
-        <v>200</v>
-      </c>
-      <c r="E33" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>46</v>
-      </c>
-      <c r="B34" t="s">
-        <v>40</v>
-      </c>
-      <c r="D34" t="s">
-        <v>201</v>
-      </c>
-      <c r="E34" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>46</v>
-      </c>
-      <c r="B35" t="s">
-        <v>40</v>
-      </c>
-      <c r="D35" t="s">
-        <v>202</v>
-      </c>
-      <c r="E35" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>46</v>
-      </c>
-      <c r="B36" t="s">
-        <v>40</v>
-      </c>
-      <c r="D36" t="s">
-        <v>203</v>
-      </c>
-      <c r="E36" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37" t="s">
-        <v>40</v>
-      </c>
-      <c r="D37" t="s">
-        <v>204</v>
-      </c>
-      <c r="E37" t="s">
-        <v>205</v>
-      </c>
-      <c r="F37" t="s">
-        <v>293</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38" t="s">
-        <v>68</v>
-      </c>
-      <c r="D38" t="s">
-        <v>206</v>
-      </c>
-      <c r="E38" t="s">
-        <v>209</v>
-      </c>
-      <c r="F38" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>46</v>
-      </c>
-      <c r="B39" t="s">
-        <v>68</v>
-      </c>
-      <c r="D39" t="s">
-        <v>207</v>
-      </c>
-      <c r="E39" t="s">
-        <v>210</v>
-      </c>
-      <c r="F39" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40" t="s">
-        <v>68</v>
-      </c>
-      <c r="D40" t="s">
-        <v>208</v>
-      </c>
-      <c r="E40" t="s">
-        <v>211</v>
-      </c>
-      <c r="F40" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>128</v>
-      </c>
-      <c r="B41" t="s">
-        <v>40</v>
-      </c>
-      <c r="D41" t="s">
-        <v>212</v>
-      </c>
-      <c r="E41" t="s">
-        <v>218</v>
-      </c>
-      <c r="F41" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>128</v>
-      </c>
-      <c r="B42" t="s">
-        <v>40</v>
-      </c>
-      <c r="D42" t="s">
-        <v>213</v>
-      </c>
-      <c r="E42" t="s">
-        <v>51</v>
-      </c>
-      <c r="F42" t="s">
-        <v>51</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>128</v>
-      </c>
-      <c r="B43" t="s">
-        <v>40</v>
-      </c>
-      <c r="D43" t="s">
-        <v>214</v>
-      </c>
-      <c r="E43" t="s">
-        <v>131</v>
-      </c>
-      <c r="F43" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>128</v>
-      </c>
-      <c r="B44" t="s">
-        <v>40</v>
-      </c>
-      <c r="D44" t="s">
-        <v>215</v>
-      </c>
-      <c r="E44" t="s">
-        <v>49</v>
-      </c>
-      <c r="F44" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>128</v>
-      </c>
-      <c r="B45" t="s">
-        <v>40</v>
-      </c>
-      <c r="D45" t="s">
-        <v>216</v>
-      </c>
-      <c r="E45" t="s">
-        <v>135</v>
-      </c>
-      <c r="F45" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>128</v>
-      </c>
-      <c r="B46" t="s">
-        <v>40</v>
-      </c>
-      <c r="D46" t="s">
-        <v>217</v>
-      </c>
-      <c r="E46" t="s">
-        <v>219</v>
-      </c>
-      <c r="F46" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>128</v>
-      </c>
-      <c r="B47" t="s">
-        <v>40</v>
-      </c>
-      <c r="D47" t="s">
-        <v>221</v>
-      </c>
-      <c r="E47" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>128</v>
-      </c>
-      <c r="B48" t="s">
-        <v>40</v>
-      </c>
-      <c r="D48" t="s">
-        <v>222</v>
-      </c>
-      <c r="E48" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>128</v>
-      </c>
-      <c r="B49" t="s">
-        <v>40</v>
-      </c>
-      <c r="D49" t="s">
-        <v>223</v>
-      </c>
-      <c r="E49" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>128</v>
-      </c>
-      <c r="B50" t="s">
-        <v>40</v>
-      </c>
-      <c r="D50" t="s">
-        <v>224</v>
-      </c>
-      <c r="E50" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>128</v>
-      </c>
-      <c r="B51" t="s">
-        <v>40</v>
-      </c>
-      <c r="D51" t="s">
-        <v>225</v>
-      </c>
-      <c r="E51" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>128</v>
-      </c>
-      <c r="B52" t="s">
-        <v>68</v>
-      </c>
-      <c r="D52" t="s">
-        <v>226</v>
-      </c>
-      <c r="E52" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>128</v>
-      </c>
-      <c r="B53" t="s">
-        <v>68</v>
-      </c>
-      <c r="D53" t="s">
-        <v>227</v>
-      </c>
-      <c r="E53" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>128</v>
-      </c>
-      <c r="B54" t="s">
-        <v>68</v>
-      </c>
-      <c r="D54" t="s">
-        <v>228</v>
-      </c>
-      <c r="E54" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>128</v>
-      </c>
-      <c r="B55" t="s">
-        <v>68</v>
-      </c>
-      <c r="D55" t="s">
-        <v>229</v>
-      </c>
-      <c r="E55" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>128</v>
-      </c>
-      <c r="B56" t="s">
-        <v>68</v>
-      </c>
-      <c r="D56" t="s">
-        <v>230</v>
-      </c>
-      <c r="E56" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>128</v>
-      </c>
-      <c r="B57" t="s">
-        <v>220</v>
-      </c>
-      <c r="D57" t="s">
-        <v>231</v>
-      </c>
-      <c r="E57" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>128</v>
-      </c>
-      <c r="B58" t="s">
-        <v>220</v>
-      </c>
-      <c r="D58" t="s">
-        <v>232</v>
-      </c>
-      <c r="E58" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>128</v>
-      </c>
-      <c r="B59" t="s">
-        <v>220</v>
-      </c>
-      <c r="D59" t="s">
-        <v>233</v>
-      </c>
-      <c r="E59" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>128</v>
-      </c>
-      <c r="B60" t="s">
-        <v>220</v>
-      </c>
-      <c r="D60" t="s">
-        <v>234</v>
-      </c>
-      <c r="E60" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>128</v>
-      </c>
-      <c r="B61" t="s">
-        <v>220</v>
-      </c>
-      <c r="D61" t="s">
-        <v>235</v>
-      </c>
-      <c r="E61" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>65</v>
-      </c>
-      <c r="B62" t="s">
-        <v>318</v>
-      </c>
-      <c r="D62" t="s">
-        <v>147</v>
-      </c>
-      <c r="E62" t="s">
-        <v>68</v>
-      </c>
-      <c r="F62" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>65</v>
-      </c>
-      <c r="B63" t="s">
-        <v>318</v>
-      </c>
-      <c r="D63" t="s">
-        <v>266</v>
-      </c>
-      <c r="E63" t="s">
-        <v>71</v>
-      </c>
-      <c r="F63" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>65</v>
-      </c>
-      <c r="B64" t="s">
-        <v>318</v>
-      </c>
-      <c r="D64" t="s">
-        <v>267</v>
-      </c>
-      <c r="E64" t="s">
-        <v>220</v>
-      </c>
-      <c r="F64" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>65</v>
-      </c>
-      <c r="B65" t="s">
-        <v>251</v>
-      </c>
-      <c r="D65" t="s">
-        <v>268</v>
-      </c>
-      <c r="E65" t="s">
-        <v>251</v>
-      </c>
-      <c r="F65" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>65</v>
-      </c>
-      <c r="B66" t="s">
-        <v>251</v>
-      </c>
-      <c r="D66" t="s">
-        <v>269</v>
-      </c>
-      <c r="E66" t="s">
-        <v>252</v>
-      </c>
-      <c r="F66" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>65</v>
-      </c>
-      <c r="B67" t="s">
-        <v>317</v>
-      </c>
-      <c r="D67" t="s">
-        <v>270</v>
-      </c>
-      <c r="E67" t="s">
-        <v>88</v>
-      </c>
-      <c r="F67" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>65</v>
-      </c>
-      <c r="B68" t="s">
-        <v>317</v>
-      </c>
-      <c r="D68" t="s">
-        <v>271</v>
-      </c>
-      <c r="E68" t="s">
-        <v>253</v>
-      </c>
-      <c r="F68" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>65</v>
-      </c>
-      <c r="B69" t="s">
-        <v>317</v>
-      </c>
-      <c r="D69" t="s">
-        <v>272</v>
-      </c>
-      <c r="E69" t="s">
-        <v>254</v>
-      </c>
-      <c r="F69" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>65</v>
-      </c>
-      <c r="B70" t="s">
-        <v>317</v>
-      </c>
-      <c r="D70" t="s">
-        <v>273</v>
-      </c>
-      <c r="E70" t="s">
-        <v>255</v>
-      </c>
-      <c r="F70" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>65</v>
-      </c>
-      <c r="B71" t="s">
-        <v>319</v>
-      </c>
-      <c r="D71" t="s">
-        <v>274</v>
-      </c>
-      <c r="E71" t="s">
-        <v>79</v>
-      </c>
-      <c r="F71" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>65</v>
-      </c>
-      <c r="B72" t="s">
-        <v>319</v>
-      </c>
-      <c r="D72" t="s">
-        <v>275</v>
-      </c>
-      <c r="E72" t="s">
-        <v>256</v>
-      </c>
-      <c r="F72" t="s">
-        <v>307</v>
-      </c>
-      <c r="G72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>65</v>
-      </c>
-      <c r="B73" t="s">
-        <v>319</v>
-      </c>
-      <c r="D73" t="s">
-        <v>276</v>
-      </c>
-      <c r="E73" t="s">
-        <v>257</v>
-      </c>
-      <c r="F73" t="s">
-        <v>308</v>
-      </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>65</v>
-      </c>
-      <c r="B74" t="s">
-        <v>319</v>
-      </c>
-      <c r="D74" t="s">
-        <v>277</v>
-      </c>
-      <c r="E74" t="s">
-        <v>258</v>
-      </c>
-      <c r="F74" t="s">
-        <v>309</v>
-      </c>
-      <c r="G74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>65</v>
-      </c>
-      <c r="B75" t="s">
-        <v>74</v>
-      </c>
-      <c r="D75" t="s">
-        <v>278</v>
-      </c>
-      <c r="E75" t="s">
-        <v>259</v>
-      </c>
-      <c r="F75" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>65</v>
-      </c>
-      <c r="B76" t="s">
-        <v>74</v>
-      </c>
-      <c r="D76" t="s">
-        <v>279</v>
-      </c>
-      <c r="E76" t="s">
-        <v>260</v>
-      </c>
-      <c r="F76" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>65</v>
-      </c>
-      <c r="B77" t="s">
-        <v>74</v>
-      </c>
-      <c r="D77" t="s">
-        <v>280</v>
-      </c>
-      <c r="E77" t="s">
-        <v>261</v>
-      </c>
-      <c r="F77" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>65</v>
-      </c>
-      <c r="B78" t="s">
-        <v>74</v>
-      </c>
-      <c r="D78" t="s">
-        <v>281</v>
-      </c>
-      <c r="E78" t="s">
-        <v>262</v>
-      </c>
-      <c r="F78" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>56</v>
-      </c>
-      <c r="B79" t="s">
-        <v>56</v>
-      </c>
-      <c r="D79" t="s">
-        <v>146</v>
-      </c>
-      <c r="E79" t="s">
-        <v>263</v>
-      </c>
-      <c r="F79" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>56</v>
-      </c>
-      <c r="B80" t="s">
-        <v>56</v>
-      </c>
-      <c r="D80" t="s">
-        <v>282</v>
-      </c>
-      <c r="E80" t="s">
-        <v>264</v>
-      </c>
-      <c r="F80" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>56</v>
-      </c>
-      <c r="B81" t="s">
-        <v>56</v>
-      </c>
-      <c r="D81" t="s">
-        <v>265</v>
-      </c>
-      <c r="E81" t="s">
-        <v>265</v>
-      </c>
-      <c r="F81" t="s">
-        <v>314</v>
+        <v>441</v>
       </c>
     </row>
   </sheetData>
@@ -3494,6 +2231,124 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{509EC1D2-D913-4E91-BF4A-1B9A2D2D358E}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="102.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28B96AA-E903-4E49-8EE7-2DF563672EF4}">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -3613,7 +2468,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BECED18-9D5B-4FAE-9BAD-99DBF8245FFA}">
   <dimension ref="A1:M74"/>
   <sheetViews>
@@ -5530,6 +4385,1545 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7A5BD3C-985E-4AF9-B99B-18E2DCAB8A90}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>430</v>
+      </c>
+      <c r="B3" t="s">
+        <v>431</v>
+      </c>
+      <c r="C3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>430</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>430</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>439</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>439</v>
+      </c>
+      <c r="B7" t="s">
+        <v>447</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>421</v>
+      </c>
+      <c r="B8" t="s">
+        <v>403</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>421</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>421</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC6F81C3-35A2-4C92-A3A4-30A9105A6D5B}">
+  <dimension ref="A1:G81"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E6" t="s">
+        <v>173</v>
+      </c>
+      <c r="F6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>321</v>
+      </c>
+      <c r="D7" t="s">
+        <v>160</v>
+      </c>
+      <c r="E7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>321</v>
+      </c>
+      <c r="D8" t="s">
+        <v>161</v>
+      </c>
+      <c r="E8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>321</v>
+      </c>
+      <c r="D9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E9" t="s">
+        <v>176</v>
+      </c>
+      <c r="F9" t="s">
+        <v>176</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>321</v>
+      </c>
+      <c r="D10" t="s">
+        <v>163</v>
+      </c>
+      <c r="E10" t="s">
+        <v>177</v>
+      </c>
+      <c r="F10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>321</v>
+      </c>
+      <c r="D11" t="s">
+        <v>164</v>
+      </c>
+      <c r="E11" t="s">
+        <v>342</v>
+      </c>
+      <c r="F11" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>321</v>
+      </c>
+      <c r="D12" t="s">
+        <v>165</v>
+      </c>
+      <c r="E12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>321</v>
+      </c>
+      <c r="D13" t="s">
+        <v>166</v>
+      </c>
+      <c r="E13" t="s">
+        <v>179</v>
+      </c>
+      <c r="F13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>321</v>
+      </c>
+      <c r="D14" t="s">
+        <v>167</v>
+      </c>
+      <c r="E14" t="s">
+        <v>180</v>
+      </c>
+      <c r="F14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>321</v>
+      </c>
+      <c r="D15" t="s">
+        <v>168</v>
+      </c>
+      <c r="E15" t="s">
+        <v>181</v>
+      </c>
+      <c r="F15" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>169</v>
+      </c>
+      <c r="E16" t="s">
+        <v>182</v>
+      </c>
+      <c r="F16" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" t="s">
+        <v>170</v>
+      </c>
+      <c r="E17" t="s">
+        <v>183</v>
+      </c>
+      <c r="F17" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" t="s">
+        <v>171</v>
+      </c>
+      <c r="E18" t="s">
+        <v>184</v>
+      </c>
+      <c r="F18" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" t="s">
+        <v>150</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" t="s">
+        <v>155</v>
+      </c>
+      <c r="E20" t="s">
+        <v>156</v>
+      </c>
+      <c r="F20" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" t="s">
+        <v>157</v>
+      </c>
+      <c r="E21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" t="s">
+        <v>158</v>
+      </c>
+      <c r="E22" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" t="s">
+        <v>185</v>
+      </c>
+      <c r="E23" t="s">
+        <v>195</v>
+      </c>
+      <c r="F23" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" t="s">
+        <v>186</v>
+      </c>
+      <c r="E24" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" t="s">
+        <v>187</v>
+      </c>
+      <c r="E25" t="s">
+        <v>142</v>
+      </c>
+      <c r="F25" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" t="s">
+        <v>188</v>
+      </c>
+      <c r="E26" t="s">
+        <v>288</v>
+      </c>
+      <c r="F26" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" t="s">
+        <v>189</v>
+      </c>
+      <c r="E27" t="s">
+        <v>196</v>
+      </c>
+      <c r="F27" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" t="s">
+        <v>190</v>
+      </c>
+      <c r="E28" t="s">
+        <v>197</v>
+      </c>
+      <c r="F28" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" t="s">
+        <v>191</v>
+      </c>
+      <c r="E29" t="s">
+        <v>198</v>
+      </c>
+      <c r="F29" t="s">
+        <v>198</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" t="s">
+        <v>192</v>
+      </c>
+      <c r="E30" t="s">
+        <v>82</v>
+      </c>
+      <c r="F30" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" t="s">
+        <v>194</v>
+      </c>
+      <c r="E31" t="s">
+        <v>80</v>
+      </c>
+      <c r="F31" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" t="s">
+        <v>193</v>
+      </c>
+      <c r="E32" t="s">
+        <v>199</v>
+      </c>
+      <c r="F32" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" t="s">
+        <v>200</v>
+      </c>
+      <c r="E33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" t="s">
+        <v>201</v>
+      </c>
+      <c r="E34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" t="s">
+        <v>202</v>
+      </c>
+      <c r="E35" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" t="s">
+        <v>203</v>
+      </c>
+      <c r="E36" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" t="s">
+        <v>204</v>
+      </c>
+      <c r="E37" t="s">
+        <v>205</v>
+      </c>
+      <c r="F37" t="s">
+        <v>293</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" t="s">
+        <v>206</v>
+      </c>
+      <c r="E38" t="s">
+        <v>209</v>
+      </c>
+      <c r="F38" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" t="s">
+        <v>207</v>
+      </c>
+      <c r="E39" t="s">
+        <v>210</v>
+      </c>
+      <c r="F39" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" t="s">
+        <v>208</v>
+      </c>
+      <c r="E40" t="s">
+        <v>211</v>
+      </c>
+      <c r="F40" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>128</v>
+      </c>
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" t="s">
+        <v>212</v>
+      </c>
+      <c r="E41" t="s">
+        <v>218</v>
+      </c>
+      <c r="F41" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>128</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" t="s">
+        <v>213</v>
+      </c>
+      <c r="E42" t="s">
+        <v>51</v>
+      </c>
+      <c r="F42" t="s">
+        <v>51</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>128</v>
+      </c>
+      <c r="B43" t="s">
+        <v>40</v>
+      </c>
+      <c r="D43" t="s">
+        <v>214</v>
+      </c>
+      <c r="E43" t="s">
+        <v>131</v>
+      </c>
+      <c r="F43" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>128</v>
+      </c>
+      <c r="B44" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44" t="s">
+        <v>215</v>
+      </c>
+      <c r="E44" t="s">
+        <v>49</v>
+      </c>
+      <c r="F44" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>128</v>
+      </c>
+      <c r="B45" t="s">
+        <v>40</v>
+      </c>
+      <c r="D45" t="s">
+        <v>216</v>
+      </c>
+      <c r="E45" t="s">
+        <v>135</v>
+      </c>
+      <c r="F45" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>128</v>
+      </c>
+      <c r="B46" t="s">
+        <v>40</v>
+      </c>
+      <c r="D46" t="s">
+        <v>217</v>
+      </c>
+      <c r="E46" t="s">
+        <v>219</v>
+      </c>
+      <c r="F46" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>128</v>
+      </c>
+      <c r="B47" t="s">
+        <v>40</v>
+      </c>
+      <c r="D47" t="s">
+        <v>221</v>
+      </c>
+      <c r="E47" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>128</v>
+      </c>
+      <c r="B48" t="s">
+        <v>40</v>
+      </c>
+      <c r="D48" t="s">
+        <v>222</v>
+      </c>
+      <c r="E48" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>128</v>
+      </c>
+      <c r="B49" t="s">
+        <v>40</v>
+      </c>
+      <c r="D49" t="s">
+        <v>223</v>
+      </c>
+      <c r="E49" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>128</v>
+      </c>
+      <c r="B50" t="s">
+        <v>40</v>
+      </c>
+      <c r="D50" t="s">
+        <v>224</v>
+      </c>
+      <c r="E50" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>128</v>
+      </c>
+      <c r="B51" t="s">
+        <v>40</v>
+      </c>
+      <c r="D51" t="s">
+        <v>225</v>
+      </c>
+      <c r="E51" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>128</v>
+      </c>
+      <c r="B52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" t="s">
+        <v>226</v>
+      </c>
+      <c r="E52" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>128</v>
+      </c>
+      <c r="B53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" t="s">
+        <v>227</v>
+      </c>
+      <c r="E53" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>128</v>
+      </c>
+      <c r="B54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" t="s">
+        <v>228</v>
+      </c>
+      <c r="E54" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>128</v>
+      </c>
+      <c r="B55" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" t="s">
+        <v>229</v>
+      </c>
+      <c r="E55" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>128</v>
+      </c>
+      <c r="B56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" t="s">
+        <v>230</v>
+      </c>
+      <c r="E56" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>128</v>
+      </c>
+      <c r="B57" t="s">
+        <v>220</v>
+      </c>
+      <c r="D57" t="s">
+        <v>231</v>
+      </c>
+      <c r="E57" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>128</v>
+      </c>
+      <c r="B58" t="s">
+        <v>220</v>
+      </c>
+      <c r="D58" t="s">
+        <v>232</v>
+      </c>
+      <c r="E58" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>128</v>
+      </c>
+      <c r="B59" t="s">
+        <v>220</v>
+      </c>
+      <c r="D59" t="s">
+        <v>233</v>
+      </c>
+      <c r="E59" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>128</v>
+      </c>
+      <c r="B60" t="s">
+        <v>220</v>
+      </c>
+      <c r="D60" t="s">
+        <v>234</v>
+      </c>
+      <c r="E60" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>128</v>
+      </c>
+      <c r="B61" t="s">
+        <v>220</v>
+      </c>
+      <c r="D61" t="s">
+        <v>235</v>
+      </c>
+      <c r="E61" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" t="s">
+        <v>318</v>
+      </c>
+      <c r="D62" t="s">
+        <v>147</v>
+      </c>
+      <c r="E62" t="s">
+        <v>68</v>
+      </c>
+      <c r="F62" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" t="s">
+        <v>318</v>
+      </c>
+      <c r="D63" t="s">
+        <v>266</v>
+      </c>
+      <c r="E63" t="s">
+        <v>71</v>
+      </c>
+      <c r="F63" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" t="s">
+        <v>318</v>
+      </c>
+      <c r="D64" t="s">
+        <v>267</v>
+      </c>
+      <c r="E64" t="s">
+        <v>220</v>
+      </c>
+      <c r="F64" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" t="s">
+        <v>251</v>
+      </c>
+      <c r="D65" t="s">
+        <v>268</v>
+      </c>
+      <c r="E65" t="s">
+        <v>251</v>
+      </c>
+      <c r="F65" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>251</v>
+      </c>
+      <c r="D66" t="s">
+        <v>269</v>
+      </c>
+      <c r="E66" t="s">
+        <v>252</v>
+      </c>
+      <c r="F66" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>317</v>
+      </c>
+      <c r="D67" t="s">
+        <v>270</v>
+      </c>
+      <c r="E67" t="s">
+        <v>88</v>
+      </c>
+      <c r="F67" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>65</v>
+      </c>
+      <c r="B68" t="s">
+        <v>317</v>
+      </c>
+      <c r="D68" t="s">
+        <v>271</v>
+      </c>
+      <c r="E68" t="s">
+        <v>253</v>
+      </c>
+      <c r="F68" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>65</v>
+      </c>
+      <c r="B69" t="s">
+        <v>317</v>
+      </c>
+      <c r="D69" t="s">
+        <v>272</v>
+      </c>
+      <c r="E69" t="s">
+        <v>254</v>
+      </c>
+      <c r="F69" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>65</v>
+      </c>
+      <c r="B70" t="s">
+        <v>317</v>
+      </c>
+      <c r="D70" t="s">
+        <v>273</v>
+      </c>
+      <c r="E70" t="s">
+        <v>255</v>
+      </c>
+      <c r="F70" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>65</v>
+      </c>
+      <c r="B71" t="s">
+        <v>319</v>
+      </c>
+      <c r="D71" t="s">
+        <v>274</v>
+      </c>
+      <c r="E71" t="s">
+        <v>79</v>
+      </c>
+      <c r="F71" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>65</v>
+      </c>
+      <c r="B72" t="s">
+        <v>319</v>
+      </c>
+      <c r="D72" t="s">
+        <v>275</v>
+      </c>
+      <c r="E72" t="s">
+        <v>256</v>
+      </c>
+      <c r="F72" t="s">
+        <v>307</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>65</v>
+      </c>
+      <c r="B73" t="s">
+        <v>319</v>
+      </c>
+      <c r="D73" t="s">
+        <v>276</v>
+      </c>
+      <c r="E73" t="s">
+        <v>257</v>
+      </c>
+      <c r="F73" t="s">
+        <v>308</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>65</v>
+      </c>
+      <c r="B74" t="s">
+        <v>319</v>
+      </c>
+      <c r="D74" t="s">
+        <v>277</v>
+      </c>
+      <c r="E74" t="s">
+        <v>258</v>
+      </c>
+      <c r="F74" t="s">
+        <v>309</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>65</v>
+      </c>
+      <c r="B75" t="s">
+        <v>74</v>
+      </c>
+      <c r="D75" t="s">
+        <v>278</v>
+      </c>
+      <c r="E75" t="s">
+        <v>259</v>
+      </c>
+      <c r="F75" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>65</v>
+      </c>
+      <c r="B76" t="s">
+        <v>74</v>
+      </c>
+      <c r="D76" t="s">
+        <v>279</v>
+      </c>
+      <c r="E76" t="s">
+        <v>260</v>
+      </c>
+      <c r="F76" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>65</v>
+      </c>
+      <c r="B77" t="s">
+        <v>74</v>
+      </c>
+      <c r="D77" t="s">
+        <v>280</v>
+      </c>
+      <c r="E77" t="s">
+        <v>261</v>
+      </c>
+      <c r="F77" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>65</v>
+      </c>
+      <c r="B78" t="s">
+        <v>74</v>
+      </c>
+      <c r="D78" t="s">
+        <v>281</v>
+      </c>
+      <c r="E78" t="s">
+        <v>262</v>
+      </c>
+      <c r="F78" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>56</v>
+      </c>
+      <c r="B79" t="s">
+        <v>56</v>
+      </c>
+      <c r="D79" t="s">
+        <v>146</v>
+      </c>
+      <c r="E79" t="s">
+        <v>263</v>
+      </c>
+      <c r="F79" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>56</v>
+      </c>
+      <c r="B80" t="s">
+        <v>56</v>
+      </c>
+      <c r="D80" t="s">
+        <v>282</v>
+      </c>
+      <c r="E80" t="s">
+        <v>264</v>
+      </c>
+      <c r="F80" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>56</v>
+      </c>
+      <c r="B81" t="s">
+        <v>56</v>
+      </c>
+      <c r="D81" t="s">
+        <v>265</v>
+      </c>
+      <c r="E81" t="s">
+        <v>265</v>
+      </c>
+      <c r="F81" t="s">
+        <v>314</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D44DBA8-A8E6-40E1-8916-CA07A080AF7C}">
   <dimension ref="A1:E61"/>
   <sheetViews>
@@ -6581,7 +6975,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A8E9F76-5104-49FC-BB43-6F7BA8306F2B}">
   <dimension ref="A5:O65"/>
   <sheetViews>
@@ -8294,7 +8688,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB67FE54-23CB-424E-AA4C-48055BA2B8E2}">
   <dimension ref="A1:D32"/>
   <sheetViews>
@@ -8567,159 +8961,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B743FD7B-82CD-4F35-99E1-FCE8FAB32A03}">
-  <dimension ref="A2:G14"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>430</v>
-      </c>
-      <c r="C2" t="s">
-        <v>433</v>
-      </c>
-      <c r="F2" t="s">
-        <v>421</v>
-      </c>
-      <c r="G2" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>431</v>
-      </c>
-      <c r="B4">
-        <v>-1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>434</v>
-      </c>
-      <c r="D4" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>-1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>236</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>435</v>
-      </c>
-      <c r="D7" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>238</v>
-      </c>
-      <c r="B8">
-        <v>-1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>135</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10">
-        <v>-1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>403</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>438</v>
-      </c>
-      <c r="F12">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>441</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C29859C-7358-4E2F-B5CC-7696F1DAC449}">
   <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -11015,11 +11261,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2977BD7F-9323-4F6D-98BF-C1B39119DCDE}">
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -12213,7 +12461,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A08F2F-299B-47F7-8064-36693758F4E3}">
   <dimension ref="A1:E56"/>
   <sheetViews>
@@ -13183,122 +13431,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{509EC1D2-D913-4E91-BF4A-1B9A2D2D358E}">
-  <dimension ref="A1:C9"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="102.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/factor_master.xlsx
+++ b/factor_master.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bkrai\Source\risk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D747E5-6DDB-4352-86AE-6D577A474DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529C9BB7-CF9F-43B7-8E69-F80A8244A4B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="7" xr2:uid="{C31FDC5B-A809-4BFD-99CB-DA02246721F7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="5" xr2:uid="{C31FDC5B-A809-4BFD-99CB-DA02246721F7}"/>
   </bookViews>
   <sheets>
-    <sheet name="composites" sheetId="13" r:id="rId1"/>
-    <sheet name="read_composites" sheetId="14" r:id="rId2"/>
-    <sheet name="legacy" sheetId="5" r:id="rId3"/>
-    <sheet name="gpt" sheetId="6" r:id="rId4"/>
-    <sheet name="data_new" sheetId="7" r:id="rId5"/>
-    <sheet name="lior" sheetId="9" r:id="rId6"/>
+    <sheet name="legacy" sheetId="5" r:id="rId1"/>
+    <sheet name="gpt" sheetId="6" r:id="rId2"/>
+    <sheet name="data_new" sheetId="7" r:id="rId3"/>
+    <sheet name="lior" sheetId="9" r:id="rId4"/>
+    <sheet name="read_composites" sheetId="14" r:id="rId5"/>
+    <sheet name="composites" sheetId="13" r:id="rId6"/>
     <sheet name="data" sheetId="3" r:id="rId7"/>
     <sheet name="read" sheetId="12" r:id="rId8"/>
     <sheet name="read_old2" sheetId="4" r:id="rId9"/>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1636" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1643" uniqueCount="451">
   <si>
     <t>SPX</t>
   </si>
@@ -1434,6 +1434,9 @@
   </si>
   <si>
     <t>portfolio_name</t>
+  </si>
+  <si>
+    <t>GEOPOLITICS</t>
   </si>
 </sst>
 </file>
@@ -1498,7 +1501,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1517,12 +1520,74 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="33">
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1657,8 +1722,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Table Style 1" pivot="0" count="2" xr9:uid="{26B58CFA-74FB-41FD-AB02-EC6D3EA4F4A1}">
-      <tableStyleElement type="wholeTable" dxfId="25"/>
-      <tableStyleElement type="headerRow" dxfId="24"/>
+      <tableStyleElement type="wholeTable" dxfId="32"/>
+      <tableStyleElement type="headerRow" dxfId="31"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1731,19 +1796,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6DAD1482-C63D-400D-9F51-F22A8E35CAD8}" name="data" displayName="data" ref="A1:K71" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B096ECD9-9D11-4532-B7BB-C59C7AF13EE1}" name="composities" displayName="composities" ref="A1:C12" totalsRowShown="0">
+  <autoFilter ref="A1:C12" xr:uid="{B096ECD9-9D11-4532-B7BB-C59C7AF13EE1}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{871951C6-7319-4AA1-8565-79E8F38A5ACE}" name="portfolio_name"/>
+    <tableColumn id="2" xr3:uid="{FF366C7B-7C4B-413F-92EE-C488EBE75CC9}" name="factor_name"/>
+    <tableColumn id="3" xr3:uid="{E4250899-FCD2-4E2E-8594-D653C60359AD}" name="weight"/>
+  </tableColumns>
+  <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6DAD1482-C63D-400D-9F51-F22A8E35CAD8}" name="data" displayName="data" ref="A1:K72" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{740DC173-AAC9-4239-A44E-C43F8517304D}" name="asset_class" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{A3BC3BB8-0420-458E-AECD-FD567519FA40}" name="region" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{0E50B2E3-0362-41DB-ACC2-478CC6F618A4}" name="factor_name" dataDxfId="19"/>
-    <tableColumn id="8" xr3:uid="{02943B27-7FCB-4450-B8E0-CF0DB6CF5CCA}" name="factor_name_new" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{D181BF84-863F-4FD0-B518-14EA5B0FB18E}" name="description_override" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{1C40DF9B-2910-4DE6-A188-563938E39797}" name="Description_GPT" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{1806E074-6CB5-47AB-8FA3-EF0F6E429062}" name="Underlying" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{21539C17-C1CC-4FA9-A0E1-A2F8FF8AB52C}" name="Active" dataDxfId="14"/>
-    <tableColumn id="37" xr3:uid="{DE50B7AE-5F67-471C-BE48-8BFA5076EDB0}" name="hyper_factor" dataDxfId="13"/>
-    <tableColumn id="10" xr3:uid="{494805E4-EBB6-47FD-9BC2-8DAD9FB9D3FA}" name="composite" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{5A601067-D384-419C-A711-AD3034F77E28}" name="description" dataDxfId="11">
+    <tableColumn id="1" xr3:uid="{740DC173-AAC9-4239-A44E-C43F8517304D}" name="asset_class" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{A3BC3BB8-0420-458E-AECD-FD567519FA40}" name="region" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{0E50B2E3-0362-41DB-ACC2-478CC6F618A4}" name="factor_name" dataDxfId="26"/>
+    <tableColumn id="8" xr3:uid="{02943B27-7FCB-4450-B8E0-CF0DB6CF5CCA}" name="factor_name_new" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{D181BF84-863F-4FD0-B518-14EA5B0FB18E}" name="description_override" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{1C40DF9B-2910-4DE6-A188-563938E39797}" name="Description_GPT" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{1806E074-6CB5-47AB-8FA3-EF0F6E429062}" name="Underlying" dataDxfId="22"/>
+    <tableColumn id="7" xr3:uid="{21539C17-C1CC-4FA9-A0E1-A2F8FF8AB52C}" name="Active" dataDxfId="21"/>
+    <tableColumn id="37" xr3:uid="{DE50B7AE-5F67-471C-BE48-8BFA5076EDB0}" name="hyper_factor" dataDxfId="20"/>
+    <tableColumn id="10" xr3:uid="{494805E4-EBB6-47FD-9BC2-8DAD9FB9D3FA}" name="composite" dataDxfId="19"/>
+    <tableColumn id="9" xr3:uid="{5A601067-D384-419C-A711-AD3034F77E28}" name="description" dataDxfId="18">
       <calculatedColumnFormula>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1751,19 +1828,19 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F918301C-859F-40B7-9C3E-90E8F0495E68}" name="data_old" displayName="data_old" ref="A1:I45" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F918301C-859F-40B7-9C3E-90E8F0495E68}" name="data_old" displayName="data_old" ref="A1:I45" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A1:I45" xr:uid="{6DAD1482-C63D-400D-9F51-F22A8E35CAD8}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{B19D2B17-9AC9-4F1B-B32E-D4F72AAE469F}" name="asset_class" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{2C7CF29D-8E72-4B0C-A212-31F2A25D75C9}" name="region" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{C7E89EEC-2B5D-4C94-9327-1AC8E33DE708}" name="factor_name" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{B3F9004A-8BEB-463E-A746-8189A2AC2B3E}" name="factor_name_new" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{51CD7FB3-58FE-4906-B73C-7726C0A9C471}" name="description_override" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{3CFF990B-3164-4533-821F-08CE7C6D82CA}" name="Description_GPT" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{DD86D53E-A9B4-4387-ABF9-F2625E77982D}" name="Underlying" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{D56FFF9A-72FF-42A4-B3D2-2F27AB16AF7A}" name="Active" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{8476DFDE-B4B1-4FD9-99B4-DF1F2ABBD7D5}" name="description" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{B19D2B17-9AC9-4F1B-B32E-D4F72AAE469F}" name="asset_class" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{2C7CF29D-8E72-4B0C-A212-31F2A25D75C9}" name="region" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{C7E89EEC-2B5D-4C94-9327-1AC8E33DE708}" name="factor_name" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{B3F9004A-8BEB-463E-A746-8189A2AC2B3E}" name="factor_name_new" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{51CD7FB3-58FE-4906-B73C-7726C0A9C471}" name="description_override" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{3CFF990B-3164-4533-821F-08CE7C6D82CA}" name="Description_GPT" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{DD86D53E-A9B4-4387-ABF9-F2625E77982D}" name="Underlying" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{D56FFF9A-72FF-42A4-B3D2-2F27AB16AF7A}" name="Active" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{8476DFDE-B4B1-4FD9-99B4-DF1F2ABBD7D5}" name="description" dataDxfId="7">
       <calculatedColumnFormula>IF(data_old[[#This Row],[description_override]]="",data_old[[#This Row],[Description_GPT]],data_old[[#This Row],[description_override]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2087,142 +2164,1412 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75C34FC6-78FE-492E-BECF-2EB9A04778A9}">
-  <dimension ref="A2:G14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC6F81C3-35A2-4C92-A3A4-30A9105A6D5B}">
+  <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>283</v>
+      </c>
+    </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
       <c r="B2" t="s">
-        <v>430</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>433</v>
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>421</v>
-      </c>
-      <c r="G2" t="s">
-        <v>439</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>434</v>
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>431</v>
-      </c>
-      <c r="B4">
-        <v>-1</v>
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>434</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>432</v>
+        <v>154</v>
+      </c>
+      <c r="E4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F4" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>434</v>
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>-1</v>
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>434</v>
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E6" t="s">
+        <v>173</v>
+      </c>
+      <c r="F6" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>236</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>435</v>
+        <v>321</v>
       </c>
       <c r="D7" t="s">
-        <v>436</v>
+        <v>160</v>
+      </c>
+      <c r="E7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F7" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>238</v>
-      </c>
-      <c r="B8">
-        <v>-1</v>
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>435</v>
+        <v>321</v>
+      </c>
+      <c r="D8" t="s">
+        <v>161</v>
+      </c>
+      <c r="E8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F8" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>135</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>321</v>
+      </c>
+      <c r="D9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E9" t="s">
+        <v>176</v>
+      </c>
+      <c r="F9" t="s">
+        <v>176</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10">
-        <v>-1</v>
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>321</v>
       </c>
       <c r="D10" t="s">
-        <v>437</v>
+        <v>163</v>
+      </c>
+      <c r="E10" t="s">
+        <v>177</v>
+      </c>
+      <c r="F10" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>403</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>321</v>
+      </c>
+      <c r="D11" t="s">
+        <v>164</v>
+      </c>
+      <c r="E11" t="s">
+        <v>342</v>
+      </c>
+      <c r="F11" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>438</v>
-      </c>
-      <c r="F12">
-        <v>-1</v>
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>321</v>
+      </c>
+      <c r="D12" t="s">
+        <v>165</v>
+      </c>
+      <c r="E12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F12" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>440</v>
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>321</v>
+      </c>
+      <c r="D13" t="s">
+        <v>166</v>
+      </c>
+      <c r="E13" t="s">
+        <v>179</v>
+      </c>
+      <c r="F13" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>441</v>
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>321</v>
+      </c>
+      <c r="D14" t="s">
+        <v>167</v>
+      </c>
+      <c r="E14" t="s">
+        <v>180</v>
+      </c>
+      <c r="F14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>321</v>
+      </c>
+      <c r="D15" t="s">
+        <v>168</v>
+      </c>
+      <c r="E15" t="s">
+        <v>181</v>
+      </c>
+      <c r="F15" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>169</v>
+      </c>
+      <c r="E16" t="s">
+        <v>182</v>
+      </c>
+      <c r="F16" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" t="s">
+        <v>170</v>
+      </c>
+      <c r="E17" t="s">
+        <v>183</v>
+      </c>
+      <c r="F17" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" t="s">
+        <v>171</v>
+      </c>
+      <c r="E18" t="s">
+        <v>184</v>
+      </c>
+      <c r="F18" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" t="s">
+        <v>150</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" t="s">
+        <v>155</v>
+      </c>
+      <c r="E20" t="s">
+        <v>156</v>
+      </c>
+      <c r="F20" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" t="s">
+        <v>157</v>
+      </c>
+      <c r="E21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" t="s">
+        <v>158</v>
+      </c>
+      <c r="E22" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" t="s">
+        <v>185</v>
+      </c>
+      <c r="E23" t="s">
+        <v>195</v>
+      </c>
+      <c r="F23" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" t="s">
+        <v>186</v>
+      </c>
+      <c r="E24" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" t="s">
+        <v>187</v>
+      </c>
+      <c r="E25" t="s">
+        <v>142</v>
+      </c>
+      <c r="F25" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" t="s">
+        <v>188</v>
+      </c>
+      <c r="E26" t="s">
+        <v>288</v>
+      </c>
+      <c r="F26" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" t="s">
+        <v>189</v>
+      </c>
+      <c r="E27" t="s">
+        <v>196</v>
+      </c>
+      <c r="F27" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" t="s">
+        <v>190</v>
+      </c>
+      <c r="E28" t="s">
+        <v>197</v>
+      </c>
+      <c r="F28" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" t="s">
+        <v>191</v>
+      </c>
+      <c r="E29" t="s">
+        <v>198</v>
+      </c>
+      <c r="F29" t="s">
+        <v>198</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" t="s">
+        <v>192</v>
+      </c>
+      <c r="E30" t="s">
+        <v>82</v>
+      </c>
+      <c r="F30" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" t="s">
+        <v>194</v>
+      </c>
+      <c r="E31" t="s">
+        <v>80</v>
+      </c>
+      <c r="F31" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" t="s">
+        <v>193</v>
+      </c>
+      <c r="E32" t="s">
+        <v>199</v>
+      </c>
+      <c r="F32" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" t="s">
+        <v>200</v>
+      </c>
+      <c r="E33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" t="s">
+        <v>201</v>
+      </c>
+      <c r="E34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" t="s">
+        <v>202</v>
+      </c>
+      <c r="E35" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" t="s">
+        <v>203</v>
+      </c>
+      <c r="E36" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" t="s">
+        <v>204</v>
+      </c>
+      <c r="E37" t="s">
+        <v>205</v>
+      </c>
+      <c r="F37" t="s">
+        <v>293</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" t="s">
+        <v>206</v>
+      </c>
+      <c r="E38" t="s">
+        <v>209</v>
+      </c>
+      <c r="F38" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" t="s">
+        <v>207</v>
+      </c>
+      <c r="E39" t="s">
+        <v>210</v>
+      </c>
+      <c r="F39" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" t="s">
+        <v>208</v>
+      </c>
+      <c r="E40" t="s">
+        <v>211</v>
+      </c>
+      <c r="F40" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>128</v>
+      </c>
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" t="s">
+        <v>212</v>
+      </c>
+      <c r="E41" t="s">
+        <v>218</v>
+      </c>
+      <c r="F41" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>128</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" t="s">
+        <v>213</v>
+      </c>
+      <c r="E42" t="s">
+        <v>51</v>
+      </c>
+      <c r="F42" t="s">
+        <v>51</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>128</v>
+      </c>
+      <c r="B43" t="s">
+        <v>40</v>
+      </c>
+      <c r="D43" t="s">
+        <v>214</v>
+      </c>
+      <c r="E43" t="s">
+        <v>131</v>
+      </c>
+      <c r="F43" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>128</v>
+      </c>
+      <c r="B44" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44" t="s">
+        <v>215</v>
+      </c>
+      <c r="E44" t="s">
+        <v>49</v>
+      </c>
+      <c r="F44" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>128</v>
+      </c>
+      <c r="B45" t="s">
+        <v>40</v>
+      </c>
+      <c r="D45" t="s">
+        <v>216</v>
+      </c>
+      <c r="E45" t="s">
+        <v>135</v>
+      </c>
+      <c r="F45" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>128</v>
+      </c>
+      <c r="B46" t="s">
+        <v>40</v>
+      </c>
+      <c r="D46" t="s">
+        <v>217</v>
+      </c>
+      <c r="E46" t="s">
+        <v>219</v>
+      </c>
+      <c r="F46" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>128</v>
+      </c>
+      <c r="B47" t="s">
+        <v>40</v>
+      </c>
+      <c r="D47" t="s">
+        <v>221</v>
+      </c>
+      <c r="E47" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>128</v>
+      </c>
+      <c r="B48" t="s">
+        <v>40</v>
+      </c>
+      <c r="D48" t="s">
+        <v>222</v>
+      </c>
+      <c r="E48" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>128</v>
+      </c>
+      <c r="B49" t="s">
+        <v>40</v>
+      </c>
+      <c r="D49" t="s">
+        <v>223</v>
+      </c>
+      <c r="E49" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>128</v>
+      </c>
+      <c r="B50" t="s">
+        <v>40</v>
+      </c>
+      <c r="D50" t="s">
+        <v>224</v>
+      </c>
+      <c r="E50" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>128</v>
+      </c>
+      <c r="B51" t="s">
+        <v>40</v>
+      </c>
+      <c r="D51" t="s">
+        <v>225</v>
+      </c>
+      <c r="E51" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>128</v>
+      </c>
+      <c r="B52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" t="s">
+        <v>226</v>
+      </c>
+      <c r="E52" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>128</v>
+      </c>
+      <c r="B53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" t="s">
+        <v>227</v>
+      </c>
+      <c r="E53" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>128</v>
+      </c>
+      <c r="B54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" t="s">
+        <v>228</v>
+      </c>
+      <c r="E54" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>128</v>
+      </c>
+      <c r="B55" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" t="s">
+        <v>229</v>
+      </c>
+      <c r="E55" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>128</v>
+      </c>
+      <c r="B56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" t="s">
+        <v>230</v>
+      </c>
+      <c r="E56" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>128</v>
+      </c>
+      <c r="B57" t="s">
+        <v>220</v>
+      </c>
+      <c r="D57" t="s">
+        <v>231</v>
+      </c>
+      <c r="E57" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>128</v>
+      </c>
+      <c r="B58" t="s">
+        <v>220</v>
+      </c>
+      <c r="D58" t="s">
+        <v>232</v>
+      </c>
+      <c r="E58" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>128</v>
+      </c>
+      <c r="B59" t="s">
+        <v>220</v>
+      </c>
+      <c r="D59" t="s">
+        <v>233</v>
+      </c>
+      <c r="E59" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>128</v>
+      </c>
+      <c r="B60" t="s">
+        <v>220</v>
+      </c>
+      <c r="D60" t="s">
+        <v>234</v>
+      </c>
+      <c r="E60" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>128</v>
+      </c>
+      <c r="B61" t="s">
+        <v>220</v>
+      </c>
+      <c r="D61" t="s">
+        <v>235</v>
+      </c>
+      <c r="E61" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" t="s">
+        <v>318</v>
+      </c>
+      <c r="D62" t="s">
+        <v>147</v>
+      </c>
+      <c r="E62" t="s">
+        <v>68</v>
+      </c>
+      <c r="F62" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" t="s">
+        <v>318</v>
+      </c>
+      <c r="D63" t="s">
+        <v>266</v>
+      </c>
+      <c r="E63" t="s">
+        <v>71</v>
+      </c>
+      <c r="F63" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" t="s">
+        <v>318</v>
+      </c>
+      <c r="D64" t="s">
+        <v>267</v>
+      </c>
+      <c r="E64" t="s">
+        <v>220</v>
+      </c>
+      <c r="F64" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" t="s">
+        <v>251</v>
+      </c>
+      <c r="D65" t="s">
+        <v>268</v>
+      </c>
+      <c r="E65" t="s">
+        <v>251</v>
+      </c>
+      <c r="F65" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>251</v>
+      </c>
+      <c r="D66" t="s">
+        <v>269</v>
+      </c>
+      <c r="E66" t="s">
+        <v>252</v>
+      </c>
+      <c r="F66" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>317</v>
+      </c>
+      <c r="D67" t="s">
+        <v>270</v>
+      </c>
+      <c r="E67" t="s">
+        <v>88</v>
+      </c>
+      <c r="F67" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>65</v>
+      </c>
+      <c r="B68" t="s">
+        <v>317</v>
+      </c>
+      <c r="D68" t="s">
+        <v>271</v>
+      </c>
+      <c r="E68" t="s">
+        <v>253</v>
+      </c>
+      <c r="F68" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>65</v>
+      </c>
+      <c r="B69" t="s">
+        <v>317</v>
+      </c>
+      <c r="D69" t="s">
+        <v>272</v>
+      </c>
+      <c r="E69" t="s">
+        <v>254</v>
+      </c>
+      <c r="F69" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>65</v>
+      </c>
+      <c r="B70" t="s">
+        <v>317</v>
+      </c>
+      <c r="D70" t="s">
+        <v>273</v>
+      </c>
+      <c r="E70" t="s">
+        <v>255</v>
+      </c>
+      <c r="F70" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>65</v>
+      </c>
+      <c r="B71" t="s">
+        <v>319</v>
+      </c>
+      <c r="D71" t="s">
+        <v>274</v>
+      </c>
+      <c r="E71" t="s">
+        <v>79</v>
+      </c>
+      <c r="F71" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>65</v>
+      </c>
+      <c r="B72" t="s">
+        <v>319</v>
+      </c>
+      <c r="D72" t="s">
+        <v>275</v>
+      </c>
+      <c r="E72" t="s">
+        <v>256</v>
+      </c>
+      <c r="F72" t="s">
+        <v>307</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>65</v>
+      </c>
+      <c r="B73" t="s">
+        <v>319</v>
+      </c>
+      <c r="D73" t="s">
+        <v>276</v>
+      </c>
+      <c r="E73" t="s">
+        <v>257</v>
+      </c>
+      <c r="F73" t="s">
+        <v>308</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>65</v>
+      </c>
+      <c r="B74" t="s">
+        <v>319</v>
+      </c>
+      <c r="D74" t="s">
+        <v>277</v>
+      </c>
+      <c r="E74" t="s">
+        <v>258</v>
+      </c>
+      <c r="F74" t="s">
+        <v>309</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>65</v>
+      </c>
+      <c r="B75" t="s">
+        <v>74</v>
+      </c>
+      <c r="D75" t="s">
+        <v>278</v>
+      </c>
+      <c r="E75" t="s">
+        <v>259</v>
+      </c>
+      <c r="F75" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>65</v>
+      </c>
+      <c r="B76" t="s">
+        <v>74</v>
+      </c>
+      <c r="D76" t="s">
+        <v>279</v>
+      </c>
+      <c r="E76" t="s">
+        <v>260</v>
+      </c>
+      <c r="F76" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>65</v>
+      </c>
+      <c r="B77" t="s">
+        <v>74</v>
+      </c>
+      <c r="D77" t="s">
+        <v>280</v>
+      </c>
+      <c r="E77" t="s">
+        <v>261</v>
+      </c>
+      <c r="F77" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>65</v>
+      </c>
+      <c r="B78" t="s">
+        <v>74</v>
+      </c>
+      <c r="D78" t="s">
+        <v>281</v>
+      </c>
+      <c r="E78" t="s">
+        <v>262</v>
+      </c>
+      <c r="F78" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>56</v>
+      </c>
+      <c r="B79" t="s">
+        <v>56</v>
+      </c>
+      <c r="D79" t="s">
+        <v>146</v>
+      </c>
+      <c r="E79" t="s">
+        <v>263</v>
+      </c>
+      <c r="F79" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>56</v>
+      </c>
+      <c r="B80" t="s">
+        <v>56</v>
+      </c>
+      <c r="D80" t="s">
+        <v>282</v>
+      </c>
+      <c r="E80" t="s">
+        <v>264</v>
+      </c>
+      <c r="F80" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>56</v>
+      </c>
+      <c r="B81" t="s">
+        <v>56</v>
+      </c>
+      <c r="D81" t="s">
+        <v>265</v>
+      </c>
+      <c r="E81" t="s">
+        <v>265</v>
+      </c>
+      <c r="F81" t="s">
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -4385,1545 +5732,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7A5BD3C-985E-4AF9-B99B-18E2DCAB8A90}">
-  <dimension ref="A1:C10"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>449</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>430</v>
-      </c>
-      <c r="B2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C2">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>430</v>
-      </c>
-      <c r="B3" t="s">
-        <v>431</v>
-      </c>
-      <c r="C3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>430</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>430</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>439</v>
-      </c>
-      <c r="B6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>439</v>
-      </c>
-      <c r="B7" t="s">
-        <v>447</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>421</v>
-      </c>
-      <c r="B8" t="s">
-        <v>403</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>421</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>421</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10">
-        <v>-1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC6F81C3-35A2-4C92-A3A4-30A9105A6D5B}">
-  <dimension ref="A1:G81"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="4" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B1" t="s">
-        <v>316</v>
-      </c>
-      <c r="C1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" t="s">
-        <v>154</v>
-      </c>
-      <c r="E4" t="s">
-        <v>172</v>
-      </c>
-      <c r="F4" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" t="s">
-        <v>140</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" t="s">
-        <v>159</v>
-      </c>
-      <c r="E6" t="s">
-        <v>173</v>
-      </c>
-      <c r="F6" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" t="s">
-        <v>321</v>
-      </c>
-      <c r="D7" t="s">
-        <v>160</v>
-      </c>
-      <c r="E7" t="s">
-        <v>174</v>
-      </c>
-      <c r="F7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" t="s">
-        <v>321</v>
-      </c>
-      <c r="D8" t="s">
-        <v>161</v>
-      </c>
-      <c r="E8" t="s">
-        <v>175</v>
-      </c>
-      <c r="F8" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" t="s">
-        <v>321</v>
-      </c>
-      <c r="D9" t="s">
-        <v>162</v>
-      </c>
-      <c r="E9" t="s">
-        <v>176</v>
-      </c>
-      <c r="F9" t="s">
-        <v>176</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" t="s">
-        <v>321</v>
-      </c>
-      <c r="D10" t="s">
-        <v>163</v>
-      </c>
-      <c r="E10" t="s">
-        <v>177</v>
-      </c>
-      <c r="F10" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" t="s">
-        <v>321</v>
-      </c>
-      <c r="D11" t="s">
-        <v>164</v>
-      </c>
-      <c r="E11" t="s">
-        <v>342</v>
-      </c>
-      <c r="F11" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" t="s">
-        <v>321</v>
-      </c>
-      <c r="D12" t="s">
-        <v>165</v>
-      </c>
-      <c r="E12" t="s">
-        <v>178</v>
-      </c>
-      <c r="F12" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" t="s">
-        <v>321</v>
-      </c>
-      <c r="D13" t="s">
-        <v>166</v>
-      </c>
-      <c r="E13" t="s">
-        <v>179</v>
-      </c>
-      <c r="F13" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" t="s">
-        <v>321</v>
-      </c>
-      <c r="D14" t="s">
-        <v>167</v>
-      </c>
-      <c r="E14" t="s">
-        <v>180</v>
-      </c>
-      <c r="F14" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" t="s">
-        <v>321</v>
-      </c>
-      <c r="D15" t="s">
-        <v>168</v>
-      </c>
-      <c r="E15" t="s">
-        <v>181</v>
-      </c>
-      <c r="F15" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" t="s">
-        <v>169</v>
-      </c>
-      <c r="E16" t="s">
-        <v>182</v>
-      </c>
-      <c r="F16" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" t="s">
-        <v>170</v>
-      </c>
-      <c r="E17" t="s">
-        <v>183</v>
-      </c>
-      <c r="F17" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" t="s">
-        <v>171</v>
-      </c>
-      <c r="E18" t="s">
-        <v>184</v>
-      </c>
-      <c r="F18" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" t="s">
-        <v>150</v>
-      </c>
-      <c r="E19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" t="s">
-        <v>155</v>
-      </c>
-      <c r="E20" t="s">
-        <v>156</v>
-      </c>
-      <c r="F20" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" t="s">
-        <v>157</v>
-      </c>
-      <c r="E21" t="s">
-        <v>84</v>
-      </c>
-      <c r="F21" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" t="s">
-        <v>158</v>
-      </c>
-      <c r="E22" t="s">
-        <v>95</v>
-      </c>
-      <c r="F22" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" t="s">
-        <v>185</v>
-      </c>
-      <c r="E23" t="s">
-        <v>195</v>
-      </c>
-      <c r="F23" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" t="s">
-        <v>186</v>
-      </c>
-      <c r="E24" t="s">
-        <v>77</v>
-      </c>
-      <c r="F24" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" t="s">
-        <v>71</v>
-      </c>
-      <c r="D25" t="s">
-        <v>187</v>
-      </c>
-      <c r="E25" t="s">
-        <v>142</v>
-      </c>
-      <c r="F25" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" t="s">
-        <v>74</v>
-      </c>
-      <c r="D26" t="s">
-        <v>188</v>
-      </c>
-      <c r="E26" t="s">
-        <v>288</v>
-      </c>
-      <c r="F26" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" t="s">
-        <v>74</v>
-      </c>
-      <c r="D27" t="s">
-        <v>189</v>
-      </c>
-      <c r="E27" t="s">
-        <v>196</v>
-      </c>
-      <c r="F27" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" t="s">
-        <v>190</v>
-      </c>
-      <c r="E28" t="s">
-        <v>197</v>
-      </c>
-      <c r="F28" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" t="s">
-        <v>74</v>
-      </c>
-      <c r="D29" t="s">
-        <v>191</v>
-      </c>
-      <c r="E29" t="s">
-        <v>198</v>
-      </c>
-      <c r="F29" t="s">
-        <v>198</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" t="s">
-        <v>74</v>
-      </c>
-      <c r="D30" t="s">
-        <v>192</v>
-      </c>
-      <c r="E30" t="s">
-        <v>82</v>
-      </c>
-      <c r="F30" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" t="s">
-        <v>74</v>
-      </c>
-      <c r="D31" t="s">
-        <v>194</v>
-      </c>
-      <c r="E31" t="s">
-        <v>80</v>
-      </c>
-      <c r="F31" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" t="s">
-        <v>74</v>
-      </c>
-      <c r="D32" t="s">
-        <v>193</v>
-      </c>
-      <c r="E32" t="s">
-        <v>199</v>
-      </c>
-      <c r="F32" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>46</v>
-      </c>
-      <c r="B33" t="s">
-        <v>40</v>
-      </c>
-      <c r="D33" t="s">
-        <v>200</v>
-      </c>
-      <c r="E33" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>46</v>
-      </c>
-      <c r="B34" t="s">
-        <v>40</v>
-      </c>
-      <c r="D34" t="s">
-        <v>201</v>
-      </c>
-      <c r="E34" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>46</v>
-      </c>
-      <c r="B35" t="s">
-        <v>40</v>
-      </c>
-      <c r="D35" t="s">
-        <v>202</v>
-      </c>
-      <c r="E35" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>46</v>
-      </c>
-      <c r="B36" t="s">
-        <v>40</v>
-      </c>
-      <c r="D36" t="s">
-        <v>203</v>
-      </c>
-      <c r="E36" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37" t="s">
-        <v>40</v>
-      </c>
-      <c r="D37" t="s">
-        <v>204</v>
-      </c>
-      <c r="E37" t="s">
-        <v>205</v>
-      </c>
-      <c r="F37" t="s">
-        <v>293</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38" t="s">
-        <v>68</v>
-      </c>
-      <c r="D38" t="s">
-        <v>206</v>
-      </c>
-      <c r="E38" t="s">
-        <v>209</v>
-      </c>
-      <c r="F38" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>46</v>
-      </c>
-      <c r="B39" t="s">
-        <v>68</v>
-      </c>
-      <c r="D39" t="s">
-        <v>207</v>
-      </c>
-      <c r="E39" t="s">
-        <v>210</v>
-      </c>
-      <c r="F39" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40" t="s">
-        <v>68</v>
-      </c>
-      <c r="D40" t="s">
-        <v>208</v>
-      </c>
-      <c r="E40" t="s">
-        <v>211</v>
-      </c>
-      <c r="F40" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>128</v>
-      </c>
-      <c r="B41" t="s">
-        <v>40</v>
-      </c>
-      <c r="D41" t="s">
-        <v>212</v>
-      </c>
-      <c r="E41" t="s">
-        <v>218</v>
-      </c>
-      <c r="F41" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>128</v>
-      </c>
-      <c r="B42" t="s">
-        <v>40</v>
-      </c>
-      <c r="D42" t="s">
-        <v>213</v>
-      </c>
-      <c r="E42" t="s">
-        <v>51</v>
-      </c>
-      <c r="F42" t="s">
-        <v>51</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>128</v>
-      </c>
-      <c r="B43" t="s">
-        <v>40</v>
-      </c>
-      <c r="D43" t="s">
-        <v>214</v>
-      </c>
-      <c r="E43" t="s">
-        <v>131</v>
-      </c>
-      <c r="F43" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>128</v>
-      </c>
-      <c r="B44" t="s">
-        <v>40</v>
-      </c>
-      <c r="D44" t="s">
-        <v>215</v>
-      </c>
-      <c r="E44" t="s">
-        <v>49</v>
-      </c>
-      <c r="F44" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>128</v>
-      </c>
-      <c r="B45" t="s">
-        <v>40</v>
-      </c>
-      <c r="D45" t="s">
-        <v>216</v>
-      </c>
-      <c r="E45" t="s">
-        <v>135</v>
-      </c>
-      <c r="F45" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>128</v>
-      </c>
-      <c r="B46" t="s">
-        <v>40</v>
-      </c>
-      <c r="D46" t="s">
-        <v>217</v>
-      </c>
-      <c r="E46" t="s">
-        <v>219</v>
-      </c>
-      <c r="F46" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>128</v>
-      </c>
-      <c r="B47" t="s">
-        <v>40</v>
-      </c>
-      <c r="D47" t="s">
-        <v>221</v>
-      </c>
-      <c r="E47" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>128</v>
-      </c>
-      <c r="B48" t="s">
-        <v>40</v>
-      </c>
-      <c r="D48" t="s">
-        <v>222</v>
-      </c>
-      <c r="E48" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>128</v>
-      </c>
-      <c r="B49" t="s">
-        <v>40</v>
-      </c>
-      <c r="D49" t="s">
-        <v>223</v>
-      </c>
-      <c r="E49" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>128</v>
-      </c>
-      <c r="B50" t="s">
-        <v>40</v>
-      </c>
-      <c r="D50" t="s">
-        <v>224</v>
-      </c>
-      <c r="E50" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>128</v>
-      </c>
-      <c r="B51" t="s">
-        <v>40</v>
-      </c>
-      <c r="D51" t="s">
-        <v>225</v>
-      </c>
-      <c r="E51" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>128</v>
-      </c>
-      <c r="B52" t="s">
-        <v>68</v>
-      </c>
-      <c r="D52" t="s">
-        <v>226</v>
-      </c>
-      <c r="E52" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>128</v>
-      </c>
-      <c r="B53" t="s">
-        <v>68</v>
-      </c>
-      <c r="D53" t="s">
-        <v>227</v>
-      </c>
-      <c r="E53" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>128</v>
-      </c>
-      <c r="B54" t="s">
-        <v>68</v>
-      </c>
-      <c r="D54" t="s">
-        <v>228</v>
-      </c>
-      <c r="E54" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>128</v>
-      </c>
-      <c r="B55" t="s">
-        <v>68</v>
-      </c>
-      <c r="D55" t="s">
-        <v>229</v>
-      </c>
-      <c r="E55" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>128</v>
-      </c>
-      <c r="B56" t="s">
-        <v>68</v>
-      </c>
-      <c r="D56" t="s">
-        <v>230</v>
-      </c>
-      <c r="E56" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>128</v>
-      </c>
-      <c r="B57" t="s">
-        <v>220</v>
-      </c>
-      <c r="D57" t="s">
-        <v>231</v>
-      </c>
-      <c r="E57" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>128</v>
-      </c>
-      <c r="B58" t="s">
-        <v>220</v>
-      </c>
-      <c r="D58" t="s">
-        <v>232</v>
-      </c>
-      <c r="E58" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>128</v>
-      </c>
-      <c r="B59" t="s">
-        <v>220</v>
-      </c>
-      <c r="D59" t="s">
-        <v>233</v>
-      </c>
-      <c r="E59" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>128</v>
-      </c>
-      <c r="B60" t="s">
-        <v>220</v>
-      </c>
-      <c r="D60" t="s">
-        <v>234</v>
-      </c>
-      <c r="E60" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>128</v>
-      </c>
-      <c r="B61" t="s">
-        <v>220</v>
-      </c>
-      <c r="D61" t="s">
-        <v>235</v>
-      </c>
-      <c r="E61" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>65</v>
-      </c>
-      <c r="B62" t="s">
-        <v>318</v>
-      </c>
-      <c r="D62" t="s">
-        <v>147</v>
-      </c>
-      <c r="E62" t="s">
-        <v>68</v>
-      </c>
-      <c r="F62" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>65</v>
-      </c>
-      <c r="B63" t="s">
-        <v>318</v>
-      </c>
-      <c r="D63" t="s">
-        <v>266</v>
-      </c>
-      <c r="E63" t="s">
-        <v>71</v>
-      </c>
-      <c r="F63" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>65</v>
-      </c>
-      <c r="B64" t="s">
-        <v>318</v>
-      </c>
-      <c r="D64" t="s">
-        <v>267</v>
-      </c>
-      <c r="E64" t="s">
-        <v>220</v>
-      </c>
-      <c r="F64" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>65</v>
-      </c>
-      <c r="B65" t="s">
-        <v>251</v>
-      </c>
-      <c r="D65" t="s">
-        <v>268</v>
-      </c>
-      <c r="E65" t="s">
-        <v>251</v>
-      </c>
-      <c r="F65" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>65</v>
-      </c>
-      <c r="B66" t="s">
-        <v>251</v>
-      </c>
-      <c r="D66" t="s">
-        <v>269</v>
-      </c>
-      <c r="E66" t="s">
-        <v>252</v>
-      </c>
-      <c r="F66" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>65</v>
-      </c>
-      <c r="B67" t="s">
-        <v>317</v>
-      </c>
-      <c r="D67" t="s">
-        <v>270</v>
-      </c>
-      <c r="E67" t="s">
-        <v>88</v>
-      </c>
-      <c r="F67" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>65</v>
-      </c>
-      <c r="B68" t="s">
-        <v>317</v>
-      </c>
-      <c r="D68" t="s">
-        <v>271</v>
-      </c>
-      <c r="E68" t="s">
-        <v>253</v>
-      </c>
-      <c r="F68" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>65</v>
-      </c>
-      <c r="B69" t="s">
-        <v>317</v>
-      </c>
-      <c r="D69" t="s">
-        <v>272</v>
-      </c>
-      <c r="E69" t="s">
-        <v>254</v>
-      </c>
-      <c r="F69" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>65</v>
-      </c>
-      <c r="B70" t="s">
-        <v>317</v>
-      </c>
-      <c r="D70" t="s">
-        <v>273</v>
-      </c>
-      <c r="E70" t="s">
-        <v>255</v>
-      </c>
-      <c r="F70" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>65</v>
-      </c>
-      <c r="B71" t="s">
-        <v>319</v>
-      </c>
-      <c r="D71" t="s">
-        <v>274</v>
-      </c>
-      <c r="E71" t="s">
-        <v>79</v>
-      </c>
-      <c r="F71" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>65</v>
-      </c>
-      <c r="B72" t="s">
-        <v>319</v>
-      </c>
-      <c r="D72" t="s">
-        <v>275</v>
-      </c>
-      <c r="E72" t="s">
-        <v>256</v>
-      </c>
-      <c r="F72" t="s">
-        <v>307</v>
-      </c>
-      <c r="G72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>65</v>
-      </c>
-      <c r="B73" t="s">
-        <v>319</v>
-      </c>
-      <c r="D73" t="s">
-        <v>276</v>
-      </c>
-      <c r="E73" t="s">
-        <v>257</v>
-      </c>
-      <c r="F73" t="s">
-        <v>308</v>
-      </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>65</v>
-      </c>
-      <c r="B74" t="s">
-        <v>319</v>
-      </c>
-      <c r="D74" t="s">
-        <v>277</v>
-      </c>
-      <c r="E74" t="s">
-        <v>258</v>
-      </c>
-      <c r="F74" t="s">
-        <v>309</v>
-      </c>
-      <c r="G74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>65</v>
-      </c>
-      <c r="B75" t="s">
-        <v>74</v>
-      </c>
-      <c r="D75" t="s">
-        <v>278</v>
-      </c>
-      <c r="E75" t="s">
-        <v>259</v>
-      </c>
-      <c r="F75" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>65</v>
-      </c>
-      <c r="B76" t="s">
-        <v>74</v>
-      </c>
-      <c r="D76" t="s">
-        <v>279</v>
-      </c>
-      <c r="E76" t="s">
-        <v>260</v>
-      </c>
-      <c r="F76" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>65</v>
-      </c>
-      <c r="B77" t="s">
-        <v>74</v>
-      </c>
-      <c r="D77" t="s">
-        <v>280</v>
-      </c>
-      <c r="E77" t="s">
-        <v>261</v>
-      </c>
-      <c r="F77" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>65</v>
-      </c>
-      <c r="B78" t="s">
-        <v>74</v>
-      </c>
-      <c r="D78" t="s">
-        <v>281</v>
-      </c>
-      <c r="E78" t="s">
-        <v>262</v>
-      </c>
-      <c r="F78" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>56</v>
-      </c>
-      <c r="B79" t="s">
-        <v>56</v>
-      </c>
-      <c r="D79" t="s">
-        <v>146</v>
-      </c>
-      <c r="E79" t="s">
-        <v>263</v>
-      </c>
-      <c r="F79" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>56</v>
-      </c>
-      <c r="B80" t="s">
-        <v>56</v>
-      </c>
-      <c r="D80" t="s">
-        <v>282</v>
-      </c>
-      <c r="E80" t="s">
-        <v>264</v>
-      </c>
-      <c r="F80" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>56</v>
-      </c>
-      <c r="B81" t="s">
-        <v>56</v>
-      </c>
-      <c r="D81" t="s">
-        <v>265</v>
-      </c>
-      <c r="E81" t="s">
-        <v>265</v>
-      </c>
-      <c r="F81" t="s">
-        <v>314</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D44DBA8-A8E6-40E1-8916-CA07A080AF7C}">
   <dimension ref="A1:E61"/>
   <sheetViews>
@@ -6975,7 +6783,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A8E9F76-5104-49FC-BB43-6F7BA8306F2B}">
   <dimension ref="A5:O65"/>
   <sheetViews>
@@ -6998,7 +6806,7 @@
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" cm="1">
         <f t="array" ref="A5:A65">_xlfn.XMATCH(C5:C65,data[factor_name])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -7031,7 +6839,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>361</v>
@@ -7060,7 +6868,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -7087,7 +6895,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -7114,7 +6922,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
         <v>44</v>
@@ -7141,7 +6949,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
         <v>173</v>
@@ -7170,7 +6978,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
         <v>174</v>
@@ -7199,7 +7007,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
         <v>175</v>
@@ -7228,7 +7036,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
         <v>176</v>
@@ -7257,7 +7065,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
         <v>177</v>
@@ -7286,7 +7094,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
         <v>342</v>
@@ -7315,7 +7123,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
         <v>178</v>
@@ -7344,7 +7152,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
         <v>179</v>
@@ -7373,7 +7181,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
         <v>180</v>
@@ -7402,7 +7210,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
         <v>181</v>
@@ -7431,7 +7239,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
         <v>182</v>
@@ -7460,7 +7268,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
         <v>285</v>
@@ -7489,7 +7297,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
         <v>364</v>
@@ -7518,7 +7326,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
         <v>403</v>
@@ -7547,7 +7355,7 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
         <v>367</v>
@@ -7576,7 +7384,7 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
         <v>13</v>
@@ -7603,7 +7411,7 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
         <v>156</v>
@@ -7630,7 +7438,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
         <v>86</v>
@@ -7657,7 +7465,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
         <v>84</v>
@@ -7684,7 +7492,7 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
         <v>89</v>
@@ -7711,7 +7519,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C30" t="s">
         <v>327</v>
@@ -7738,7 +7546,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
         <v>95</v>
@@ -7765,7 +7573,7 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
         <v>93</v>
@@ -7792,7 +7600,7 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C33" t="s">
         <v>330</v>
@@ -7819,7 +7627,7 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C34" t="s">
         <v>91</v>
@@ -7846,7 +7654,7 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C35" t="s">
         <v>324</v>
@@ -7873,7 +7681,7 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C36" t="s">
         <v>142</v>
@@ -7900,7 +7708,7 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C37" t="s">
         <v>80</v>
@@ -7927,7 +7735,7 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C38" t="s">
         <v>82</v>
@@ -7954,7 +7762,7 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C39" t="s">
         <v>400</v>
@@ -7981,7 +7789,7 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C40" t="s">
         <v>10</v>
@@ -8008,7 +7816,7 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C41" t="s">
         <v>12</v>
@@ -8035,7 +7843,7 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C42" t="s">
         <v>347</v>
@@ -8062,7 +7870,7 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C43" t="s">
         <v>348</v>
@@ -8089,7 +7897,7 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -8116,7 +7924,7 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C45" t="s">
         <v>126</v>
@@ -8143,7 +7951,7 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C46" t="s">
         <v>131</v>
@@ -8170,7 +7978,7 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C47" t="s">
         <v>49</v>
@@ -8197,7 +8005,7 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C48" t="s">
         <v>135</v>
@@ -8224,7 +8032,7 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C49" t="s">
         <v>344</v>
@@ -8251,7 +8059,7 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C50" t="s">
         <v>53</v>
@@ -8278,7 +8086,7 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C51" t="s">
         <v>14</v>
@@ -8305,7 +8113,7 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C52" t="s">
         <v>15</v>
@@ -8332,7 +8140,7 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C53" t="s">
         <v>346</v>
@@ -8359,7 +8167,7 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C54" t="s">
         <v>345</v>
@@ -8388,7 +8196,7 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C55" t="s">
         <v>97</v>
@@ -8415,7 +8223,7 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C56" t="s">
         <v>349</v>
@@ -8442,7 +8250,7 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C57" t="s">
         <v>75</v>
@@ -8469,7 +8277,7 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C58" t="s">
         <v>99</v>
@@ -8496,7 +8304,7 @@
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C59" t="s">
         <v>57</v>
@@ -8523,7 +8331,7 @@
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C60" t="s">
         <v>59</v>
@@ -8550,7 +8358,7 @@
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C61" t="s">
         <v>61</v>
@@ -8577,7 +8385,7 @@
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C62" t="s">
         <v>63</v>
@@ -8604,7 +8412,7 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C63" t="s">
         <v>66</v>
@@ -8631,7 +8439,7 @@
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C64" t="s">
         <v>69</v>
@@ -8658,7 +8466,7 @@
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -8688,7 +8496,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB67FE54-23CB-424E-AA4C-48055BA2B8E2}">
   <dimension ref="A1:D32"/>
   <sheetViews>
@@ -8702,7 +8510,7 @@
       </c>
       <c r="B1" cm="1">
         <f t="array" ref="B1:B9">_xlfn.XMATCH(A1:A9,data[factor_name])</f>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D1" cm="1">
         <f t="array" ref="D1:D32">_xlfn.XLOOKUP(_xlfn._TRO_ALL(A:A),data[factor_name],data[Active])</f>
@@ -8714,7 +8522,7 @@
         <v>334</v>
       </c>
       <c r="B2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -8725,7 +8533,7 @@
         <v>335</v>
       </c>
       <c r="B3">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -8736,7 +8544,7 @@
         <v>336</v>
       </c>
       <c r="B4">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -8747,7 +8555,7 @@
         <v>337</v>
       </c>
       <c r="B5">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -8758,7 +8566,7 @@
         <v>338</v>
       </c>
       <c r="B6">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -8769,7 +8577,7 @@
         <v>339</v>
       </c>
       <c r="B7">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -8780,7 +8588,7 @@
         <v>340</v>
       </c>
       <c r="B8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -8791,7 +8599,7 @@
         <v>341</v>
       </c>
       <c r="B9">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -8961,9 +8769,480 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7A5BD3C-985E-4AF9-B99B-18E2DCAB8A90}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="str" cm="1">
+        <f t="array" ref="A1:C1">composities[#Headers]</f>
+        <v>portfolio_name</v>
+      </c>
+      <c r="B1" t="str">
+        <v>factor_name</v>
+      </c>
+      <c r="C1" t="str">
+        <v>weight</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="str" cm="1">
+        <f t="array" ref="A2:C12">composities[]</f>
+        <v>TRUMP</v>
+      </c>
+      <c r="B2" t="str">
+        <v>XLF</v>
+      </c>
+      <c r="C2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="str">
+        <v>TRUMP</v>
+      </c>
+      <c r="B3" t="str">
+        <v>ICLN</v>
+      </c>
+      <c r="C3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="str">
+        <v>TRUMP</v>
+      </c>
+      <c r="B4" t="str">
+        <v>IWM</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="str">
+        <v>TRUMP</v>
+      </c>
+      <c r="B5" t="str">
+        <v>FEZ</v>
+      </c>
+      <c r="C5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="str">
+        <v>FED</v>
+      </c>
+      <c r="B6" t="str">
+        <v>SHY</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="str">
+        <v>FED</v>
+      </c>
+      <c r="B7" t="str">
+        <v>BSV</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
+        <v>AI</v>
+      </c>
+      <c r="B8" t="str">
+        <v>AIQ</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
+        <v>AI</v>
+      </c>
+      <c r="B9" t="str">
+        <v>QQQ</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="str">
+        <v>AI</v>
+      </c>
+      <c r="B10" t="str">
+        <v>IWM</v>
+      </c>
+      <c r="C10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="str">
+        <v>GEOPOLITICS</v>
+      </c>
+      <c r="B11" t="str">
+        <v>GLD</v>
+      </c>
+      <c r="C11">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="str">
+        <v>GEOPOLITICS</v>
+      </c>
+      <c r="B12" t="str">
+        <v>USO</v>
+      </c>
+      <c r="C12">
+        <v>0.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75C34FC6-78FE-492E-BECF-2EB9A04778A9}">
+  <dimension ref="A1:Q14"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.44140625" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2">
+        <v>1.5</v>
+      </c>
+      <c r="E2" t="b" cm="1">
+        <f t="array" aca="1" ref="E2:E12" ca="1">composities[portfolio_name]&lt;&gt;OFFSET(composities[portfolio_name],-1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>430</v>
+      </c>
+      <c r="M2" t="s">
+        <v>433</v>
+      </c>
+      <c r="P2" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>430</v>
+      </c>
+      <c r="B3" t="s">
+        <v>431</v>
+      </c>
+      <c r="C3">
+        <v>-1</v>
+      </c>
+      <c r="E3" t="b">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>175</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>430</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="b">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>431</v>
+      </c>
+      <c r="L4">
+        <v>-1</v>
+      </c>
+      <c r="M4" t="s">
+        <v>434</v>
+      </c>
+      <c r="N4" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>430</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>-1</v>
+      </c>
+      <c r="E5" t="b">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>439</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6">
+        <v>-1</v>
+      </c>
+      <c r="M6" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>439</v>
+      </c>
+      <c r="B7" t="s">
+        <v>447</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="b">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>236</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7" t="s">
+        <v>435</v>
+      </c>
+      <c r="N7" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>421</v>
+      </c>
+      <c r="B8" t="s">
+        <v>403</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>238</v>
+      </c>
+      <c r="L8">
+        <v>-1</v>
+      </c>
+      <c r="M8" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>421</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="b">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>135</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>421</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>-1</v>
+      </c>
+      <c r="E10" t="b">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>49</v>
+      </c>
+      <c r="L10">
+        <v>-1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>450</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11">
+        <v>0.75</v>
+      </c>
+      <c r="E11" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>403</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>450</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12">
+        <v>0.25</v>
+      </c>
+      <c r="E12" t="b">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
+        <v>438</v>
+      </c>
+      <c r="P12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="K13" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="K14" t="s">
+        <v>441</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A2:C11">
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>$E2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>$M11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12:C12">
+    <cfRule type="expression" dxfId="0" priority="6">
+      <formula>$E13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C29859C-7358-4E2F-B5CC-7696F1DAC449}">
-  <dimension ref="A1:M71"/>
+  <dimension ref="A1:M72"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -9040,6 +9319,10 @@
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>0</v>
       </c>
+      <c r="M2" t="b" cm="1">
+        <f t="array" ref="M2:M72">MOD(_xlfn.SEQUENCE(ROWS(data[])),3)=1</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -9068,6 +9351,9 @@
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>0</v>
       </c>
+      <c r="M3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
@@ -9096,6 +9382,9 @@
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>0</v>
       </c>
+      <c r="M4" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
@@ -9124,29 +9413,24 @@
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>0</v>
       </c>
+      <c r="M5" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>39</v>
+        <v>444</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>24</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
       <c r="H6" s="4">
         <v>1</v>
       </c>
@@ -9154,13 +9438,16 @@
         <v>1</v>
       </c>
       <c r="J6" s="4">
-        <v>0</v>
-      </c>
-      <c r="K6" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="K6" s="4">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>S&amp;P 500</v>
+        <v>0</v>
       </c>
       <c r="L6" s="2"/>
+      <c r="M6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
@@ -9170,35 +9457,37 @@
         <v>40</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H7" s="4">
         <v>1</v>
       </c>
       <c r="I7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="4">
         <v>0</v>
       </c>
       <c r="K7" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>Russell 2000</v>
+        <v>S&amp;P 500</v>
       </c>
       <c r="L7" s="2"/>
-      <c r="M7" s="8"/>
+      <c r="M7" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
@@ -9208,19 +9497,19 @@
         <v>40</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>361</v>
+        <v>5</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>424</v>
+        <v>1</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>420</v>
+        <v>139</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>362</v>
+        <v>42</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>363</v>
+        <v>26</v>
       </c>
       <c r="H8" s="4">
         <v>1</v>
@@ -9233,9 +9522,11 @@
       </c>
       <c r="K8" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>S&amp;P 400</v>
-      </c>
-      <c r="M8" s="8"/>
+        <v>Russell 2000</v>
+      </c>
+      <c r="M8" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
@@ -9245,16 +9536,20 @@
         <v>40</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="D9" s="4"/>
+        <v>361</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>424</v>
+      </c>
       <c r="E9" s="4" t="s">
-        <v>443</v>
+        <v>420</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>363</v>
+      </c>
       <c r="H9" s="4">
         <v>1</v>
       </c>
@@ -9266,7 +9561,10 @@
       </c>
       <c r="K9" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>S&amp;P 500 EW</v>
+        <v>S&amp;P 400</v>
+      </c>
+      <c r="M9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -9277,20 +9575,16 @@
         <v>40</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>140</v>
+        <v>443</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>28</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="G10" s="4"/>
       <c r="H10" s="4">
         <v>1</v>
       </c>
@@ -9302,7 +9596,10 @@
       </c>
       <c r="K10" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>Nasdaq 100</v>
+        <v>S&amp;P 500 EW</v>
+      </c>
+      <c r="M10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -9313,19 +9610,19 @@
         <v>40</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>172</v>
+        <v>6</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="H11" s="4">
         <v>1</v>
@@ -9338,27 +9635,34 @@
       </c>
       <c r="K11" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>Dow Jones 30</v>
+        <v>Nasdaq 100</v>
+      </c>
+      <c r="M11" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>425</v>
+        <v>39</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D12" s="4"/>
+        <v>44</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>172</v>
+      </c>
       <c r="E12" s="4" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="G12" s="4"/>
+        <v>45</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="H12" s="4">
         <v>1</v>
       </c>
@@ -9370,7 +9674,10 @@
       </c>
       <c r="K12" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>Technology</v>
+        <v>Dow Jones 30</v>
+      </c>
+      <c r="M12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -9381,14 +9688,14 @@
         <v>40</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4">
@@ -9402,7 +9709,10 @@
       </c>
       <c r="K13" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>Industrials</v>
+        <v>Technology</v>
+      </c>
+      <c r="M13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -9413,14 +9723,14 @@
         <v>40</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4">
@@ -9434,7 +9744,10 @@
       </c>
       <c r="K14" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>Financials</v>
+        <v>Industrials</v>
+      </c>
+      <c r="M14" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -9445,14 +9758,14 @@
         <v>40</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4">
@@ -9466,7 +9779,10 @@
       </c>
       <c r="K15" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>Regional Banks</v>
+        <v>Financials</v>
+      </c>
+      <c r="M15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -9477,14 +9793,14 @@
         <v>40</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4">
@@ -9498,10 +9814,13 @@
       </c>
       <c r="K16" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>Communications</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+        <v>Regional Banks</v>
+      </c>
+      <c r="M16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>425</v>
       </c>
@@ -9509,14 +9828,14 @@
         <v>40</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>342</v>
+        <v>177</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4">
@@ -9530,10 +9849,13 @@
       </c>
       <c r="K17" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>Energy</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+        <v>Communications</v>
+      </c>
+      <c r="M17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>425</v>
       </c>
@@ -9541,14 +9863,14 @@
         <v>40</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>178</v>
+        <v>342</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4">
@@ -9562,10 +9884,13 @@
       </c>
       <c r="K18" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>Discretionary</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+        <v>Energy</v>
+      </c>
+      <c r="M18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>425</v>
       </c>
@@ -9573,14 +9898,14 @@
         <v>40</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4">
@@ -9594,10 +9919,13 @@
       </c>
       <c r="K19" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>Materials</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+        <v>Discretionary</v>
+      </c>
+      <c r="M19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>425</v>
       </c>
@@ -9605,14 +9933,14 @@
         <v>40</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4">
@@ -9626,10 +9954,13 @@
       </c>
       <c r="K20" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>Health Care</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+        <v>Materials</v>
+      </c>
+      <c r="M20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>425</v>
       </c>
@@ -9637,14 +9968,14 @@
         <v>40</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4">
@@ -9658,10 +9989,13 @@
       </c>
       <c r="K21" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>Utilities</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+        <v>Health Care</v>
+      </c>
+      <c r="M21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>425</v>
       </c>
@@ -9669,14 +10003,14 @@
         <v>40</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4">
@@ -9690,23 +10024,28 @@
       </c>
       <c r="K22" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>Staples</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+        <v>Utilities</v>
+      </c>
+      <c r="M22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>39</v>
+        <v>425</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>285</v>
+        <v>182</v>
       </c>
       <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
+      <c r="E23" s="4" t="s">
+        <v>169</v>
+      </c>
       <c r="F23" s="4" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4">
@@ -9720,10 +10059,13 @@
       </c>
       <c r="K23" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>iShares U.S. Real Estate ETF</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+        <v>Staples</v>
+      </c>
+      <c r="M23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>39</v>
       </c>
@@ -9731,12 +10073,12 @@
         <v>40</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>364</v>
+        <v>285</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4" t="s">
-        <v>365</v>
+        <v>392</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4">
@@ -9750,10 +10092,13 @@
       </c>
       <c r="K24" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>Vanguard Real Estate ETF</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+        <v>iShares U.S. Real Estate ETF</v>
+      </c>
+      <c r="M24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>39</v>
       </c>
@@ -9761,14 +10106,12 @@
         <v>40</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>403</v>
+        <v>364</v>
       </c>
       <c r="D25" s="4"/>
-      <c r="E25" s="4" t="s">
-        <v>421</v>
-      </c>
+      <c r="E25" s="4"/>
       <c r="F25" s="4" t="s">
-        <v>404</v>
+        <v>365</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4">
@@ -9782,10 +10125,13 @@
       </c>
       <c r="K25" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>AI</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+        <v>Vanguard Real Estate ETF</v>
+      </c>
+      <c r="M25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>39</v>
       </c>
@@ -9793,13 +10139,15 @@
         <v>40</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>431</v>
+        <v>403</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="F26" s="4"/>
+        <v>421</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>404</v>
+      </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4">
         <v>1</v>
@@ -9812,10 +10160,13 @@
       </c>
       <c r="K26" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>Clean Energy</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+        <v>AI</v>
+      </c>
+      <c r="M26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>39</v>
       </c>
@@ -9823,15 +10174,13 @@
         <v>40</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>367</v>
+        <v>431</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>368</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4">
         <v>1</v>
@@ -9844,31 +10193,30 @@
       </c>
       <c r="K27" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>Preferred</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+        <v>Clean Energy</v>
+      </c>
+      <c r="M27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>8</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="D28" s="4"/>
       <c r="E28" s="4" t="s">
-        <v>150</v>
+        <v>423</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>30</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="G28" s="4"/>
       <c r="H28" s="4">
         <v>1</v>
       </c>
@@ -9880,10 +10228,13 @@
       </c>
       <c r="K28" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>Eurostoxx 50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+        <v>Preferred</v>
+      </c>
+      <c r="M28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>39</v>
       </c>
@@ -9891,18 +10242,22 @@
         <v>68</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>156</v>
+        <v>13</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>156</v>
+        <v>8</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
+        <v>150</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="H29" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" s="4">
         <v>0</v>
@@ -9912,29 +10267,32 @@
       </c>
       <c r="K29" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>Eurostoxx Banks</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+        <v>Eurostoxx 50</v>
+      </c>
+      <c r="M29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>220</v>
+        <v>68</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>119</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
       <c r="H30" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" s="4">
         <v>0</v>
@@ -9944,30 +10302,29 @@
       </c>
       <c r="K30" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>iShares FTSE United Kingdom ETF</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+        <v>Eurostoxx Banks</v>
+      </c>
+      <c r="M30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>68</v>
+        <v>220</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>157</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
       <c r="F31" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H31" s="4">
         <v>1</v>
@@ -9980,26 +10337,33 @@
       </c>
       <c r="K31" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>DAX (Germany)</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+        <v>iShares FTSE United Kingdom ETF</v>
+      </c>
+      <c r="M31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
+        <v>84</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>157</v>
+      </c>
       <c r="F32" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H32" s="4">
         <v>1</v>
@@ -10012,29 +10376,32 @@
       </c>
       <c r="K32" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>iShares MSCI Canada ETF</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+        <v>DAX (Germany)</v>
+      </c>
+      <c r="M32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
+        <v>89</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>120</v>
+      </c>
       <c r="H33" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" s="4">
         <v>0</v>
@@ -10044,10 +10411,13 @@
       </c>
       <c r="K33" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>FTSE MIB (Italy)</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+        <v>iShares MSCI Canada ETF</v>
+      </c>
+      <c r="M33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>39</v>
       </c>
@@ -10055,20 +10425,16 @@
         <v>68</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>95</v>
+        <v>327</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>95</v>
+        <v>328</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>123</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
       <c r="H34" s="4">
         <v>0</v>
       </c>
@@ -10080,10 +10446,13 @@
       </c>
       <c r="K34" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>CAC 40 (France)</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+        <v>FTSE MIB (Italy)</v>
+      </c>
+      <c r="M34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>39</v>
       </c>
@@ -10091,18 +10460,22 @@
         <v>68</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
+        <v>95</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>158</v>
+      </c>
       <c r="F35" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H35" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" s="4">
         <v>0</v>
@@ -10112,10 +10485,13 @@
       </c>
       <c r="K35" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>iShares MSCI Italy ETF</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+        <v>CAC 40 (France)</v>
+      </c>
+      <c r="M35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>39</v>
       </c>
@@ -10123,22 +10499,18 @@
         <v>68</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>331</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
       <c r="F36" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H36" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" s="4">
         <v>0</v>
@@ -10148,10 +10520,13 @@
       </c>
       <c r="K36" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>IBEX 35 (Spain)</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+        <v>iShares MSCI Italy ETF</v>
+      </c>
+      <c r="M36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>39</v>
       </c>
@@ -10159,10 +10534,14 @@
         <v>68</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
+        <v>330</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>331</v>
+      </c>
       <c r="F37" s="4" t="s">
         <v>92</v>
       </c>
@@ -10180,33 +10559,32 @@
       </c>
       <c r="K37" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>iShares MSCI Spain ETF</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+        <v>IBEX 35 (Spain)</v>
+      </c>
+      <c r="M37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>141</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
       <c r="F38" s="4" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="H38" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" s="4">
         <v>0</v>
@@ -10216,10 +10594,13 @@
       </c>
       <c r="K38" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>Nikkei 225</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+        <v>iShares MSCI Spain ETF</v>
+      </c>
+      <c r="M38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>39</v>
       </c>
@@ -10227,19 +10608,19 @@
         <v>71</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>142</v>
+        <v>324</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>143</v>
+        <v>78</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="H39" s="4">
         <v>1</v>
@@ -10252,28 +10633,33 @@
       </c>
       <c r="K39" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>TOPIX</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+        <v>Nikkei 225</v>
+      </c>
+      <c r="M39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E40" s="4"/>
+        <v>142</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>145</v>
+      </c>
       <c r="F40" s="4" t="s">
-        <v>81</v>
+        <v>143</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="H40" s="4">
         <v>1</v>
@@ -10286,10 +10672,13 @@
       </c>
       <c r="K40" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>iShares China Large-Cap ETF</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+        <v>TOPIX</v>
+      </c>
+      <c r="M40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>39</v>
       </c>
@@ -10297,17 +10686,17 @@
         <v>79</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H41" s="4">
         <v>1</v>
@@ -10320,10 +10709,13 @@
       </c>
       <c r="K41" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>Xtrackers Harvest CSI 300 China A-Shares ETF</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+        <v>iShares China Large-Cap ETF</v>
+      </c>
+      <c r="M41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>39</v>
       </c>
@@ -10331,16 +10723,18 @@
         <v>79</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>400</v>
+        <v>82</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>400</v>
+        <v>82</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="G42" s="4"/>
+        <v>83</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>117</v>
+      </c>
       <c r="H42" s="4">
         <v>1</v>
       </c>
@@ -10352,96 +10746,112 @@
       </c>
       <c r="K42" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>KraneShares CSI China Internet ETF</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+        <v>Xtrackers Harvest CSI 300 China A-Shares ETF</v>
+      </c>
+      <c r="M42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="D43" s="4"/>
+        <v>400</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>400</v>
+      </c>
       <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
+      <c r="F43" s="4" t="s">
+        <v>401</v>
+      </c>
       <c r="G43" s="4"/>
       <c r="H43" s="4">
         <v>1</v>
       </c>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4">
+      <c r="I43" s="4">
+        <v>0</v>
+      </c>
+      <c r="J43" s="4">
+        <v>0</v>
+      </c>
+      <c r="K43" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+        <v>KraneShares CSI China Internet ETF</v>
+      </c>
+      <c r="M43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4">
+        <v>1</v>
+      </c>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>0</v>
+      </c>
+      <c r="M44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C44" s="4" t="s">
+      <c r="B45" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D45" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4" t="s">
+      <c r="E45" s="4"/>
+      <c r="F45" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G44" s="4" t="s">
+      <c r="G45" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="H44" s="4">
-        <v>1</v>
-      </c>
-      <c r="I44" s="4">
-        <v>0</v>
-      </c>
-      <c r="J44" s="4">
-        <v>0</v>
-      </c>
-      <c r="K44" s="4" t="str">
+      <c r="H45" s="4">
+        <v>1</v>
+      </c>
+      <c r="I45" s="4">
+        <v>0</v>
+      </c>
+      <c r="J45" s="4">
+        <v>0</v>
+      </c>
+      <c r="K45" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>iShares iBoxx $ Investment Grade Corporate Bond ETF</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4">
-        <v>1</v>
-      </c>
-      <c r="I45" s="4">
-        <v>0</v>
-      </c>
-      <c r="J45" s="4">
-        <v>0</v>
-      </c>
-      <c r="K45" s="4">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>46</v>
       </c>
@@ -10449,63 +10859,67 @@
         <v>40</v>
       </c>
       <c r="C46" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4">
+        <v>1</v>
+      </c>
+      <c r="I46" s="4">
+        <v>0</v>
+      </c>
+      <c r="J46" s="4">
+        <v>0</v>
+      </c>
+      <c r="K46" s="4">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>0</v>
+      </c>
+      <c r="M46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D47" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4" t="s">
+      <c r="E47" s="4"/>
+      <c r="F47" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G46" s="4" t="s">
+      <c r="G47" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="H46" s="4">
-        <v>1</v>
-      </c>
-      <c r="I46" s="4">
-        <v>0</v>
-      </c>
-      <c r="J46" s="4">
-        <v>0</v>
-      </c>
-      <c r="K46" s="4" t="str">
+      <c r="H47" s="4">
+        <v>1</v>
+      </c>
+      <c r="I47" s="4">
+        <v>0</v>
+      </c>
+      <c r="J47" s="4">
+        <v>0</v>
+      </c>
+      <c r="K47" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>iShares iBoxx $ High Yield Corporate Bond ETF</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4">
-        <v>0</v>
-      </c>
-      <c r="I47" s="4">
-        <v>0</v>
-      </c>
-      <c r="J47" s="4">
-        <v>0</v>
-      </c>
-      <c r="K47" s="4">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>46</v>
       </c>
@@ -10513,16 +10927,16 @@
         <v>40</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" s="4">
         <v>0</v>
@@ -10534,8 +10948,11 @@
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>46</v>
       </c>
@@ -10543,9 +10960,11 @@
         <v>40</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="D49" s="4"/>
+        <v>348</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
@@ -10562,201 +10981,225 @@
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4">
+        <v>1</v>
+      </c>
+      <c r="I50" s="4">
+        <v>0</v>
+      </c>
+      <c r="J50" s="4">
+        <v>0</v>
+      </c>
+      <c r="K50" s="4">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>0</v>
+      </c>
+      <c r="M50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C50" s="4" t="s">
+      <c r="B51" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D51" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4" t="s">
+      <c r="E51" s="4"/>
+      <c r="F51" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G50" s="4" t="s">
+      <c r="G51" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="H50" s="4">
-        <v>1</v>
-      </c>
-      <c r="I50" s="4">
-        <v>0</v>
-      </c>
-      <c r="J50" s="4">
-        <v>0</v>
-      </c>
-      <c r="K50" s="4" t="str">
+      <c r="H51" s="4">
+        <v>1</v>
+      </c>
+      <c r="I51" s="4">
+        <v>0</v>
+      </c>
+      <c r="J51" s="4">
+        <v>0</v>
+      </c>
+      <c r="K51" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>iShares 1-3 Year Treasury Bond ETF</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="4" t="s">
+      <c r="M51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C51" s="4" t="s">
+      <c r="B52" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D52" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4" t="s">
+      <c r="E52" s="4"/>
+      <c r="F52" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="G51" s="4" t="s">
+      <c r="G52" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="H51" s="4">
-        <v>1</v>
-      </c>
-      <c r="I51" s="4">
-        <v>0</v>
-      </c>
-      <c r="J51" s="4">
-        <v>0</v>
-      </c>
-      <c r="K51" s="4" t="str">
+      <c r="H52" s="4">
+        <v>1</v>
+      </c>
+      <c r="I52" s="4">
+        <v>0</v>
+      </c>
+      <c r="J52" s="4">
+        <v>0</v>
+      </c>
+      <c r="K52" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>iShares 3-7 Year Treasury Bond ETF</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="4" t="s">
+      <c r="M52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C52" s="4" t="s">
+      <c r="B53" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D53" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4" t="s">
+      <c r="E53" s="4"/>
+      <c r="F53" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="G52" s="4" t="s">
+      <c r="G53" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="H52" s="4">
-        <v>1</v>
-      </c>
-      <c r="I52" s="4">
-        <v>1</v>
-      </c>
-      <c r="J52" s="4">
-        <v>0</v>
-      </c>
-      <c r="K52" s="4" t="str">
+      <c r="H53" s="4">
+        <v>1</v>
+      </c>
+      <c r="I53" s="4">
+        <v>1</v>
+      </c>
+      <c r="J53" s="4">
+        <v>0</v>
+      </c>
+      <c r="K53" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>iShares 7-10 Year Treasury Bond ETF</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="4" t="s">
+      <c r="M53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C53" s="4" t="s">
+      <c r="B54" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D54" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4" t="s">
+      <c r="E54" s="4"/>
+      <c r="F54" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G53" s="4" t="s">
+      <c r="G54" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="H53" s="4">
-        <v>1</v>
-      </c>
-      <c r="I53" s="4">
-        <v>0</v>
-      </c>
-      <c r="J53" s="4">
-        <v>0</v>
-      </c>
-      <c r="K53" s="4" t="str">
+      <c r="H54" s="4">
+        <v>1</v>
+      </c>
+      <c r="I54" s="4">
+        <v>0</v>
+      </c>
+      <c r="J54" s="4">
+        <v>0</v>
+      </c>
+      <c r="K54" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>iShares 20+ Year Treasury Bond ETF</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="4" t="s">
+      <c r="M54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C54" s="4" t="s">
+      <c r="B55" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4" t="s">
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="G54" s="4" t="s">
+      <c r="G55" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="H54" s="4">
-        <v>1</v>
-      </c>
-      <c r="I54" s="4">
-        <v>0</v>
-      </c>
-      <c r="J54" s="4">
-        <v>0</v>
-      </c>
-      <c r="K54" s="4" t="str">
+      <c r="H55" s="4">
+        <v>1</v>
+      </c>
+      <c r="I55" s="4">
+        <v>0</v>
+      </c>
+      <c r="J55" s="4">
+        <v>0</v>
+      </c>
+      <c r="K55" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>iShares TIPS Bond ETF</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4">
-        <v>1</v>
-      </c>
-      <c r="I55" s="4">
-        <v>0</v>
-      </c>
-      <c r="J55" s="4">
-        <v>0</v>
-      </c>
-      <c r="K55" s="4"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>128</v>
       </c>
@@ -10764,123 +11207,132 @@
         <v>40</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>53</v>
+        <v>344</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
-      <c r="F56" s="4" t="s">
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4">
+        <v>1</v>
+      </c>
+      <c r="I56" s="4">
+        <v>0</v>
+      </c>
+      <c r="J56" s="4">
+        <v>0</v>
+      </c>
+      <c r="K56" s="4"/>
+      <c r="M56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G56" s="4" t="s">
+      <c r="G57" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="H56" s="4">
-        <v>0</v>
-      </c>
-      <c r="I56" s="4">
-        <v>0</v>
-      </c>
-      <c r="J56" s="4">
-        <v>0</v>
-      </c>
-      <c r="K56" s="4" t="str">
+      <c r="H57" s="4">
+        <v>0</v>
+      </c>
+      <c r="I57" s="4">
+        <v>0</v>
+      </c>
+      <c r="J57" s="4">
+        <v>0</v>
+      </c>
+      <c r="K57" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>iShares MBS ETF</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="4" t="s">
+      <c r="M57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C57" s="4" t="s">
+      <c r="B58" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" t="s">
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" t="s">
         <v>152</v>
       </c>
-      <c r="G57" s="4" t="s">
+      <c r="G58" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="H57" s="4">
-        <v>0</v>
-      </c>
-      <c r="I57" s="4">
-        <v>0</v>
-      </c>
-      <c r="J57" s="4">
-        <v>0</v>
-      </c>
-      <c r="K57" s="4" t="str">
+      <c r="H58" s="4">
+        <v>0</v>
+      </c>
+      <c r="I58" s="4">
+        <v>0</v>
+      </c>
+      <c r="J58" s="4">
+        <v>0</v>
+      </c>
+      <c r="K58" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>Simplify Mortgage Backed Securities ETF</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="4" t="s">
+      <c r="M58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C58" s="4" t="s">
+      <c r="B59" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4" t="s">
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G58" s="4" t="s">
+      <c r="G59" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H58" s="4">
-        <v>1</v>
-      </c>
-      <c r="I58" s="4">
-        <v>0</v>
-      </c>
-      <c r="J58" s="4">
-        <v>0</v>
-      </c>
-      <c r="K58" s="4" t="str">
+      <c r="H59" s="4">
+        <v>1</v>
+      </c>
+      <c r="I59" s="4">
+        <v>0</v>
+      </c>
+      <c r="J59" s="4">
+        <v>0</v>
+      </c>
+      <c r="K59" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>AGNC Investment Corp.</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4">
-        <v>1</v>
-      </c>
-      <c r="I59" s="4">
-        <v>0</v>
-      </c>
-      <c r="J59" s="4">
-        <v>0</v>
-      </c>
-      <c r="K59" s="4">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>128</v>
       </c>
@@ -10888,7 +11340,7 @@
         <v>40</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
@@ -10907,149 +11359,160 @@
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>128</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>97</v>
+        <v>345</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
-      <c r="F61" s="4" t="s">
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4">
+        <v>1</v>
+      </c>
+      <c r="I61" s="4">
+        <v>0</v>
+      </c>
+      <c r="J61" s="4">
+        <v>0</v>
+      </c>
+      <c r="K61" s="4">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>0</v>
+      </c>
+      <c r="M61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="G61" s="4" t="s">
+      <c r="G62" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="H61" s="4">
-        <v>1</v>
-      </c>
-      <c r="I61" s="4">
-        <v>0</v>
-      </c>
-      <c r="J61" s="4">
-        <v>0</v>
-      </c>
-      <c r="K61" s="4" t="str">
+      <c r="H62" s="4">
+        <v>1</v>
+      </c>
+      <c r="I62" s="4">
+        <v>0</v>
+      </c>
+      <c r="J62" s="4">
+        <v>0</v>
+      </c>
+      <c r="K62" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>iShares J.P. Morgan USD Emerging Markets Bond ETF</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4">
-        <v>0</v>
-      </c>
-      <c r="I62" s="4">
-        <v>0</v>
-      </c>
-      <c r="J62" s="4">
-        <v>0</v>
-      </c>
-      <c r="K62" s="4">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4">
+        <v>0</v>
+      </c>
+      <c r="I63" s="4">
+        <v>0</v>
+      </c>
+      <c r="J63" s="4">
+        <v>0</v>
+      </c>
+      <c r="K63" s="4">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>0</v>
+      </c>
+      <c r="M63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B64" t="s">
+        <v>74</v>
+      </c>
+      <c r="C64" t="s">
         <v>75</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F64" t="s">
         <v>76</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G64" t="s">
         <v>114</v>
       </c>
-      <c r="H63" s="4">
-        <v>0</v>
-      </c>
-      <c r="I63" s="4">
-        <v>0</v>
-      </c>
-      <c r="J63" s="4">
-        <v>0</v>
-      </c>
-      <c r="K63" s="4" t="str">
+      <c r="H64" s="4">
+        <v>0</v>
+      </c>
+      <c r="I64" s="4">
+        <v>0</v>
+      </c>
+      <c r="J64" s="4">
+        <v>0</v>
+      </c>
+      <c r="K64" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>WisdomTree Emerging Markets Local Debt Fund</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A64" s="4" t="s">
+      <c r="M64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B65" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C65" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="H64" s="4">
-        <v>0</v>
-      </c>
-      <c r="I64" s="4">
-        <v>0</v>
-      </c>
-      <c r="J64" s="4">
-        <v>0</v>
-      </c>
-      <c r="K64" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>iShares International Government Bonds ETF</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="F65" s="4" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="H65" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" s="4">
         <v>0</v>
@@ -11059,10 +11522,13 @@
       </c>
       <c r="K65" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>SPDR Gold Shares</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+        <v>iShares International Government Bonds ETF</v>
+      </c>
+      <c r="M65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>56</v>
       </c>
@@ -11070,15 +11536,15 @@
         <v>40</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
       <c r="F66" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H66" s="4">
         <v>1</v>
@@ -11091,10 +11557,13 @@
       </c>
       <c r="K66" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>iShares Silver Trust</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+        <v>SPDR Gold Shares</v>
+      </c>
+      <c r="M66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>56</v>
       </c>
@@ -11102,15 +11571,15 @@
         <v>40</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="F67" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H67" s="4">
         <v>1</v>
@@ -11123,10 +11592,13 @@
       </c>
       <c r="K67" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>United States Oil Fund</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+        <v>iShares Silver Trust</v>
+      </c>
+      <c r="M67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>56</v>
       </c>
@@ -11134,18 +11606,18 @@
         <v>40</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
       <c r="F68" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H68" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" s="4">
         <v>0</v>
@@ -11155,29 +11627,32 @@
       </c>
       <c r="K68" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>Invesco DB Commodity Index Tracking Fund</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+        <v>United States Oil Fund</v>
+      </c>
+      <c r="M68" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
       <c r="F69" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H69" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" s="4">
         <v>0</v>
@@ -11187,26 +11662,29 @@
       </c>
       <c r="K69" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>Invesco DB US Dollar Index Bullish Fund</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+        <v>Invesco DB Commodity Index Tracking Fund</v>
+      </c>
+      <c r="M69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>65</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
       <c r="F70" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H70" s="4">
         <v>1</v>
@@ -11219,24 +11697,29 @@
       </c>
       <c r="K70" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>Invesco CurrencyShares Euro Trust</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+        <v>Invesco DB US Dollar Index Bullish Fund</v>
+      </c>
+      <c r="M70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B71" t="s">
-        <v>71</v>
-      </c>
-      <c r="C71" t="s">
-        <v>72</v>
-      </c>
-      <c r="F71" t="s">
-        <v>73</v>
-      </c>
-      <c r="G71" t="s">
-        <v>113</v>
+      <c r="B71" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="H71" s="4">
         <v>1</v>
@@ -11249,11 +11732,57 @@
       </c>
       <c r="K71" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>Invesco CurrencyShares Euro Trust</v>
+      </c>
+      <c r="M71" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>65</v>
+      </c>
+      <c r="B72" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72" t="s">
+        <v>72</v>
+      </c>
+      <c r="F72" t="s">
+        <v>73</v>
+      </c>
+      <c r="G72" t="s">
+        <v>113</v>
+      </c>
+      <c r="H72" s="4">
+        <v>1</v>
+      </c>
+      <c r="I72" s="4">
+        <v>0</v>
+      </c>
+      <c r="J72" s="4">
+        <v>0</v>
+      </c>
+      <c r="K72" s="4" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>Invesco CurrencyShares Japanese Yen Trust</v>
+      </c>
+      <c r="M72" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="A2:K6">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>$M2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7:K72">
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>$M6</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -11263,10 +11792,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2977BD7F-9323-4F6D-98BF-C1B39119DCDE}">
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView showGridLines="0" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11296,11 +11825,11 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="str" cm="1">
-        <f t="array" ref="A2:A59">_xlfn._xlws.FILTER(data[factor_name],data[Active])</f>
+        <f t="array" ref="A2:A60">_xlfn._xlws.FILTER(data[factor_name],data[Active])</f>
         <v>MWTIX</v>
       </c>
       <c r="B2" t="str" cm="1">
-        <f t="array" ref="B2:F59">INDEX(data[],_xlfn.XMATCH(_xlfn.ANCHORARRAY(A2),data[factor_name]),_xlfn.XMATCH(B1:F1,data[#Headers]))</f>
+        <f t="array" ref="B2:F60">INDEX(data[],_xlfn.XMATCH(_xlfn.ANCHORARRAY(A2),data[factor_name]),_xlfn.XMATCH(B1:F1,data[#Headers]))</f>
         <v>Portfolio</v>
       </c>
       <c r="C2" t="str">
@@ -11378,10 +11907,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
-        <v>SPY</v>
+        <v>GEOPOLITICS</v>
       </c>
       <c r="B6" t="str">
-        <v>Equities</v>
+        <v>Theme</v>
       </c>
       <c r="C6" t="str">
         <v>USD</v>
@@ -11390,15 +11919,15 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6" t="str">
-        <v>S&amp;P 500</v>
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
-        <v>IWM</v>
+        <v>SPY</v>
       </c>
       <c r="B7" t="str">
         <v>Equities</v>
@@ -11407,18 +11936,18 @@
         <v>USD</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7" t="str">
-        <v>Russell 2000</v>
+        <v>S&amp;P 500</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
-        <v>MDY</v>
+        <v>IWM</v>
       </c>
       <c r="B8" t="str">
         <v>Equities</v>
@@ -11433,12 +11962,12 @@
         <v>0</v>
       </c>
       <c r="F8" t="str">
-        <v>S&amp;P 400</v>
+        <v>Russell 2000</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
-        <v>RSP</v>
+        <v>MDY</v>
       </c>
       <c r="B9" t="str">
         <v>Equities</v>
@@ -11453,12 +11982,12 @@
         <v>0</v>
       </c>
       <c r="F9" t="str">
-        <v>S&amp;P 500 EW</v>
+        <v>S&amp;P 400</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
-        <v>QQQ</v>
+        <v>RSP</v>
       </c>
       <c r="B10" t="str">
         <v>Equities</v>
@@ -11473,12 +12002,12 @@
         <v>0</v>
       </c>
       <c r="F10" t="str">
-        <v>Nasdaq 100</v>
+        <v>S&amp;P 500 EW</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
-        <v>DIA</v>
+        <v>QQQ</v>
       </c>
       <c r="B11" t="str">
         <v>Equities</v>
@@ -11493,15 +12022,15 @@
         <v>0</v>
       </c>
       <c r="F11" t="str">
-        <v>Dow Jones 30</v>
+        <v>Nasdaq 100</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
-        <v>XLK</v>
+        <v>DIA</v>
       </c>
       <c r="B12" t="str">
-        <v>Sector</v>
+        <v>Equities</v>
       </c>
       <c r="C12" t="str">
         <v>USD</v>
@@ -11513,12 +12042,12 @@
         <v>0</v>
       </c>
       <c r="F12" t="str">
-        <v>Technology</v>
+        <v>Dow Jones 30</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
-        <v>XLI</v>
+        <v>XLK</v>
       </c>
       <c r="B13" t="str">
         <v>Sector</v>
@@ -11533,12 +12062,12 @@
         <v>0</v>
       </c>
       <c r="F13" t="str">
-        <v>Industrials</v>
+        <v>Technology</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
-        <v>XLF</v>
+        <v>XLI</v>
       </c>
       <c r="B14" t="str">
         <v>Sector</v>
@@ -11553,12 +12082,12 @@
         <v>0</v>
       </c>
       <c r="F14" t="str">
-        <v>Financials</v>
+        <v>Industrials</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
-        <v>KRE</v>
+        <v>XLF</v>
       </c>
       <c r="B15" t="str">
         <v>Sector</v>
@@ -11573,12 +12102,12 @@
         <v>0</v>
       </c>
       <c r="F15" t="str">
-        <v>Regional Banks</v>
+        <v>Financials</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
-        <v>XLC</v>
+        <v>KRE</v>
       </c>
       <c r="B16" t="str">
         <v>Sector</v>
@@ -11593,12 +12122,12 @@
         <v>0</v>
       </c>
       <c r="F16" t="str">
-        <v>Communications</v>
+        <v>Regional Banks</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
-        <v>XLE</v>
+        <v>XLC</v>
       </c>
       <c r="B17" t="str">
         <v>Sector</v>
@@ -11613,12 +12142,12 @@
         <v>0</v>
       </c>
       <c r="F17" t="str">
-        <v>Energy</v>
+        <v>Communications</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
-        <v>XLY</v>
+        <v>XLE</v>
       </c>
       <c r="B18" t="str">
         <v>Sector</v>
@@ -11633,12 +12162,12 @@
         <v>0</v>
       </c>
       <c r="F18" t="str">
-        <v>Discretionary</v>
+        <v>Energy</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
-        <v>XLB</v>
+        <v>XLY</v>
       </c>
       <c r="B19" t="str">
         <v>Sector</v>
@@ -11653,12 +12182,12 @@
         <v>0</v>
       </c>
       <c r="F19" t="str">
-        <v>Materials</v>
+        <v>Discretionary</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
-        <v>XLV</v>
+        <v>XLB</v>
       </c>
       <c r="B20" t="str">
         <v>Sector</v>
@@ -11673,12 +12202,12 @@
         <v>0</v>
       </c>
       <c r="F20" t="str">
-        <v>Health Care</v>
+        <v>Materials</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
-        <v>XLU</v>
+        <v>XLV</v>
       </c>
       <c r="B21" t="str">
         <v>Sector</v>
@@ -11693,12 +12222,12 @@
         <v>0</v>
       </c>
       <c r="F21" t="str">
-        <v>Utilities</v>
+        <v>Health Care</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
-        <v>XLP</v>
+        <v>XLU</v>
       </c>
       <c r="B22" t="str">
         <v>Sector</v>
@@ -11713,15 +12242,15 @@
         <v>0</v>
       </c>
       <c r="F22" t="str">
-        <v>Staples</v>
+        <v>Utilities</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
-        <v>IYR</v>
+        <v>XLP</v>
       </c>
       <c r="B23" t="str">
-        <v>Equities</v>
+        <v>Sector</v>
       </c>
       <c r="C23" t="str">
         <v>USD</v>
@@ -11733,12 +12262,12 @@
         <v>0</v>
       </c>
       <c r="F23" t="str">
-        <v>iShares U.S. Real Estate ETF</v>
+        <v>Staples</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
-        <v>VNQ</v>
+        <v>IYR</v>
       </c>
       <c r="B24" t="str">
         <v>Equities</v>
@@ -11753,12 +12282,12 @@
         <v>0</v>
       </c>
       <c r="F24" t="str">
-        <v>Vanguard Real Estate ETF</v>
+        <v>iShares U.S. Real Estate ETF</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
-        <v>AIQ</v>
+        <v>VNQ</v>
       </c>
       <c r="B25" t="str">
         <v>Equities</v>
@@ -11773,12 +12302,12 @@
         <v>0</v>
       </c>
       <c r="F25" t="str">
-        <v>AI</v>
+        <v>Vanguard Real Estate ETF</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
-        <v>ICLN</v>
+        <v>AIQ</v>
       </c>
       <c r="B26" t="str">
         <v>Equities</v>
@@ -11793,12 +12322,12 @@
         <v>0</v>
       </c>
       <c r="F26" t="str">
-        <v>Clean Energy</v>
+        <v>AI</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
-        <v>PFF</v>
+        <v>ICLN</v>
       </c>
       <c r="B27" t="str">
         <v>Equities</v>
@@ -11813,18 +12342,18 @@
         <v>0</v>
       </c>
       <c r="F27" t="str">
-        <v>Preferred</v>
+        <v>Clean Energy</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="str">
-        <v>FEZ</v>
+        <v>PFF</v>
       </c>
       <c r="B28" t="str">
         <v>Equities</v>
       </c>
       <c r="C28" t="str">
-        <v>EUR</v>
+        <v>USD</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -11833,18 +12362,18 @@
         <v>0</v>
       </c>
       <c r="F28" t="str">
-        <v>Eurostoxx 50</v>
+        <v>Preferred</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="str">
-        <v>EWU</v>
+        <v>FEZ</v>
       </c>
       <c r="B29" t="str">
         <v>Equities</v>
       </c>
       <c r="C29" t="str">
-        <v>GBP</v>
+        <v>EUR</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -11853,18 +12382,18 @@
         <v>0</v>
       </c>
       <c r="F29" t="str">
-        <v>iShares FTSE United Kingdom ETF</v>
+        <v>Eurostoxx 50</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
-        <v>DAX</v>
+        <v>EWU</v>
       </c>
       <c r="B30" t="str">
         <v>Equities</v>
       </c>
       <c r="C30" t="str">
-        <v>EUR</v>
+        <v>GBP</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -11873,18 +12402,18 @@
         <v>0</v>
       </c>
       <c r="F30" t="str">
-        <v>DAX (Germany)</v>
+        <v>iShares FTSE United Kingdom ETF</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
-        <v>EWC</v>
+        <v>DAX</v>
       </c>
       <c r="B31" t="str">
         <v>Equities</v>
       </c>
       <c r="C31" t="str">
-        <v>CAD</v>
+        <v>EUR</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -11893,18 +12422,18 @@
         <v>0</v>
       </c>
       <c r="F31" t="str">
-        <v>iShares MSCI Canada ETF</v>
+        <v>DAX (Germany)</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="str">
-        <v>EWI</v>
+        <v>EWC</v>
       </c>
       <c r="B32" t="str">
         <v>Equities</v>
       </c>
       <c r="C32" t="str">
-        <v>EUR</v>
+        <v>CAD</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -11913,18 +12442,18 @@
         <v>0</v>
       </c>
       <c r="F32" t="str">
-        <v>iShares MSCI Italy ETF</v>
+        <v>iShares MSCI Canada ETF</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="str">
-        <v>^N225</v>
+        <v>EWI</v>
       </c>
       <c r="B33" t="str">
         <v>Equities</v>
       </c>
       <c r="C33" t="str">
-        <v>JPY</v>
+        <v>EUR</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -11933,12 +12462,12 @@
         <v>0</v>
       </c>
       <c r="F33" t="str">
-        <v>Nikkei 225</v>
+        <v>iShares MSCI Italy ETF</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="str">
-        <v>TPX</v>
+        <v>^N225</v>
       </c>
       <c r="B34" t="str">
         <v>Equities</v>
@@ -11953,18 +12482,18 @@
         <v>0</v>
       </c>
       <c r="F34" t="str">
-        <v>TOPIX</v>
+        <v>Nikkei 225</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="str">
-        <v>FXI</v>
+        <v>TPX</v>
       </c>
       <c r="B35" t="str">
         <v>Equities</v>
       </c>
       <c r="C35" t="str">
-        <v>CNH</v>
+        <v>JPY</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -11973,12 +12502,12 @@
         <v>0</v>
       </c>
       <c r="F35" t="str">
-        <v>iShares China Large-Cap ETF</v>
+        <v>TOPIX</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="str">
-        <v>ASHR</v>
+        <v>FXI</v>
       </c>
       <c r="B36" t="str">
         <v>Equities</v>
@@ -11993,12 +12522,12 @@
         <v>0</v>
       </c>
       <c r="F36" t="str">
-        <v>Xtrackers Harvest CSI 300 China A-Shares ETF</v>
+        <v>iShares China Large-Cap ETF</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="str">
-        <v>KWEB</v>
+        <v>ASHR</v>
       </c>
       <c r="B37" t="str">
         <v>Equities</v>
@@ -12013,18 +12542,18 @@
         <v>0</v>
       </c>
       <c r="F37" t="str">
-        <v>KraneShares CSI China Internet ETF</v>
+        <v>Xtrackers Harvest CSI 300 China A-Shares ETF</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="str">
-        <v>EEM</v>
+        <v>KWEB</v>
       </c>
       <c r="B38" t="str">
         <v>Equities</v>
       </c>
       <c r="C38" t="str">
-        <v>EM</v>
+        <v>CNH</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -12032,19 +12561,19 @@
       <c r="E38">
         <v>0</v>
       </c>
-      <c r="F38">
-        <v>0</v>
+      <c r="F38" t="str">
+        <v>KraneShares CSI China Internet ETF</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="str">
-        <v>LQD</v>
+        <v>EEM</v>
       </c>
       <c r="B39" t="str">
-        <v>Credit</v>
+        <v>Equities</v>
       </c>
       <c r="C39" t="str">
-        <v>USD</v>
+        <v>EM</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -12052,13 +12581,13 @@
       <c r="E39">
         <v>0</v>
       </c>
-      <c r="F39" t="str">
-        <v>iShares iBoxx $ Investment Grade Corporate Bond ETF</v>
+      <c r="F39">
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="str">
-        <v>BSV</v>
+        <v>LQD</v>
       </c>
       <c r="B40" t="str">
         <v>Credit</v>
@@ -12072,13 +12601,13 @@
       <c r="E40">
         <v>0</v>
       </c>
-      <c r="F40">
-        <v>0</v>
+      <c r="F40" t="str">
+        <v>iShares iBoxx $ Investment Grade Corporate Bond ETF</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="str">
-        <v>HYG</v>
+        <v>BSV</v>
       </c>
       <c r="B41" t="str">
         <v>Credit</v>
@@ -12092,13 +12621,13 @@
       <c r="E41">
         <v>0</v>
       </c>
-      <c r="F41" t="str">
-        <v>iShares iBoxx $ High Yield Corporate Bond ETF</v>
+      <c r="F41">
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="str">
-        <v>HYGH</v>
+        <v>HYG</v>
       </c>
       <c r="B42" t="str">
         <v>Credit</v>
@@ -12112,13 +12641,13 @@
       <c r="E42">
         <v>0</v>
       </c>
-      <c r="F42">
-        <v>0</v>
+      <c r="F42" t="str">
+        <v>iShares iBoxx $ High Yield Corporate Bond ETF</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="str">
-        <v>AGG</v>
+        <v>HYGH</v>
       </c>
       <c r="B43" t="str">
         <v>Credit</v>
@@ -12138,10 +12667,10 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="str">
-        <v>SHY</v>
+        <v>AGG</v>
       </c>
       <c r="B44" t="str">
-        <v>Rates</v>
+        <v>Credit</v>
       </c>
       <c r="C44" t="str">
         <v>USD</v>
@@ -12152,13 +12681,13 @@
       <c r="E44">
         <v>0</v>
       </c>
-      <c r="F44" t="str">
-        <v>iShares 1-3 Year Treasury Bond ETF</v>
+      <c r="F44">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="str">
-        <v>IEI</v>
+        <v>SHY</v>
       </c>
       <c r="B45" t="str">
         <v>Rates</v>
@@ -12173,12 +12702,12 @@
         <v>0</v>
       </c>
       <c r="F45" t="str">
-        <v>iShares 3-7 Year Treasury Bond ETF</v>
+        <v>iShares 1-3 Year Treasury Bond ETF</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="str">
-        <v>IEF</v>
+        <v>IEI</v>
       </c>
       <c r="B46" t="str">
         <v>Rates</v>
@@ -12187,18 +12716,18 @@
         <v>USD</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="F46" t="str">
-        <v>iShares 7-10 Year Treasury Bond ETF</v>
+        <v>iShares 3-7 Year Treasury Bond ETF</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="str">
-        <v>TLT</v>
+        <v>IEF</v>
       </c>
       <c r="B47" t="str">
         <v>Rates</v>
@@ -12207,18 +12736,18 @@
         <v>USD</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="F47" t="str">
-        <v>iShares 20+ Year Treasury Bond ETF</v>
+        <v>iShares 7-10 Year Treasury Bond ETF</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="str">
-        <v>TIP</v>
+        <v>TLT</v>
       </c>
       <c r="B48" t="str">
         <v>Rates</v>
@@ -12233,12 +12762,12 @@
         <v>0</v>
       </c>
       <c r="F48" t="str">
-        <v>iShares TIPS Bond ETF</v>
+        <v>iShares 20+ Year Treasury Bond ETF</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="str">
-        <v>VTIP</v>
+        <v>TIP</v>
       </c>
       <c r="B49" t="str">
         <v>Rates</v>
@@ -12252,13 +12781,13 @@
       <c r="E49">
         <v>0</v>
       </c>
-      <c r="F49">
-        <v>0</v>
+      <c r="F49" t="str">
+        <v>iShares TIPS Bond ETF</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="str">
-        <v>AGNC</v>
+        <v>VTIP</v>
       </c>
       <c r="B50" t="str">
         <v>Rates</v>
@@ -12272,13 +12801,13 @@
       <c r="E50">
         <v>0</v>
       </c>
-      <c r="F50" t="str">
-        <v>AGNC Investment Corp.</v>
+      <c r="F50">
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="str">
-        <v>VMBS</v>
+        <v>AGNC</v>
       </c>
       <c r="B51" t="str">
         <v>Rates</v>
@@ -12292,13 +12821,13 @@
       <c r="E51">
         <v>0</v>
       </c>
-      <c r="F51">
-        <v>0</v>
+      <c r="F51" t="str">
+        <v>AGNC Investment Corp.</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="str">
-        <v>CMBS</v>
+        <v>VMBS</v>
       </c>
       <c r="B52" t="str">
         <v>Rates</v>
@@ -12318,13 +12847,13 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="str">
-        <v>EMB</v>
+        <v>CMBS</v>
       </c>
       <c r="B53" t="str">
         <v>Rates</v>
       </c>
       <c r="C53" t="str">
-        <v>EM</v>
+        <v>USD</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -12332,19 +12861,19 @@
       <c r="E53">
         <v>0</v>
       </c>
-      <c r="F53" t="str">
-        <v>iShares J.P. Morgan USD Emerging Markets Bond ETF</v>
+      <c r="F53">
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="str">
-        <v>GLD</v>
+        <v>EMB</v>
       </c>
       <c r="B54" t="str">
-        <v>Commodities</v>
+        <v>Rates</v>
       </c>
       <c r="C54" t="str">
-        <v>USD</v>
+        <v>EM</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -12353,12 +12882,12 @@
         <v>0</v>
       </c>
       <c r="F54" t="str">
-        <v>SPDR Gold Shares</v>
+        <v>iShares J.P. Morgan USD Emerging Markets Bond ETF</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="str">
-        <v>SLV</v>
+        <v>GLD</v>
       </c>
       <c r="B55" t="str">
         <v>Commodities</v>
@@ -12373,12 +12902,12 @@
         <v>0</v>
       </c>
       <c r="F55" t="str">
-        <v>iShares Silver Trust</v>
+        <v>SPDR Gold Shares</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="str">
-        <v>USO</v>
+        <v>SLV</v>
       </c>
       <c r="B56" t="str">
         <v>Commodities</v>
@@ -12393,15 +12922,15 @@
         <v>0</v>
       </c>
       <c r="F56" t="str">
-        <v>United States Oil Fund</v>
+        <v>iShares Silver Trust</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="str">
-        <v>UUP</v>
+        <v>USO</v>
       </c>
       <c r="B57" t="str">
-        <v>Currencies</v>
+        <v>Commodities</v>
       </c>
       <c r="C57" t="str">
         <v>USD</v>
@@ -12413,18 +12942,18 @@
         <v>0</v>
       </c>
       <c r="F57" t="str">
-        <v>Invesco DB US Dollar Index Bullish Fund</v>
+        <v>United States Oil Fund</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="str">
-        <v>FXE</v>
+        <v>UUP</v>
       </c>
       <c r="B58" t="str">
         <v>Currencies</v>
       </c>
       <c r="C58" t="str">
-        <v>EUR</v>
+        <v>USD</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -12433,26 +12962,46 @@
         <v>0</v>
       </c>
       <c r="F58" t="str">
-        <v>Invesco CurrencyShares Euro Trust</v>
+        <v>Invesco DB US Dollar Index Bullish Fund</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="str">
-        <v>FXY</v>
+        <v>FXE</v>
       </c>
       <c r="B59" t="str">
         <v>Currencies</v>
       </c>
       <c r="C59" t="str">
+        <v>EUR</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59" t="str">
+        <v>Invesco CurrencyShares Euro Trust</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" t="str">
+        <v>FXY</v>
+      </c>
+      <c r="B60" t="str">
+        <v>Currencies</v>
+      </c>
+      <c r="C60" t="str">
         <v>JPY</v>
       </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59" t="str">
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60" t="str">
         <v>Invesco CurrencyShares Japanese Yen Trust</v>
       </c>
     </row>

--- a/factor_master.xlsx
+++ b/factor_master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bkrai\Source\risk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529C9BB7-CF9F-43B7-8E69-F80A8244A4B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC9B06B-AE64-455E-B469-F46F466537A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="5" xr2:uid="{C31FDC5B-A809-4BFD-99CB-DA02246721F7}"/>
   </bookViews>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1643" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="451">
   <si>
     <t>SPX</t>
   </si>
@@ -1524,7 +1524,16 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="34">
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <top style="thin">
@@ -1722,8 +1731,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Table Style 1" pivot="0" count="2" xr9:uid="{26B58CFA-74FB-41FD-AB02-EC6D3EA4F4A1}">
-      <tableStyleElement type="wholeTable" dxfId="32"/>
-      <tableStyleElement type="headerRow" dxfId="31"/>
+      <tableStyleElement type="wholeTable" dxfId="33"/>
+      <tableStyleElement type="headerRow" dxfId="32"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1808,19 +1817,19 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6DAD1482-C63D-400D-9F51-F22A8E35CAD8}" name="data" displayName="data" ref="A1:K72" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6DAD1482-C63D-400D-9F51-F22A8E35CAD8}" name="data" displayName="data" ref="A1:K72" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{740DC173-AAC9-4239-A44E-C43F8517304D}" name="asset_class" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{A3BC3BB8-0420-458E-AECD-FD567519FA40}" name="region" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{0E50B2E3-0362-41DB-ACC2-478CC6F618A4}" name="factor_name" dataDxfId="26"/>
-    <tableColumn id="8" xr3:uid="{02943B27-7FCB-4450-B8E0-CF0DB6CF5CCA}" name="factor_name_new" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{D181BF84-863F-4FD0-B518-14EA5B0FB18E}" name="description_override" dataDxfId="24"/>
-    <tableColumn id="6" xr3:uid="{1C40DF9B-2910-4DE6-A188-563938E39797}" name="Description_GPT" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{1806E074-6CB5-47AB-8FA3-EF0F6E429062}" name="Underlying" dataDxfId="22"/>
-    <tableColumn id="7" xr3:uid="{21539C17-C1CC-4FA9-A0E1-A2F8FF8AB52C}" name="Active" dataDxfId="21"/>
-    <tableColumn id="37" xr3:uid="{DE50B7AE-5F67-471C-BE48-8BFA5076EDB0}" name="hyper_factor" dataDxfId="20"/>
-    <tableColumn id="10" xr3:uid="{494805E4-EBB6-47FD-9BC2-8DAD9FB9D3FA}" name="composite" dataDxfId="19"/>
-    <tableColumn id="9" xr3:uid="{5A601067-D384-419C-A711-AD3034F77E28}" name="description" dataDxfId="18">
+    <tableColumn id="1" xr3:uid="{740DC173-AAC9-4239-A44E-C43F8517304D}" name="asset_class" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{A3BC3BB8-0420-458E-AECD-FD567519FA40}" name="region" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{0E50B2E3-0362-41DB-ACC2-478CC6F618A4}" name="factor_name" dataDxfId="27"/>
+    <tableColumn id="8" xr3:uid="{02943B27-7FCB-4450-B8E0-CF0DB6CF5CCA}" name="factor_name_new" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{D181BF84-863F-4FD0-B518-14EA5B0FB18E}" name="description_override" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{1C40DF9B-2910-4DE6-A188-563938E39797}" name="Description_GPT" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{1806E074-6CB5-47AB-8FA3-EF0F6E429062}" name="Underlying" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{21539C17-C1CC-4FA9-A0E1-A2F8FF8AB52C}" name="Active" dataDxfId="22"/>
+    <tableColumn id="37" xr3:uid="{DE50B7AE-5F67-471C-BE48-8BFA5076EDB0}" name="hyper_factor" dataDxfId="21"/>
+    <tableColumn id="10" xr3:uid="{494805E4-EBB6-47FD-9BC2-8DAD9FB9D3FA}" name="composite" dataDxfId="20"/>
+    <tableColumn id="9" xr3:uid="{5A601067-D384-419C-A711-AD3034F77E28}" name="description" dataDxfId="19">
       <calculatedColumnFormula>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1829,18 +1838,18 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F918301C-859F-40B7-9C3E-90E8F0495E68}" name="data_old" displayName="data_old" ref="A1:I45" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F918301C-859F-40B7-9C3E-90E8F0495E68}" name="data_old" displayName="data_old" ref="A1:I45" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="A1:I45" xr:uid="{6DAD1482-C63D-400D-9F51-F22A8E35CAD8}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{B19D2B17-9AC9-4F1B-B32E-D4F72AAE469F}" name="asset_class" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{2C7CF29D-8E72-4B0C-A212-31F2A25D75C9}" name="region" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{C7E89EEC-2B5D-4C94-9327-1AC8E33DE708}" name="factor_name" dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{B3F9004A-8BEB-463E-A746-8189A2AC2B3E}" name="factor_name_new" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{51CD7FB3-58FE-4906-B73C-7726C0A9C471}" name="description_override" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{3CFF990B-3164-4533-821F-08CE7C6D82CA}" name="Description_GPT" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{DD86D53E-A9B4-4387-ABF9-F2625E77982D}" name="Underlying" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{D56FFF9A-72FF-42A4-B3D2-2F27AB16AF7A}" name="Active" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{8476DFDE-B4B1-4FD9-99B4-DF1F2ABBD7D5}" name="description" dataDxfId="7">
+    <tableColumn id="1" xr3:uid="{B19D2B17-9AC9-4F1B-B32E-D4F72AAE469F}" name="asset_class" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{2C7CF29D-8E72-4B0C-A212-31F2A25D75C9}" name="region" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{C7E89EEC-2B5D-4C94-9327-1AC8E33DE708}" name="factor_name" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{B3F9004A-8BEB-463E-A746-8189A2AC2B3E}" name="factor_name_new" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{51CD7FB3-58FE-4906-B73C-7726C0A9C471}" name="description_override" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{3CFF990B-3164-4533-821F-08CE7C6D82CA}" name="Description_GPT" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{DD86D53E-A9B4-4387-ABF9-F2625E77982D}" name="Underlying" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{D56FFF9A-72FF-42A4-B3D2-2F27AB16AF7A}" name="Active" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{8476DFDE-B4B1-4FD9-99B4-DF1F2ABBD7D5}" name="description" dataDxfId="8">
       <calculatedColumnFormula>IF(data_old[[#This Row],[description_override]]="",data_old[[#This Row],[Description_GPT]],data_old[[#This Row],[description_override]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6806,7 +6815,7 @@
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" cm="1">
         <f t="array" ref="A5:A65">_xlfn.XMATCH(C5:C65,data[factor_name])</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -6839,7 +6848,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
         <v>361</v>
@@ -6868,7 +6877,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -6895,7 +6904,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -6922,7 +6931,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
         <v>44</v>
@@ -6949,7 +6958,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>173</v>
@@ -6978,7 +6987,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
         <v>174</v>
@@ -7007,7 +7016,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
         <v>175</v>
@@ -7036,7 +7045,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
         <v>176</v>
@@ -7065,7 +7074,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
         <v>177</v>
@@ -7094,7 +7103,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
         <v>342</v>
@@ -7123,7 +7132,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
         <v>178</v>
@@ -7152,7 +7161,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
         <v>179</v>
@@ -7181,7 +7190,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
         <v>180</v>
@@ -7210,7 +7219,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
         <v>181</v>
@@ -7239,7 +7248,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C20" t="s">
         <v>182</v>
@@ -7268,7 +7277,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
         <v>285</v>
@@ -7297,7 +7306,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
         <v>364</v>
@@ -7326,7 +7335,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C23" t="s">
         <v>403</v>
@@ -7355,7 +7364,7 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C24" t="s">
         <v>367</v>
@@ -7384,7 +7393,7 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C25" t="s">
         <v>13</v>
@@ -7411,7 +7420,7 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C26" t="s">
         <v>156</v>
@@ -7438,7 +7447,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
         <v>86</v>
@@ -7465,7 +7474,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
         <v>84</v>
@@ -7492,7 +7501,7 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
         <v>89</v>
@@ -7519,7 +7528,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s">
         <v>327</v>
@@ -7546,7 +7555,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C31" t="s">
         <v>95</v>
@@ -7573,7 +7582,7 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C32" t="s">
         <v>93</v>
@@ -7600,7 +7609,7 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C33" t="s">
         <v>330</v>
@@ -7627,7 +7636,7 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C34" t="s">
         <v>91</v>
@@ -7654,7 +7663,7 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C35" t="s">
         <v>324</v>
@@ -7681,7 +7690,7 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C36" t="s">
         <v>142</v>
@@ -7708,7 +7717,7 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C37" t="s">
         <v>80</v>
@@ -7735,7 +7744,7 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C38" t="s">
         <v>82</v>
@@ -7762,7 +7771,7 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C39" t="s">
         <v>400</v>
@@ -7789,7 +7798,7 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C40" t="s">
         <v>10</v>
@@ -7816,7 +7825,7 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C41" t="s">
         <v>12</v>
@@ -7843,7 +7852,7 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C42" t="s">
         <v>347</v>
@@ -7870,7 +7879,7 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C43" t="s">
         <v>348</v>
@@ -7897,7 +7906,7 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -7924,7 +7933,7 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C45" t="s">
         <v>126</v>
@@ -7951,7 +7960,7 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C46" t="s">
         <v>131</v>
@@ -7978,7 +7987,7 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C47" t="s">
         <v>49</v>
@@ -8005,7 +8014,7 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C48" t="s">
         <v>135</v>
@@ -8032,7 +8041,7 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C49" t="s">
         <v>344</v>
@@ -8059,7 +8068,7 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C50" t="s">
         <v>53</v>
@@ -8086,7 +8095,7 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C51" t="s">
         <v>14</v>
@@ -8113,7 +8122,7 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C52" t="s">
         <v>15</v>
@@ -8140,7 +8149,7 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C53" t="s">
         <v>346</v>
@@ -8167,7 +8176,7 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C54" t="s">
         <v>345</v>
@@ -8196,7 +8205,7 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C55" t="s">
         <v>97</v>
@@ -8223,7 +8232,7 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C56" t="s">
         <v>349</v>
@@ -8250,7 +8259,7 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C57" t="s">
         <v>75</v>
@@ -8277,7 +8286,7 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C58" t="s">
         <v>99</v>
@@ -8304,7 +8313,7 @@
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C59" t="s">
         <v>57</v>
@@ -8331,7 +8340,7 @@
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C60" t="s">
         <v>59</v>
@@ -8358,7 +8367,7 @@
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C61" t="s">
         <v>61</v>
@@ -8385,7 +8394,7 @@
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C62" t="s">
         <v>63</v>
@@ -8412,7 +8421,7 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C63" t="s">
         <v>66</v>
@@ -8439,7 +8448,7 @@
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C64" t="s">
         <v>69</v>
@@ -8466,7 +8475,7 @@
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -8510,7 +8519,7 @@
       </c>
       <c r="B1" cm="1">
         <f t="array" ref="B1:B9">_xlfn.XMATCH(A1:A9,data[factor_name])</f>
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D1" cm="1">
         <f t="array" ref="D1:D32">_xlfn.XLOOKUP(_xlfn._TRO_ALL(A:A),data[factor_name],data[Active])</f>
@@ -8522,7 +8531,7 @@
         <v>334</v>
       </c>
       <c r="B2">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -8533,7 +8542,7 @@
         <v>335</v>
       </c>
       <c r="B3">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -8544,7 +8553,7 @@
         <v>336</v>
       </c>
       <c r="B4">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -8555,7 +8564,7 @@
         <v>337</v>
       </c>
       <c r="B5">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -8566,7 +8575,7 @@
         <v>338</v>
       </c>
       <c r="B6">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -8577,7 +8586,7 @@
         <v>339</v>
       </c>
       <c r="B7">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -8588,7 +8597,7 @@
         <v>340</v>
       </c>
       <c r="B8">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -8599,7 +8608,7 @@
         <v>341</v>
       </c>
       <c r="B9">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -8822,7 +8831,7 @@
         <v>IWM</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -8877,7 +8886,7 @@
         <v>QQQ</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -8888,7 +8897,7 @@
         <v>IWM</v>
       </c>
       <c r="C10">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -8923,7 +8932,7 @@
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9002,7 +9011,7 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E4" t="b">
         <f ca="1"/>
@@ -9110,6 +9119,12 @@
         <f ca="1"/>
         <v>1</v>
       </c>
+      <c r="H8" t="s">
+        <v>403</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
       <c r="K8" t="s">
         <v>238</v>
       </c>
@@ -9128,11 +9143,17 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="E9" t="b">
         <f ca="1"/>
         <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
       </c>
       <c r="K9" t="s">
         <v>135</v>
@@ -9149,11 +9170,17 @@
         <v>5</v>
       </c>
       <c r="C10">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="E10" t="b">
         <f ca="1"/>
         <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>-1</v>
       </c>
       <c r="K10" t="s">
         <v>49</v>
@@ -9219,17 +9246,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:C11">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>$E2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>$M11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:C12">
-    <cfRule type="expression" dxfId="0" priority="6">
+    <cfRule type="expression" dxfId="1" priority="6">
       <formula>$E13</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9242,9 +9269,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C29859C-7358-4E2F-B5CC-7696F1DAC449}">
-  <dimension ref="A1:M72"/>
+  <dimension ref="A1:M138"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -9257,7 +9286,7 @@
     <col min="8" max="9" width="8.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>322</v>
       </c>
@@ -9292,20 +9321,28 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>446</v>
+        <v>39</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="H2" s="4">
         <v>1</v>
       </c>
@@ -9315,141 +9352,153 @@
       <c r="J2" s="4">
         <v>0</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>0</v>
-      </c>
-      <c r="M2" t="b" cm="1">
-        <f t="array" ref="M2:M72">MOD(_xlfn.SEQUENCE(ROWS(data[])),3)=1</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+        <v>S&amp;P 500</v>
+      </c>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>444</v>
+        <v>39</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="H3" s="4">
         <v>1</v>
       </c>
       <c r="I3" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="4">
-        <v>1</v>
-      </c>
-      <c r="K3" s="4">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>0</v>
-      </c>
-      <c r="M3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+        <v>Russell 2000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>444</v>
+        <v>39</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+        <v>361</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>363</v>
+      </c>
       <c r="H4" s="4">
         <v>1</v>
       </c>
       <c r="I4" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="4">
-        <v>1</v>
-      </c>
-      <c r="K4" s="4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>0</v>
-      </c>
-      <c r="M4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+        <v>S&amp;P 400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>444</v>
+        <v>39</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>362</v>
+      </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4">
         <v>1</v>
       </c>
       <c r="I5" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="4">
-        <v>1</v>
-      </c>
-      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>0</v>
-      </c>
-      <c r="M5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+        <v>S&amp;P 500 EW</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>444</v>
+        <v>39</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="H6" s="4">
         <v>1</v>
       </c>
       <c r="I6" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="4">
-        <v>1</v>
-      </c>
-      <c r="K6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>0</v>
-      </c>
-      <c r="L6" s="2"/>
-      <c r="M6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+        <v>Nasdaq 100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>39</v>
       </c>
@@ -9457,60 +9506,52 @@
         <v>40</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>24</v>
+        <v>102</v>
       </c>
       <c r="H7" s="4">
         <v>1</v>
       </c>
       <c r="I7" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="4">
         <v>0</v>
       </c>
       <c r="K7" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>S&amp;P 500</v>
-      </c>
-      <c r="L7" s="2"/>
-      <c r="M7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+        <v>Dow Jones 30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>39</v>
+        <v>425</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>1</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>26</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="G8" s="4"/>
       <c r="H8" s="4">
         <v>1</v>
       </c>
@@ -9522,34 +9563,27 @@
       </c>
       <c r="K8" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>Russell 2000</v>
-      </c>
-      <c r="M8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+        <v>Technology</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>39</v>
+        <v>425</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>424</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>420</v>
+        <v>160</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>363</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="G9" s="4"/>
       <c r="H9" s="4">
         <v>1</v>
       </c>
@@ -9561,28 +9595,25 @@
       </c>
       <c r="K9" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>S&amp;P 400</v>
-      </c>
-      <c r="M9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+        <v>Industrials</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>39</v>
+        <v>425</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>438</v>
+        <v>175</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>443</v>
+        <v>161</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4">
@@ -9596,34 +9627,27 @@
       </c>
       <c r="K10" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>S&amp;P 500 EW</v>
-      </c>
-      <c r="M10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+        <v>Financials</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>39</v>
+        <v>425</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>28</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="G11" s="4"/>
       <c r="H11" s="4">
         <v>1</v>
       </c>
@@ -9635,34 +9659,27 @@
       </c>
       <c r="K11" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>Nasdaq 100</v>
-      </c>
-      <c r="M11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+        <v>Regional Banks</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>39</v>
+        <v>425</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>172</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>102</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="G12" s="4"/>
       <c r="H12" s="4">
         <v>1</v>
       </c>
@@ -9674,13 +9691,10 @@
       </c>
       <c r="K12" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>Dow Jones 30</v>
-      </c>
-      <c r="M12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+        <v>Communications</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>425</v>
       </c>
@@ -9688,14 +9702,14 @@
         <v>40</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>173</v>
+        <v>342</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4">
@@ -9709,13 +9723,10 @@
       </c>
       <c r="K13" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>Technology</v>
-      </c>
-      <c r="M13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+        <v>Energy</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>425</v>
       </c>
@@ -9723,14 +9734,14 @@
         <v>40</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4">
@@ -9744,13 +9755,10 @@
       </c>
       <c r="K14" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>Industrials</v>
-      </c>
-      <c r="M14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+        <v>Discretionary</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>425</v>
       </c>
@@ -9758,14 +9766,14 @@
         <v>40</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4">
@@ -9779,13 +9787,10 @@
       </c>
       <c r="K15" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>Financials</v>
-      </c>
-      <c r="M15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+        <v>Materials</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>425</v>
       </c>
@@ -9793,14 +9798,14 @@
         <v>40</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4">
@@ -9814,13 +9819,10 @@
       </c>
       <c r="K16" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>Regional Banks</v>
-      </c>
-      <c r="M16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+        <v>Health Care</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>425</v>
       </c>
@@ -9828,14 +9830,14 @@
         <v>40</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4">
@@ -9849,13 +9851,10 @@
       </c>
       <c r="K17" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>Communications</v>
-      </c>
-      <c r="M17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+        <v>Utilities</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>425</v>
       </c>
@@ -9863,14 +9862,14 @@
         <v>40</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>342</v>
+        <v>182</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4">
@@ -9884,28 +9883,23 @@
       </c>
       <c r="K18" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>Energy</v>
-      </c>
-      <c r="M18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+        <v>Staples</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>425</v>
+        <v>39</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>178</v>
+        <v>285</v>
       </c>
       <c r="D19" s="4"/>
-      <c r="E19" s="4" t="s">
-        <v>165</v>
-      </c>
+      <c r="E19" s="4"/>
       <c r="F19" s="4" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4">
@@ -9919,28 +9913,23 @@
       </c>
       <c r="K19" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>Discretionary</v>
-      </c>
-      <c r="M19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+        <v>iShares U.S. Real Estate ETF</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>425</v>
+        <v>39</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>179</v>
+        <v>364</v>
       </c>
       <c r="D20" s="4"/>
-      <c r="E20" s="4" t="s">
-        <v>166</v>
-      </c>
+      <c r="E20" s="4"/>
       <c r="F20" s="4" t="s">
-        <v>384</v>
+        <v>365</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4">
@@ -9954,28 +9943,25 @@
       </c>
       <c r="K20" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>Materials</v>
-      </c>
-      <c r="M20" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+        <v>Vanguard Real Estate ETF</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>425</v>
+        <v>39</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>180</v>
+        <v>403</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>167</v>
+        <v>421</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>386</v>
+        <v>404</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4">
@@ -9989,29 +9975,24 @@
       </c>
       <c r="K21" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>Health Care</v>
-      </c>
-      <c r="M21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+        <v>AI</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>425</v>
+        <v>39</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>181</v>
+        <v>431</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>388</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4">
         <v>1</v>
@@ -10024,28 +10005,25 @@
       </c>
       <c r="K22" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>Utilities</v>
-      </c>
-      <c r="M22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+        <v>Clean Energy</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>425</v>
+        <v>39</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>182</v>
+        <v>367</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4" t="s">
-        <v>169</v>
+        <v>423</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>390</v>
+        <v>368</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4">
@@ -10059,28 +10037,31 @@
       </c>
       <c r="K23" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>Staples</v>
-      </c>
-      <c r="M23" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+        <v>Preferred</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>150</v>
+      </c>
       <c r="F24" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="G24" s="4"/>
+        <v>149</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="H24" s="4">
         <v>1</v>
       </c>
@@ -10092,30 +10073,29 @@
       </c>
       <c r="K24" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>iShares U.S. Real Estate ETF</v>
-      </c>
-      <c r="M24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+        <v>Eurostoxx 50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4" t="s">
-        <v>365</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" s="4">
         <v>0</v>
@@ -10125,30 +10105,27 @@
       </c>
       <c r="K25" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>Vanguard Real Estate ETF</v>
-      </c>
-      <c r="M25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+        <v>Eurostoxx Banks</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>40</v>
+        <v>220</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>403</v>
+        <v>86</v>
       </c>
       <c r="D26" s="4"/>
-      <c r="E26" s="4" t="s">
-        <v>421</v>
-      </c>
+      <c r="E26" s="4"/>
       <c r="F26" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="G26" s="4"/>
+        <v>87</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>119</v>
+      </c>
       <c r="H26" s="4">
         <v>1</v>
       </c>
@@ -10160,28 +10137,31 @@
       </c>
       <c r="K26" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>AI</v>
-      </c>
-      <c r="M26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+        <v>iShares FTSE United Kingdom ETF</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="D27" s="4"/>
+        <v>84</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="E27" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
+        <v>157</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>118</v>
+      </c>
       <c r="H27" s="4">
         <v>1</v>
       </c>
@@ -10193,30 +10173,27 @@
       </c>
       <c r="K27" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>Clean Energy</v>
-      </c>
-      <c r="M27" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+        <v>DAX (Germany)</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>367</v>
+        <v>89</v>
       </c>
       <c r="D28" s="4"/>
-      <c r="E28" s="4" t="s">
-        <v>423</v>
-      </c>
+      <c r="E28" s="4"/>
       <c r="F28" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="G28" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>120</v>
+      </c>
       <c r="H28" s="4">
         <v>1</v>
       </c>
@@ -10228,13 +10205,10 @@
       </c>
       <c r="K28" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>Preferred</v>
-      </c>
-      <c r="M28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+        <v>iShares MSCI Canada ETF</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>39</v>
       </c>
@@ -10242,22 +10216,18 @@
         <v>68</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>13</v>
+        <v>327</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>8</v>
+        <v>328</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>30</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
       <c r="H29" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" s="4">
         <v>0</v>
@@ -10267,13 +10237,10 @@
       </c>
       <c r="K29" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>Eurostoxx 50</v>
-      </c>
-      <c r="M29" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+        <v>FTSE MIB (Italy)</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>39</v>
       </c>
@@ -10281,16 +10248,20 @@
         <v>68</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>156</v>
+        <v>95</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>156</v>
+        <v>95</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
+        <v>158</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>123</v>
+      </c>
       <c r="H30" s="4">
         <v>0</v>
       </c>
@@ -10302,29 +10273,26 @@
       </c>
       <c r="K30" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>Eurostoxx Banks</v>
-      </c>
-      <c r="M30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+        <v>CAC 40 (France)</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>220</v>
+        <v>68</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H31" s="4">
         <v>1</v>
@@ -10337,13 +10305,10 @@
       </c>
       <c r="K31" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>iShares FTSE United Kingdom ETF</v>
-      </c>
-      <c r="M31" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+        <v>iShares MSCI Italy ETF</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>39</v>
       </c>
@@ -10351,22 +10316,22 @@
         <v>68</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>84</v>
+        <v>330</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>84</v>
+        <v>329</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>157</v>
+        <v>331</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H32" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" s="4">
         <v>0</v>
@@ -10376,32 +10341,29 @@
       </c>
       <c r="K32" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>DAX (Germany)</v>
-      </c>
-      <c r="M32" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+        <v>IBEX 35 (Spain)</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H33" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" s="4">
         <v>0</v>
@@ -10411,32 +10373,33 @@
       </c>
       <c r="K33" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>iShares MSCI Canada ETF</v>
-      </c>
-      <c r="M33" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+        <v>iShares MSCI Spain ETF</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>328</v>
+        <v>77</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
+        <v>141</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="H34" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" s="4">
         <v>0</v>
@@ -10446,36 +10409,33 @@
       </c>
       <c r="K34" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>FTSE MIB (Italy)</v>
-      </c>
-      <c r="M34" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+        <v>Nikkei 225</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>95</v>
+        <v>142</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>95</v>
+        <v>142</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>96</v>
+        <v>143</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="H35" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" s="4">
         <v>0</v>
@@ -10485,29 +10445,28 @@
       </c>
       <c r="K35" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>CAC 40 (France)</v>
-      </c>
-      <c r="M35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+        <v>TOPIX</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D36" s="4"/>
+        <v>80</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="H36" s="4">
         <v>1</v>
@@ -10520,36 +10479,31 @@
       </c>
       <c r="K36" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>iShares MSCI Italy ETF</v>
-      </c>
-      <c r="M36" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+        <v>iShares China Large-Cap ETF</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>330</v>
+        <v>82</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>331</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="E37" s="4"/>
       <c r="F37" s="4" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H37" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" s="4">
         <v>0</v>
@@ -10559,32 +10513,29 @@
       </c>
       <c r="K37" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>IBEX 35 (Spain)</v>
-      </c>
-      <c r="M37" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+        <v>Xtrackers Harvest CSI 300 China A-Shares ETF</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D38" s="4"/>
+        <v>400</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>400</v>
+      </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>121</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="G38" s="4"/>
       <c r="H38" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" s="4">
         <v>0</v>
@@ -10594,72 +10545,52 @@
       </c>
       <c r="K38" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>iShares MSCI Spain ETF</v>
-      </c>
-      <c r="M38" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+        <v>KraneShares CSI China Internet ETF</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>115</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
       <c r="H39" s="4">
         <v>1</v>
       </c>
-      <c r="I39" s="4">
-        <v>0</v>
-      </c>
-      <c r="J39" s="4">
-        <v>0</v>
-      </c>
-      <c r="K39" s="4" t="str">
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>Nikkei 225</v>
-      </c>
-      <c r="M39" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>142</v>
+        <v>10</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>145</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="E40" s="4"/>
       <c r="F40" s="4" t="s">
-        <v>143</v>
+        <v>47</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="H40" s="4">
         <v>1</v>
@@ -10672,32 +10603,23 @@
       </c>
       <c r="K40" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>TOPIX</v>
-      </c>
-      <c r="M40" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+        <v>iShares iBoxx $ Investment Grade Corporate Bond ETF</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>80</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="D41" s="4"/>
       <c r="E41" s="4"/>
-      <c r="F41" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>116</v>
-      </c>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
       <c r="H41" s="4">
         <v>1</v>
       </c>
@@ -10707,33 +10629,30 @@
       <c r="J41" s="4">
         <v>0</v>
       </c>
-      <c r="K41" s="4" t="str">
+      <c r="K41" s="4">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>iShares China Large-Cap ETF</v>
-      </c>
-      <c r="M41" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>82</v>
+        <v>427</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="H42" s="4">
         <v>1</v>
@@ -10746,32 +10665,27 @@
       </c>
       <c r="K42" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>Xtrackers Harvest CSI 300 China A-Shares ETF</v>
-      </c>
-      <c r="M42" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+        <v>iShares iBoxx $ High Yield Corporate Bond ETF</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>400</v>
+        <v>347</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>400</v>
+        <v>9</v>
       </c>
       <c r="E43" s="4"/>
-      <c r="F43" s="4" t="s">
-        <v>401</v>
-      </c>
+      <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" s="4">
         <v>0</v>
@@ -10779,42 +10693,42 @@
       <c r="J43" s="4">
         <v>0</v>
       </c>
-      <c r="K43" s="4" t="str">
+      <c r="K43" s="4">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>KraneShares CSI China Internet ETF</v>
-      </c>
-      <c r="M43" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="D44" s="4"/>
+        <v>348</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4">
         <v>1</v>
       </c>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
+      <c r="I44" s="4">
+        <v>0</v>
+      </c>
+      <c r="J44" s="4">
+        <v>0</v>
+      </c>
       <c r="K44" s="4">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>0</v>
       </c>
-      <c r="M44" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>46</v>
       </c>
@@ -10822,18 +10736,12 @@
         <v>40</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>426</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="D45" s="4"/>
       <c r="E45" s="4"/>
-      <c r="F45" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>103</v>
-      </c>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
       <c r="H45" s="4">
         <v>1</v>
       </c>
@@ -10843,28 +10751,31 @@
       <c r="J45" s="4">
         <v>0</v>
       </c>
-      <c r="K45" s="4" t="str">
+      <c r="K45" s="4">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>iShares iBoxx $ Investment Grade Corporate Bond ETF</v>
-      </c>
-      <c r="M45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>46</v>
+        <v>128</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="D46" s="4"/>
+        <v>51</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>236</v>
+      </c>
       <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
+      <c r="F46" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>129</v>
+      </c>
       <c r="H46" s="4">
         <v>1</v>
       </c>
@@ -10874,33 +10785,30 @@
       <c r="J46" s="4">
         <v>0</v>
       </c>
-      <c r="K46" s="4">
+      <c r="K46" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>0</v>
-      </c>
-      <c r="M46" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+        <v>iShares 1-3 Year Treasury Bond ETF</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>46</v>
+        <v>128</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>427</v>
+        <v>237</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4" t="s">
-        <v>48</v>
+        <v>127</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="H47" s="4">
         <v>1</v>
@@ -10913,61 +10821,63 @@
       </c>
       <c r="K47" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>iShares iBoxx $ High Yield Corporate Bond ETF</v>
-      </c>
-      <c r="M47" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+        <v>iShares 3-7 Year Treasury Bond ETF</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>46</v>
+        <v>128</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>347</v>
+        <v>131</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>9</v>
+        <v>238</v>
       </c>
       <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
+      <c r="F48" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>133</v>
+      </c>
       <c r="H48" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" s="4">
         <v>0</v>
       </c>
-      <c r="K48" s="4">
+      <c r="K48" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>0</v>
-      </c>
-      <c r="M48" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+        <v>iShares 7-10 Year Treasury Bond ETF</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>46</v>
+        <v>128</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>348</v>
+        <v>49</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>11</v>
+        <v>240</v>
       </c>
       <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
+      <c r="F49" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>134</v>
+      </c>
       <c r="H49" s="4">
         <v>1</v>
       </c>
@@ -10977,28 +10887,29 @@
       <c r="J49" s="4">
         <v>0</v>
       </c>
-      <c r="K49" s="4">
+      <c r="K49" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>0</v>
-      </c>
-      <c r="M49" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+        <v>iShares 20+ Year Treasury Bond ETF</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>46</v>
+        <v>128</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>218</v>
+        <v>135</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
+      <c r="F50" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>137</v>
+      </c>
       <c r="H50" s="4">
         <v>1</v>
       </c>
@@ -11008,15 +10919,12 @@
       <c r="J50" s="4">
         <v>0</v>
       </c>
-      <c r="K50" s="4">
+      <c r="K50" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>0</v>
-      </c>
-      <c r="M50" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+        <v>iShares TIPS Bond ETF</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>128</v>
       </c>
@@ -11024,18 +10932,12 @@
         <v>40</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>236</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="D51" s="4"/>
       <c r="E51" s="4"/>
-      <c r="F51" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>129</v>
-      </c>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
       <c r="H51" s="4">
         <v>1</v>
       </c>
@@ -11045,15 +10947,9 @@
       <c r="J51" s="4">
         <v>0</v>
       </c>
-      <c r="K51" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>iShares 1-3 Year Treasury Bond ETF</v>
-      </c>
-      <c r="M51" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K51" s="4"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>128</v>
       </c>
@@ -11061,20 +10957,18 @@
         <v>40</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>237</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4" t="s">
-        <v>127</v>
+        <v>54</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="H52" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" s="4">
         <v>0</v>
@@ -11084,13 +10978,10 @@
       </c>
       <c r="K52" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>iShares 3-7 Year Treasury Bond ETF</v>
-      </c>
-      <c r="M52" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+        <v>iShares MBS ETF</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>128</v>
       </c>
@@ -11098,36 +10989,31 @@
         <v>40</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>238</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D53" s="4"/>
       <c r="E53" s="4"/>
-      <c r="F53" s="4" t="s">
-        <v>132</v>
+      <c r="F53" t="s">
+        <v>152</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="H53" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" s="4">
         <v>0</v>
       </c>
       <c r="K53" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>iShares 7-10 Year Treasury Bond ETF</v>
-      </c>
-      <c r="M53" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+        <v>Simplify Mortgage Backed Securities ETF</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>128</v>
       </c>
@@ -11135,17 +11021,15 @@
         <v>40</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>240</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="H54" s="4">
         <v>1</v>
@@ -11158,13 +11042,10 @@
       </c>
       <c r="K54" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>iShares 20+ Year Treasury Bond ETF</v>
-      </c>
-      <c r="M54" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+        <v>AGNC Investment Corp.</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>128</v>
       </c>
@@ -11172,16 +11053,12 @@
         <v>40</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>135</v>
+        <v>346</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
-      <c r="F55" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>137</v>
-      </c>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
       <c r="H55" s="4">
         <v>1</v>
       </c>
@@ -11191,15 +11068,12 @@
       <c r="J55" s="4">
         <v>0</v>
       </c>
-      <c r="K55" s="4" t="str">
+      <c r="K55" s="4">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>iShares TIPS Bond ETF</v>
-      </c>
-      <c r="M55" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>128</v>
       </c>
@@ -11207,7 +11081,7 @@
         <v>40</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
@@ -11222,31 +11096,31 @@
       <c r="J56" s="4">
         <v>0</v>
       </c>
-      <c r="K56" s="4"/>
-      <c r="M56" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K56" s="4">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>128</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="H57" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" s="4">
         <v>0</v>
@@ -11256,30 +11130,23 @@
       </c>
       <c r="K57" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>iShares MBS ETF</v>
-      </c>
-      <c r="M57" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+        <v>iShares J.P. Morgan USD Emerging Markets Bond ETF</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>128</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>14</v>
+        <v>349</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
-      <c r="F58" t="s">
-        <v>152</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>153</v>
-      </c>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
       <c r="H58" s="4">
         <v>0</v>
       </c>
@@ -11289,34 +11156,29 @@
       <c r="J58" s="4">
         <v>0</v>
       </c>
-      <c r="K58" s="4" t="str">
+      <c r="K58" s="4">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>Simplify Mortgage Backed Securities ETF</v>
-      </c>
-      <c r="M58" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>106</v>
+      <c r="B59" t="s">
+        <v>74</v>
+      </c>
+      <c r="C59" t="s">
+        <v>75</v>
+      </c>
+      <c r="F59" t="s">
+        <v>76</v>
+      </c>
+      <c r="G59" t="s">
+        <v>114</v>
       </c>
       <c r="H59" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" s="4">
         <v>0</v>
@@ -11326,28 +11188,29 @@
       </c>
       <c r="K59" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>AGNC Investment Corp.</v>
-      </c>
-      <c r="M59" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+        <v>WisdomTree Emerging Markets Local Debt Fund</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>128</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>346</v>
+        <v>99</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
+      <c r="F60" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>125</v>
+      </c>
       <c r="H60" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" s="4">
         <v>0</v>
@@ -11355,28 +11218,29 @@
       <c r="J60" s="4">
         <v>0</v>
       </c>
-      <c r="K60" s="4">
+      <c r="K60" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>0</v>
-      </c>
-      <c r="M60" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+        <v>iShares International Government Bonds ETF</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>345</v>
+        <v>57</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
+      <c r="F61" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="H61" s="4">
         <v>1</v>
       </c>
@@ -11386,31 +11250,28 @@
       <c r="J61" s="4">
         <v>0</v>
       </c>
-      <c r="K61" s="4">
+      <c r="K61" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>0</v>
-      </c>
-      <c r="M61" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+        <v>SPDR Gold Shares</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="H62" s="4">
         <v>1</v>
@@ -11423,28 +11284,29 @@
       </c>
       <c r="K62" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>iShares J.P. Morgan USD Emerging Markets Bond ETF</v>
-      </c>
-      <c r="M62" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+        <v>iShares Silver Trust</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>349</v>
+        <v>61</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
+      <c r="F63" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="H63" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" s="4">
         <v>0</v>
@@ -11452,29 +11314,28 @@
       <c r="J63" s="4">
         <v>0</v>
       </c>
-      <c r="K63" s="4">
+      <c r="K63" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>0</v>
-      </c>
-      <c r="M63" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+        <v>United States Oil Fund</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B64" t="s">
-        <v>74</v>
-      </c>
-      <c r="C64" t="s">
-        <v>75</v>
-      </c>
-      <c r="F64" t="s">
-        <v>76</v>
-      </c>
-      <c r="G64" t="s">
-        <v>114</v>
+        <v>56</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="H64" s="4">
         <v>0</v>
@@ -11487,32 +11348,29 @@
       </c>
       <c r="K64" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>WisdomTree Emerging Markets Local Debt Fund</v>
-      </c>
-      <c r="M64" t="b">
-        <v>0</v>
+        <v>Invesco DB Commodity Index Tracking Fund</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>128</v>
+        <v>65</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="F65" s="4" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="H65" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" s="4">
         <v>0</v>
@@ -11522,29 +11380,26 @@
       </c>
       <c r="K65" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>iShares International Government Bonds ETF</v>
-      </c>
-      <c r="M65" t="b">
-        <v>1</v>
+        <v>Invesco DB US Dollar Index Bullish Fund</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
       <c r="F66" s="4" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="H66" s="4">
         <v>1</v>
@@ -11557,29 +11412,24 @@
       </c>
       <c r="K66" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>SPDR Gold Shares</v>
-      </c>
-      <c r="M66" t="b">
-        <v>0</v>
+        <v>Invesco CurrencyShares Euro Trust</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A67" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>108</v>
+      <c r="A67" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>71</v>
+      </c>
+      <c r="C67" t="s">
+        <v>72</v>
+      </c>
+      <c r="F67" t="s">
+        <v>73</v>
+      </c>
+      <c r="G67" t="s">
+        <v>113</v>
       </c>
       <c r="H67" s="4">
         <v>1</v>
@@ -11592,77 +11442,67 @@
       </c>
       <c r="K67" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>iShares Silver Trust</v>
-      </c>
-      <c r="M67" t="b">
-        <v>0</v>
+        <v>Invesco CurrencyShares Japanese Yen Trust</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>56</v>
+        <v>446</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>61</v>
+        <v>429</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
-      <c r="F68" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>109</v>
-      </c>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
       <c r="H68" s="4">
         <v>1</v>
       </c>
       <c r="I68" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" s="4">
         <v>0</v>
       </c>
-      <c r="K68" s="4" t="str">
+      <c r="K68" s="4">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>United States Oil Fund</v>
-      </c>
-      <c r="M68" t="b">
+        <v>0</v>
+      </c>
+      <c r="M68" t="b" cm="1">
+        <f t="array" ref="M68:M138">MOD(_xlfn.SEQUENCE(ROWS(data[])),3)=1</f>
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>56</v>
+        <v>444</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>63</v>
+        <v>430</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
-      <c r="F69" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>110</v>
-      </c>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
       <c r="H69" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" s="4">
-        <v>0</v>
-      </c>
-      <c r="K69" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="K69" s="4">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>Invesco DB Commodity Index Tracking Fund</v>
+        <v>0</v>
       </c>
       <c r="M69" t="b">
         <v>0</v>
@@ -11670,34 +11510,30 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>65</v>
+        <v>444</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>66</v>
+        <v>439</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
-      <c r="F70" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>111</v>
-      </c>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
       <c r="H70" s="4">
         <v>1</v>
       </c>
       <c r="I70" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" s="4">
-        <v>0</v>
-      </c>
-      <c r="K70" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="K70" s="4">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>Invesco DB US Dollar Index Bullish Fund</v>
+        <v>0</v>
       </c>
       <c r="M70" t="b">
         <v>0</v>
@@ -11705,82 +11541,402 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>65</v>
+        <v>444</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>69</v>
+        <v>421</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
-      <c r="F71" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>112</v>
-      </c>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
       <c r="H71" s="4">
         <v>1</v>
       </c>
       <c r="I71" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" s="4">
-        <v>0</v>
-      </c>
-      <c r="K71" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="K71" s="4">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>Invesco CurrencyShares Euro Trust</v>
+        <v>0</v>
       </c>
       <c r="M71" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>65</v>
-      </c>
-      <c r="B72" t="s">
-        <v>71</v>
-      </c>
-      <c r="C72" t="s">
-        <v>72</v>
-      </c>
-      <c r="F72" t="s">
-        <v>73</v>
-      </c>
-      <c r="G72" t="s">
-        <v>113</v>
-      </c>
+      <c r="A72" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
       <c r="H72" s="4">
         <v>1</v>
       </c>
       <c r="I72" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" s="4">
-        <v>0</v>
-      </c>
-      <c r="K72" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="K72" s="4">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>Invesco CurrencyShares Japanese Yen Trust</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L72" s="2"/>
       <c r="M72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M74" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M77" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M80" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M83" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M86" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M87" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M88" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M89" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M92" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M95" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M98" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M101" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M104" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M105" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M106" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M107" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M108" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M109" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M110" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M111" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M112" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M113" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M114" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M115" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M116" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M117" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M118" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M119" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M120" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M121" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M122" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M123" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M124" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M125" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M126" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M127" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M128" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M129" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M130" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M131" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M132" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M133" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M134" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M135" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M136" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M137" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M138" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A2:K6">
-    <cfRule type="expression" dxfId="2" priority="1">
+  <conditionalFormatting sqref="A2:K72">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$M2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7:K72">
-    <cfRule type="expression" dxfId="1" priority="4">
-      <formula>$M6</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11826,11 +11982,11 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="str" cm="1">
         <f t="array" ref="A2:A60">_xlfn._xlws.FILTER(data[factor_name],data[Active])</f>
-        <v>MWTIX</v>
+        <v>SPY</v>
       </c>
       <c r="B2" t="str" cm="1">
         <f t="array" ref="B2:F60">INDEX(data[],_xlfn.XMATCH(_xlfn.ANCHORARRAY(A2),data[factor_name]),_xlfn.XMATCH(B1:F1,data[#Headers]))</f>
-        <v>Portfolio</v>
+        <v>Equities</v>
       </c>
       <c r="C2" t="str">
         <v>USD</v>
@@ -11841,93 +11997,93 @@
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2">
-        <v>0</v>
+      <c r="F2" t="str">
+        <v>S&amp;P 500</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
-        <v>TRUMP</v>
+        <v>IWM</v>
       </c>
       <c r="B3" t="str">
-        <v>Theme</v>
+        <v>Equities</v>
       </c>
       <c r="C3" t="str">
         <v>USD</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="F3" t="str">
+        <v>Russell 2000</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
-        <v>FED</v>
+        <v>MDY</v>
       </c>
       <c r="B4" t="str">
-        <v>Theme</v>
+        <v>Equities</v>
       </c>
       <c r="C4" t="str">
         <v>USD</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="F4" t="str">
+        <v>S&amp;P 400</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
-        <v>AI</v>
+        <v>RSP</v>
       </c>
       <c r="B5" t="str">
-        <v>Theme</v>
+        <v>Equities</v>
       </c>
       <c r="C5" t="str">
         <v>USD</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="F5" t="str">
+        <v>S&amp;P 500 EW</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
-        <v>GEOPOLITICS</v>
+        <v>QQQ</v>
       </c>
       <c r="B6" t="str">
-        <v>Theme</v>
+        <v>Equities</v>
       </c>
       <c r="C6" t="str">
         <v>USD</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="F6" t="str">
+        <v>Nasdaq 100</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
-        <v>SPY</v>
+        <v>DIA</v>
       </c>
       <c r="B7" t="str">
         <v>Equities</v>
@@ -11936,21 +12092,21 @@
         <v>USD</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7" t="str">
-        <v>S&amp;P 500</v>
+        <v>Dow Jones 30</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
-        <v>IWM</v>
+        <v>XLK</v>
       </c>
       <c r="B8" t="str">
-        <v>Equities</v>
+        <v>Sector</v>
       </c>
       <c r="C8" t="str">
         <v>USD</v>
@@ -11962,15 +12118,15 @@
         <v>0</v>
       </c>
       <c r="F8" t="str">
-        <v>Russell 2000</v>
+        <v>Technology</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
-        <v>MDY</v>
+        <v>XLI</v>
       </c>
       <c r="B9" t="str">
-        <v>Equities</v>
+        <v>Sector</v>
       </c>
       <c r="C9" t="str">
         <v>USD</v>
@@ -11982,15 +12138,15 @@
         <v>0</v>
       </c>
       <c r="F9" t="str">
-        <v>S&amp;P 400</v>
+        <v>Industrials</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
-        <v>RSP</v>
+        <v>XLF</v>
       </c>
       <c r="B10" t="str">
-        <v>Equities</v>
+        <v>Sector</v>
       </c>
       <c r="C10" t="str">
         <v>USD</v>
@@ -12002,15 +12158,15 @@
         <v>0</v>
       </c>
       <c r="F10" t="str">
-        <v>S&amp;P 500 EW</v>
+        <v>Financials</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
-        <v>QQQ</v>
+        <v>KRE</v>
       </c>
       <c r="B11" t="str">
-        <v>Equities</v>
+        <v>Sector</v>
       </c>
       <c r="C11" t="str">
         <v>USD</v>
@@ -12022,15 +12178,15 @@
         <v>0</v>
       </c>
       <c r="F11" t="str">
-        <v>Nasdaq 100</v>
+        <v>Regional Banks</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
-        <v>DIA</v>
+        <v>XLC</v>
       </c>
       <c r="B12" t="str">
-        <v>Equities</v>
+        <v>Sector</v>
       </c>
       <c r="C12" t="str">
         <v>USD</v>
@@ -12042,12 +12198,12 @@
         <v>0</v>
       </c>
       <c r="F12" t="str">
-        <v>Dow Jones 30</v>
+        <v>Communications</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
-        <v>XLK</v>
+        <v>XLE</v>
       </c>
       <c r="B13" t="str">
         <v>Sector</v>
@@ -12062,12 +12218,12 @@
         <v>0</v>
       </c>
       <c r="F13" t="str">
-        <v>Technology</v>
+        <v>Energy</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
-        <v>XLI</v>
+        <v>XLY</v>
       </c>
       <c r="B14" t="str">
         <v>Sector</v>
@@ -12082,12 +12238,12 @@
         <v>0</v>
       </c>
       <c r="F14" t="str">
-        <v>Industrials</v>
+        <v>Discretionary</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
-        <v>XLF</v>
+        <v>XLB</v>
       </c>
       <c r="B15" t="str">
         <v>Sector</v>
@@ -12102,12 +12258,12 @@
         <v>0</v>
       </c>
       <c r="F15" t="str">
-        <v>Financials</v>
+        <v>Materials</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
-        <v>KRE</v>
+        <v>XLV</v>
       </c>
       <c r="B16" t="str">
         <v>Sector</v>
@@ -12122,12 +12278,12 @@
         <v>0</v>
       </c>
       <c r="F16" t="str">
-        <v>Regional Banks</v>
+        <v>Health Care</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
-        <v>XLC</v>
+        <v>XLU</v>
       </c>
       <c r="B17" t="str">
         <v>Sector</v>
@@ -12142,12 +12298,12 @@
         <v>0</v>
       </c>
       <c r="F17" t="str">
-        <v>Communications</v>
+        <v>Utilities</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
-        <v>XLE</v>
+        <v>XLP</v>
       </c>
       <c r="B18" t="str">
         <v>Sector</v>
@@ -12162,15 +12318,15 @@
         <v>0</v>
       </c>
       <c r="F18" t="str">
-        <v>Energy</v>
+        <v>Staples</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
-        <v>XLY</v>
+        <v>IYR</v>
       </c>
       <c r="B19" t="str">
-        <v>Sector</v>
+        <v>Equities</v>
       </c>
       <c r="C19" t="str">
         <v>USD</v>
@@ -12182,15 +12338,15 @@
         <v>0</v>
       </c>
       <c r="F19" t="str">
-        <v>Discretionary</v>
+        <v>iShares U.S. Real Estate ETF</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
-        <v>XLB</v>
+        <v>VNQ</v>
       </c>
       <c r="B20" t="str">
-        <v>Sector</v>
+        <v>Equities</v>
       </c>
       <c r="C20" t="str">
         <v>USD</v>
@@ -12202,15 +12358,15 @@
         <v>0</v>
       </c>
       <c r="F20" t="str">
-        <v>Materials</v>
+        <v>Vanguard Real Estate ETF</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
-        <v>XLV</v>
+        <v>AIQ</v>
       </c>
       <c r="B21" t="str">
-        <v>Sector</v>
+        <v>Equities</v>
       </c>
       <c r="C21" t="str">
         <v>USD</v>
@@ -12222,15 +12378,15 @@
         <v>0</v>
       </c>
       <c r="F21" t="str">
-        <v>Health Care</v>
+        <v>AI</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
-        <v>XLU</v>
+        <v>ICLN</v>
       </c>
       <c r="B22" t="str">
-        <v>Sector</v>
+        <v>Equities</v>
       </c>
       <c r="C22" t="str">
         <v>USD</v>
@@ -12242,15 +12398,15 @@
         <v>0</v>
       </c>
       <c r="F22" t="str">
-        <v>Utilities</v>
+        <v>Clean Energy</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
-        <v>XLP</v>
+        <v>PFF</v>
       </c>
       <c r="B23" t="str">
-        <v>Sector</v>
+        <v>Equities</v>
       </c>
       <c r="C23" t="str">
         <v>USD</v>
@@ -12262,18 +12418,18 @@
         <v>0</v>
       </c>
       <c r="F23" t="str">
-        <v>Staples</v>
+        <v>Preferred</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
-        <v>IYR</v>
+        <v>FEZ</v>
       </c>
       <c r="B24" t="str">
         <v>Equities</v>
       </c>
       <c r="C24" t="str">
-        <v>USD</v>
+        <v>EUR</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -12282,18 +12438,18 @@
         <v>0</v>
       </c>
       <c r="F24" t="str">
-        <v>iShares U.S. Real Estate ETF</v>
+        <v>Eurostoxx 50</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
-        <v>VNQ</v>
+        <v>EWU</v>
       </c>
       <c r="B25" t="str">
         <v>Equities</v>
       </c>
       <c r="C25" t="str">
-        <v>USD</v>
+        <v>GBP</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -12302,18 +12458,18 @@
         <v>0</v>
       </c>
       <c r="F25" t="str">
-        <v>Vanguard Real Estate ETF</v>
+        <v>iShares FTSE United Kingdom ETF</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
-        <v>AIQ</v>
+        <v>DAX</v>
       </c>
       <c r="B26" t="str">
         <v>Equities</v>
       </c>
       <c r="C26" t="str">
-        <v>USD</v>
+        <v>EUR</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -12322,18 +12478,18 @@
         <v>0</v>
       </c>
       <c r="F26" t="str">
-        <v>AI</v>
+        <v>DAX (Germany)</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
-        <v>ICLN</v>
+        <v>EWC</v>
       </c>
       <c r="B27" t="str">
         <v>Equities</v>
       </c>
       <c r="C27" t="str">
-        <v>USD</v>
+        <v>CAD</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -12342,18 +12498,18 @@
         <v>0</v>
       </c>
       <c r="F27" t="str">
-        <v>Clean Energy</v>
+        <v>iShares MSCI Canada ETF</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="str">
-        <v>PFF</v>
+        <v>EWI</v>
       </c>
       <c r="B28" t="str">
         <v>Equities</v>
       </c>
       <c r="C28" t="str">
-        <v>USD</v>
+        <v>EUR</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -12362,18 +12518,18 @@
         <v>0</v>
       </c>
       <c r="F28" t="str">
-        <v>Preferred</v>
+        <v>iShares MSCI Italy ETF</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="str">
-        <v>FEZ</v>
+        <v>^N225</v>
       </c>
       <c r="B29" t="str">
         <v>Equities</v>
       </c>
       <c r="C29" t="str">
-        <v>EUR</v>
+        <v>JPY</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -12382,18 +12538,18 @@
         <v>0</v>
       </c>
       <c r="F29" t="str">
-        <v>Eurostoxx 50</v>
+        <v>Nikkei 225</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
-        <v>EWU</v>
+        <v>TPX</v>
       </c>
       <c r="B30" t="str">
         <v>Equities</v>
       </c>
       <c r="C30" t="str">
-        <v>GBP</v>
+        <v>JPY</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -12402,18 +12558,18 @@
         <v>0</v>
       </c>
       <c r="F30" t="str">
-        <v>iShares FTSE United Kingdom ETF</v>
+        <v>TOPIX</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
-        <v>DAX</v>
+        <v>FXI</v>
       </c>
       <c r="B31" t="str">
         <v>Equities</v>
       </c>
       <c r="C31" t="str">
-        <v>EUR</v>
+        <v>CNH</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -12422,18 +12578,18 @@
         <v>0</v>
       </c>
       <c r="F31" t="str">
-        <v>DAX (Germany)</v>
+        <v>iShares China Large-Cap ETF</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="str">
-        <v>EWC</v>
+        <v>ASHR</v>
       </c>
       <c r="B32" t="str">
         <v>Equities</v>
       </c>
       <c r="C32" t="str">
-        <v>CAD</v>
+        <v>CNH</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -12442,18 +12598,18 @@
         <v>0</v>
       </c>
       <c r="F32" t="str">
-        <v>iShares MSCI Canada ETF</v>
+        <v>Xtrackers Harvest CSI 300 China A-Shares ETF</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="str">
-        <v>EWI</v>
+        <v>KWEB</v>
       </c>
       <c r="B33" t="str">
         <v>Equities</v>
       </c>
       <c r="C33" t="str">
-        <v>EUR</v>
+        <v>CNH</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -12462,18 +12618,18 @@
         <v>0</v>
       </c>
       <c r="F33" t="str">
-        <v>iShares MSCI Italy ETF</v>
+        <v>KraneShares CSI China Internet ETF</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="str">
-        <v>^N225</v>
+        <v>EEM</v>
       </c>
       <c r="B34" t="str">
         <v>Equities</v>
       </c>
       <c r="C34" t="str">
-        <v>JPY</v>
+        <v>EM</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -12481,19 +12637,19 @@
       <c r="E34">
         <v>0</v>
       </c>
-      <c r="F34" t="str">
-        <v>Nikkei 225</v>
+      <c r="F34">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="str">
-        <v>TPX</v>
+        <v>LQD</v>
       </c>
       <c r="B35" t="str">
-        <v>Equities</v>
+        <v>Credit</v>
       </c>
       <c r="C35" t="str">
-        <v>JPY</v>
+        <v>USD</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -12502,18 +12658,18 @@
         <v>0</v>
       </c>
       <c r="F35" t="str">
-        <v>TOPIX</v>
+        <v>iShares iBoxx $ Investment Grade Corporate Bond ETF</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="str">
-        <v>FXI</v>
+        <v>BSV</v>
       </c>
       <c r="B36" t="str">
-        <v>Equities</v>
+        <v>Credit</v>
       </c>
       <c r="C36" t="str">
-        <v>CNH</v>
+        <v>USD</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -12521,19 +12677,19 @@
       <c r="E36">
         <v>0</v>
       </c>
-      <c r="F36" t="str">
-        <v>iShares China Large-Cap ETF</v>
+      <c r="F36">
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="str">
-        <v>ASHR</v>
+        <v>HYG</v>
       </c>
       <c r="B37" t="str">
-        <v>Equities</v>
+        <v>Credit</v>
       </c>
       <c r="C37" t="str">
-        <v>CNH</v>
+        <v>USD</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -12542,18 +12698,18 @@
         <v>0</v>
       </c>
       <c r="F37" t="str">
-        <v>Xtrackers Harvest CSI 300 China A-Shares ETF</v>
+        <v>iShares iBoxx $ High Yield Corporate Bond ETF</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="str">
-        <v>KWEB</v>
+        <v>HYGH</v>
       </c>
       <c r="B38" t="str">
-        <v>Equities</v>
+        <v>Credit</v>
       </c>
       <c r="C38" t="str">
-        <v>CNH</v>
+        <v>USD</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -12561,19 +12717,19 @@
       <c r="E38">
         <v>0</v>
       </c>
-      <c r="F38" t="str">
-        <v>KraneShares CSI China Internet ETF</v>
+      <c r="F38">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="str">
-        <v>EEM</v>
+        <v>AGG</v>
       </c>
       <c r="B39" t="str">
-        <v>Equities</v>
+        <v>Credit</v>
       </c>
       <c r="C39" t="str">
-        <v>EM</v>
+        <v>USD</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -12587,10 +12743,10 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="str">
-        <v>LQD</v>
+        <v>SHY</v>
       </c>
       <c r="B40" t="str">
-        <v>Credit</v>
+        <v>Rates</v>
       </c>
       <c r="C40" t="str">
         <v>USD</v>
@@ -12602,15 +12758,15 @@
         <v>0</v>
       </c>
       <c r="F40" t="str">
-        <v>iShares iBoxx $ Investment Grade Corporate Bond ETF</v>
+        <v>iShares 1-3 Year Treasury Bond ETF</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="str">
-        <v>BSV</v>
+        <v>IEI</v>
       </c>
       <c r="B41" t="str">
-        <v>Credit</v>
+        <v>Rates</v>
       </c>
       <c r="C41" t="str">
         <v>USD</v>
@@ -12621,36 +12777,36 @@
       <c r="E41">
         <v>0</v>
       </c>
-      <c r="F41">
-        <v>0</v>
+      <c r="F41" t="str">
+        <v>iShares 3-7 Year Treasury Bond ETF</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="str">
-        <v>HYG</v>
+        <v>IEF</v>
       </c>
       <c r="B42" t="str">
-        <v>Credit</v>
+        <v>Rates</v>
       </c>
       <c r="C42" t="str">
         <v>USD</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42" t="str">
-        <v>iShares iBoxx $ High Yield Corporate Bond ETF</v>
+        <v>iShares 7-10 Year Treasury Bond ETF</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="str">
-        <v>HYGH</v>
+        <v>TLT</v>
       </c>
       <c r="B43" t="str">
-        <v>Credit</v>
+        <v>Rates</v>
       </c>
       <c r="C43" t="str">
         <v>USD</v>
@@ -12661,16 +12817,16 @@
       <c r="E43">
         <v>0</v>
       </c>
-      <c r="F43">
-        <v>0</v>
+      <c r="F43" t="str">
+        <v>iShares 20+ Year Treasury Bond ETF</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="str">
-        <v>AGG</v>
+        <v>TIP</v>
       </c>
       <c r="B44" t="str">
-        <v>Credit</v>
+        <v>Rates</v>
       </c>
       <c r="C44" t="str">
         <v>USD</v>
@@ -12681,13 +12837,13 @@
       <c r="E44">
         <v>0</v>
       </c>
-      <c r="F44">
-        <v>0</v>
+      <c r="F44" t="str">
+        <v>iShares TIPS Bond ETF</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="str">
-        <v>SHY</v>
+        <v>VTIP</v>
       </c>
       <c r="B45" t="str">
         <v>Rates</v>
@@ -12701,13 +12857,13 @@
       <c r="E45">
         <v>0</v>
       </c>
-      <c r="F45" t="str">
-        <v>iShares 1-3 Year Treasury Bond ETF</v>
+      <c r="F45">
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="str">
-        <v>IEI</v>
+        <v>AGNC</v>
       </c>
       <c r="B46" t="str">
         <v>Rates</v>
@@ -12722,12 +12878,12 @@
         <v>0</v>
       </c>
       <c r="F46" t="str">
-        <v>iShares 3-7 Year Treasury Bond ETF</v>
+        <v>AGNC Investment Corp.</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="str">
-        <v>IEF</v>
+        <v>VMBS</v>
       </c>
       <c r="B47" t="str">
         <v>Rates</v>
@@ -12736,18 +12892,18 @@
         <v>USD</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
-      <c r="F47" t="str">
-        <v>iShares 7-10 Year Treasury Bond ETF</v>
+      <c r="F47">
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="str">
-        <v>TLT</v>
+        <v>CMBS</v>
       </c>
       <c r="B48" t="str">
         <v>Rates</v>
@@ -12761,19 +12917,19 @@
       <c r="E48">
         <v>0</v>
       </c>
-      <c r="F48" t="str">
-        <v>iShares 20+ Year Treasury Bond ETF</v>
+      <c r="F48">
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="str">
-        <v>TIP</v>
+        <v>EMB</v>
       </c>
       <c r="B49" t="str">
         <v>Rates</v>
       </c>
       <c r="C49" t="str">
-        <v>USD</v>
+        <v>EM</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -12782,15 +12938,15 @@
         <v>0</v>
       </c>
       <c r="F49" t="str">
-        <v>iShares TIPS Bond ETF</v>
+        <v>iShares J.P. Morgan USD Emerging Markets Bond ETF</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="str">
-        <v>VTIP</v>
+        <v>GLD</v>
       </c>
       <c r="B50" t="str">
-        <v>Rates</v>
+        <v>Commodities</v>
       </c>
       <c r="C50" t="str">
         <v>USD</v>
@@ -12801,16 +12957,16 @@
       <c r="E50">
         <v>0</v>
       </c>
-      <c r="F50">
-        <v>0</v>
+      <c r="F50" t="str">
+        <v>SPDR Gold Shares</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="str">
-        <v>AGNC</v>
+        <v>SLV</v>
       </c>
       <c r="B51" t="str">
-        <v>Rates</v>
+        <v>Commodities</v>
       </c>
       <c r="C51" t="str">
         <v>USD</v>
@@ -12822,15 +12978,15 @@
         <v>0</v>
       </c>
       <c r="F51" t="str">
-        <v>AGNC Investment Corp.</v>
+        <v>iShares Silver Trust</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="str">
-        <v>VMBS</v>
+        <v>USO</v>
       </c>
       <c r="B52" t="str">
-        <v>Rates</v>
+        <v>Commodities</v>
       </c>
       <c r="C52" t="str">
         <v>USD</v>
@@ -12841,16 +12997,16 @@
       <c r="E52">
         <v>0</v>
       </c>
-      <c r="F52">
-        <v>0</v>
+      <c r="F52" t="str">
+        <v>United States Oil Fund</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="str">
-        <v>CMBS</v>
+        <v>UUP</v>
       </c>
       <c r="B53" t="str">
-        <v>Rates</v>
+        <v>Currencies</v>
       </c>
       <c r="C53" t="str">
         <v>USD</v>
@@ -12861,19 +13017,19 @@
       <c r="E53">
         <v>0</v>
       </c>
-      <c r="F53">
-        <v>0</v>
+      <c r="F53" t="str">
+        <v>Invesco DB US Dollar Index Bullish Fund</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="str">
-        <v>EMB</v>
+        <v>FXE</v>
       </c>
       <c r="B54" t="str">
-        <v>Rates</v>
+        <v>Currencies</v>
       </c>
       <c r="C54" t="str">
-        <v>EM</v>
+        <v>EUR</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -12882,18 +13038,18 @@
         <v>0</v>
       </c>
       <c r="F54" t="str">
-        <v>iShares J.P. Morgan USD Emerging Markets Bond ETF</v>
+        <v>Invesco CurrencyShares Euro Trust</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="str">
-        <v>GLD</v>
+        <v>FXY</v>
       </c>
       <c r="B55" t="str">
-        <v>Commodities</v>
+        <v>Currencies</v>
       </c>
       <c r="C55" t="str">
-        <v>USD</v>
+        <v>JPY</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -12902,107 +13058,107 @@
         <v>0</v>
       </c>
       <c r="F55" t="str">
-        <v>SPDR Gold Shares</v>
+        <v>Invesco CurrencyShares Japanese Yen Trust</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="str">
-        <v>SLV</v>
+        <v>MWTIX</v>
       </c>
       <c r="B56" t="str">
-        <v>Commodities</v>
+        <v>Portfolio</v>
       </c>
       <c r="C56" t="str">
         <v>USD</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
-      <c r="F56" t="str">
-        <v>iShares Silver Trust</v>
+      <c r="F56">
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="str">
-        <v>USO</v>
+        <v>TRUMP</v>
       </c>
       <c r="B57" t="str">
-        <v>Commodities</v>
+        <v>Theme</v>
       </c>
       <c r="C57" t="str">
         <v>USD</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57" t="str">
-        <v>United States Oil Fund</v>
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="str">
-        <v>UUP</v>
+        <v>FED</v>
       </c>
       <c r="B58" t="str">
-        <v>Currencies</v>
+        <v>Theme</v>
       </c>
       <c r="C58" t="str">
         <v>USD</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58" t="str">
-        <v>Invesco DB US Dollar Index Bullish Fund</v>
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="str">
-        <v>FXE</v>
+        <v>AI</v>
       </c>
       <c r="B59" t="str">
-        <v>Currencies</v>
+        <v>Theme</v>
       </c>
       <c r="C59" t="str">
-        <v>EUR</v>
+        <v>USD</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59" t="str">
-        <v>Invesco CurrencyShares Euro Trust</v>
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="str">
-        <v>FXY</v>
+        <v>GEOPOLITICS</v>
       </c>
       <c r="B60" t="str">
-        <v>Currencies</v>
+        <v>Theme</v>
       </c>
       <c r="C60" t="str">
-        <v>JPY</v>
+        <v>USD</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60" t="str">
-        <v>Invesco CurrencyShares Japanese Yen Trust</v>
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -13043,11 +13199,11 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="str" cm="1">
         <f t="array" ref="A2:A56">_xlfn._xlws.FILTER(data[factor_name],data[Active]*NOT(data[composite]))</f>
-        <v>MWTIX</v>
+        <v>SPY</v>
       </c>
       <c r="B2" t="str" cm="1">
         <f t="array" ref="B2:E56">INDEX(data[],_xlfn.XMATCH(_xlfn.ANCHORARRAY(A2),data[factor_name]),_xlfn.XMATCH(B1:E1,data[#Headers]))</f>
-        <v>Portfolio</v>
+        <v>Equities</v>
       </c>
       <c r="C2" t="str">
         <v>USD</v>
@@ -13055,13 +13211,13 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2">
-        <v>0</v>
+      <c r="E2" t="str">
+        <v>S&amp;P 500</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
-        <v>SPY</v>
+        <v>IWM</v>
       </c>
       <c r="B3" t="str">
         <v>Equities</v>
@@ -13070,15 +13226,15 @@
         <v>USD</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="str">
-        <v>S&amp;P 500</v>
+        <v>Russell 2000</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
-        <v>IWM</v>
+        <v>MDY</v>
       </c>
       <c r="B4" t="str">
         <v>Equities</v>
@@ -13090,12 +13246,12 @@
         <v>0</v>
       </c>
       <c r="E4" t="str">
-        <v>Russell 2000</v>
+        <v>S&amp;P 400</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
-        <v>MDY</v>
+        <v>RSP</v>
       </c>
       <c r="B5" t="str">
         <v>Equities</v>
@@ -13107,12 +13263,12 @@
         <v>0</v>
       </c>
       <c r="E5" t="str">
-        <v>S&amp;P 400</v>
+        <v>S&amp;P 500 EW</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
-        <v>RSP</v>
+        <v>QQQ</v>
       </c>
       <c r="B6" t="str">
         <v>Equities</v>
@@ -13124,12 +13280,12 @@
         <v>0</v>
       </c>
       <c r="E6" t="str">
-        <v>S&amp;P 500 EW</v>
+        <v>Nasdaq 100</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
-        <v>QQQ</v>
+        <v>DIA</v>
       </c>
       <c r="B7" t="str">
         <v>Equities</v>
@@ -13141,15 +13297,15 @@
         <v>0</v>
       </c>
       <c r="E7" t="str">
-        <v>Nasdaq 100</v>
+        <v>Dow Jones 30</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
-        <v>DIA</v>
+        <v>XLK</v>
       </c>
       <c r="B8" t="str">
-        <v>Equities</v>
+        <v>Sector</v>
       </c>
       <c r="C8" t="str">
         <v>USD</v>
@@ -13158,12 +13314,12 @@
         <v>0</v>
       </c>
       <c r="E8" t="str">
-        <v>Dow Jones 30</v>
+        <v>Technology</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
-        <v>XLK</v>
+        <v>XLI</v>
       </c>
       <c r="B9" t="str">
         <v>Sector</v>
@@ -13175,12 +13331,12 @@
         <v>0</v>
       </c>
       <c r="E9" t="str">
-        <v>Technology</v>
+        <v>Industrials</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
-        <v>XLI</v>
+        <v>XLF</v>
       </c>
       <c r="B10" t="str">
         <v>Sector</v>
@@ -13192,12 +13348,12 @@
         <v>0</v>
       </c>
       <c r="E10" t="str">
-        <v>Industrials</v>
+        <v>Financials</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
-        <v>XLF</v>
+        <v>KRE</v>
       </c>
       <c r="B11" t="str">
         <v>Sector</v>
@@ -13209,12 +13365,12 @@
         <v>0</v>
       </c>
       <c r="E11" t="str">
-        <v>Financials</v>
+        <v>Regional Banks</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
-        <v>KRE</v>
+        <v>XLC</v>
       </c>
       <c r="B12" t="str">
         <v>Sector</v>
@@ -13226,12 +13382,12 @@
         <v>0</v>
       </c>
       <c r="E12" t="str">
-        <v>Regional Banks</v>
+        <v>Communications</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
-        <v>XLC</v>
+        <v>XLE</v>
       </c>
       <c r="B13" t="str">
         <v>Sector</v>
@@ -13243,12 +13399,12 @@
         <v>0</v>
       </c>
       <c r="E13" t="str">
-        <v>Communications</v>
+        <v>Energy</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
-        <v>XLE</v>
+        <v>XLY</v>
       </c>
       <c r="B14" t="str">
         <v>Sector</v>
@@ -13260,12 +13416,12 @@
         <v>0</v>
       </c>
       <c r="E14" t="str">
-        <v>Energy</v>
+        <v>Discretionary</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
-        <v>XLY</v>
+        <v>XLB</v>
       </c>
       <c r="B15" t="str">
         <v>Sector</v>
@@ -13277,12 +13433,12 @@
         <v>0</v>
       </c>
       <c r="E15" t="str">
-        <v>Discretionary</v>
+        <v>Materials</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
-        <v>XLB</v>
+        <v>XLV</v>
       </c>
       <c r="B16" t="str">
         <v>Sector</v>
@@ -13294,12 +13450,12 @@
         <v>0</v>
       </c>
       <c r="E16" t="str">
-        <v>Materials</v>
+        <v>Health Care</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
-        <v>XLV</v>
+        <v>XLU</v>
       </c>
       <c r="B17" t="str">
         <v>Sector</v>
@@ -13311,12 +13467,12 @@
         <v>0</v>
       </c>
       <c r="E17" t="str">
-        <v>Health Care</v>
+        <v>Utilities</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
-        <v>XLU</v>
+        <v>XLP</v>
       </c>
       <c r="B18" t="str">
         <v>Sector</v>
@@ -13328,15 +13484,15 @@
         <v>0</v>
       </c>
       <c r="E18" t="str">
-        <v>Utilities</v>
+        <v>Staples</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
-        <v>XLP</v>
+        <v>IYR</v>
       </c>
       <c r="B19" t="str">
-        <v>Sector</v>
+        <v>Equities</v>
       </c>
       <c r="C19" t="str">
         <v>USD</v>
@@ -13345,12 +13501,12 @@
         <v>0</v>
       </c>
       <c r="E19" t="str">
-        <v>Staples</v>
+        <v>iShares U.S. Real Estate ETF</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
-        <v>IYR</v>
+        <v>VNQ</v>
       </c>
       <c r="B20" t="str">
         <v>Equities</v>
@@ -13362,12 +13518,12 @@
         <v>0</v>
       </c>
       <c r="E20" t="str">
-        <v>iShares U.S. Real Estate ETF</v>
+        <v>Vanguard Real Estate ETF</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
-        <v>VNQ</v>
+        <v>AIQ</v>
       </c>
       <c r="B21" t="str">
         <v>Equities</v>
@@ -13379,12 +13535,12 @@
         <v>0</v>
       </c>
       <c r="E21" t="str">
-        <v>Vanguard Real Estate ETF</v>
+        <v>AI</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
-        <v>AIQ</v>
+        <v>ICLN</v>
       </c>
       <c r="B22" t="str">
         <v>Equities</v>
@@ -13396,12 +13552,12 @@
         <v>0</v>
       </c>
       <c r="E22" t="str">
-        <v>AI</v>
+        <v>Clean Energy</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
-        <v>ICLN</v>
+        <v>PFF</v>
       </c>
       <c r="B23" t="str">
         <v>Equities</v>
@@ -13413,114 +13569,114 @@
         <v>0</v>
       </c>
       <c r="E23" t="str">
-        <v>Clean Energy</v>
+        <v>Preferred</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
-        <v>PFF</v>
+        <v>FEZ</v>
       </c>
       <c r="B24" t="str">
         <v>Equities</v>
       </c>
       <c r="C24" t="str">
-        <v>USD</v>
+        <v>EUR</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24" t="str">
-        <v>Preferred</v>
+        <v>Eurostoxx 50</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
-        <v>FEZ</v>
+        <v>EWU</v>
       </c>
       <c r="B25" t="str">
         <v>Equities</v>
       </c>
       <c r="C25" t="str">
-        <v>EUR</v>
+        <v>GBP</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25" t="str">
-        <v>Eurostoxx 50</v>
+        <v>iShares FTSE United Kingdom ETF</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
-        <v>EWU</v>
+        <v>DAX</v>
       </c>
       <c r="B26" t="str">
         <v>Equities</v>
       </c>
       <c r="C26" t="str">
-        <v>GBP</v>
+        <v>EUR</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26" t="str">
-        <v>iShares FTSE United Kingdom ETF</v>
+        <v>DAX (Germany)</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
-        <v>DAX</v>
+        <v>EWC</v>
       </c>
       <c r="B27" t="str">
         <v>Equities</v>
       </c>
       <c r="C27" t="str">
-        <v>EUR</v>
+        <v>CAD</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27" t="str">
-        <v>DAX (Germany)</v>
+        <v>iShares MSCI Canada ETF</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="str">
-        <v>EWC</v>
+        <v>EWI</v>
       </c>
       <c r="B28" t="str">
         <v>Equities</v>
       </c>
       <c r="C28" t="str">
-        <v>CAD</v>
+        <v>EUR</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28" t="str">
-        <v>iShares MSCI Canada ETF</v>
+        <v>iShares MSCI Italy ETF</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="str">
-        <v>EWI</v>
+        <v>^N225</v>
       </c>
       <c r="B29" t="str">
         <v>Equities</v>
       </c>
       <c r="C29" t="str">
-        <v>EUR</v>
+        <v>JPY</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29" t="str">
-        <v>iShares MSCI Italy ETF</v>
+        <v>Nikkei 225</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
-        <v>^N225</v>
+        <v>TPX</v>
       </c>
       <c r="B30" t="str">
         <v>Equities</v>
@@ -13532,29 +13688,29 @@
         <v>0</v>
       </c>
       <c r="E30" t="str">
-        <v>Nikkei 225</v>
+        <v>TOPIX</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
-        <v>TPX</v>
+        <v>FXI</v>
       </c>
       <c r="B31" t="str">
         <v>Equities</v>
       </c>
       <c r="C31" t="str">
-        <v>JPY</v>
+        <v>CNH</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31" t="str">
-        <v>TOPIX</v>
+        <v>iShares China Large-Cap ETF</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="str">
-        <v>FXI</v>
+        <v>ASHR</v>
       </c>
       <c r="B32" t="str">
         <v>Equities</v>
@@ -13566,12 +13722,12 @@
         <v>0</v>
       </c>
       <c r="E32" t="str">
-        <v>iShares China Large-Cap ETF</v>
+        <v>Xtrackers Harvest CSI 300 China A-Shares ETF</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="str">
-        <v>ASHR</v>
+        <v>KWEB</v>
       </c>
       <c r="B33" t="str">
         <v>Equities</v>
@@ -13583,46 +13739,46 @@
         <v>0</v>
       </c>
       <c r="E33" t="str">
-        <v>Xtrackers Harvest CSI 300 China A-Shares ETF</v>
+        <v>KraneShares CSI China Internet ETF</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="str">
-        <v>KWEB</v>
+        <v>EEM</v>
       </c>
       <c r="B34" t="str">
         <v>Equities</v>
       </c>
       <c r="C34" t="str">
-        <v>CNH</v>
+        <v>EM</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
-      <c r="E34" t="str">
-        <v>KraneShares CSI China Internet ETF</v>
+      <c r="E34">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="str">
-        <v>EEM</v>
+        <v>LQD</v>
       </c>
       <c r="B35" t="str">
-        <v>Equities</v>
+        <v>Credit</v>
       </c>
       <c r="C35" t="str">
-        <v>EM</v>
+        <v>USD</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
-      <c r="E35">
-        <v>0</v>
+      <c r="E35" t="str">
+        <v>iShares iBoxx $ Investment Grade Corporate Bond ETF</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="str">
-        <v>LQD</v>
+        <v>BSV</v>
       </c>
       <c r="B36" t="str">
         <v>Credit</v>
@@ -13633,13 +13789,13 @@
       <c r="D36">
         <v>0</v>
       </c>
-      <c r="E36" t="str">
-        <v>iShares iBoxx $ Investment Grade Corporate Bond ETF</v>
+      <c r="E36">
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="str">
-        <v>BSV</v>
+        <v>HYG</v>
       </c>
       <c r="B37" t="str">
         <v>Credit</v>
@@ -13650,13 +13806,13 @@
       <c r="D37">
         <v>0</v>
       </c>
-      <c r="E37">
-        <v>0</v>
+      <c r="E37" t="str">
+        <v>iShares iBoxx $ High Yield Corporate Bond ETF</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="str">
-        <v>HYG</v>
+        <v>HYGH</v>
       </c>
       <c r="B38" t="str">
         <v>Credit</v>
@@ -13667,13 +13823,13 @@
       <c r="D38">
         <v>0</v>
       </c>
-      <c r="E38" t="str">
-        <v>iShares iBoxx $ High Yield Corporate Bond ETF</v>
+      <c r="E38">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="str">
-        <v>HYGH</v>
+        <v>AGG</v>
       </c>
       <c r="B39" t="str">
         <v>Credit</v>
@@ -13690,10 +13846,10 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="str">
-        <v>AGG</v>
+        <v>SHY</v>
       </c>
       <c r="B40" t="str">
-        <v>Credit</v>
+        <v>Rates</v>
       </c>
       <c r="C40" t="str">
         <v>USD</v>
@@ -13701,13 +13857,13 @@
       <c r="D40">
         <v>0</v>
       </c>
-      <c r="E40">
-        <v>0</v>
+      <c r="E40" t="str">
+        <v>iShares 1-3 Year Treasury Bond ETF</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="str">
-        <v>SHY</v>
+        <v>IEI</v>
       </c>
       <c r="B41" t="str">
         <v>Rates</v>
@@ -13719,12 +13875,12 @@
         <v>0</v>
       </c>
       <c r="E41" t="str">
-        <v>iShares 1-3 Year Treasury Bond ETF</v>
+        <v>iShares 3-7 Year Treasury Bond ETF</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="str">
-        <v>IEI</v>
+        <v>IEF</v>
       </c>
       <c r="B42" t="str">
         <v>Rates</v>
@@ -13733,15 +13889,15 @@
         <v>USD</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" t="str">
-        <v>iShares 3-7 Year Treasury Bond ETF</v>
+        <v>iShares 7-10 Year Treasury Bond ETF</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="str">
-        <v>IEF</v>
+        <v>TLT</v>
       </c>
       <c r="B43" t="str">
         <v>Rates</v>
@@ -13750,15 +13906,15 @@
         <v>USD</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43" t="str">
-        <v>iShares 7-10 Year Treasury Bond ETF</v>
+        <v>iShares 20+ Year Treasury Bond ETF</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="str">
-        <v>TLT</v>
+        <v>TIP</v>
       </c>
       <c r="B44" t="str">
         <v>Rates</v>
@@ -13770,12 +13926,12 @@
         <v>0</v>
       </c>
       <c r="E44" t="str">
-        <v>iShares 20+ Year Treasury Bond ETF</v>
+        <v>iShares TIPS Bond ETF</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="str">
-        <v>TIP</v>
+        <v>VTIP</v>
       </c>
       <c r="B45" t="str">
         <v>Rates</v>
@@ -13786,13 +13942,13 @@
       <c r="D45">
         <v>0</v>
       </c>
-      <c r="E45" t="str">
-        <v>iShares TIPS Bond ETF</v>
+      <c r="E45">
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="str">
-        <v>VTIP</v>
+        <v>AGNC</v>
       </c>
       <c r="B46" t="str">
         <v>Rates</v>
@@ -13803,13 +13959,13 @@
       <c r="D46">
         <v>0</v>
       </c>
-      <c r="E46">
-        <v>0</v>
+      <c r="E46" t="str">
+        <v>AGNC Investment Corp.</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="str">
-        <v>AGNC</v>
+        <v>VMBS</v>
       </c>
       <c r="B47" t="str">
         <v>Rates</v>
@@ -13820,13 +13976,13 @@
       <c r="D47">
         <v>0</v>
       </c>
-      <c r="E47" t="str">
-        <v>AGNC Investment Corp.</v>
+      <c r="E47">
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="str">
-        <v>VMBS</v>
+        <v>CMBS</v>
       </c>
       <c r="B48" t="str">
         <v>Rates</v>
@@ -13843,41 +13999,41 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="str">
-        <v>CMBS</v>
+        <v>EMB</v>
       </c>
       <c r="B49" t="str">
         <v>Rates</v>
       </c>
       <c r="C49" t="str">
-        <v>USD</v>
+        <v>EM</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
-      <c r="E49">
-        <v>0</v>
+      <c r="E49" t="str">
+        <v>iShares J.P. Morgan USD Emerging Markets Bond ETF</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="str">
-        <v>EMB</v>
+        <v>GLD</v>
       </c>
       <c r="B50" t="str">
-        <v>Rates</v>
+        <v>Commodities</v>
       </c>
       <c r="C50" t="str">
-        <v>EM</v>
+        <v>USD</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50" t="str">
-        <v>iShares J.P. Morgan USD Emerging Markets Bond ETF</v>
+        <v>SPDR Gold Shares</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="str">
-        <v>GLD</v>
+        <v>SLV</v>
       </c>
       <c r="B51" t="str">
         <v>Commodities</v>
@@ -13889,12 +14045,12 @@
         <v>0</v>
       </c>
       <c r="E51" t="str">
-        <v>SPDR Gold Shares</v>
+        <v>iShares Silver Trust</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="str">
-        <v>SLV</v>
+        <v>USO</v>
       </c>
       <c r="B52" t="str">
         <v>Commodities</v>
@@ -13906,15 +14062,15 @@
         <v>0</v>
       </c>
       <c r="E52" t="str">
-        <v>iShares Silver Trust</v>
+        <v>United States Oil Fund</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="str">
-        <v>USO</v>
+        <v>UUP</v>
       </c>
       <c r="B53" t="str">
-        <v>Commodities</v>
+        <v>Currencies</v>
       </c>
       <c r="C53" t="str">
         <v>USD</v>
@@ -13923,58 +14079,58 @@
         <v>0</v>
       </c>
       <c r="E53" t="str">
-        <v>United States Oil Fund</v>
+        <v>Invesco DB US Dollar Index Bullish Fund</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="str">
-        <v>UUP</v>
+        <v>FXE</v>
       </c>
       <c r="B54" t="str">
         <v>Currencies</v>
       </c>
       <c r="C54" t="str">
-        <v>USD</v>
+        <v>EUR</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54" t="str">
-        <v>Invesco DB US Dollar Index Bullish Fund</v>
+        <v>Invesco CurrencyShares Euro Trust</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="str">
-        <v>FXE</v>
+        <v>FXY</v>
       </c>
       <c r="B55" t="str">
         <v>Currencies</v>
       </c>
       <c r="C55" t="str">
-        <v>EUR</v>
+        <v>JPY</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55" t="str">
-        <v>Invesco CurrencyShares Euro Trust</v>
+        <v>Invesco CurrencyShares Japanese Yen Trust</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="str">
-        <v>FXY</v>
+        <v>MWTIX</v>
       </c>
       <c r="B56" t="str">
-        <v>Currencies</v>
+        <v>Portfolio</v>
       </c>
       <c r="C56" t="str">
-        <v>JPY</v>
+        <v>USD</v>
       </c>
       <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56" t="str">
-        <v>Invesco CurrencyShares Japanese Yen Trust</v>
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/factor_master.xlsx
+++ b/factor_master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bkrai\Source\risk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC9B06B-AE64-455E-B469-F46F466537A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3F9B07-28C6-4B43-A502-013C04968BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="5" xr2:uid="{C31FDC5B-A809-4BFD-99CB-DA02246721F7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="6" xr2:uid="{C31FDC5B-A809-4BFD-99CB-DA02246721F7}"/>
   </bookViews>
   <sheets>
     <sheet name="legacy" sheetId="5" r:id="rId1"/>
@@ -8931,8 +8931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75C34FC6-78FE-492E-BECF-2EB9A04778A9}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9271,9 +9271,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C29859C-7358-4E2F-B5CC-7696F1DAC449}">
   <dimension ref="A1:M138"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/factor_master.xlsx
+++ b/factor_master.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28311"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28514"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bkrai\Source\risk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3F9B07-28C6-4B43-A502-013C04968BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6889FAA2-84FD-4577-9B75-3E5581AFC991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="6" xr2:uid="{C31FDC5B-A809-4BFD-99CB-DA02246721F7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="7" xr2:uid="{C31FDC5B-A809-4BFD-99CB-DA02246721F7}"/>
   </bookViews>
   <sheets>
     <sheet name="legacy" sheetId="5" r:id="rId1"/>
@@ -20,11 +20,12 @@
     <sheet name="read_composites" sheetId="14" r:id="rId5"/>
     <sheet name="composites" sheetId="13" r:id="rId6"/>
     <sheet name="data" sheetId="3" r:id="rId7"/>
-    <sheet name="read" sheetId="12" r:id="rId8"/>
-    <sheet name="read_old2" sheetId="4" r:id="rId9"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId10"/>
-    <sheet name="read_old" sheetId="1" r:id="rId11"/>
-    <sheet name="data_old" sheetId="8" r:id="rId12"/>
+    <sheet name="read_new" sheetId="15" r:id="rId8"/>
+    <sheet name="read" sheetId="12" r:id="rId9"/>
+    <sheet name="read_old2" sheetId="4" r:id="rId10"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId11"/>
+    <sheet name="read_old" sheetId="1" r:id="rId12"/>
+    <sheet name="data_old" sheetId="8" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -84,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1698" uniqueCount="468">
   <si>
     <t>SPX</t>
   </si>
@@ -1437,6 +1438,57 @@
   </si>
   <si>
     <t>GEOPOLITICS</t>
+  </si>
+  <si>
+    <t>2s10s</t>
+  </si>
+  <si>
+    <t>allna</t>
+  </si>
+  <si>
+    <t>lag, 1</t>
+  </si>
+  <si>
+    <t>lognormal</t>
+  </si>
+  <si>
+    <t>yfinance</t>
+  </si>
+  <si>
+    <t>TY</t>
+  </si>
+  <si>
+    <t>lag, 5</t>
+  </si>
+  <si>
+    <t>^TNX</t>
+  </si>
+  <si>
+    <t>^FCHI</t>
+  </si>
+  <si>
+    <t>spx, beta=1</t>
+  </si>
+  <si>
+    <t>RUT</t>
+  </si>
+  <si>
+    <t>na_method</t>
+  </si>
+  <si>
+    <t>na_lag_tolerance</t>
+  </si>
+  <si>
+    <t>diffusion_type</t>
+  </si>
+  <si>
+    <t>ticker</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>normal</t>
   </si>
 </sst>
 </file>
@@ -1524,52 +1576,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="34">
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="29">
     <dxf>
       <border>
         <top style="thin">
@@ -1731,8 +1738,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Table Style 1" pivot="0" count="2" xr9:uid="{26B58CFA-74FB-41FD-AB02-EC6D3EA4F4A1}">
-      <tableStyleElement type="wholeTable" dxfId="33"/>
-      <tableStyleElement type="headerRow" dxfId="32"/>
+      <tableStyleElement type="wholeTable" dxfId="28"/>
+      <tableStyleElement type="headerRow" dxfId="27"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1805,8 +1812,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B096ECD9-9D11-4532-B7BB-C59C7AF13EE1}" name="composities" displayName="composities" ref="A1:C12" totalsRowShown="0">
-  <autoFilter ref="A1:C12" xr:uid="{B096ECD9-9D11-4532-B7BB-C59C7AF13EE1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B096ECD9-9D11-4532-B7BB-C59C7AF13EE1}" name="composities" displayName="composities" ref="A1:C14" totalsRowShown="0">
+  <autoFilter ref="A1:C14" xr:uid="{B096ECD9-9D11-4532-B7BB-C59C7AF13EE1}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{871951C6-7319-4AA1-8565-79E8F38A5ACE}" name="portfolio_name"/>
     <tableColumn id="2" xr3:uid="{FF366C7B-7C4B-413F-92EE-C488EBE75CC9}" name="factor_name"/>
@@ -1817,19 +1824,19 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6DAD1482-C63D-400D-9F51-F22A8E35CAD8}" name="data" displayName="data" ref="A1:K72" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6DAD1482-C63D-400D-9F51-F22A8E35CAD8}" name="data" displayName="data" ref="A1:K73" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{740DC173-AAC9-4239-A44E-C43F8517304D}" name="asset_class" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{A3BC3BB8-0420-458E-AECD-FD567519FA40}" name="region" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{0E50B2E3-0362-41DB-ACC2-478CC6F618A4}" name="factor_name" dataDxfId="27"/>
-    <tableColumn id="8" xr3:uid="{02943B27-7FCB-4450-B8E0-CF0DB6CF5CCA}" name="factor_name_new" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{D181BF84-863F-4FD0-B518-14EA5B0FB18E}" name="description_override" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{1C40DF9B-2910-4DE6-A188-563938E39797}" name="Description_GPT" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{1806E074-6CB5-47AB-8FA3-EF0F6E429062}" name="Underlying" dataDxfId="23"/>
-    <tableColumn id="7" xr3:uid="{21539C17-C1CC-4FA9-A0E1-A2F8FF8AB52C}" name="Active" dataDxfId="22"/>
-    <tableColumn id="37" xr3:uid="{DE50B7AE-5F67-471C-BE48-8BFA5076EDB0}" name="hyper_factor" dataDxfId="21"/>
-    <tableColumn id="10" xr3:uid="{494805E4-EBB6-47FD-9BC2-8DAD9FB9D3FA}" name="composite" dataDxfId="20"/>
-    <tableColumn id="9" xr3:uid="{5A601067-D384-419C-A711-AD3034F77E28}" name="description" dataDxfId="19">
+    <tableColumn id="1" xr3:uid="{740DC173-AAC9-4239-A44E-C43F8517304D}" name="asset_class" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{A3BC3BB8-0420-458E-AECD-FD567519FA40}" name="region" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{0E50B2E3-0362-41DB-ACC2-478CC6F618A4}" name="factor_name" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{02943B27-7FCB-4450-B8E0-CF0DB6CF5CCA}" name="factor_name_new" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{D181BF84-863F-4FD0-B518-14EA5B0FB18E}" name="description_override" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{1C40DF9B-2910-4DE6-A188-563938E39797}" name="Description_GPT" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{1806E074-6CB5-47AB-8FA3-EF0F6E429062}" name="Underlying" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{21539C17-C1CC-4FA9-A0E1-A2F8FF8AB52C}" name="Active" dataDxfId="17"/>
+    <tableColumn id="37" xr3:uid="{DE50B7AE-5F67-471C-BE48-8BFA5076EDB0}" name="hyper_factor" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{494805E4-EBB6-47FD-9BC2-8DAD9FB9D3FA}" name="composite" dataDxfId="15"/>
+    <tableColumn id="9" xr3:uid="{5A601067-D384-419C-A711-AD3034F77E28}" name="description" dataDxfId="14">
       <calculatedColumnFormula>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1838,18 +1845,18 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F918301C-859F-40B7-9C3E-90E8F0495E68}" name="data_old" displayName="data_old" ref="A1:I45" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F918301C-859F-40B7-9C3E-90E8F0495E68}" name="data_old" displayName="data_old" ref="A1:I45" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A1:I45" xr:uid="{6DAD1482-C63D-400D-9F51-F22A8E35CAD8}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{B19D2B17-9AC9-4F1B-B32E-D4F72AAE469F}" name="asset_class" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{2C7CF29D-8E72-4B0C-A212-31F2A25D75C9}" name="region" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{C7E89EEC-2B5D-4C94-9327-1AC8E33DE708}" name="factor_name" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{B3F9004A-8BEB-463E-A746-8189A2AC2B3E}" name="factor_name_new" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{51CD7FB3-58FE-4906-B73C-7726C0A9C471}" name="description_override" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{3CFF990B-3164-4533-821F-08CE7C6D82CA}" name="Description_GPT" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{DD86D53E-A9B4-4387-ABF9-F2625E77982D}" name="Underlying" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{D56FFF9A-72FF-42A4-B3D2-2F27AB16AF7A}" name="Active" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{8476DFDE-B4B1-4FD9-99B4-DF1F2ABBD7D5}" name="description" dataDxfId="8">
+    <tableColumn id="1" xr3:uid="{B19D2B17-9AC9-4F1B-B32E-D4F72AAE469F}" name="asset_class" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{2C7CF29D-8E72-4B0C-A212-31F2A25D75C9}" name="region" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{C7E89EEC-2B5D-4C94-9327-1AC8E33DE708}" name="factor_name" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{B3F9004A-8BEB-463E-A746-8189A2AC2B3E}" name="factor_name_new" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{51CD7FB3-58FE-4906-B73C-7726C0A9C471}" name="description_override" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{3CFF990B-3164-4533-821F-08CE7C6D82CA}" name="Description_GPT" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{DD86D53E-A9B4-4387-ABF9-F2625E77982D}" name="Underlying" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{D56FFF9A-72FF-42A4-B3D2-2F27AB16AF7A}" name="Active" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{8476DFDE-B4B1-4FD9-99B4-DF1F2ABBD7D5}" name="description" dataDxfId="3">
       <calculatedColumnFormula>IF(data_old[[#This Row],[description_override]]="",data_old[[#This Row],[Description_GPT]],data_old[[#This Row],[description_override]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2174,6 +2181,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC6F81C3-35A2-4C92-A3A4-30A9105A6D5B}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -3587,11 +3595,983 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A08F2F-299B-47F7-8064-36693758F4E3}">
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="A1:E56"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="44.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D1" t="s">
+        <v>428</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="str" cm="1">
+        <f t="array" ref="A2:A56">_xlfn._xlws.FILTER(data[factor_name],data[Active]*NOT(data[composite]))</f>
+        <v>SPY</v>
+      </c>
+      <c r="B2" t="str" cm="1">
+        <f t="array" ref="B2:E56">INDEX(data[],_xlfn.XMATCH(_xlfn.ANCHORARRAY(A2),data[factor_name]),_xlfn.XMATCH(B1:E1,data[#Headers]))</f>
+        <v>Equities</v>
+      </c>
+      <c r="C2" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="str">
+        <v>S&amp;P 500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="str">
+        <v>IWM</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C3" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Russell 2000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="str">
+        <v>MDY</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C4" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="str">
+        <v>S&amp;P 400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="str">
+        <v>RSP</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C5" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="str">
+        <v>S&amp;P 500 EW</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="str">
+        <v>QQQ</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C6" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="str">
+        <v>Nasdaq 100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="str">
+        <v>DIA</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C7" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="str">
+        <v>Dow Jones 30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
+        <v>XLK</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Sector</v>
+      </c>
+      <c r="C8" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="str">
+        <v>Technology</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
+        <v>XLI</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Sector</v>
+      </c>
+      <c r="C9" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="str">
+        <v>Industrials</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="str">
+        <v>XLF</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Sector</v>
+      </c>
+      <c r="C10" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="str">
+        <v>Financials</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="str">
+        <v>KRE</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Sector</v>
+      </c>
+      <c r="C11" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="str">
+        <v>Regional Banks</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="str">
+        <v>XLC</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Sector</v>
+      </c>
+      <c r="C12" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="str">
+        <v>Communications</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="str">
+        <v>XLE</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Sector</v>
+      </c>
+      <c r="C13" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="str">
+        <v>Energy</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="str">
+        <v>XLY</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Sector</v>
+      </c>
+      <c r="C14" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="str">
+        <v>Discretionary</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="str">
+        <v>XLB</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Sector</v>
+      </c>
+      <c r="C15" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="str">
+        <v>Materials</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="str">
+        <v>XLV</v>
+      </c>
+      <c r="B16" t="str">
+        <v>Sector</v>
+      </c>
+      <c r="C16" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="str">
+        <v>Health Care</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="str">
+        <v>XLU</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Sector</v>
+      </c>
+      <c r="C17" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="str">
+        <v>Utilities</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="str">
+        <v>XLP</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Sector</v>
+      </c>
+      <c r="C18" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="str">
+        <v>Staples</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="str">
+        <v>IYR</v>
+      </c>
+      <c r="B19" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C19" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="str">
+        <v>iShares U.S. Real Estate ETF</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="str">
+        <v>VNQ</v>
+      </c>
+      <c r="B20" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C20" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="str">
+        <v>Vanguard Real Estate ETF</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="str">
+        <v>AIQ</v>
+      </c>
+      <c r="B21" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C21" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="str">
+        <v>AI</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="str">
+        <v>ICLN</v>
+      </c>
+      <c r="B22" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C22" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="str">
+        <v>Clean Energy</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="str">
+        <v>PFF</v>
+      </c>
+      <c r="B23" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C23" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="str">
+        <v>Preferred</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="str">
+        <v>FEZ</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C24" t="str">
+        <v>EUR</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="str">
+        <v>Eurostoxx 50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="str">
+        <v>EWU</v>
+      </c>
+      <c r="B25" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C25" t="str">
+        <v>GBP</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="str">
+        <v>iShares FTSE United Kingdom ETF</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="str">
+        <v>DAX</v>
+      </c>
+      <c r="B26" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C26" t="str">
+        <v>EUR</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" t="str">
+        <v>DAX (Germany)</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="str">
+        <v>EWC</v>
+      </c>
+      <c r="B27" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C27" t="str">
+        <v>CAD</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" t="str">
+        <v>iShares MSCI Canada ETF</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="str">
+        <v>EWI</v>
+      </c>
+      <c r="B28" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C28" t="str">
+        <v>EUR</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" t="str">
+        <v>iShares MSCI Italy ETF</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="str">
+        <v>^N225</v>
+      </c>
+      <c r="B29" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C29" t="str">
+        <v>JPY</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" t="str">
+        <v>Nikkei 225</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="str">
+        <v>TPX</v>
+      </c>
+      <c r="B30" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C30" t="str">
+        <v>JPY</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="str">
+        <v>TOPIX</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="str">
+        <v>FXI</v>
+      </c>
+      <c r="B31" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C31" t="str">
+        <v>CNH</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" t="str">
+        <v>iShares China Large-Cap ETF</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="str">
+        <v>ASHR</v>
+      </c>
+      <c r="B32" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C32" t="str">
+        <v>CNH</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" t="str">
+        <v>Xtrackers Harvest CSI 300 China A-Shares ETF</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="str">
+        <v>KWEB</v>
+      </c>
+      <c r="B33" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C33" t="str">
+        <v>CNH</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33" t="str">
+        <v>KraneShares CSI China Internet ETF</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="str">
+        <v>EEM</v>
+      </c>
+      <c r="B34" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C34" t="str">
+        <v>EM</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="str">
+        <v>LQD</v>
+      </c>
+      <c r="B35" t="str">
+        <v>Credit</v>
+      </c>
+      <c r="C35" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35" t="str">
+        <v>iShares iBoxx $ Investment Grade Corporate Bond ETF</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="str">
+        <v>BSV</v>
+      </c>
+      <c r="B36" t="str">
+        <v>Credit</v>
+      </c>
+      <c r="C36" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="str">
+        <v>HYG</v>
+      </c>
+      <c r="B37" t="str">
+        <v>Credit</v>
+      </c>
+      <c r="C37" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37" t="str">
+        <v>iShares iBoxx $ High Yield Corporate Bond ETF</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="str">
+        <v>HYGH</v>
+      </c>
+      <c r="B38" t="str">
+        <v>Credit</v>
+      </c>
+      <c r="C38" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="str">
+        <v>AGG</v>
+      </c>
+      <c r="B39" t="str">
+        <v>Credit</v>
+      </c>
+      <c r="C39" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="str">
+        <v>SHY</v>
+      </c>
+      <c r="B40" t="str">
+        <v>Rates</v>
+      </c>
+      <c r="C40" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40" t="str">
+        <v>iShares 1-3 Year Treasury Bond ETF</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="str">
+        <v>IEI</v>
+      </c>
+      <c r="B41" t="str">
+        <v>Rates</v>
+      </c>
+      <c r="C41" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41" t="str">
+        <v>iShares 3-7 Year Treasury Bond ETF</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="str">
+        <v>IEF</v>
+      </c>
+      <c r="B42" t="str">
+        <v>Rates</v>
+      </c>
+      <c r="C42" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42" t="str">
+        <v>iShares 7-10 Year Treasury Bond ETF</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="str">
+        <v>TLT</v>
+      </c>
+      <c r="B43" t="str">
+        <v>Rates</v>
+      </c>
+      <c r="C43" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43" t="str">
+        <v>iShares 20+ Year Treasury Bond ETF</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="str">
+        <v>TIP</v>
+      </c>
+      <c r="B44" t="str">
+        <v>Rates</v>
+      </c>
+      <c r="C44" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44" t="str">
+        <v>iShares TIPS Bond ETF</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="str">
+        <v>VTIP</v>
+      </c>
+      <c r="B45" t="str">
+        <v>Rates</v>
+      </c>
+      <c r="C45" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="str">
+        <v>AGNC</v>
+      </c>
+      <c r="B46" t="str">
+        <v>Rates</v>
+      </c>
+      <c r="C46" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46" t="str">
+        <v>AGNC Investment Corp.</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="str">
+        <v>VMBS</v>
+      </c>
+      <c r="B47" t="str">
+        <v>Rates</v>
+      </c>
+      <c r="C47" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="str">
+        <v>CMBS</v>
+      </c>
+      <c r="B48" t="str">
+        <v>Rates</v>
+      </c>
+      <c r="C48" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" t="str">
+        <v>EMB</v>
+      </c>
+      <c r="B49" t="str">
+        <v>Rates</v>
+      </c>
+      <c r="C49" t="str">
+        <v>EM</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49" t="str">
+        <v>iShares J.P. Morgan USD Emerging Markets Bond ETF</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" t="str">
+        <v>GLD</v>
+      </c>
+      <c r="B50" t="str">
+        <v>Commodities</v>
+      </c>
+      <c r="C50" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50" t="str">
+        <v>SPDR Gold Shares</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" t="str">
+        <v>SLV</v>
+      </c>
+      <c r="B51" t="str">
+        <v>Commodities</v>
+      </c>
+      <c r="C51" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51" t="str">
+        <v>iShares Silver Trust</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" t="str">
+        <v>USO</v>
+      </c>
+      <c r="B52" t="str">
+        <v>Commodities</v>
+      </c>
+      <c r="C52" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52" t="str">
+        <v>United States Oil Fund</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" t="str">
+        <v>UUP</v>
+      </c>
+      <c r="B53" t="str">
+        <v>Currencies</v>
+      </c>
+      <c r="C53" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53" t="str">
+        <v>Invesco DB US Dollar Index Bullish Fund</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" t="str">
+        <v>FXE</v>
+      </c>
+      <c r="B54" t="str">
+        <v>Currencies</v>
+      </c>
+      <c r="C54" t="str">
+        <v>EUR</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54" t="str">
+        <v>Invesco CurrencyShares Euro Trust</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" t="str">
+        <v>FXY</v>
+      </c>
+      <c r="B55" t="str">
+        <v>Currencies</v>
+      </c>
+      <c r="C55" t="str">
+        <v>JPY</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55" t="str">
+        <v>Invesco CurrencyShares Japanese Yen Trust</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" t="str">
+        <v>MWTIX</v>
+      </c>
+      <c r="B56" t="str">
+        <v>Portfolio</v>
+      </c>
+      <c r="C56" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{509EC1D2-D913-4E91-BF4A-1B9A2D2D358E}">
+  <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3704,12 +4684,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28B96AA-E903-4E49-8EE7-2DF563672EF4}">
+  <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3824,8 +4805,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BECED18-9D5B-4FAE-9BAD-99DBF8245FFA}">
+  <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:M74"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A9" workbookViewId="0">
@@ -5742,6 +6724,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D44DBA8-A8E6-40E1-8916-CA07A080AF7C}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6794,6 +7777,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A8E9F76-5104-49FC-BB43-6F7BA8306F2B}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A5:O65"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
@@ -8507,6 +9491,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB67FE54-23CB-424E-AA4C-48055BA2B8E2}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8780,7 +9765,8 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7A5BD3C-985E-4AF9-B99B-18E2DCAB8A90}">
-  <dimension ref="A1:C12"/>
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
@@ -8802,7 +9788,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="str" cm="1">
-        <f t="array" ref="A2:C12">composities[]</f>
+        <f t="array" ref="A2:C14">composities[]</f>
         <v>TRUMP</v>
       </c>
       <c r="B2" t="str">
@@ -8920,6 +9906,28 @@
       </c>
       <c r="C12">
         <v>0.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="str">
+        <v>2s10s</v>
+      </c>
+      <c r="B13" t="str">
+        <v>SHY</v>
+      </c>
+      <c r="C13">
+        <v>-3.8633879781420766</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="str">
+        <v>2s10s</v>
+      </c>
+      <c r="B14" t="str">
+        <v>IEF</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -8929,10 +9937,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75C34FC6-78FE-492E-BECF-2EB9A04778A9}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8963,7 +9972,7 @@
         <v>1.5</v>
       </c>
       <c r="E2" t="b" cm="1">
-        <f t="array" aca="1" ref="E2:E12" ca="1">composities[portfolio_name]&lt;&gt;OFFSET(composities[portfolio_name],-1,0)</f>
+        <f t="array" aca="1" ref="E2:E14" ca="1">composities[portfolio_name]&lt;&gt;OFFSET(composities[portfolio_name],-1,0)</f>
         <v>1</v>
       </c>
       <c r="L2" t="s">
@@ -9235,43 +10244,72 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>451</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13">
+        <f>-C14*F14/F13</f>
+        <v>-3.8633879781420766</v>
+      </c>
+      <c r="E13" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1.83</v>
+      </c>
       <c r="K13" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>451</v>
+      </c>
+      <c r="B14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="b">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>7.07</v>
+      </c>
+      <c r="G14">
+        <f>F14/F13</f>
+        <v>3.8633879781420766</v>
+      </c>
       <c r="K14" t="s">
         <v>441</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:C11">
-    <cfRule type="expression" dxfId="3" priority="2">
+  <conditionalFormatting sqref="A2:C14">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>$E2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11">
-    <cfRule type="expression" dxfId="2" priority="1">
-      <formula>$M11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12:C12">
-    <cfRule type="expression" dxfId="1" priority="6">
-      <formula>$E13</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C29859C-7358-4E2F-B5CC-7696F1DAC449}">
-  <dimension ref="A1:M138"/>
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="A1:M140"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -11470,10 +12508,6 @@
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>0</v>
       </c>
-      <c r="M68" t="b" cm="1">
-        <f t="array" ref="M68:M138">MOD(_xlfn.SEQUENCE(ROWS(data[])),3)=1</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
@@ -11502,8 +12536,9 @@
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>0</v>
       </c>
-      <c r="M69" t="b">
-        <v>0</v>
+      <c r="M69" t="b" cm="1">
+        <f t="array" ref="M69:M140">MOD(_xlfn.SEQUENCE(ROWS(data[])),3)=1</f>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
@@ -11565,7 +12600,7 @@
         <v>0</v>
       </c>
       <c r="M71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
@@ -11595,24 +12630,50 @@
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>0</v>
       </c>
-      <c r="L72" s="2"/>
       <c r="M72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4">
+        <v>1</v>
+      </c>
+      <c r="I73" s="4">
+        <v>1</v>
+      </c>
+      <c r="J73" s="4">
+        <v>1</v>
+      </c>
+      <c r="K73" s="4">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>0</v>
+      </c>
+      <c r="L73" s="2"/>
       <c r="M73" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="M74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="M75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
@@ -11622,12 +12683,12 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="M77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="M78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.3">
@@ -11637,12 +12698,12 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="M80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="13:13" x14ac:dyDescent="0.3">
@@ -11652,12 +12713,12 @@
     </row>
     <row r="83" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="13:13" x14ac:dyDescent="0.3">
@@ -11667,12 +12728,12 @@
     </row>
     <row r="86" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="13:13" x14ac:dyDescent="0.3">
@@ -11682,12 +12743,12 @@
     </row>
     <row r="89" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="13:13" x14ac:dyDescent="0.3">
@@ -11697,12 +12758,12 @@
     </row>
     <row r="92" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="13:13" x14ac:dyDescent="0.3">
@@ -11712,12 +12773,12 @@
     </row>
     <row r="95" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="13:13" x14ac:dyDescent="0.3">
@@ -11727,12 +12788,12 @@
     </row>
     <row r="98" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="13:13" x14ac:dyDescent="0.3">
@@ -11742,12 +12803,12 @@
     </row>
     <row r="101" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="13:13" x14ac:dyDescent="0.3">
@@ -11757,12 +12818,12 @@
     </row>
     <row r="104" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="13:13" x14ac:dyDescent="0.3">
@@ -11772,12 +12833,12 @@
     </row>
     <row r="107" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="13:13" x14ac:dyDescent="0.3">
@@ -11787,12 +12848,12 @@
     </row>
     <row r="110" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="13:13" x14ac:dyDescent="0.3">
@@ -11802,12 +12863,12 @@
     </row>
     <row r="113" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="13:13" x14ac:dyDescent="0.3">
@@ -11817,12 +12878,12 @@
     </row>
     <row r="116" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="13:13" x14ac:dyDescent="0.3">
@@ -11832,12 +12893,12 @@
     </row>
     <row r="119" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="13:13" x14ac:dyDescent="0.3">
@@ -11847,12 +12908,12 @@
     </row>
     <row r="122" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="13:13" x14ac:dyDescent="0.3">
@@ -11862,12 +12923,12 @@
     </row>
     <row r="125" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="13:13" x14ac:dyDescent="0.3">
@@ -11877,12 +12938,12 @@
     </row>
     <row r="128" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M128" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="13:13" x14ac:dyDescent="0.3">
@@ -11892,12 +12953,12 @@
     </row>
     <row r="131" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="13:13" x14ac:dyDescent="0.3">
@@ -11907,12 +12968,12 @@
     </row>
     <row r="134" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="13:13" x14ac:dyDescent="0.3">
@@ -11922,19 +12983,34 @@
     </row>
     <row r="137" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M138" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M139" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M140" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A2:K72">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <conditionalFormatting sqref="A2:K46">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$M2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47:K73">
+    <cfRule type="expression" dxfId="0" priority="4">
+      <formula>$M48</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11945,11 +13021,183 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45BE1690-4C72-4E94-925C-89FAF286C7F8}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D1" t="s">
+        <v>466</v>
+      </c>
+      <c r="E1" t="s">
+        <v>465</v>
+      </c>
+      <c r="F1" t="s">
+        <v>464</v>
+      </c>
+      <c r="G1" t="s">
+        <v>463</v>
+      </c>
+      <c r="H1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>455</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>454</v>
+      </c>
+      <c r="G2" t="s">
+        <v>457</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>461</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
+        <v>455</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>454</v>
+      </c>
+      <c r="G3" t="s">
+        <v>457</v>
+      </c>
+      <c r="H3" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" t="s">
+        <v>455</v>
+      </c>
+      <c r="E4" t="s">
+        <v>459</v>
+      </c>
+      <c r="F4" t="s">
+        <v>454</v>
+      </c>
+      <c r="G4" t="s">
+        <v>457</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>455</v>
+      </c>
+      <c r="E5" t="s">
+        <v>458</v>
+      </c>
+      <c r="F5" t="s">
+        <v>467</v>
+      </c>
+      <c r="G5" t="s">
+        <v>457</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>456</v>
+      </c>
+      <c r="B6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>455</v>
+      </c>
+      <c r="E6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F6" t="s">
+        <v>454</v>
+      </c>
+      <c r="G6" t="s">
+        <v>453</v>
+      </c>
+      <c r="H6" t="s">
+        <v>452</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2977BD7F-9323-4F6D-98BF-C1B39119DCDE}">
-  <dimension ref="A1:F60"/>
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11979,11 +13227,11 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="str" cm="1">
-        <f t="array" ref="A2:A60">_xlfn._xlws.FILTER(data[factor_name],data[Active])</f>
+        <f t="array" ref="A2:A61">_xlfn._xlws.FILTER(data[factor_name],data[Active])</f>
         <v>SPY</v>
       </c>
       <c r="B2" t="str" cm="1">
-        <f t="array" ref="B2:F60">INDEX(data[],_xlfn.XMATCH(_xlfn.ANCHORARRAY(A2),data[factor_name]),_xlfn.XMATCH(B1:F1,data[#Headers]))</f>
+        <f t="array" ref="B2:F61">INDEX(data[],_xlfn.XMATCH(_xlfn.ANCHORARRAY(A2),data[factor_name]),_xlfn.XMATCH(B1:F1,data[#Headers]))</f>
         <v>Equities</v>
       </c>
       <c r="C2" t="str">
@@ -13159,975 +14407,23 @@
         <v>0</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A08F2F-299B-47F7-8064-36693758F4E3}">
-  <dimension ref="A1:E56"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="5" max="5" width="44.21875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>322</v>
-      </c>
-      <c r="C1" t="s">
-        <v>316</v>
-      </c>
-      <c r="D1" t="s">
-        <v>428</v>
-      </c>
-      <c r="E1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="str" cm="1">
-        <f t="array" ref="A2:A56">_xlfn._xlws.FILTER(data[factor_name],data[Active]*NOT(data[composite]))</f>
-        <v>SPY</v>
-      </c>
-      <c r="B2" t="str" cm="1">
-        <f t="array" ref="B2:E56">INDEX(data[],_xlfn.XMATCH(_xlfn.ANCHORARRAY(A2),data[factor_name]),_xlfn.XMATCH(B1:E1,data[#Headers]))</f>
-        <v>Equities</v>
-      </c>
-      <c r="C2" t="str">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" t="str">
+        <v>2s10s</v>
+      </c>
+      <c r="B61" t="str">
+        <v>Theme</v>
+      </c>
+      <c r="C61" t="str">
         <v>USD</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="str">
-        <v>S&amp;P 500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="str">
-        <v>IWM</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Equities</v>
-      </c>
-      <c r="C3" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="str">
-        <v>Russell 2000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="str">
-        <v>MDY</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Equities</v>
-      </c>
-      <c r="C4" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="str">
-        <v>S&amp;P 400</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="str">
-        <v>RSP</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Equities</v>
-      </c>
-      <c r="C5" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" t="str">
-        <v>S&amp;P 500 EW</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="str">
-        <v>QQQ</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Equities</v>
-      </c>
-      <c r="C6" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" t="str">
-        <v>Nasdaq 100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="str">
-        <v>DIA</v>
-      </c>
-      <c r="B7" t="str">
-        <v>Equities</v>
-      </c>
-      <c r="C7" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" t="str">
-        <v>Dow Jones 30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="str">
-        <v>XLK</v>
-      </c>
-      <c r="B8" t="str">
-        <v>Sector</v>
-      </c>
-      <c r="C8" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="str">
-        <v>Technology</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="str">
-        <v>XLI</v>
-      </c>
-      <c r="B9" t="str">
-        <v>Sector</v>
-      </c>
-      <c r="C9" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" t="str">
-        <v>Industrials</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="str">
-        <v>XLF</v>
-      </c>
-      <c r="B10" t="str">
-        <v>Sector</v>
-      </c>
-      <c r="C10" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" t="str">
-        <v>Financials</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="str">
-        <v>KRE</v>
-      </c>
-      <c r="B11" t="str">
-        <v>Sector</v>
-      </c>
-      <c r="C11" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11" t="str">
-        <v>Regional Banks</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="str">
-        <v>XLC</v>
-      </c>
-      <c r="B12" t="str">
-        <v>Sector</v>
-      </c>
-      <c r="C12" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12" t="str">
-        <v>Communications</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="str">
-        <v>XLE</v>
-      </c>
-      <c r="B13" t="str">
-        <v>Sector</v>
-      </c>
-      <c r="C13" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" t="str">
-        <v>Energy</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="str">
-        <v>XLY</v>
-      </c>
-      <c r="B14" t="str">
-        <v>Sector</v>
-      </c>
-      <c r="C14" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14" t="str">
-        <v>Discretionary</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="str">
-        <v>XLB</v>
-      </c>
-      <c r="B15" t="str">
-        <v>Sector</v>
-      </c>
-      <c r="C15" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15" t="str">
-        <v>Materials</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="str">
-        <v>XLV</v>
-      </c>
-      <c r="B16" t="str">
-        <v>Sector</v>
-      </c>
-      <c r="C16" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" t="str">
-        <v>Health Care</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="str">
-        <v>XLU</v>
-      </c>
-      <c r="B17" t="str">
-        <v>Sector</v>
-      </c>
-      <c r="C17" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17" t="str">
-        <v>Utilities</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="str">
-        <v>XLP</v>
-      </c>
-      <c r="B18" t="str">
-        <v>Sector</v>
-      </c>
-      <c r="C18" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18" t="str">
-        <v>Staples</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="str">
-        <v>IYR</v>
-      </c>
-      <c r="B19" t="str">
-        <v>Equities</v>
-      </c>
-      <c r="C19" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19" t="str">
-        <v>iShares U.S. Real Estate ETF</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="str">
-        <v>VNQ</v>
-      </c>
-      <c r="B20" t="str">
-        <v>Equities</v>
-      </c>
-      <c r="C20" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20" t="str">
-        <v>Vanguard Real Estate ETF</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="str">
-        <v>AIQ</v>
-      </c>
-      <c r="B21" t="str">
-        <v>Equities</v>
-      </c>
-      <c r="C21" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21" t="str">
-        <v>AI</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="str">
-        <v>ICLN</v>
-      </c>
-      <c r="B22" t="str">
-        <v>Equities</v>
-      </c>
-      <c r="C22" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22" t="str">
-        <v>Clean Energy</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="str">
-        <v>PFF</v>
-      </c>
-      <c r="B23" t="str">
-        <v>Equities</v>
-      </c>
-      <c r="C23" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23" t="str">
-        <v>Preferred</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="str">
-        <v>FEZ</v>
-      </c>
-      <c r="B24" t="str">
-        <v>Equities</v>
-      </c>
-      <c r="C24" t="str">
-        <v>EUR</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24" t="str">
-        <v>Eurostoxx 50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" t="str">
-        <v>EWU</v>
-      </c>
-      <c r="B25" t="str">
-        <v>Equities</v>
-      </c>
-      <c r="C25" t="str">
-        <v>GBP</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25" t="str">
-        <v>iShares FTSE United Kingdom ETF</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" t="str">
-        <v>DAX</v>
-      </c>
-      <c r="B26" t="str">
-        <v>Equities</v>
-      </c>
-      <c r="C26" t="str">
-        <v>EUR</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26" t="str">
-        <v>DAX (Germany)</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" t="str">
-        <v>EWC</v>
-      </c>
-      <c r="B27" t="str">
-        <v>Equities</v>
-      </c>
-      <c r="C27" t="str">
-        <v>CAD</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27" t="str">
-        <v>iShares MSCI Canada ETF</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" t="str">
-        <v>EWI</v>
-      </c>
-      <c r="B28" t="str">
-        <v>Equities</v>
-      </c>
-      <c r="C28" t="str">
-        <v>EUR</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28" t="str">
-        <v>iShares MSCI Italy ETF</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" t="str">
-        <v>^N225</v>
-      </c>
-      <c r="B29" t="str">
-        <v>Equities</v>
-      </c>
-      <c r="C29" t="str">
-        <v>JPY</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29" t="str">
-        <v>Nikkei 225</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" t="str">
-        <v>TPX</v>
-      </c>
-      <c r="B30" t="str">
-        <v>Equities</v>
-      </c>
-      <c r="C30" t="str">
-        <v>JPY</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30" t="str">
-        <v>TOPIX</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" t="str">
-        <v>FXI</v>
-      </c>
-      <c r="B31" t="str">
-        <v>Equities</v>
-      </c>
-      <c r="C31" t="str">
-        <v>CNH</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31" t="str">
-        <v>iShares China Large-Cap ETF</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" t="str">
-        <v>ASHR</v>
-      </c>
-      <c r="B32" t="str">
-        <v>Equities</v>
-      </c>
-      <c r="C32" t="str">
-        <v>CNH</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32" t="str">
-        <v>Xtrackers Harvest CSI 300 China A-Shares ETF</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" t="str">
-        <v>KWEB</v>
-      </c>
-      <c r="B33" t="str">
-        <v>Equities</v>
-      </c>
-      <c r="C33" t="str">
-        <v>CNH</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33" t="str">
-        <v>KraneShares CSI China Internet ETF</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" t="str">
-        <v>EEM</v>
-      </c>
-      <c r="B34" t="str">
-        <v>Equities</v>
-      </c>
-      <c r="C34" t="str">
-        <v>EM</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" t="str">
-        <v>LQD</v>
-      </c>
-      <c r="B35" t="str">
-        <v>Credit</v>
-      </c>
-      <c r="C35" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35" t="str">
-        <v>iShares iBoxx $ Investment Grade Corporate Bond ETF</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" t="str">
-        <v>BSV</v>
-      </c>
-      <c r="B36" t="str">
-        <v>Credit</v>
-      </c>
-      <c r="C36" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" t="str">
-        <v>HYG</v>
-      </c>
-      <c r="B37" t="str">
-        <v>Credit</v>
-      </c>
-      <c r="C37" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37" t="str">
-        <v>iShares iBoxx $ High Yield Corporate Bond ETF</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" t="str">
-        <v>HYGH</v>
-      </c>
-      <c r="B38" t="str">
-        <v>Credit</v>
-      </c>
-      <c r="C38" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" t="str">
-        <v>AGG</v>
-      </c>
-      <c r="B39" t="str">
-        <v>Credit</v>
-      </c>
-      <c r="C39" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" t="str">
-        <v>SHY</v>
-      </c>
-      <c r="B40" t="str">
-        <v>Rates</v>
-      </c>
-      <c r="C40" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40" t="str">
-        <v>iShares 1-3 Year Treasury Bond ETF</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" t="str">
-        <v>IEI</v>
-      </c>
-      <c r="B41" t="str">
-        <v>Rates</v>
-      </c>
-      <c r="C41" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41" t="str">
-        <v>iShares 3-7 Year Treasury Bond ETF</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" t="str">
-        <v>IEF</v>
-      </c>
-      <c r="B42" t="str">
-        <v>Rates</v>
-      </c>
-      <c r="C42" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42" t="str">
-        <v>iShares 7-10 Year Treasury Bond ETF</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" t="str">
-        <v>TLT</v>
-      </c>
-      <c r="B43" t="str">
-        <v>Rates</v>
-      </c>
-      <c r="C43" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43" t="str">
-        <v>iShares 20+ Year Treasury Bond ETF</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" t="str">
-        <v>TIP</v>
-      </c>
-      <c r="B44" t="str">
-        <v>Rates</v>
-      </c>
-      <c r="C44" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44" t="str">
-        <v>iShares TIPS Bond ETF</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" t="str">
-        <v>VTIP</v>
-      </c>
-      <c r="B45" t="str">
-        <v>Rates</v>
-      </c>
-      <c r="C45" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" t="str">
-        <v>AGNC</v>
-      </c>
-      <c r="B46" t="str">
-        <v>Rates</v>
-      </c>
-      <c r="C46" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46" t="str">
-        <v>AGNC Investment Corp.</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" t="str">
-        <v>VMBS</v>
-      </c>
-      <c r="B47" t="str">
-        <v>Rates</v>
-      </c>
-      <c r="C47" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" t="str">
-        <v>CMBS</v>
-      </c>
-      <c r="B48" t="str">
-        <v>Rates</v>
-      </c>
-      <c r="C48" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" t="str">
-        <v>EMB</v>
-      </c>
-      <c r="B49" t="str">
-        <v>Rates</v>
-      </c>
-      <c r="C49" t="str">
-        <v>EM</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49" t="str">
-        <v>iShares J.P. Morgan USD Emerging Markets Bond ETF</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" t="str">
-        <v>GLD</v>
-      </c>
-      <c r="B50" t="str">
-        <v>Commodities</v>
-      </c>
-      <c r="C50" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50" t="str">
-        <v>SPDR Gold Shares</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" t="str">
-        <v>SLV</v>
-      </c>
-      <c r="B51" t="str">
-        <v>Commodities</v>
-      </c>
-      <c r="C51" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51" t="str">
-        <v>iShares Silver Trust</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" t="str">
-        <v>USO</v>
-      </c>
-      <c r="B52" t="str">
-        <v>Commodities</v>
-      </c>
-      <c r="C52" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52" t="str">
-        <v>United States Oil Fund</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" t="str">
-        <v>UUP</v>
-      </c>
-      <c r="B53" t="str">
-        <v>Currencies</v>
-      </c>
-      <c r="C53" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53" t="str">
-        <v>Invesco DB US Dollar Index Bullish Fund</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" t="str">
-        <v>FXE</v>
-      </c>
-      <c r="B54" t="str">
-        <v>Currencies</v>
-      </c>
-      <c r="C54" t="str">
-        <v>EUR</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54" t="str">
-        <v>Invesco CurrencyShares Euro Trust</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" t="str">
-        <v>FXY</v>
-      </c>
-      <c r="B55" t="str">
-        <v>Currencies</v>
-      </c>
-      <c r="C55" t="str">
-        <v>JPY</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55" t="str">
-        <v>Invesco CurrencyShares Japanese Yen Trust</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" t="str">
-        <v>MWTIX</v>
-      </c>
-      <c r="B56" t="str">
-        <v>Portfolio</v>
-      </c>
-      <c r="C56" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-      <c r="E56">
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
         <v>0</v>
       </c>
     </row>

--- a/factor_master.xlsx
+++ b/factor_master.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28516"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bkrai\Source\risk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6889FAA2-84FD-4577-9B75-3E5581AFC991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5C3E90-E733-40C9-8788-8E75DA4C1CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="7" xr2:uid="{C31FDC5B-A809-4BFD-99CB-DA02246721F7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="1" activeTab="8" xr2:uid="{C31FDC5B-A809-4BFD-99CB-DA02246721F7}"/>
   </bookViews>
   <sheets>
     <sheet name="legacy" sheetId="5" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1698" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1894" uniqueCount="485">
   <si>
     <t>SPX</t>
   </si>
@@ -1489,6 +1489,57 @@
   </si>
   <si>
     <t>normal</t>
+  </si>
+  <si>
+    <t>CBOE Interest Rate 10 Year T No (^TNX)</t>
+  </si>
+  <si>
+    <t>multiplier</t>
+  </si>
+  <si>
+    <t>return = chg(factor) * multiplier</t>
+  </si>
+  <si>
+    <t>L1  = L0 + chg(F)*M = L0 + R*M</t>
+  </si>
+  <si>
+    <t>^VIX</t>
+  </si>
+  <si>
+    <t>CBOE Volatility Index</t>
+  </si>
+  <si>
+    <t>CBOE VIX VOLATILITY INDEX</t>
+  </si>
+  <si>
+    <t>^MOVE</t>
+  </si>
+  <si>
+    <t>Vol</t>
+  </si>
+  <si>
+    <t>ICE BofAML MOVE Index</t>
+  </si>
+  <si>
+    <t>^OVX</t>
+  </si>
+  <si>
+    <t>CBOE Crude Oil Volatility Index</t>
+  </si>
+  <si>
+    <t>^EVZ</t>
+  </si>
+  <si>
+    <t>CBOE Euro currency Volatility I</t>
+  </si>
+  <si>
+    <t>^GVZ</t>
+  </si>
+  <si>
+    <t>CBOE Gold Volatility Index</t>
+  </si>
+  <si>
+    <t>^VVIX</t>
   </si>
 </sst>
 </file>
@@ -1576,7 +1627,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="32">
     <dxf>
       <border>
         <top style="thin">
@@ -1596,13 +1647,8 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1653,6 +1699,16 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1738,8 +1794,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Table Style 1" pivot="0" count="2" xr9:uid="{26B58CFA-74FB-41FD-AB02-EC6D3EA4F4A1}">
-      <tableStyleElement type="wholeTable" dxfId="28"/>
-      <tableStyleElement type="headerRow" dxfId="27"/>
+      <tableStyleElement type="wholeTable" dxfId="31"/>
+      <tableStyleElement type="headerRow" dxfId="30"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1824,20 +1880,28 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6DAD1482-C63D-400D-9F51-F22A8E35CAD8}" name="data" displayName="data" ref="A1:K73" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{740DC173-AAC9-4239-A44E-C43F8517304D}" name="asset_class" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{A3BC3BB8-0420-458E-AECD-FD567519FA40}" name="region" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{0E50B2E3-0362-41DB-ACC2-478CC6F618A4}" name="factor_name" dataDxfId="22"/>
-    <tableColumn id="8" xr3:uid="{02943B27-7FCB-4450-B8E0-CF0DB6CF5CCA}" name="factor_name_new" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{D181BF84-863F-4FD0-B518-14EA5B0FB18E}" name="description_override" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{1C40DF9B-2910-4DE6-A188-563938E39797}" name="Description_GPT" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{1806E074-6CB5-47AB-8FA3-EF0F6E429062}" name="Underlying" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{21539C17-C1CC-4FA9-A0E1-A2F8FF8AB52C}" name="Active" dataDxfId="17"/>
-    <tableColumn id="37" xr3:uid="{DE50B7AE-5F67-471C-BE48-8BFA5076EDB0}" name="hyper_factor" dataDxfId="16"/>
-    <tableColumn id="10" xr3:uid="{494805E4-EBB6-47FD-9BC2-8DAD9FB9D3FA}" name="composite" dataDxfId="15"/>
-    <tableColumn id="9" xr3:uid="{5A601067-D384-419C-A711-AD3034F77E28}" name="description" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6DAD1482-C63D-400D-9F51-F22A8E35CAD8}" name="data" displayName="data" ref="A1:O80" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{740DC173-AAC9-4239-A44E-C43F8517304D}" name="asset_class" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{A3BC3BB8-0420-458E-AECD-FD567519FA40}" name="region" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{0E50B2E3-0362-41DB-ACC2-478CC6F618A4}" name="factor_name" dataDxfId="25"/>
+    <tableColumn id="8" xr3:uid="{02943B27-7FCB-4450-B8E0-CF0DB6CF5CCA}" name="factor_name_new" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{D181BF84-863F-4FD0-B518-14EA5B0FB18E}" name="description_override" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{1C40DF9B-2910-4DE6-A188-563938E39797}" name="Description_GPT" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{1806E074-6CB5-47AB-8FA3-EF0F6E429062}" name="Underlying" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{21539C17-C1CC-4FA9-A0E1-A2F8FF8AB52C}" name="Active" dataDxfId="20"/>
+    <tableColumn id="37" xr3:uid="{DE50B7AE-5F67-471C-BE48-8BFA5076EDB0}" name="hyper_factor" dataDxfId="19"/>
+    <tableColumn id="10" xr3:uid="{494805E4-EBB6-47FD-9BC2-8DAD9FB9D3FA}" name="composite" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{5A601067-D384-419C-A711-AD3034F77E28}" name="description" dataDxfId="17">
       <calculatedColumnFormula>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{C400A641-F032-4829-A2CD-62831D657B37}" name="source" dataDxfId="16"/>
+    <tableColumn id="12" xr3:uid="{BC682952-ADA8-4869-A16F-B9E7BC86E430}" name="diffusion_type" dataDxfId="15"/>
+    <tableColumn id="16" xr3:uid="{A99CC35E-FB67-451C-BF9C-DA8D933B1B0C}" name="multiplier" dataDxfId="2">
+      <calculatedColumnFormula array="1">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{64EF0381-B0C5-4226-B34E-0F9752A4A840}" name="ticker" dataDxfId="14">
+      <calculatedColumnFormula>data[[#This Row],[factor_name]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3597,7 +3661,7 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A08F2F-299B-47F7-8064-36693758F4E3}">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3625,11 +3689,11 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="str" cm="1">
-        <f t="array" ref="A2:A56">_xlfn._xlws.FILTER(data[factor_name],data[Active]*NOT(data[composite]))</f>
+        <f t="array" ref="A2:A59">_xlfn._xlws.FILTER(data[factor_name],data[Active]*NOT(data[composite]))</f>
         <v>SPY</v>
       </c>
       <c r="B2" t="str" cm="1">
-        <f t="array" ref="B2:E56">INDEX(data[],_xlfn.XMATCH(_xlfn.ANCHORARRAY(A2),data[factor_name]),_xlfn.XMATCH(B1:E1,data[#Headers]))</f>
+        <f t="array" ref="B2:E59">INDEX(data[],_xlfn.XMATCH(_xlfn.ANCHORARRAY(A2),data[factor_name]),_xlfn.XMATCH(B1:E1,data[#Headers]))</f>
         <v>Equities</v>
       </c>
       <c r="C2" t="str">
@@ -4273,7 +4337,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="str">
-        <v>SHY</v>
+        <v>^TNX</v>
       </c>
       <c r="B40" t="str">
         <v>Rates</v>
@@ -4284,13 +4348,13 @@
       <c r="D40">
         <v>0</v>
       </c>
-      <c r="E40" t="str">
-        <v>iShares 1-3 Year Treasury Bond ETF</v>
+      <c r="E40">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="str">
-        <v>IEI</v>
+        <v>SHY</v>
       </c>
       <c r="B41" t="str">
         <v>Rates</v>
@@ -4302,12 +4366,12 @@
         <v>0</v>
       </c>
       <c r="E41" t="str">
-        <v>iShares 3-7 Year Treasury Bond ETF</v>
+        <v>iShares 1-3 Year Treasury Bond ETF</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="str">
-        <v>IEF</v>
+        <v>IEI</v>
       </c>
       <c r="B42" t="str">
         <v>Rates</v>
@@ -4316,15 +4380,15 @@
         <v>USD</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" t="str">
-        <v>iShares 7-10 Year Treasury Bond ETF</v>
+        <v>iShares 3-7 Year Treasury Bond ETF</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="str">
-        <v>TLT</v>
+        <v>IEF</v>
       </c>
       <c r="B43" t="str">
         <v>Rates</v>
@@ -4333,15 +4397,15 @@
         <v>USD</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" t="str">
-        <v>iShares 20+ Year Treasury Bond ETF</v>
+        <v>iShares 7-10 Year Treasury Bond ETF</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="str">
-        <v>TIP</v>
+        <v>TLT</v>
       </c>
       <c r="B44" t="str">
         <v>Rates</v>
@@ -4353,12 +4417,12 @@
         <v>0</v>
       </c>
       <c r="E44" t="str">
-        <v>iShares TIPS Bond ETF</v>
+        <v>iShares 20+ Year Treasury Bond ETF</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="str">
-        <v>VTIP</v>
+        <v>TIP</v>
       </c>
       <c r="B45" t="str">
         <v>Rates</v>
@@ -4369,13 +4433,13 @@
       <c r="D45">
         <v>0</v>
       </c>
-      <c r="E45">
-        <v>0</v>
+      <c r="E45" t="str">
+        <v>iShares TIPS Bond ETF</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="str">
-        <v>AGNC</v>
+        <v>VTIP</v>
       </c>
       <c r="B46" t="str">
         <v>Rates</v>
@@ -4386,13 +4450,13 @@
       <c r="D46">
         <v>0</v>
       </c>
-      <c r="E46" t="str">
-        <v>AGNC Investment Corp.</v>
+      <c r="E46">
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="str">
-        <v>VMBS</v>
+        <v>AGNC</v>
       </c>
       <c r="B47" t="str">
         <v>Rates</v>
@@ -4403,13 +4467,13 @@
       <c r="D47">
         <v>0</v>
       </c>
-      <c r="E47">
-        <v>0</v>
+      <c r="E47" t="str">
+        <v>AGNC Investment Corp.</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="str">
-        <v>CMBS</v>
+        <v>VMBS</v>
       </c>
       <c r="B48" t="str">
         <v>Rates</v>
@@ -4426,41 +4490,41 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="str">
-        <v>EMB</v>
+        <v>CMBS</v>
       </c>
       <c r="B49" t="str">
         <v>Rates</v>
       </c>
       <c r="C49" t="str">
-        <v>EM</v>
+        <v>USD</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
-      <c r="E49" t="str">
-        <v>iShares J.P. Morgan USD Emerging Markets Bond ETF</v>
+      <c r="E49">
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="str">
-        <v>GLD</v>
+        <v>EMB</v>
       </c>
       <c r="B50" t="str">
-        <v>Commodities</v>
+        <v>Rates</v>
       </c>
       <c r="C50" t="str">
-        <v>USD</v>
+        <v>EM</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50" t="str">
-        <v>SPDR Gold Shares</v>
+        <v>iShares J.P. Morgan USD Emerging Markets Bond ETF</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="str">
-        <v>SLV</v>
+        <v>GLD</v>
       </c>
       <c r="B51" t="str">
         <v>Commodities</v>
@@ -4472,12 +4536,12 @@
         <v>0</v>
       </c>
       <c r="E51" t="str">
-        <v>iShares Silver Trust</v>
+        <v>SPDR Gold Shares</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="str">
-        <v>USO</v>
+        <v>SLV</v>
       </c>
       <c r="B52" t="str">
         <v>Commodities</v>
@@ -4489,15 +4553,15 @@
         <v>0</v>
       </c>
       <c r="E52" t="str">
-        <v>United States Oil Fund</v>
+        <v>iShares Silver Trust</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="str">
-        <v>UUP</v>
+        <v>USO</v>
       </c>
       <c r="B53" t="str">
-        <v>Currencies</v>
+        <v>Commodities</v>
       </c>
       <c r="C53" t="str">
         <v>USD</v>
@@ -4506,57 +4570,108 @@
         <v>0</v>
       </c>
       <c r="E53" t="str">
-        <v>Invesco DB US Dollar Index Bullish Fund</v>
+        <v>United States Oil Fund</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="str">
-        <v>FXE</v>
+        <v>UUP</v>
       </c>
       <c r="B54" t="str">
         <v>Currencies</v>
       </c>
       <c r="C54" t="str">
-        <v>EUR</v>
+        <v>USD</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54" t="str">
-        <v>Invesco CurrencyShares Euro Trust</v>
+        <v>Invesco DB US Dollar Index Bullish Fund</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="str">
-        <v>FXY</v>
+        <v>FXE</v>
       </c>
       <c r="B55" t="str">
         <v>Currencies</v>
       </c>
       <c r="C55" t="str">
-        <v>JPY</v>
+        <v>EUR</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55" t="str">
-        <v>Invesco CurrencyShares Japanese Yen Trust</v>
+        <v>Invesco CurrencyShares Euro Trust</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="str">
+        <v>FXY</v>
+      </c>
+      <c r="B56" t="str">
+        <v>Currencies</v>
+      </c>
+      <c r="C56" t="str">
+        <v>JPY</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56" t="str">
+        <v>Invesco CurrencyShares Japanese Yen Trust</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" t="str">
+        <v>^VIX</v>
+      </c>
+      <c r="B57" t="str">
+        <v>Vol</v>
+      </c>
+      <c r="C57" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57" t="str">
+        <v>CBOE Volatility Index</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" t="str">
+        <v>^MOVE</v>
+      </c>
+      <c r="B58" t="str">
+        <v>Vol</v>
+      </c>
+      <c r="C58" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58" t="str">
+        <v>ICE BofAML MOVE Index</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" t="str">
         <v>MWTIX</v>
       </c>
-      <c r="B56" t="str">
+      <c r="B59" t="str">
         <v>Portfolio</v>
       </c>
-      <c r="C56" t="str">
+      <c r="C59" t="str">
         <v>USD</v>
       </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-      <c r="E56">
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
         <v>0</v>
       </c>
     </row>
@@ -8890,7 +9005,7 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -8917,7 +9032,7 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C45" t="s">
         <v>126</v>
@@ -8944,7 +9059,7 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C46" t="s">
         <v>131</v>
@@ -8971,7 +9086,7 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C47" t="s">
         <v>49</v>
@@ -8998,7 +9113,7 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C48" t="s">
         <v>135</v>
@@ -9025,7 +9140,7 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C49" t="s">
         <v>344</v>
@@ -9052,7 +9167,7 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C50" t="s">
         <v>53</v>
@@ -9079,7 +9194,7 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C51" t="s">
         <v>14</v>
@@ -9106,7 +9221,7 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C52" t="s">
         <v>15</v>
@@ -9133,7 +9248,7 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C53" t="s">
         <v>346</v>
@@ -9160,7 +9275,7 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C54" t="s">
         <v>345</v>
@@ -9189,7 +9304,7 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C55" t="s">
         <v>97</v>
@@ -9216,7 +9331,7 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C56" t="s">
         <v>349</v>
@@ -9243,7 +9358,7 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C57" t="s">
         <v>75</v>
@@ -9270,7 +9385,7 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C58" t="s">
         <v>99</v>
@@ -9297,7 +9412,7 @@
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C59" t="s">
         <v>57</v>
@@ -9324,7 +9439,7 @@
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C60" t="s">
         <v>59</v>
@@ -9351,7 +9466,7 @@
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C61" t="s">
         <v>61</v>
@@ -9378,7 +9493,7 @@
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C62" t="s">
         <v>63</v>
@@ -9405,7 +9520,7 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C63" t="s">
         <v>66</v>
@@ -9432,7 +9547,7 @@
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C64" t="s">
         <v>69</v>
@@ -9459,7 +9574,7 @@
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -9504,7 +9619,7 @@
       </c>
       <c r="B1" cm="1">
         <f t="array" ref="B1:B9">_xlfn.XMATCH(A1:A9,data[factor_name])</f>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D1" cm="1">
         <f t="array" ref="D1:D32">_xlfn.XLOOKUP(_xlfn._TRO_ALL(A:A),data[factor_name],data[Active])</f>
@@ -9516,7 +9631,7 @@
         <v>334</v>
       </c>
       <c r="B2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -9527,7 +9642,7 @@
         <v>335</v>
       </c>
       <c r="B3">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -9538,7 +9653,7 @@
         <v>336</v>
       </c>
       <c r="B4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -9549,7 +9664,7 @@
         <v>337</v>
       </c>
       <c r="B5">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -10292,7 +10407,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:C14">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$E2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10307,9 +10422,14 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C29859C-7358-4E2F-B5CC-7696F1DAC449}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:M140"/>
+  <dimension ref="A1:T80"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="T3" sqref="T3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -10322,7 +10442,7 @@
     <col min="8" max="9" width="8.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>322</v>
       </c>
@@ -10356,8 +10476,20 @@
       <c r="K1" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L1" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>39</v>
       </c>
@@ -10392,9 +10524,27 @@
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>S&amp;P 500</v>
       </c>
-      <c r="L2" s="2"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L2" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="N2" s="4" cm="1">
+        <f t="array" ref="N2">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="O2" s="4" t="str">
+        <f>data[[#This Row],[factor_name]]</f>
+        <v>SPY</v>
+      </c>
+      <c r="P2" s="2"/>
+      <c r="Q2" t="b" cm="1">
+        <f t="array" ref="Q2:Q80">MOD(_xlfn.SEQUENCE(ROWS(data[])),3)=1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>39</v>
       </c>
@@ -10429,8 +10579,28 @@
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>Russell 2000</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L3" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="N3" s="4" cm="1">
+        <f t="array" ref="N3">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="O3" s="4" t="str">
+        <f>data[[#This Row],[factor_name]]</f>
+        <v>IWM</v>
+      </c>
+      <c r="Q3" t="b">
+        <v>0</v>
+      </c>
+      <c r="T3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>39</v>
       </c>
@@ -10465,8 +10635,25 @@
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>S&amp;P 400</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L4" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="N4" s="4" cm="1">
+        <f t="array" ref="N4">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="O4" s="4" t="str">
+        <f>data[[#This Row],[factor_name]]</f>
+        <v>MDY</v>
+      </c>
+      <c r="Q4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>39</v>
       </c>
@@ -10497,8 +10684,28 @@
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>S&amp;P 500 EW</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L5" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="N5" s="4" cm="1">
+        <f t="array" ref="N5">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="O5" s="4" t="str">
+        <f>data[[#This Row],[factor_name]]</f>
+        <v>RSP</v>
+      </c>
+      <c r="Q5" t="b">
+        <v>1</v>
+      </c>
+      <c r="T5" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>39</v>
       </c>
@@ -10533,8 +10740,25 @@
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>Nasdaq 100</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L6" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="N6" s="4" cm="1">
+        <f t="array" ref="N6">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="O6" s="4" t="str">
+        <f>data[[#This Row],[factor_name]]</f>
+        <v>QQQ</v>
+      </c>
+      <c r="Q6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>39</v>
       </c>
@@ -10569,8 +10793,25 @@
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>Dow Jones 30</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L7" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="N7" s="4" cm="1">
+        <f t="array" ref="N7">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="O7" s="4" t="str">
+        <f>data[[#This Row],[factor_name]]</f>
+        <v>DIA</v>
+      </c>
+      <c r="Q7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>425</v>
       </c>
@@ -10601,8 +10842,25 @@
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>Technology</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L8" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="N8" s="4" cm="1">
+        <f t="array" ref="N8">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="O8" s="4" t="str">
+        <f>data[[#This Row],[factor_name]]</f>
+        <v>XLK</v>
+      </c>
+      <c r="Q8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>425</v>
       </c>
@@ -10633,8 +10891,25 @@
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>Industrials</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L9" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="N9" s="4" cm="1">
+        <f t="array" ref="N9">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="O9" s="4" t="str">
+        <f>data[[#This Row],[factor_name]]</f>
+        <v>XLI</v>
+      </c>
+      <c r="Q9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>425</v>
       </c>
@@ -10665,8 +10940,25 @@
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>Financials</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L10" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="N10" s="4" cm="1">
+        <f t="array" ref="N10">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="O10" s="4" t="str">
+        <f>data[[#This Row],[factor_name]]</f>
+        <v>XLF</v>
+      </c>
+      <c r="Q10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>425</v>
       </c>
@@ -10697,8 +10989,25 @@
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>Regional Banks</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L11" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="N11" s="4" cm="1">
+        <f t="array" ref="N11">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="O11" s="4" t="str">
+        <f>data[[#This Row],[factor_name]]</f>
+        <v>KRE</v>
+      </c>
+      <c r="Q11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>425</v>
       </c>
@@ -10729,8 +11038,25 @@
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>Communications</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L12" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="N12" s="4" cm="1">
+        <f t="array" ref="N12">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="O12" s="4" t="str">
+        <f>data[[#This Row],[factor_name]]</f>
+        <v>XLC</v>
+      </c>
+      <c r="Q12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>425</v>
       </c>
@@ -10761,8 +11087,25 @@
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>Energy</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L13" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="N13" s="4" cm="1">
+        <f t="array" ref="N13">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="O13" s="4" t="str">
+        <f>data[[#This Row],[factor_name]]</f>
+        <v>XLE</v>
+      </c>
+      <c r="Q13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>425</v>
       </c>
@@ -10793,8 +11136,25 @@
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>Discretionary</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L14" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="N14" s="4" cm="1">
+        <f t="array" ref="N14">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="O14" s="4" t="str">
+        <f>data[[#This Row],[factor_name]]</f>
+        <v>XLY</v>
+      </c>
+      <c r="Q14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>425</v>
       </c>
@@ -10825,8 +11185,25 @@
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>Materials</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L15" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="N15" s="4" cm="1">
+        <f t="array" ref="N15">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="O15" s="4" t="str">
+        <f>data[[#This Row],[factor_name]]</f>
+        <v>XLB</v>
+      </c>
+      <c r="Q15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>425</v>
       </c>
@@ -10857,8 +11234,25 @@
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>Health Care</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L16" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="N16" s="4" cm="1">
+        <f t="array" ref="N16">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="O16" s="4" t="str">
+        <f>data[[#This Row],[factor_name]]</f>
+        <v>XLV</v>
+      </c>
+      <c r="Q16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>425</v>
       </c>
@@ -10889,8 +11283,25 @@
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>Utilities</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L17" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="N17" s="4" cm="1">
+        <f t="array" ref="N17">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="O17" s="4" t="str">
+        <f>data[[#This Row],[factor_name]]</f>
+        <v>XLU</v>
+      </c>
+      <c r="Q17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>425</v>
       </c>
@@ -10921,8 +11332,25 @@
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>Staples</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L18" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="N18" s="4" cm="1">
+        <f t="array" ref="N18">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="O18" s="4" t="str">
+        <f>data[[#This Row],[factor_name]]</f>
+        <v>XLP</v>
+      </c>
+      <c r="Q18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>39</v>
       </c>
@@ -10951,8 +11379,25 @@
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>iShares U.S. Real Estate ETF</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L19" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="N19" s="4" cm="1">
+        <f t="array" ref="N19">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="O19" s="4" t="str">
+        <f>data[[#This Row],[factor_name]]</f>
+        <v>IYR</v>
+      </c>
+      <c r="Q19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>39</v>
       </c>
@@ -10981,8 +11426,25 @@
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>Vanguard Real Estate ETF</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L20" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="N20" s="4" cm="1">
+        <f t="array" ref="N20">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="O20" s="4" t="str">
+        <f>data[[#This Row],[factor_name]]</f>
+        <v>VNQ</v>
+      </c>
+      <c r="Q20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>39</v>
       </c>
@@ -11013,8 +11475,25 @@
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>AI</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L21" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="N21" s="4" cm="1">
+        <f t="array" ref="N21">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="O21" s="4" t="str">
+        <f>data[[#This Row],[factor_name]]</f>
+        <v>AIQ</v>
+      </c>
+      <c r="Q21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>39</v>
       </c>
@@ -11043,8 +11522,25 @@
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>Clean Energy</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L22" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="N22" s="4" cm="1">
+        <f t="array" ref="N22">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="O22" s="4" t="str">
+        <f>data[[#This Row],[factor_name]]</f>
+        <v>ICLN</v>
+      </c>
+      <c r="Q22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>39</v>
       </c>
@@ -11075,8 +11571,25 @@
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>Preferred</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L23" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="N23" s="4" cm="1">
+        <f t="array" ref="N23">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="O23" s="4" t="str">
+        <f>data[[#This Row],[factor_name]]</f>
+        <v>PFF</v>
+      </c>
+      <c r="Q23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>39</v>
       </c>
@@ -11111,8 +11624,25 @@
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>Eurostoxx 50</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L24" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="N24" s="4" cm="1">
+        <f t="array" ref="N24">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="O24" s="4" t="str">
+        <f>data[[#This Row],[factor_name]]</f>
+        <v>FEZ</v>
+      </c>
+      <c r="Q24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>39</v>
       </c>
@@ -11143,8 +11673,25 @@
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>Eurostoxx Banks</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L25" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="N25" s="4" cm="1">
+        <f t="array" ref="N25">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="O25" s="4" t="str">
+        <f>data[[#This Row],[factor_name]]</f>
+        <v>SX7E</v>
+      </c>
+      <c r="Q25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>39</v>
       </c>
@@ -11175,8 +11722,25 @@
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>iShares FTSE United Kingdom ETF</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L26" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="N26" s="4" cm="1">
+        <f t="array" ref="N26">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="O26" s="4" t="str">
+        <f>data[[#This Row],[factor_name]]</f>
+        <v>EWU</v>
+      </c>
+      <c r="Q26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>39</v>
       </c>
@@ -11211,8 +11775,25 @@
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>DAX (Germany)</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L27" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="N27" s="4" cm="1">
+        <f t="array" ref="N27">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="O27" s="4" t="str">
+        <f>data[[#This Row],[factor_name]]</f>
+        <v>DAX</v>
+      </c>
+      <c r="Q27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>39</v>
       </c>
@@ -11243,8 +11824,25 @@
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>iShares MSCI Canada ETF</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L28" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="N28" s="4" cm="1">
+        <f t="array" ref="N28">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="O28" s="4" t="str">
+        <f>data[[#This Row],[factor_name]]</f>
+        <v>EWC</v>
+      </c>
+      <c r="Q28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>39</v>
       </c>
@@ -11275,8 +11873,25 @@
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>FTSE MIB (Italy)</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L29" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="N29" s="4" cm="1">
+        <f t="array" ref="N29">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="O29" s="4" t="str">
+        <f>data[[#This Row],[factor_name]]</f>
+        <v>FTSEMIB.MI</v>
+      </c>
+      <c r="Q29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>39</v>
       </c>
@@ -11311,8 +11926,25 @@
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>CAC 40 (France)</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L30" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="N30" s="4" cm="1">
+        <f t="array" ref="N30">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="O30" s="4" t="str">
+        <f>data[[#This Row],[factor_name]]</f>
+        <v>CAC</v>
+      </c>
+      <c r="Q30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>39</v>
       </c>
@@ -11343,8 +11975,25 @@
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>iShares MSCI Italy ETF</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L31" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="N31" s="4" cm="1">
+        <f t="array" ref="N31">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="O31" s="4" t="str">
+        <f>data[[#This Row],[factor_name]]</f>
+        <v>EWI</v>
+      </c>
+      <c r="Q31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>39</v>
       </c>
@@ -11379,8 +12028,25 @@
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>IBEX 35 (Spain)</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L32" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="N32" s="4" cm="1">
+        <f t="array" ref="N32">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="O32" s="4" t="str">
+        <f>data[[#This Row],[factor_name]]</f>
+        <v>^IBEX</v>
+      </c>
+      <c r="Q32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>39</v>
       </c>
@@ -11411,8 +12077,25 @@
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>iShares MSCI Spain ETF</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L33" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="N33" s="4" cm="1">
+        <f t="array" ref="N33">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="O33" s="4" t="str">
+        <f>data[[#This Row],[factor_name]]</f>
+        <v>EWP</v>
+      </c>
+      <c r="Q33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>39</v>
       </c>
@@ -11447,8 +12130,25 @@
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>Nikkei 225</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L34" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="N34" s="4" cm="1">
+        <f t="array" ref="N34">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="O34" s="4" t="str">
+        <f>data[[#This Row],[factor_name]]</f>
+        <v>^N225</v>
+      </c>
+      <c r="Q34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>39</v>
       </c>
@@ -11483,8 +12183,25 @@
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>TOPIX</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L35" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="N35" s="4" cm="1">
+        <f t="array" ref="N35">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="O35" s="4" t="str">
+        <f>data[[#This Row],[factor_name]]</f>
+        <v>TPX</v>
+      </c>
+      <c r="Q35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>39</v>
       </c>
@@ -11517,8 +12234,25 @@
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>iShares China Large-Cap ETF</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L36" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="N36" s="4" cm="1">
+        <f t="array" ref="N36">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="O36" s="4" t="str">
+        <f>data[[#This Row],[factor_name]]</f>
+        <v>FXI</v>
+      </c>
+      <c r="Q36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>39</v>
       </c>
@@ -11551,8 +12285,25 @@
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>Xtrackers Harvest CSI 300 China A-Shares ETF</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L37" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="N37" s="4" cm="1">
+        <f t="array" ref="N37">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="O37" s="4" t="str">
+        <f>data[[#This Row],[factor_name]]</f>
+        <v>ASHR</v>
+      </c>
+      <c r="Q37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>39</v>
       </c>
@@ -11583,8 +12334,25 @@
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>KraneShares CSI China Internet ETF</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L38" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="N38" s="4" cm="1">
+        <f t="array" ref="N38">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="O38" s="4" t="str">
+        <f>data[[#This Row],[factor_name]]</f>
+        <v>KWEB</v>
+      </c>
+      <c r="Q38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>39</v>
       </c>
@@ -11601,14 +12369,35 @@
       <c r="H39" s="4">
         <v>1</v>
       </c>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
+      <c r="I39" s="4">
+        <v>0</v>
+      </c>
+      <c r="J39" s="4">
+        <v>0</v>
+      </c>
       <c r="K39" s="4">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L39" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="N39" s="4" cm="1">
+        <f t="array" ref="N39">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="O39" s="4" t="str">
+        <f>data[[#This Row],[factor_name]]</f>
+        <v>EEM</v>
+      </c>
+      <c r="Q39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>46</v>
       </c>
@@ -11641,8 +12430,25 @@
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>iShares iBoxx $ Investment Grade Corporate Bond ETF</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L40" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="M40" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="N40" s="4" cm="1">
+        <f t="array" ref="N40">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="O40" s="4" t="str">
+        <f>data[[#This Row],[factor_name]]</f>
+        <v>LQD</v>
+      </c>
+      <c r="Q40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>46</v>
       </c>
@@ -11669,8 +12475,25 @@
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L41" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="N41" s="4" cm="1">
+        <f t="array" ref="N41">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="O41" s="4" t="str">
+        <f>data[[#This Row],[factor_name]]</f>
+        <v>BSV</v>
+      </c>
+      <c r="Q41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>46</v>
       </c>
@@ -11703,8 +12526,25 @@
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>iShares iBoxx $ High Yield Corporate Bond ETF</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L42" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="N42" s="4" cm="1">
+        <f t="array" ref="N42">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="O42" s="4" t="str">
+        <f>data[[#This Row],[factor_name]]</f>
+        <v>HYG</v>
+      </c>
+      <c r="Q42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>46</v>
       </c>
@@ -11733,8 +12573,25 @@
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L43" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="N43" s="4" cm="1">
+        <f t="array" ref="N43">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="O43" s="4" t="str">
+        <f>data[[#This Row],[factor_name]]</f>
+        <v>LQDH</v>
+      </c>
+      <c r="Q43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>46</v>
       </c>
@@ -11763,8 +12620,25 @@
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L44" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="M44" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="N44" s="4" cm="1">
+        <f t="array" ref="N44">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="O44" s="4" t="str">
+        <f>data[[#This Row],[factor_name]]</f>
+        <v>HYGH</v>
+      </c>
+      <c r="Q44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>46</v>
       </c>
@@ -11791,8 +12665,25 @@
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L45" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="N45" s="4" cm="1">
+        <f t="array" ref="N45">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="O45" s="4" t="str">
+        <f>data[[#This Row],[factor_name]]</f>
+        <v>AGG</v>
+      </c>
+      <c r="Q45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>128</v>
       </c>
@@ -11800,192 +12691,299 @@
         <v>40</v>
       </c>
       <c r="C46" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="H46" s="4">
+        <v>1</v>
+      </c>
+      <c r="I46" s="4">
+        <v>0</v>
+      </c>
+      <c r="J46" s="4">
+        <v>0</v>
+      </c>
+      <c r="K46" s="4">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>0</v>
+      </c>
+      <c r="L46" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="M46" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="N46" s="4" cm="1">
+        <f t="array" ref="N46">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>-0.01</v>
+      </c>
+      <c r="O46" s="4" t="str">
+        <f>data[[#This Row],[factor_name]]</f>
+        <v>^TNX</v>
+      </c>
+      <c r="Q46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D47" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4" t="s">
+      <c r="E47" s="4"/>
+      <c r="F47" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G46" s="4" t="s">
+      <c r="G47" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="H46" s="4">
-        <v>1</v>
-      </c>
-      <c r="I46" s="4">
-        <v>0</v>
-      </c>
-      <c r="J46" s="4">
-        <v>0</v>
-      </c>
-      <c r="K46" s="4" t="str">
+      <c r="H47" s="4">
+        <v>1</v>
+      </c>
+      <c r="I47" s="4">
+        <v>0</v>
+      </c>
+      <c r="J47" s="4">
+        <v>0</v>
+      </c>
+      <c r="K47" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>iShares 1-3 Year Treasury Bond ETF</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
+      <c r="L47" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="M47" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="N47" s="4" cm="1">
+        <f t="array" ref="N47">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="O47" s="4" t="str">
+        <f>data[[#This Row],[factor_name]]</f>
+        <v>SHY</v>
+      </c>
+      <c r="Q47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B48" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C48" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D48" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4" t="s">
+      <c r="E48" s="4"/>
+      <c r="F48" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="G47" s="4" t="s">
+      <c r="G48" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="H47" s="4">
-        <v>1</v>
-      </c>
-      <c r="I47" s="4">
-        <v>0</v>
-      </c>
-      <c r="J47" s="4">
-        <v>0</v>
-      </c>
-      <c r="K47" s="4" t="str">
+      <c r="H48" s="4">
+        <v>1</v>
+      </c>
+      <c r="I48" s="4">
+        <v>0</v>
+      </c>
+      <c r="J48" s="4">
+        <v>0</v>
+      </c>
+      <c r="K48" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>iShares 3-7 Year Treasury Bond ETF</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
+      <c r="L48" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="M48" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="N48" s="4" cm="1">
+        <f t="array" ref="N48">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="O48" s="4" t="str">
+        <f>data[[#This Row],[factor_name]]</f>
+        <v>IEI</v>
+      </c>
+      <c r="Q48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B49" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C49" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D49" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4" t="s">
+      <c r="E49" s="4"/>
+      <c r="F49" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="G48" s="4" t="s">
+      <c r="G49" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="H48" s="4">
-        <v>1</v>
-      </c>
-      <c r="I48" s="4">
-        <v>1</v>
-      </c>
-      <c r="J48" s="4">
-        <v>0</v>
-      </c>
-      <c r="K48" s="4" t="str">
+      <c r="H49" s="4">
+        <v>1</v>
+      </c>
+      <c r="I49" s="4">
+        <v>1</v>
+      </c>
+      <c r="J49" s="4">
+        <v>0</v>
+      </c>
+      <c r="K49" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>iShares 7-10 Year Treasury Bond ETF</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
+      <c r="L49" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="M49" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="N49" s="4" cm="1">
+        <f t="array" ref="N49">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="O49" s="4" t="str">
+        <f>data[[#This Row],[factor_name]]</f>
+        <v>IEF</v>
+      </c>
+      <c r="Q49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B50" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C50" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D50" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4" t="s">
+      <c r="E50" s="4"/>
+      <c r="F50" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G49" s="4" t="s">
+      <c r="G50" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="H49" s="4">
-        <v>1</v>
-      </c>
-      <c r="I49" s="4">
-        <v>0</v>
-      </c>
-      <c r="J49" s="4">
-        <v>0</v>
-      </c>
-      <c r="K49" s="4" t="str">
+      <c r="H50" s="4">
+        <v>1</v>
+      </c>
+      <c r="I50" s="4">
+        <v>0</v>
+      </c>
+      <c r="J50" s="4">
+        <v>0</v>
+      </c>
+      <c r="K50" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>iShares 20+ Year Treasury Bond ETF</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
+      <c r="L50" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="M50" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="N50" s="4" cm="1">
+        <f t="array" ref="N50">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="O50" s="4" t="str">
+        <f>data[[#This Row],[factor_name]]</f>
+        <v>TLT</v>
+      </c>
+      <c r="Q50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B51" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C51" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4" t="s">
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="G50" s="4" t="s">
+      <c r="G51" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="H50" s="4">
-        <v>1</v>
-      </c>
-      <c r="I50" s="4">
-        <v>0</v>
-      </c>
-      <c r="J50" s="4">
-        <v>0</v>
-      </c>
-      <c r="K50" s="4" t="str">
+      <c r="H51" s="4">
+        <v>1</v>
+      </c>
+      <c r="I51" s="4">
+        <v>0</v>
+      </c>
+      <c r="J51" s="4">
+        <v>0</v>
+      </c>
+      <c r="K51" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>iShares TIPS Bond ETF</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4">
-        <v>1</v>
-      </c>
-      <c r="I51" s="4">
-        <v>0</v>
-      </c>
-      <c r="J51" s="4">
-        <v>0</v>
-      </c>
-      <c r="K51" s="4"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L51" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="M51" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="N51" s="4" cm="1">
+        <f t="array" ref="N51">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="O51" s="4" t="str">
+        <f>data[[#This Row],[factor_name]]</f>
+        <v>TIP</v>
+      </c>
+      <c r="Q51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>128</v>
       </c>
@@ -11993,123 +12991,188 @@
         <v>40</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>53</v>
+        <v>344</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
-      <c r="F52" s="4" t="s">
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4">
+        <v>1</v>
+      </c>
+      <c r="I52" s="4">
+        <v>0</v>
+      </c>
+      <c r="J52" s="4">
+        <v>0</v>
+      </c>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="M52" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="N52" s="4" cm="1">
+        <f t="array" ref="N52">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="O52" s="4" t="str">
+        <f>data[[#This Row],[factor_name]]</f>
+        <v>VTIP</v>
+      </c>
+      <c r="Q52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G52" s="4" t="s">
+      <c r="G53" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="H52" s="4">
-        <v>0</v>
-      </c>
-      <c r="I52" s="4">
-        <v>0</v>
-      </c>
-      <c r="J52" s="4">
-        <v>0</v>
-      </c>
-      <c r="K52" s="4" t="str">
+      <c r="H53" s="4">
+        <v>0</v>
+      </c>
+      <c r="I53" s="4">
+        <v>0</v>
+      </c>
+      <c r="J53" s="4">
+        <v>0</v>
+      </c>
+      <c r="K53" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>iShares MBS ETF</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="4" t="s">
+      <c r="L53" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="M53" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="N53" s="4" cm="1">
+        <f t="array" ref="N53">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="O53" s="4" t="str">
+        <f>data[[#This Row],[factor_name]]</f>
+        <v>MBB</v>
+      </c>
+      <c r="Q53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B54" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C54" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" t="s">
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" t="s">
         <v>152</v>
       </c>
-      <c r="G53" s="4" t="s">
+      <c r="G54" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="H53" s="4">
-        <v>0</v>
-      </c>
-      <c r="I53" s="4">
-        <v>0</v>
-      </c>
-      <c r="J53" s="4">
-        <v>0</v>
-      </c>
-      <c r="K53" s="4" t="str">
+      <c r="H54" s="4">
+        <v>0</v>
+      </c>
+      <c r="I54" s="4">
+        <v>0</v>
+      </c>
+      <c r="J54" s="4">
+        <v>0</v>
+      </c>
+      <c r="K54" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>Simplify Mortgage Backed Securities ETF</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="4" t="s">
+      <c r="L54" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="M54" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="N54" s="4" cm="1">
+        <f t="array" ref="N54">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="O54" s="4" t="str">
+        <f>data[[#This Row],[factor_name]]</f>
+        <v>MBTA</v>
+      </c>
+      <c r="Q54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B55" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C55" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4" t="s">
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G54" s="4" t="s">
+      <c r="G55" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H54" s="4">
-        <v>1</v>
-      </c>
-      <c r="I54" s="4">
-        <v>0</v>
-      </c>
-      <c r="J54" s="4">
-        <v>0</v>
-      </c>
-      <c r="K54" s="4" t="str">
+      <c r="H55" s="4">
+        <v>1</v>
+      </c>
+      <c r="I55" s="4">
+        <v>0</v>
+      </c>
+      <c r="J55" s="4">
+        <v>0</v>
+      </c>
+      <c r="K55" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>AGNC Investment Corp.</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4">
-        <v>1</v>
-      </c>
-      <c r="I55" s="4">
-        <v>0</v>
-      </c>
-      <c r="J55" s="4">
-        <v>0</v>
-      </c>
-      <c r="K55" s="4">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L55" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="M55" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="N55" s="4" cm="1">
+        <f t="array" ref="N55">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="O55" s="4" t="str">
+        <f>data[[#This Row],[factor_name]]</f>
+        <v>AGNC</v>
+      </c>
+      <c r="Q55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>128</v>
       </c>
@@ -12117,7 +13180,7 @@
         <v>40</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
@@ -12136,149 +13199,230 @@
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L56" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="M56" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="N56" s="4" cm="1">
+        <f t="array" ref="N56">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="O56" s="4" t="str">
+        <f>data[[#This Row],[factor_name]]</f>
+        <v>VMBS</v>
+      </c>
+      <c r="Q56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>128</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>97</v>
+        <v>345</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
-      <c r="F57" s="4" t="s">
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4">
+        <v>1</v>
+      </c>
+      <c r="I57" s="4">
+        <v>0</v>
+      </c>
+      <c r="J57" s="4">
+        <v>0</v>
+      </c>
+      <c r="K57" s="4">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>0</v>
+      </c>
+      <c r="L57" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="M57" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="N57" s="4" cm="1">
+        <f t="array" ref="N57">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="O57" s="4" t="str">
+        <f>data[[#This Row],[factor_name]]</f>
+        <v>CMBS</v>
+      </c>
+      <c r="Q57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="G57" s="4" t="s">
+      <c r="G58" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="H57" s="4">
-        <v>1</v>
-      </c>
-      <c r="I57" s="4">
-        <v>0</v>
-      </c>
-      <c r="J57" s="4">
-        <v>0</v>
-      </c>
-      <c r="K57" s="4" t="str">
+      <c r="H58" s="4">
+        <v>1</v>
+      </c>
+      <c r="I58" s="4">
+        <v>0</v>
+      </c>
+      <c r="J58" s="4">
+        <v>0</v>
+      </c>
+      <c r="K58" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>iShares J.P. Morgan USD Emerging Markets Bond ETF</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4">
-        <v>0</v>
-      </c>
-      <c r="I58" s="4">
-        <v>0</v>
-      </c>
-      <c r="J58" s="4">
-        <v>0</v>
-      </c>
-      <c r="K58" s="4">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L58" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="M58" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="N58" s="4" cm="1">
+        <f t="array" ref="N58">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="O58" s="4" t="str">
+        <f>data[[#This Row],[factor_name]]</f>
+        <v>EMB</v>
+      </c>
+      <c r="Q58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4">
+        <v>0</v>
+      </c>
+      <c r="I59" s="4">
+        <v>0</v>
+      </c>
+      <c r="J59" s="4">
+        <v>0</v>
+      </c>
+      <c r="K59" s="4">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>0</v>
+      </c>
+      <c r="L59" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="M59" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="N59" s="4" cm="1">
+        <f t="array" ref="N59">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="O59" s="4" t="str">
+        <f>data[[#This Row],[factor_name]]</f>
+        <v>EMHY</v>
+      </c>
+      <c r="Q59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B60" t="s">
+        <v>74</v>
+      </c>
+      <c r="C60" t="s">
         <v>75</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F60" t="s">
         <v>76</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G60" t="s">
         <v>114</v>
       </c>
-      <c r="H59" s="4">
-        <v>0</v>
-      </c>
-      <c r="I59" s="4">
-        <v>0</v>
-      </c>
-      <c r="J59" s="4">
-        <v>0</v>
-      </c>
-      <c r="K59" s="4" t="str">
+      <c r="H60" s="4">
+        <v>0</v>
+      </c>
+      <c r="I60" s="4">
+        <v>0</v>
+      </c>
+      <c r="J60" s="4">
+        <v>0</v>
+      </c>
+      <c r="K60" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>WisdomTree Emerging Markets Local Debt Fund</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" s="4" t="s">
+      <c r="L60" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="M60" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="N60" s="4" cm="1">
+        <f t="array" ref="N60">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="O60" s="4" t="str">
+        <f>data[[#This Row],[factor_name]]</f>
+        <v>CEW</v>
+      </c>
+      <c r="Q60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B61" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C61" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="H60" s="4">
-        <v>0</v>
-      </c>
-      <c r="I60" s="4">
-        <v>0</v>
-      </c>
-      <c r="J60" s="4">
-        <v>0</v>
-      </c>
-      <c r="K60" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>iShares International Government Bonds ETF</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A61" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="H61" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" s="4">
         <v>0</v>
@@ -12288,10 +13432,27 @@
       </c>
       <c r="K61" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>SPDR Gold Shares</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+        <v>iShares International Government Bonds ETF</v>
+      </c>
+      <c r="L61" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="M61" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="N61" s="4" cm="1">
+        <f t="array" ref="N61">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="O61" s="4" t="str">
+        <f>data[[#This Row],[factor_name]]</f>
+        <v>IGOV</v>
+      </c>
+      <c r="Q61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>56</v>
       </c>
@@ -12299,15 +13460,15 @@
         <v>40</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H62" s="4">
         <v>1</v>
@@ -12320,10 +13481,27 @@
       </c>
       <c r="K62" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>iShares Silver Trust</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+        <v>SPDR Gold Shares</v>
+      </c>
+      <c r="L62" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="M62" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="N62" s="4" cm="1">
+        <f t="array" ref="N62">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="O62" s="4" t="str">
+        <f>data[[#This Row],[factor_name]]</f>
+        <v>GLD</v>
+      </c>
+      <c r="Q62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>56</v>
       </c>
@@ -12331,15 +13509,15 @@
         <v>40</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="F63" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H63" s="4">
         <v>1</v>
@@ -12352,10 +13530,27 @@
       </c>
       <c r="K63" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>United States Oil Fund</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+        <v>iShares Silver Trust</v>
+      </c>
+      <c r="L63" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="M63" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="N63" s="4" cm="1">
+        <f t="array" ref="N63">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="O63" s="4" t="str">
+        <f>data[[#This Row],[factor_name]]</f>
+        <v>SLV</v>
+      </c>
+      <c r="Q63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>56</v>
       </c>
@@ -12363,18 +13558,18 @@
         <v>40</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="F64" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H64" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" s="4">
         <v>0</v>
@@ -12384,29 +13579,46 @@
       </c>
       <c r="K64" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>Invesco DB Commodity Index Tracking Fund</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+        <v>United States Oil Fund</v>
+      </c>
+      <c r="L64" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="M64" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="N64" s="4" cm="1">
+        <f t="array" ref="N64">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="O64" s="4" t="str">
+        <f>data[[#This Row],[factor_name]]</f>
+        <v>USO</v>
+      </c>
+      <c r="Q64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="F65" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H65" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" s="4">
         <v>0</v>
@@ -12416,26 +13628,43 @@
       </c>
       <c r="K65" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>Invesco DB US Dollar Index Bullish Fund</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+        <v>Invesco DB Commodity Index Tracking Fund</v>
+      </c>
+      <c r="L65" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="M65" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="N65" s="4" cm="1">
+        <f t="array" ref="N65">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="O65" s="4" t="str">
+        <f>data[[#This Row],[factor_name]]</f>
+        <v>DBC</v>
+      </c>
+      <c r="Q65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
       <c r="F66" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H66" s="4">
         <v>1</v>
@@ -12448,24 +13677,43 @@
       </c>
       <c r="K66" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>Invesco CurrencyShares Euro Trust</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+        <v>Invesco DB US Dollar Index Bullish Fund</v>
+      </c>
+      <c r="L66" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="M66" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="N66" s="4" cm="1">
+        <f t="array" ref="N66">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="O66" s="4" t="str">
+        <f>data[[#This Row],[factor_name]]</f>
+        <v>UUP</v>
+      </c>
+      <c r="Q66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B67" t="s">
-        <v>71</v>
-      </c>
-      <c r="C67" t="s">
-        <v>72</v>
-      </c>
-      <c r="F67" t="s">
-        <v>73</v>
-      </c>
-      <c r="G67" t="s">
-        <v>113</v>
+      <c r="B67" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="H67" s="4">
         <v>1</v>
@@ -12478,539 +13726,631 @@
       </c>
       <c r="K67" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>Invesco CurrencyShares Euro Trust</v>
+      </c>
+      <c r="L67" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="M67" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="N67" s="4" cm="1">
+        <f t="array" ref="N67">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="O67" s="4" t="str">
+        <f>data[[#This Row],[factor_name]]</f>
+        <v>FXE</v>
+      </c>
+      <c r="Q67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>65</v>
+      </c>
+      <c r="B68" t="s">
+        <v>71</v>
+      </c>
+      <c r="C68" t="s">
+        <v>72</v>
+      </c>
+      <c r="F68" t="s">
+        <v>73</v>
+      </c>
+      <c r="G68" t="s">
+        <v>113</v>
+      </c>
+      <c r="H68" s="4">
+        <v>1</v>
+      </c>
+      <c r="I68" s="4">
+        <v>0</v>
+      </c>
+      <c r="J68" s="4">
+        <v>0</v>
+      </c>
+      <c r="K68" s="4" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>Invesco CurrencyShares Japanese Yen Trust</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A68" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4">
-        <v>1</v>
-      </c>
-      <c r="I68" s="4">
-        <v>1</v>
-      </c>
-      <c r="J68" s="4">
-        <v>0</v>
-      </c>
-      <c r="K68" s="4">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L68" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="M68" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="N68" s="4" cm="1">
+        <f t="array" ref="N68">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="O68" s="4" t="str">
+        <f>data[[#This Row],[factor_name]]</f>
+        <v>FXY</v>
+      </c>
+      <c r="Q68" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>444</v>
+        <v>476</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>430</v>
+        <v>472</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
+      <c r="F69" s="4" t="s">
+        <v>473</v>
+      </c>
       <c r="G69" s="4"/>
       <c r="H69" s="4">
         <v>1</v>
       </c>
       <c r="I69" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" s="4">
-        <v>1</v>
-      </c>
-      <c r="K69" s="4">
+        <v>0</v>
+      </c>
+      <c r="K69" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>0</v>
-      </c>
-      <c r="M69" t="b" cm="1">
-        <f t="array" ref="M69:M140">MOD(_xlfn.SEQUENCE(ROWS(data[])),3)=1</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+        <v>CBOE Volatility Index</v>
+      </c>
+      <c r="L69" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="M69" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="N69" s="4" cm="1">
+        <f t="array" ref="N69">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>-1E-4</v>
+      </c>
+      <c r="O69" s="4" t="str">
+        <f>data[[#This Row],[factor_name]]</f>
+        <v>^VIX</v>
+      </c>
+      <c r="Q69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>444</v>
+        <v>476</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>439</v>
+        <v>484</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
+      <c r="F70" s="4" t="s">
+        <v>474</v>
+      </c>
       <c r="G70" s="4"/>
       <c r="H70" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" s="4">
-        <v>1</v>
-      </c>
-      <c r="K70" s="4">
+        <v>0</v>
+      </c>
+      <c r="K70" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>0</v>
-      </c>
-      <c r="M70" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+        <v>CBOE VIX VOLATILITY INDEX</v>
+      </c>
+      <c r="L70" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="M70" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="N70" s="4" cm="1">
+        <f t="array" ref="N70">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>-1E-4</v>
+      </c>
+      <c r="O70" s="4" t="str">
+        <f>data[[#This Row],[factor_name]]</f>
+        <v>^VVIX</v>
+      </c>
+      <c r="Q70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>444</v>
+        <v>476</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>421</v>
+        <v>475</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
+      <c r="F71" s="4" t="s">
+        <v>477</v>
+      </c>
       <c r="G71" s="4"/>
       <c r="H71" s="4">
         <v>1</v>
       </c>
       <c r="I71" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" s="4">
-        <v>1</v>
-      </c>
-      <c r="K71" s="4">
+        <v>0</v>
+      </c>
+      <c r="K71" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>0</v>
-      </c>
-      <c r="M71" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+        <v>ICE BofAML MOVE Index</v>
+      </c>
+      <c r="L71" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="M71" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="N71" s="4" cm="1">
+        <f t="array" ref="N71">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>-1E-4</v>
+      </c>
+      <c r="O71" s="4" t="str">
+        <f>data[[#This Row],[factor_name]]</f>
+        <v>^MOVE</v>
+      </c>
+      <c r="Q71" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>444</v>
+        <v>476</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>450</v>
+        <v>478</v>
       </c>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
-      <c r="F72" s="4"/>
+      <c r="F72" s="4" t="s">
+        <v>479</v>
+      </c>
       <c r="G72" s="4"/>
       <c r="H72" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" s="4">
-        <v>1</v>
-      </c>
-      <c r="K72" s="4">
+        <v>0</v>
+      </c>
+      <c r="K72" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>0</v>
-      </c>
-      <c r="M72" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+        <v>CBOE Crude Oil Volatility Index</v>
+      </c>
+      <c r="L72" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="M72" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="N72" s="4" cm="1">
+        <f t="array" ref="N72">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>-1E-4</v>
+      </c>
+      <c r="O72" s="4" t="str">
+        <f>data[[#This Row],[factor_name]]</f>
+        <v>^OVX</v>
+      </c>
+      <c r="Q72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>444</v>
+        <v>476</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>451</v>
+        <v>480</v>
       </c>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
+      <c r="F73" s="4" t="s">
+        <v>481</v>
+      </c>
       <c r="G73" s="4"/>
       <c r="H73" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" s="4">
-        <v>1</v>
-      </c>
-      <c r="K73" s="4">
+        <v>0</v>
+      </c>
+      <c r="K73" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>0</v>
-      </c>
-      <c r="L73" s="2"/>
-      <c r="M73" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="M74" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="M75" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="M76" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="M77" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="M78" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="M79" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="M80" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M81" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M82" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M83" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M84" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M85" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M86" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M87" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M88" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M89" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M90" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M91" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M92" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M93" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M94" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M95" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M96" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M97" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M98" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M99" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M100" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M101" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M102" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M103" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M104" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M105" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M106" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M107" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M108" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M109" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M110" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M111" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M112" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M113" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M114" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M115" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M116" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M117" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M118" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M119" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M120" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M121" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M122" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M123" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M124" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M125" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M126" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M127" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M128" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M129" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M130" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M131" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M132" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M133" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M134" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M135" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M136" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M137" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M138" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M139" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M140" t="b">
-        <v>0</v>
+        <v>CBOE Euro currency Volatility I</v>
+      </c>
+      <c r="L73" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="M73" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="N73" s="4" cm="1">
+        <f t="array" ref="N73">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>-1E-4</v>
+      </c>
+      <c r="O73" s="4" t="str">
+        <f>data[[#This Row],[factor_name]]</f>
+        <v>^EVZ</v>
+      </c>
+      <c r="Q73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4">
+        <v>0</v>
+      </c>
+      <c r="I74" s="4">
+        <v>0</v>
+      </c>
+      <c r="J74" s="4">
+        <v>0</v>
+      </c>
+      <c r="K74" s="4" t="str">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>CBOE Gold Volatility Index</v>
+      </c>
+      <c r="L74" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="M74" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="N74" s="4" cm="1">
+        <f t="array" ref="N74">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>-1E-4</v>
+      </c>
+      <c r="O74" s="4" t="str">
+        <f>data[[#This Row],[factor_name]]</f>
+        <v>^GVZ</v>
+      </c>
+      <c r="Q74" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A75" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4">
+        <v>1</v>
+      </c>
+      <c r="I75" s="4">
+        <v>1</v>
+      </c>
+      <c r="J75" s="4">
+        <v>0</v>
+      </c>
+      <c r="K75" s="4">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>0</v>
+      </c>
+      <c r="L75" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="M75" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="N75" s="4" cm="1">
+        <f t="array" ref="N75">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="O75" s="4" t="str">
+        <f>data[[#This Row],[factor_name]]</f>
+        <v>MWTIX</v>
+      </c>
+      <c r="Q75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4">
+        <v>1</v>
+      </c>
+      <c r="I76" s="4">
+        <v>1</v>
+      </c>
+      <c r="J76" s="4">
+        <v>1</v>
+      </c>
+      <c r="K76" s="4">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>0</v>
+      </c>
+      <c r="L76" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="M76" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="N76" s="4" cm="1">
+        <f t="array" ref="N76">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="O76" s="4" t="str">
+        <f>data[[#This Row],[factor_name]]</f>
+        <v>TRUMP</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A77" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4">
+        <v>1</v>
+      </c>
+      <c r="I77" s="4">
+        <v>1</v>
+      </c>
+      <c r="J77" s="4">
+        <v>1</v>
+      </c>
+      <c r="K77" s="4">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>0</v>
+      </c>
+      <c r="L77" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="M77" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="N77" s="4" cm="1">
+        <f t="array" ref="N77">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="O77" s="4" t="str">
+        <f>data[[#This Row],[factor_name]]</f>
+        <v>FED</v>
+      </c>
+      <c r="Q77" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A78" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4">
+        <v>1</v>
+      </c>
+      <c r="I78" s="4">
+        <v>1</v>
+      </c>
+      <c r="J78" s="4">
+        <v>1</v>
+      </c>
+      <c r="K78" s="4">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>0</v>
+      </c>
+      <c r="L78" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="M78" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="N78" s="4" cm="1">
+        <f t="array" ref="N78">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="O78" s="4" t="str">
+        <f>data[[#This Row],[factor_name]]</f>
+        <v>AI</v>
+      </c>
+      <c r="Q78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A79" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4">
+        <v>1</v>
+      </c>
+      <c r="I79" s="4">
+        <v>1</v>
+      </c>
+      <c r="J79" s="4">
+        <v>1</v>
+      </c>
+      <c r="K79" s="4">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>0</v>
+      </c>
+      <c r="L79" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="M79" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="N79" s="4" cm="1">
+        <f t="array" ref="N79">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="O79" s="4" t="str">
+        <f>data[[#This Row],[factor_name]]</f>
+        <v>GEOPOLITICS</v>
+      </c>
+      <c r="Q79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4">
+        <v>1</v>
+      </c>
+      <c r="I80" s="4">
+        <v>1</v>
+      </c>
+      <c r="J80" s="4">
+        <v>1</v>
+      </c>
+      <c r="K80" s="4">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>0</v>
+      </c>
+      <c r="L80" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="M80" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="N80" s="4" cm="1">
+        <f t="array" ref="N80">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="O80" s="4" t="str">
+        <f>data[[#This Row],[factor_name]]</f>
+        <v>2s10s</v>
+      </c>
+      <c r="Q80" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A2:K46">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$M2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A47:K73">
-    <cfRule type="expression" dxfId="0" priority="4">
-      <formula>$M48</formula>
+  <conditionalFormatting sqref="A2:O80">
+    <cfRule type="expression" dxfId="0" priority="6">
+      <formula>$Q2</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13024,8 +14364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45BE1690-4C72-4E94-925C-89FAF286C7F8}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13194,10 +14534,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2977BD7F-9323-4F6D-98BF-C1B39119DCDE}">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13205,7 +14545,7 @@
     <col min="6" max="6" width="44.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -13224,14 +14564,26 @@
       <c r="F1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>466</v>
+      </c>
+      <c r="H1" t="s">
+        <v>465</v>
+      </c>
+      <c r="I1" t="s">
+        <v>464</v>
+      </c>
+      <c r="J1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="str" cm="1">
-        <f t="array" ref="A2:A61">_xlfn._xlws.FILTER(data[factor_name],data[Active])</f>
+        <f t="array" ref="A2:A64">_xlfn._xlws.FILTER(data[factor_name],data[Active])</f>
         <v>SPY</v>
       </c>
       <c r="B2" t="str" cm="1">
-        <f t="array" ref="B2:F61">INDEX(data[],_xlfn.XMATCH(_xlfn.ANCHORARRAY(A2),data[factor_name]),_xlfn.XMATCH(B1:F1,data[#Headers]))</f>
+        <f t="array" ref="B2:J64">INDEX(data[],_xlfn.XMATCH(_xlfn.ANCHORARRAY(A2),data[factor_name]),_xlfn.XMATCH(B1:J1,data[#Headers]))</f>
         <v>Equities</v>
       </c>
       <c r="C2" t="str">
@@ -13246,8 +14598,20 @@
       <c r="F2" t="str">
         <v>S&amp;P 500</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H2" t="str">
+        <v>SPY</v>
+      </c>
+      <c r="I2" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J2">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <v>IWM</v>
       </c>
@@ -13266,8 +14630,20 @@
       <c r="F3" t="str">
         <v>Russell 2000</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H3" t="str">
+        <v>IWM</v>
+      </c>
+      <c r="I3" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J3">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <v>MDY</v>
       </c>
@@ -13286,8 +14662,20 @@
       <c r="F4" t="str">
         <v>S&amp;P 400</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H4" t="str">
+        <v>MDY</v>
+      </c>
+      <c r="I4" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J4">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <v>RSP</v>
       </c>
@@ -13306,8 +14694,20 @@
       <c r="F5" t="str">
         <v>S&amp;P 500 EW</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H5" t="str">
+        <v>RSP</v>
+      </c>
+      <c r="I5" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J5">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <v>QQQ</v>
       </c>
@@ -13326,8 +14726,20 @@
       <c r="F6" t="str">
         <v>Nasdaq 100</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H6" t="str">
+        <v>QQQ</v>
+      </c>
+      <c r="I6" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J6">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <v>DIA</v>
       </c>
@@ -13346,8 +14758,20 @@
       <c r="F7" t="str">
         <v>Dow Jones 30</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H7" t="str">
+        <v>DIA</v>
+      </c>
+      <c r="I7" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J7">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <v>XLK</v>
       </c>
@@ -13366,8 +14790,20 @@
       <c r="F8" t="str">
         <v>Technology</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H8" t="str">
+        <v>XLK</v>
+      </c>
+      <c r="I8" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J8">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <v>XLI</v>
       </c>
@@ -13386,8 +14822,20 @@
       <c r="F9" t="str">
         <v>Industrials</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H9" t="str">
+        <v>XLI</v>
+      </c>
+      <c r="I9" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J9">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <v>XLF</v>
       </c>
@@ -13406,8 +14854,20 @@
       <c r="F10" t="str">
         <v>Financials</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H10" t="str">
+        <v>XLF</v>
+      </c>
+      <c r="I10" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J10">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <v>KRE</v>
       </c>
@@ -13426,8 +14886,20 @@
       <c r="F11" t="str">
         <v>Regional Banks</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H11" t="str">
+        <v>KRE</v>
+      </c>
+      <c r="I11" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J11">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <v>XLC</v>
       </c>
@@ -13446,8 +14918,20 @@
       <c r="F12" t="str">
         <v>Communications</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H12" t="str">
+        <v>XLC</v>
+      </c>
+      <c r="I12" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J12">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <v>XLE</v>
       </c>
@@ -13466,8 +14950,20 @@
       <c r="F13" t="str">
         <v>Energy</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H13" t="str">
+        <v>XLE</v>
+      </c>
+      <c r="I13" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J13">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
         <v>XLY</v>
       </c>
@@ -13486,8 +14982,20 @@
       <c r="F14" t="str">
         <v>Discretionary</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H14" t="str">
+        <v>XLY</v>
+      </c>
+      <c r="I14" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J14">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <v>XLB</v>
       </c>
@@ -13506,8 +15014,20 @@
       <c r="F15" t="str">
         <v>Materials</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H15" t="str">
+        <v>XLB</v>
+      </c>
+      <c r="I15" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J15">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <v>XLV</v>
       </c>
@@ -13526,8 +15046,20 @@
       <c r="F16" t="str">
         <v>Health Care</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H16" t="str">
+        <v>XLV</v>
+      </c>
+      <c r="I16" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J16">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <v>XLU</v>
       </c>
@@ -13546,8 +15078,20 @@
       <c r="F17" t="str">
         <v>Utilities</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H17" t="str">
+        <v>XLU</v>
+      </c>
+      <c r="I17" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J17">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <v>XLP</v>
       </c>
@@ -13566,8 +15110,20 @@
       <c r="F18" t="str">
         <v>Staples</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H18" t="str">
+        <v>XLP</v>
+      </c>
+      <c r="I18" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J18">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
         <v>IYR</v>
       </c>
@@ -13586,8 +15142,20 @@
       <c r="F19" t="str">
         <v>iShares U.S. Real Estate ETF</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H19" t="str">
+        <v>IYR</v>
+      </c>
+      <c r="I19" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J19">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
         <v>VNQ</v>
       </c>
@@ -13606,8 +15174,20 @@
       <c r="F20" t="str">
         <v>Vanguard Real Estate ETF</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H20" t="str">
+        <v>VNQ</v>
+      </c>
+      <c r="I20" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J20">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
         <v>AIQ</v>
       </c>
@@ -13626,8 +15206,20 @@
       <c r="F21" t="str">
         <v>AI</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H21" t="str">
+        <v>AIQ</v>
+      </c>
+      <c r="I21" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J21">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
         <v>ICLN</v>
       </c>
@@ -13646,8 +15238,20 @@
       <c r="F22" t="str">
         <v>Clean Energy</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H22" t="str">
+        <v>ICLN</v>
+      </c>
+      <c r="I22" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J22">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
         <v>PFF</v>
       </c>
@@ -13666,8 +15270,20 @@
       <c r="F23" t="str">
         <v>Preferred</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H23" t="str">
+        <v>PFF</v>
+      </c>
+      <c r="I23" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J23">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
         <v>FEZ</v>
       </c>
@@ -13686,8 +15302,20 @@
       <c r="F24" t="str">
         <v>Eurostoxx 50</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H24" t="str">
+        <v>FEZ</v>
+      </c>
+      <c r="I24" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J24">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
         <v>EWU</v>
       </c>
@@ -13706,8 +15334,20 @@
       <c r="F25" t="str">
         <v>iShares FTSE United Kingdom ETF</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H25" t="str">
+        <v>EWU</v>
+      </c>
+      <c r="I25" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J25">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
         <v>DAX</v>
       </c>
@@ -13726,8 +15366,20 @@
       <c r="F26" t="str">
         <v>DAX (Germany)</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H26" t="str">
+        <v>DAX</v>
+      </c>
+      <c r="I26" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J26">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
         <v>EWC</v>
       </c>
@@ -13746,8 +15398,20 @@
       <c r="F27" t="str">
         <v>iShares MSCI Canada ETF</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H27" t="str">
+        <v>EWC</v>
+      </c>
+      <c r="I27" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J27">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="str">
         <v>EWI</v>
       </c>
@@ -13766,8 +15430,20 @@
       <c r="F28" t="str">
         <v>iShares MSCI Italy ETF</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H28" t="str">
+        <v>EWI</v>
+      </c>
+      <c r="I28" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J28">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="str">
         <v>^N225</v>
       </c>
@@ -13786,8 +15462,20 @@
       <c r="F29" t="str">
         <v>Nikkei 225</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H29" t="str">
+        <v>^N225</v>
+      </c>
+      <c r="I29" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J29">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
         <v>TPX</v>
       </c>
@@ -13806,8 +15494,20 @@
       <c r="F30" t="str">
         <v>TOPIX</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H30" t="str">
+        <v>TPX</v>
+      </c>
+      <c r="I30" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J30">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
         <v>FXI</v>
       </c>
@@ -13826,8 +15526,20 @@
       <c r="F31" t="str">
         <v>iShares China Large-Cap ETF</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H31" t="str">
+        <v>FXI</v>
+      </c>
+      <c r="I31" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J31">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="str">
         <v>ASHR</v>
       </c>
@@ -13846,8 +15558,20 @@
       <c r="F32" t="str">
         <v>Xtrackers Harvest CSI 300 China A-Shares ETF</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H32" t="str">
+        <v>ASHR</v>
+      </c>
+      <c r="I32" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J32">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="str">
         <v>KWEB</v>
       </c>
@@ -13866,8 +15590,20 @@
       <c r="F33" t="str">
         <v>KraneShares CSI China Internet ETF</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H33" t="str">
+        <v>KWEB</v>
+      </c>
+      <c r="I33" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J33">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="str">
         <v>EEM</v>
       </c>
@@ -13886,8 +15622,20 @@
       <c r="F34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H34" t="str">
+        <v>EEM</v>
+      </c>
+      <c r="I34" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J34">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="str">
         <v>LQD</v>
       </c>
@@ -13906,8 +15654,20 @@
       <c r="F35" t="str">
         <v>iShares iBoxx $ Investment Grade Corporate Bond ETF</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H35" t="str">
+        <v>LQD</v>
+      </c>
+      <c r="I35" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J35">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="str">
         <v>BSV</v>
       </c>
@@ -13926,8 +15686,20 @@
       <c r="F36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H36" t="str">
+        <v>BSV</v>
+      </c>
+      <c r="I36" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J36">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="str">
         <v>HYG</v>
       </c>
@@ -13946,8 +15718,20 @@
       <c r="F37" t="str">
         <v>iShares iBoxx $ High Yield Corporate Bond ETF</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G37" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H37" t="str">
+        <v>HYG</v>
+      </c>
+      <c r="I37" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J37">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="str">
         <v>HYGH</v>
       </c>
@@ -13966,8 +15750,20 @@
       <c r="F38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G38" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H38" t="str">
+        <v>HYGH</v>
+      </c>
+      <c r="I38" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J38">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="str">
         <v>AGG</v>
       </c>
@@ -13986,10 +15782,22 @@
       <c r="F39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G39" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H39" t="str">
+        <v>AGG</v>
+      </c>
+      <c r="I39" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J39">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="str">
-        <v>SHY</v>
+        <v>^TNX</v>
       </c>
       <c r="B40" t="str">
         <v>Rates</v>
@@ -14003,13 +15811,25 @@
       <c r="E40">
         <v>0</v>
       </c>
-      <c r="F40" t="str">
-        <v>iShares 1-3 Year Treasury Bond ETF</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H40" t="str">
+        <v>^TNX</v>
+      </c>
+      <c r="I40" t="str">
+        <v>normal</v>
+      </c>
+      <c r="J40">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="str">
-        <v>IEI</v>
+        <v>SHY</v>
       </c>
       <c r="B41" t="str">
         <v>Rates</v>
@@ -14024,12 +15844,24 @@
         <v>0</v>
       </c>
       <c r="F41" t="str">
-        <v>iShares 3-7 Year Treasury Bond ETF</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+        <v>iShares 1-3 Year Treasury Bond ETF</v>
+      </c>
+      <c r="G41" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H41" t="str">
+        <v>SHY</v>
+      </c>
+      <c r="I41" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J41">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="str">
-        <v>IEF</v>
+        <v>IEI</v>
       </c>
       <c r="B42" t="str">
         <v>Rates</v>
@@ -14038,18 +15870,30 @@
         <v>USD</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42" t="str">
-        <v>iShares 7-10 Year Treasury Bond ETF</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+        <v>iShares 3-7 Year Treasury Bond ETF</v>
+      </c>
+      <c r="G42" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H42" t="str">
+        <v>IEI</v>
+      </c>
+      <c r="I42" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J42">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="str">
-        <v>TLT</v>
+        <v>IEF</v>
       </c>
       <c r="B43" t="str">
         <v>Rates</v>
@@ -14058,18 +15902,30 @@
         <v>USD</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43" t="str">
-        <v>iShares 20+ Year Treasury Bond ETF</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+        <v>iShares 7-10 Year Treasury Bond ETF</v>
+      </c>
+      <c r="G43" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H43" t="str">
+        <v>IEF</v>
+      </c>
+      <c r="I43" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J43">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="str">
-        <v>TIP</v>
+        <v>TLT</v>
       </c>
       <c r="B44" t="str">
         <v>Rates</v>
@@ -14084,12 +15940,24 @@
         <v>0</v>
       </c>
       <c r="F44" t="str">
-        <v>iShares TIPS Bond ETF</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+        <v>iShares 20+ Year Treasury Bond ETF</v>
+      </c>
+      <c r="G44" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H44" t="str">
+        <v>TLT</v>
+      </c>
+      <c r="I44" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J44">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="str">
-        <v>VTIP</v>
+        <v>TIP</v>
       </c>
       <c r="B45" t="str">
         <v>Rates</v>
@@ -14103,13 +15971,25 @@
       <c r="E45">
         <v>0</v>
       </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F45" t="str">
+        <v>iShares TIPS Bond ETF</v>
+      </c>
+      <c r="G45" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H45" t="str">
+        <v>TIP</v>
+      </c>
+      <c r="I45" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J45">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="str">
-        <v>AGNC</v>
+        <v>VTIP</v>
       </c>
       <c r="B46" t="str">
         <v>Rates</v>
@@ -14123,13 +16003,25 @@
       <c r="E46">
         <v>0</v>
       </c>
-      <c r="F46" t="str">
-        <v>AGNC Investment Corp.</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H46" t="str">
+        <v>VTIP</v>
+      </c>
+      <c r="I46" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J46">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="str">
-        <v>VMBS</v>
+        <v>AGNC</v>
       </c>
       <c r="B47" t="str">
         <v>Rates</v>
@@ -14143,13 +16035,25 @@
       <c r="E47">
         <v>0</v>
       </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F47" t="str">
+        <v>AGNC Investment Corp.</v>
+      </c>
+      <c r="G47" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H47" t="str">
+        <v>AGNC</v>
+      </c>
+      <c r="I47" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J47">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="str">
-        <v>CMBS</v>
+        <v>VMBS</v>
       </c>
       <c r="B48" t="str">
         <v>Rates</v>
@@ -14166,50 +16070,86 @@
       <c r="F48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G48" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H48" t="str">
+        <v>VMBS</v>
+      </c>
+      <c r="I48" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J48">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="str">
-        <v>EMB</v>
+        <v>CMBS</v>
       </c>
       <c r="B49" t="str">
         <v>Rates</v>
       </c>
       <c r="C49" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H49" t="str">
+        <v>CMBS</v>
+      </c>
+      <c r="I49" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J49">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" t="str">
+        <v>EMB</v>
+      </c>
+      <c r="B50" t="str">
+        <v>Rates</v>
+      </c>
+      <c r="C50" t="str">
         <v>EM</v>
       </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49" t="str">
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50" t="str">
         <v>iShares J.P. Morgan USD Emerging Markets Bond ETF</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" t="str">
+      <c r="G50" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H50" t="str">
+        <v>EMB</v>
+      </c>
+      <c r="I50" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J50">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" t="str">
         <v>GLD</v>
-      </c>
-      <c r="B50" t="str">
-        <v>Commodities</v>
-      </c>
-      <c r="C50" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50" t="str">
-        <v>SPDR Gold Shares</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" t="str">
-        <v>SLV</v>
       </c>
       <c r="B51" t="str">
         <v>Commodities</v>
@@ -14224,12 +16164,24 @@
         <v>0</v>
       </c>
       <c r="F51" t="str">
-        <v>iShares Silver Trust</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+        <v>SPDR Gold Shares</v>
+      </c>
+      <c r="G51" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H51" t="str">
+        <v>GLD</v>
+      </c>
+      <c r="I51" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J51">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="str">
-        <v>USO</v>
+        <v>SLV</v>
       </c>
       <c r="B52" t="str">
         <v>Commodities</v>
@@ -14244,15 +16196,27 @@
         <v>0</v>
       </c>
       <c r="F52" t="str">
-        <v>United States Oil Fund</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+        <v>iShares Silver Trust</v>
+      </c>
+      <c r="G52" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H52" t="str">
+        <v>SLV</v>
+      </c>
+      <c r="I52" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J52">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="str">
-        <v>UUP</v>
+        <v>USO</v>
       </c>
       <c r="B53" t="str">
-        <v>Currencies</v>
+        <v>Commodities</v>
       </c>
       <c r="C53" t="str">
         <v>USD</v>
@@ -14264,18 +16228,30 @@
         <v>0</v>
       </c>
       <c r="F53" t="str">
-        <v>Invesco DB US Dollar Index Bullish Fund</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+        <v>United States Oil Fund</v>
+      </c>
+      <c r="G53" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H53" t="str">
+        <v>USO</v>
+      </c>
+      <c r="I53" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J53">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="str">
-        <v>FXE</v>
+        <v>UUP</v>
       </c>
       <c r="B54" t="str">
         <v>Currencies</v>
       </c>
       <c r="C54" t="str">
-        <v>EUR</v>
+        <v>USD</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -14284,95 +16260,155 @@
         <v>0</v>
       </c>
       <c r="F54" t="str">
-        <v>Invesco CurrencyShares Euro Trust</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+        <v>Invesco DB US Dollar Index Bullish Fund</v>
+      </c>
+      <c r="G54" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H54" t="str">
+        <v>UUP</v>
+      </c>
+      <c r="I54" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J54">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="str">
-        <v>FXY</v>
+        <v>FXE</v>
       </c>
       <c r="B55" t="str">
         <v>Currencies</v>
       </c>
       <c r="C55" t="str">
+        <v>EUR</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55" t="str">
+        <v>Invesco CurrencyShares Euro Trust</v>
+      </c>
+      <c r="G55" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H55" t="str">
+        <v>FXE</v>
+      </c>
+      <c r="I55" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J55">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" t="str">
+        <v>FXY</v>
+      </c>
+      <c r="B56" t="str">
+        <v>Currencies</v>
+      </c>
+      <c r="C56" t="str">
         <v>JPY</v>
       </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55" t="str">
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56" t="str">
         <v>Invesco CurrencyShares Japanese Yen Trust</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" t="str">
-        <v>MWTIX</v>
-      </c>
-      <c r="B56" t="str">
-        <v>Portfolio</v>
-      </c>
-      <c r="C56" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G56" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H56" t="str">
+        <v>FXY</v>
+      </c>
+      <c r="I56" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J56">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="str">
-        <v>TRUMP</v>
+        <v>^VIX</v>
       </c>
       <c r="B57" t="str">
-        <v>Theme</v>
+        <v>Vol</v>
       </c>
       <c r="C57" t="str">
         <v>USD</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57">
-        <v>1</v>
-      </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="F57" t="str">
+        <v>CBOE Volatility Index</v>
+      </c>
+      <c r="G57" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H57" t="str">
+        <v>^VIX</v>
+      </c>
+      <c r="I57" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J57">
+        <v>-1E-4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="str">
-        <v>FED</v>
+        <v>^MOVE</v>
       </c>
       <c r="B58" t="str">
-        <v>Theme</v>
+        <v>Vol</v>
       </c>
       <c r="C58" t="str">
         <v>USD</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58">
-        <v>1</v>
-      </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="F58" t="str">
+        <v>ICE BofAML MOVE Index</v>
+      </c>
+      <c r="G58" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H58" t="str">
+        <v>^MOVE</v>
+      </c>
+      <c r="I58" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J58">
+        <v>-1E-4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="str">
-        <v>AI</v>
+        <v>MWTIX</v>
       </c>
       <c r="B59" t="str">
-        <v>Theme</v>
+        <v>Portfolio</v>
       </c>
       <c r="C59" t="str">
         <v>USD</v>
@@ -14381,15 +16417,27 @@
         <v>1</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G59" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H59" t="str">
+        <v>MWTIX</v>
+      </c>
+      <c r="I59" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J59">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="str">
-        <v>GEOPOLITICS</v>
+        <v>TRUMP</v>
       </c>
       <c r="B60" t="str">
         <v>Theme</v>
@@ -14406,10 +16454,22 @@
       <c r="F60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G60" t="str">
+        <v>composite</v>
+      </c>
+      <c r="H60" t="str">
+        <v>TRUMP</v>
+      </c>
+      <c r="I60" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J60">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="str">
-        <v>2s10s</v>
+        <v>FED</v>
       </c>
       <c r="B61" t="str">
         <v>Theme</v>
@@ -14425,6 +16485,114 @@
       </c>
       <c r="F61">
         <v>0</v>
+      </c>
+      <c r="G61" t="str">
+        <v>composite</v>
+      </c>
+      <c r="H61" t="str">
+        <v>FED</v>
+      </c>
+      <c r="I61" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J61">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" t="str">
+        <v>AI</v>
+      </c>
+      <c r="B62" t="str">
+        <v>Theme</v>
+      </c>
+      <c r="C62" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62" t="str">
+        <v>composite</v>
+      </c>
+      <c r="H62" t="str">
+        <v>AI</v>
+      </c>
+      <c r="I62" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J62">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63" t="str">
+        <v>GEOPOLITICS</v>
+      </c>
+      <c r="B63" t="str">
+        <v>Theme</v>
+      </c>
+      <c r="C63" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63" t="str">
+        <v>composite</v>
+      </c>
+      <c r="H63" t="str">
+        <v>GEOPOLITICS</v>
+      </c>
+      <c r="I63" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J63">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64" t="str">
+        <v>2s10s</v>
+      </c>
+      <c r="B64" t="str">
+        <v>Theme</v>
+      </c>
+      <c r="C64" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64" t="str">
+        <v>composite</v>
+      </c>
+      <c r="H64" t="str">
+        <v>2s10s</v>
+      </c>
+      <c r="I64" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J64">
+        <v>1E-4</v>
       </c>
     </row>
   </sheetData>

--- a/factor_master.xlsx
+++ b/factor_master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bkrai\Source\risk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5C3E90-E733-40C9-8788-8E75DA4C1CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F521ED13-A895-4288-B2C8-C94745B81761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="1" activeTab="8" xr2:uid="{C31FDC5B-A809-4BFD-99CB-DA02246721F7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="4" activeTab="6" xr2:uid="{C31FDC5B-A809-4BFD-99CB-DA02246721F7}"/>
   </bookViews>
   <sheets>
     <sheet name="legacy" sheetId="5" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1894" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1900" uniqueCount="487">
   <si>
     <t>SPX</t>
   </si>
@@ -1540,6 +1540,12 @@
   </si>
   <si>
     <t>^VVIX</t>
+  </si>
+  <si>
+    <t>^COR3M</t>
+  </si>
+  <si>
+    <t>Cboe Implied Correlation Index</t>
   </si>
 </sst>
 </file>
@@ -1880,7 +1886,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6DAD1482-C63D-400D-9F51-F22A8E35CAD8}" name="data" displayName="data" ref="A1:O80" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6DAD1482-C63D-400D-9F51-F22A8E35CAD8}" name="data" displayName="data" ref="A1:O81" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{740DC173-AAC9-4239-A44E-C43F8517304D}" name="asset_class" dataDxfId="27"/>
     <tableColumn id="2" xr3:uid="{A3BC3BB8-0420-458E-AECD-FD567519FA40}" name="region" dataDxfId="26"/>
@@ -3663,7 +3669,9 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4686,7 +4694,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4805,7 +4813,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4926,7 +4934,7 @@
   <dimension ref="A1:M74"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:I25"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10422,13 +10430,13 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C29859C-7358-4E2F-B5CC-7696F1DAC449}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:T80"/>
+  <dimension ref="A1:T81"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T3" sqref="T3"/>
+      <selection pane="bottomRight" activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10540,7 +10548,7 @@
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="b" cm="1">
-        <f t="array" ref="Q2:Q80">MOD(_xlfn.SEQUENCE(ROWS(data[])),3)=1</f>
+        <f t="array" ref="Q2:Q81">MOD(_xlfn.SEQUENCE(ROWS(data[])),3)=1</f>
         <v>1</v>
       </c>
     </row>
@@ -14077,30 +14085,32 @@
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>446</v>
+        <v>476</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>429</v>
+        <v>485</v>
       </c>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
-      <c r="F75" s="4"/>
+      <c r="F75" s="4" t="s">
+        <v>486</v>
+      </c>
       <c r="G75" s="4"/>
       <c r="H75" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" s="4">
         <v>0</v>
       </c>
-      <c r="K75" s="4">
+      <c r="K75" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>0</v>
+        <v>Cboe Implied Correlation Index</v>
       </c>
       <c r="L75" s="4" t="s">
         <v>455</v>
@@ -14110,11 +14120,11 @@
       </c>
       <c r="N75" s="4" cm="1">
         <f t="array" ref="N75">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
-        <v>1E-4</v>
+        <v>-1E-4</v>
       </c>
       <c r="O75" s="4" t="str">
         <f>data[[#This Row],[factor_name]]</f>
-        <v>MWTIX</v>
+        <v>^COR3M</v>
       </c>
       <c r="Q75" t="b">
         <v>0</v>
@@ -14122,13 +14132,13 @@
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
@@ -14141,14 +14151,14 @@
         <v>1</v>
       </c>
       <c r="J76" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K76" s="4">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>0</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="M76" s="4" t="s">
         <v>454</v>
@@ -14159,9 +14169,8 @@
       </c>
       <c r="O76" s="4" t="str">
         <f>data[[#This Row],[factor_name]]</f>
-        <v>TRUMP</v>
-      </c>
-      <c r="P76" s="2"/>
+        <v>MWTIX</v>
+      </c>
       <c r="Q76" t="b">
         <v>0</v>
       </c>
@@ -14174,7 +14183,7 @@
         <v>40</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
@@ -14205,8 +14214,9 @@
       </c>
       <c r="O77" s="4" t="str">
         <f>data[[#This Row],[factor_name]]</f>
-        <v>FED</v>
-      </c>
+        <v>TRUMP</v>
+      </c>
+      <c r="P77" s="2"/>
       <c r="Q77" t="b">
         <v>1</v>
       </c>
@@ -14219,7 +14229,7 @@
         <v>40</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>421</v>
+        <v>439</v>
       </c>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
@@ -14250,7 +14260,7 @@
       </c>
       <c r="O78" s="4" t="str">
         <f>data[[#This Row],[factor_name]]</f>
-        <v>AI</v>
+        <v>FED</v>
       </c>
       <c r="Q78" t="b">
         <v>0</v>
@@ -14264,7 +14274,7 @@
         <v>40</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>450</v>
+        <v>421</v>
       </c>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
@@ -14295,7 +14305,7 @@
       </c>
       <c r="O79" s="4" t="str">
         <f>data[[#This Row],[factor_name]]</f>
-        <v>GEOPOLITICS</v>
+        <v>AI</v>
       </c>
       <c r="Q79" t="b">
         <v>0</v>
@@ -14309,7 +14319,7 @@
         <v>40</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
@@ -14340,15 +14350,60 @@
       </c>
       <c r="O80" s="4" t="str">
         <f>data[[#This Row],[factor_name]]</f>
+        <v>GEOPOLITICS</v>
+      </c>
+      <c r="Q80" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A81" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4">
+        <v>1</v>
+      </c>
+      <c r="I81" s="4">
+        <v>1</v>
+      </c>
+      <c r="J81" s="4">
+        <v>1</v>
+      </c>
+      <c r="K81" s="4">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>0</v>
+      </c>
+      <c r="L81" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="M81" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="N81" s="4" cm="1">
+        <f t="array" ref="N81">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="O81" s="4" t="str">
+        <f>data[[#This Row],[factor_name]]</f>
         <v>2s10s</v>
       </c>
-      <c r="Q80" t="b">
-        <v>1</v>
+      <c r="Q81" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A2:O80">
+  <conditionalFormatting sqref="A2:O81">
     <cfRule type="expression" dxfId="0" priority="6">
       <formula>$Q2</formula>
     </cfRule>
@@ -14536,8 +14591,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/factor_master.xlsx
+++ b/factor_master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bkrai\Source\risk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F521ED13-A895-4288-B2C8-C94745B81761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6912FA79-DCCE-415B-8625-56472F8C4836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="4" activeTab="6" xr2:uid="{C31FDC5B-A809-4BFD-99CB-DA02246721F7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="2" activeTab="9" xr2:uid="{C31FDC5B-A809-4BFD-99CB-DA02246721F7}"/>
   </bookViews>
   <sheets>
     <sheet name="legacy" sheetId="5" r:id="rId1"/>
@@ -22,10 +22,11 @@
     <sheet name="data" sheetId="3" r:id="rId7"/>
     <sheet name="read_new" sheetId="15" r:id="rId8"/>
     <sheet name="read" sheetId="12" r:id="rId9"/>
-    <sheet name="read_old2" sheetId="4" r:id="rId10"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId11"/>
-    <sheet name="read_old" sheetId="1" r:id="rId12"/>
-    <sheet name="data_old" sheetId="8" r:id="rId13"/>
+    <sheet name="read_short" sheetId="16" r:id="rId10"/>
+    <sheet name="read_old2" sheetId="4" r:id="rId11"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId12"/>
+    <sheet name="read_old" sheetId="1" r:id="rId13"/>
+    <sheet name="data_old" sheetId="8" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1657,10 +1658,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1705,6 +1702,10 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1903,10 +1904,10 @@
     </tableColumn>
     <tableColumn id="11" xr3:uid="{C400A641-F032-4829-A2CD-62831D657B37}" name="source" dataDxfId="16"/>
     <tableColumn id="12" xr3:uid="{BC682952-ADA8-4869-A16F-B9E7BC86E430}" name="diffusion_type" dataDxfId="15"/>
-    <tableColumn id="16" xr3:uid="{A99CC35E-FB67-451C-BF9C-DA8D933B1B0C}" name="multiplier" dataDxfId="2">
+    <tableColumn id="16" xr3:uid="{A99CC35E-FB67-451C-BF9C-DA8D933B1B0C}" name="multiplier" dataDxfId="14">
       <calculatedColumnFormula array="1">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{64EF0381-B0C5-4226-B34E-0F9752A4A840}" name="ticker" dataDxfId="14">
+    <tableColumn id="13" xr3:uid="{64EF0381-B0C5-4226-B34E-0F9752A4A840}" name="ticker" dataDxfId="13">
       <calculatedColumnFormula>data[[#This Row],[factor_name]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1915,18 +1916,18 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F918301C-859F-40B7-9C3E-90E8F0495E68}" name="data_old" displayName="data_old" ref="A1:I45" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F918301C-859F-40B7-9C3E-90E8F0495E68}" name="data_old" displayName="data_old" ref="A1:I45" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A1:I45" xr:uid="{6DAD1482-C63D-400D-9F51-F22A8E35CAD8}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{B19D2B17-9AC9-4F1B-B32E-D4F72AAE469F}" name="asset_class" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{2C7CF29D-8E72-4B0C-A212-31F2A25D75C9}" name="region" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{C7E89EEC-2B5D-4C94-9327-1AC8E33DE708}" name="factor_name" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{B3F9004A-8BEB-463E-A746-8189A2AC2B3E}" name="factor_name_new" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{51CD7FB3-58FE-4906-B73C-7726C0A9C471}" name="description_override" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{3CFF990B-3164-4533-821F-08CE7C6D82CA}" name="Description_GPT" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{DD86D53E-A9B4-4387-ABF9-F2625E77982D}" name="Underlying" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{D56FFF9A-72FF-42A4-B3D2-2F27AB16AF7A}" name="Active" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{8476DFDE-B4B1-4FD9-99B4-DF1F2ABBD7D5}" name="description" dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{B19D2B17-9AC9-4F1B-B32E-D4F72AAE469F}" name="asset_class" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{2C7CF29D-8E72-4B0C-A212-31F2A25D75C9}" name="region" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{C7E89EEC-2B5D-4C94-9327-1AC8E33DE708}" name="factor_name" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{B3F9004A-8BEB-463E-A746-8189A2AC2B3E}" name="factor_name_new" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{51CD7FB3-58FE-4906-B73C-7726C0A9C471}" name="description_override" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{3CFF990B-3164-4533-821F-08CE7C6D82CA}" name="Description_GPT" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{DD86D53E-A9B4-4387-ABF9-F2625E77982D}" name="Underlying" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{D56FFF9A-72FF-42A4-B3D2-2F27AB16AF7A}" name="Active" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{8476DFDE-B4B1-4FD9-99B4-DF1F2ABBD7D5}" name="description" dataDxfId="2">
       <calculatedColumnFormula>IF(data_old[[#This Row],[description_override]]="",data_old[[#This Row],[Description_GPT]],data_old[[#This Row],[description_override]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2256,12 +2257,12 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>315</v>
       </c>
@@ -2281,7 +2282,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -2301,7 +2302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -2321,7 +2322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -2341,7 +2342,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -2361,7 +2362,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -2381,7 +2382,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -2401,7 +2402,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>39</v>
       </c>
@@ -2421,7 +2422,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -2444,7 +2445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -2464,7 +2465,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -2484,7 +2485,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -2504,7 +2505,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -2524,7 +2525,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -2544,7 +2545,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -2564,7 +2565,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -2581,7 +2582,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -2598,7 +2599,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -2615,7 +2616,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -2632,7 +2633,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -2649,7 +2650,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -2666,7 +2667,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -2683,7 +2684,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>39</v>
       </c>
@@ -2700,7 +2701,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -2717,7 +2718,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -2734,7 +2735,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -2751,7 +2752,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -2768,7 +2769,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -2785,7 +2786,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -2805,7 +2806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -2822,7 +2823,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -2839,7 +2840,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -2856,7 +2857,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>46</v>
       </c>
@@ -2873,7 +2874,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -2890,7 +2891,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -2907,7 +2908,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>46</v>
       </c>
@@ -2924,7 +2925,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -2944,7 +2945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>46</v>
       </c>
@@ -2961,7 +2962,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>46</v>
       </c>
@@ -2978,7 +2979,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -2995,7 +2996,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>128</v>
       </c>
@@ -3012,7 +3013,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>128</v>
       </c>
@@ -3032,7 +3033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>128</v>
       </c>
@@ -3049,7 +3050,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>128</v>
       </c>
@@ -3066,7 +3067,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>128</v>
       </c>
@@ -3083,7 +3084,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>128</v>
       </c>
@@ -3100,7 +3101,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>128</v>
       </c>
@@ -3114,7 +3115,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>128</v>
       </c>
@@ -3128,7 +3129,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>128</v>
       </c>
@@ -3142,7 +3143,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>128</v>
       </c>
@@ -3156,7 +3157,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>128</v>
       </c>
@@ -3170,7 +3171,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>128</v>
       </c>
@@ -3184,7 +3185,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>128</v>
       </c>
@@ -3198,7 +3199,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>128</v>
       </c>
@@ -3212,7 +3213,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>128</v>
       </c>
@@ -3226,7 +3227,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>128</v>
       </c>
@@ -3240,7 +3241,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>128</v>
       </c>
@@ -3254,7 +3255,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>128</v>
       </c>
@@ -3268,7 +3269,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>128</v>
       </c>
@@ -3282,7 +3283,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>128</v>
       </c>
@@ -3296,7 +3297,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>128</v>
       </c>
@@ -3310,7 +3311,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>65</v>
       </c>
@@ -3327,7 +3328,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>65</v>
       </c>
@@ -3344,7 +3345,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -3361,7 +3362,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -3378,7 +3379,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -3395,7 +3396,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -3412,7 +3413,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>65</v>
       </c>
@@ -3429,7 +3430,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>65</v>
       </c>
@@ -3446,7 +3447,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>65</v>
       </c>
@@ -3463,7 +3464,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>65</v>
       </c>
@@ -3480,7 +3481,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>65</v>
       </c>
@@ -3500,7 +3501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>65</v>
       </c>
@@ -3520,7 +3521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>65</v>
       </c>
@@ -3540,7 +3541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>65</v>
       </c>
@@ -3557,7 +3558,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>65</v>
       </c>
@@ -3574,7 +3575,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>65</v>
       </c>
@@ -3591,7 +3592,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>65</v>
       </c>
@@ -3608,7 +3609,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>56</v>
       </c>
@@ -3625,7 +3626,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>56</v>
       </c>
@@ -3642,7 +3643,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>56</v>
       </c>
@@ -3665,6 +3666,225 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B51E7A-08A5-4042-86E1-7986ED98437B}">
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="str">
+        <f>read!A1</f>
+        <v>factor_name</v>
+      </c>
+      <c r="B1" t="str">
+        <f>read!B1</f>
+        <v>asset_class</v>
+      </c>
+      <c r="C1" t="str">
+        <f>read!C1</f>
+        <v>region</v>
+      </c>
+      <c r="D1" t="str">
+        <f>read!D1</f>
+        <v>hyper_factor</v>
+      </c>
+      <c r="E1" t="str">
+        <f>read!E1</f>
+        <v>composite</v>
+      </c>
+      <c r="F1" t="str">
+        <f>read!F1</f>
+        <v>description</v>
+      </c>
+      <c r="G1" t="str">
+        <f>read!G1</f>
+        <v>source</v>
+      </c>
+      <c r="H1" t="str">
+        <f>read!H1</f>
+        <v>ticker</v>
+      </c>
+      <c r="I1" t="str">
+        <f>read!I1</f>
+        <v>diffusion_type</v>
+      </c>
+      <c r="J1" t="str">
+        <f>read!J1</f>
+        <v>multiplier</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="str" cm="1">
+        <f t="array" ref="A2:A6">_xlfn.CHOOSEROWS(_xlfn.ANCHORARRAY(read!A2),_xlfn.SEQUENCE(5))</f>
+        <v>SPY</v>
+      </c>
+      <c r="B2" t="str" cm="1">
+        <f t="array" ref="B2:J6">_xlfn.CHOOSEROWS(_xlfn.ANCHORARRAY(read!B2),_xlfn.SEQUENCE(5))</f>
+        <v>Equities</v>
+      </c>
+      <c r="C2" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="str">
+        <v>S&amp;P 500</v>
+      </c>
+      <c r="G2" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H2" t="str">
+        <v>SPY</v>
+      </c>
+      <c r="I2" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J2">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <v>IWM</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C3" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="str">
+        <v>Russell 2000</v>
+      </c>
+      <c r="G3" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H3" t="str">
+        <v>IWM</v>
+      </c>
+      <c r="I3" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J3">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <v>MDY</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C4" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="str">
+        <v>S&amp;P 400</v>
+      </c>
+      <c r="G4" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H4" t="str">
+        <v>MDY</v>
+      </c>
+      <c r="I4" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J4">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <v>RSP</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C5" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="str">
+        <v>S&amp;P 500 EW</v>
+      </c>
+      <c r="G5" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H5" t="str">
+        <v>RSP</v>
+      </c>
+      <c r="I5" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J5">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <v>QQQ</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C6" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="str">
+        <v>Nasdaq 100</v>
+      </c>
+      <c r="G6" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H6" t="str">
+        <v>QQQ</v>
+      </c>
+      <c r="I6" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J6">
+        <v>1E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A08F2F-299B-47F7-8064-36693758F4E3}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:E59"/>
@@ -3673,12 +3893,12 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="44.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -3695,7 +3915,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="str" cm="1">
         <f t="array" ref="A2:A59">_xlfn._xlws.FILTER(data[factor_name],data[Active]*NOT(data[composite]))</f>
         <v>SPY</v>
@@ -3714,7 +3934,7 @@
         <v>S&amp;P 500</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <v>IWM</v>
       </c>
@@ -3731,7 +3951,7 @@
         <v>Russell 2000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <v>MDY</v>
       </c>
@@ -3748,7 +3968,7 @@
         <v>S&amp;P 400</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <v>RSP</v>
       </c>
@@ -3765,7 +3985,7 @@
         <v>S&amp;P 500 EW</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <v>QQQ</v>
       </c>
@@ -3782,7 +4002,7 @@
         <v>Nasdaq 100</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <v>DIA</v>
       </c>
@@ -3799,7 +4019,7 @@
         <v>Dow Jones 30</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <v>XLK</v>
       </c>
@@ -3816,7 +4036,7 @@
         <v>Technology</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <v>XLI</v>
       </c>
@@ -3833,7 +4053,7 @@
         <v>Industrials</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <v>XLF</v>
       </c>
@@ -3850,7 +4070,7 @@
         <v>Financials</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <v>KRE</v>
       </c>
@@ -3867,7 +4087,7 @@
         <v>Regional Banks</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <v>XLC</v>
       </c>
@@ -3884,7 +4104,7 @@
         <v>Communications</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <v>XLE</v>
       </c>
@@ -3901,7 +4121,7 @@
         <v>Energy</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <v>XLY</v>
       </c>
@@ -3918,7 +4138,7 @@
         <v>Discretionary</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <v>XLB</v>
       </c>
@@ -3935,7 +4155,7 @@
         <v>Materials</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <v>XLV</v>
       </c>
@@ -3952,7 +4172,7 @@
         <v>Health Care</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <v>XLU</v>
       </c>
@@ -3969,7 +4189,7 @@
         <v>Utilities</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <v>XLP</v>
       </c>
@@ -3986,7 +4206,7 @@
         <v>Staples</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <v>IYR</v>
       </c>
@@ -4003,7 +4223,7 @@
         <v>iShares U.S. Real Estate ETF</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <v>VNQ</v>
       </c>
@@ -4020,7 +4240,7 @@
         <v>Vanguard Real Estate ETF</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <v>AIQ</v>
       </c>
@@ -4037,7 +4257,7 @@
         <v>AI</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <v>ICLN</v>
       </c>
@@ -4054,7 +4274,7 @@
         <v>Clean Energy</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <v>PFF</v>
       </c>
@@ -4071,7 +4291,7 @@
         <v>Preferred</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <v>FEZ</v>
       </c>
@@ -4088,7 +4308,7 @@
         <v>Eurostoxx 50</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <v>EWU</v>
       </c>
@@ -4105,7 +4325,7 @@
         <v>iShares FTSE United Kingdom ETF</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <v>DAX</v>
       </c>
@@ -4122,7 +4342,7 @@
         <v>DAX (Germany)</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <v>EWC</v>
       </c>
@@ -4139,7 +4359,7 @@
         <v>iShares MSCI Canada ETF</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <v>EWI</v>
       </c>
@@ -4156,7 +4376,7 @@
         <v>iShares MSCI Italy ETF</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <v>^N225</v>
       </c>
@@ -4173,7 +4393,7 @@
         <v>Nikkei 225</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <v>TPX</v>
       </c>
@@ -4190,7 +4410,7 @@
         <v>TOPIX</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <v>FXI</v>
       </c>
@@ -4207,7 +4427,7 @@
         <v>iShares China Large-Cap ETF</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <v>ASHR</v>
       </c>
@@ -4224,7 +4444,7 @@
         <v>Xtrackers Harvest CSI 300 China A-Shares ETF</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <v>KWEB</v>
       </c>
@@ -4241,7 +4461,7 @@
         <v>KraneShares CSI China Internet ETF</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <v>EEM</v>
       </c>
@@ -4258,7 +4478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <v>LQD</v>
       </c>
@@ -4275,7 +4495,7 @@
         <v>iShares iBoxx $ Investment Grade Corporate Bond ETF</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <v>BSV</v>
       </c>
@@ -4292,7 +4512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <v>HYG</v>
       </c>
@@ -4309,7 +4529,7 @@
         <v>iShares iBoxx $ High Yield Corporate Bond ETF</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <v>HYGH</v>
       </c>
@@ -4326,7 +4546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <v>AGG</v>
       </c>
@@ -4343,7 +4563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <v>^TNX</v>
       </c>
@@ -4360,7 +4580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <v>SHY</v>
       </c>
@@ -4377,7 +4597,7 @@
         <v>iShares 1-3 Year Treasury Bond ETF</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <v>IEI</v>
       </c>
@@ -4394,7 +4614,7 @@
         <v>iShares 3-7 Year Treasury Bond ETF</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <v>IEF</v>
       </c>
@@ -4411,7 +4631,7 @@
         <v>iShares 7-10 Year Treasury Bond ETF</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <v>TLT</v>
       </c>
@@ -4428,7 +4648,7 @@
         <v>iShares 20+ Year Treasury Bond ETF</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <v>TIP</v>
       </c>
@@ -4445,7 +4665,7 @@
         <v>iShares TIPS Bond ETF</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <v>VTIP</v>
       </c>
@@ -4462,7 +4682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <v>AGNC</v>
       </c>
@@ -4479,7 +4699,7 @@
         <v>AGNC Investment Corp.</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <v>VMBS</v>
       </c>
@@ -4496,7 +4716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <v>CMBS</v>
       </c>
@@ -4513,7 +4733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <v>EMB</v>
       </c>
@@ -4530,7 +4750,7 @@
         <v>iShares J.P. Morgan USD Emerging Markets Bond ETF</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <v>GLD</v>
       </c>
@@ -4547,7 +4767,7 @@
         <v>SPDR Gold Shares</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <v>SLV</v>
       </c>
@@ -4564,7 +4784,7 @@
         <v>iShares Silver Trust</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <v>USO</v>
       </c>
@@ -4581,7 +4801,7 @@
         <v>United States Oil Fund</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <v>UUP</v>
       </c>
@@ -4598,7 +4818,7 @@
         <v>Invesco DB US Dollar Index Bullish Fund</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
         <v>FXE</v>
       </c>
@@ -4615,7 +4835,7 @@
         <v>Invesco CurrencyShares Euro Trust</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
         <v>FXY</v>
       </c>
@@ -4632,7 +4852,7 @@
         <v>Invesco CurrencyShares Japanese Yen Trust</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
         <v>^VIX</v>
       </c>
@@ -4649,7 +4869,7 @@
         <v>CBOE Volatility Index</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <v>^MOVE</v>
       </c>
@@ -4666,7 +4886,7 @@
         <v>ICE BofAML MOVE Index</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
         <v>MWTIX</v>
       </c>
@@ -4688,7 +4908,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{509EC1D2-D913-4E91-BF4A-1B9A2D2D358E}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:C9"/>
@@ -4697,13 +4917,13 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="102.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="102.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="59" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -4714,7 +4934,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -4725,7 +4945,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -4736,7 +4956,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -4747,7 +4967,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
@@ -4758,7 +4978,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -4769,7 +4989,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
@@ -4780,7 +5000,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
@@ -4791,7 +5011,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>15</v>
       </c>
@@ -4807,7 +5027,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28B96AA-E903-4E49-8EE7-2DF563672EF4}">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:D9"/>
@@ -4816,12 +5036,12 @@
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -4835,7 +5055,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4846,7 +5066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4857,7 +5077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -4868,7 +5088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -4879,7 +5099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -4890,7 +5110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -4901,7 +5121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -4912,7 +5132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -4928,7 +5148,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BECED18-9D5B-4FAE-9BAD-99DBF8245FFA}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:M74"/>
@@ -4937,19 +5157,19 @@
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
-    <col min="2" max="2" width="8.44140625" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="5" max="5" width="8.44140625" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" customWidth="1"/>
-    <col min="7" max="7" width="64.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.44140625" customWidth="1"/>
-    <col min="9" max="9" width="44.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="64.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" customWidth="1"/>
+    <col min="9" max="9" width="44.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>322</v>
       </c>
@@ -4978,7 +5198,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>39</v>
       </c>
@@ -5015,7 +5235,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>39</v>
       </c>
@@ -5051,7 +5271,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>39</v>
       </c>
@@ -5087,7 +5307,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>39</v>
       </c>
@@ -5123,7 +5343,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>39</v>
       </c>
@@ -5160,7 +5380,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>39</v>
       </c>
@@ -5193,7 +5413,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>39</v>
       </c>
@@ -5225,7 +5445,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>39</v>
       </c>
@@ -5261,7 +5481,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>39</v>
       </c>
@@ -5293,7 +5513,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>39</v>
       </c>
@@ -5325,7 +5545,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>39</v>
       </c>
@@ -5361,7 +5581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>39</v>
       </c>
@@ -5393,7 +5613,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>39</v>
       </c>
@@ -5429,7 +5649,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>39</v>
       </c>
@@ -5461,7 +5681,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>39</v>
       </c>
@@ -5497,7 +5717,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>39</v>
       </c>
@@ -5533,7 +5753,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>39</v>
       </c>
@@ -5567,7 +5787,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>39</v>
       </c>
@@ -5601,7 +5821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>46</v>
       </c>
@@ -5635,7 +5855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>46</v>
       </c>
@@ -5669,7 +5889,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>46</v>
       </c>
@@ -5695,7 +5915,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>46</v>
       </c>
@@ -5721,7 +5941,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>128</v>
       </c>
@@ -5755,7 +5975,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>128</v>
       </c>
@@ -5789,7 +6009,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>128</v>
       </c>
@@ -5823,7 +6043,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>128</v>
       </c>
@@ -5857,7 +6077,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>128</v>
       </c>
@@ -5891,7 +6111,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>128</v>
       </c>
@@ -5914,7 +6134,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>128</v>
       </c>
@@ -5946,7 +6166,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>128</v>
       </c>
@@ -5978,7 +6198,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>128</v>
       </c>
@@ -6010,7 +6230,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>128</v>
       </c>
@@ -6036,7 +6256,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>128</v>
       </c>
@@ -6064,7 +6284,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>128</v>
       </c>
@@ -6096,7 +6316,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>128</v>
       </c>
@@ -6122,7 +6342,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>128</v>
       </c>
@@ -6152,7 +6372,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>128</v>
       </c>
@@ -6184,7 +6404,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>56</v>
       </c>
@@ -6216,7 +6436,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>56</v>
       </c>
@@ -6248,7 +6468,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>56</v>
       </c>
@@ -6280,7 +6500,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>56</v>
       </c>
@@ -6312,7 +6532,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>65</v>
       </c>
@@ -6344,7 +6564,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>65</v>
       </c>
@@ -6376,7 +6596,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>65</v>
       </c>
@@ -6406,7 +6626,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L46" t="s">
         <v>344</v>
       </c>
@@ -6414,7 +6634,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>343</v>
       </c>
@@ -6425,7 +6645,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L48" t="s">
         <v>14</v>
       </c>
@@ -6433,7 +6653,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>333</v>
       </c>
@@ -6452,7 +6672,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>334</v>
       </c>
@@ -6466,7 +6686,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>335</v>
       </c>
@@ -6480,7 +6700,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>336</v>
       </c>
@@ -6497,7 +6717,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>337</v>
       </c>
@@ -6514,7 +6734,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>338</v>
       </c>
@@ -6531,7 +6751,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>339</v>
       </c>
@@ -6548,7 +6768,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>340</v>
       </c>
@@ -6565,7 +6785,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>341</v>
       </c>
@@ -6585,7 +6805,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.25">
       <c r="F58" t="s">
         <v>178</v>
       </c>
@@ -6599,7 +6819,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.25">
       <c r="F59" t="s">
         <v>179</v>
       </c>
@@ -6613,7 +6833,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C60" t="str" cm="1">
         <f t="array" ref="C60:C67">_xlfn.TEXTSPLIT(C47,," ")</f>
         <v>Emhy</v>
@@ -6635,7 +6855,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C61" t="str">
         <v>mdy</v>
       </c>
@@ -6655,7 +6875,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C62" t="str">
         <v>vnq</v>
       </c>
@@ -6675,7 +6895,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C63" t="str">
         <v>pff</v>
       </c>
@@ -6695,7 +6915,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C64" t="str">
         <v>ashr</v>
       </c>
@@ -6712,7 +6932,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C65" t="str">
         <v>kweb</v>
       </c>
@@ -6729,7 +6949,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C66" t="str">
         <v>fxi</v>
       </c>
@@ -6746,7 +6966,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C67" t="str">
         <v>aiq</v>
       </c>
@@ -6763,7 +6983,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:13" x14ac:dyDescent="0.25">
       <c r="J68" t="s">
         <v>352</v>
       </c>
@@ -6774,7 +6994,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:13" x14ac:dyDescent="0.25">
       <c r="J69" t="s">
         <v>353</v>
       </c>
@@ -6785,7 +7005,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:13" x14ac:dyDescent="0.25">
       <c r="J70" t="s">
         <v>354</v>
       </c>
@@ -6796,7 +7016,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:13" x14ac:dyDescent="0.25">
       <c r="J71" t="s">
         <v>355</v>
       </c>
@@ -6807,7 +7027,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:13" x14ac:dyDescent="0.25">
       <c r="J72" t="s">
         <v>356</v>
       </c>
@@ -6818,7 +7038,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:13" x14ac:dyDescent="0.25">
       <c r="J73" t="s">
         <v>357</v>
       </c>
@@ -6829,7 +7049,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:13" x14ac:dyDescent="0.25">
       <c r="L74" t="s">
         <v>285</v>
       </c>
@@ -6854,9 +7074,9 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>358</v>
       </c>
@@ -6873,7 +7093,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>39</v>
       </c>
@@ -6890,7 +7110,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
@@ -6907,7 +7127,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>39</v>
       </c>
@@ -6924,7 +7144,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>39</v>
       </c>
@@ -6941,7 +7161,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>39</v>
       </c>
@@ -6958,7 +7178,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>39</v>
       </c>
@@ -6975,7 +7195,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>39</v>
       </c>
@@ -6992,7 +7212,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>39</v>
       </c>
@@ -7009,7 +7229,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>39</v>
       </c>
@@ -7026,7 +7246,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>39</v>
       </c>
@@ -7043,7 +7263,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>39</v>
       </c>
@@ -7060,7 +7280,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>39</v>
       </c>
@@ -7077,7 +7297,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>39</v>
       </c>
@@ -7094,7 +7314,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>39</v>
       </c>
@@ -7111,7 +7331,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>39</v>
       </c>
@@ -7128,7 +7348,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>39</v>
       </c>
@@ -7145,7 +7365,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>39</v>
       </c>
@@ -7162,7 +7382,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>39</v>
       </c>
@@ -7179,7 +7399,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>39</v>
       </c>
@@ -7196,7 +7416,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>39</v>
       </c>
@@ -7213,7 +7433,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>39</v>
       </c>
@@ -7230,7 +7450,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>39</v>
       </c>
@@ -7247,7 +7467,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>39</v>
       </c>
@@ -7264,7 +7484,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
@@ -7281,7 +7501,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>39</v>
       </c>
@@ -7298,7 +7518,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>39</v>
       </c>
@@ -7315,7 +7535,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>39</v>
       </c>
@@ -7332,7 +7552,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>39</v>
       </c>
@@ -7349,7 +7569,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>39</v>
       </c>
@@ -7366,7 +7586,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>39</v>
       </c>
@@ -7383,7 +7603,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>39</v>
       </c>
@@ -7400,7 +7620,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>39</v>
       </c>
@@ -7417,7 +7637,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>39</v>
       </c>
@@ -7434,7 +7654,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>39</v>
       </c>
@@ -7451,7 +7671,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>46</v>
       </c>
@@ -7468,7 +7688,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>46</v>
       </c>
@@ -7485,7 +7705,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>46</v>
       </c>
@@ -7502,7 +7722,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>46</v>
       </c>
@@ -7519,7 +7739,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>46</v>
       </c>
@@ -7536,7 +7756,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>128</v>
       </c>
@@ -7553,7 +7773,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>128</v>
       </c>
@@ -7570,7 +7790,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>128</v>
       </c>
@@ -7587,7 +7807,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>128</v>
       </c>
@@ -7604,7 +7824,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>128</v>
       </c>
@@ -7621,7 +7841,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>128</v>
       </c>
@@ -7638,7 +7858,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>128</v>
       </c>
@@ -7655,7 +7875,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>128</v>
       </c>
@@ -7672,7 +7892,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>128</v>
       </c>
@@ -7689,7 +7909,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>128</v>
       </c>
@@ -7706,7 +7926,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>128</v>
       </c>
@@ -7723,7 +7943,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>128</v>
       </c>
@@ -7740,7 +7960,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>128</v>
       </c>
@@ -7757,7 +7977,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>65</v>
       </c>
@@ -7774,7 +7994,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>65</v>
       </c>
@@ -7791,7 +8011,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>65</v>
       </c>
@@ -7808,7 +8028,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>65</v>
       </c>
@@ -7825,7 +8045,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>56</v>
       </c>
@@ -7842,7 +8062,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>56</v>
       </c>
@@ -7859,7 +8079,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>56</v>
       </c>
@@ -7876,7 +8096,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>56</v>
       </c>
@@ -7907,19 +8127,19 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1"/>
-    <col min="5" max="5" width="44.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="13" width="10.33203125" customWidth="1"/>
-    <col min="14" max="14" width="44.21875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="45.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="45.77734375" customWidth="1"/>
-    <col min="19" max="19" width="45.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="13" width="10.28515625" customWidth="1"/>
+    <col min="14" max="14" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="45.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="45.7109375" customWidth="1"/>
+    <col min="19" max="19" width="45.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" cm="1">
         <f t="array" ref="A5:A65">_xlfn.XMATCH(C5:C65,data[factor_name])</f>
         <v>1</v>
@@ -7953,7 +8173,7 @@
         <v>SPDR S&amp;P 500 ETF Trust</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -7982,7 +8202,7 @@
         <v>SPDR S&amp;P MidCap 400 ETF Trust</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -8009,7 +8229,7 @@
         <v>iShares Russell 2000 ETF</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -8036,7 +8256,7 @@
         <v>Invesco QQQ Trust</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -8063,7 +8283,7 @@
         <v>SPDR Dow Jones Industrial Average ETF Trust</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -8092,7 +8312,7 @@
         <v>Technology Select Sector SPDR Fund</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -8121,7 +8341,7 @@
         <v>Industrial Select Sector SPDR Fund</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -8150,7 +8370,7 @@
         <v>Financial Select Sector SPDR Fund</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -8179,7 +8399,7 @@
         <v>SPDR S&amp;P Regional Banking ETF</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
@@ -8208,7 +8428,7 @@
         <v>Communication Services Select Sector SPDR</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
@@ -8237,7 +8457,7 @@
         <v>Energy Select Sector SPDR Fund</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13</v>
       </c>
@@ -8266,7 +8486,7 @@
         <v>Consumer Discretionary Select Sector SPDR</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
@@ -8295,7 +8515,7 @@
         <v>Materials Select Sector SPDR Fund</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>15</v>
       </c>
@@ -8324,7 +8544,7 @@
         <v>Health Care Select Sector SPDR Fund</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>16</v>
       </c>
@@ -8353,7 +8573,7 @@
         <v>Utilities Select Sector SPDR Fund</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>17</v>
       </c>
@@ -8382,7 +8602,7 @@
         <v>Consumer Staples Select Sector SPDR Fund</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18</v>
       </c>
@@ -8411,7 +8631,7 @@
         <v>iShares U.S. Real Estate ETF</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>19</v>
       </c>
@@ -8440,7 +8660,7 @@
         <v>Vanguard Real Estate ETF</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20</v>
       </c>
@@ -8469,7 +8689,7 @@
         <v>Global X Artificial Intelligence &amp; Technology ETF</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -8498,7 +8718,7 @@
         <v>iShares Preferred and Income Securities ETF</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -8525,7 +8745,7 @@
         <v>SPDR EURO STOXX 50 ETF</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -8552,7 +8772,7 @@
         <v>iShares STOXX Europe 600 Banks</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -8579,7 +8799,7 @@
         <v>iShares FTSE United Kingdom ETF</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -8606,7 +8826,7 @@
         <v>Xtrackers DAX Equity ETF</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -8633,7 +8853,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -8660,7 +8880,7 @@
         <v>iShares MSCI Italy ETF</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -8687,7 +8907,7 @@
         <v>Lyxor CAC 40 ETF</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -8714,7 +8934,7 @@
         <v>iShares MSCI Italy ETF</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -8741,7 +8961,7 @@
         <v>IBEX 35 ETF</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -8768,7 +8988,7 @@
         <v>iShares MSCI Spain ETF</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -8795,7 +9015,7 @@
         <v>Nikkei 225 ETF</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -8822,7 +9042,7 @@
         <v>iShares TOPIX ETF</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -8849,7 +9069,7 @@
         <v>iShares China Large-Cap ETF</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -8876,7 +9096,7 @@
         <v>Xtrackers Harvest CSI 300 China A-Shares ETF</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -8903,7 +9123,7 @@
         <v>KraneShares CSI China Internet ETF</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -8930,7 +9150,7 @@
         <v>iShares iBoxx $ Investment Grade Corporate Bond ETF</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>41</v>
       </c>
@@ -8957,7 +9177,7 @@
         <v>iShares iBoxx $ High Yield Corporate Bond ETF</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>42</v>
       </c>
@@ -8984,7 +9204,7 @@
         <v>iShares Interest Rate Hedged Corporate Bond ETF</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>43</v>
       </c>
@@ -9011,7 +9231,7 @@
         <v>iShares Interest Rate Hedged High Yield Bond ETF</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>46</v>
       </c>
@@ -9038,7 +9258,7 @@
         <v>iShares 1-3 Year Treasury Bond ETF</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>47</v>
       </c>
@@ -9065,7 +9285,7 @@
         <v>iShares 3-7 Year Treasury Bond ETF</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>48</v>
       </c>
@@ -9092,7 +9312,7 @@
         <v>iShares 7-10 Year Treasury Bond ETF</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>49</v>
       </c>
@@ -9119,7 +9339,7 @@
         <v>iShares 20+ Year Treasury Bond ETF</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>50</v>
       </c>
@@ -9146,7 +9366,7 @@
         <v>iShares TIPS Bond ETF</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>51</v>
       </c>
@@ -9173,7 +9393,7 @@
         <v>Vanguard Short-Term Inflation-Protected Securities ETF</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>52</v>
       </c>
@@ -9200,7 +9420,7 @@
         <v>iShares MBS ETF</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>53</v>
       </c>
@@ -9227,7 +9447,7 @@
         <v>Simplify Mortgage Backed Securities ETF</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>54</v>
       </c>
@@ -9254,7 +9474,7 @@
         <v>AGNC Investment Corp.</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>55</v>
       </c>
@@ -9281,7 +9501,7 @@
         <v>Vanguard Mortgage-Backed Securities ETF</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>56</v>
       </c>
@@ -9310,7 +9530,7 @@
         <v>iShares CMBS ETF</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>57</v>
       </c>
@@ -9337,7 +9557,7 @@
         <v>iShares J.P. Morgan USD Emerging Markets Bond ETF</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>58</v>
       </c>
@@ -9364,7 +9584,7 @@
         <v>iShares Emerging Markets High Yield Bond ETF</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>59</v>
       </c>
@@ -9391,7 +9611,7 @@
         <v>WisdomTree Emerging Markets Local Debt Fund</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>60</v>
       </c>
@@ -9418,7 +9638,7 @@
         <v>iShares International Government Bonds ETF</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>61</v>
       </c>
@@ -9445,7 +9665,7 @@
         <v>SPDR Gold Shares</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>62</v>
       </c>
@@ -9472,7 +9692,7 @@
         <v>iShares Silver Trust</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>63</v>
       </c>
@@ -9499,7 +9719,7 @@
         <v>United States Oil Fund</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>64</v>
       </c>
@@ -9526,7 +9746,7 @@
         <v>Invesco DB Commodity Index Tracking Fund</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>65</v>
       </c>
@@ -9553,7 +9773,7 @@
         <v>Invesco DB US Dollar Index Bullish Fund</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>66</v>
       </c>
@@ -9580,7 +9800,7 @@
         <v>Invesco CurrencyShares Euro Trust</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>67</v>
       </c>
@@ -9619,9 +9839,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>333</v>
       </c>
@@ -9634,7 +9854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>334</v>
       </c>
@@ -9645,7 +9865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>335</v>
       </c>
@@ -9656,7 +9876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>336</v>
       </c>
@@ -9667,7 +9887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>337</v>
       </c>
@@ -9678,7 +9898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>338</v>
       </c>
@@ -9689,7 +9909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>339</v>
       </c>
@@ -9700,7 +9920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>340</v>
       </c>
@@ -9711,7 +9931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>341</v>
       </c>
@@ -9722,17 +9942,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D10" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D11" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="e" cm="1">
         <f t="array" ref="A12">_xlfn.TEXTSPLIT(data!#REF!,," ")</f>
         <v>#REF!</v>
@@ -9745,47 +9965,47 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D13" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D14" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D15" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D16" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D17" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D18" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D19" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D20" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>173</v>
       </c>
@@ -9793,7 +10013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>174</v>
       </c>
@@ -9801,7 +10021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>175</v>
       </c>
@@ -9809,7 +10029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>176</v>
       </c>
@@ -9817,7 +10037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>177</v>
       </c>
@@ -9825,7 +10045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>342</v>
       </c>
@@ -9833,7 +10053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>178</v>
       </c>
@@ -9841,7 +10061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>179</v>
       </c>
@@ -9849,7 +10069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>180</v>
       </c>
@@ -9857,7 +10077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>181</v>
       </c>
@@ -9865,7 +10085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>182</v>
       </c>
@@ -9873,7 +10093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>285</v>
       </c>
@@ -9895,9 +10115,9 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="str" cm="1">
         <f t="array" ref="A1:C1">composities[#Headers]</f>
         <v>portfolio_name</v>
@@ -9909,7 +10129,7 @@
         <v>weight</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="str" cm="1">
         <f t="array" ref="A2:C14">composities[]</f>
         <v>TRUMP</v>
@@ -9921,7 +10141,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <v>TRUMP</v>
       </c>
@@ -9932,7 +10152,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <v>TRUMP</v>
       </c>
@@ -9943,7 +10163,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <v>TRUMP</v>
       </c>
@@ -9954,7 +10174,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <v>FED</v>
       </c>
@@ -9965,7 +10185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <v>FED</v>
       </c>
@@ -9976,7 +10196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <v>AI</v>
       </c>
@@ -9987,7 +10207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <v>AI</v>
       </c>
@@ -9998,7 +10218,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <v>AI</v>
       </c>
@@ -10009,7 +10229,7 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <v>GEOPOLITICS</v>
       </c>
@@ -10020,7 +10240,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <v>GEOPOLITICS</v>
       </c>
@@ -10031,7 +10251,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <v>2s10s</v>
       </c>
@@ -10042,7 +10262,7 @@
         <v>-3.8633879781420766</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <v>2s10s</v>
       </c>
@@ -10067,13 +10287,13 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" customWidth="1"/>
-    <col min="2" max="2" width="13.21875" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>449</v>
       </c>
@@ -10084,7 +10304,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>430</v>
       </c>
@@ -10111,7 +10331,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>430</v>
       </c>
@@ -10135,7 +10355,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>430</v>
       </c>
@@ -10162,7 +10382,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>430</v>
       </c>
@@ -10186,7 +10406,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>439</v>
       </c>
@@ -10210,7 +10430,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>439</v>
       </c>
@@ -10237,7 +10457,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>421</v>
       </c>
@@ -10267,7 +10487,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>421</v>
       </c>
@@ -10294,7 +10514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>421</v>
       </c>
@@ -10324,7 +10544,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>450</v>
       </c>
@@ -10345,7 +10565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>450</v>
       </c>
@@ -10366,7 +10586,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>451</v>
       </c>
@@ -10388,7 +10608,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>451</v>
       </c>
@@ -10432,25 +10652,25 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:T81"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="C60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A75" sqref="A75"/>
+      <selection pane="bottomRight" activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
-    <col min="2" max="2" width="8.44140625" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="59.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="8.44140625" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="59.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>322</v>
       </c>
@@ -10497,7 +10717,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>39</v>
       </c>
@@ -10552,7 +10772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>39</v>
       </c>
@@ -10608,7 +10828,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>39</v>
       </c>
@@ -10661,7 +10881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>39</v>
       </c>
@@ -10713,7 +10933,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>39</v>
       </c>
@@ -10766,7 +10986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>39</v>
       </c>
@@ -10819,7 +11039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>425</v>
       </c>
@@ -10868,7 +11088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>425</v>
       </c>
@@ -10917,7 +11137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>425</v>
       </c>
@@ -10966,7 +11186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>425</v>
       </c>
@@ -11015,7 +11235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>425</v>
       </c>
@@ -11064,7 +11284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>425</v>
       </c>
@@ -11113,7 +11333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>425</v>
       </c>
@@ -11162,7 +11382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>425</v>
       </c>
@@ -11211,7 +11431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>425</v>
       </c>
@@ -11260,7 +11480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>425</v>
       </c>
@@ -11309,7 +11529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>425</v>
       </c>
@@ -11358,7 +11578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>39</v>
       </c>
@@ -11405,7 +11625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>39</v>
       </c>
@@ -11452,7 +11672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>39</v>
       </c>
@@ -11501,7 +11721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>39</v>
       </c>
@@ -11548,7 +11768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>39</v>
       </c>
@@ -11597,7 +11817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>39</v>
       </c>
@@ -11650,7 +11870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>39</v>
       </c>
@@ -11699,7 +11919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>39</v>
       </c>
@@ -11748,7 +11968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>39</v>
       </c>
@@ -11801,7 +12021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>39</v>
       </c>
@@ -11850,7 +12070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>39</v>
       </c>
@@ -11899,7 +12119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>39</v>
       </c>
@@ -11952,7 +12172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>39</v>
       </c>
@@ -12001,7 +12221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>39</v>
       </c>
@@ -12054,7 +12274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>39</v>
       </c>
@@ -12103,7 +12323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>39</v>
       </c>
@@ -12156,7 +12376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>39</v>
       </c>
@@ -12209,7 +12429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>39</v>
       </c>
@@ -12260,7 +12480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>39</v>
       </c>
@@ -12311,7 +12531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>39</v>
       </c>
@@ -12360,7 +12580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>39</v>
       </c>
@@ -12405,7 +12625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>46</v>
       </c>
@@ -12456,7 +12676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>46</v>
       </c>
@@ -12501,7 +12721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>46</v>
       </c>
@@ -12552,7 +12772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>46</v>
       </c>
@@ -12599,7 +12819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>46</v>
       </c>
@@ -12646,7 +12866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>46</v>
       </c>
@@ -12691,7 +12911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>128</v>
       </c>
@@ -12738,7 +12958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>128</v>
       </c>
@@ -12789,7 +13009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>128</v>
       </c>
@@ -12840,7 +13060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>128</v>
       </c>
@@ -12891,7 +13111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>128</v>
       </c>
@@ -12942,7 +13162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>128</v>
       </c>
@@ -12991,7 +13211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>128</v>
       </c>
@@ -13033,7 +13253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>128</v>
       </c>
@@ -13082,7 +13302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>128</v>
       </c>
@@ -13131,7 +13351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>128</v>
       </c>
@@ -13180,7 +13400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>128</v>
       </c>
@@ -13225,7 +13445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>128</v>
       </c>
@@ -13270,7 +13490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>128</v>
       </c>
@@ -13319,7 +13539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>128</v>
       </c>
@@ -13364,7 +13584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>128</v>
       </c>
@@ -13411,7 +13631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>128</v>
       </c>
@@ -13460,7 +13680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>56</v>
       </c>
@@ -13509,7 +13729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>56</v>
       </c>
@@ -13558,7 +13778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>56</v>
       </c>
@@ -13607,7 +13827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>56</v>
       </c>
@@ -13656,7 +13876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>65</v>
       </c>
@@ -13705,7 +13925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>65</v>
       </c>
@@ -13754,7 +13974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>65</v>
       </c>
@@ -13801,7 +14021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>476</v>
       </c>
@@ -13848,7 +14068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>476</v>
       </c>
@@ -13895,7 +14115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>476</v>
       </c>
@@ -13942,7 +14162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>476</v>
       </c>
@@ -13989,7 +14209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>476</v>
       </c>
@@ -14036,7 +14256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>476</v>
       </c>
@@ -14083,7 +14303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>476</v>
       </c>
@@ -14130,7 +14350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>446</v>
       </c>
@@ -14175,7 +14395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>444</v>
       </c>
@@ -14221,7 +14441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>444</v>
       </c>
@@ -14266,7 +14486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>444</v>
       </c>
@@ -14311,7 +14531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>444</v>
       </c>
@@ -14356,7 +14576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>444</v>
       </c>
@@ -14419,13 +14639,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45BE1690-4C72-4E94-925C-89FAF286C7F8}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -14451,7 +14669,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -14477,7 +14695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>461</v>
       </c>
@@ -14503,7 +14721,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>95</v>
       </c>
@@ -14529,7 +14747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>238</v>
       </c>
@@ -14555,7 +14773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>456</v>
       </c>
@@ -14592,15 +14810,15 @@
   <dimension ref="A1:J64"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="B1" sqref="B1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="44.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -14632,7 +14850,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="str" cm="1">
         <f t="array" ref="A2:A64">_xlfn._xlws.FILTER(data[factor_name],data[Active])</f>
         <v>SPY</v>
@@ -14666,7 +14884,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <v>IWM</v>
       </c>
@@ -14698,7 +14916,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <v>MDY</v>
       </c>
@@ -14730,7 +14948,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <v>RSP</v>
       </c>
@@ -14762,7 +14980,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <v>QQQ</v>
       </c>
@@ -14794,7 +15012,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <v>DIA</v>
       </c>
@@ -14826,7 +15044,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <v>XLK</v>
       </c>
@@ -14858,7 +15076,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <v>XLI</v>
       </c>
@@ -14890,7 +15108,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <v>XLF</v>
       </c>
@@ -14922,7 +15140,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <v>KRE</v>
       </c>
@@ -14954,7 +15172,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <v>XLC</v>
       </c>
@@ -14986,7 +15204,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <v>XLE</v>
       </c>
@@ -15018,7 +15236,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <v>XLY</v>
       </c>
@@ -15050,7 +15268,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <v>XLB</v>
       </c>
@@ -15082,7 +15300,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <v>XLV</v>
       </c>
@@ -15114,7 +15332,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <v>XLU</v>
       </c>
@@ -15146,7 +15364,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <v>XLP</v>
       </c>
@@ -15178,7 +15396,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <v>IYR</v>
       </c>
@@ -15210,7 +15428,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <v>VNQ</v>
       </c>
@@ -15242,7 +15460,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <v>AIQ</v>
       </c>
@@ -15274,7 +15492,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <v>ICLN</v>
       </c>
@@ -15306,7 +15524,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <v>PFF</v>
       </c>
@@ -15338,7 +15556,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <v>FEZ</v>
       </c>
@@ -15370,7 +15588,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <v>EWU</v>
       </c>
@@ -15402,7 +15620,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <v>DAX</v>
       </c>
@@ -15434,7 +15652,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <v>EWC</v>
       </c>
@@ -15466,7 +15684,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <v>EWI</v>
       </c>
@@ -15498,7 +15716,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <v>^N225</v>
       </c>
@@ -15530,7 +15748,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <v>TPX</v>
       </c>
@@ -15562,7 +15780,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <v>FXI</v>
       </c>
@@ -15594,7 +15812,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <v>ASHR</v>
       </c>
@@ -15626,7 +15844,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <v>KWEB</v>
       </c>
@@ -15658,7 +15876,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <v>EEM</v>
       </c>
@@ -15690,7 +15908,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <v>LQD</v>
       </c>
@@ -15722,7 +15940,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <v>BSV</v>
       </c>
@@ -15754,7 +15972,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <v>HYG</v>
       </c>
@@ -15786,7 +16004,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <v>HYGH</v>
       </c>
@@ -15818,7 +16036,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <v>AGG</v>
       </c>
@@ -15850,7 +16068,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <v>^TNX</v>
       </c>
@@ -15882,7 +16100,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <v>SHY</v>
       </c>
@@ -15914,7 +16132,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <v>IEI</v>
       </c>
@@ -15946,7 +16164,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <v>IEF</v>
       </c>
@@ -15978,7 +16196,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <v>TLT</v>
       </c>
@@ -16010,7 +16228,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <v>TIP</v>
       </c>
@@ -16042,7 +16260,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <v>VTIP</v>
       </c>
@@ -16074,7 +16292,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <v>AGNC</v>
       </c>
@@ -16106,7 +16324,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <v>VMBS</v>
       </c>
@@ -16138,7 +16356,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <v>CMBS</v>
       </c>
@@ -16170,7 +16388,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <v>EMB</v>
       </c>
@@ -16202,7 +16420,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <v>GLD</v>
       </c>
@@ -16234,7 +16452,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <v>SLV</v>
       </c>
@@ -16266,7 +16484,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <v>USO</v>
       </c>
@@ -16298,7 +16516,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <v>UUP</v>
       </c>
@@ -16330,7 +16548,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
         <v>FXE</v>
       </c>
@@ -16362,7 +16580,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
         <v>FXY</v>
       </c>
@@ -16394,7 +16612,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
         <v>^VIX</v>
       </c>
@@ -16426,7 +16644,7 @@
         <v>-1E-4</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <v>^MOVE</v>
       </c>
@@ -16458,7 +16676,7 @@
         <v>-1E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
         <v>MWTIX</v>
       </c>
@@ -16490,7 +16708,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
         <v>TRUMP</v>
       </c>
@@ -16522,7 +16740,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
         <v>FED</v>
       </c>
@@ -16554,7 +16772,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
         <v>AI</v>
       </c>
@@ -16586,7 +16804,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
         <v>GEOPOLITICS</v>
       </c>
@@ -16618,7 +16836,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
         <v>2s10s</v>
       </c>

--- a/factor_master.xlsx
+++ b/factor_master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bkrai\Source\risk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5F746E-2E97-4669-8714-C419485A9DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988BB4ED-61E6-4E63-ADD3-8085DB5E8A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="2" activeTab="9" xr2:uid="{C31FDC5B-A809-4BFD-99CB-DA02246721F7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="8" activeTab="9" xr2:uid="{C31FDC5B-A809-4BFD-99CB-DA02246721F7}"/>
   </bookViews>
   <sheets>
     <sheet name="legacy" sheetId="5" r:id="rId1"/>
@@ -22,12 +22,13 @@
     <sheet name="data" sheetId="3" r:id="rId7"/>
     <sheet name="read_new" sheetId="15" r:id="rId8"/>
     <sheet name="read_tcw" sheetId="17" r:id="rId9"/>
-    <sheet name="read" sheetId="12" r:id="rId10"/>
-    <sheet name="read_short" sheetId="16" r:id="rId11"/>
-    <sheet name="read_old2" sheetId="4" r:id="rId12"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId13"/>
-    <sheet name="read_old" sheetId="1" r:id="rId14"/>
-    <sheet name="data_old" sheetId="8" r:id="rId15"/>
+    <sheet name="read_nocomposite" sheetId="19" r:id="rId10"/>
+    <sheet name="read" sheetId="12" r:id="rId11"/>
+    <sheet name="read_short" sheetId="16" r:id="rId12"/>
+    <sheet name="read_old2" sheetId="4" r:id="rId13"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId14"/>
+    <sheet name="read_old" sheetId="1" r:id="rId15"/>
+    <sheet name="data_old" sheetId="8" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -87,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1912" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1922" uniqueCount="489">
   <si>
     <t>SPX</t>
   </si>
@@ -1661,9 +1662,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1729,6 +1727,9 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1909,16 +1910,16 @@
     <tableColumn id="7" xr3:uid="{21539C17-C1CC-4FA9-A0E1-A2F8FF8AB52C}" name="Active" dataDxfId="21"/>
     <tableColumn id="37" xr3:uid="{DE50B7AE-5F67-471C-BE48-8BFA5076EDB0}" name="hyper_factor" dataDxfId="20"/>
     <tableColumn id="10" xr3:uid="{494805E4-EBB6-47FD-9BC2-8DAD9FB9D3FA}" name="composite" dataDxfId="19"/>
-    <tableColumn id="14" xr3:uid="{608FE572-4016-436E-8625-08926F3A2371}" name="client" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{5A601067-D384-419C-A711-AD3034F77E28}" name="description" dataDxfId="18">
+    <tableColumn id="14" xr3:uid="{608FE572-4016-436E-8625-08926F3A2371}" name="client" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{5A601067-D384-419C-A711-AD3034F77E28}" name="description" dataDxfId="17">
       <calculatedColumnFormula>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{C400A641-F032-4829-A2CD-62831D657B37}" name="source" dataDxfId="17"/>
-    <tableColumn id="12" xr3:uid="{BC682952-ADA8-4869-A16F-B9E7BC86E430}" name="diffusion_type" dataDxfId="16"/>
-    <tableColumn id="16" xr3:uid="{A99CC35E-FB67-451C-BF9C-DA8D933B1B0C}" name="multiplier" dataDxfId="15">
+    <tableColumn id="11" xr3:uid="{C400A641-F032-4829-A2CD-62831D657B37}" name="source" dataDxfId="16"/>
+    <tableColumn id="12" xr3:uid="{BC682952-ADA8-4869-A16F-B9E7BC86E430}" name="diffusion_type" dataDxfId="15"/>
+    <tableColumn id="16" xr3:uid="{A99CC35E-FB67-451C-BF9C-DA8D933B1B0C}" name="multiplier" dataDxfId="14">
       <calculatedColumnFormula array="1">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{64EF0381-B0C5-4226-B34E-0F9752A4A840}" name="ticker" dataDxfId="14">
+    <tableColumn id="13" xr3:uid="{64EF0381-B0C5-4226-B34E-0F9752A4A840}" name="ticker" dataDxfId="13">
       <calculatedColumnFormula>data[[#This Row],[factor_name]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1927,18 +1928,18 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F918301C-859F-40B7-9C3E-90E8F0495E68}" name="data_old" displayName="data_old" ref="A1:I45" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F918301C-859F-40B7-9C3E-90E8F0495E68}" name="data_old" displayName="data_old" ref="A1:I45" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A1:I45" xr:uid="{6DAD1482-C63D-400D-9F51-F22A8E35CAD8}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{B19D2B17-9AC9-4F1B-B32E-D4F72AAE469F}" name="asset_class" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{2C7CF29D-8E72-4B0C-A212-31F2A25D75C9}" name="region" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{C7E89EEC-2B5D-4C94-9327-1AC8E33DE708}" name="factor_name" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{B3F9004A-8BEB-463E-A746-8189A2AC2B3E}" name="factor_name_new" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{51CD7FB3-58FE-4906-B73C-7726C0A9C471}" name="description_override" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{3CFF990B-3164-4533-821F-08CE7C6D82CA}" name="Description_GPT" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{DD86D53E-A9B4-4387-ABF9-F2625E77982D}" name="Underlying" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{D56FFF9A-72FF-42A4-B3D2-2F27AB16AF7A}" name="Active" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{8476DFDE-B4B1-4FD9-99B4-DF1F2ABBD7D5}" name="description" dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{B19D2B17-9AC9-4F1B-B32E-D4F72AAE469F}" name="asset_class" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{2C7CF29D-8E72-4B0C-A212-31F2A25D75C9}" name="region" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{C7E89EEC-2B5D-4C94-9327-1AC8E33DE708}" name="factor_name" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{B3F9004A-8BEB-463E-A746-8189A2AC2B3E}" name="factor_name_new" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{51CD7FB3-58FE-4906-B73C-7726C0A9C471}" name="description_override" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{3CFF990B-3164-4533-821F-08CE7C6D82CA}" name="Description_GPT" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{DD86D53E-A9B4-4387-ABF9-F2625E77982D}" name="Underlying" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{D56FFF9A-72FF-42A4-B3D2-2F27AB16AF7A}" name="Active" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{8476DFDE-B4B1-4FD9-99B4-DF1F2ABBD7D5}" name="description" dataDxfId="2">
       <calculatedColumnFormula>IF(data_old[[#This Row],[description_override]]="",data_old[[#This Row],[Description_GPT]],data_old[[#This Row],[description_override]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3677,11 +3678,12 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2977BD7F-9323-4F6D-98BF-C1B39119DCDE}">
-  <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:J63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9123E77-EA56-403E-A728-B01259D22573}">
+  <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3722,11 +3724,11 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="str" cm="1">
-        <f t="array" ref="A2:A63">_xlfn._xlws.FILTER(data[factor_name],data[Active]*(data[client]=0))</f>
+        <f t="array" ref="A2:A59">_xlfn._xlws.FILTER(data[factor_name],(data[Active])*(data[source]="yfinance"))</f>
         <v>SPY</v>
       </c>
       <c r="B2" t="str" cm="1">
-        <f t="array" ref="B2:J63">INDEX(data[],_xlfn.XMATCH(_xlfn.ANCHORARRAY(A2),data[factor_name]),_xlfn.XMATCH(B1:J1,data[#Headers]))</f>
+        <f t="array" ref="B2:J59">INDEX(data[],_xlfn.XMATCH(_xlfn.ANCHORARRAY(A2),data[factor_name]),_xlfn.XMATCH(B1:J1,data[#Headers]))</f>
         <v>Equities</v>
       </c>
       <c r="C2" t="str">
@@ -5548,10 +5550,10 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="str">
-        <v>TRUMP</v>
+        <v>MWTIX</v>
       </c>
       <c r="B59" t="str">
-        <v>Theme</v>
+        <v>Portfolio</v>
       </c>
       <c r="C59" t="str">
         <v>USD</v>
@@ -5560,149 +5562,21 @@
         <v>1</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
       <c r="G59" t="str">
-        <v>composite</v>
+        <v>yfinance</v>
       </c>
       <c r="H59" t="str">
-        <v>TRUMP</v>
+        <v>MWTIX</v>
       </c>
       <c r="I59" t="str">
         <v>lognormal</v>
       </c>
       <c r="J59">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A60" t="str">
-        <v>FED</v>
-      </c>
-      <c r="B60" t="str">
-        <v>Theme</v>
-      </c>
-      <c r="C60" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-      <c r="E60">
-        <v>1</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60" t="str">
-        <v>composite</v>
-      </c>
-      <c r="H60" t="str">
-        <v>FED</v>
-      </c>
-      <c r="I60" t="str">
-        <v>lognormal</v>
-      </c>
-      <c r="J60">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A61" t="str">
-        <v>AI</v>
-      </c>
-      <c r="B61" t="str">
-        <v>Theme</v>
-      </c>
-      <c r="C61" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-      <c r="E61">
-        <v>1</v>
-      </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="G61" t="str">
-        <v>composite</v>
-      </c>
-      <c r="H61" t="str">
-        <v>AI</v>
-      </c>
-      <c r="I61" t="str">
-        <v>lognormal</v>
-      </c>
-      <c r="J61">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A62" t="str">
-        <v>GEOPOLITICS</v>
-      </c>
-      <c r="B62" t="str">
-        <v>Theme</v>
-      </c>
-      <c r="C62" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D62">
-        <v>1</v>
-      </c>
-      <c r="E62">
-        <v>1</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62" t="str">
-        <v>composite</v>
-      </c>
-      <c r="H62" t="str">
-        <v>GEOPOLITICS</v>
-      </c>
-      <c r="I62" t="str">
-        <v>lognormal</v>
-      </c>
-      <c r="J62">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A63" t="str">
-        <v>2s10s</v>
-      </c>
-      <c r="B63" t="str">
-        <v>Theme</v>
-      </c>
-      <c r="C63" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
-      <c r="E63">
-        <v>1</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="G63" t="str">
-        <v>composite</v>
-      </c>
-      <c r="H63" t="str">
-        <v>2s10s</v>
-      </c>
-      <c r="I63" t="str">
-        <v>lognormal</v>
-      </c>
-      <c r="J63">
         <v>1E-4</v>
       </c>
     </row>
@@ -5712,12 +5586,2047 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2977BD7F-9323-4F6D-98BF-C1B39119DCDE}">
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="A1:J63"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="44.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D1" t="s">
+        <v>428</v>
+      </c>
+      <c r="E1" t="s">
+        <v>445</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>466</v>
+      </c>
+      <c r="H1" t="s">
+        <v>465</v>
+      </c>
+      <c r="I1" t="s">
+        <v>464</v>
+      </c>
+      <c r="J1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="str" cm="1">
+        <f t="array" ref="A2:A63">_xlfn._xlws.FILTER(data[factor_name],data[Active]*(data[client]=0))</f>
+        <v>SPY</v>
+      </c>
+      <c r="B2" t="str" cm="1">
+        <f t="array" ref="B2:J63">INDEX(data[],_xlfn.XMATCH(_xlfn.ANCHORARRAY(A2),data[factor_name]),_xlfn.XMATCH(B1:J1,data[#Headers]))</f>
+        <v>Equities</v>
+      </c>
+      <c r="C2" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="str">
+        <v>S&amp;P 500</v>
+      </c>
+      <c r="G2" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H2" t="str">
+        <v>SPY</v>
+      </c>
+      <c r="I2" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J2">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="str">
+        <v>IWM</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C3" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="str">
+        <v>Russell 2000</v>
+      </c>
+      <c r="G3" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H3" t="str">
+        <v>IWM</v>
+      </c>
+      <c r="I3" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J3">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="str">
+        <v>MDY</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C4" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="str">
+        <v>S&amp;P 400</v>
+      </c>
+      <c r="G4" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H4" t="str">
+        <v>MDY</v>
+      </c>
+      <c r="I4" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J4">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="str">
+        <v>RSP</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C5" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="str">
+        <v>S&amp;P 500 EW</v>
+      </c>
+      <c r="G5" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H5" t="str">
+        <v>RSP</v>
+      </c>
+      <c r="I5" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J5">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="str">
+        <v>QQQ</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C6" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="str">
+        <v>Nasdaq 100</v>
+      </c>
+      <c r="G6" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H6" t="str">
+        <v>QQQ</v>
+      </c>
+      <c r="I6" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J6">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="str">
+        <v>DIA</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C7" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="str">
+        <v>Dow Jones 30</v>
+      </c>
+      <c r="G7" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H7" t="str">
+        <v>DIA</v>
+      </c>
+      <c r="I7" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J7">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
+        <v>XLK</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Sector</v>
+      </c>
+      <c r="C8" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="str">
+        <v>Technology</v>
+      </c>
+      <c r="G8" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H8" t="str">
+        <v>XLK</v>
+      </c>
+      <c r="I8" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J8">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
+        <v>XLI</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Sector</v>
+      </c>
+      <c r="C9" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="str">
+        <v>Industrials</v>
+      </c>
+      <c r="G9" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H9" t="str">
+        <v>XLI</v>
+      </c>
+      <c r="I9" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J9">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="str">
+        <v>XLF</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Sector</v>
+      </c>
+      <c r="C10" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="str">
+        <v>Financials</v>
+      </c>
+      <c r="G10" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H10" t="str">
+        <v>XLF</v>
+      </c>
+      <c r="I10" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J10">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="str">
+        <v>KRE</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Sector</v>
+      </c>
+      <c r="C11" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="str">
+        <v>Regional Banks</v>
+      </c>
+      <c r="G11" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H11" t="str">
+        <v>KRE</v>
+      </c>
+      <c r="I11" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J11">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="str">
+        <v>XLC</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Sector</v>
+      </c>
+      <c r="C12" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="str">
+        <v>Communications</v>
+      </c>
+      <c r="G12" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H12" t="str">
+        <v>XLC</v>
+      </c>
+      <c r="I12" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J12">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="str">
+        <v>XLE</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Sector</v>
+      </c>
+      <c r="C13" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="str">
+        <v>Energy</v>
+      </c>
+      <c r="G13" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H13" t="str">
+        <v>XLE</v>
+      </c>
+      <c r="I13" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J13">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="str">
+        <v>XLY</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Sector</v>
+      </c>
+      <c r="C14" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="str">
+        <v>Discretionary</v>
+      </c>
+      <c r="G14" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H14" t="str">
+        <v>XLY</v>
+      </c>
+      <c r="I14" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J14">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="str">
+        <v>XLB</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Sector</v>
+      </c>
+      <c r="C15" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="str">
+        <v>Materials</v>
+      </c>
+      <c r="G15" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H15" t="str">
+        <v>XLB</v>
+      </c>
+      <c r="I15" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J15">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="str">
+        <v>XLV</v>
+      </c>
+      <c r="B16" t="str">
+        <v>Sector</v>
+      </c>
+      <c r="C16" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="str">
+        <v>Health Care</v>
+      </c>
+      <c r="G16" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H16" t="str">
+        <v>XLV</v>
+      </c>
+      <c r="I16" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J16">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="str">
+        <v>XLU</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Sector</v>
+      </c>
+      <c r="C17" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" t="str">
+        <v>Utilities</v>
+      </c>
+      <c r="G17" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H17" t="str">
+        <v>XLU</v>
+      </c>
+      <c r="I17" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J17">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="str">
+        <v>XLP</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Sector</v>
+      </c>
+      <c r="C18" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="str">
+        <v>Staples</v>
+      </c>
+      <c r="G18" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H18" t="str">
+        <v>XLP</v>
+      </c>
+      <c r="I18" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J18">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="str">
+        <v>IYR</v>
+      </c>
+      <c r="B19" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C19" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" t="str">
+        <v>iShares U.S. Real Estate ETF</v>
+      </c>
+      <c r="G19" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H19" t="str">
+        <v>IYR</v>
+      </c>
+      <c r="I19" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J19">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" t="str">
+        <v>VNQ</v>
+      </c>
+      <c r="B20" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C20" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" t="str">
+        <v>Vanguard Real Estate ETF</v>
+      </c>
+      <c r="G20" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H20" t="str">
+        <v>VNQ</v>
+      </c>
+      <c r="I20" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J20">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" t="str">
+        <v>AIQ</v>
+      </c>
+      <c r="B21" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C21" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="str">
+        <v>AI</v>
+      </c>
+      <c r="G21" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H21" t="str">
+        <v>AIQ</v>
+      </c>
+      <c r="I21" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J21">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" t="str">
+        <v>ICLN</v>
+      </c>
+      <c r="B22" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C22" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="str">
+        <v>Clean Energy</v>
+      </c>
+      <c r="G22" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H22" t="str">
+        <v>ICLN</v>
+      </c>
+      <c r="I22" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J22">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" t="str">
+        <v>PFF</v>
+      </c>
+      <c r="B23" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C23" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="str">
+        <v>Preferred</v>
+      </c>
+      <c r="G23" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H23" t="str">
+        <v>PFF</v>
+      </c>
+      <c r="I23" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J23">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" t="str">
+        <v>FEZ</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C24" t="str">
+        <v>EUR</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="str">
+        <v>Eurostoxx 50</v>
+      </c>
+      <c r="G24" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H24" t="str">
+        <v>FEZ</v>
+      </c>
+      <c r="I24" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J24">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" t="str">
+        <v>EWU</v>
+      </c>
+      <c r="B25" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C25" t="str">
+        <v>GBP</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="str">
+        <v>iShares FTSE United Kingdom ETF</v>
+      </c>
+      <c r="G25" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H25" t="str">
+        <v>EWU</v>
+      </c>
+      <c r="I25" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J25">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" t="str">
+        <v>DAX</v>
+      </c>
+      <c r="B26" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C26" t="str">
+        <v>EUR</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="str">
+        <v>DAX (Germany)</v>
+      </c>
+      <c r="G26" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H26" t="str">
+        <v>DAX</v>
+      </c>
+      <c r="I26" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J26">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" t="str">
+        <v>EWC</v>
+      </c>
+      <c r="B27" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C27" t="str">
+        <v>CAD</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="str">
+        <v>iShares MSCI Canada ETF</v>
+      </c>
+      <c r="G27" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H27" t="str">
+        <v>EWC</v>
+      </c>
+      <c r="I27" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J27">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" t="str">
+        <v>EWI</v>
+      </c>
+      <c r="B28" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C28" t="str">
+        <v>EUR</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" t="str">
+        <v>iShares MSCI Italy ETF</v>
+      </c>
+      <c r="G28" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H28" t="str">
+        <v>EWI</v>
+      </c>
+      <c r="I28" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J28">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" t="str">
+        <v>^N225</v>
+      </c>
+      <c r="B29" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C29" t="str">
+        <v>JPY</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="str">
+        <v>Nikkei 225</v>
+      </c>
+      <c r="G29" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H29" t="str">
+        <v>^N225</v>
+      </c>
+      <c r="I29" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J29">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" t="str">
+        <v>TPX</v>
+      </c>
+      <c r="B30" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C30" t="str">
+        <v>JPY</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" t="str">
+        <v>TOPIX</v>
+      </c>
+      <c r="G30" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H30" t="str">
+        <v>TPX</v>
+      </c>
+      <c r="I30" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J30">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" t="str">
+        <v>FXI</v>
+      </c>
+      <c r="B31" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C31" t="str">
+        <v>CNH</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="str">
+        <v>iShares China Large-Cap ETF</v>
+      </c>
+      <c r="G31" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H31" t="str">
+        <v>FXI</v>
+      </c>
+      <c r="I31" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J31">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" t="str">
+        <v>ASHR</v>
+      </c>
+      <c r="B32" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C32" t="str">
+        <v>CNH</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" t="str">
+        <v>Xtrackers Harvest CSI 300 China A-Shares ETF</v>
+      </c>
+      <c r="G32" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H32" t="str">
+        <v>ASHR</v>
+      </c>
+      <c r="I32" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J32">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" t="str">
+        <v>KWEB</v>
+      </c>
+      <c r="B33" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C33" t="str">
+        <v>CNH</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33" t="str">
+        <v>KraneShares CSI China Internet ETF</v>
+      </c>
+      <c r="G33" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H33" t="str">
+        <v>KWEB</v>
+      </c>
+      <c r="I33" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J33">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" t="str">
+        <v>EEM</v>
+      </c>
+      <c r="B34" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C34" t="str">
+        <v>EM</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H34" t="str">
+        <v>EEM</v>
+      </c>
+      <c r="I34" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J34">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" t="str">
+        <v>LQD</v>
+      </c>
+      <c r="B35" t="str">
+        <v>Credit</v>
+      </c>
+      <c r="C35" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35" t="str">
+        <v>iShares iBoxx $ Investment Grade Corporate Bond ETF</v>
+      </c>
+      <c r="G35" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H35" t="str">
+        <v>LQD</v>
+      </c>
+      <c r="I35" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J35">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" t="str">
+        <v>BSV</v>
+      </c>
+      <c r="B36" t="str">
+        <v>Credit</v>
+      </c>
+      <c r="C36" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H36" t="str">
+        <v>BSV</v>
+      </c>
+      <c r="I36" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J36">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" t="str">
+        <v>HYG</v>
+      </c>
+      <c r="B37" t="str">
+        <v>Credit</v>
+      </c>
+      <c r="C37" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37" t="str">
+        <v>iShares iBoxx $ High Yield Corporate Bond ETF</v>
+      </c>
+      <c r="G37" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H37" t="str">
+        <v>HYG</v>
+      </c>
+      <c r="I37" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J37">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" t="str">
+        <v>HYGH</v>
+      </c>
+      <c r="B38" t="str">
+        <v>Credit</v>
+      </c>
+      <c r="C38" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H38" t="str">
+        <v>HYGH</v>
+      </c>
+      <c r="I38" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J38">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" t="str">
+        <v>AGG</v>
+      </c>
+      <c r="B39" t="str">
+        <v>Credit</v>
+      </c>
+      <c r="C39" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H39" t="str">
+        <v>AGG</v>
+      </c>
+      <c r="I39" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J39">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" t="str">
+        <v>^TNX</v>
+      </c>
+      <c r="B40" t="str">
+        <v>Rates</v>
+      </c>
+      <c r="C40" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H40" t="str">
+        <v>^TNX</v>
+      </c>
+      <c r="I40" t="str">
+        <v>normal</v>
+      </c>
+      <c r="J40">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" t="str">
+        <v>SHY</v>
+      </c>
+      <c r="B41" t="str">
+        <v>Rates</v>
+      </c>
+      <c r="C41" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41" t="str">
+        <v>iShares 1-3 Year Treasury Bond ETF</v>
+      </c>
+      <c r="G41" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H41" t="str">
+        <v>SHY</v>
+      </c>
+      <c r="I41" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J41">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" t="str">
+        <v>IEI</v>
+      </c>
+      <c r="B42" t="str">
+        <v>Rates</v>
+      </c>
+      <c r="C42" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42" t="str">
+        <v>iShares 3-7 Year Treasury Bond ETF</v>
+      </c>
+      <c r="G42" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H42" t="str">
+        <v>IEI</v>
+      </c>
+      <c r="I42" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J42">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" t="str">
+        <v>IEF</v>
+      </c>
+      <c r="B43" t="str">
+        <v>Rates</v>
+      </c>
+      <c r="C43" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43" t="str">
+        <v>iShares 7-10 Year Treasury Bond ETF</v>
+      </c>
+      <c r="G43" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H43" t="str">
+        <v>IEF</v>
+      </c>
+      <c r="I43" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J43">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" t="str">
+        <v>TLT</v>
+      </c>
+      <c r="B44" t="str">
+        <v>Rates</v>
+      </c>
+      <c r="C44" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44" t="str">
+        <v>iShares 20+ Year Treasury Bond ETF</v>
+      </c>
+      <c r="G44" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H44" t="str">
+        <v>TLT</v>
+      </c>
+      <c r="I44" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J44">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" t="str">
+        <v>TIP</v>
+      </c>
+      <c r="B45" t="str">
+        <v>Rates</v>
+      </c>
+      <c r="C45" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45" t="str">
+        <v>iShares TIPS Bond ETF</v>
+      </c>
+      <c r="G45" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H45" t="str">
+        <v>TIP</v>
+      </c>
+      <c r="I45" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J45">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" t="str">
+        <v>VTIP</v>
+      </c>
+      <c r="B46" t="str">
+        <v>Rates</v>
+      </c>
+      <c r="C46" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H46" t="str">
+        <v>VTIP</v>
+      </c>
+      <c r="I46" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J46">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" t="str">
+        <v>AGNC</v>
+      </c>
+      <c r="B47" t="str">
+        <v>Rates</v>
+      </c>
+      <c r="C47" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47" t="str">
+        <v>AGNC Investment Corp.</v>
+      </c>
+      <c r="G47" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H47" t="str">
+        <v>AGNC</v>
+      </c>
+      <c r="I47" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J47">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" t="str">
+        <v>VMBS</v>
+      </c>
+      <c r="B48" t="str">
+        <v>Rates</v>
+      </c>
+      <c r="C48" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H48" t="str">
+        <v>VMBS</v>
+      </c>
+      <c r="I48" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J48">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" t="str">
+        <v>CMBS</v>
+      </c>
+      <c r="B49" t="str">
+        <v>Rates</v>
+      </c>
+      <c r="C49" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H49" t="str">
+        <v>CMBS</v>
+      </c>
+      <c r="I49" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J49">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" t="str">
+        <v>EMB</v>
+      </c>
+      <c r="B50" t="str">
+        <v>Rates</v>
+      </c>
+      <c r="C50" t="str">
+        <v>EM</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50" t="str">
+        <v>iShares J.P. Morgan USD Emerging Markets Bond ETF</v>
+      </c>
+      <c r="G50" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H50" t="str">
+        <v>EMB</v>
+      </c>
+      <c r="I50" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J50">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" t="str">
+        <v>GLD</v>
+      </c>
+      <c r="B51" t="str">
+        <v>Commodities</v>
+      </c>
+      <c r="C51" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51" t="str">
+        <v>SPDR Gold Shares</v>
+      </c>
+      <c r="G51" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H51" t="str">
+        <v>GLD</v>
+      </c>
+      <c r="I51" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J51">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" t="str">
+        <v>SLV</v>
+      </c>
+      <c r="B52" t="str">
+        <v>Commodities</v>
+      </c>
+      <c r="C52" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52" t="str">
+        <v>iShares Silver Trust</v>
+      </c>
+      <c r="G52" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H52" t="str">
+        <v>SLV</v>
+      </c>
+      <c r="I52" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J52">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" t="str">
+        <v>USO</v>
+      </c>
+      <c r="B53" t="str">
+        <v>Commodities</v>
+      </c>
+      <c r="C53" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53" t="str">
+        <v>United States Oil Fund</v>
+      </c>
+      <c r="G53" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H53" t="str">
+        <v>USO</v>
+      </c>
+      <c r="I53" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J53">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" t="str">
+        <v>UUP</v>
+      </c>
+      <c r="B54" t="str">
+        <v>Currencies</v>
+      </c>
+      <c r="C54" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54" t="str">
+        <v>Invesco DB US Dollar Index Bullish Fund</v>
+      </c>
+      <c r="G54" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H54" t="str">
+        <v>UUP</v>
+      </c>
+      <c r="I54" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J54">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" t="str">
+        <v>FXE</v>
+      </c>
+      <c r="B55" t="str">
+        <v>Currencies</v>
+      </c>
+      <c r="C55" t="str">
+        <v>EUR</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55" t="str">
+        <v>Invesco CurrencyShares Euro Trust</v>
+      </c>
+      <c r="G55" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H55" t="str">
+        <v>FXE</v>
+      </c>
+      <c r="I55" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J55">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" t="str">
+        <v>FXY</v>
+      </c>
+      <c r="B56" t="str">
+        <v>Currencies</v>
+      </c>
+      <c r="C56" t="str">
+        <v>JPY</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56" t="str">
+        <v>Invesco CurrencyShares Japanese Yen Trust</v>
+      </c>
+      <c r="G56" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H56" t="str">
+        <v>FXY</v>
+      </c>
+      <c r="I56" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J56">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" t="str">
+        <v>^VIX</v>
+      </c>
+      <c r="B57" t="str">
+        <v>Vol</v>
+      </c>
+      <c r="C57" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57" t="str">
+        <v>CBOE Volatility Index</v>
+      </c>
+      <c r="G57" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H57" t="str">
+        <v>^VIX</v>
+      </c>
+      <c r="I57" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J57">
+        <v>-1E-4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" t="str">
+        <v>^MOVE</v>
+      </c>
+      <c r="B58" t="str">
+        <v>Vol</v>
+      </c>
+      <c r="C58" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58" t="str">
+        <v>ICE BofAML MOVE Index</v>
+      </c>
+      <c r="G58" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H58" t="str">
+        <v>^MOVE</v>
+      </c>
+      <c r="I58" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J58">
+        <v>-1E-4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" t="str">
+        <v>TRUMP</v>
+      </c>
+      <c r="B59" t="str">
+        <v>Theme</v>
+      </c>
+      <c r="C59" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59" t="str">
+        <v>composite</v>
+      </c>
+      <c r="H59" t="str">
+        <v>TRUMP</v>
+      </c>
+      <c r="I59" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J59">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" t="str">
+        <v>FED</v>
+      </c>
+      <c r="B60" t="str">
+        <v>Theme</v>
+      </c>
+      <c r="C60" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60" t="str">
+        <v>composite</v>
+      </c>
+      <c r="H60" t="str">
+        <v>FED</v>
+      </c>
+      <c r="I60" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J60">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" t="str">
+        <v>AI</v>
+      </c>
+      <c r="B61" t="str">
+        <v>Theme</v>
+      </c>
+      <c r="C61" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61" t="str">
+        <v>composite</v>
+      </c>
+      <c r="H61" t="str">
+        <v>AI</v>
+      </c>
+      <c r="I61" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J61">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" t="str">
+        <v>GEOPOLITICS</v>
+      </c>
+      <c r="B62" t="str">
+        <v>Theme</v>
+      </c>
+      <c r="C62" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62" t="str">
+        <v>composite</v>
+      </c>
+      <c r="H62" t="str">
+        <v>GEOPOLITICS</v>
+      </c>
+      <c r="I62" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J62">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63" t="str">
+        <v>2s10s</v>
+      </c>
+      <c r="B63" t="str">
+        <v>Theme</v>
+      </c>
+      <c r="C63" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63" t="str">
+        <v>composite</v>
+      </c>
+      <c r="H63" t="str">
+        <v>2s10s</v>
+      </c>
+      <c r="I63" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J63">
+        <v>1E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B51E7A-08A5-4042-86E1-7986ED98437B}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -5930,13 +7839,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A08F2F-299B-47F7-8064-36693758F4E3}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:E59"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6954,7 +8863,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{509EC1D2-D913-4E91-BF4A-1B9A2D2D358E}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:C9"/>
@@ -7073,7 +8982,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28B96AA-E903-4E49-8EE7-2DF563672EF4}">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:D9"/>
@@ -7194,7 +9103,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BECED18-9D5B-4FAE-9BAD-99DBF8245FFA}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:M74"/>

--- a/factor_master.xlsx
+++ b/factor_master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bkrai\Source\risk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988BB4ED-61E6-4E63-ADD3-8085DB5E8A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95AA32E-E77E-4036-8F15-4DF88BE88C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="8" activeTab="9" xr2:uid="{C31FDC5B-A809-4BFD-99CB-DA02246721F7}"/>
   </bookViews>
@@ -3681,9 +3681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9123E77-EA56-403E-A728-B01259D22573}">
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/factor_master.xlsx
+++ b/factor_master.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28604"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bkrai\Source\risk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95AA32E-E77E-4036-8F15-4DF88BE88C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7615A30A-96D3-4F03-9908-EA719A7D088A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="8" activeTab="9" xr2:uid="{C31FDC5B-A809-4BFD-99CB-DA02246721F7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="2" activeTab="6" xr2:uid="{C31FDC5B-A809-4BFD-99CB-DA02246721F7}"/>
   </bookViews>
   <sheets>
     <sheet name="legacy" sheetId="5" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1922" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1924" uniqueCount="491">
   <si>
     <t>SPX</t>
   </si>
@@ -1555,6 +1555,12 @@
   </si>
   <si>
     <t>TCW</t>
+  </si>
+  <si>
+    <t>Vanguard Short-Term Bond Index Fund ETF</t>
+  </si>
+  <si>
+    <t>Investment-grade short-dated bonds</t>
   </si>
 </sst>
 </file>
@@ -3679,9 +3685,9 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9123E77-EA56-403E-A728-B01259D22573}">
-  <dimension ref="A1:J59"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3722,11 +3728,11 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="str" cm="1">
-        <f t="array" ref="A2:A59">_xlfn._xlws.FILTER(data[factor_name],(data[Active])*(data[source]="yfinance"))</f>
+        <f t="array" ref="A2:A60">_xlfn._xlws.FILTER(data[factor_name],(data[Active])*(data[source]="yfinance"))</f>
         <v>SPY</v>
       </c>
       <c r="B2" t="str" cm="1">
-        <f t="array" ref="B2:J59">INDEX(data[],_xlfn.XMATCH(_xlfn.ANCHORARRAY(A2),data[factor_name]),_xlfn.XMATCH(B1:J1,data[#Headers]))</f>
+        <f t="array" ref="B2:J60">INDEX(data[],_xlfn.XMATCH(_xlfn.ANCHORARRAY(A2),data[factor_name]),_xlfn.XMATCH(B1:J1,data[#Headers]))</f>
         <v>Equities</v>
       </c>
       <c r="C2" t="str">
@@ -4826,8 +4832,8 @@
       <c r="E36">
         <v>0</v>
       </c>
-      <c r="F36">
-        <v>0</v>
+      <c r="F36" t="str">
+        <v>Vanguard Short-Term Bond Index Fund ETF</v>
       </c>
       <c r="G36" t="str">
         <v>yfinance</v>
@@ -4876,7 +4882,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="str">
-        <v>HYGH</v>
+        <v>LQDH</v>
       </c>
       <c r="B38" t="str">
         <v>Credit</v>
@@ -4885,7 +4891,7 @@
         <v>USD</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -4897,7 +4903,7 @@
         <v>yfinance</v>
       </c>
       <c r="H38" t="str">
-        <v>HYGH</v>
+        <v>LQDH</v>
       </c>
       <c r="I38" t="str">
         <v>lognormal</v>
@@ -4908,7 +4914,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="str">
-        <v>AGG</v>
+        <v>HYGH</v>
       </c>
       <c r="B39" t="str">
         <v>Credit</v>
@@ -4929,7 +4935,7 @@
         <v>yfinance</v>
       </c>
       <c r="H39" t="str">
-        <v>AGG</v>
+        <v>HYGH</v>
       </c>
       <c r="I39" t="str">
         <v>lognormal</v>
@@ -4940,10 +4946,10 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="str">
-        <v>^TNX</v>
+        <v>AGG</v>
       </c>
       <c r="B40" t="str">
-        <v>Rates</v>
+        <v>Credit</v>
       </c>
       <c r="C40" t="str">
         <v>USD</v>
@@ -4961,18 +4967,18 @@
         <v>yfinance</v>
       </c>
       <c r="H40" t="str">
-        <v>^TNX</v>
+        <v>AGG</v>
       </c>
       <c r="I40" t="str">
-        <v>normal</v>
+        <v>lognormal</v>
       </c>
       <c r="J40">
-        <v>-0.01</v>
+        <v>1E-4</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="str">
-        <v>SHY</v>
+        <v>^TNX</v>
       </c>
       <c r="B41" t="str">
         <v>Rates</v>
@@ -4986,25 +4992,25 @@
       <c r="E41">
         <v>0</v>
       </c>
-      <c r="F41" t="str">
-        <v>iShares 1-3 Year Treasury Bond ETF</v>
+      <c r="F41">
+        <v>0</v>
       </c>
       <c r="G41" t="str">
         <v>yfinance</v>
       </c>
       <c r="H41" t="str">
-        <v>SHY</v>
+        <v>^TNX</v>
       </c>
       <c r="I41" t="str">
-        <v>lognormal</v>
+        <v>normal</v>
       </c>
       <c r="J41">
-        <v>1E-4</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="str">
-        <v>IEI</v>
+        <v>SHY</v>
       </c>
       <c r="B42" t="str">
         <v>Rates</v>
@@ -5019,13 +5025,13 @@
         <v>0</v>
       </c>
       <c r="F42" t="str">
-        <v>iShares 3-7 Year Treasury Bond ETF</v>
+        <v>iShares 1-3 Year Treasury Bond ETF</v>
       </c>
       <c r="G42" t="str">
         <v>yfinance</v>
       </c>
       <c r="H42" t="str">
-        <v>IEI</v>
+        <v>SHY</v>
       </c>
       <c r="I42" t="str">
         <v>lognormal</v>
@@ -5036,7 +5042,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="str">
-        <v>IEF</v>
+        <v>IEI</v>
       </c>
       <c r="B43" t="str">
         <v>Rates</v>
@@ -5045,19 +5051,19 @@
         <v>USD</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43" t="str">
-        <v>iShares 7-10 Year Treasury Bond ETF</v>
+        <v>iShares 3-7 Year Treasury Bond ETF</v>
       </c>
       <c r="G43" t="str">
         <v>yfinance</v>
       </c>
       <c r="H43" t="str">
-        <v>IEF</v>
+        <v>IEI</v>
       </c>
       <c r="I43" t="str">
         <v>lognormal</v>
@@ -5068,7 +5074,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="str">
-        <v>TLT</v>
+        <v>IEF</v>
       </c>
       <c r="B44" t="str">
         <v>Rates</v>
@@ -5077,19 +5083,19 @@
         <v>USD</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44" t="str">
-        <v>iShares 20+ Year Treasury Bond ETF</v>
+        <v>iShares 7-10 Year Treasury Bond ETF</v>
       </c>
       <c r="G44" t="str">
         <v>yfinance</v>
       </c>
       <c r="H44" t="str">
-        <v>TLT</v>
+        <v>IEF</v>
       </c>
       <c r="I44" t="str">
         <v>lognormal</v>
@@ -5100,7 +5106,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="str">
-        <v>TIP</v>
+        <v>TLT</v>
       </c>
       <c r="B45" t="str">
         <v>Rates</v>
@@ -5115,13 +5121,13 @@
         <v>0</v>
       </c>
       <c r="F45" t="str">
-        <v>iShares TIPS Bond ETF</v>
+        <v>iShares 20+ Year Treasury Bond ETF</v>
       </c>
       <c r="G45" t="str">
         <v>yfinance</v>
       </c>
       <c r="H45" t="str">
-        <v>TIP</v>
+        <v>TLT</v>
       </c>
       <c r="I45" t="str">
         <v>lognormal</v>
@@ -5132,7 +5138,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="str">
-        <v>VTIP</v>
+        <v>TIP</v>
       </c>
       <c r="B46" t="str">
         <v>Rates</v>
@@ -5146,14 +5152,14 @@
       <c r="E46">
         <v>0</v>
       </c>
-      <c r="F46">
-        <v>0</v>
+      <c r="F46" t="str">
+        <v>iShares TIPS Bond ETF</v>
       </c>
       <c r="G46" t="str">
         <v>yfinance</v>
       </c>
       <c r="H46" t="str">
-        <v>VTIP</v>
+        <v>TIP</v>
       </c>
       <c r="I46" t="str">
         <v>lognormal</v>
@@ -5164,7 +5170,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="str">
-        <v>AGNC</v>
+        <v>VTIP</v>
       </c>
       <c r="B47" t="str">
         <v>Rates</v>
@@ -5178,14 +5184,14 @@
       <c r="E47">
         <v>0</v>
       </c>
-      <c r="F47" t="str">
-        <v>AGNC Investment Corp.</v>
+      <c r="F47">
+        <v>0</v>
       </c>
       <c r="G47" t="str">
         <v>yfinance</v>
       </c>
       <c r="H47" t="str">
-        <v>AGNC</v>
+        <v>VTIP</v>
       </c>
       <c r="I47" t="str">
         <v>lognormal</v>
@@ -5196,7 +5202,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="str">
-        <v>VMBS</v>
+        <v>AGNC</v>
       </c>
       <c r="B48" t="str">
         <v>Rates</v>
@@ -5210,14 +5216,14 @@
       <c r="E48">
         <v>0</v>
       </c>
-      <c r="F48">
-        <v>0</v>
+      <c r="F48" t="str">
+        <v>AGNC Investment Corp.</v>
       </c>
       <c r="G48" t="str">
         <v>yfinance</v>
       </c>
       <c r="H48" t="str">
-        <v>VMBS</v>
+        <v>AGNC</v>
       </c>
       <c r="I48" t="str">
         <v>lognormal</v>
@@ -5228,7 +5234,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="str">
-        <v>CMBS</v>
+        <v>VMBS</v>
       </c>
       <c r="B49" t="str">
         <v>Rates</v>
@@ -5249,7 +5255,7 @@
         <v>yfinance</v>
       </c>
       <c r="H49" t="str">
-        <v>CMBS</v>
+        <v>VMBS</v>
       </c>
       <c r="I49" t="str">
         <v>lognormal</v>
@@ -5260,13 +5266,13 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="str">
-        <v>EMB</v>
+        <v>CMBS</v>
       </c>
       <c r="B50" t="str">
         <v>Rates</v>
       </c>
       <c r="C50" t="str">
-        <v>EM</v>
+        <v>USD</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -5274,14 +5280,14 @@
       <c r="E50">
         <v>0</v>
       </c>
-      <c r="F50" t="str">
-        <v>iShares J.P. Morgan USD Emerging Markets Bond ETF</v>
+      <c r="F50">
+        <v>0</v>
       </c>
       <c r="G50" t="str">
         <v>yfinance</v>
       </c>
       <c r="H50" t="str">
-        <v>EMB</v>
+        <v>CMBS</v>
       </c>
       <c r="I50" t="str">
         <v>lognormal</v>
@@ -5292,13 +5298,13 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="str">
-        <v>GLD</v>
+        <v>EMB</v>
       </c>
       <c r="B51" t="str">
-        <v>Commodities</v>
+        <v>Rates</v>
       </c>
       <c r="C51" t="str">
-        <v>USD</v>
+        <v>EM</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -5307,13 +5313,13 @@
         <v>0</v>
       </c>
       <c r="F51" t="str">
-        <v>SPDR Gold Shares</v>
+        <v>iShares J.P. Morgan USD Emerging Markets Bond ETF</v>
       </c>
       <c r="G51" t="str">
         <v>yfinance</v>
       </c>
       <c r="H51" t="str">
-        <v>GLD</v>
+        <v>EMB</v>
       </c>
       <c r="I51" t="str">
         <v>lognormal</v>
@@ -5324,7 +5330,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="str">
-        <v>SLV</v>
+        <v>GLD</v>
       </c>
       <c r="B52" t="str">
         <v>Commodities</v>
@@ -5339,13 +5345,13 @@
         <v>0</v>
       </c>
       <c r="F52" t="str">
-        <v>iShares Silver Trust</v>
+        <v>SPDR Gold Shares</v>
       </c>
       <c r="G52" t="str">
         <v>yfinance</v>
       </c>
       <c r="H52" t="str">
-        <v>SLV</v>
+        <v>GLD</v>
       </c>
       <c r="I52" t="str">
         <v>lognormal</v>
@@ -5356,7 +5362,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="str">
-        <v>USO</v>
+        <v>SLV</v>
       </c>
       <c r="B53" t="str">
         <v>Commodities</v>
@@ -5371,13 +5377,13 @@
         <v>0</v>
       </c>
       <c r="F53" t="str">
-        <v>United States Oil Fund</v>
+        <v>iShares Silver Trust</v>
       </c>
       <c r="G53" t="str">
         <v>yfinance</v>
       </c>
       <c r="H53" t="str">
-        <v>USO</v>
+        <v>SLV</v>
       </c>
       <c r="I53" t="str">
         <v>lognormal</v>
@@ -5388,10 +5394,10 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="str">
-        <v>UUP</v>
+        <v>USO</v>
       </c>
       <c r="B54" t="str">
-        <v>Currencies</v>
+        <v>Commodities</v>
       </c>
       <c r="C54" t="str">
         <v>USD</v>
@@ -5403,13 +5409,13 @@
         <v>0</v>
       </c>
       <c r="F54" t="str">
-        <v>Invesco DB US Dollar Index Bullish Fund</v>
+        <v>United States Oil Fund</v>
       </c>
       <c r="G54" t="str">
         <v>yfinance</v>
       </c>
       <c r="H54" t="str">
-        <v>UUP</v>
+        <v>USO</v>
       </c>
       <c r="I54" t="str">
         <v>lognormal</v>
@@ -5420,13 +5426,13 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="str">
-        <v>FXE</v>
+        <v>UUP</v>
       </c>
       <c r="B55" t="str">
         <v>Currencies</v>
       </c>
       <c r="C55" t="str">
-        <v>EUR</v>
+        <v>USD</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -5435,13 +5441,13 @@
         <v>0</v>
       </c>
       <c r="F55" t="str">
-        <v>Invesco CurrencyShares Euro Trust</v>
+        <v>Invesco DB US Dollar Index Bullish Fund</v>
       </c>
       <c r="G55" t="str">
         <v>yfinance</v>
       </c>
       <c r="H55" t="str">
-        <v>FXE</v>
+        <v>UUP</v>
       </c>
       <c r="I55" t="str">
         <v>lognormal</v>
@@ -5452,13 +5458,13 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="str">
-        <v>FXY</v>
+        <v>FXE</v>
       </c>
       <c r="B56" t="str">
         <v>Currencies</v>
       </c>
       <c r="C56" t="str">
-        <v>JPY</v>
+        <v>EUR</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -5467,13 +5473,13 @@
         <v>0</v>
       </c>
       <c r="F56" t="str">
-        <v>Invesco CurrencyShares Japanese Yen Trust</v>
+        <v>Invesco CurrencyShares Euro Trust</v>
       </c>
       <c r="G56" t="str">
         <v>yfinance</v>
       </c>
       <c r="H56" t="str">
-        <v>FXY</v>
+        <v>FXE</v>
       </c>
       <c r="I56" t="str">
         <v>lognormal</v>
@@ -5484,13 +5490,13 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="str">
-        <v>^VIX</v>
+        <v>FXY</v>
       </c>
       <c r="B57" t="str">
-        <v>Vol</v>
+        <v>Currencies</v>
       </c>
       <c r="C57" t="str">
-        <v>USD</v>
+        <v>JPY</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -5499,24 +5505,24 @@
         <v>0</v>
       </c>
       <c r="F57" t="str">
-        <v>CBOE Volatility Index</v>
+        <v>Invesco CurrencyShares Japanese Yen Trust</v>
       </c>
       <c r="G57" t="str">
         <v>yfinance</v>
       </c>
       <c r="H57" t="str">
-        <v>^VIX</v>
+        <v>FXY</v>
       </c>
       <c r="I57" t="str">
         <v>lognormal</v>
       </c>
       <c r="J57">
-        <v>-1E-4</v>
+        <v>1E-4</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="str">
-        <v>^MOVE</v>
+        <v>^VIX</v>
       </c>
       <c r="B58" t="str">
         <v>Vol</v>
@@ -5531,13 +5537,13 @@
         <v>0</v>
       </c>
       <c r="F58" t="str">
-        <v>ICE BofAML MOVE Index</v>
+        <v>CBOE Volatility Index</v>
       </c>
       <c r="G58" t="str">
         <v>yfinance</v>
       </c>
       <c r="H58" t="str">
-        <v>^MOVE</v>
+        <v>^VIX</v>
       </c>
       <c r="I58" t="str">
         <v>lognormal</v>
@@ -5548,33 +5554,65 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="str">
-        <v>MWTIX</v>
+        <v>^MOVE</v>
       </c>
       <c r="B59" t="str">
-        <v>Portfolio</v>
+        <v>Vol</v>
       </c>
       <c r="C59" t="str">
         <v>USD</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
-      <c r="F59">
-        <v>0</v>
+      <c r="F59" t="str">
+        <v>ICE BofAML MOVE Index</v>
       </c>
       <c r="G59" t="str">
         <v>yfinance</v>
       </c>
       <c r="H59" t="str">
-        <v>MWTIX</v>
+        <v>^MOVE</v>
       </c>
       <c r="I59" t="str">
         <v>lognormal</v>
       </c>
       <c r="J59">
+        <v>-1E-4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" t="str">
+        <v>MWTIX</v>
+      </c>
+      <c r="B60" t="str">
+        <v>Portfolio</v>
+      </c>
+      <c r="C60" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H60" t="str">
+        <v>MWTIX</v>
+      </c>
+      <c r="I60" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J60">
         <v>1E-4</v>
       </c>
     </row>
@@ -5586,7 +5624,7 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2977BD7F-9323-4F6D-98BF-C1B39119DCDE}">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:J63"/>
+  <dimension ref="A1:J64"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -5631,11 +5669,11 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="str" cm="1">
-        <f t="array" ref="A2:A63">_xlfn._xlws.FILTER(data[factor_name],data[Active]*(data[client]=0))</f>
+        <f t="array" ref="A2:A64">_xlfn._xlws.FILTER(data[factor_name],data[Active]*(data[client]=0))</f>
         <v>SPY</v>
       </c>
       <c r="B2" t="str" cm="1">
-        <f t="array" ref="B2:J63">INDEX(data[],_xlfn.XMATCH(_xlfn.ANCHORARRAY(A2),data[factor_name]),_xlfn.XMATCH(B1:J1,data[#Headers]))</f>
+        <f t="array" ref="B2:J64">INDEX(data[],_xlfn.XMATCH(_xlfn.ANCHORARRAY(A2),data[factor_name]),_xlfn.XMATCH(B1:J1,data[#Headers]))</f>
         <v>Equities</v>
       </c>
       <c r="C2" t="str">
@@ -6735,8 +6773,8 @@
       <c r="E36">
         <v>0</v>
       </c>
-      <c r="F36">
-        <v>0</v>
+      <c r="F36" t="str">
+        <v>Vanguard Short-Term Bond Index Fund ETF</v>
       </c>
       <c r="G36" t="str">
         <v>yfinance</v>
@@ -6785,7 +6823,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="str">
-        <v>HYGH</v>
+        <v>LQDH</v>
       </c>
       <c r="B38" t="str">
         <v>Credit</v>
@@ -6794,7 +6832,7 @@
         <v>USD</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -6806,7 +6844,7 @@
         <v>yfinance</v>
       </c>
       <c r="H38" t="str">
-        <v>HYGH</v>
+        <v>LQDH</v>
       </c>
       <c r="I38" t="str">
         <v>lognormal</v>
@@ -6817,7 +6855,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="str">
-        <v>AGG</v>
+        <v>HYGH</v>
       </c>
       <c r="B39" t="str">
         <v>Credit</v>
@@ -6838,7 +6876,7 @@
         <v>yfinance</v>
       </c>
       <c r="H39" t="str">
-        <v>AGG</v>
+        <v>HYGH</v>
       </c>
       <c r="I39" t="str">
         <v>lognormal</v>
@@ -6849,10 +6887,10 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="str">
-        <v>^TNX</v>
+        <v>AGG</v>
       </c>
       <c r="B40" t="str">
-        <v>Rates</v>
+        <v>Credit</v>
       </c>
       <c r="C40" t="str">
         <v>USD</v>
@@ -6870,18 +6908,18 @@
         <v>yfinance</v>
       </c>
       <c r="H40" t="str">
-        <v>^TNX</v>
+        <v>AGG</v>
       </c>
       <c r="I40" t="str">
-        <v>normal</v>
+        <v>lognormal</v>
       </c>
       <c r="J40">
-        <v>-0.01</v>
+        <v>1E-4</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="str">
-        <v>SHY</v>
+        <v>^TNX</v>
       </c>
       <c r="B41" t="str">
         <v>Rates</v>
@@ -6895,25 +6933,25 @@
       <c r="E41">
         <v>0</v>
       </c>
-      <c r="F41" t="str">
-        <v>iShares 1-3 Year Treasury Bond ETF</v>
+      <c r="F41">
+        <v>0</v>
       </c>
       <c r="G41" t="str">
         <v>yfinance</v>
       </c>
       <c r="H41" t="str">
-        <v>SHY</v>
+        <v>^TNX</v>
       </c>
       <c r="I41" t="str">
-        <v>lognormal</v>
+        <v>normal</v>
       </c>
       <c r="J41">
-        <v>1E-4</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="str">
-        <v>IEI</v>
+        <v>SHY</v>
       </c>
       <c r="B42" t="str">
         <v>Rates</v>
@@ -6928,13 +6966,13 @@
         <v>0</v>
       </c>
       <c r="F42" t="str">
-        <v>iShares 3-7 Year Treasury Bond ETF</v>
+        <v>iShares 1-3 Year Treasury Bond ETF</v>
       </c>
       <c r="G42" t="str">
         <v>yfinance</v>
       </c>
       <c r="H42" t="str">
-        <v>IEI</v>
+        <v>SHY</v>
       </c>
       <c r="I42" t="str">
         <v>lognormal</v>
@@ -6945,7 +6983,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="str">
-        <v>IEF</v>
+        <v>IEI</v>
       </c>
       <c r="B43" t="str">
         <v>Rates</v>
@@ -6954,19 +6992,19 @@
         <v>USD</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43" t="str">
-        <v>iShares 7-10 Year Treasury Bond ETF</v>
+        <v>iShares 3-7 Year Treasury Bond ETF</v>
       </c>
       <c r="G43" t="str">
         <v>yfinance</v>
       </c>
       <c r="H43" t="str">
-        <v>IEF</v>
+        <v>IEI</v>
       </c>
       <c r="I43" t="str">
         <v>lognormal</v>
@@ -6977,7 +7015,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="str">
-        <v>TLT</v>
+        <v>IEF</v>
       </c>
       <c r="B44" t="str">
         <v>Rates</v>
@@ -6986,19 +7024,19 @@
         <v>USD</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44" t="str">
-        <v>iShares 20+ Year Treasury Bond ETF</v>
+        <v>iShares 7-10 Year Treasury Bond ETF</v>
       </c>
       <c r="G44" t="str">
         <v>yfinance</v>
       </c>
       <c r="H44" t="str">
-        <v>TLT</v>
+        <v>IEF</v>
       </c>
       <c r="I44" t="str">
         <v>lognormal</v>
@@ -7009,7 +7047,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="str">
-        <v>TIP</v>
+        <v>TLT</v>
       </c>
       <c r="B45" t="str">
         <v>Rates</v>
@@ -7024,13 +7062,13 @@
         <v>0</v>
       </c>
       <c r="F45" t="str">
-        <v>iShares TIPS Bond ETF</v>
+        <v>iShares 20+ Year Treasury Bond ETF</v>
       </c>
       <c r="G45" t="str">
         <v>yfinance</v>
       </c>
       <c r="H45" t="str">
-        <v>TIP</v>
+        <v>TLT</v>
       </c>
       <c r="I45" t="str">
         <v>lognormal</v>
@@ -7041,7 +7079,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="str">
-        <v>VTIP</v>
+        <v>TIP</v>
       </c>
       <c r="B46" t="str">
         <v>Rates</v>
@@ -7055,14 +7093,14 @@
       <c r="E46">
         <v>0</v>
       </c>
-      <c r="F46">
-        <v>0</v>
+      <c r="F46" t="str">
+        <v>iShares TIPS Bond ETF</v>
       </c>
       <c r="G46" t="str">
         <v>yfinance</v>
       </c>
       <c r="H46" t="str">
-        <v>VTIP</v>
+        <v>TIP</v>
       </c>
       <c r="I46" t="str">
         <v>lognormal</v>
@@ -7073,7 +7111,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="str">
-        <v>AGNC</v>
+        <v>VTIP</v>
       </c>
       <c r="B47" t="str">
         <v>Rates</v>
@@ -7087,14 +7125,14 @@
       <c r="E47">
         <v>0</v>
       </c>
-      <c r="F47" t="str">
-        <v>AGNC Investment Corp.</v>
+      <c r="F47">
+        <v>0</v>
       </c>
       <c r="G47" t="str">
         <v>yfinance</v>
       </c>
       <c r="H47" t="str">
-        <v>AGNC</v>
+        <v>VTIP</v>
       </c>
       <c r="I47" t="str">
         <v>lognormal</v>
@@ -7105,7 +7143,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="str">
-        <v>VMBS</v>
+        <v>AGNC</v>
       </c>
       <c r="B48" t="str">
         <v>Rates</v>
@@ -7119,14 +7157,14 @@
       <c r="E48">
         <v>0</v>
       </c>
-      <c r="F48">
-        <v>0</v>
+      <c r="F48" t="str">
+        <v>AGNC Investment Corp.</v>
       </c>
       <c r="G48" t="str">
         <v>yfinance</v>
       </c>
       <c r="H48" t="str">
-        <v>VMBS</v>
+        <v>AGNC</v>
       </c>
       <c r="I48" t="str">
         <v>lognormal</v>
@@ -7137,7 +7175,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="str">
-        <v>CMBS</v>
+        <v>VMBS</v>
       </c>
       <c r="B49" t="str">
         <v>Rates</v>
@@ -7158,7 +7196,7 @@
         <v>yfinance</v>
       </c>
       <c r="H49" t="str">
-        <v>CMBS</v>
+        <v>VMBS</v>
       </c>
       <c r="I49" t="str">
         <v>lognormal</v>
@@ -7169,13 +7207,13 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="str">
-        <v>EMB</v>
+        <v>CMBS</v>
       </c>
       <c r="B50" t="str">
         <v>Rates</v>
       </c>
       <c r="C50" t="str">
-        <v>EM</v>
+        <v>USD</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -7183,14 +7221,14 @@
       <c r="E50">
         <v>0</v>
       </c>
-      <c r="F50" t="str">
-        <v>iShares J.P. Morgan USD Emerging Markets Bond ETF</v>
+      <c r="F50">
+        <v>0</v>
       </c>
       <c r="G50" t="str">
         <v>yfinance</v>
       </c>
       <c r="H50" t="str">
-        <v>EMB</v>
+        <v>CMBS</v>
       </c>
       <c r="I50" t="str">
         <v>lognormal</v>
@@ -7201,13 +7239,13 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="str">
-        <v>GLD</v>
+        <v>EMB</v>
       </c>
       <c r="B51" t="str">
-        <v>Commodities</v>
+        <v>Rates</v>
       </c>
       <c r="C51" t="str">
-        <v>USD</v>
+        <v>EM</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -7216,13 +7254,13 @@
         <v>0</v>
       </c>
       <c r="F51" t="str">
-        <v>SPDR Gold Shares</v>
+        <v>iShares J.P. Morgan USD Emerging Markets Bond ETF</v>
       </c>
       <c r="G51" t="str">
         <v>yfinance</v>
       </c>
       <c r="H51" t="str">
-        <v>GLD</v>
+        <v>EMB</v>
       </c>
       <c r="I51" t="str">
         <v>lognormal</v>
@@ -7233,7 +7271,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="str">
-        <v>SLV</v>
+        <v>GLD</v>
       </c>
       <c r="B52" t="str">
         <v>Commodities</v>
@@ -7248,13 +7286,13 @@
         <v>0</v>
       </c>
       <c r="F52" t="str">
-        <v>iShares Silver Trust</v>
+        <v>SPDR Gold Shares</v>
       </c>
       <c r="G52" t="str">
         <v>yfinance</v>
       </c>
       <c r="H52" t="str">
-        <v>SLV</v>
+        <v>GLD</v>
       </c>
       <c r="I52" t="str">
         <v>lognormal</v>
@@ -7265,7 +7303,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="str">
-        <v>USO</v>
+        <v>SLV</v>
       </c>
       <c r="B53" t="str">
         <v>Commodities</v>
@@ -7280,13 +7318,13 @@
         <v>0</v>
       </c>
       <c r="F53" t="str">
-        <v>United States Oil Fund</v>
+        <v>iShares Silver Trust</v>
       </c>
       <c r="G53" t="str">
         <v>yfinance</v>
       </c>
       <c r="H53" t="str">
-        <v>USO</v>
+        <v>SLV</v>
       </c>
       <c r="I53" t="str">
         <v>lognormal</v>
@@ -7297,10 +7335,10 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="str">
-        <v>UUP</v>
+        <v>USO</v>
       </c>
       <c r="B54" t="str">
-        <v>Currencies</v>
+        <v>Commodities</v>
       </c>
       <c r="C54" t="str">
         <v>USD</v>
@@ -7312,13 +7350,13 @@
         <v>0</v>
       </c>
       <c r="F54" t="str">
-        <v>Invesco DB US Dollar Index Bullish Fund</v>
+        <v>United States Oil Fund</v>
       </c>
       <c r="G54" t="str">
         <v>yfinance</v>
       </c>
       <c r="H54" t="str">
-        <v>UUP</v>
+        <v>USO</v>
       </c>
       <c r="I54" t="str">
         <v>lognormal</v>
@@ -7329,13 +7367,13 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="str">
-        <v>FXE</v>
+        <v>UUP</v>
       </c>
       <c r="B55" t="str">
         <v>Currencies</v>
       </c>
       <c r="C55" t="str">
-        <v>EUR</v>
+        <v>USD</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -7344,13 +7382,13 @@
         <v>0</v>
       </c>
       <c r="F55" t="str">
-        <v>Invesco CurrencyShares Euro Trust</v>
+        <v>Invesco DB US Dollar Index Bullish Fund</v>
       </c>
       <c r="G55" t="str">
         <v>yfinance</v>
       </c>
       <c r="H55" t="str">
-        <v>FXE</v>
+        <v>UUP</v>
       </c>
       <c r="I55" t="str">
         <v>lognormal</v>
@@ -7361,13 +7399,13 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="str">
-        <v>FXY</v>
+        <v>FXE</v>
       </c>
       <c r="B56" t="str">
         <v>Currencies</v>
       </c>
       <c r="C56" t="str">
-        <v>JPY</v>
+        <v>EUR</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -7376,13 +7414,13 @@
         <v>0</v>
       </c>
       <c r="F56" t="str">
-        <v>Invesco CurrencyShares Japanese Yen Trust</v>
+        <v>Invesco CurrencyShares Euro Trust</v>
       </c>
       <c r="G56" t="str">
         <v>yfinance</v>
       </c>
       <c r="H56" t="str">
-        <v>FXY</v>
+        <v>FXE</v>
       </c>
       <c r="I56" t="str">
         <v>lognormal</v>
@@ -7393,13 +7431,13 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="str">
-        <v>^VIX</v>
+        <v>FXY</v>
       </c>
       <c r="B57" t="str">
-        <v>Vol</v>
+        <v>Currencies</v>
       </c>
       <c r="C57" t="str">
-        <v>USD</v>
+        <v>JPY</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -7408,24 +7446,24 @@
         <v>0</v>
       </c>
       <c r="F57" t="str">
-        <v>CBOE Volatility Index</v>
+        <v>Invesco CurrencyShares Japanese Yen Trust</v>
       </c>
       <c r="G57" t="str">
         <v>yfinance</v>
       </c>
       <c r="H57" t="str">
-        <v>^VIX</v>
+        <v>FXY</v>
       </c>
       <c r="I57" t="str">
         <v>lognormal</v>
       </c>
       <c r="J57">
-        <v>-1E-4</v>
+        <v>1E-4</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="str">
-        <v>^MOVE</v>
+        <v>^VIX</v>
       </c>
       <c r="B58" t="str">
         <v>Vol</v>
@@ -7440,13 +7478,13 @@
         <v>0</v>
       </c>
       <c r="F58" t="str">
-        <v>ICE BofAML MOVE Index</v>
+        <v>CBOE Volatility Index</v>
       </c>
       <c r="G58" t="str">
         <v>yfinance</v>
       </c>
       <c r="H58" t="str">
-        <v>^MOVE</v>
+        <v>^VIX</v>
       </c>
       <c r="I58" t="str">
         <v>lognormal</v>
@@ -7457,39 +7495,39 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="str">
-        <v>TRUMP</v>
+        <v>^MOVE</v>
       </c>
       <c r="B59" t="str">
-        <v>Theme</v>
+        <v>Vol</v>
       </c>
       <c r="C59" t="str">
         <v>USD</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59">
-        <v>1</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="F59" t="str">
+        <v>ICE BofAML MOVE Index</v>
       </c>
       <c r="G59" t="str">
-        <v>composite</v>
+        <v>yfinance</v>
       </c>
       <c r="H59" t="str">
-        <v>TRUMP</v>
+        <v>^MOVE</v>
       </c>
       <c r="I59" t="str">
         <v>lognormal</v>
       </c>
       <c r="J59">
-        <v>1E-4</v>
+        <v>-1E-4</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="str">
-        <v>FED</v>
+        <v>TRUMP</v>
       </c>
       <c r="B60" t="str">
         <v>Theme</v>
@@ -7510,7 +7548,7 @@
         <v>composite</v>
       </c>
       <c r="H60" t="str">
-        <v>FED</v>
+        <v>TRUMP</v>
       </c>
       <c r="I60" t="str">
         <v>lognormal</v>
@@ -7521,7 +7559,7 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="str">
-        <v>AI</v>
+        <v>FED</v>
       </c>
       <c r="B61" t="str">
         <v>Theme</v>
@@ -7542,7 +7580,7 @@
         <v>composite</v>
       </c>
       <c r="H61" t="str">
-        <v>AI</v>
+        <v>FED</v>
       </c>
       <c r="I61" t="str">
         <v>lognormal</v>
@@ -7553,7 +7591,7 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" t="str">
-        <v>GEOPOLITICS</v>
+        <v>AI</v>
       </c>
       <c r="B62" t="str">
         <v>Theme</v>
@@ -7574,7 +7612,7 @@
         <v>composite</v>
       </c>
       <c r="H62" t="str">
-        <v>GEOPOLITICS</v>
+        <v>AI</v>
       </c>
       <c r="I62" t="str">
         <v>lognormal</v>
@@ -7585,7 +7623,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="str">
-        <v>2s10s</v>
+        <v>GEOPOLITICS</v>
       </c>
       <c r="B63" t="str">
         <v>Theme</v>
@@ -7606,12 +7644,44 @@
         <v>composite</v>
       </c>
       <c r="H63" t="str">
-        <v>2s10s</v>
+        <v>GEOPOLITICS</v>
       </c>
       <c r="I63" t="str">
         <v>lognormal</v>
       </c>
       <c r="J63">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64" t="str">
+        <v>2s10s</v>
+      </c>
+      <c r="B64" t="str">
+        <v>Theme</v>
+      </c>
+      <c r="C64" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64" t="str">
+        <v>composite</v>
+      </c>
+      <c r="H64" t="str">
+        <v>2s10s</v>
+      </c>
+      <c r="I64" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J64">
         <v>1E-4</v>
       </c>
     </row>
@@ -7840,7 +7910,7 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A08F2F-299B-47F7-8064-36693758F4E3}">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -7870,11 +7940,11 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="str" cm="1">
-        <f t="array" ref="A2:A59">_xlfn._xlws.FILTER(data[factor_name],data[Active]*NOT(data[composite]))</f>
+        <f t="array" ref="A2:A60">_xlfn._xlws.FILTER(data[factor_name],data[Active]*NOT(data[composite]))</f>
         <v>SPY</v>
       </c>
       <c r="B2" t="str" cm="1">
-        <f t="array" ref="B2:E59">INDEX(data[],_xlfn.XMATCH(_xlfn.ANCHORARRAY(A2),data[factor_name]),_xlfn.XMATCH(B1:E1,data[#Headers]))</f>
+        <f t="array" ref="B2:E60">INDEX(data[],_xlfn.XMATCH(_xlfn.ANCHORARRAY(A2),data[factor_name]),_xlfn.XMATCH(B1:E1,data[#Headers]))</f>
         <v>Equities</v>
       </c>
       <c r="C2" t="str">
@@ -8461,8 +8531,8 @@
       <c r="D36">
         <v>0</v>
       </c>
-      <c r="E36">
-        <v>0</v>
+      <c r="E36" t="str">
+        <v>Vanguard Short-Term Bond Index Fund ETF</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -8484,7 +8554,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="str">
-        <v>HYGH</v>
+        <v>LQDH</v>
       </c>
       <c r="B38" t="str">
         <v>Credit</v>
@@ -8493,7 +8563,7 @@
         <v>USD</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -8501,7 +8571,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="str">
-        <v>AGG</v>
+        <v>HYGH</v>
       </c>
       <c r="B39" t="str">
         <v>Credit</v>
@@ -8518,10 +8588,10 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="str">
-        <v>^TNX</v>
+        <v>AGG</v>
       </c>
       <c r="B40" t="str">
-        <v>Rates</v>
+        <v>Credit</v>
       </c>
       <c r="C40" t="str">
         <v>USD</v>
@@ -8535,7 +8605,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="str">
-        <v>SHY</v>
+        <v>^TNX</v>
       </c>
       <c r="B41" t="str">
         <v>Rates</v>
@@ -8546,13 +8616,13 @@
       <c r="D41">
         <v>0</v>
       </c>
-      <c r="E41" t="str">
-        <v>iShares 1-3 Year Treasury Bond ETF</v>
+      <c r="E41">
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="str">
-        <v>IEI</v>
+        <v>SHY</v>
       </c>
       <c r="B42" t="str">
         <v>Rates</v>
@@ -8564,12 +8634,12 @@
         <v>0</v>
       </c>
       <c r="E42" t="str">
-        <v>iShares 3-7 Year Treasury Bond ETF</v>
+        <v>iShares 1-3 Year Treasury Bond ETF</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="str">
-        <v>IEF</v>
+        <v>IEI</v>
       </c>
       <c r="B43" t="str">
         <v>Rates</v>
@@ -8578,15 +8648,15 @@
         <v>USD</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43" t="str">
-        <v>iShares 7-10 Year Treasury Bond ETF</v>
+        <v>iShares 3-7 Year Treasury Bond ETF</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="str">
-        <v>TLT</v>
+        <v>IEF</v>
       </c>
       <c r="B44" t="str">
         <v>Rates</v>
@@ -8595,15 +8665,15 @@
         <v>USD</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44" t="str">
-        <v>iShares 20+ Year Treasury Bond ETF</v>
+        <v>iShares 7-10 Year Treasury Bond ETF</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="str">
-        <v>TIP</v>
+        <v>TLT</v>
       </c>
       <c r="B45" t="str">
         <v>Rates</v>
@@ -8615,12 +8685,12 @@
         <v>0</v>
       </c>
       <c r="E45" t="str">
-        <v>iShares TIPS Bond ETF</v>
+        <v>iShares 20+ Year Treasury Bond ETF</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="str">
-        <v>VTIP</v>
+        <v>TIP</v>
       </c>
       <c r="B46" t="str">
         <v>Rates</v>
@@ -8631,13 +8701,13 @@
       <c r="D46">
         <v>0</v>
       </c>
-      <c r="E46">
-        <v>0</v>
+      <c r="E46" t="str">
+        <v>iShares TIPS Bond ETF</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="str">
-        <v>AGNC</v>
+        <v>VTIP</v>
       </c>
       <c r="B47" t="str">
         <v>Rates</v>
@@ -8648,13 +8718,13 @@
       <c r="D47">
         <v>0</v>
       </c>
-      <c r="E47" t="str">
-        <v>AGNC Investment Corp.</v>
+      <c r="E47">
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="str">
-        <v>VMBS</v>
+        <v>AGNC</v>
       </c>
       <c r="B48" t="str">
         <v>Rates</v>
@@ -8665,13 +8735,13 @@
       <c r="D48">
         <v>0</v>
       </c>
-      <c r="E48">
-        <v>0</v>
+      <c r="E48" t="str">
+        <v>AGNC Investment Corp.</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="str">
-        <v>CMBS</v>
+        <v>VMBS</v>
       </c>
       <c r="B49" t="str">
         <v>Rates</v>
@@ -8688,41 +8758,41 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="str">
-        <v>EMB</v>
+        <v>CMBS</v>
       </c>
       <c r="B50" t="str">
         <v>Rates</v>
       </c>
       <c r="C50" t="str">
-        <v>EM</v>
+        <v>USD</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
-      <c r="E50" t="str">
-        <v>iShares J.P. Morgan USD Emerging Markets Bond ETF</v>
+      <c r="E50">
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="str">
-        <v>GLD</v>
+        <v>EMB</v>
       </c>
       <c r="B51" t="str">
-        <v>Commodities</v>
+        <v>Rates</v>
       </c>
       <c r="C51" t="str">
-        <v>USD</v>
+        <v>EM</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51" t="str">
-        <v>SPDR Gold Shares</v>
+        <v>iShares J.P. Morgan USD Emerging Markets Bond ETF</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="str">
-        <v>SLV</v>
+        <v>GLD</v>
       </c>
       <c r="B52" t="str">
         <v>Commodities</v>
@@ -8734,12 +8804,12 @@
         <v>0</v>
       </c>
       <c r="E52" t="str">
-        <v>iShares Silver Trust</v>
+        <v>SPDR Gold Shares</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="str">
-        <v>USO</v>
+        <v>SLV</v>
       </c>
       <c r="B53" t="str">
         <v>Commodities</v>
@@ -8751,15 +8821,15 @@
         <v>0</v>
       </c>
       <c r="E53" t="str">
-        <v>United States Oil Fund</v>
+        <v>iShares Silver Trust</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="str">
-        <v>UUP</v>
+        <v>USO</v>
       </c>
       <c r="B54" t="str">
-        <v>Currencies</v>
+        <v>Commodities</v>
       </c>
       <c r="C54" t="str">
         <v>USD</v>
@@ -8768,63 +8838,63 @@
         <v>0</v>
       </c>
       <c r="E54" t="str">
-        <v>Invesco DB US Dollar Index Bullish Fund</v>
+        <v>United States Oil Fund</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="str">
-        <v>FXE</v>
+        <v>UUP</v>
       </c>
       <c r="B55" t="str">
         <v>Currencies</v>
       </c>
       <c r="C55" t="str">
-        <v>EUR</v>
+        <v>USD</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55" t="str">
-        <v>Invesco CurrencyShares Euro Trust</v>
+        <v>Invesco DB US Dollar Index Bullish Fund</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="str">
-        <v>FXY</v>
+        <v>FXE</v>
       </c>
       <c r="B56" t="str">
         <v>Currencies</v>
       </c>
       <c r="C56" t="str">
-        <v>JPY</v>
+        <v>EUR</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56" t="str">
-        <v>Invesco CurrencyShares Japanese Yen Trust</v>
+        <v>Invesco CurrencyShares Euro Trust</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="str">
-        <v>^VIX</v>
+        <v>FXY</v>
       </c>
       <c r="B57" t="str">
-        <v>Vol</v>
+        <v>Currencies</v>
       </c>
       <c r="C57" t="str">
-        <v>USD</v>
+        <v>JPY</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57" t="str">
-        <v>CBOE Volatility Index</v>
+        <v>Invesco CurrencyShares Japanese Yen Trust</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="str">
-        <v>^MOVE</v>
+        <v>^VIX</v>
       </c>
       <c r="B58" t="str">
         <v>Vol</v>
@@ -8836,23 +8906,40 @@
         <v>0</v>
       </c>
       <c r="E58" t="str">
-        <v>ICE BofAML MOVE Index</v>
+        <v>CBOE Volatility Index</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="str">
-        <v>MWTIX</v>
+        <v>^MOVE</v>
       </c>
       <c r="B59" t="str">
-        <v>Portfolio</v>
+        <v>Vol</v>
       </c>
       <c r="C59" t="str">
         <v>USD</v>
       </c>
       <c r="D59">
-        <v>1</v>
-      </c>
-      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="E59" t="str">
+        <v>ICE BofAML MOVE Index</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" t="str">
+        <v>MWTIX</v>
+      </c>
+      <c r="B60" t="str">
+        <v>Portfolio</v>
+      </c>
+      <c r="C60" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
         <v>0</v>
       </c>
     </row>
@@ -13870,7 +13957,7 @@
         <v>42</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -14237,7 +14324,7 @@
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14605,11 +14692,11 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:U81"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A76" sqref="A76"/>
+      <selection pane="bottomRight" activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16761,8 +16848,12 @@
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
+      <c r="F41" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>490</v>
+      </c>
       <c r="H41" s="4">
         <v>1</v>
       </c>
@@ -16775,9 +16866,9 @@
       <c r="K41" s="4">
         <v>0</v>
       </c>
-      <c r="L41" s="4">
+      <c r="L41" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>0</v>
+        <v>Vanguard Short-Term Bond Index Fund ETF</v>
       </c>
       <c r="M41" s="4" t="s">
         <v>455</v>
@@ -16868,10 +16959,10 @@
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" s="4">
         <v>0</v>
@@ -19002,7 +19093,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5A64DEF-E706-4B9C-B282-71F34F86B3DF}">
-  <dimension ref="A1:J64"/>
+  <dimension ref="A1:J65"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -19047,11 +19138,11 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="str" cm="1">
-        <f t="array" ref="A2:A64">_xlfn._xlws.FILTER(data[factor_name],data[Active])</f>
+        <f t="array" ref="A2:A65">_xlfn._xlws.FILTER(data[factor_name],data[Active])</f>
         <v>SPY</v>
       </c>
       <c r="B2" t="str" cm="1">
-        <f t="array" ref="B2:J64">INDEX(data[],_xlfn.XMATCH(_xlfn.ANCHORARRAY(A2),data[factor_name]),_xlfn.XMATCH(B1:J1,data[#Headers]))</f>
+        <f t="array" ref="B2:J65">INDEX(data[],_xlfn.XMATCH(_xlfn.ANCHORARRAY(A2),data[factor_name]),_xlfn.XMATCH(B1:J1,data[#Headers]))</f>
         <v>Equities</v>
       </c>
       <c r="C2" t="str">
@@ -20151,8 +20242,8 @@
       <c r="E36">
         <v>0</v>
       </c>
-      <c r="F36">
-        <v>0</v>
+      <c r="F36" t="str">
+        <v>Vanguard Short-Term Bond Index Fund ETF</v>
       </c>
       <c r="G36" t="str">
         <v>yfinance</v>
@@ -20201,7 +20292,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="str">
-        <v>HYGH</v>
+        <v>LQDH</v>
       </c>
       <c r="B38" t="str">
         <v>Credit</v>
@@ -20210,7 +20301,7 @@
         <v>USD</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -20222,7 +20313,7 @@
         <v>yfinance</v>
       </c>
       <c r="H38" t="str">
-        <v>HYGH</v>
+        <v>LQDH</v>
       </c>
       <c r="I38" t="str">
         <v>lognormal</v>
@@ -20233,7 +20324,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="str">
-        <v>AGG</v>
+        <v>HYGH</v>
       </c>
       <c r="B39" t="str">
         <v>Credit</v>
@@ -20254,7 +20345,7 @@
         <v>yfinance</v>
       </c>
       <c r="H39" t="str">
-        <v>AGG</v>
+        <v>HYGH</v>
       </c>
       <c r="I39" t="str">
         <v>lognormal</v>
@@ -20265,10 +20356,10 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="str">
-        <v>^TNX</v>
+        <v>AGG</v>
       </c>
       <c r="B40" t="str">
-        <v>Rates</v>
+        <v>Credit</v>
       </c>
       <c r="C40" t="str">
         <v>USD</v>
@@ -20286,18 +20377,18 @@
         <v>yfinance</v>
       </c>
       <c r="H40" t="str">
-        <v>^TNX</v>
+        <v>AGG</v>
       </c>
       <c r="I40" t="str">
-        <v>normal</v>
+        <v>lognormal</v>
       </c>
       <c r="J40">
-        <v>-0.01</v>
+        <v>1E-4</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="str">
-        <v>SHY</v>
+        <v>^TNX</v>
       </c>
       <c r="B41" t="str">
         <v>Rates</v>
@@ -20311,25 +20402,25 @@
       <c r="E41">
         <v>0</v>
       </c>
-      <c r="F41" t="str">
-        <v>iShares 1-3 Year Treasury Bond ETF</v>
+      <c r="F41">
+        <v>0</v>
       </c>
       <c r="G41" t="str">
         <v>yfinance</v>
       </c>
       <c r="H41" t="str">
-        <v>SHY</v>
+        <v>^TNX</v>
       </c>
       <c r="I41" t="str">
-        <v>lognormal</v>
+        <v>normal</v>
       </c>
       <c r="J41">
-        <v>1E-4</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="str">
-        <v>IEI</v>
+        <v>SHY</v>
       </c>
       <c r="B42" t="str">
         <v>Rates</v>
@@ -20344,13 +20435,13 @@
         <v>0</v>
       </c>
       <c r="F42" t="str">
-        <v>iShares 3-7 Year Treasury Bond ETF</v>
+        <v>iShares 1-3 Year Treasury Bond ETF</v>
       </c>
       <c r="G42" t="str">
         <v>yfinance</v>
       </c>
       <c r="H42" t="str">
-        <v>IEI</v>
+        <v>SHY</v>
       </c>
       <c r="I42" t="str">
         <v>lognormal</v>
@@ -20361,7 +20452,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="str">
-        <v>IEF</v>
+        <v>IEI</v>
       </c>
       <c r="B43" t="str">
         <v>Rates</v>
@@ -20370,19 +20461,19 @@
         <v>USD</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43" t="str">
-        <v>iShares 7-10 Year Treasury Bond ETF</v>
+        <v>iShares 3-7 Year Treasury Bond ETF</v>
       </c>
       <c r="G43" t="str">
         <v>yfinance</v>
       </c>
       <c r="H43" t="str">
-        <v>IEF</v>
+        <v>IEI</v>
       </c>
       <c r="I43" t="str">
         <v>lognormal</v>
@@ -20393,7 +20484,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="str">
-        <v>TLT</v>
+        <v>IEF</v>
       </c>
       <c r="B44" t="str">
         <v>Rates</v>
@@ -20402,19 +20493,19 @@
         <v>USD</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44" t="str">
-        <v>iShares 20+ Year Treasury Bond ETF</v>
+        <v>iShares 7-10 Year Treasury Bond ETF</v>
       </c>
       <c r="G44" t="str">
         <v>yfinance</v>
       </c>
       <c r="H44" t="str">
-        <v>TLT</v>
+        <v>IEF</v>
       </c>
       <c r="I44" t="str">
         <v>lognormal</v>
@@ -20425,7 +20516,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="str">
-        <v>TIP</v>
+        <v>TLT</v>
       </c>
       <c r="B45" t="str">
         <v>Rates</v>
@@ -20440,13 +20531,13 @@
         <v>0</v>
       </c>
       <c r="F45" t="str">
-        <v>iShares TIPS Bond ETF</v>
+        <v>iShares 20+ Year Treasury Bond ETF</v>
       </c>
       <c r="G45" t="str">
         <v>yfinance</v>
       </c>
       <c r="H45" t="str">
-        <v>TIP</v>
+        <v>TLT</v>
       </c>
       <c r="I45" t="str">
         <v>lognormal</v>
@@ -20457,7 +20548,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="str">
-        <v>VTIP</v>
+        <v>TIP</v>
       </c>
       <c r="B46" t="str">
         <v>Rates</v>
@@ -20471,14 +20562,14 @@
       <c r="E46">
         <v>0</v>
       </c>
-      <c r="F46">
-        <v>0</v>
+      <c r="F46" t="str">
+        <v>iShares TIPS Bond ETF</v>
       </c>
       <c r="G46" t="str">
         <v>yfinance</v>
       </c>
       <c r="H46" t="str">
-        <v>VTIP</v>
+        <v>TIP</v>
       </c>
       <c r="I46" t="str">
         <v>lognormal</v>
@@ -20489,7 +20580,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="str">
-        <v>AGNC</v>
+        <v>VTIP</v>
       </c>
       <c r="B47" t="str">
         <v>Rates</v>
@@ -20503,14 +20594,14 @@
       <c r="E47">
         <v>0</v>
       </c>
-      <c r="F47" t="str">
-        <v>AGNC Investment Corp.</v>
+      <c r="F47">
+        <v>0</v>
       </c>
       <c r="G47" t="str">
         <v>yfinance</v>
       </c>
       <c r="H47" t="str">
-        <v>AGNC</v>
+        <v>VTIP</v>
       </c>
       <c r="I47" t="str">
         <v>lognormal</v>
@@ -20521,7 +20612,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="str">
-        <v>VMBS</v>
+        <v>AGNC</v>
       </c>
       <c r="B48" t="str">
         <v>Rates</v>
@@ -20535,14 +20626,14 @@
       <c r="E48">
         <v>0</v>
       </c>
-      <c r="F48">
-        <v>0</v>
+      <c r="F48" t="str">
+        <v>AGNC Investment Corp.</v>
       </c>
       <c r="G48" t="str">
         <v>yfinance</v>
       </c>
       <c r="H48" t="str">
-        <v>VMBS</v>
+        <v>AGNC</v>
       </c>
       <c r="I48" t="str">
         <v>lognormal</v>
@@ -20553,7 +20644,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="str">
-        <v>CMBS</v>
+        <v>VMBS</v>
       </c>
       <c r="B49" t="str">
         <v>Rates</v>
@@ -20574,7 +20665,7 @@
         <v>yfinance</v>
       </c>
       <c r="H49" t="str">
-        <v>CMBS</v>
+        <v>VMBS</v>
       </c>
       <c r="I49" t="str">
         <v>lognormal</v>
@@ -20585,13 +20676,13 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="str">
-        <v>EMB</v>
+        <v>CMBS</v>
       </c>
       <c r="B50" t="str">
         <v>Rates</v>
       </c>
       <c r="C50" t="str">
-        <v>EM</v>
+        <v>USD</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -20599,14 +20690,14 @@
       <c r="E50">
         <v>0</v>
       </c>
-      <c r="F50" t="str">
-        <v>iShares J.P. Morgan USD Emerging Markets Bond ETF</v>
+      <c r="F50">
+        <v>0</v>
       </c>
       <c r="G50" t="str">
         <v>yfinance</v>
       </c>
       <c r="H50" t="str">
-        <v>EMB</v>
+        <v>CMBS</v>
       </c>
       <c r="I50" t="str">
         <v>lognormal</v>
@@ -20617,13 +20708,13 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="str">
-        <v>GLD</v>
+        <v>EMB</v>
       </c>
       <c r="B51" t="str">
-        <v>Commodities</v>
+        <v>Rates</v>
       </c>
       <c r="C51" t="str">
-        <v>USD</v>
+        <v>EM</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -20632,13 +20723,13 @@
         <v>0</v>
       </c>
       <c r="F51" t="str">
-        <v>SPDR Gold Shares</v>
+        <v>iShares J.P. Morgan USD Emerging Markets Bond ETF</v>
       </c>
       <c r="G51" t="str">
         <v>yfinance</v>
       </c>
       <c r="H51" t="str">
-        <v>GLD</v>
+        <v>EMB</v>
       </c>
       <c r="I51" t="str">
         <v>lognormal</v>
@@ -20649,7 +20740,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="str">
-        <v>SLV</v>
+        <v>GLD</v>
       </c>
       <c r="B52" t="str">
         <v>Commodities</v>
@@ -20664,13 +20755,13 @@
         <v>0</v>
       </c>
       <c r="F52" t="str">
-        <v>iShares Silver Trust</v>
+        <v>SPDR Gold Shares</v>
       </c>
       <c r="G52" t="str">
         <v>yfinance</v>
       </c>
       <c r="H52" t="str">
-        <v>SLV</v>
+        <v>GLD</v>
       </c>
       <c r="I52" t="str">
         <v>lognormal</v>
@@ -20681,7 +20772,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="str">
-        <v>USO</v>
+        <v>SLV</v>
       </c>
       <c r="B53" t="str">
         <v>Commodities</v>
@@ -20696,13 +20787,13 @@
         <v>0</v>
       </c>
       <c r="F53" t="str">
-        <v>United States Oil Fund</v>
+        <v>iShares Silver Trust</v>
       </c>
       <c r="G53" t="str">
         <v>yfinance</v>
       </c>
       <c r="H53" t="str">
-        <v>USO</v>
+        <v>SLV</v>
       </c>
       <c r="I53" t="str">
         <v>lognormal</v>
@@ -20713,10 +20804,10 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="str">
-        <v>UUP</v>
+        <v>USO</v>
       </c>
       <c r="B54" t="str">
-        <v>Currencies</v>
+        <v>Commodities</v>
       </c>
       <c r="C54" t="str">
         <v>USD</v>
@@ -20728,13 +20819,13 @@
         <v>0</v>
       </c>
       <c r="F54" t="str">
-        <v>Invesco DB US Dollar Index Bullish Fund</v>
+        <v>United States Oil Fund</v>
       </c>
       <c r="G54" t="str">
         <v>yfinance</v>
       </c>
       <c r="H54" t="str">
-        <v>UUP</v>
+        <v>USO</v>
       </c>
       <c r="I54" t="str">
         <v>lognormal</v>
@@ -20745,13 +20836,13 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="str">
-        <v>FXE</v>
+        <v>UUP</v>
       </c>
       <c r="B55" t="str">
         <v>Currencies</v>
       </c>
       <c r="C55" t="str">
-        <v>EUR</v>
+        <v>USD</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -20760,13 +20851,13 @@
         <v>0</v>
       </c>
       <c r="F55" t="str">
-        <v>Invesco CurrencyShares Euro Trust</v>
+        <v>Invesco DB US Dollar Index Bullish Fund</v>
       </c>
       <c r="G55" t="str">
         <v>yfinance</v>
       </c>
       <c r="H55" t="str">
-        <v>FXE</v>
+        <v>UUP</v>
       </c>
       <c r="I55" t="str">
         <v>lognormal</v>
@@ -20777,13 +20868,13 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="str">
-        <v>FXY</v>
+        <v>FXE</v>
       </c>
       <c r="B56" t="str">
         <v>Currencies</v>
       </c>
       <c r="C56" t="str">
-        <v>JPY</v>
+        <v>EUR</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -20792,13 +20883,13 @@
         <v>0</v>
       </c>
       <c r="F56" t="str">
-        <v>Invesco CurrencyShares Japanese Yen Trust</v>
+        <v>Invesco CurrencyShares Euro Trust</v>
       </c>
       <c r="G56" t="str">
         <v>yfinance</v>
       </c>
       <c r="H56" t="str">
-        <v>FXY</v>
+        <v>FXE</v>
       </c>
       <c r="I56" t="str">
         <v>lognormal</v>
@@ -20809,13 +20900,13 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="str">
-        <v>^VIX</v>
+        <v>FXY</v>
       </c>
       <c r="B57" t="str">
-        <v>Vol</v>
+        <v>Currencies</v>
       </c>
       <c r="C57" t="str">
-        <v>USD</v>
+        <v>JPY</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -20824,24 +20915,24 @@
         <v>0</v>
       </c>
       <c r="F57" t="str">
-        <v>CBOE Volatility Index</v>
+        <v>Invesco CurrencyShares Japanese Yen Trust</v>
       </c>
       <c r="G57" t="str">
         <v>yfinance</v>
       </c>
       <c r="H57" t="str">
-        <v>^VIX</v>
+        <v>FXY</v>
       </c>
       <c r="I57" t="str">
         <v>lognormal</v>
       </c>
       <c r="J57">
-        <v>-1E-4</v>
+        <v>1E-4</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="str">
-        <v>^MOVE</v>
+        <v>^VIX</v>
       </c>
       <c r="B58" t="str">
         <v>Vol</v>
@@ -20856,13 +20947,13 @@
         <v>0</v>
       </c>
       <c r="F58" t="str">
-        <v>ICE BofAML MOVE Index</v>
+        <v>CBOE Volatility Index</v>
       </c>
       <c r="G58" t="str">
         <v>yfinance</v>
       </c>
       <c r="H58" t="str">
-        <v>^MOVE</v>
+        <v>^VIX</v>
       </c>
       <c r="I58" t="str">
         <v>lognormal</v>
@@ -20873,42 +20964,42 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="str">
-        <v>MWTIX</v>
+        <v>^MOVE</v>
       </c>
       <c r="B59" t="str">
-        <v>Portfolio</v>
+        <v>Vol</v>
       </c>
       <c r="C59" t="str">
         <v>USD</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
-      <c r="F59">
-        <v>0</v>
+      <c r="F59" t="str">
+        <v>ICE BofAML MOVE Index</v>
       </c>
       <c r="G59" t="str">
         <v>yfinance</v>
       </c>
       <c r="H59" t="str">
-        <v>MWTIX</v>
+        <v>^MOVE</v>
       </c>
       <c r="I59" t="str">
         <v>lognormal</v>
       </c>
       <c r="J59">
-        <v>1E-4</v>
+        <v>-1E-4</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="str">
-        <v>TRUMP</v>
+        <v>MWTIX</v>
       </c>
       <c r="B60" t="str">
-        <v>Theme</v>
+        <v>Portfolio</v>
       </c>
       <c r="C60" t="str">
         <v>USD</v>
@@ -20917,16 +21008,16 @@
         <v>1</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
       <c r="G60" t="str">
-        <v>composite</v>
+        <v>yfinance</v>
       </c>
       <c r="H60" t="str">
-        <v>TRUMP</v>
+        <v>MWTIX</v>
       </c>
       <c r="I60" t="str">
         <v>lognormal</v>
@@ -20937,7 +21028,7 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="str">
-        <v>FED</v>
+        <v>TRUMP</v>
       </c>
       <c r="B61" t="str">
         <v>Theme</v>
@@ -20958,7 +21049,7 @@
         <v>composite</v>
       </c>
       <c r="H61" t="str">
-        <v>FED</v>
+        <v>TRUMP</v>
       </c>
       <c r="I61" t="str">
         <v>lognormal</v>
@@ -20969,7 +21060,7 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" t="str">
-        <v>AI</v>
+        <v>FED</v>
       </c>
       <c r="B62" t="str">
         <v>Theme</v>
@@ -20990,7 +21081,7 @@
         <v>composite</v>
       </c>
       <c r="H62" t="str">
-        <v>AI</v>
+        <v>FED</v>
       </c>
       <c r="I62" t="str">
         <v>lognormal</v>
@@ -21001,7 +21092,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="str">
-        <v>GEOPOLITICS</v>
+        <v>AI</v>
       </c>
       <c r="B63" t="str">
         <v>Theme</v>
@@ -21022,7 +21113,7 @@
         <v>composite</v>
       </c>
       <c r="H63" t="str">
-        <v>GEOPOLITICS</v>
+        <v>AI</v>
       </c>
       <c r="I63" t="str">
         <v>lognormal</v>
@@ -21033,7 +21124,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" t="str">
-        <v>2s10s</v>
+        <v>GEOPOLITICS</v>
       </c>
       <c r="B64" t="str">
         <v>Theme</v>
@@ -21054,12 +21145,44 @@
         <v>composite</v>
       </c>
       <c r="H64" t="str">
-        <v>2s10s</v>
+        <v>GEOPOLITICS</v>
       </c>
       <c r="I64" t="str">
         <v>lognormal</v>
       </c>
       <c r="J64">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65" t="str">
+        <v>2s10s</v>
+      </c>
+      <c r="B65" t="str">
+        <v>Theme</v>
+      </c>
+      <c r="C65" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65" t="str">
+        <v>composite</v>
+      </c>
+      <c r="H65" t="str">
+        <v>2s10s</v>
+      </c>
+      <c r="I65" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J65">
         <v>1E-4</v>
       </c>
     </row>

--- a/factor_master.xlsx
+++ b/factor_master.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28910"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bkrai\Source\risk\risk_lib\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bkrai\Source\risk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A550DB0-E25E-4E50-BFD9-FF4AD6658C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052D3B27-D900-4CF7-B22E-26D4426CA9C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="4" activeTab="11" xr2:uid="{C31FDC5B-A809-4BFD-99CB-DA02246721F7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="2" activeTab="6" xr2:uid="{C31FDC5B-A809-4BFD-99CB-DA02246721F7}"/>
   </bookViews>
   <sheets>
     <sheet name="legacy" sheetId="5" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1989" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1990" uniqueCount="508">
   <si>
     <t>SPX</t>
   </si>
@@ -1609,6 +1609,9 @@
   </si>
   <si>
     <t>TRADEWAR_OLD</t>
+  </si>
+  <si>
+    <t>Staples/Discretionary</t>
   </si>
 </sst>
 </file>
@@ -1701,7 +1704,25 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="41">
+  <dxfs count="43">
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <top style="thin">
@@ -1938,8 +1959,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Table Style 1" pivot="0" count="2" xr9:uid="{26B58CFA-74FB-41FD-AB02-EC6D3EA4F4A1}">
-      <tableStyleElement type="wholeTable" dxfId="40"/>
-      <tableStyleElement type="headerRow" dxfId="39"/>
+      <tableStyleElement type="wholeTable" dxfId="42"/>
+      <tableStyleElement type="headerRow" dxfId="41"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2024,49 +2045,49 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6DAD1482-C63D-400D-9F51-F22A8E35CAD8}" name="data" displayName="data" ref="A1:Q87" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6DAD1482-C63D-400D-9F51-F22A8E35CAD8}" name="data" displayName="data" ref="A1:Q87" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{740DC173-AAC9-4239-A44E-C43F8517304D}" name="asset_class" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{A3BC3BB8-0420-458E-AECD-FD567519FA40}" name="region" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{0E50B2E3-0362-41DB-ACC2-478CC6F618A4}" name="factor_name" dataDxfId="34"/>
-    <tableColumn id="8" xr3:uid="{02943B27-7FCB-4450-B8E0-CF0DB6CF5CCA}" name="factor_name_new" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{D181BF84-863F-4FD0-B518-14EA5B0FB18E}" name="description_override" dataDxfId="32"/>
-    <tableColumn id="6" xr3:uid="{1C40DF9B-2910-4DE6-A188-563938E39797}" name="Description_GPT" dataDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{1806E074-6CB5-47AB-8FA3-EF0F6E429062}" name="Underlying" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{21539C17-C1CC-4FA9-A0E1-A2F8FF8AB52C}" name="Active" dataDxfId="29"/>
-    <tableColumn id="37" xr3:uid="{DE50B7AE-5F67-471C-BE48-8BFA5076EDB0}" name="hyper_factor" dataDxfId="28"/>
-    <tableColumn id="10" xr3:uid="{494805E4-EBB6-47FD-9BC2-8DAD9FB9D3FA}" name="composite" dataDxfId="27"/>
-    <tableColumn id="14" xr3:uid="{608FE572-4016-436E-8625-08926F3A2371}" name="client" dataDxfId="26"/>
-    <tableColumn id="9" xr3:uid="{5A601067-D384-419C-A711-AD3034F77E28}" name="description" dataDxfId="25">
+    <tableColumn id="1" xr3:uid="{740DC173-AAC9-4239-A44E-C43F8517304D}" name="asset_class" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{A3BC3BB8-0420-458E-AECD-FD567519FA40}" name="region" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{0E50B2E3-0362-41DB-ACC2-478CC6F618A4}" name="factor_name" dataDxfId="36"/>
+    <tableColumn id="8" xr3:uid="{02943B27-7FCB-4450-B8E0-CF0DB6CF5CCA}" name="factor_name_new" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{D181BF84-863F-4FD0-B518-14EA5B0FB18E}" name="description_override" dataDxfId="34"/>
+    <tableColumn id="6" xr3:uid="{1C40DF9B-2910-4DE6-A188-563938E39797}" name="Description_GPT" dataDxfId="33"/>
+    <tableColumn id="5" xr3:uid="{1806E074-6CB5-47AB-8FA3-EF0F6E429062}" name="Underlying" dataDxfId="32"/>
+    <tableColumn id="7" xr3:uid="{21539C17-C1CC-4FA9-A0E1-A2F8FF8AB52C}" name="Active" dataDxfId="31"/>
+    <tableColumn id="37" xr3:uid="{DE50B7AE-5F67-471C-BE48-8BFA5076EDB0}" name="hyper_factor" dataDxfId="30"/>
+    <tableColumn id="10" xr3:uid="{494805E4-EBB6-47FD-9BC2-8DAD9FB9D3FA}" name="composite" dataDxfId="29"/>
+    <tableColumn id="14" xr3:uid="{608FE572-4016-436E-8625-08926F3A2371}" name="client" dataDxfId="28"/>
+    <tableColumn id="9" xr3:uid="{5A601067-D384-419C-A711-AD3034F77E28}" name="description" dataDxfId="27">
       <calculatedColumnFormula>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{C400A641-F032-4829-A2CD-62831D657B37}" name="source" dataDxfId="24"/>
-    <tableColumn id="12" xr3:uid="{BC682952-ADA8-4869-A16F-B9E7BC86E430}" name="diffusion_type" dataDxfId="23"/>
-    <tableColumn id="16" xr3:uid="{A99CC35E-FB67-451C-BF9C-DA8D933B1B0C}" name="multiplier" dataDxfId="22">
+    <tableColumn id="11" xr3:uid="{C400A641-F032-4829-A2CD-62831D657B37}" name="source" dataDxfId="26"/>
+    <tableColumn id="12" xr3:uid="{BC682952-ADA8-4869-A16F-B9E7BC86E430}" name="diffusion_type" dataDxfId="25"/>
+    <tableColumn id="16" xr3:uid="{A99CC35E-FB67-451C-BF9C-DA8D933B1B0C}" name="multiplier" dataDxfId="24">
       <calculatedColumnFormula array="1">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{64EF0381-B0C5-4226-B34E-0F9752A4A840}" name="ticker" dataDxfId="21">
+    <tableColumn id="13" xr3:uid="{64EF0381-B0C5-4226-B34E-0F9752A4A840}" name="ticker" dataDxfId="23">
       <calculatedColumnFormula>data[[#This Row],[factor_name]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{D49341AB-DA48-473E-8CCB-3A3D04AED743}" name="note" dataDxfId="20"/>
+    <tableColumn id="15" xr3:uid="{D49341AB-DA48-473E-8CCB-3A3D04AED743}" name="note" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F918301C-859F-40B7-9C3E-90E8F0495E68}" name="data_old" displayName="data_old" ref="A1:I45" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F918301C-859F-40B7-9C3E-90E8F0495E68}" name="data_old" displayName="data_old" ref="A1:I45" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="A1:I45" xr:uid="{6DAD1482-C63D-400D-9F51-F22A8E35CAD8}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{B19D2B17-9AC9-4F1B-B32E-D4F72AAE469F}" name="asset_class" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{2C7CF29D-8E72-4B0C-A212-31F2A25D75C9}" name="region" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{C7E89EEC-2B5D-4C94-9327-1AC8E33DE708}" name="factor_name" dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{B3F9004A-8BEB-463E-A746-8189A2AC2B3E}" name="factor_name_new" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{51CD7FB3-58FE-4906-B73C-7726C0A9C471}" name="description_override" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{3CFF990B-3164-4533-821F-08CE7C6D82CA}" name="Description_GPT" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{DD86D53E-A9B4-4387-ABF9-F2625E77982D}" name="Underlying" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{D56FFF9A-72FF-42A4-B3D2-2F27AB16AF7A}" name="Active" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{8476DFDE-B4B1-4FD9-99B4-DF1F2ABBD7D5}" name="description" dataDxfId="9">
+    <tableColumn id="1" xr3:uid="{B19D2B17-9AC9-4F1B-B32E-D4F72AAE469F}" name="asset_class" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{2C7CF29D-8E72-4B0C-A212-31F2A25D75C9}" name="region" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{C7E89EEC-2B5D-4C94-9327-1AC8E33DE708}" name="factor_name" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{B3F9004A-8BEB-463E-A746-8189A2AC2B3E}" name="factor_name_new" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{51CD7FB3-58FE-4906-B73C-7726C0A9C471}" name="description_override" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{3CFF990B-3164-4533-821F-08CE7C6D82CA}" name="Description_GPT" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{DD86D53E-A9B4-4387-ABF9-F2625E77982D}" name="Underlying" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{D56FFF9A-72FF-42A4-B3D2-2F27AB16AF7A}" name="Active" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{8476DFDE-B4B1-4FD9-99B4-DF1F2ABBD7D5}" name="description" dataDxfId="11">
       <calculatedColumnFormula>IF(data_old[[#This Row],[description_override]]="",data_old[[#This Row],[Description_GPT]],data_old[[#This Row],[description_override]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5843,8 +5864,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:J69"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView showGridLines="0" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8014,8 +8035,8 @@
       <c r="E68">
         <v>1</v>
       </c>
-      <c r="F68">
-        <v>0</v>
+      <c r="F68" t="str">
+        <v>Staples/Discretionary</v>
       </c>
       <c r="G68" t="str">
         <v>composite</v>
@@ -8071,8 +8092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B51E7A-08A5-4042-86E1-7986ED98437B}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14832,7 +14853,7 @@
   <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15471,22 +15492,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:C14 B15 A15:A16 C15:C16 A28:C31">
-    <cfRule type="expression" dxfId="8" priority="5">
+    <cfRule type="expression" dxfId="10" priority="5">
       <formula>$K2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:C17 B18:C20 A18:A22 C21">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>$K17</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:C23">
-    <cfRule type="expression" dxfId="6" priority="23">
+    <cfRule type="expression" dxfId="8" priority="23">
       <formula>$K16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21 B22:C22">
-    <cfRule type="expression" dxfId="5" priority="21">
+    <cfRule type="expression" dxfId="7" priority="21">
       <formula>$K19</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15503,11 +15524,11 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:V87"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B60" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="F59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G86" sqref="G86"/>
+      <selection pane="bottomRight" activeCell="K86" sqref="K86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20022,7 +20043,9 @@
         <v>505</v>
       </c>
       <c r="D86" s="4"/>
-      <c r="E86" s="4"/>
+      <c r="E86" s="4" t="s">
+        <v>507</v>
+      </c>
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
       <c r="H86" s="4">
@@ -20037,9 +20060,9 @@
       <c r="K86" s="4">
         <v>0</v>
       </c>
-      <c r="L86" s="4">
+      <c r="L86" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>0</v>
+        <v>Staples/Discretionary</v>
       </c>
       <c r="M86" s="4" t="s">
         <v>445</v>
@@ -20111,29 +20134,9 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A86:B86 H86:K86 M86:N86">
-    <cfRule type="expression" dxfId="4" priority="24">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:Q65 A68:Q72">
-    <cfRule type="expression" dxfId="3" priority="8">
+  <conditionalFormatting sqref="A2:Q87">
+    <cfRule type="expression" dxfId="1" priority="8">
       <formula>$S2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A66:Q67">
-    <cfRule type="expression" dxfId="2" priority="1">
-      <formula>$S65</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A73:Q74 A76:Q85 A87:B87 H87:K87 M87:N87">
-    <cfRule type="expression" dxfId="1" priority="12">
-      <formula>$S72</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A75:Q75">
-    <cfRule type="expression" dxfId="0" priority="14">
-      <formula>$S73</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22519,8 +22522,8 @@
       <c r="E69">
         <v>1</v>
       </c>
-      <c r="F69">
-        <v>0</v>
+      <c r="F69" t="str">
+        <v>Staples/Discretionary</v>
       </c>
       <c r="G69" t="str">
         <v>composite</v>

--- a/factor_master.xlsx
+++ b/factor_master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bkrai\Source\risk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052D3B27-D900-4CF7-B22E-26D4426CA9C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED47ED5-05FE-41AE-9505-2FE475557D27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="2" activeTab="6" xr2:uid="{C31FDC5B-A809-4BFD-99CB-DA02246721F7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="3" activeTab="10" xr2:uid="{C31FDC5B-A809-4BFD-99CB-DA02246721F7}"/>
   </bookViews>
   <sheets>
     <sheet name="legacy" sheetId="5" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1990" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1995" uniqueCount="508">
   <si>
     <t>SPX</t>
   </si>
@@ -1704,61 +1704,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="43">
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="37">
     <dxf>
       <border>
         <top style="thin">
@@ -1959,8 +1905,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Table Style 1" pivot="0" count="2" xr9:uid="{26B58CFA-74FB-41FD-AB02-EC6D3EA4F4A1}">
-      <tableStyleElement type="wholeTable" dxfId="42"/>
-      <tableStyleElement type="headerRow" dxfId="41"/>
+      <tableStyleElement type="wholeTable" dxfId="36"/>
+      <tableStyleElement type="headerRow" dxfId="35"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2045,49 +1991,49 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6DAD1482-C63D-400D-9F51-F22A8E35CAD8}" name="data" displayName="data" ref="A1:Q87" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6DAD1482-C63D-400D-9F51-F22A8E35CAD8}" name="data" displayName="data" ref="A1:Q88" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{740DC173-AAC9-4239-A44E-C43F8517304D}" name="asset_class" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{A3BC3BB8-0420-458E-AECD-FD567519FA40}" name="region" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{0E50B2E3-0362-41DB-ACC2-478CC6F618A4}" name="factor_name" dataDxfId="36"/>
-    <tableColumn id="8" xr3:uid="{02943B27-7FCB-4450-B8E0-CF0DB6CF5CCA}" name="factor_name_new" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{D181BF84-863F-4FD0-B518-14EA5B0FB18E}" name="description_override" dataDxfId="34"/>
-    <tableColumn id="6" xr3:uid="{1C40DF9B-2910-4DE6-A188-563938E39797}" name="Description_GPT" dataDxfId="33"/>
-    <tableColumn id="5" xr3:uid="{1806E074-6CB5-47AB-8FA3-EF0F6E429062}" name="Underlying" dataDxfId="32"/>
-    <tableColumn id="7" xr3:uid="{21539C17-C1CC-4FA9-A0E1-A2F8FF8AB52C}" name="Active" dataDxfId="31"/>
-    <tableColumn id="37" xr3:uid="{DE50B7AE-5F67-471C-BE48-8BFA5076EDB0}" name="hyper_factor" dataDxfId="30"/>
-    <tableColumn id="10" xr3:uid="{494805E4-EBB6-47FD-9BC2-8DAD9FB9D3FA}" name="composite" dataDxfId="29"/>
-    <tableColumn id="14" xr3:uid="{608FE572-4016-436E-8625-08926F3A2371}" name="client" dataDxfId="28"/>
-    <tableColumn id="9" xr3:uid="{5A601067-D384-419C-A711-AD3034F77E28}" name="description" dataDxfId="27">
+    <tableColumn id="1" xr3:uid="{740DC173-AAC9-4239-A44E-C43F8517304D}" name="asset_class" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{A3BC3BB8-0420-458E-AECD-FD567519FA40}" name="region" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{0E50B2E3-0362-41DB-ACC2-478CC6F618A4}" name="factor_name" dataDxfId="30"/>
+    <tableColumn id="8" xr3:uid="{02943B27-7FCB-4450-B8E0-CF0DB6CF5CCA}" name="factor_name_new" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{D181BF84-863F-4FD0-B518-14EA5B0FB18E}" name="description_override" dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{1C40DF9B-2910-4DE6-A188-563938E39797}" name="Description_GPT" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{1806E074-6CB5-47AB-8FA3-EF0F6E429062}" name="Underlying" dataDxfId="26"/>
+    <tableColumn id="7" xr3:uid="{21539C17-C1CC-4FA9-A0E1-A2F8FF8AB52C}" name="Active" dataDxfId="25"/>
+    <tableColumn id="37" xr3:uid="{DE50B7AE-5F67-471C-BE48-8BFA5076EDB0}" name="hyper_factor" dataDxfId="24"/>
+    <tableColumn id="10" xr3:uid="{494805E4-EBB6-47FD-9BC2-8DAD9FB9D3FA}" name="composite" dataDxfId="23"/>
+    <tableColumn id="14" xr3:uid="{608FE572-4016-436E-8625-08926F3A2371}" name="client" dataDxfId="22"/>
+    <tableColumn id="9" xr3:uid="{5A601067-D384-419C-A711-AD3034F77E28}" name="description" dataDxfId="21">
       <calculatedColumnFormula>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{C400A641-F032-4829-A2CD-62831D657B37}" name="source" dataDxfId="26"/>
-    <tableColumn id="12" xr3:uid="{BC682952-ADA8-4869-A16F-B9E7BC86E430}" name="diffusion_type" dataDxfId="25"/>
-    <tableColumn id="16" xr3:uid="{A99CC35E-FB67-451C-BF9C-DA8D933B1B0C}" name="multiplier" dataDxfId="24">
+    <tableColumn id="11" xr3:uid="{C400A641-F032-4829-A2CD-62831D657B37}" name="source" dataDxfId="20"/>
+    <tableColumn id="12" xr3:uid="{BC682952-ADA8-4869-A16F-B9E7BC86E430}" name="diffusion_type" dataDxfId="19"/>
+    <tableColumn id="16" xr3:uid="{A99CC35E-FB67-451C-BF9C-DA8D933B1B0C}" name="multiplier" dataDxfId="18">
       <calculatedColumnFormula array="1">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{64EF0381-B0C5-4226-B34E-0F9752A4A840}" name="ticker" dataDxfId="23">
+    <tableColumn id="13" xr3:uid="{64EF0381-B0C5-4226-B34E-0F9752A4A840}" name="ticker" dataDxfId="17">
       <calculatedColumnFormula>data[[#This Row],[factor_name]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{D49341AB-DA48-473E-8CCB-3A3D04AED743}" name="note" dataDxfId="22"/>
+    <tableColumn id="15" xr3:uid="{D49341AB-DA48-473E-8CCB-3A3D04AED743}" name="note" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F918301C-859F-40B7-9C3E-90E8F0495E68}" name="data_old" displayName="data_old" ref="A1:I45" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F918301C-859F-40B7-9C3E-90E8F0495E68}" name="data_old" displayName="data_old" ref="A1:I45" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A1:I45" xr:uid="{6DAD1482-C63D-400D-9F51-F22A8E35CAD8}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{B19D2B17-9AC9-4F1B-B32E-D4F72AAE469F}" name="asset_class" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{2C7CF29D-8E72-4B0C-A212-31F2A25D75C9}" name="region" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{C7E89EEC-2B5D-4C94-9327-1AC8E33DE708}" name="factor_name" dataDxfId="17"/>
-    <tableColumn id="8" xr3:uid="{B3F9004A-8BEB-463E-A746-8189A2AC2B3E}" name="factor_name_new" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{51CD7FB3-58FE-4906-B73C-7726C0A9C471}" name="description_override" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{3CFF990B-3164-4533-821F-08CE7C6D82CA}" name="Description_GPT" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{DD86D53E-A9B4-4387-ABF9-F2625E77982D}" name="Underlying" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{D56FFF9A-72FF-42A4-B3D2-2F27AB16AF7A}" name="Active" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{8476DFDE-B4B1-4FD9-99B4-DF1F2ABBD7D5}" name="description" dataDxfId="11">
+    <tableColumn id="1" xr3:uid="{B19D2B17-9AC9-4F1B-B32E-D4F72AAE469F}" name="asset_class" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{2C7CF29D-8E72-4B0C-A212-31F2A25D75C9}" name="region" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{C7E89EEC-2B5D-4C94-9327-1AC8E33DE708}" name="factor_name" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{B3F9004A-8BEB-463E-A746-8189A2AC2B3E}" name="factor_name_new" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{51CD7FB3-58FE-4906-B73C-7726C0A9C471}" name="description_override" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{3CFF990B-3164-4533-821F-08CE7C6D82CA}" name="Description_GPT" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{DD86D53E-A9B4-4387-ABF9-F2625E77982D}" name="Underlying" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{D56FFF9A-72FF-42A4-B3D2-2F27AB16AF7A}" name="Active" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{8476DFDE-B4B1-4FD9-99B4-DF1F2ABBD7D5}" name="description" dataDxfId="5">
       <calculatedColumnFormula>IF(data_old[[#This Row],[description_override]]="",data_old[[#This Row],[Description_GPT]],data_old[[#This Row],[description_override]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5862,10 +5808,10 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2977BD7F-9323-4F6D-98BF-C1B39119DCDE}">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:J69"/>
+  <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63:XFD63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5907,11 +5853,11 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="str" cm="1">
-        <f t="array" ref="A2:A69">_xlfn._xlws.FILTER(data[factor_name],data[Active]*(data[client]=0))</f>
+        <f t="array" ref="A2:A70">_xlfn._xlws.FILTER(data[factor_name],data[Active]*(data[client]=0))</f>
         <v>SPY</v>
       </c>
       <c r="B2" t="str" cm="1">
-        <f t="array" ref="B2:J69">INDEX(data[],_xlfn.XMATCH(_xlfn.ANCHORARRAY(A2),data[factor_name]),_xlfn.XMATCH(B1:J1,data[#Headers]))</f>
+        <f t="array" ref="B2:J70">INDEX(data[],_xlfn.XMATCH(_xlfn.ANCHORARRAY(A2),data[factor_name]),_xlfn.XMATCH(B1:J1,data[#Headers]))</f>
         <v>Equities</v>
       </c>
       <c r="C2" t="str">
@@ -7861,10 +7807,10 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="str">
-        <v>TRUMP</v>
+        <v>MWTIX</v>
       </c>
       <c r="B63" t="str">
-        <v>Theme</v>
+        <v>Portfolio</v>
       </c>
       <c r="C63" t="str">
         <v>USD</v>
@@ -7873,16 +7819,16 @@
         <v>1</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63">
         <v>0</v>
       </c>
       <c r="G63" t="str">
-        <v>composite</v>
+        <v>yfinance</v>
       </c>
       <c r="H63" t="str">
-        <v>TRUMP</v>
+        <v>MWTIX</v>
       </c>
       <c r="I63" t="str">
         <v>lognormal</v>
@@ -7893,7 +7839,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" t="str">
-        <v>FED</v>
+        <v>TRUMP</v>
       </c>
       <c r="B64" t="str">
         <v>Theme</v>
@@ -7914,7 +7860,7 @@
         <v>composite</v>
       </c>
       <c r="H64" t="str">
-        <v>FED</v>
+        <v>TRUMP</v>
       </c>
       <c r="I64" t="str">
         <v>lognormal</v>
@@ -7925,7 +7871,7 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" t="str">
-        <v>AI</v>
+        <v>FED</v>
       </c>
       <c r="B65" t="str">
         <v>Theme</v>
@@ -7946,7 +7892,7 @@
         <v>composite</v>
       </c>
       <c r="H65" t="str">
-        <v>AI</v>
+        <v>FED</v>
       </c>
       <c r="I65" t="str">
         <v>lognormal</v>
@@ -7957,7 +7903,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" t="str">
-        <v>GEOPOLITICS</v>
+        <v>AI</v>
       </c>
       <c r="B66" t="str">
         <v>Theme</v>
@@ -7978,7 +7924,7 @@
         <v>composite</v>
       </c>
       <c r="H66" t="str">
-        <v>GEOPOLITICS</v>
+        <v>AI</v>
       </c>
       <c r="I66" t="str">
         <v>lognormal</v>
@@ -7989,7 +7935,7 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" t="str">
-        <v>2s10s</v>
+        <v>GEOPOLITICS</v>
       </c>
       <c r="B67" t="str">
         <v>Theme</v>
@@ -8010,7 +7956,7 @@
         <v>composite</v>
       </c>
       <c r="H67" t="str">
-        <v>2s10s</v>
+        <v>GEOPOLITICS</v>
       </c>
       <c r="I67" t="str">
         <v>lognormal</v>
@@ -8021,7 +7967,7 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" t="str">
-        <v>XLPXLY</v>
+        <v>2s10s</v>
       </c>
       <c r="B68" t="str">
         <v>Theme</v>
@@ -8035,14 +7981,14 @@
       <c r="E68">
         <v>1</v>
       </c>
-      <c r="F68" t="str">
-        <v>Staples/Discretionary</v>
+      <c r="F68">
+        <v>0</v>
       </c>
       <c r="G68" t="str">
         <v>composite</v>
       </c>
       <c r="H68" t="str">
-        <v>XLPXLY</v>
+        <v>2s10s</v>
       </c>
       <c r="I68" t="str">
         <v>lognormal</v>
@@ -8053,7 +7999,7 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" t="str">
-        <v>TRADEWAR</v>
+        <v>XLPXLY</v>
       </c>
       <c r="B69" t="str">
         <v>Theme</v>
@@ -8067,19 +8013,51 @@
       <c r="E69">
         <v>1</v>
       </c>
-      <c r="F69">
-        <v>0</v>
+      <c r="F69" t="str">
+        <v>Staples/Discretionary</v>
       </c>
       <c r="G69" t="str">
         <v>composite</v>
       </c>
       <c r="H69" t="str">
-        <v>TRADEWAR</v>
+        <v>XLPXLY</v>
       </c>
       <c r="I69" t="str">
         <v>lognormal</v>
       </c>
       <c r="J69">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70" t="str">
+        <v>TRADEWAR</v>
+      </c>
+      <c r="B70" t="str">
+        <v>Theme</v>
+      </c>
+      <c r="C70" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70" t="str">
+        <v>composite</v>
+      </c>
+      <c r="H70" t="str">
+        <v>TRADEWAR</v>
+      </c>
+      <c r="I70" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J70">
         <v>1E-4</v>
       </c>
     </row>
@@ -14853,7 +14831,7 @@
   <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15492,22 +15470,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:C14 B15 A15:A16 C15:C16 A28:C31">
-    <cfRule type="expression" dxfId="10" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>$K2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:C17 B18:C20 A18:A22 C21">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>$K17</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:C23">
-    <cfRule type="expression" dxfId="8" priority="23">
+    <cfRule type="expression" dxfId="2" priority="23">
       <formula>$K16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21 B22:C22">
-    <cfRule type="expression" dxfId="7" priority="21">
+    <cfRule type="expression" dxfId="1" priority="21">
       <formula>$K19</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15522,13 +15500,13 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C29859C-7358-4E2F-B5CC-7696F1DAC449}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:V87"/>
+  <dimension ref="A1:V88"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F59" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K86" sqref="K86"/>
+      <selection pane="bottomRight" activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15651,7 +15629,7 @@
       <c r="Q2" s="4"/>
       <c r="R2" s="2"/>
       <c r="S2" t="b" cm="1">
-        <f t="array" ref="S2:S87">MOD(_xlfn.SEQUENCE(ROWS(data[])),3)=1</f>
+        <f t="array" ref="S2:S88">MOD(_xlfn.SEQUENCE(ROWS(data[])),3)=1</f>
         <v>1</v>
       </c>
     </row>
@@ -19752,7 +19730,7 @@
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
       <c r="H80" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" s="4">
         <v>1</v>
@@ -19789,13 +19767,13 @@
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>444</v>
+        <v>128</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
@@ -19805,10 +19783,10 @@
         <v>1</v>
       </c>
       <c r="I81" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K81" s="4">
         <v>0</v>
@@ -19818,7 +19796,7 @@
         <v>0</v>
       </c>
       <c r="M81" s="4" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="N81" s="4" t="s">
         <v>454</v>
@@ -19829,9 +19807,10 @@
       </c>
       <c r="P81" s="4" t="str">
         <f>data[[#This Row],[factor_name]]</f>
-        <v>TRUMP</v>
+        <v>MWTIX</v>
       </c>
       <c r="Q81" s="4"/>
+      <c r="R81" s="2"/>
       <c r="S81" t="b">
         <v>0</v>
       </c>
@@ -19844,7 +19823,7 @@
         <v>40</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
@@ -19878,7 +19857,7 @@
       </c>
       <c r="P82" s="4" t="str">
         <f>data[[#This Row],[factor_name]]</f>
-        <v>FED</v>
+        <v>TRUMP</v>
       </c>
       <c r="Q82" s="4"/>
       <c r="S82" t="b">
@@ -19893,7 +19872,7 @@
         <v>40</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>421</v>
+        <v>439</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
@@ -19927,7 +19906,7 @@
       </c>
       <c r="P83" s="4" t="str">
         <f>data[[#This Row],[factor_name]]</f>
-        <v>AI</v>
+        <v>FED</v>
       </c>
       <c r="Q83" s="4"/>
       <c r="S83" t="b">
@@ -19942,7 +19921,7 @@
         <v>40</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>450</v>
+        <v>421</v>
       </c>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
@@ -19976,7 +19955,7 @@
       </c>
       <c r="P84" s="4" t="str">
         <f>data[[#This Row],[factor_name]]</f>
-        <v>GEOPOLITICS</v>
+        <v>AI</v>
       </c>
       <c r="Q84" s="4"/>
       <c r="S84" t="b">
@@ -19991,7 +19970,7 @@
         <v>40</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
@@ -20025,7 +20004,7 @@
       </c>
       <c r="P85" s="4" t="str">
         <f>data[[#This Row],[factor_name]]</f>
-        <v>2s10s</v>
+        <v>GEOPOLITICS</v>
       </c>
       <c r="Q85" s="4"/>
       <c r="S85" t="b">
@@ -20040,12 +20019,10 @@
         <v>40</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>505</v>
+        <v>451</v>
       </c>
       <c r="D86" s="4"/>
-      <c r="E86" s="4" t="s">
-        <v>507</v>
-      </c>
+      <c r="E86" s="4"/>
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
       <c r="H86" s="4">
@@ -20060,9 +20037,9 @@
       <c r="K86" s="4">
         <v>0</v>
       </c>
-      <c r="L86" s="4" t="str">
+      <c r="L86" s="4">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>Staples/Discretionary</v>
+        <v>0</v>
       </c>
       <c r="M86" s="4" t="s">
         <v>445</v>
@@ -20076,7 +20053,7 @@
       </c>
       <c r="P86" s="4" t="str">
         <f>data[[#This Row],[factor_name]]</f>
-        <v>XLPXLY</v>
+        <v>2s10s</v>
       </c>
       <c r="Q86" s="4"/>
       <c r="S86" t="b">
@@ -20091,10 +20068,12 @@
         <v>40</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="D87" s="4"/>
-      <c r="E87" s="4"/>
+      <c r="E87" s="4" t="s">
+        <v>507</v>
+      </c>
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
       <c r="H87" s="4">
@@ -20109,9 +20088,9 @@
       <c r="K87" s="4">
         <v>0</v>
       </c>
-      <c r="L87" s="4">
+      <c r="L87" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>0</v>
+        <v>Staples/Discretionary</v>
       </c>
       <c r="M87" s="4" t="s">
         <v>445</v>
@@ -20125,17 +20104,66 @@
       </c>
       <c r="P87" s="4" t="str">
         <f>data[[#This Row],[factor_name]]</f>
-        <v>TRADEWAR</v>
+        <v>XLPXLY</v>
       </c>
       <c r="Q87" s="4"/>
       <c r="S87" t="b">
         <v>0</v>
       </c>
     </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A88" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4">
+        <v>1</v>
+      </c>
+      <c r="I88" s="4">
+        <v>1</v>
+      </c>
+      <c r="J88" s="4">
+        <v>1</v>
+      </c>
+      <c r="K88" s="4">
+        <v>0</v>
+      </c>
+      <c r="L88" s="4">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>0</v>
+      </c>
+      <c r="M88" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="N88" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="O88" s="4" cm="1">
+        <f t="array" ref="O88">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="P88" s="4" t="str">
+        <f>data[[#This Row],[factor_name]]</f>
+        <v>TRADEWAR</v>
+      </c>
+      <c r="Q88" s="4"/>
+      <c r="S88" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A2:Q87">
-    <cfRule type="expression" dxfId="1" priority="8">
+  <conditionalFormatting sqref="A2:Q88">
+    <cfRule type="expression" dxfId="0" priority="8">
       <formula>$S2</formula>
     </cfRule>
   </conditionalFormatting>

--- a/factor_master.xlsx
+++ b/factor_master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bkrai\Source\risk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED47ED5-05FE-41AE-9505-2FE475557D27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D930531-FE02-432C-B6C7-7C1F4D5D5DC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="3" activeTab="10" xr2:uid="{C31FDC5B-A809-4BFD-99CB-DA02246721F7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="3" activeTab="9" xr2:uid="{C31FDC5B-A809-4BFD-99CB-DA02246721F7}"/>
   </bookViews>
   <sheets>
     <sheet name="legacy" sheetId="5" r:id="rId1"/>
@@ -3775,7 +3775,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9123E77-EA56-403E-A728-B01259D22573}">
   <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5810,8 +5812,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63:XFD63"/>
+    <sheetView showGridLines="0" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="K58" sqref="K58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/factor_master.xlsx
+++ b/factor_master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bkrai\Source\risk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D930531-FE02-432C-B6C7-7C1F4D5D5DC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09EDC06-1857-4B48-9FBC-1E601EC30C47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="3" activeTab="9" xr2:uid="{C31FDC5B-A809-4BFD-99CB-DA02246721F7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="3" activeTab="7" xr2:uid="{C31FDC5B-A809-4BFD-99CB-DA02246721F7}"/>
   </bookViews>
   <sheets>
     <sheet name="legacy" sheetId="5" r:id="rId1"/>
@@ -19,16 +19,17 @@
     <sheet name="lior" sheetId="9" r:id="rId4"/>
     <sheet name="read_composites" sheetId="14" r:id="rId5"/>
     <sheet name="composites" sheetId="13" r:id="rId6"/>
-    <sheet name="data" sheetId="3" r:id="rId7"/>
-    <sheet name="read_new" sheetId="15" r:id="rId8"/>
-    <sheet name="read_tcw" sheetId="17" r:id="rId9"/>
-    <sheet name="read_nocomposite" sheetId="19" r:id="rId10"/>
-    <sheet name="read" sheetId="12" r:id="rId11"/>
-    <sheet name="read_short" sheetId="16" r:id="rId12"/>
-    <sheet name="read_old2" sheetId="4" r:id="rId13"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId14"/>
-    <sheet name="read_old" sheetId="1" r:id="rId15"/>
-    <sheet name="data_old" sheetId="8" r:id="rId16"/>
+    <sheet name="risk_parity" sheetId="20" r:id="rId7"/>
+    <sheet name="data" sheetId="3" r:id="rId8"/>
+    <sheet name="read_new" sheetId="15" r:id="rId9"/>
+    <sheet name="read_tcw" sheetId="17" r:id="rId10"/>
+    <sheet name="read_nocomposite" sheetId="19" r:id="rId11"/>
+    <sheet name="read" sheetId="12" r:id="rId12"/>
+    <sheet name="read_short" sheetId="16" r:id="rId13"/>
+    <sheet name="read_old2" sheetId="4" r:id="rId14"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId15"/>
+    <sheet name="read_old" sheetId="1" r:id="rId16"/>
+    <sheet name="data_old" sheetId="8" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -88,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1995" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2011" uniqueCount="508">
   <si>
     <t>SPX</t>
   </si>
@@ -3772,11 +3773,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9123E77-EA56-403E-A728-B01259D22573}">
-  <dimension ref="A1:J63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5A64DEF-E706-4B9C-B282-71F34F86B3DF}">
+  <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3818,11 +3819,11 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="str" cm="1">
-        <f t="array" ref="A2:A63">_xlfn._xlws.FILTER(data[factor_name],(data[Active])*(data[source]="yfinance"))</f>
+        <f t="array" ref="A2:A70">_xlfn._xlws.FILTER(data[factor_name],data[Active])</f>
         <v>SPY</v>
       </c>
       <c r="B2" t="str" cm="1">
-        <f t="array" ref="B2:J63">INDEX(data[],_xlfn.XMATCH(_xlfn.ANCHORARRAY(A2),data[factor_name]),_xlfn.XMATCH(B1:J1,data[#Headers]))</f>
+        <f t="array" ref="B2:J70">INDEX(data[],_xlfn.XMATCH(_xlfn.ANCHORARRAY(A2),data[factor_name]),_xlfn.XMATCH(B1:J1,data[#Headers]))</f>
         <v>Equities</v>
       </c>
       <c r="C2" t="str">
@@ -5799,6 +5800,230 @@
         <v>lognormal</v>
       </c>
       <c r="J63">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64" t="str">
+        <v>TRUMP</v>
+      </c>
+      <c r="B64" t="str">
+        <v>Theme</v>
+      </c>
+      <c r="C64" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64" t="str">
+        <v>composite</v>
+      </c>
+      <c r="H64" t="str">
+        <v>TRUMP</v>
+      </c>
+      <c r="I64" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J64">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65" t="str">
+        <v>FED</v>
+      </c>
+      <c r="B65" t="str">
+        <v>Theme</v>
+      </c>
+      <c r="C65" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65" t="str">
+        <v>composite</v>
+      </c>
+      <c r="H65" t="str">
+        <v>FED</v>
+      </c>
+      <c r="I65" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J65">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66" t="str">
+        <v>AI</v>
+      </c>
+      <c r="B66" t="str">
+        <v>Theme</v>
+      </c>
+      <c r="C66" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66" t="str">
+        <v>composite</v>
+      </c>
+      <c r="H66" t="str">
+        <v>AI</v>
+      </c>
+      <c r="I66" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J66">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67" t="str">
+        <v>GEOPOLITICS</v>
+      </c>
+      <c r="B67" t="str">
+        <v>Theme</v>
+      </c>
+      <c r="C67" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67" t="str">
+        <v>composite</v>
+      </c>
+      <c r="H67" t="str">
+        <v>GEOPOLITICS</v>
+      </c>
+      <c r="I67" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J67">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68" t="str">
+        <v>2s10s</v>
+      </c>
+      <c r="B68" t="str">
+        <v>Theme</v>
+      </c>
+      <c r="C68" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68" t="str">
+        <v>composite</v>
+      </c>
+      <c r="H68" t="str">
+        <v>2s10s</v>
+      </c>
+      <c r="I68" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J68">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69" t="str">
+        <v>XLPXLY</v>
+      </c>
+      <c r="B69" t="str">
+        <v>Theme</v>
+      </c>
+      <c r="C69" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69" t="str">
+        <v>Staples/Discretionary</v>
+      </c>
+      <c r="G69" t="str">
+        <v>composite</v>
+      </c>
+      <c r="H69" t="str">
+        <v>XLPXLY</v>
+      </c>
+      <c r="I69" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J69">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70" t="str">
+        <v>TRADEWAR</v>
+      </c>
+      <c r="B70" t="str">
+        <v>Theme</v>
+      </c>
+      <c r="C70" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70" t="str">
+        <v>composite</v>
+      </c>
+      <c r="H70" t="str">
+        <v>TRADEWAR</v>
+      </c>
+      <c r="I70" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J70">
         <v>1E-4</v>
       </c>
     </row>
@@ -5808,6 +6033,2042 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9123E77-EA56-403E-A728-B01259D22573}">
+  <dimension ref="A1:J63"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="44.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D1" t="s">
+        <v>428</v>
+      </c>
+      <c r="E1" t="s">
+        <v>445</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>466</v>
+      </c>
+      <c r="H1" t="s">
+        <v>465</v>
+      </c>
+      <c r="I1" t="s">
+        <v>464</v>
+      </c>
+      <c r="J1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="str" cm="1">
+        <f t="array" ref="A2:A63">_xlfn._xlws.FILTER(data[factor_name],(data[Active])*(data[source]="yfinance"))</f>
+        <v>SPY</v>
+      </c>
+      <c r="B2" t="str" cm="1">
+        <f t="array" ref="B2:J63">INDEX(data[],_xlfn.XMATCH(_xlfn.ANCHORARRAY(A2),data[factor_name]),_xlfn.XMATCH(B1:J1,data[#Headers]))</f>
+        <v>Equities</v>
+      </c>
+      <c r="C2" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="str">
+        <v>S&amp;P 500</v>
+      </c>
+      <c r="G2" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H2" t="str">
+        <v>SPY</v>
+      </c>
+      <c r="I2" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J2">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="str">
+        <v>IWM</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C3" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="str">
+        <v>Russell 2000</v>
+      </c>
+      <c r="G3" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H3" t="str">
+        <v>IWM</v>
+      </c>
+      <c r="I3" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J3">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="str">
+        <v>MDY</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C4" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="str">
+        <v>S&amp;P 400</v>
+      </c>
+      <c r="G4" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H4" t="str">
+        <v>MDY</v>
+      </c>
+      <c r="I4" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J4">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="str">
+        <v>RSP</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C5" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="str">
+        <v>S&amp;P 500 EW</v>
+      </c>
+      <c r="G5" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H5" t="str">
+        <v>RSP</v>
+      </c>
+      <c r="I5" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J5">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="str">
+        <v>QQQ</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C6" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="str">
+        <v>Nasdaq 100</v>
+      </c>
+      <c r="G6" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H6" t="str">
+        <v>QQQ</v>
+      </c>
+      <c r="I6" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J6">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="str">
+        <v>DIA</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C7" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="str">
+        <v>Dow Jones 30</v>
+      </c>
+      <c r="G7" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H7" t="str">
+        <v>DIA</v>
+      </c>
+      <c r="I7" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J7">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
+        <v>XLK</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Sector</v>
+      </c>
+      <c r="C8" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="str">
+        <v>Technology</v>
+      </c>
+      <c r="G8" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H8" t="str">
+        <v>XLK</v>
+      </c>
+      <c r="I8" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J8">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
+        <v>XLI</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Sector</v>
+      </c>
+      <c r="C9" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="str">
+        <v>Industrials</v>
+      </c>
+      <c r="G9" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H9" t="str">
+        <v>XLI</v>
+      </c>
+      <c r="I9" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J9">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="str">
+        <v>XLF</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Sector</v>
+      </c>
+      <c r="C10" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="str">
+        <v>Financials</v>
+      </c>
+      <c r="G10" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H10" t="str">
+        <v>XLF</v>
+      </c>
+      <c r="I10" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J10">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="str">
+        <v>KRE</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Sector</v>
+      </c>
+      <c r="C11" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="str">
+        <v>Regional Banks</v>
+      </c>
+      <c r="G11" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H11" t="str">
+        <v>KRE</v>
+      </c>
+      <c r="I11" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J11">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="str">
+        <v>XLC</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Sector</v>
+      </c>
+      <c r="C12" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="str">
+        <v>Communications</v>
+      </c>
+      <c r="G12" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H12" t="str">
+        <v>XLC</v>
+      </c>
+      <c r="I12" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J12">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="str">
+        <v>XLE</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Sector</v>
+      </c>
+      <c r="C13" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="str">
+        <v>Energy</v>
+      </c>
+      <c r="G13" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H13" t="str">
+        <v>XLE</v>
+      </c>
+      <c r="I13" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J13">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="str">
+        <v>XLY</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Sector</v>
+      </c>
+      <c r="C14" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="str">
+        <v>Discretionary</v>
+      </c>
+      <c r="G14" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H14" t="str">
+        <v>XLY</v>
+      </c>
+      <c r="I14" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J14">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="str">
+        <v>XLB</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Sector</v>
+      </c>
+      <c r="C15" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="str">
+        <v>Materials</v>
+      </c>
+      <c r="G15" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H15" t="str">
+        <v>XLB</v>
+      </c>
+      <c r="I15" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J15">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="str">
+        <v>XLV</v>
+      </c>
+      <c r="B16" t="str">
+        <v>Sector</v>
+      </c>
+      <c r="C16" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="str">
+        <v>Health Care</v>
+      </c>
+      <c r="G16" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H16" t="str">
+        <v>XLV</v>
+      </c>
+      <c r="I16" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J16">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="str">
+        <v>XLU</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Sector</v>
+      </c>
+      <c r="C17" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" t="str">
+        <v>Utilities</v>
+      </c>
+      <c r="G17" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H17" t="str">
+        <v>XLU</v>
+      </c>
+      <c r="I17" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J17">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="str">
+        <v>XLP</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Sector</v>
+      </c>
+      <c r="C18" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="str">
+        <v>Staples</v>
+      </c>
+      <c r="G18" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H18" t="str">
+        <v>XLP</v>
+      </c>
+      <c r="I18" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J18">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="str">
+        <v>IYR</v>
+      </c>
+      <c r="B19" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C19" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" t="str">
+        <v>iShares U.S. Real Estate ETF</v>
+      </c>
+      <c r="G19" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H19" t="str">
+        <v>IYR</v>
+      </c>
+      <c r="I19" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J19">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" t="str">
+        <v>VNQ</v>
+      </c>
+      <c r="B20" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C20" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" t="str">
+        <v>Vanguard Real Estate ETF</v>
+      </c>
+      <c r="G20" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H20" t="str">
+        <v>VNQ</v>
+      </c>
+      <c r="I20" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J20">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" t="str">
+        <v>AIQ</v>
+      </c>
+      <c r="B21" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C21" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="str">
+        <v>AI</v>
+      </c>
+      <c r="G21" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H21" t="str">
+        <v>AIQ</v>
+      </c>
+      <c r="I21" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J21">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" t="str">
+        <v>ICLN</v>
+      </c>
+      <c r="B22" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C22" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="str">
+        <v>Clean Energy</v>
+      </c>
+      <c r="G22" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H22" t="str">
+        <v>ICLN</v>
+      </c>
+      <c r="I22" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J22">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" t="str">
+        <v>PFF</v>
+      </c>
+      <c r="B23" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C23" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="str">
+        <v>Preferred</v>
+      </c>
+      <c r="G23" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H23" t="str">
+        <v>PFF</v>
+      </c>
+      <c r="I23" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J23">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" t="str">
+        <v>FEZ</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C24" t="str">
+        <v>EUR</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="str">
+        <v>Eurostoxx 50</v>
+      </c>
+      <c r="G24" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H24" t="str">
+        <v>FEZ</v>
+      </c>
+      <c r="I24" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J24">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" t="str">
+        <v>EWU</v>
+      </c>
+      <c r="B25" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C25" t="str">
+        <v>GBP</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="str">
+        <v>iShares FTSE United Kingdom ETF</v>
+      </c>
+      <c r="G25" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H25" t="str">
+        <v>EWU</v>
+      </c>
+      <c r="I25" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J25">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" t="str">
+        <v>DAX</v>
+      </c>
+      <c r="B26" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C26" t="str">
+        <v>EUR</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="str">
+        <v>DAX (Germany)</v>
+      </c>
+      <c r="G26" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H26" t="str">
+        <v>DAX</v>
+      </c>
+      <c r="I26" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J26">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" t="str">
+        <v>EWC</v>
+      </c>
+      <c r="B27" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C27" t="str">
+        <v>CAD</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="str">
+        <v>iShares MSCI Canada ETF</v>
+      </c>
+      <c r="G27" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H27" t="str">
+        <v>EWC</v>
+      </c>
+      <c r="I27" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J27">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" t="str">
+        <v>EWI</v>
+      </c>
+      <c r="B28" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C28" t="str">
+        <v>EUR</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" t="str">
+        <v>iShares MSCI Italy ETF</v>
+      </c>
+      <c r="G28" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H28" t="str">
+        <v>EWI</v>
+      </c>
+      <c r="I28" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J28">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" t="str">
+        <v>^N225</v>
+      </c>
+      <c r="B29" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C29" t="str">
+        <v>JPY</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="str">
+        <v>Nikkei 225</v>
+      </c>
+      <c r="G29" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H29" t="str">
+        <v>^N225</v>
+      </c>
+      <c r="I29" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J29">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" t="str">
+        <v>FXI</v>
+      </c>
+      <c r="B30" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C30" t="str">
+        <v>CNH</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" t="str">
+        <v>iShares China Large-Cap ETF</v>
+      </c>
+      <c r="G30" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H30" t="str">
+        <v>FXI</v>
+      </c>
+      <c r="I30" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J30">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" t="str">
+        <v>ASHR</v>
+      </c>
+      <c r="B31" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C31" t="str">
+        <v>CNH</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="str">
+        <v>Xtrackers Harvest CSI 300 China A-Shares ETF</v>
+      </c>
+      <c r="G31" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H31" t="str">
+        <v>ASHR</v>
+      </c>
+      <c r="I31" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J31">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" t="str">
+        <v>KWEB</v>
+      </c>
+      <c r="B32" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C32" t="str">
+        <v>CNH</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" t="str">
+        <v>KraneShares CSI China Internet ETF</v>
+      </c>
+      <c r="G32" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H32" t="str">
+        <v>KWEB</v>
+      </c>
+      <c r="I32" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J32">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" t="str">
+        <v>EEM</v>
+      </c>
+      <c r="B33" t="str">
+        <v>Equities</v>
+      </c>
+      <c r="C33" t="str">
+        <v>EM</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H33" t="str">
+        <v>EEM</v>
+      </c>
+      <c r="I33" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J33">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" t="str">
+        <v>LQD</v>
+      </c>
+      <c r="B34" t="str">
+        <v>Credit</v>
+      </c>
+      <c r="C34" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34" t="str">
+        <v>iShares iBoxx $ Investment Grade Corporate Bond ETF</v>
+      </c>
+      <c r="G34" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H34" t="str">
+        <v>LQD</v>
+      </c>
+      <c r="I34" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J34">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" t="str">
+        <v>BSV</v>
+      </c>
+      <c r="B35" t="str">
+        <v>Credit</v>
+      </c>
+      <c r="C35" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35" t="str">
+        <v>Vanguard Short-Term Bond Index Fund ETF</v>
+      </c>
+      <c r="G35" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H35" t="str">
+        <v>BSV</v>
+      </c>
+      <c r="I35" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J35">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" t="str">
+        <v>HYG</v>
+      </c>
+      <c r="B36" t="str">
+        <v>Credit</v>
+      </c>
+      <c r="C36" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36" t="str">
+        <v>iShares iBoxx $ High Yield Corporate Bond ETF</v>
+      </c>
+      <c r="G36" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H36" t="str">
+        <v>HYG</v>
+      </c>
+      <c r="I36" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J36">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" t="str">
+        <v>LQDH</v>
+      </c>
+      <c r="B37" t="str">
+        <v>Credit</v>
+      </c>
+      <c r="C37" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H37" t="str">
+        <v>LQDH</v>
+      </c>
+      <c r="I37" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J37">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" t="str">
+        <v>HYGH</v>
+      </c>
+      <c r="B38" t="str">
+        <v>Credit</v>
+      </c>
+      <c r="C38" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H38" t="str">
+        <v>HYGH</v>
+      </c>
+      <c r="I38" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J38">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" t="str">
+        <v>AGG</v>
+      </c>
+      <c r="B39" t="str">
+        <v>Credit</v>
+      </c>
+      <c r="C39" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H39" t="str">
+        <v>AGG</v>
+      </c>
+      <c r="I39" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J39">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" t="str">
+        <v>^TNX</v>
+      </c>
+      <c r="B40" t="str">
+        <v>Rates</v>
+      </c>
+      <c r="C40" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H40" t="str">
+        <v>^TNX</v>
+      </c>
+      <c r="I40" t="str">
+        <v>normal</v>
+      </c>
+      <c r="J40">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" t="str">
+        <v>SHY</v>
+      </c>
+      <c r="B41" t="str">
+        <v>Rates</v>
+      </c>
+      <c r="C41" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41" t="str">
+        <v>iShares 1-3 Year Treasury Bond ETF</v>
+      </c>
+      <c r="G41" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H41" t="str">
+        <v>SHY</v>
+      </c>
+      <c r="I41" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J41">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" t="str">
+        <v>IEI</v>
+      </c>
+      <c r="B42" t="str">
+        <v>Rates</v>
+      </c>
+      <c r="C42" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42" t="str">
+        <v>iShares 3-7 Year Treasury Bond ETF</v>
+      </c>
+      <c r="G42" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H42" t="str">
+        <v>IEI</v>
+      </c>
+      <c r="I42" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J42">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" t="str">
+        <v>IEF</v>
+      </c>
+      <c r="B43" t="str">
+        <v>Rates</v>
+      </c>
+      <c r="C43" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43" t="str">
+        <v>iShares 7-10 Year Treasury Bond ETF</v>
+      </c>
+      <c r="G43" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H43" t="str">
+        <v>IEF</v>
+      </c>
+      <c r="I43" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J43">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" t="str">
+        <v>TLT</v>
+      </c>
+      <c r="B44" t="str">
+        <v>Rates</v>
+      </c>
+      <c r="C44" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44" t="str">
+        <v>iShares 20+ Year Treasury Bond ETF</v>
+      </c>
+      <c r="G44" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H44" t="str">
+        <v>TLT</v>
+      </c>
+      <c r="I44" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J44">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" t="str">
+        <v>TIP</v>
+      </c>
+      <c r="B45" t="str">
+        <v>Rates</v>
+      </c>
+      <c r="C45" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45" t="str">
+        <v>iShares TIPS Bond ETF</v>
+      </c>
+      <c r="G45" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H45" t="str">
+        <v>TIP</v>
+      </c>
+      <c r="I45" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J45">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" t="str">
+        <v>VTIP</v>
+      </c>
+      <c r="B46" t="str">
+        <v>Rates</v>
+      </c>
+      <c r="C46" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H46" t="str">
+        <v>VTIP</v>
+      </c>
+      <c r="I46" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J46">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" t="str">
+        <v>AGNC</v>
+      </c>
+      <c r="B47" t="str">
+        <v>Rates</v>
+      </c>
+      <c r="C47" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47" t="str">
+        <v>AGNC Investment Corp.</v>
+      </c>
+      <c r="G47" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H47" t="str">
+        <v>AGNC</v>
+      </c>
+      <c r="I47" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J47">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" t="str">
+        <v>VMBS</v>
+      </c>
+      <c r="B48" t="str">
+        <v>Rates</v>
+      </c>
+      <c r="C48" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H48" t="str">
+        <v>VMBS</v>
+      </c>
+      <c r="I48" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J48">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" t="str">
+        <v>CMBS</v>
+      </c>
+      <c r="B49" t="str">
+        <v>Rates</v>
+      </c>
+      <c r="C49" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H49" t="str">
+        <v>CMBS</v>
+      </c>
+      <c r="I49" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J49">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" t="str">
+        <v>EMB</v>
+      </c>
+      <c r="B50" t="str">
+        <v>Rates</v>
+      </c>
+      <c r="C50" t="str">
+        <v>EM</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50" t="str">
+        <v>iShares J.P. Morgan USD Emerging Markets Bond ETF</v>
+      </c>
+      <c r="G50" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H50" t="str">
+        <v>EMB</v>
+      </c>
+      <c r="I50" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J50">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" t="str">
+        <v>GLD</v>
+      </c>
+      <c r="B51" t="str">
+        <v>Commodities</v>
+      </c>
+      <c r="C51" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51" t="str">
+        <v>SPDR Gold Shares</v>
+      </c>
+      <c r="G51" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H51" t="str">
+        <v>GLD</v>
+      </c>
+      <c r="I51" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J51">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" t="str">
+        <v>SLV</v>
+      </c>
+      <c r="B52" t="str">
+        <v>Commodities</v>
+      </c>
+      <c r="C52" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52" t="str">
+        <v>iShares Silver Trust</v>
+      </c>
+      <c r="G52" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H52" t="str">
+        <v>SLV</v>
+      </c>
+      <c r="I52" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J52">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" t="str">
+        <v>USO</v>
+      </c>
+      <c r="B53" t="str">
+        <v>Commodities</v>
+      </c>
+      <c r="C53" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53" t="str">
+        <v>United States Oil Fund</v>
+      </c>
+      <c r="G53" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H53" t="str">
+        <v>USO</v>
+      </c>
+      <c r="I53" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J53">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" t="str">
+        <v>UUP</v>
+      </c>
+      <c r="B54" t="str">
+        <v>Currencies</v>
+      </c>
+      <c r="C54" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54" t="str">
+        <v>Invesco DB US Dollar Index Bullish Fund</v>
+      </c>
+      <c r="G54" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H54" t="str">
+        <v>UUP</v>
+      </c>
+      <c r="I54" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J54">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" t="str">
+        <v>DX-Y.NYB</v>
+      </c>
+      <c r="B55" t="str">
+        <v>Currencies</v>
+      </c>
+      <c r="C55" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H55" t="str">
+        <v>DX-Y.NYB</v>
+      </c>
+      <c r="I55" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J55">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" t="str">
+        <v>FXE</v>
+      </c>
+      <c r="B56" t="str">
+        <v>Currencies</v>
+      </c>
+      <c r="C56" t="str">
+        <v>EUR</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56" t="str">
+        <v>Invesco CurrencyShares Euro Trust</v>
+      </c>
+      <c r="G56" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H56" t="str">
+        <v>FXE</v>
+      </c>
+      <c r="I56" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J56">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" t="str">
+        <v>FXY</v>
+      </c>
+      <c r="B57" t="str">
+        <v>Currencies</v>
+      </c>
+      <c r="C57" t="str">
+        <v>JPY</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57" t="str">
+        <v>Invesco CurrencyShares Japanese Yen Trust</v>
+      </c>
+      <c r="G57" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H57" t="str">
+        <v>FXY</v>
+      </c>
+      <c r="I57" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J57">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" t="str">
+        <v>FXF</v>
+      </c>
+      <c r="B58" t="str">
+        <v>Currencies</v>
+      </c>
+      <c r="C58" t="str">
+        <v>JPY</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58" t="str">
+        <v>Invesco CurrencyShares Swiss Franc Trust</v>
+      </c>
+      <c r="G58" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H58" t="str">
+        <v>FXF</v>
+      </c>
+      <c r="I58" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J58">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" t="str">
+        <v>^VIX</v>
+      </c>
+      <c r="B59" t="str">
+        <v>Vol</v>
+      </c>
+      <c r="C59" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59" t="str">
+        <v>CBOE Volatility Index</v>
+      </c>
+      <c r="G59" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H59" t="str">
+        <v>^VIX</v>
+      </c>
+      <c r="I59" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J59">
+        <v>-1E-4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" t="str">
+        <v>VXX</v>
+      </c>
+      <c r="B60" t="str">
+        <v>Vol</v>
+      </c>
+      <c r="C60" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60" t="str">
+        <v>VIX Short-Term Futures ETN</v>
+      </c>
+      <c r="G60" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H60" t="str">
+        <v>VXX</v>
+      </c>
+      <c r="I60" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J60">
+        <v>-1E-4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" t="str">
+        <v>^VIX3M</v>
+      </c>
+      <c r="B61" t="str">
+        <v>Vol</v>
+      </c>
+      <c r="C61" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61" t="str">
+        <v>CBOE S&amp;P 500 3-Month Volatility</v>
+      </c>
+      <c r="G61" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H61" t="str">
+        <v>^VIX3M</v>
+      </c>
+      <c r="I61" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J61">
+        <v>-1E-4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" t="str">
+        <v>^MOVE</v>
+      </c>
+      <c r="B62" t="str">
+        <v>Vol</v>
+      </c>
+      <c r="C62" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62" t="str">
+        <v>ICE BofAML MOVE Index</v>
+      </c>
+      <c r="G62" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H62" t="str">
+        <v>^MOVE</v>
+      </c>
+      <c r="I62" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J62">
+        <v>-1E-4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63" t="str">
+        <v>MWTIX</v>
+      </c>
+      <c r="B63" t="str">
+        <v>Portfolio</v>
+      </c>
+      <c r="C63" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H63" t="str">
+        <v>MWTIX</v>
+      </c>
+      <c r="I63" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J63">
+        <v>1E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2977BD7F-9323-4F6D-98BF-C1B39119DCDE}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:J70"/>
@@ -8068,7 +10329,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B51E7A-08A5-4042-86E1-7986ED98437B}">
   <dimension ref="A1:J6"/>
   <sheetViews>
@@ -8279,7 +10540,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A08F2F-299B-47F7-8064-36693758F4E3}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:E63"/>
@@ -9371,7 +11632,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{509EC1D2-D913-4E91-BF4A-1B9A2D2D358E}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:C9"/>
@@ -9490,7 +11751,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28B96AA-E903-4E49-8EE7-2DF563672EF4}">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:D9"/>
@@ -9611,7 +11872,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BECED18-9D5B-4FAE-9BAD-99DBF8245FFA}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:M74"/>
@@ -15500,15 +17761,197 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0C05AAC-62F4-4536-9109-8789088E3F23}">
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="str" cm="1">
+        <f t="array" ref="B1:B22">_xlfn.XLOOKUP(_xlfn._TRO_ALL(A:A),data[factor_name],data[asset_class],"")</f>
+        <v>Equities</v>
+      </c>
+      <c r="F1" t="str">
+        <f>"['"&amp;_xlfn.TEXTJOIN("', '",,_xlfn._TRO_ALL(A:A))&amp;"']"</f>
+        <v>['SPY', 'FEZ', '^N225', 'LQDH', 'HYGH', 'EMB', 'IEI', 'IEF', 'TLT', 'FXE', 'FXY', 'FXF', 'TIP', 'VMBS', 'CMBS', 'GLD', 'USO']</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Equities</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Equities</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B4" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Credit</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>348</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Credit</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Rates</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B8" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Rates</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Rates</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Rates</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Currencies</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Currencies</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>499</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Currencies</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B16" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Rates</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>346</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Rates</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>345</v>
+      </c>
+      <c r="B19" t="str">
+        <v>Rates</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" t="str">
+        <v>Commodities</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" t="str">
+        <v>Commodities</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C29859C-7358-4E2F-B5CC-7696F1DAC449}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:V88"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C61" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A81" sqref="A81"/>
+      <selection pane="bottomRight" activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15766,9 +18209,7 @@
       <c r="E5" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>362</v>
-      </c>
+      <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4">
         <v>1</v>
@@ -20176,7 +22617,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45BE1690-4C72-4E94-925C-89FAF286C7F8}">
   <dimension ref="A1:H6"/>
   <sheetViews>
@@ -20343,2264 +22784,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5A64DEF-E706-4B9C-B282-71F34F86B3DF}">
-  <dimension ref="A1:J70"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="6" max="6" width="44.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>322</v>
-      </c>
-      <c r="C1" t="s">
-        <v>316</v>
-      </c>
-      <c r="D1" t="s">
-        <v>428</v>
-      </c>
-      <c r="E1" t="s">
-        <v>445</v>
-      </c>
-      <c r="F1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" t="s">
-        <v>466</v>
-      </c>
-      <c r="H1" t="s">
-        <v>465</v>
-      </c>
-      <c r="I1" t="s">
-        <v>464</v>
-      </c>
-      <c r="J1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="str" cm="1">
-        <f t="array" ref="A2:A70">_xlfn._xlws.FILTER(data[factor_name],data[Active])</f>
-        <v>SPY</v>
-      </c>
-      <c r="B2" t="str" cm="1">
-        <f t="array" ref="B2:J70">INDEX(data[],_xlfn.XMATCH(_xlfn.ANCHORARRAY(A2),data[factor_name]),_xlfn.XMATCH(B1:J1,data[#Headers]))</f>
-        <v>Equities</v>
-      </c>
-      <c r="C2" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" t="str">
-        <v>S&amp;P 500</v>
-      </c>
-      <c r="G2" t="str">
-        <v>yfinance</v>
-      </c>
-      <c r="H2" t="str">
-        <v>SPY</v>
-      </c>
-      <c r="I2" t="str">
-        <v>lognormal</v>
-      </c>
-      <c r="J2">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="str">
-        <v>IWM</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Equities</v>
-      </c>
-      <c r="C3" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3" t="str">
-        <v>Russell 2000</v>
-      </c>
-      <c r="G3" t="str">
-        <v>yfinance</v>
-      </c>
-      <c r="H3" t="str">
-        <v>IWM</v>
-      </c>
-      <c r="I3" t="str">
-        <v>lognormal</v>
-      </c>
-      <c r="J3">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="str">
-        <v>MDY</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Equities</v>
-      </c>
-      <c r="C4" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" t="str">
-        <v>S&amp;P 400</v>
-      </c>
-      <c r="G4" t="str">
-        <v>yfinance</v>
-      </c>
-      <c r="H4" t="str">
-        <v>MDY</v>
-      </c>
-      <c r="I4" t="str">
-        <v>lognormal</v>
-      </c>
-      <c r="J4">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" t="str">
-        <v>RSP</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Equities</v>
-      </c>
-      <c r="C5" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5" t="str">
-        <v>S&amp;P 500 EW</v>
-      </c>
-      <c r="G5" t="str">
-        <v>yfinance</v>
-      </c>
-      <c r="H5" t="str">
-        <v>RSP</v>
-      </c>
-      <c r="I5" t="str">
-        <v>lognormal</v>
-      </c>
-      <c r="J5">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" t="str">
-        <v>QQQ</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Equities</v>
-      </c>
-      <c r="C6" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6" t="str">
-        <v>Nasdaq 100</v>
-      </c>
-      <c r="G6" t="str">
-        <v>yfinance</v>
-      </c>
-      <c r="H6" t="str">
-        <v>QQQ</v>
-      </c>
-      <c r="I6" t="str">
-        <v>lognormal</v>
-      </c>
-      <c r="J6">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" t="str">
-        <v>DIA</v>
-      </c>
-      <c r="B7" t="str">
-        <v>Equities</v>
-      </c>
-      <c r="C7" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7" t="str">
-        <v>Dow Jones 30</v>
-      </c>
-      <c r="G7" t="str">
-        <v>yfinance</v>
-      </c>
-      <c r="H7" t="str">
-        <v>DIA</v>
-      </c>
-      <c r="I7" t="str">
-        <v>lognormal</v>
-      </c>
-      <c r="J7">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" t="str">
-        <v>XLK</v>
-      </c>
-      <c r="B8" t="str">
-        <v>Sector</v>
-      </c>
-      <c r="C8" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8" t="str">
-        <v>Technology</v>
-      </c>
-      <c r="G8" t="str">
-        <v>yfinance</v>
-      </c>
-      <c r="H8" t="str">
-        <v>XLK</v>
-      </c>
-      <c r="I8" t="str">
-        <v>lognormal</v>
-      </c>
-      <c r="J8">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" t="str">
-        <v>XLI</v>
-      </c>
-      <c r="B9" t="str">
-        <v>Sector</v>
-      </c>
-      <c r="C9" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9" t="str">
-        <v>Industrials</v>
-      </c>
-      <c r="G9" t="str">
-        <v>yfinance</v>
-      </c>
-      <c r="H9" t="str">
-        <v>XLI</v>
-      </c>
-      <c r="I9" t="str">
-        <v>lognormal</v>
-      </c>
-      <c r="J9">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" t="str">
-        <v>XLF</v>
-      </c>
-      <c r="B10" t="str">
-        <v>Sector</v>
-      </c>
-      <c r="C10" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10" t="str">
-        <v>Financials</v>
-      </c>
-      <c r="G10" t="str">
-        <v>yfinance</v>
-      </c>
-      <c r="H10" t="str">
-        <v>XLF</v>
-      </c>
-      <c r="I10" t="str">
-        <v>lognormal</v>
-      </c>
-      <c r="J10">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" t="str">
-        <v>KRE</v>
-      </c>
-      <c r="B11" t="str">
-        <v>Sector</v>
-      </c>
-      <c r="C11" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11" t="str">
-        <v>Regional Banks</v>
-      </c>
-      <c r="G11" t="str">
-        <v>yfinance</v>
-      </c>
-      <c r="H11" t="str">
-        <v>KRE</v>
-      </c>
-      <c r="I11" t="str">
-        <v>lognormal</v>
-      </c>
-      <c r="J11">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" t="str">
-        <v>XLC</v>
-      </c>
-      <c r="B12" t="str">
-        <v>Sector</v>
-      </c>
-      <c r="C12" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12" t="str">
-        <v>Communications</v>
-      </c>
-      <c r="G12" t="str">
-        <v>yfinance</v>
-      </c>
-      <c r="H12" t="str">
-        <v>XLC</v>
-      </c>
-      <c r="I12" t="str">
-        <v>lognormal</v>
-      </c>
-      <c r="J12">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" t="str">
-        <v>XLE</v>
-      </c>
-      <c r="B13" t="str">
-        <v>Sector</v>
-      </c>
-      <c r="C13" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13" t="str">
-        <v>Energy</v>
-      </c>
-      <c r="G13" t="str">
-        <v>yfinance</v>
-      </c>
-      <c r="H13" t="str">
-        <v>XLE</v>
-      </c>
-      <c r="I13" t="str">
-        <v>lognormal</v>
-      </c>
-      <c r="J13">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" t="str">
-        <v>XLY</v>
-      </c>
-      <c r="B14" t="str">
-        <v>Sector</v>
-      </c>
-      <c r="C14" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14" t="str">
-        <v>Discretionary</v>
-      </c>
-      <c r="G14" t="str">
-        <v>yfinance</v>
-      </c>
-      <c r="H14" t="str">
-        <v>XLY</v>
-      </c>
-      <c r="I14" t="str">
-        <v>lognormal</v>
-      </c>
-      <c r="J14">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" t="str">
-        <v>XLB</v>
-      </c>
-      <c r="B15" t="str">
-        <v>Sector</v>
-      </c>
-      <c r="C15" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15" t="str">
-        <v>Materials</v>
-      </c>
-      <c r="G15" t="str">
-        <v>yfinance</v>
-      </c>
-      <c r="H15" t="str">
-        <v>XLB</v>
-      </c>
-      <c r="I15" t="str">
-        <v>lognormal</v>
-      </c>
-      <c r="J15">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" t="str">
-        <v>XLV</v>
-      </c>
-      <c r="B16" t="str">
-        <v>Sector</v>
-      </c>
-      <c r="C16" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16" t="str">
-        <v>Health Care</v>
-      </c>
-      <c r="G16" t="str">
-        <v>yfinance</v>
-      </c>
-      <c r="H16" t="str">
-        <v>XLV</v>
-      </c>
-      <c r="I16" t="str">
-        <v>lognormal</v>
-      </c>
-      <c r="J16">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" t="str">
-        <v>XLU</v>
-      </c>
-      <c r="B17" t="str">
-        <v>Sector</v>
-      </c>
-      <c r="C17" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17" t="str">
-        <v>Utilities</v>
-      </c>
-      <c r="G17" t="str">
-        <v>yfinance</v>
-      </c>
-      <c r="H17" t="str">
-        <v>XLU</v>
-      </c>
-      <c r="I17" t="str">
-        <v>lognormal</v>
-      </c>
-      <c r="J17">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" t="str">
-        <v>XLP</v>
-      </c>
-      <c r="B18" t="str">
-        <v>Sector</v>
-      </c>
-      <c r="C18" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18" t="str">
-        <v>Staples</v>
-      </c>
-      <c r="G18" t="str">
-        <v>yfinance</v>
-      </c>
-      <c r="H18" t="str">
-        <v>XLP</v>
-      </c>
-      <c r="I18" t="str">
-        <v>lognormal</v>
-      </c>
-      <c r="J18">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" t="str">
-        <v>IYR</v>
-      </c>
-      <c r="B19" t="str">
-        <v>Equities</v>
-      </c>
-      <c r="C19" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19" t="str">
-        <v>iShares U.S. Real Estate ETF</v>
-      </c>
-      <c r="G19" t="str">
-        <v>yfinance</v>
-      </c>
-      <c r="H19" t="str">
-        <v>IYR</v>
-      </c>
-      <c r="I19" t="str">
-        <v>lognormal</v>
-      </c>
-      <c r="J19">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" t="str">
-        <v>VNQ</v>
-      </c>
-      <c r="B20" t="str">
-        <v>Equities</v>
-      </c>
-      <c r="C20" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20" t="str">
-        <v>Vanguard Real Estate ETF</v>
-      </c>
-      <c r="G20" t="str">
-        <v>yfinance</v>
-      </c>
-      <c r="H20" t="str">
-        <v>VNQ</v>
-      </c>
-      <c r="I20" t="str">
-        <v>lognormal</v>
-      </c>
-      <c r="J20">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" t="str">
-        <v>AIQ</v>
-      </c>
-      <c r="B21" t="str">
-        <v>Equities</v>
-      </c>
-      <c r="C21" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21" t="str">
-        <v>AI</v>
-      </c>
-      <c r="G21" t="str">
-        <v>yfinance</v>
-      </c>
-      <c r="H21" t="str">
-        <v>AIQ</v>
-      </c>
-      <c r="I21" t="str">
-        <v>lognormal</v>
-      </c>
-      <c r="J21">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" t="str">
-        <v>ICLN</v>
-      </c>
-      <c r="B22" t="str">
-        <v>Equities</v>
-      </c>
-      <c r="C22" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22" t="str">
-        <v>Clean Energy</v>
-      </c>
-      <c r="G22" t="str">
-        <v>yfinance</v>
-      </c>
-      <c r="H22" t="str">
-        <v>ICLN</v>
-      </c>
-      <c r="I22" t="str">
-        <v>lognormal</v>
-      </c>
-      <c r="J22">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" t="str">
-        <v>PFF</v>
-      </c>
-      <c r="B23" t="str">
-        <v>Equities</v>
-      </c>
-      <c r="C23" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23" t="str">
-        <v>Preferred</v>
-      </c>
-      <c r="G23" t="str">
-        <v>yfinance</v>
-      </c>
-      <c r="H23" t="str">
-        <v>PFF</v>
-      </c>
-      <c r="I23" t="str">
-        <v>lognormal</v>
-      </c>
-      <c r="J23">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" t="str">
-        <v>FEZ</v>
-      </c>
-      <c r="B24" t="str">
-        <v>Equities</v>
-      </c>
-      <c r="C24" t="str">
-        <v>EUR</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24" t="str">
-        <v>Eurostoxx 50</v>
-      </c>
-      <c r="G24" t="str">
-        <v>yfinance</v>
-      </c>
-      <c r="H24" t="str">
-        <v>FEZ</v>
-      </c>
-      <c r="I24" t="str">
-        <v>lognormal</v>
-      </c>
-      <c r="J24">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" t="str">
-        <v>EWU</v>
-      </c>
-      <c r="B25" t="str">
-        <v>Equities</v>
-      </c>
-      <c r="C25" t="str">
-        <v>GBP</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25" t="str">
-        <v>iShares FTSE United Kingdom ETF</v>
-      </c>
-      <c r="G25" t="str">
-        <v>yfinance</v>
-      </c>
-      <c r="H25" t="str">
-        <v>EWU</v>
-      </c>
-      <c r="I25" t="str">
-        <v>lognormal</v>
-      </c>
-      <c r="J25">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" t="str">
-        <v>DAX</v>
-      </c>
-      <c r="B26" t="str">
-        <v>Equities</v>
-      </c>
-      <c r="C26" t="str">
-        <v>EUR</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26" t="str">
-        <v>DAX (Germany)</v>
-      </c>
-      <c r="G26" t="str">
-        <v>yfinance</v>
-      </c>
-      <c r="H26" t="str">
-        <v>DAX</v>
-      </c>
-      <c r="I26" t="str">
-        <v>lognormal</v>
-      </c>
-      <c r="J26">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" t="str">
-        <v>EWC</v>
-      </c>
-      <c r="B27" t="str">
-        <v>Equities</v>
-      </c>
-      <c r="C27" t="str">
-        <v>CAD</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27" t="str">
-        <v>iShares MSCI Canada ETF</v>
-      </c>
-      <c r="G27" t="str">
-        <v>yfinance</v>
-      </c>
-      <c r="H27" t="str">
-        <v>EWC</v>
-      </c>
-      <c r="I27" t="str">
-        <v>lognormal</v>
-      </c>
-      <c r="J27">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" t="str">
-        <v>EWI</v>
-      </c>
-      <c r="B28" t="str">
-        <v>Equities</v>
-      </c>
-      <c r="C28" t="str">
-        <v>EUR</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28" t="str">
-        <v>iShares MSCI Italy ETF</v>
-      </c>
-      <c r="G28" t="str">
-        <v>yfinance</v>
-      </c>
-      <c r="H28" t="str">
-        <v>EWI</v>
-      </c>
-      <c r="I28" t="str">
-        <v>lognormal</v>
-      </c>
-      <c r="J28">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" t="str">
-        <v>^N225</v>
-      </c>
-      <c r="B29" t="str">
-        <v>Equities</v>
-      </c>
-      <c r="C29" t="str">
-        <v>JPY</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29" t="str">
-        <v>Nikkei 225</v>
-      </c>
-      <c r="G29" t="str">
-        <v>yfinance</v>
-      </c>
-      <c r="H29" t="str">
-        <v>^N225</v>
-      </c>
-      <c r="I29" t="str">
-        <v>lognormal</v>
-      </c>
-      <c r="J29">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" t="str">
-        <v>FXI</v>
-      </c>
-      <c r="B30" t="str">
-        <v>Equities</v>
-      </c>
-      <c r="C30" t="str">
-        <v>CNH</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30" t="str">
-        <v>iShares China Large-Cap ETF</v>
-      </c>
-      <c r="G30" t="str">
-        <v>yfinance</v>
-      </c>
-      <c r="H30" t="str">
-        <v>FXI</v>
-      </c>
-      <c r="I30" t="str">
-        <v>lognormal</v>
-      </c>
-      <c r="J30">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" t="str">
-        <v>ASHR</v>
-      </c>
-      <c r="B31" t="str">
-        <v>Equities</v>
-      </c>
-      <c r="C31" t="str">
-        <v>CNH</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31" t="str">
-        <v>Xtrackers Harvest CSI 300 China A-Shares ETF</v>
-      </c>
-      <c r="G31" t="str">
-        <v>yfinance</v>
-      </c>
-      <c r="H31" t="str">
-        <v>ASHR</v>
-      </c>
-      <c r="I31" t="str">
-        <v>lognormal</v>
-      </c>
-      <c r="J31">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" t="str">
-        <v>KWEB</v>
-      </c>
-      <c r="B32" t="str">
-        <v>Equities</v>
-      </c>
-      <c r="C32" t="str">
-        <v>CNH</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32" t="str">
-        <v>KraneShares CSI China Internet ETF</v>
-      </c>
-      <c r="G32" t="str">
-        <v>yfinance</v>
-      </c>
-      <c r="H32" t="str">
-        <v>KWEB</v>
-      </c>
-      <c r="I32" t="str">
-        <v>lognormal</v>
-      </c>
-      <c r="J32">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" t="str">
-        <v>EEM</v>
-      </c>
-      <c r="B33" t="str">
-        <v>Equities</v>
-      </c>
-      <c r="C33" t="str">
-        <v>EM</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33" t="str">
-        <v>yfinance</v>
-      </c>
-      <c r="H33" t="str">
-        <v>EEM</v>
-      </c>
-      <c r="I33" t="str">
-        <v>lognormal</v>
-      </c>
-      <c r="J33">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" t="str">
-        <v>LQD</v>
-      </c>
-      <c r="B34" t="str">
-        <v>Credit</v>
-      </c>
-      <c r="C34" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34" t="str">
-        <v>iShares iBoxx $ Investment Grade Corporate Bond ETF</v>
-      </c>
-      <c r="G34" t="str">
-        <v>yfinance</v>
-      </c>
-      <c r="H34" t="str">
-        <v>LQD</v>
-      </c>
-      <c r="I34" t="str">
-        <v>lognormal</v>
-      </c>
-      <c r="J34">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" t="str">
-        <v>BSV</v>
-      </c>
-      <c r="B35" t="str">
-        <v>Credit</v>
-      </c>
-      <c r="C35" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35" t="str">
-        <v>Vanguard Short-Term Bond Index Fund ETF</v>
-      </c>
-      <c r="G35" t="str">
-        <v>yfinance</v>
-      </c>
-      <c r="H35" t="str">
-        <v>BSV</v>
-      </c>
-      <c r="I35" t="str">
-        <v>lognormal</v>
-      </c>
-      <c r="J35">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" t="str">
-        <v>HYG</v>
-      </c>
-      <c r="B36" t="str">
-        <v>Credit</v>
-      </c>
-      <c r="C36" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36" t="str">
-        <v>iShares iBoxx $ High Yield Corporate Bond ETF</v>
-      </c>
-      <c r="G36" t="str">
-        <v>yfinance</v>
-      </c>
-      <c r="H36" t="str">
-        <v>HYG</v>
-      </c>
-      <c r="I36" t="str">
-        <v>lognormal</v>
-      </c>
-      <c r="J36">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" t="str">
-        <v>LQDH</v>
-      </c>
-      <c r="B37" t="str">
-        <v>Credit</v>
-      </c>
-      <c r="C37" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37" t="str">
-        <v>yfinance</v>
-      </c>
-      <c r="H37" t="str">
-        <v>LQDH</v>
-      </c>
-      <c r="I37" t="str">
-        <v>lognormal</v>
-      </c>
-      <c r="J37">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" t="str">
-        <v>HYGH</v>
-      </c>
-      <c r="B38" t="str">
-        <v>Credit</v>
-      </c>
-      <c r="C38" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38" t="str">
-        <v>yfinance</v>
-      </c>
-      <c r="H38" t="str">
-        <v>HYGH</v>
-      </c>
-      <c r="I38" t="str">
-        <v>lognormal</v>
-      </c>
-      <c r="J38">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" t="str">
-        <v>AGG</v>
-      </c>
-      <c r="B39" t="str">
-        <v>Credit</v>
-      </c>
-      <c r="C39" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39" t="str">
-        <v>yfinance</v>
-      </c>
-      <c r="H39" t="str">
-        <v>AGG</v>
-      </c>
-      <c r="I39" t="str">
-        <v>lognormal</v>
-      </c>
-      <c r="J39">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" t="str">
-        <v>^TNX</v>
-      </c>
-      <c r="B40" t="str">
-        <v>Rates</v>
-      </c>
-      <c r="C40" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40" t="str">
-        <v>yfinance</v>
-      </c>
-      <c r="H40" t="str">
-        <v>^TNX</v>
-      </c>
-      <c r="I40" t="str">
-        <v>normal</v>
-      </c>
-      <c r="J40">
-        <v>-0.01</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" t="str">
-        <v>SHY</v>
-      </c>
-      <c r="B41" t="str">
-        <v>Rates</v>
-      </c>
-      <c r="C41" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41" t="str">
-        <v>iShares 1-3 Year Treasury Bond ETF</v>
-      </c>
-      <c r="G41" t="str">
-        <v>yfinance</v>
-      </c>
-      <c r="H41" t="str">
-        <v>SHY</v>
-      </c>
-      <c r="I41" t="str">
-        <v>lognormal</v>
-      </c>
-      <c r="J41">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" t="str">
-        <v>IEI</v>
-      </c>
-      <c r="B42" t="str">
-        <v>Rates</v>
-      </c>
-      <c r="C42" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42" t="str">
-        <v>iShares 3-7 Year Treasury Bond ETF</v>
-      </c>
-      <c r="G42" t="str">
-        <v>yfinance</v>
-      </c>
-      <c r="H42" t="str">
-        <v>IEI</v>
-      </c>
-      <c r="I42" t="str">
-        <v>lognormal</v>
-      </c>
-      <c r="J42">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" t="str">
-        <v>IEF</v>
-      </c>
-      <c r="B43" t="str">
-        <v>Rates</v>
-      </c>
-      <c r="C43" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43" t="str">
-        <v>iShares 7-10 Year Treasury Bond ETF</v>
-      </c>
-      <c r="G43" t="str">
-        <v>yfinance</v>
-      </c>
-      <c r="H43" t="str">
-        <v>IEF</v>
-      </c>
-      <c r="I43" t="str">
-        <v>lognormal</v>
-      </c>
-      <c r="J43">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" t="str">
-        <v>TLT</v>
-      </c>
-      <c r="B44" t="str">
-        <v>Rates</v>
-      </c>
-      <c r="C44" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44" t="str">
-        <v>iShares 20+ Year Treasury Bond ETF</v>
-      </c>
-      <c r="G44" t="str">
-        <v>yfinance</v>
-      </c>
-      <c r="H44" t="str">
-        <v>TLT</v>
-      </c>
-      <c r="I44" t="str">
-        <v>lognormal</v>
-      </c>
-      <c r="J44">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" t="str">
-        <v>TIP</v>
-      </c>
-      <c r="B45" t="str">
-        <v>Rates</v>
-      </c>
-      <c r="C45" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45" t="str">
-        <v>iShares TIPS Bond ETF</v>
-      </c>
-      <c r="G45" t="str">
-        <v>yfinance</v>
-      </c>
-      <c r="H45" t="str">
-        <v>TIP</v>
-      </c>
-      <c r="I45" t="str">
-        <v>lognormal</v>
-      </c>
-      <c r="J45">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" t="str">
-        <v>VTIP</v>
-      </c>
-      <c r="B46" t="str">
-        <v>Rates</v>
-      </c>
-      <c r="C46" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46" t="str">
-        <v>yfinance</v>
-      </c>
-      <c r="H46" t="str">
-        <v>VTIP</v>
-      </c>
-      <c r="I46" t="str">
-        <v>lognormal</v>
-      </c>
-      <c r="J46">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" t="str">
-        <v>AGNC</v>
-      </c>
-      <c r="B47" t="str">
-        <v>Rates</v>
-      </c>
-      <c r="C47" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47" t="str">
-        <v>AGNC Investment Corp.</v>
-      </c>
-      <c r="G47" t="str">
-        <v>yfinance</v>
-      </c>
-      <c r="H47" t="str">
-        <v>AGNC</v>
-      </c>
-      <c r="I47" t="str">
-        <v>lognormal</v>
-      </c>
-      <c r="J47">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" t="str">
-        <v>VMBS</v>
-      </c>
-      <c r="B48" t="str">
-        <v>Rates</v>
-      </c>
-      <c r="C48" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48" t="str">
-        <v>yfinance</v>
-      </c>
-      <c r="H48" t="str">
-        <v>VMBS</v>
-      </c>
-      <c r="I48" t="str">
-        <v>lognormal</v>
-      </c>
-      <c r="J48">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" t="str">
-        <v>CMBS</v>
-      </c>
-      <c r="B49" t="str">
-        <v>Rates</v>
-      </c>
-      <c r="C49" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49" t="str">
-        <v>yfinance</v>
-      </c>
-      <c r="H49" t="str">
-        <v>CMBS</v>
-      </c>
-      <c r="I49" t="str">
-        <v>lognormal</v>
-      </c>
-      <c r="J49">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" t="str">
-        <v>EMB</v>
-      </c>
-      <c r="B50" t="str">
-        <v>Rates</v>
-      </c>
-      <c r="C50" t="str">
-        <v>EM</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50" t="str">
-        <v>iShares J.P. Morgan USD Emerging Markets Bond ETF</v>
-      </c>
-      <c r="G50" t="str">
-        <v>yfinance</v>
-      </c>
-      <c r="H50" t="str">
-        <v>EMB</v>
-      </c>
-      <c r="I50" t="str">
-        <v>lognormal</v>
-      </c>
-      <c r="J50">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" t="str">
-        <v>GLD</v>
-      </c>
-      <c r="B51" t="str">
-        <v>Commodities</v>
-      </c>
-      <c r="C51" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51" t="str">
-        <v>SPDR Gold Shares</v>
-      </c>
-      <c r="G51" t="str">
-        <v>yfinance</v>
-      </c>
-      <c r="H51" t="str">
-        <v>GLD</v>
-      </c>
-      <c r="I51" t="str">
-        <v>lognormal</v>
-      </c>
-      <c r="J51">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" t="str">
-        <v>SLV</v>
-      </c>
-      <c r="B52" t="str">
-        <v>Commodities</v>
-      </c>
-      <c r="C52" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52" t="str">
-        <v>iShares Silver Trust</v>
-      </c>
-      <c r="G52" t="str">
-        <v>yfinance</v>
-      </c>
-      <c r="H52" t="str">
-        <v>SLV</v>
-      </c>
-      <c r="I52" t="str">
-        <v>lognormal</v>
-      </c>
-      <c r="J52">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" t="str">
-        <v>USO</v>
-      </c>
-      <c r="B53" t="str">
-        <v>Commodities</v>
-      </c>
-      <c r="C53" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53" t="str">
-        <v>United States Oil Fund</v>
-      </c>
-      <c r="G53" t="str">
-        <v>yfinance</v>
-      </c>
-      <c r="H53" t="str">
-        <v>USO</v>
-      </c>
-      <c r="I53" t="str">
-        <v>lognormal</v>
-      </c>
-      <c r="J53">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" t="str">
-        <v>UUP</v>
-      </c>
-      <c r="B54" t="str">
-        <v>Currencies</v>
-      </c>
-      <c r="C54" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54" t="str">
-        <v>Invesco DB US Dollar Index Bullish Fund</v>
-      </c>
-      <c r="G54" t="str">
-        <v>yfinance</v>
-      </c>
-      <c r="H54" t="str">
-        <v>UUP</v>
-      </c>
-      <c r="I54" t="str">
-        <v>lognormal</v>
-      </c>
-      <c r="J54">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" t="str">
-        <v>DX-Y.NYB</v>
-      </c>
-      <c r="B55" t="str">
-        <v>Currencies</v>
-      </c>
-      <c r="C55" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="G55" t="str">
-        <v>yfinance</v>
-      </c>
-      <c r="H55" t="str">
-        <v>DX-Y.NYB</v>
-      </c>
-      <c r="I55" t="str">
-        <v>lognormal</v>
-      </c>
-      <c r="J55">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" t="str">
-        <v>FXE</v>
-      </c>
-      <c r="B56" t="str">
-        <v>Currencies</v>
-      </c>
-      <c r="C56" t="str">
-        <v>EUR</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56" t="str">
-        <v>Invesco CurrencyShares Euro Trust</v>
-      </c>
-      <c r="G56" t="str">
-        <v>yfinance</v>
-      </c>
-      <c r="H56" t="str">
-        <v>FXE</v>
-      </c>
-      <c r="I56" t="str">
-        <v>lognormal</v>
-      </c>
-      <c r="J56">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" t="str">
-        <v>FXY</v>
-      </c>
-      <c r="B57" t="str">
-        <v>Currencies</v>
-      </c>
-      <c r="C57" t="str">
-        <v>JPY</v>
-      </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57" t="str">
-        <v>Invesco CurrencyShares Japanese Yen Trust</v>
-      </c>
-      <c r="G57" t="str">
-        <v>yfinance</v>
-      </c>
-      <c r="H57" t="str">
-        <v>FXY</v>
-      </c>
-      <c r="I57" t="str">
-        <v>lognormal</v>
-      </c>
-      <c r="J57">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" t="str">
-        <v>FXF</v>
-      </c>
-      <c r="B58" t="str">
-        <v>Currencies</v>
-      </c>
-      <c r="C58" t="str">
-        <v>JPY</v>
-      </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58" t="str">
-        <v>Invesco CurrencyShares Swiss Franc Trust</v>
-      </c>
-      <c r="G58" t="str">
-        <v>yfinance</v>
-      </c>
-      <c r="H58" t="str">
-        <v>FXF</v>
-      </c>
-      <c r="I58" t="str">
-        <v>lognormal</v>
-      </c>
-      <c r="J58">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" t="str">
-        <v>^VIX</v>
-      </c>
-      <c r="B59" t="str">
-        <v>Vol</v>
-      </c>
-      <c r="C59" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59" t="str">
-        <v>CBOE Volatility Index</v>
-      </c>
-      <c r="G59" t="str">
-        <v>yfinance</v>
-      </c>
-      <c r="H59" t="str">
-        <v>^VIX</v>
-      </c>
-      <c r="I59" t="str">
-        <v>lognormal</v>
-      </c>
-      <c r="J59">
-        <v>-1E-4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A60" t="str">
-        <v>VXX</v>
-      </c>
-      <c r="B60" t="str">
-        <v>Vol</v>
-      </c>
-      <c r="C60" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60" t="str">
-        <v>VIX Short-Term Futures ETN</v>
-      </c>
-      <c r="G60" t="str">
-        <v>yfinance</v>
-      </c>
-      <c r="H60" t="str">
-        <v>VXX</v>
-      </c>
-      <c r="I60" t="str">
-        <v>lognormal</v>
-      </c>
-      <c r="J60">
-        <v>-1E-4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A61" t="str">
-        <v>^VIX3M</v>
-      </c>
-      <c r="B61" t="str">
-        <v>Vol</v>
-      </c>
-      <c r="C61" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61" t="str">
-        <v>CBOE S&amp;P 500 3-Month Volatility</v>
-      </c>
-      <c r="G61" t="str">
-        <v>yfinance</v>
-      </c>
-      <c r="H61" t="str">
-        <v>^VIX3M</v>
-      </c>
-      <c r="I61" t="str">
-        <v>lognormal</v>
-      </c>
-      <c r="J61">
-        <v>-1E-4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A62" t="str">
-        <v>^MOVE</v>
-      </c>
-      <c r="B62" t="str">
-        <v>Vol</v>
-      </c>
-      <c r="C62" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62" t="str">
-        <v>ICE BofAML MOVE Index</v>
-      </c>
-      <c r="G62" t="str">
-        <v>yfinance</v>
-      </c>
-      <c r="H62" t="str">
-        <v>^MOVE</v>
-      </c>
-      <c r="I62" t="str">
-        <v>lognormal</v>
-      </c>
-      <c r="J62">
-        <v>-1E-4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A63" t="str">
-        <v>MWTIX</v>
-      </c>
-      <c r="B63" t="str">
-        <v>Portfolio</v>
-      </c>
-      <c r="C63" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="G63" t="str">
-        <v>yfinance</v>
-      </c>
-      <c r="H63" t="str">
-        <v>MWTIX</v>
-      </c>
-      <c r="I63" t="str">
-        <v>lognormal</v>
-      </c>
-      <c r="J63">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A64" t="str">
-        <v>TRUMP</v>
-      </c>
-      <c r="B64" t="str">
-        <v>Theme</v>
-      </c>
-      <c r="C64" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D64">
-        <v>1</v>
-      </c>
-      <c r="E64">
-        <v>1</v>
-      </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="G64" t="str">
-        <v>composite</v>
-      </c>
-      <c r="H64" t="str">
-        <v>TRUMP</v>
-      </c>
-      <c r="I64" t="str">
-        <v>lognormal</v>
-      </c>
-      <c r="J64">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A65" t="str">
-        <v>FED</v>
-      </c>
-      <c r="B65" t="str">
-        <v>Theme</v>
-      </c>
-      <c r="C65" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
-      <c r="E65">
-        <v>1</v>
-      </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-      <c r="G65" t="str">
-        <v>composite</v>
-      </c>
-      <c r="H65" t="str">
-        <v>FED</v>
-      </c>
-      <c r="I65" t="str">
-        <v>lognormal</v>
-      </c>
-      <c r="J65">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A66" t="str">
-        <v>AI</v>
-      </c>
-      <c r="B66" t="str">
-        <v>Theme</v>
-      </c>
-      <c r="C66" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D66">
-        <v>1</v>
-      </c>
-      <c r="E66">
-        <v>1</v>
-      </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="G66" t="str">
-        <v>composite</v>
-      </c>
-      <c r="H66" t="str">
-        <v>AI</v>
-      </c>
-      <c r="I66" t="str">
-        <v>lognormal</v>
-      </c>
-      <c r="J66">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A67" t="str">
-        <v>GEOPOLITICS</v>
-      </c>
-      <c r="B67" t="str">
-        <v>Theme</v>
-      </c>
-      <c r="C67" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D67">
-        <v>1</v>
-      </c>
-      <c r="E67">
-        <v>1</v>
-      </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-      <c r="G67" t="str">
-        <v>composite</v>
-      </c>
-      <c r="H67" t="str">
-        <v>GEOPOLITICS</v>
-      </c>
-      <c r="I67" t="str">
-        <v>lognormal</v>
-      </c>
-      <c r="J67">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A68" t="str">
-        <v>2s10s</v>
-      </c>
-      <c r="B68" t="str">
-        <v>Theme</v>
-      </c>
-      <c r="C68" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
-      <c r="E68">
-        <v>1</v>
-      </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-      <c r="G68" t="str">
-        <v>composite</v>
-      </c>
-      <c r="H68" t="str">
-        <v>2s10s</v>
-      </c>
-      <c r="I68" t="str">
-        <v>lognormal</v>
-      </c>
-      <c r="J68">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A69" t="str">
-        <v>XLPXLY</v>
-      </c>
-      <c r="B69" t="str">
-        <v>Theme</v>
-      </c>
-      <c r="C69" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D69">
-        <v>1</v>
-      </c>
-      <c r="E69">
-        <v>1</v>
-      </c>
-      <c r="F69" t="str">
-        <v>Staples/Discretionary</v>
-      </c>
-      <c r="G69" t="str">
-        <v>composite</v>
-      </c>
-      <c r="H69" t="str">
-        <v>XLPXLY</v>
-      </c>
-      <c r="I69" t="str">
-        <v>lognormal</v>
-      </c>
-      <c r="J69">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A70" t="str">
-        <v>TRADEWAR</v>
-      </c>
-      <c r="B70" t="str">
-        <v>Theme</v>
-      </c>
-      <c r="C70" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
-      <c r="E70">
-        <v>1</v>
-      </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-      <c r="G70" t="str">
-        <v>composite</v>
-      </c>
-      <c r="H70" t="str">
-        <v>TRADEWAR</v>
-      </c>
-      <c r="I70" t="str">
-        <v>lognormal</v>
-      </c>
-      <c r="J70">
-        <v>1E-4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/factor_master.xlsx
+++ b/factor_master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bkrai\Source\risk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09EDC06-1857-4B48-9FBC-1E601EC30C47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57776251-29A2-4988-912A-5D06C5D51C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="3" activeTab="7" xr2:uid="{C31FDC5B-A809-4BFD-99CB-DA02246721F7}"/>
   </bookViews>
@@ -20,16 +20,17 @@
     <sheet name="read_composites" sheetId="14" r:id="rId5"/>
     <sheet name="composites" sheetId="13" r:id="rId6"/>
     <sheet name="risk_parity" sheetId="20" r:id="rId7"/>
-    <sheet name="data" sheetId="3" r:id="rId8"/>
-    <sheet name="read_new" sheetId="15" r:id="rId9"/>
-    <sheet name="read_tcw" sheetId="17" r:id="rId10"/>
-    <sheet name="read_nocomposite" sheetId="19" r:id="rId11"/>
-    <sheet name="read" sheetId="12" r:id="rId12"/>
-    <sheet name="read_short" sheetId="16" r:id="rId13"/>
-    <sheet name="read_old2" sheetId="4" r:id="rId14"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId15"/>
-    <sheet name="read_old" sheetId="1" r:id="rId16"/>
-    <sheet name="data_old" sheetId="8" r:id="rId17"/>
+    <sheet name="tracking" sheetId="21" r:id="rId8"/>
+    <sheet name="data" sheetId="3" r:id="rId9"/>
+    <sheet name="read_new" sheetId="15" r:id="rId10"/>
+    <sheet name="read_tcw" sheetId="17" r:id="rId11"/>
+    <sheet name="read_nocomposite" sheetId="19" r:id="rId12"/>
+    <sheet name="read" sheetId="12" r:id="rId13"/>
+    <sheet name="read_short" sheetId="16" r:id="rId14"/>
+    <sheet name="read_old2" sheetId="4" r:id="rId15"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId16"/>
+    <sheet name="read_old" sheetId="1" r:id="rId17"/>
+    <sheet name="data_old" sheetId="8" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -89,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2011" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2029" uniqueCount="509">
   <si>
     <t>SPX</t>
   </si>
@@ -1613,6 +1614,9 @@
   </si>
   <si>
     <t>Staples/Discretionary</t>
+  </si>
+  <si>
+    <t>date</t>
   </si>
 </sst>
 </file>
@@ -1680,7 +1684,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1701,6 +1705,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3773,6 +3778,175 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45BE1690-4C72-4E94-925C-89FAF286C7F8}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D1" t="s">
+        <v>466</v>
+      </c>
+      <c r="E1" t="s">
+        <v>465</v>
+      </c>
+      <c r="F1" t="s">
+        <v>464</v>
+      </c>
+      <c r="G1" t="s">
+        <v>463</v>
+      </c>
+      <c r="H1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>455</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>454</v>
+      </c>
+      <c r="G2" t="s">
+        <v>457</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>461</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
+        <v>455</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>454</v>
+      </c>
+      <c r="G3" t="s">
+        <v>457</v>
+      </c>
+      <c r="H3" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" t="s">
+        <v>455</v>
+      </c>
+      <c r="E4" t="s">
+        <v>459</v>
+      </c>
+      <c r="F4" t="s">
+        <v>454</v>
+      </c>
+      <c r="G4" t="s">
+        <v>457</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>455</v>
+      </c>
+      <c r="E5" t="s">
+        <v>458</v>
+      </c>
+      <c r="F5" t="s">
+        <v>467</v>
+      </c>
+      <c r="G5" t="s">
+        <v>457</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>456</v>
+      </c>
+      <c r="B6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>455</v>
+      </c>
+      <c r="E6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F6" t="s">
+        <v>454</v>
+      </c>
+      <c r="G6" t="s">
+        <v>453</v>
+      </c>
+      <c r="H6" t="s">
+        <v>452</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5A64DEF-E706-4B9C-B282-71F34F86B3DF}">
   <dimension ref="A1:J70"/>
   <sheetViews>
@@ -6032,7 +6206,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9123E77-EA56-403E-A728-B01259D22573}">
   <dimension ref="A1:J63"/>
   <sheetViews>
@@ -8068,7 +8242,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2977BD7F-9323-4F6D-98BF-C1B39119DCDE}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:J70"/>
@@ -10329,7 +10503,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B51E7A-08A5-4042-86E1-7986ED98437B}">
   <dimension ref="A1:J6"/>
   <sheetViews>
@@ -10540,7 +10714,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A08F2F-299B-47F7-8064-36693758F4E3}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:E63"/>
@@ -11632,7 +11806,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{509EC1D2-D913-4E91-BF4A-1B9A2D2D358E}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:C9"/>
@@ -11751,7 +11925,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28B96AA-E903-4E49-8EE7-2DF563672EF4}">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:D9"/>
@@ -11872,7 +12046,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BECED18-9D5B-4FAE-9BAD-99DBF8245FFA}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:M74"/>
@@ -17943,15 +18117,183 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEC776AF-E8A8-4661-B4BA-DFE8D3F65EBD}">
+  <dimension ref="A1:R13"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E1" t="s">
+        <v>347</v>
+      </c>
+      <c r="F1" t="s">
+        <v>348</v>
+      </c>
+      <c r="G1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M1" t="s">
+        <v>499</v>
+      </c>
+      <c r="N1" t="s">
+        <v>135</v>
+      </c>
+      <c r="O1" t="s">
+        <v>346</v>
+      </c>
+      <c r="P1" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>57</v>
+      </c>
+      <c r="R1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" cm="1">
+        <f t="array" ref="A2:A13">DATE(_xlfn.SEQUENCE(12,,2025,-1),1,1)</f>
+        <v>45658</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
+        <v>45292</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
+        <v>44927</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
+        <v>44562</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="10">
+        <v>44197</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="10">
+        <v>43831</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="10">
+        <v>43466</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="10">
+        <v>43101</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
+        <v>42736</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
+        <v>42370</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="10">
+        <v>42005</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="10">
+        <v>41640</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C29859C-7358-4E2F-B5CC-7696F1DAC449}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:V88"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F77" sqref="F77"/>
+      <selection pane="bottomRight" activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22615,173 +22957,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45BE1690-4C72-4E94-925C-89FAF286C7F8}">
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>322</v>
-      </c>
-      <c r="C1" t="s">
-        <v>316</v>
-      </c>
-      <c r="D1" t="s">
-        <v>466</v>
-      </c>
-      <c r="E1" t="s">
-        <v>465</v>
-      </c>
-      <c r="F1" t="s">
-        <v>464</v>
-      </c>
-      <c r="G1" t="s">
-        <v>463</v>
-      </c>
-      <c r="H1" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" t="s">
-        <v>455</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>454</v>
-      </c>
-      <c r="G2" t="s">
-        <v>457</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>461</v>
-      </c>
-      <c r="B3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" t="s">
-        <v>455</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>454</v>
-      </c>
-      <c r="G3" t="s">
-        <v>457</v>
-      </c>
-      <c r="H3" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" t="s">
-        <v>455</v>
-      </c>
-      <c r="E4" t="s">
-        <v>459</v>
-      </c>
-      <c r="F4" t="s">
-        <v>454</v>
-      </c>
-      <c r="G4" t="s">
-        <v>457</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>238</v>
-      </c>
-      <c r="B5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" t="s">
-        <v>455</v>
-      </c>
-      <c r="E5" t="s">
-        <v>458</v>
-      </c>
-      <c r="F5" t="s">
-        <v>467</v>
-      </c>
-      <c r="G5" t="s">
-        <v>457</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>456</v>
-      </c>
-      <c r="B6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" t="s">
-        <v>455</v>
-      </c>
-      <c r="E6" t="s">
-        <v>131</v>
-      </c>
-      <c r="F6" t="s">
-        <v>454</v>
-      </c>
-      <c r="G6" t="s">
-        <v>453</v>
-      </c>
-      <c r="H6" t="s">
-        <v>452</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/factor_master.xlsx
+++ b/factor_master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bkrai\Source\risk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B75F17B-266F-4FB6-B889-310300EF2E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B051C999-C8A7-49F4-A826-5F4E97BD5A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="5" activeTab="8" xr2:uid="{C31FDC5B-A809-4BFD-99CB-DA02246721F7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="6" activeTab="10" xr2:uid="{C31FDC5B-A809-4BFD-99CB-DA02246721F7}"/>
   </bookViews>
   <sheets>
     <sheet name="legacy" sheetId="5" r:id="rId1"/>
@@ -1766,10 +1766,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1814,6 +1810,10 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2020,31 +2020,31 @@
     </tableColumn>
     <tableColumn id="11" xr3:uid="{C400A641-F032-4829-A2CD-62831D657B37}" name="source" dataDxfId="20"/>
     <tableColumn id="12" xr3:uid="{BC682952-ADA8-4869-A16F-B9E7BC86E430}" name="diffusion_type" dataDxfId="19"/>
-    <tableColumn id="16" xr3:uid="{A99CC35E-FB67-451C-BF9C-DA8D933B1B0C}" name="multiplier" dataDxfId="5">
+    <tableColumn id="16" xr3:uid="{A99CC35E-FB67-451C-BF9C-DA8D933B1B0C}" name="multiplier" dataDxfId="18">
       <calculatedColumnFormula array="1">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{64EF0381-B0C5-4226-B34E-0F9752A4A840}" name="ticker" dataDxfId="18">
+    <tableColumn id="13" xr3:uid="{64EF0381-B0C5-4226-B34E-0F9752A4A840}" name="ticker" dataDxfId="17">
       <calculatedColumnFormula>data[[#This Row],[factor_name]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{D49341AB-DA48-473E-8CCB-3A3D04AED743}" name="note" dataDxfId="17"/>
+    <tableColumn id="15" xr3:uid="{D49341AB-DA48-473E-8CCB-3A3D04AED743}" name="note" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F918301C-859F-40B7-9C3E-90E8F0495E68}" name="data_old" displayName="data_old" ref="A1:I45" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F918301C-859F-40B7-9C3E-90E8F0495E68}" name="data_old" displayName="data_old" ref="A1:I45" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A1:I45" xr:uid="{6DAD1482-C63D-400D-9F51-F22A8E35CAD8}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{B19D2B17-9AC9-4F1B-B32E-D4F72AAE469F}" name="asset_class" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{2C7CF29D-8E72-4B0C-A212-31F2A25D75C9}" name="region" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{C7E89EEC-2B5D-4C94-9327-1AC8E33DE708}" name="factor_name" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{B3F9004A-8BEB-463E-A746-8189A2AC2B3E}" name="factor_name_new" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{51CD7FB3-58FE-4906-B73C-7726C0A9C471}" name="description_override" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{3CFF990B-3164-4533-821F-08CE7C6D82CA}" name="Description_GPT" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{DD86D53E-A9B4-4387-ABF9-F2625E77982D}" name="Underlying" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{D56FFF9A-72FF-42A4-B3D2-2F27AB16AF7A}" name="Active" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{8476DFDE-B4B1-4FD9-99B4-DF1F2ABBD7D5}" name="description" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{B19D2B17-9AC9-4F1B-B32E-D4F72AAE469F}" name="asset_class" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{2C7CF29D-8E72-4B0C-A212-31F2A25D75C9}" name="region" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{C7E89EEC-2B5D-4C94-9327-1AC8E33DE708}" name="factor_name" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{B3F9004A-8BEB-463E-A746-8189A2AC2B3E}" name="factor_name_new" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{51CD7FB3-58FE-4906-B73C-7726C0A9C471}" name="description_override" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{3CFF990B-3164-4533-821F-08CE7C6D82CA}" name="Description_GPT" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{DD86D53E-A9B4-4387-ABF9-F2625E77982D}" name="Underlying" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{D56FFF9A-72FF-42A4-B3D2-2F27AB16AF7A}" name="Active" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{8476DFDE-B4B1-4FD9-99B4-DF1F2ABBD7D5}" name="description" dataDxfId="5">
       <calculatedColumnFormula>IF(data_old[[#This Row],[description_override]]="",data_old[[#This Row],[Description_GPT]],data_old[[#This Row],[description_override]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3955,11 +3955,11 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:V88"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q15" sqref="Q15"/>
+      <selection pane="bottomRight" activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8464,7 +8464,7 @@
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
-        <v>444</v>
+        <v>128</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>40</v>
@@ -8513,7 +8513,7 @@
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
-        <v>444</v>
+        <v>39</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>40</v>
@@ -10960,7 +10960,7 @@
         <v>2s10s</v>
       </c>
       <c r="B68" t="str">
-        <v>Theme</v>
+        <v>Rates</v>
       </c>
       <c r="C68" t="str">
         <v>USD</v>
@@ -10992,7 +10992,7 @@
         <v>XLPXLY</v>
       </c>
       <c r="B69" t="str">
-        <v>Theme</v>
+        <v>Equities</v>
       </c>
       <c r="C69" t="str">
         <v>USD</v>
@@ -13097,8 +13097,11 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="K58" sqref="K58"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B60" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15257,7 +15260,7 @@
         <v>2s10s</v>
       </c>
       <c r="B68" t="str">
-        <v>Theme</v>
+        <v>Rates</v>
       </c>
       <c r="C68" t="str">
         <v>USD</v>
@@ -15289,7 +15292,7 @@
         <v>XLPXLY</v>
       </c>
       <c r="B69" t="str">
-        <v>Theme</v>
+        <v>Equities</v>
       </c>
       <c r="C69" t="str">
         <v>USD</v>
@@ -15570,7 +15573,7 @@
   <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22980,7 +22983,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE6EE184-8219-4FAC-8CFD-91717B8EFB99}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -23015,7 +23018,7 @@
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <f ca="1">TODAY()-1</f>
-        <v>45804</v>
+        <v>45809</v>
       </c>
       <c r="B2">
         <v>0.20547945205479451</v>

--- a/factor_master.xlsx
+++ b/factor_master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bkrai\Source\risk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B051C999-C8A7-49F4-A826-5F4E97BD5A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780C28FC-4A06-46E2-85C7-B7C3FC0CC5CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="6" activeTab="10" xr2:uid="{C31FDC5B-A809-4BFD-99CB-DA02246721F7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="4" activeTab="10" xr2:uid="{C31FDC5B-A809-4BFD-99CB-DA02246721F7}"/>
   </bookViews>
   <sheets>
     <sheet name="legacy" sheetId="5" r:id="rId1"/>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2029" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2046" uniqueCount="528">
   <si>
     <t>SPX</t>
   </si>
@@ -1498,9 +1498,6 @@
     <t>normal</t>
   </si>
   <si>
-    <t>CBOE Interest Rate 10 Year T No (^TNX)</t>
-  </si>
-  <si>
     <t>multiplier</t>
   </si>
   <si>
@@ -1622,6 +1619,63 @@
   </si>
   <si>
     <t>ELECTION</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence</t>
+  </si>
+  <si>
+    <t>FTSE 100</t>
+  </si>
+  <si>
+    <t>MSCI Canada</t>
+  </si>
+  <si>
+    <t>MSCI Italy</t>
+  </si>
+  <si>
+    <t>MSCI Spain</t>
+  </si>
+  <si>
+    <t>China Large-Cap</t>
+  </si>
+  <si>
+    <t>CSI China Internet</t>
+  </si>
+  <si>
+    <t>iShares MSCI Emerging Markets ETF</t>
+  </si>
+  <si>
+    <t>iShares Core US Aggregate Bond ETF</t>
+  </si>
+  <si>
+    <t>US Agg</t>
+  </si>
+  <si>
+    <t>CBOE Interest Rate 10 Year</t>
+  </si>
+  <si>
+    <t>Short-Term Inflation-Protected Securities ETF</t>
+  </si>
+  <si>
+    <t>Mortgage-Backed Securities ETF</t>
+  </si>
+  <si>
+    <t>iShares JP Morgan EM High Yield Bond ETF</t>
+  </si>
+  <si>
+    <t>TCW MetWest Total Return Bd I</t>
+  </si>
+  <si>
+    <t>JPYUSD</t>
+  </si>
+  <si>
+    <t>CHFUSD</t>
+  </si>
+  <si>
+    <t>Hedged HYG</t>
+  </si>
+  <si>
+    <t>Hedged LQD</t>
   </si>
 </sst>
 </file>
@@ -1689,7 +1743,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1711,11 +1765,14 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="37">
+  <dxfs count="39">
     <dxf>
       <border>
         <top style="thin">
@@ -1760,6 +1817,28 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1827,10 +1906,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1916,8 +1991,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Table Style 1" pivot="0" count="2" xr9:uid="{26B58CFA-74FB-41FD-AB02-EC6D3EA4F4A1}">
-      <tableStyleElement type="wholeTable" dxfId="36"/>
-      <tableStyleElement type="headerRow" dxfId="35"/>
+      <tableStyleElement type="wholeTable" dxfId="38"/>
+      <tableStyleElement type="headerRow" dxfId="37"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2002,49 +2077,49 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6DAD1482-C63D-400D-9F51-F22A8E35CAD8}" name="data" displayName="data" ref="A1:Q88" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6DAD1482-C63D-400D-9F51-F22A8E35CAD8}" name="data" displayName="data" ref="A1:Q87" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{740DC173-AAC9-4239-A44E-C43F8517304D}" name="asset_class" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{A3BC3BB8-0420-458E-AECD-FD567519FA40}" name="region" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{0E50B2E3-0362-41DB-ACC2-478CC6F618A4}" name="factor_name" dataDxfId="30"/>
-    <tableColumn id="8" xr3:uid="{02943B27-7FCB-4450-B8E0-CF0DB6CF5CCA}" name="factor_name_new" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{D181BF84-863F-4FD0-B518-14EA5B0FB18E}" name="description_override" dataDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{1C40DF9B-2910-4DE6-A188-563938E39797}" name="Description_GPT" dataDxfId="27"/>
-    <tableColumn id="5" xr3:uid="{1806E074-6CB5-47AB-8FA3-EF0F6E429062}" name="Underlying" dataDxfId="26"/>
-    <tableColumn id="7" xr3:uid="{21539C17-C1CC-4FA9-A0E1-A2F8FF8AB52C}" name="Active" dataDxfId="25"/>
-    <tableColumn id="37" xr3:uid="{DE50B7AE-5F67-471C-BE48-8BFA5076EDB0}" name="hyper_factor" dataDxfId="24"/>
-    <tableColumn id="10" xr3:uid="{494805E4-EBB6-47FD-9BC2-8DAD9FB9D3FA}" name="composite" dataDxfId="23"/>
-    <tableColumn id="14" xr3:uid="{608FE572-4016-436E-8625-08926F3A2371}" name="client" dataDxfId="22"/>
-    <tableColumn id="9" xr3:uid="{5A601067-D384-419C-A711-AD3034F77E28}" name="description" dataDxfId="21">
-      <calculatedColumnFormula>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{740DC173-AAC9-4239-A44E-C43F8517304D}" name="asset_class" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{A3BC3BB8-0420-458E-AECD-FD567519FA40}" name="region" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{0E50B2E3-0362-41DB-ACC2-478CC6F618A4}" name="factor_name" dataDxfId="32"/>
+    <tableColumn id="8" xr3:uid="{02943B27-7FCB-4450-B8E0-CF0DB6CF5CCA}" name="factor_name_new" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{D181BF84-863F-4FD0-B518-14EA5B0FB18E}" name="description_override" dataDxfId="30"/>
+    <tableColumn id="6" xr3:uid="{1C40DF9B-2910-4DE6-A188-563938E39797}" name="Description_GPT" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{1806E074-6CB5-47AB-8FA3-EF0F6E429062}" name="Underlying" dataDxfId="28"/>
+    <tableColumn id="7" xr3:uid="{21539C17-C1CC-4FA9-A0E1-A2F8FF8AB52C}" name="Active" dataDxfId="27"/>
+    <tableColumn id="37" xr3:uid="{DE50B7AE-5F67-471C-BE48-8BFA5076EDB0}" name="hyper_factor" dataDxfId="26"/>
+    <tableColumn id="10" xr3:uid="{494805E4-EBB6-47FD-9BC2-8DAD9FB9D3FA}" name="composite" dataDxfId="25"/>
+    <tableColumn id="14" xr3:uid="{608FE572-4016-436E-8625-08926F3A2371}" name="client" dataDxfId="24"/>
+    <tableColumn id="9" xr3:uid="{5A601067-D384-419C-A711-AD3034F77E28}" name="description" dataDxfId="7">
+      <calculatedColumnFormula array="1">_xlfn.IFS(data[[#This Row],[description_override]]&lt;&gt;"",data[[#This Row],[description_override]],data[[#This Row],[Description_GPT]]&lt;&gt;"",data[[#This Row],[Description_GPT]],data[[#This Row],[Underlying]]&lt;&gt;"",data[[#This Row],[Underlying]],TRUE,"-")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{C400A641-F032-4829-A2CD-62831D657B37}" name="source" dataDxfId="20"/>
-    <tableColumn id="12" xr3:uid="{BC682952-ADA8-4869-A16F-B9E7BC86E430}" name="diffusion_type" dataDxfId="19"/>
-    <tableColumn id="16" xr3:uid="{A99CC35E-FB67-451C-BF9C-DA8D933B1B0C}" name="multiplier" dataDxfId="18">
+    <tableColumn id="11" xr3:uid="{C400A641-F032-4829-A2CD-62831D657B37}" name="source" dataDxfId="23"/>
+    <tableColumn id="12" xr3:uid="{BC682952-ADA8-4869-A16F-B9E7BC86E430}" name="diffusion_type" dataDxfId="22"/>
+    <tableColumn id="16" xr3:uid="{A99CC35E-FB67-451C-BF9C-DA8D933B1B0C}" name="multiplier" dataDxfId="21">
       <calculatedColumnFormula array="1">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{64EF0381-B0C5-4226-B34E-0F9752A4A840}" name="ticker" dataDxfId="17">
+    <tableColumn id="13" xr3:uid="{64EF0381-B0C5-4226-B34E-0F9752A4A840}" name="ticker" dataDxfId="20">
       <calculatedColumnFormula>data[[#This Row],[factor_name]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{D49341AB-DA48-473E-8CCB-3A3D04AED743}" name="note" dataDxfId="16"/>
+    <tableColumn id="15" xr3:uid="{D49341AB-DA48-473E-8CCB-3A3D04AED743}" name="note" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F918301C-859F-40B7-9C3E-90E8F0495E68}" name="data_old" displayName="data_old" ref="A1:I45" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F918301C-859F-40B7-9C3E-90E8F0495E68}" name="data_old" displayName="data_old" ref="A1:I45" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="A1:I45" xr:uid="{6DAD1482-C63D-400D-9F51-F22A8E35CAD8}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{B19D2B17-9AC9-4F1B-B32E-D4F72AAE469F}" name="asset_class" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{2C7CF29D-8E72-4B0C-A212-31F2A25D75C9}" name="region" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{C7E89EEC-2B5D-4C94-9327-1AC8E33DE708}" name="factor_name" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{B3F9004A-8BEB-463E-A746-8189A2AC2B3E}" name="factor_name_new" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{51CD7FB3-58FE-4906-B73C-7726C0A9C471}" name="description_override" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{3CFF990B-3164-4533-821F-08CE7C6D82CA}" name="Description_GPT" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{DD86D53E-A9B4-4387-ABF9-F2625E77982D}" name="Underlying" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{D56FFF9A-72FF-42A4-B3D2-2F27AB16AF7A}" name="Active" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{8476DFDE-B4B1-4FD9-99B4-DF1F2ABBD7D5}" name="description" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{B19D2B17-9AC9-4F1B-B32E-D4F72AAE469F}" name="asset_class" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{2C7CF29D-8E72-4B0C-A212-31F2A25D75C9}" name="region" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{C7E89EEC-2B5D-4C94-9327-1AC8E33DE708}" name="factor_name" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{B3F9004A-8BEB-463E-A746-8189A2AC2B3E}" name="factor_name_new" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{51CD7FB3-58FE-4906-B73C-7726C0A9C471}" name="description_override" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{3CFF990B-3164-4533-821F-08CE7C6D82CA}" name="Description_GPT" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{DD86D53E-A9B4-4387-ABF9-F2625E77982D}" name="Underlying" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{D56FFF9A-72FF-42A4-B3D2-2F27AB16AF7A}" name="Active" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{8476DFDE-B4B1-4FD9-99B4-DF1F2ABBD7D5}" name="description" dataDxfId="8">
       <calculatedColumnFormula>IF(data_old[[#This Row],[description_override]]="",data_old[[#This Row],[Description_GPT]],data_old[[#This Row],[description_override]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3794,7 +3869,7 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -3830,7 +3905,7 @@
         <v>72</v>
       </c>
       <c r="M1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="N1" t="s">
         <v>135</v>
@@ -3953,13 +4028,13 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C29859C-7358-4E2F-B5CC-7696F1DAC449}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:V88"/>
+  <dimension ref="A1:V87"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F67" sqref="F67"/>
+      <selection pane="bottomRight" activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4006,7 +4081,7 @@
         <v>445</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>19</v>
@@ -4018,13 +4093,13 @@
         <v>464</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="P1" s="5" t="s">
         <v>465</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
@@ -4061,8 +4136,8 @@
       <c r="K2" s="4">
         <v>0</v>
       </c>
-      <c r="L2" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+      <c r="L2" s="4" t="str" cm="1">
+        <f t="array" ref="L2">_xlfn.IFS(data[[#This Row],[description_override]]&lt;&gt;"",data[[#This Row],[description_override]],data[[#This Row],[Description_GPT]]&lt;&gt;"",data[[#This Row],[Description_GPT]],data[[#This Row],[Underlying]]&lt;&gt;"",data[[#This Row],[Underlying]],TRUE,"-")</f>
         <v>S&amp;P 500</v>
       </c>
       <c r="M2" s="4" t="s">
@@ -4082,7 +4157,7 @@
       <c r="Q2" s="4"/>
       <c r="R2" s="2"/>
       <c r="S2" t="b" cm="1">
-        <f t="array" ref="S2:S88">MOD(_xlfn.SEQUENCE(ROWS(data[])),3)=1</f>
+        <f t="array" ref="S2:S87">MOD(_xlfn.SEQUENCE(ROWS(data[])),3)=1</f>
         <v>1</v>
       </c>
     </row>
@@ -4120,8 +4195,8 @@
       <c r="K3" s="4">
         <v>0</v>
       </c>
-      <c r="L3" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+      <c r="L3" s="4" t="str" cm="1">
+        <f t="array" ref="L3">_xlfn.IFS(data[[#This Row],[description_override]]&lt;&gt;"",data[[#This Row],[description_override]],data[[#This Row],[Description_GPT]]&lt;&gt;"",data[[#This Row],[Description_GPT]],data[[#This Row],[Underlying]]&lt;&gt;"",data[[#This Row],[Underlying]],TRUE,"-")</f>
         <v>Russell 2000</v>
       </c>
       <c r="M3" s="4" t="s">
@@ -4143,7 +4218,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
@@ -4180,8 +4255,8 @@
       <c r="K4" s="4">
         <v>0</v>
       </c>
-      <c r="L4" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+      <c r="L4" s="4" t="str" cm="1">
+        <f t="array" ref="L4">_xlfn.IFS(data[[#This Row],[description_override]]&lt;&gt;"",data[[#This Row],[description_override]],data[[#This Row],[Description_GPT]]&lt;&gt;"",data[[#This Row],[Description_GPT]],data[[#This Row],[Underlying]]&lt;&gt;"",data[[#This Row],[Underlying]],TRUE,"-")</f>
         <v>S&amp;P 400</v>
       </c>
       <c r="M4" s="4" t="s">
@@ -4231,8 +4306,8 @@
       <c r="K5" s="4">
         <v>0</v>
       </c>
-      <c r="L5" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+      <c r="L5" s="4" t="str" cm="1">
+        <f t="array" ref="L5">_xlfn.IFS(data[[#This Row],[description_override]]&lt;&gt;"",data[[#This Row],[description_override]],data[[#This Row],[Description_GPT]]&lt;&gt;"",data[[#This Row],[Description_GPT]],data[[#This Row],[Underlying]]&lt;&gt;"",data[[#This Row],[Underlying]],TRUE,"-")</f>
         <v>S&amp;P 500 EW</v>
       </c>
       <c r="M5" s="4" t="s">
@@ -4254,7 +4329,7 @@
         <v>1</v>
       </c>
       <c r="V5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
@@ -4291,8 +4366,8 @@
       <c r="K6" s="4">
         <v>0</v>
       </c>
-      <c r="L6" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+      <c r="L6" s="4" t="str" cm="1">
+        <f t="array" ref="L6">_xlfn.IFS(data[[#This Row],[description_override]]&lt;&gt;"",data[[#This Row],[description_override]],data[[#This Row],[Description_GPT]]&lt;&gt;"",data[[#This Row],[Description_GPT]],data[[#This Row],[Underlying]]&lt;&gt;"",data[[#This Row],[Underlying]],TRUE,"-")</f>
         <v>Nasdaq 100</v>
       </c>
       <c r="M6" s="4" t="s">
@@ -4348,8 +4423,8 @@
       <c r="K7" s="4">
         <v>0</v>
       </c>
-      <c r="L7" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+      <c r="L7" s="4" t="str" cm="1">
+        <f t="array" ref="L7">_xlfn.IFS(data[[#This Row],[description_override]]&lt;&gt;"",data[[#This Row],[description_override]],data[[#This Row],[Description_GPT]]&lt;&gt;"",data[[#This Row],[Description_GPT]],data[[#This Row],[Underlying]]&lt;&gt;"",data[[#This Row],[Underlying]],TRUE,"-")</f>
         <v>Dow Jones 30</v>
       </c>
       <c r="M7" s="4" t="s">
@@ -4401,8 +4476,8 @@
       <c r="K8" s="4">
         <v>0</v>
       </c>
-      <c r="L8" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+      <c r="L8" s="4" t="str" cm="1">
+        <f t="array" ref="L8">_xlfn.IFS(data[[#This Row],[description_override]]&lt;&gt;"",data[[#This Row],[description_override]],data[[#This Row],[Description_GPT]]&lt;&gt;"",data[[#This Row],[Description_GPT]],data[[#This Row],[Underlying]]&lt;&gt;"",data[[#This Row],[Underlying]],TRUE,"-")</f>
         <v>Technology</v>
       </c>
       <c r="M8" s="4" t="s">
@@ -4454,8 +4529,8 @@
       <c r="K9" s="4">
         <v>0</v>
       </c>
-      <c r="L9" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+      <c r="L9" s="4" t="str" cm="1">
+        <f t="array" ref="L9">_xlfn.IFS(data[[#This Row],[description_override]]&lt;&gt;"",data[[#This Row],[description_override]],data[[#This Row],[Description_GPT]]&lt;&gt;"",data[[#This Row],[Description_GPT]],data[[#This Row],[Underlying]]&lt;&gt;"",data[[#This Row],[Underlying]],TRUE,"-")</f>
         <v>Industrials</v>
       </c>
       <c r="M9" s="4" t="s">
@@ -4507,8 +4582,8 @@
       <c r="K10" s="4">
         <v>0</v>
       </c>
-      <c r="L10" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+      <c r="L10" s="4" t="str" cm="1">
+        <f t="array" ref="L10">_xlfn.IFS(data[[#This Row],[description_override]]&lt;&gt;"",data[[#This Row],[description_override]],data[[#This Row],[Description_GPT]]&lt;&gt;"",data[[#This Row],[Description_GPT]],data[[#This Row],[Underlying]]&lt;&gt;"",data[[#This Row],[Underlying]],TRUE,"-")</f>
         <v>Financials</v>
       </c>
       <c r="M10" s="4" t="s">
@@ -4560,8 +4635,8 @@
       <c r="K11" s="4">
         <v>0</v>
       </c>
-      <c r="L11" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+      <c r="L11" s="4" t="str" cm="1">
+        <f t="array" ref="L11">_xlfn.IFS(data[[#This Row],[description_override]]&lt;&gt;"",data[[#This Row],[description_override]],data[[#This Row],[Description_GPT]]&lt;&gt;"",data[[#This Row],[Description_GPT]],data[[#This Row],[Underlying]]&lt;&gt;"",data[[#This Row],[Underlying]],TRUE,"-")</f>
         <v>Regional Banks</v>
       </c>
       <c r="M11" s="4" t="s">
@@ -4613,8 +4688,8 @@
       <c r="K12" s="4">
         <v>0</v>
       </c>
-      <c r="L12" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+      <c r="L12" s="4" t="str" cm="1">
+        <f t="array" ref="L12">_xlfn.IFS(data[[#This Row],[description_override]]&lt;&gt;"",data[[#This Row],[description_override]],data[[#This Row],[Description_GPT]]&lt;&gt;"",data[[#This Row],[Description_GPT]],data[[#This Row],[Underlying]]&lt;&gt;"",data[[#This Row],[Underlying]],TRUE,"-")</f>
         <v>Communications</v>
       </c>
       <c r="M12" s="4" t="s">
@@ -4666,8 +4741,8 @@
       <c r="K13" s="4">
         <v>0</v>
       </c>
-      <c r="L13" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+      <c r="L13" s="4" t="str" cm="1">
+        <f t="array" ref="L13">_xlfn.IFS(data[[#This Row],[description_override]]&lt;&gt;"",data[[#This Row],[description_override]],data[[#This Row],[Description_GPT]]&lt;&gt;"",data[[#This Row],[Description_GPT]],data[[#This Row],[Underlying]]&lt;&gt;"",data[[#This Row],[Underlying]],TRUE,"-")</f>
         <v>Energy</v>
       </c>
       <c r="M13" s="4" t="s">
@@ -4719,8 +4794,8 @@
       <c r="K14" s="4">
         <v>0</v>
       </c>
-      <c r="L14" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+      <c r="L14" s="4" t="str" cm="1">
+        <f t="array" ref="L14">_xlfn.IFS(data[[#This Row],[description_override]]&lt;&gt;"",data[[#This Row],[description_override]],data[[#This Row],[Description_GPT]]&lt;&gt;"",data[[#This Row],[Description_GPT]],data[[#This Row],[Underlying]]&lt;&gt;"",data[[#This Row],[Underlying]],TRUE,"-")</f>
         <v>Discretionary</v>
       </c>
       <c r="M14" s="4" t="s">
@@ -4772,8 +4847,8 @@
       <c r="K15" s="4">
         <v>0</v>
       </c>
-      <c r="L15" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+      <c r="L15" s="4" t="str" cm="1">
+        <f t="array" ref="L15">_xlfn.IFS(data[[#This Row],[description_override]]&lt;&gt;"",data[[#This Row],[description_override]],data[[#This Row],[Description_GPT]]&lt;&gt;"",data[[#This Row],[Description_GPT]],data[[#This Row],[Underlying]]&lt;&gt;"",data[[#This Row],[Underlying]],TRUE,"-")</f>
         <v>Materials</v>
       </c>
       <c r="M15" s="4" t="s">
@@ -4825,8 +4900,8 @@
       <c r="K16" s="4">
         <v>0</v>
       </c>
-      <c r="L16" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+      <c r="L16" s="4" t="str" cm="1">
+        <f t="array" ref="L16">_xlfn.IFS(data[[#This Row],[description_override]]&lt;&gt;"",data[[#This Row],[description_override]],data[[#This Row],[Description_GPT]]&lt;&gt;"",data[[#This Row],[Description_GPT]],data[[#This Row],[Underlying]]&lt;&gt;"",data[[#This Row],[Underlying]],TRUE,"-")</f>
         <v>Health Care</v>
       </c>
       <c r="M16" s="4" t="s">
@@ -4878,8 +4953,8 @@
       <c r="K17" s="4">
         <v>0</v>
       </c>
-      <c r="L17" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+      <c r="L17" s="4" t="str" cm="1">
+        <f t="array" ref="L17">_xlfn.IFS(data[[#This Row],[description_override]]&lt;&gt;"",data[[#This Row],[description_override]],data[[#This Row],[Description_GPT]]&lt;&gt;"",data[[#This Row],[Description_GPT]],data[[#This Row],[Underlying]]&lt;&gt;"",data[[#This Row],[Underlying]],TRUE,"-")</f>
         <v>Utilities</v>
       </c>
       <c r="M17" s="4" t="s">
@@ -4931,8 +5006,8 @@
       <c r="K18" s="4">
         <v>0</v>
       </c>
-      <c r="L18" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+      <c r="L18" s="4" t="str" cm="1">
+        <f t="array" ref="L18">_xlfn.IFS(data[[#This Row],[description_override]]&lt;&gt;"",data[[#This Row],[description_override]],data[[#This Row],[Description_GPT]]&lt;&gt;"",data[[#This Row],[Description_GPT]],data[[#This Row],[Underlying]]&lt;&gt;"",data[[#This Row],[Underlying]],TRUE,"-")</f>
         <v>Staples</v>
       </c>
       <c r="M18" s="4" t="s">
@@ -4982,8 +5057,8 @@
       <c r="K19" s="4">
         <v>0</v>
       </c>
-      <c r="L19" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+      <c r="L19" s="4" t="str" cm="1">
+        <f t="array" ref="L19">_xlfn.IFS(data[[#This Row],[description_override]]&lt;&gt;"",data[[#This Row],[description_override]],data[[#This Row],[Description_GPT]]&lt;&gt;"",data[[#This Row],[Description_GPT]],data[[#This Row],[Underlying]]&lt;&gt;"",data[[#This Row],[Underlying]],TRUE,"-")</f>
         <v>iShares U.S. Real Estate ETF</v>
       </c>
       <c r="M19" s="4" t="s">
@@ -5033,8 +5108,8 @@
       <c r="K20" s="4">
         <v>0</v>
       </c>
-      <c r="L20" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+      <c r="L20" s="4" t="str" cm="1">
+        <f t="array" ref="L20">_xlfn.IFS(data[[#This Row],[description_override]]&lt;&gt;"",data[[#This Row],[description_override]],data[[#This Row],[Description_GPT]]&lt;&gt;"",data[[#This Row],[Description_GPT]],data[[#This Row],[Underlying]]&lt;&gt;"",data[[#This Row],[Underlying]],TRUE,"-")</f>
         <v>Vanguard Real Estate ETF</v>
       </c>
       <c r="M20" s="4" t="s">
@@ -5068,7 +5143,7 @@
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>421</v>
+        <v>509</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>404</v>
@@ -5086,9 +5161,9 @@
       <c r="K21" s="4">
         <v>0</v>
       </c>
-      <c r="L21" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>AI</v>
+      <c r="L21" s="4" t="str" cm="1">
+        <f t="array" ref="L21">_xlfn.IFS(data[[#This Row],[description_override]]&lt;&gt;"",data[[#This Row],[description_override]],data[[#This Row],[Description_GPT]]&lt;&gt;"",data[[#This Row],[Description_GPT]],data[[#This Row],[Underlying]]&lt;&gt;"",data[[#This Row],[Underlying]],TRUE,"-")</f>
+        <v>Artificial Intelligence</v>
       </c>
       <c r="M21" s="4" t="s">
         <v>455</v>
@@ -5137,8 +5212,8 @@
       <c r="K22" s="4">
         <v>0</v>
       </c>
-      <c r="L22" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+      <c r="L22" s="4" t="str" cm="1">
+        <f t="array" ref="L22">_xlfn.IFS(data[[#This Row],[description_override]]&lt;&gt;"",data[[#This Row],[description_override]],data[[#This Row],[Description_GPT]]&lt;&gt;"",data[[#This Row],[Description_GPT]],data[[#This Row],[Underlying]]&lt;&gt;"",data[[#This Row],[Underlying]],TRUE,"-")</f>
         <v>Clean Energy</v>
       </c>
       <c r="M22" s="4" t="s">
@@ -5190,8 +5265,8 @@
       <c r="K23" s="4">
         <v>0</v>
       </c>
-      <c r="L23" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+      <c r="L23" s="4" t="str" cm="1">
+        <f t="array" ref="L23">_xlfn.IFS(data[[#This Row],[description_override]]&lt;&gt;"",data[[#This Row],[description_override]],data[[#This Row],[Description_GPT]]&lt;&gt;"",data[[#This Row],[Description_GPT]],data[[#This Row],[Underlying]]&lt;&gt;"",data[[#This Row],[Underlying]],TRUE,"-")</f>
         <v>Preferred</v>
       </c>
       <c r="M23" s="4" t="s">
@@ -5247,8 +5322,8 @@
       <c r="K24" s="4">
         <v>0</v>
       </c>
-      <c r="L24" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+      <c r="L24" s="4" t="str" cm="1">
+        <f t="array" ref="L24">_xlfn.IFS(data[[#This Row],[description_override]]&lt;&gt;"",data[[#This Row],[description_override]],data[[#This Row],[Description_GPT]]&lt;&gt;"",data[[#This Row],[Description_GPT]],data[[#This Row],[Underlying]]&lt;&gt;"",data[[#This Row],[Underlying]],TRUE,"-")</f>
         <v>Eurostoxx 50</v>
       </c>
       <c r="M24" s="4" t="s">
@@ -5300,8 +5375,8 @@
       <c r="K25" s="4">
         <v>0</v>
       </c>
-      <c r="L25" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+      <c r="L25" s="4" t="str" cm="1">
+        <f t="array" ref="L25">_xlfn.IFS(data[[#This Row],[description_override]]&lt;&gt;"",data[[#This Row],[description_override]],data[[#This Row],[Description_GPT]]&lt;&gt;"",data[[#This Row],[Description_GPT]],data[[#This Row],[Underlying]]&lt;&gt;"",data[[#This Row],[Underlying]],TRUE,"-")</f>
         <v>Eurostoxx Banks</v>
       </c>
       <c r="M25" s="4" t="s">
@@ -5334,7 +5409,9 @@
         <v>86</v>
       </c>
       <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
+      <c r="E26" s="4" t="s">
+        <v>510</v>
+      </c>
       <c r="F26" s="4" t="s">
         <v>87</v>
       </c>
@@ -5353,9 +5430,9 @@
       <c r="K26" s="4">
         <v>0</v>
       </c>
-      <c r="L26" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>iShares FTSE United Kingdom ETF</v>
+      <c r="L26" s="4" t="str" cm="1">
+        <f t="array" ref="L26">_xlfn.IFS(data[[#This Row],[description_override]]&lt;&gt;"",data[[#This Row],[description_override]],data[[#This Row],[Description_GPT]]&lt;&gt;"",data[[#This Row],[Description_GPT]],data[[#This Row],[Underlying]]&lt;&gt;"",data[[#This Row],[Underlying]],TRUE,"-")</f>
+        <v>FTSE 100</v>
       </c>
       <c r="M26" s="4" t="s">
         <v>455</v>
@@ -5410,8 +5487,8 @@
       <c r="K27" s="4">
         <v>0</v>
       </c>
-      <c r="L27" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+      <c r="L27" s="4" t="str" cm="1">
+        <f t="array" ref="L27">_xlfn.IFS(data[[#This Row],[description_override]]&lt;&gt;"",data[[#This Row],[description_override]],data[[#This Row],[Description_GPT]]&lt;&gt;"",data[[#This Row],[Description_GPT]],data[[#This Row],[Underlying]]&lt;&gt;"",data[[#This Row],[Underlying]],TRUE,"-")</f>
         <v>DAX (Germany)</v>
       </c>
       <c r="M27" s="4" t="s">
@@ -5444,7 +5521,9 @@
         <v>89</v>
       </c>
       <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
+      <c r="E28" s="4" t="s">
+        <v>511</v>
+      </c>
       <c r="F28" s="4" t="s">
         <v>90</v>
       </c>
@@ -5463,9 +5542,9 @@
       <c r="K28" s="4">
         <v>0</v>
       </c>
-      <c r="L28" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>iShares MSCI Canada ETF</v>
+      <c r="L28" s="4" t="str" cm="1">
+        <f t="array" ref="L28">_xlfn.IFS(data[[#This Row],[description_override]]&lt;&gt;"",data[[#This Row],[description_override]],data[[#This Row],[Description_GPT]]&lt;&gt;"",data[[#This Row],[Description_GPT]],data[[#This Row],[Underlying]]&lt;&gt;"",data[[#This Row],[Underlying]],TRUE,"-")</f>
+        <v>MSCI Canada</v>
       </c>
       <c r="M28" s="4" t="s">
         <v>455</v>
@@ -5516,8 +5595,8 @@
       <c r="K29" s="4">
         <v>0</v>
       </c>
-      <c r="L29" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+      <c r="L29" s="4" t="str" cm="1">
+        <f t="array" ref="L29">_xlfn.IFS(data[[#This Row],[description_override]]&lt;&gt;"",data[[#This Row],[description_override]],data[[#This Row],[Description_GPT]]&lt;&gt;"",data[[#This Row],[Description_GPT]],data[[#This Row],[Underlying]]&lt;&gt;"",data[[#This Row],[Underlying]],TRUE,"-")</f>
         <v>FTSE MIB (Italy)</v>
       </c>
       <c r="M29" s="4" t="s">
@@ -5573,8 +5652,8 @@
       <c r="K30" s="4">
         <v>0</v>
       </c>
-      <c r="L30" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+      <c r="L30" s="4" t="str" cm="1">
+        <f t="array" ref="L30">_xlfn.IFS(data[[#This Row],[description_override]]&lt;&gt;"",data[[#This Row],[description_override]],data[[#This Row],[Description_GPT]]&lt;&gt;"",data[[#This Row],[Description_GPT]],data[[#This Row],[Underlying]]&lt;&gt;"",data[[#This Row],[Underlying]],TRUE,"-")</f>
         <v>CAC 40 (France)</v>
       </c>
       <c r="M30" s="4" t="s">
@@ -5607,7 +5686,9 @@
         <v>93</v>
       </c>
       <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
+      <c r="E31" s="4" t="s">
+        <v>512</v>
+      </c>
       <c r="F31" s="4" t="s">
         <v>94</v>
       </c>
@@ -5626,9 +5707,9 @@
       <c r="K31" s="4">
         <v>0</v>
       </c>
-      <c r="L31" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>iShares MSCI Italy ETF</v>
+      <c r="L31" s="4" t="str" cm="1">
+        <f t="array" ref="L31">_xlfn.IFS(data[[#This Row],[description_override]]&lt;&gt;"",data[[#This Row],[description_override]],data[[#This Row],[Description_GPT]]&lt;&gt;"",data[[#This Row],[Description_GPT]],data[[#This Row],[Underlying]]&lt;&gt;"",data[[#This Row],[Underlying]],TRUE,"-")</f>
+        <v>MSCI Italy</v>
       </c>
       <c r="M31" s="4" t="s">
         <v>455</v>
@@ -5665,9 +5746,7 @@
       <c r="E32" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="F32" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="F32" s="4"/>
       <c r="G32" s="4" t="s">
         <v>121</v>
       </c>
@@ -5683,8 +5762,8 @@
       <c r="K32" s="4">
         <v>0</v>
       </c>
-      <c r="L32" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+      <c r="L32" s="4" t="str" cm="1">
+        <f t="array" ref="L32">_xlfn.IFS(data[[#This Row],[description_override]]&lt;&gt;"",data[[#This Row],[description_override]],data[[#This Row],[Description_GPT]]&lt;&gt;"",data[[#This Row],[Description_GPT]],data[[#This Row],[Underlying]]&lt;&gt;"",data[[#This Row],[Underlying]],TRUE,"-")</f>
         <v>IBEX 35 (Spain)</v>
       </c>
       <c r="M32" s="4" t="s">
@@ -5717,7 +5796,9 @@
         <v>91</v>
       </c>
       <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
+      <c r="E33" s="4" t="s">
+        <v>513</v>
+      </c>
       <c r="F33" s="4" t="s">
         <v>92</v>
       </c>
@@ -5736,9 +5817,9 @@
       <c r="K33" s="4">
         <v>0</v>
       </c>
-      <c r="L33" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>iShares MSCI Spain ETF</v>
+      <c r="L33" s="4" t="str" cm="1">
+        <f t="array" ref="L33">_xlfn.IFS(data[[#This Row],[description_override]]&lt;&gt;"",data[[#This Row],[description_override]],data[[#This Row],[Description_GPT]]&lt;&gt;"",data[[#This Row],[Description_GPT]],data[[#This Row],[Underlying]]&lt;&gt;"",data[[#This Row],[Underlying]],TRUE,"-")</f>
+        <v>MSCI Spain</v>
       </c>
       <c r="M33" s="4" t="s">
         <v>455</v>
@@ -5793,8 +5874,8 @@
       <c r="K34" s="4">
         <v>0</v>
       </c>
-      <c r="L34" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+      <c r="L34" s="4" t="str" cm="1">
+        <f t="array" ref="L34">_xlfn.IFS(data[[#This Row],[description_override]]&lt;&gt;"",data[[#This Row],[description_override]],data[[#This Row],[Description_GPT]]&lt;&gt;"",data[[#This Row],[Description_GPT]],data[[#This Row],[Underlying]]&lt;&gt;"",data[[#This Row],[Underlying]],TRUE,"-")</f>
         <v>Nikkei 225</v>
       </c>
       <c r="M34" s="4" t="s">
@@ -5850,8 +5931,8 @@
       <c r="K35" s="4">
         <v>0</v>
       </c>
-      <c r="L35" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+      <c r="L35" s="4" t="str" cm="1">
+        <f t="array" ref="L35">_xlfn.IFS(data[[#This Row],[description_override]]&lt;&gt;"",data[[#This Row],[description_override]],data[[#This Row],[Description_GPT]]&lt;&gt;"",data[[#This Row],[Description_GPT]],data[[#This Row],[Underlying]]&lt;&gt;"",data[[#This Row],[Underlying]],TRUE,"-")</f>
         <v>TOPIX</v>
       </c>
       <c r="M35" s="4" t="s">
@@ -5869,7 +5950,7 @@
         <v>TPX</v>
       </c>
       <c r="Q35" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="S35" t="b">
         <v>1</v>
@@ -5888,7 +5969,9 @@
       <c r="D36" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E36" s="4"/>
+      <c r="E36" s="4" t="s">
+        <v>514</v>
+      </c>
       <c r="F36" s="4" t="s">
         <v>81</v>
       </c>
@@ -5907,9 +5990,9 @@
       <c r="K36" s="4">
         <v>0</v>
       </c>
-      <c r="L36" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>iShares China Large-Cap ETF</v>
+      <c r="L36" s="4" t="str" cm="1">
+        <f t="array" ref="L36">_xlfn.IFS(data[[#This Row],[description_override]]&lt;&gt;"",data[[#This Row],[description_override]],data[[#This Row],[Description_GPT]]&lt;&gt;"",data[[#This Row],[Description_GPT]],data[[#This Row],[Underlying]]&lt;&gt;"",data[[#This Row],[Underlying]],TRUE,"-")</f>
+        <v>China Large-Cap</v>
       </c>
       <c r="M36" s="4" t="s">
         <v>455</v>
@@ -5943,7 +6026,9 @@
       <c r="D37" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E37" s="4"/>
+      <c r="E37" s="4" t="s">
+        <v>192</v>
+      </c>
       <c r="F37" s="4" t="s">
         <v>83</v>
       </c>
@@ -5962,9 +6047,9 @@
       <c r="K37" s="4">
         <v>0</v>
       </c>
-      <c r="L37" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>Xtrackers Harvest CSI 300 China A-Shares ETF</v>
+      <c r="L37" s="4" t="str" cm="1">
+        <f t="array" ref="L37">_xlfn.IFS(data[[#This Row],[description_override]]&lt;&gt;"",data[[#This Row],[description_override]],data[[#This Row],[Description_GPT]]&lt;&gt;"",data[[#This Row],[Description_GPT]],data[[#This Row],[Underlying]]&lt;&gt;"",data[[#This Row],[Underlying]],TRUE,"-")</f>
+        <v>CSI 300 (China)</v>
       </c>
       <c r="M37" s="4" t="s">
         <v>455</v>
@@ -5998,7 +6083,9 @@
       <c r="D38" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="E38" s="4"/>
+      <c r="E38" s="4" t="s">
+        <v>515</v>
+      </c>
       <c r="F38" s="4" t="s">
         <v>401</v>
       </c>
@@ -6015,9 +6102,9 @@
       <c r="K38" s="4">
         <v>0</v>
       </c>
-      <c r="L38" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>KraneShares CSI China Internet ETF</v>
+      <c r="L38" s="4" t="str" cm="1">
+        <f t="array" ref="L38">_xlfn.IFS(data[[#This Row],[description_override]]&lt;&gt;"",data[[#This Row],[description_override]],data[[#This Row],[Description_GPT]]&lt;&gt;"",data[[#This Row],[Description_GPT]],data[[#This Row],[Underlying]]&lt;&gt;"",data[[#This Row],[Underlying]],TRUE,"-")</f>
+        <v>CSI China Internet</v>
       </c>
       <c r="M38" s="4" t="s">
         <v>455</v>
@@ -6049,9 +6136,13 @@
         <v>199</v>
       </c>
       <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
+      <c r="E39" s="4" t="s">
+        <v>193</v>
+      </c>
       <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
+      <c r="G39" s="4" t="s">
+        <v>516</v>
+      </c>
       <c r="H39" s="4">
         <v>1</v>
       </c>
@@ -6064,9 +6155,9 @@
       <c r="K39" s="4">
         <v>0</v>
       </c>
-      <c r="L39" s="4">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>0</v>
+      <c r="L39" s="4" t="str" cm="1">
+        <f t="array" ref="L39">_xlfn.IFS(data[[#This Row],[description_override]]&lt;&gt;"",data[[#This Row],[description_override]],data[[#This Row],[Description_GPT]]&lt;&gt;"",data[[#This Row],[Description_GPT]],data[[#This Row],[Underlying]]&lt;&gt;"",data[[#This Row],[Underlying]],TRUE,"-")</f>
+        <v>MSCI EM</v>
       </c>
       <c r="M39" s="4" t="s">
         <v>455</v>
@@ -6119,8 +6210,8 @@
       <c r="K40" s="4">
         <v>0</v>
       </c>
-      <c r="L40" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+      <c r="L40" s="4" t="str" cm="1">
+        <f t="array" ref="L40">_xlfn.IFS(data[[#This Row],[description_override]]&lt;&gt;"",data[[#This Row],[description_override]],data[[#This Row],[Description_GPT]]&lt;&gt;"",data[[#This Row],[Description_GPT]],data[[#This Row],[Underlying]]&lt;&gt;"",data[[#This Row],[Underlying]],TRUE,"-")</f>
         <v>iShares iBoxx $ Investment Grade Corporate Bond ETF</v>
       </c>
       <c r="M40" s="4" t="s">
@@ -6155,11 +6246,11 @@
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="G41" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="G41" s="4" t="s">
-        <v>490</v>
-      </c>
       <c r="H41" s="4">
         <v>1</v>
       </c>
@@ -6172,8 +6263,8 @@
       <c r="K41" s="4">
         <v>0</v>
       </c>
-      <c r="L41" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+      <c r="L41" s="4" t="str" cm="1">
+        <f t="array" ref="L41">_xlfn.IFS(data[[#This Row],[description_override]]&lt;&gt;"",data[[#This Row],[description_override]],data[[#This Row],[Description_GPT]]&lt;&gt;"",data[[#This Row],[Description_GPT]],data[[#This Row],[Underlying]]&lt;&gt;"",data[[#This Row],[Underlying]],TRUE,"-")</f>
         <v>Vanguard Short-Term Bond Index Fund ETF</v>
       </c>
       <c r="M41" s="4" t="s">
@@ -6227,8 +6318,8 @@
       <c r="K42" s="4">
         <v>0</v>
       </c>
-      <c r="L42" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+      <c r="L42" s="4" t="str" cm="1">
+        <f t="array" ref="L42">_xlfn.IFS(data[[#This Row],[description_override]]&lt;&gt;"",data[[#This Row],[description_override]],data[[#This Row],[Description_GPT]]&lt;&gt;"",data[[#This Row],[Description_GPT]],data[[#This Row],[Underlying]]&lt;&gt;"",data[[#This Row],[Underlying]],TRUE,"-")</f>
         <v>iShares iBoxx $ High Yield Corporate Bond ETF</v>
       </c>
       <c r="M42" s="4" t="s">
@@ -6263,9 +6354,13 @@
       <c r="D43" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E43" s="4"/>
+      <c r="E43" s="4" t="s">
+        <v>527</v>
+      </c>
       <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
+      <c r="G43" s="4" t="s">
+        <v>406</v>
+      </c>
       <c r="H43" s="4">
         <v>1</v>
       </c>
@@ -6278,9 +6373,9 @@
       <c r="K43" s="4">
         <v>0</v>
       </c>
-      <c r="L43" s="4">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>0</v>
+      <c r="L43" s="4" t="str" cm="1">
+        <f t="array" ref="L43">_xlfn.IFS(data[[#This Row],[description_override]]&lt;&gt;"",data[[#This Row],[description_override]],data[[#This Row],[Description_GPT]]&lt;&gt;"",data[[#This Row],[Description_GPT]],data[[#This Row],[Underlying]]&lt;&gt;"",data[[#This Row],[Underlying]],TRUE,"-")</f>
+        <v>Hedged LQD</v>
       </c>
       <c r="M43" s="4" t="s">
         <v>455</v>
@@ -6314,9 +6409,13 @@
       <c r="D44" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E44" s="4"/>
+      <c r="E44" s="4" t="s">
+        <v>526</v>
+      </c>
       <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
+      <c r="G44" s="4" t="s">
+        <v>408</v>
+      </c>
       <c r="H44" s="4">
         <v>1</v>
       </c>
@@ -6329,9 +6428,9 @@
       <c r="K44" s="4">
         <v>0</v>
       </c>
-      <c r="L44" s="4">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>0</v>
+      <c r="L44" s="4" t="str" cm="1">
+        <f t="array" ref="L44">_xlfn.IFS(data[[#This Row],[description_override]]&lt;&gt;"",data[[#This Row],[description_override]],data[[#This Row],[Description_GPT]]&lt;&gt;"",data[[#This Row],[Description_GPT]],data[[#This Row],[Underlying]]&lt;&gt;"",data[[#This Row],[Underlying]],TRUE,"-")</f>
+        <v>Hedged HYG</v>
       </c>
       <c r="M44" s="4" t="s">
         <v>455</v>
@@ -6363,9 +6462,13 @@
         <v>218</v>
       </c>
       <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
+      <c r="E45" s="4" t="s">
+        <v>518</v>
+      </c>
       <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
+      <c r="G45" s="4" t="s">
+        <v>517</v>
+      </c>
       <c r="H45" s="4">
         <v>1</v>
       </c>
@@ -6378,9 +6481,9 @@
       <c r="K45" s="4">
         <v>0</v>
       </c>
-      <c r="L45" s="4">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>0</v>
+      <c r="L45" s="4" t="str" cm="1">
+        <f t="array" ref="L45">_xlfn.IFS(data[[#This Row],[description_override]]&lt;&gt;"",data[[#This Row],[description_override]],data[[#This Row],[Description_GPT]]&lt;&gt;"",data[[#This Row],[Description_GPT]],data[[#This Row],[Underlying]]&lt;&gt;"",data[[#This Row],[Underlying]],TRUE,"-")</f>
+        <v>US Agg</v>
       </c>
       <c r="M45" s="4" t="s">
         <v>455</v>
@@ -6415,7 +6518,7 @@
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4" t="s">
-        <v>468</v>
+        <v>519</v>
       </c>
       <c r="H46" s="4">
         <v>1</v>
@@ -6429,9 +6532,9 @@
       <c r="K46" s="4">
         <v>0</v>
       </c>
-      <c r="L46" s="4">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>0</v>
+      <c r="L46" s="4" t="str" cm="1">
+        <f t="array" ref="L46">_xlfn.IFS(data[[#This Row],[description_override]]&lt;&gt;"",data[[#This Row],[description_override]],data[[#This Row],[Description_GPT]]&lt;&gt;"",data[[#This Row],[Description_GPT]],data[[#This Row],[Underlying]]&lt;&gt;"",data[[#This Row],[Underlying]],TRUE,"-")</f>
+        <v>CBOE Interest Rate 10 Year</v>
       </c>
       <c r="M46" s="4" t="s">
         <v>455</v>
@@ -6465,7 +6568,10 @@
       <c r="D47" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="E47" s="4"/>
+      <c r="E47" s="4" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(data[[#This Row],[Description_GPT]],"iShares ")," Bond")</f>
+        <v>1-3 Year Treasury</v>
+      </c>
       <c r="F47" s="4" t="s">
         <v>52</v>
       </c>
@@ -6484,9 +6590,9 @@
       <c r="K47" s="4">
         <v>0</v>
       </c>
-      <c r="L47" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>iShares 1-3 Year Treasury Bond ETF</v>
+      <c r="L47" s="4" t="str" cm="1">
+        <f t="array" ref="L47">_xlfn.IFS(data[[#This Row],[description_override]]&lt;&gt;"",data[[#This Row],[description_override]],data[[#This Row],[Description_GPT]]&lt;&gt;"",data[[#This Row],[Description_GPT]],data[[#This Row],[Underlying]]&lt;&gt;"",data[[#This Row],[Underlying]],TRUE,"-")</f>
+        <v>1-3 Year Treasury</v>
       </c>
       <c r="M47" s="4" t="s">
         <v>455</v>
@@ -6520,7 +6626,10 @@
       <c r="D48" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="E48" s="4"/>
+      <c r="E48" s="4" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(data[[#This Row],[Description_GPT]],"iShares ")," Bond")</f>
+        <v>3-7 Year Treasury</v>
+      </c>
       <c r="F48" s="4" t="s">
         <v>127</v>
       </c>
@@ -6539,9 +6648,9 @@
       <c r="K48" s="4">
         <v>0</v>
       </c>
-      <c r="L48" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>iShares 3-7 Year Treasury Bond ETF</v>
+      <c r="L48" s="4" t="str" cm="1">
+        <f t="array" ref="L48">_xlfn.IFS(data[[#This Row],[description_override]]&lt;&gt;"",data[[#This Row],[description_override]],data[[#This Row],[Description_GPT]]&lt;&gt;"",data[[#This Row],[Description_GPT]],data[[#This Row],[Underlying]]&lt;&gt;"",data[[#This Row],[Underlying]],TRUE,"-")</f>
+        <v>3-7 Year Treasury</v>
       </c>
       <c r="M48" s="4" t="s">
         <v>455</v>
@@ -6575,7 +6684,10 @@
       <c r="D49" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="E49" s="4"/>
+      <c r="E49" s="4" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(data[[#This Row],[Description_GPT]],"iShares ")," Bond")</f>
+        <v>7-10 Year Treasury</v>
+      </c>
       <c r="F49" s="4" t="s">
         <v>132</v>
       </c>
@@ -6594,9 +6706,9 @@
       <c r="K49" s="4">
         <v>0</v>
       </c>
-      <c r="L49" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>iShares 7-10 Year Treasury Bond ETF</v>
+      <c r="L49" s="4" t="str" cm="1">
+        <f t="array" ref="L49">_xlfn.IFS(data[[#This Row],[description_override]]&lt;&gt;"",data[[#This Row],[description_override]],data[[#This Row],[Description_GPT]]&lt;&gt;"",data[[#This Row],[Description_GPT]],data[[#This Row],[Underlying]]&lt;&gt;"",data[[#This Row],[Underlying]],TRUE,"-")</f>
+        <v>7-10 Year Treasury</v>
       </c>
       <c r="M49" s="4" t="s">
         <v>455</v>
@@ -6630,7 +6742,10 @@
       <c r="D50" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="E50" s="4"/>
+      <c r="E50" s="4" t="str">
+        <f>_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(data[[#This Row],[Description_GPT]],"iShares ")," Bond")</f>
+        <v>20+ Year Treasury</v>
+      </c>
       <c r="F50" s="4" t="s">
         <v>50</v>
       </c>
@@ -6649,9 +6764,9 @@
       <c r="K50" s="4">
         <v>0</v>
       </c>
-      <c r="L50" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>iShares 20+ Year Treasury Bond ETF</v>
+      <c r="L50" s="4" t="str" cm="1">
+        <f t="array" ref="L50">_xlfn.IFS(data[[#This Row],[description_override]]&lt;&gt;"",data[[#This Row],[description_override]],data[[#This Row],[Description_GPT]]&lt;&gt;"",data[[#This Row],[Description_GPT]],data[[#This Row],[Underlying]]&lt;&gt;"",data[[#This Row],[Underlying]],TRUE,"-")</f>
+        <v>20+ Year Treasury</v>
       </c>
       <c r="M50" s="4" t="s">
         <v>455</v>
@@ -6702,8 +6817,8 @@
       <c r="K51" s="4">
         <v>0</v>
       </c>
-      <c r="L51" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+      <c r="L51" s="4" t="str" cm="1">
+        <f t="array" ref="L51">_xlfn.IFS(data[[#This Row],[description_override]]&lt;&gt;"",data[[#This Row],[description_override]],data[[#This Row],[Description_GPT]]&lt;&gt;"",data[[#This Row],[Description_GPT]],data[[#This Row],[Underlying]]&lt;&gt;"",data[[#This Row],[Underlying]],TRUE,"-")</f>
         <v>iShares TIPS Bond ETF</v>
       </c>
       <c r="M51" s="4" t="s">
@@ -6738,7 +6853,9 @@
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
+      <c r="G52" s="4" t="s">
+        <v>520</v>
+      </c>
       <c r="H52" s="4">
         <v>1</v>
       </c>
@@ -6751,7 +6868,10 @@
       <c r="K52" s="4">
         <v>0</v>
       </c>
-      <c r="L52" s="4"/>
+      <c r="L52" s="4" t="str" cm="1">
+        <f t="array" ref="L52">_xlfn.IFS(data[[#This Row],[description_override]]&lt;&gt;"",data[[#This Row],[description_override]],data[[#This Row],[Description_GPT]]&lt;&gt;"",data[[#This Row],[Description_GPT]],data[[#This Row],[Underlying]]&lt;&gt;"",data[[#This Row],[Underlying]],TRUE,"-")</f>
+        <v>Short-Term Inflation-Protected Securities ETF</v>
+      </c>
       <c r="M52" s="4" t="s">
         <v>455</v>
       </c>
@@ -6801,8 +6921,8 @@
       <c r="K53" s="4">
         <v>0</v>
       </c>
-      <c r="L53" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+      <c r="L53" s="4" t="str" cm="1">
+        <f t="array" ref="L53">_xlfn.IFS(data[[#This Row],[description_override]]&lt;&gt;"",data[[#This Row],[description_override]],data[[#This Row],[Description_GPT]]&lt;&gt;"",data[[#This Row],[Description_GPT]],data[[#This Row],[Underlying]]&lt;&gt;"",data[[#This Row],[Underlying]],TRUE,"-")</f>
         <v>iShares MBS ETF</v>
       </c>
       <c r="M53" s="4" t="s">
@@ -6854,8 +6974,8 @@
       <c r="K54" s="4">
         <v>0</v>
       </c>
-      <c r="L54" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+      <c r="L54" s="4" t="str" cm="1">
+        <f t="array" ref="L54">_xlfn.IFS(data[[#This Row],[description_override]]&lt;&gt;"",data[[#This Row],[description_override]],data[[#This Row],[Description_GPT]]&lt;&gt;"",data[[#This Row],[Description_GPT]],data[[#This Row],[Underlying]]&lt;&gt;"",data[[#This Row],[Underlying]],TRUE,"-")</f>
         <v>Simplify Mortgage Backed Securities ETF</v>
       </c>
       <c r="M54" s="4" t="s">
@@ -6907,8 +7027,8 @@
       <c r="K55" s="4">
         <v>0</v>
       </c>
-      <c r="L55" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+      <c r="L55" s="4" t="str" cm="1">
+        <f t="array" ref="L55">_xlfn.IFS(data[[#This Row],[description_override]]&lt;&gt;"",data[[#This Row],[description_override]],data[[#This Row],[Description_GPT]]&lt;&gt;"",data[[#This Row],[Description_GPT]],data[[#This Row],[Underlying]]&lt;&gt;"",data[[#This Row],[Underlying]],TRUE,"-")</f>
         <v>AGNC Investment Corp.</v>
       </c>
       <c r="M55" s="4" t="s">
@@ -6943,7 +7063,9 @@
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
+      <c r="G56" s="4" t="s">
+        <v>521</v>
+      </c>
       <c r="H56" s="4">
         <v>1</v>
       </c>
@@ -6956,9 +7078,9 @@
       <c r="K56" s="4">
         <v>0</v>
       </c>
-      <c r="L56" s="4">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>0</v>
+      <c r="L56" s="4" t="str" cm="1">
+        <f t="array" ref="L56">_xlfn.IFS(data[[#This Row],[description_override]]&lt;&gt;"",data[[#This Row],[description_override]],data[[#This Row],[Description_GPT]]&lt;&gt;"",data[[#This Row],[Description_GPT]],data[[#This Row],[Underlying]]&lt;&gt;"",data[[#This Row],[Underlying]],TRUE,"-")</f>
+        <v>Mortgage-Backed Securities ETF</v>
       </c>
       <c r="M56" s="4" t="s">
         <v>455</v>
@@ -6992,7 +7114,9 @@
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
+      <c r="G57" s="4" t="s">
+        <v>417</v>
+      </c>
       <c r="H57" s="4">
         <v>1</v>
       </c>
@@ -7005,9 +7129,9 @@
       <c r="K57" s="4">
         <v>0</v>
       </c>
-      <c r="L57" s="4">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>0</v>
+      <c r="L57" s="4" t="str" cm="1">
+        <f t="array" ref="L57">_xlfn.IFS(data[[#This Row],[description_override]]&lt;&gt;"",data[[#This Row],[description_override]],data[[#This Row],[Description_GPT]]&lt;&gt;"",data[[#This Row],[Description_GPT]],data[[#This Row],[Underlying]]&lt;&gt;"",data[[#This Row],[Underlying]],TRUE,"-")</f>
+        <v>iShares CMBS ETF</v>
       </c>
       <c r="M57" s="4" t="s">
         <v>455</v>
@@ -7058,8 +7182,8 @@
       <c r="K58" s="4">
         <v>0</v>
       </c>
-      <c r="L58" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+      <c r="L58" s="4" t="str" cm="1">
+        <f t="array" ref="L58">_xlfn.IFS(data[[#This Row],[description_override]]&lt;&gt;"",data[[#This Row],[description_override]],data[[#This Row],[Description_GPT]]&lt;&gt;"",data[[#This Row],[Description_GPT]],data[[#This Row],[Underlying]]&lt;&gt;"",data[[#This Row],[Underlying]],TRUE,"-")</f>
         <v>iShares J.P. Morgan USD Emerging Markets Bond ETF</v>
       </c>
       <c r="M58" s="4" t="s">
@@ -7094,7 +7218,9 @@
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
+      <c r="G59" s="4" t="s">
+        <v>522</v>
+      </c>
       <c r="H59" s="4">
         <v>0</v>
       </c>
@@ -7107,9 +7233,9 @@
       <c r="K59" s="4">
         <v>0</v>
       </c>
-      <c r="L59" s="4">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>0</v>
+      <c r="L59" s="4" t="str" cm="1">
+        <f t="array" ref="L59">_xlfn.IFS(data[[#This Row],[description_override]]&lt;&gt;"",data[[#This Row],[description_override]],data[[#This Row],[Description_GPT]]&lt;&gt;"",data[[#This Row],[Description_GPT]],data[[#This Row],[Underlying]]&lt;&gt;"",data[[#This Row],[Underlying]],TRUE,"-")</f>
+        <v>iShares JP Morgan EM High Yield Bond ETF</v>
       </c>
       <c r="M59" s="4" t="s">
         <v>455</v>
@@ -7158,8 +7284,8 @@
       <c r="K60" s="4">
         <v>0</v>
       </c>
-      <c r="L60" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+      <c r="L60" s="4" t="str" cm="1">
+        <f t="array" ref="L60">_xlfn.IFS(data[[#This Row],[description_override]]&lt;&gt;"",data[[#This Row],[description_override]],data[[#This Row],[Description_GPT]]&lt;&gt;"",data[[#This Row],[Description_GPT]],data[[#This Row],[Underlying]]&lt;&gt;"",data[[#This Row],[Underlying]],TRUE,"-")</f>
         <v>WisdomTree Emerging Markets Local Debt Fund</v>
       </c>
       <c r="M60" s="4" t="s">
@@ -7211,8 +7337,8 @@
       <c r="K61" s="4">
         <v>0</v>
       </c>
-      <c r="L61" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+      <c r="L61" s="4" t="str" cm="1">
+        <f t="array" ref="L61">_xlfn.IFS(data[[#This Row],[description_override]]&lt;&gt;"",data[[#This Row],[description_override]],data[[#This Row],[Description_GPT]]&lt;&gt;"",data[[#This Row],[Description_GPT]],data[[#This Row],[Underlying]]&lt;&gt;"",data[[#This Row],[Underlying]],TRUE,"-")</f>
         <v>iShares International Government Bonds ETF</v>
       </c>
       <c r="M61" s="4" t="s">
@@ -7264,8 +7390,8 @@
       <c r="K62" s="4">
         <v>0</v>
       </c>
-      <c r="L62" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+      <c r="L62" s="4" t="str" cm="1">
+        <f t="array" ref="L62">_xlfn.IFS(data[[#This Row],[description_override]]&lt;&gt;"",data[[#This Row],[description_override]],data[[#This Row],[Description_GPT]]&lt;&gt;"",data[[#This Row],[Description_GPT]],data[[#This Row],[Underlying]]&lt;&gt;"",data[[#This Row],[Underlying]],TRUE,"-")</f>
         <v>SPDR Gold Shares</v>
       </c>
       <c r="M62" s="4" t="s">
@@ -7317,8 +7443,8 @@
       <c r="K63" s="4">
         <v>0</v>
       </c>
-      <c r="L63" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+      <c r="L63" s="4" t="str" cm="1">
+        <f t="array" ref="L63">_xlfn.IFS(data[[#This Row],[description_override]]&lt;&gt;"",data[[#This Row],[description_override]],data[[#This Row],[Description_GPT]]&lt;&gt;"",data[[#This Row],[Description_GPT]],data[[#This Row],[Underlying]]&lt;&gt;"",data[[#This Row],[Underlying]],TRUE,"-")</f>
         <v>iShares Silver Trust</v>
       </c>
       <c r="M63" s="4" t="s">
@@ -7370,8 +7496,8 @@
       <c r="K64" s="4">
         <v>0</v>
       </c>
-      <c r="L64" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+      <c r="L64" s="4" t="str" cm="1">
+        <f t="array" ref="L64">_xlfn.IFS(data[[#This Row],[description_override]]&lt;&gt;"",data[[#This Row],[description_override]],data[[#This Row],[Description_GPT]]&lt;&gt;"",data[[#This Row],[Description_GPT]],data[[#This Row],[Underlying]]&lt;&gt;"",data[[#This Row],[Underlying]],TRUE,"-")</f>
         <v>United States Oil Fund</v>
       </c>
       <c r="M64" s="4" t="s">
@@ -7423,8 +7549,8 @@
       <c r="K65" s="4">
         <v>0</v>
       </c>
-      <c r="L65" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+      <c r="L65" s="4" t="str" cm="1">
+        <f t="array" ref="L65">_xlfn.IFS(data[[#This Row],[description_override]]&lt;&gt;"",data[[#This Row],[description_override]],data[[#This Row],[Description_GPT]]&lt;&gt;"",data[[#This Row],[Description_GPT]],data[[#This Row],[Underlying]]&lt;&gt;"",data[[#This Row],[Underlying]],TRUE,"-")</f>
         <v>Invesco DB Commodity Index Tracking Fund</v>
       </c>
       <c r="M65" s="4" t="s">
@@ -7476,8 +7602,8 @@
       <c r="K66" s="4">
         <v>0</v>
       </c>
-      <c r="L66" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+      <c r="L66" s="4" t="str" cm="1">
+        <f t="array" ref="L66">_xlfn.IFS(data[[#This Row],[description_override]]&lt;&gt;"",data[[#This Row],[description_override]],data[[#This Row],[Description_GPT]]&lt;&gt;"",data[[#This Row],[Description_GPT]],data[[#This Row],[Underlying]]&lt;&gt;"",data[[#This Row],[Underlying]],TRUE,"-")</f>
         <v>Invesco DB US Dollar Index Bullish Fund</v>
       </c>
       <c r="M66" s="4" t="s">
@@ -7507,10 +7633,10 @@
         <v>40</v>
       </c>
       <c r="C67" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="D67" s="4" t="s">
         <v>493</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>494</v>
       </c>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
@@ -7529,9 +7655,9 @@
       <c r="K67" s="4">
         <v>0</v>
       </c>
-      <c r="L67" s="4">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>0</v>
+      <c r="L67" s="4" t="str" cm="1">
+        <f t="array" ref="L67">_xlfn.IFS(data[[#This Row],[description_override]]&lt;&gt;"",data[[#This Row],[description_override]],data[[#This Row],[Description_GPT]]&lt;&gt;"",data[[#This Row],[Description_GPT]],data[[#This Row],[Underlying]]&lt;&gt;"",data[[#This Row],[Underlying]],TRUE,"-")</f>
+        <v>U.S. Dollar Index</v>
       </c>
       <c r="M67" s="4" t="s">
         <v>455</v>
@@ -7562,7 +7688,9 @@
       <c r="C68" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D68" s="4"/>
+      <c r="D68" s="4" t="s">
+        <v>297</v>
+      </c>
       <c r="E68" s="4"/>
       <c r="F68" s="4" t="s">
         <v>70</v>
@@ -7582,8 +7710,8 @@
       <c r="K68" s="4">
         <v>0</v>
       </c>
-      <c r="L68" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+      <c r="L68" s="4" t="str" cm="1">
+        <f t="array" ref="L68">_xlfn.IFS(data[[#This Row],[description_override]]&lt;&gt;"",data[[#This Row],[description_override]],data[[#This Row],[Description_GPT]]&lt;&gt;"",data[[#This Row],[Description_GPT]],data[[#This Row],[Underlying]]&lt;&gt;"",data[[#This Row],[Underlying]],TRUE,"-")</f>
         <v>Invesco CurrencyShares Euro Trust</v>
       </c>
       <c r="M68" s="4" t="s">
@@ -7615,6 +7743,9 @@
       <c r="C69" t="s">
         <v>72</v>
       </c>
+      <c r="D69" t="s">
+        <v>524</v>
+      </c>
       <c r="F69" t="s">
         <v>73</v>
       </c>
@@ -7633,8 +7764,8 @@
       <c r="K69" s="4">
         <v>0</v>
       </c>
-      <c r="L69" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+      <c r="L69" s="4" t="str" cm="1">
+        <f t="array" ref="L69">_xlfn.IFS(data[[#This Row],[description_override]]&lt;&gt;"",data[[#This Row],[description_override]],data[[#This Row],[Description_GPT]]&lt;&gt;"",data[[#This Row],[Description_GPT]],data[[#This Row],[Underlying]]&lt;&gt;"",data[[#This Row],[Underlying]],TRUE,"-")</f>
         <v>Invesco CurrencyShares Japanese Yen Trust</v>
       </c>
       <c r="M69" s="4" t="s">
@@ -7664,14 +7795,17 @@
         <v>71</v>
       </c>
       <c r="C70" t="s">
+        <v>498</v>
+      </c>
+      <c r="D70" t="s">
+        <v>525</v>
+      </c>
+      <c r="F70" t="s">
         <v>499</v>
       </c>
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>500</v>
       </c>
-      <c r="G70" t="s">
-        <v>501</v>
-      </c>
       <c r="H70" s="4">
         <v>1</v>
       </c>
@@ -7684,8 +7818,8 @@
       <c r="K70" s="4">
         <v>0</v>
       </c>
-      <c r="L70" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+      <c r="L70" s="4" t="str" cm="1">
+        <f t="array" ref="L70">_xlfn.IFS(data[[#This Row],[description_override]]&lt;&gt;"",data[[#This Row],[description_override]],data[[#This Row],[Description_GPT]]&lt;&gt;"",data[[#This Row],[Description_GPT]],data[[#This Row],[Underlying]]&lt;&gt;"",data[[#This Row],[Underlying]],TRUE,"-")</f>
         <v>Invesco CurrencyShares Swiss Franc Trust</v>
       </c>
       <c r="M70" s="4" t="s">
@@ -7709,18 +7843,18 @@
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
       <c r="F71" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G71" s="4"/>
       <c r="H71" s="4">
@@ -7735,8 +7869,8 @@
       <c r="K71" s="4">
         <v>0</v>
       </c>
-      <c r="L71" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+      <c r="L71" s="4" t="str" cm="1">
+        <f t="array" ref="L71">_xlfn.IFS(data[[#This Row],[description_override]]&lt;&gt;"",data[[#This Row],[description_override]],data[[#This Row],[Description_GPT]]&lt;&gt;"",data[[#This Row],[Description_GPT]],data[[#This Row],[Underlying]]&lt;&gt;"",data[[#This Row],[Underlying]],TRUE,"-")</f>
         <v>CBOE Volatility Index</v>
       </c>
       <c r="M71" s="4" t="s">
@@ -7760,18 +7894,18 @@
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
       <c r="F72" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G72" s="4"/>
       <c r="H72" s="4">
@@ -7786,8 +7920,8 @@
       <c r="K72" s="4">
         <v>0</v>
       </c>
-      <c r="L72" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+      <c r="L72" s="4" t="str" cm="1">
+        <f t="array" ref="L72">_xlfn.IFS(data[[#This Row],[description_override]]&lt;&gt;"",data[[#This Row],[description_override]],data[[#This Row],[Description_GPT]]&lt;&gt;"",data[[#This Row],[Description_GPT]],data[[#This Row],[Underlying]]&lt;&gt;"",data[[#This Row],[Underlying]],TRUE,"-")</f>
         <v>VIX Short-Term Futures ETN</v>
       </c>
       <c r="M72" s="4" t="s">
@@ -7811,18 +7945,18 @@
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
       <c r="F73" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G73" s="4"/>
       <c r="H73" s="4">
@@ -7837,8 +7971,8 @@
       <c r="K73" s="4">
         <v>0</v>
       </c>
-      <c r="L73" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+      <c r="L73" s="4" t="str" cm="1">
+        <f t="array" ref="L73">_xlfn.IFS(data[[#This Row],[description_override]]&lt;&gt;"",data[[#This Row],[description_override]],data[[#This Row],[Description_GPT]]&lt;&gt;"",data[[#This Row],[Description_GPT]],data[[#This Row],[Underlying]]&lt;&gt;"",data[[#This Row],[Underlying]],TRUE,"-")</f>
         <v>CBOE S&amp;P 500 3-Month Volatility</v>
       </c>
       <c r="M73" s="4" t="s">
@@ -7862,18 +7996,18 @@
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
       <c r="F74" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G74" s="4"/>
       <c r="H74" s="4">
@@ -7888,8 +8022,8 @@
       <c r="K74" s="4">
         <v>0</v>
       </c>
-      <c r="L74" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+      <c r="L74" s="4" t="str" cm="1">
+        <f t="array" ref="L74">_xlfn.IFS(data[[#This Row],[description_override]]&lt;&gt;"",data[[#This Row],[description_override]],data[[#This Row],[Description_GPT]]&lt;&gt;"",data[[#This Row],[Description_GPT]],data[[#This Row],[Underlying]]&lt;&gt;"",data[[#This Row],[Underlying]],TRUE,"-")</f>
         <v>CBOE VIX VOLATILITY INDEX</v>
       </c>
       <c r="M74" s="4" t="s">
@@ -7913,18 +8047,18 @@
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
       <c r="F75" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G75" s="4"/>
       <c r="H75" s="4">
@@ -7939,8 +8073,8 @@
       <c r="K75" s="4">
         <v>0</v>
       </c>
-      <c r="L75" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+      <c r="L75" s="4" t="str" cm="1">
+        <f t="array" ref="L75">_xlfn.IFS(data[[#This Row],[description_override]]&lt;&gt;"",data[[#This Row],[description_override]],data[[#This Row],[Description_GPT]]&lt;&gt;"",data[[#This Row],[Description_GPT]],data[[#This Row],[Underlying]]&lt;&gt;"",data[[#This Row],[Underlying]],TRUE,"-")</f>
         <v>ICE BofAML MOVE Index</v>
       </c>
       <c r="M75" s="4" t="s">
@@ -7964,18 +8098,18 @@
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
       <c r="F76" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G76" s="4"/>
       <c r="H76" s="4">
@@ -7990,8 +8124,8 @@
       <c r="K76" s="4">
         <v>0</v>
       </c>
-      <c r="L76" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+      <c r="L76" s="4" t="str" cm="1">
+        <f t="array" ref="L76">_xlfn.IFS(data[[#This Row],[description_override]]&lt;&gt;"",data[[#This Row],[description_override]],data[[#This Row],[Description_GPT]]&lt;&gt;"",data[[#This Row],[Description_GPT]],data[[#This Row],[Underlying]]&lt;&gt;"",data[[#This Row],[Underlying]],TRUE,"-")</f>
         <v>CBOE Crude Oil Volatility Index</v>
       </c>
       <c r="M76" s="4" t="s">
@@ -8015,18 +8149,18 @@
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
       <c r="F77" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G77" s="4"/>
       <c r="H77" s="4">
@@ -8041,8 +8175,8 @@
       <c r="K77" s="4">
         <v>0</v>
       </c>
-      <c r="L77" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+      <c r="L77" s="4" t="str" cm="1">
+        <f t="array" ref="L77">_xlfn.IFS(data[[#This Row],[description_override]]&lt;&gt;"",data[[#This Row],[description_override]],data[[#This Row],[Description_GPT]]&lt;&gt;"",data[[#This Row],[Description_GPT]],data[[#This Row],[Underlying]]&lt;&gt;"",data[[#This Row],[Underlying]],TRUE,"-")</f>
         <v>CBOE Euro currency Volatility I</v>
       </c>
       <c r="M77" s="4" t="s">
@@ -8066,18 +8200,18 @@
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
       <c r="F78" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G78" s="4"/>
       <c r="H78" s="4">
@@ -8092,8 +8226,8 @@
       <c r="K78" s="4">
         <v>0</v>
       </c>
-      <c r="L78" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+      <c r="L78" s="4" t="str" cm="1">
+        <f t="array" ref="L78">_xlfn.IFS(data[[#This Row],[description_override]]&lt;&gt;"",data[[#This Row],[description_override]],data[[#This Row],[Description_GPT]]&lt;&gt;"",data[[#This Row],[Description_GPT]],data[[#This Row],[Underlying]]&lt;&gt;"",data[[#This Row],[Underlying]],TRUE,"-")</f>
         <v>CBOE Gold Volatility Index</v>
       </c>
       <c r="M78" s="4" t="s">
@@ -8117,18 +8251,18 @@
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
       <c r="F79" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G79" s="4"/>
       <c r="H79" s="4">
@@ -8143,8 +8277,8 @@
       <c r="K79" s="4">
         <v>0</v>
       </c>
-      <c r="L79" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+      <c r="L79" s="4" t="str" cm="1">
+        <f t="array" ref="L79">_xlfn.IFS(data[[#This Row],[description_override]]&lt;&gt;"",data[[#This Row],[description_override]],data[[#This Row],[Description_GPT]]&lt;&gt;"",data[[#This Row],[Description_GPT]],data[[#This Row],[Underlying]]&lt;&gt;"",data[[#This Row],[Underlying]],TRUE,"-")</f>
         <v>Cboe Implied Correlation Index</v>
       </c>
       <c r="M79" s="4" t="s">
@@ -8179,9 +8313,11 @@
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
+      <c r="G80" s="4" t="s">
+        <v>523</v>
+      </c>
       <c r="H80" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" s="4">
         <v>1</v>
@@ -8190,11 +8326,11 @@
         <v>0</v>
       </c>
       <c r="K80" s="4" t="s">
-        <v>488</v>
-      </c>
-      <c r="L80" s="4">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>0</v>
+        <v>487</v>
+      </c>
+      <c r="L80" s="4" t="str" cm="1">
+        <f t="array" ref="L80">_xlfn.IFS(data[[#This Row],[description_override]]&lt;&gt;"",data[[#This Row],[description_override]],data[[#This Row],[Description_GPT]]&lt;&gt;"",data[[#This Row],[Description_GPT]],data[[#This Row],[Underlying]]&lt;&gt;"",data[[#This Row],[Underlying]],TRUE,"-")</f>
+        <v>TCW MetWest Total Return Bd I</v>
       </c>
       <c r="M80" s="4" t="s">
         <v>455</v>
@@ -8216,38 +8352,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>128</v>
+        <v>444</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>429</v>
+        <v>508</v>
       </c>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
-      <c r="G81" s="4"/>
+      <c r="G81" s="4" t="str" cm="1">
+        <f t="array" ref="G81">_xlfn.XLOOKUP(data[[#This Row],[factor_name]],_xlfn.ANCHORARRAY(composites!$F$2),_xlfn.ANCHORARRAY(composites!$G$2))</f>
+        <v>XLF 1.5, ICLN -1, IWM 1.5, FEZ -1</v>
+      </c>
       <c r="H81" s="4">
         <v>1</v>
       </c>
       <c r="I81" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K81" s="4">
         <v>0</v>
       </c>
-      <c r="L81" s="4">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>0</v>
+      <c r="L81" s="4" t="str" cm="1">
+        <f t="array" ref="L81">_xlfn.IFS(data[[#This Row],[description_override]]&lt;&gt;"",data[[#This Row],[description_override]],data[[#This Row],[Description_GPT]]&lt;&gt;"",data[[#This Row],[Description_GPT]],data[[#This Row],[Underlying]]&lt;&gt;"",data[[#This Row],[Underlying]],TRUE,"-")</f>
+        <v>XLF 1.5, ICLN -1, IWM 1.5, FEZ -1</v>
       </c>
       <c r="M81" s="4" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="N81" s="4" t="s">
         <v>454</v>
@@ -8258,15 +8397,18 @@
       </c>
       <c r="P81" s="4" t="str">
         <f>data[[#This Row],[factor_name]]</f>
-        <v>MWTIX</v>
+        <v>ELECTION</v>
       </c>
       <c r="Q81" s="4"/>
-      <c r="R81" s="2"/>
       <c r="S81" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U81" s="11" cm="1">
+        <f t="array" ref="U81:U84">_xlfn._xlws.FILTER(composities[weight],composities[portfolio_name]=data[[#This Row],[factor_name]])</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>444</v>
       </c>
@@ -8274,12 +8416,15 @@
         <v>40</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>509</v>
+        <v>439</v>
       </c>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
+      <c r="G82" s="4" t="str" cm="1">
+        <f t="array" ref="G82">_xlfn.XLOOKUP(data[[#This Row],[factor_name]],_xlfn.ANCHORARRAY(composites!$F$2),_xlfn.ANCHORARRAY(composites!$G$2))</f>
+        <v>SHY 1, BSV 1</v>
+      </c>
       <c r="H82" s="4">
         <v>1</v>
       </c>
@@ -8292,9 +8437,9 @@
       <c r="K82" s="4">
         <v>0</v>
       </c>
-      <c r="L82" s="4">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>0</v>
+      <c r="L82" s="4" t="str" cm="1">
+        <f t="array" ref="L82">_xlfn.IFS(data[[#This Row],[description_override]]&lt;&gt;"",data[[#This Row],[description_override]],data[[#This Row],[Description_GPT]]&lt;&gt;"",data[[#This Row],[Description_GPT]],data[[#This Row],[Underlying]]&lt;&gt;"",data[[#This Row],[Underlying]],TRUE,"-")</f>
+        <v>SHY 1, BSV 1</v>
       </c>
       <c r="M82" s="4" t="s">
         <v>445</v>
@@ -8308,14 +8453,17 @@
       </c>
       <c r="P82" s="4" t="str">
         <f>data[[#This Row],[factor_name]]</f>
-        <v>ELECTION</v>
+        <v>FED</v>
       </c>
       <c r="Q82" s="4"/>
       <c r="S82" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U82">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
         <v>444</v>
       </c>
@@ -8323,12 +8471,15 @@
         <v>40</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
-      <c r="G83" s="4"/>
+      <c r="G83" s="4" t="str" cm="1">
+        <f t="array" ref="G83">_xlfn.XLOOKUP(data[[#This Row],[factor_name]],_xlfn.ANCHORARRAY(composites!$F$2),_xlfn.ANCHORARRAY(composites!$G$2))</f>
+        <v>AIQ 1, QQQ 0.25, IWM -0.25</v>
+      </c>
       <c r="H83" s="4">
         <v>1</v>
       </c>
@@ -8341,9 +8492,9 @@
       <c r="K83" s="4">
         <v>0</v>
       </c>
-      <c r="L83" s="4">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>0</v>
+      <c r="L83" s="4" t="str" cm="1">
+        <f t="array" ref="L83">_xlfn.IFS(data[[#This Row],[description_override]]&lt;&gt;"",data[[#This Row],[description_override]],data[[#This Row],[Description_GPT]]&lt;&gt;"",data[[#This Row],[Description_GPT]],data[[#This Row],[Underlying]]&lt;&gt;"",data[[#This Row],[Underlying]],TRUE,"-")</f>
+        <v>AIQ 1, QQQ 0.25, IWM -0.25</v>
       </c>
       <c r="M83" s="4" t="s">
         <v>445</v>
@@ -8357,14 +8508,17 @@
       </c>
       <c r="P83" s="4" t="str">
         <f>data[[#This Row],[factor_name]]</f>
-        <v>FED</v>
+        <v>AI</v>
       </c>
       <c r="Q83" s="4"/>
       <c r="S83" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U83">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
         <v>444</v>
       </c>
@@ -8372,12 +8526,15 @@
         <v>40</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>421</v>
+        <v>450</v>
       </c>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
+      <c r="G84" s="4" t="str" cm="1">
+        <f t="array" ref="G84">_xlfn.XLOOKUP(data[[#This Row],[factor_name]],_xlfn.ANCHORARRAY(composites!$F$2),_xlfn.ANCHORARRAY(composites!$G$2))</f>
+        <v>GLD 0.75, USO 0.25</v>
+      </c>
       <c r="H84" s="4">
         <v>1</v>
       </c>
@@ -8390,9 +8547,9 @@
       <c r="K84" s="4">
         <v>0</v>
       </c>
-      <c r="L84" s="4">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>0</v>
+      <c r="L84" s="4" t="str" cm="1">
+        <f t="array" ref="L84">_xlfn.IFS(data[[#This Row],[description_override]]&lt;&gt;"",data[[#This Row],[description_override]],data[[#This Row],[Description_GPT]]&lt;&gt;"",data[[#This Row],[Description_GPT]],data[[#This Row],[Underlying]]&lt;&gt;"",data[[#This Row],[Underlying]],TRUE,"-")</f>
+        <v>GLD 0.75, USO 0.25</v>
       </c>
       <c r="M84" s="4" t="s">
         <v>445</v>
@@ -8406,27 +8563,33 @@
       </c>
       <c r="P84" s="4" t="str">
         <f>data[[#This Row],[factor_name]]</f>
-        <v>AI</v>
+        <v>GEOPOLITICS</v>
       </c>
       <c r="Q84" s="4"/>
       <c r="S84" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U84">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>444</v>
+        <v>128</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
-      <c r="G85" s="4"/>
+      <c r="G85" s="4" t="str" cm="1">
+        <f t="array" ref="G85">_xlfn.XLOOKUP(data[[#This Row],[factor_name]],_xlfn.ANCHORARRAY(composites!$F$2),_xlfn.ANCHORARRAY(composites!$G$2))</f>
+        <v>SHY -3.86, IEF 1</v>
+      </c>
       <c r="H85" s="4">
         <v>1</v>
       </c>
@@ -8439,9 +8602,9 @@
       <c r="K85" s="4">
         <v>0</v>
       </c>
-      <c r="L85" s="4">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>0</v>
+      <c r="L85" s="4" t="str" cm="1">
+        <f t="array" ref="L85">_xlfn.IFS(data[[#This Row],[description_override]]&lt;&gt;"",data[[#This Row],[description_override]],data[[#This Row],[Description_GPT]]&lt;&gt;"",data[[#This Row],[Description_GPT]],data[[#This Row],[Underlying]]&lt;&gt;"",data[[#This Row],[Underlying]],TRUE,"-")</f>
+        <v>SHY -3.86, IEF 1</v>
       </c>
       <c r="M85" s="4" t="s">
         <v>445</v>
@@ -8455,27 +8618,32 @@
       </c>
       <c r="P85" s="4" t="str">
         <f>data[[#This Row],[factor_name]]</f>
-        <v>GEOPOLITICS</v>
+        <v>2s10s</v>
       </c>
       <c r="Q85" s="4"/>
       <c r="S85" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
-        <v>128</v>
+        <v>39</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>451</v>
+        <v>504</v>
       </c>
       <c r="D86" s="4"/>
-      <c r="E86" s="4"/>
+      <c r="E86" s="4" t="s">
+        <v>506</v>
+      </c>
       <c r="F86" s="4"/>
-      <c r="G86" s="4"/>
+      <c r="G86" s="4" t="str" cm="1">
+        <f t="array" ref="G86">_xlfn.XLOOKUP(data[[#This Row],[factor_name]],_xlfn.ANCHORARRAY(composites!$F$2),_xlfn.ANCHORARRAY(composites!$G$2))</f>
+        <v>XLP 1, XLY -1</v>
+      </c>
       <c r="H86" s="4">
         <v>1</v>
       </c>
@@ -8488,9 +8656,9 @@
       <c r="K86" s="4">
         <v>0</v>
       </c>
-      <c r="L86" s="4">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>0</v>
+      <c r="L86" s="4" t="str" cm="1">
+        <f t="array" ref="L86">_xlfn.IFS(data[[#This Row],[description_override]]&lt;&gt;"",data[[#This Row],[description_override]],data[[#This Row],[Description_GPT]]&lt;&gt;"",data[[#This Row],[Description_GPT]],data[[#This Row],[Underlying]]&lt;&gt;"",data[[#This Row],[Underlying]],TRUE,"-")</f>
+        <v>Staples/Discretionary</v>
       </c>
       <c r="M86" s="4" t="s">
         <v>445</v>
@@ -8504,29 +8672,30 @@
       </c>
       <c r="P86" s="4" t="str">
         <f>data[[#This Row],[factor_name]]</f>
-        <v>2s10s</v>
+        <v>XLPXLY</v>
       </c>
       <c r="Q86" s="4"/>
       <c r="S86" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
-        <v>39</v>
+        <v>444</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="D87" s="4"/>
-      <c r="E87" s="4" t="s">
-        <v>507</v>
-      </c>
+      <c r="E87" s="4"/>
       <c r="F87" s="4"/>
-      <c r="G87" s="4"/>
+      <c r="G87" s="4" t="str" cm="1">
+        <f t="array" ref="G87">_xlfn.XLOOKUP(data[[#This Row],[factor_name]],_xlfn.ANCHORARRAY(composites!$F$2),_xlfn.ANCHORARRAY(composites!$G$2))</f>
+        <v>GLD 0.21, FXY 0.30, FXF 0.37, ^VIX3M -0.04, XLP 0.15, XLY -0.15</v>
+      </c>
       <c r="H87" s="4">
         <v>1</v>
       </c>
@@ -8539,9 +8708,9 @@
       <c r="K87" s="4">
         <v>0</v>
       </c>
-      <c r="L87" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>Staples/Discretionary</v>
+      <c r="L87" s="4" t="str" cm="1">
+        <f t="array" ref="L87">_xlfn.IFS(data[[#This Row],[description_override]]&lt;&gt;"",data[[#This Row],[description_override]],data[[#This Row],[Description_GPT]]&lt;&gt;"",data[[#This Row],[Description_GPT]],data[[#This Row],[Underlying]]&lt;&gt;"",data[[#This Row],[Underlying]],TRUE,"-")</f>
+        <v>GLD 0.21, FXY 0.30, FXF 0.37, ^VIX3M -0.04, XLP 0.15, XLY -0.15</v>
       </c>
       <c r="M87" s="4" t="s">
         <v>445</v>
@@ -8555,65 +8724,16 @@
       </c>
       <c r="P87" s="4" t="str">
         <f>data[[#This Row],[factor_name]]</f>
-        <v>XLPXLY</v>
+        <v>TRADEWAR</v>
       </c>
       <c r="Q87" s="4"/>
       <c r="S87" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A88" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>502</v>
-      </c>
-      <c r="D88" s="4"/>
-      <c r="E88" s="4"/>
-      <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
-      <c r="H88" s="4">
-        <v>1</v>
-      </c>
-      <c r="I88" s="4">
-        <v>1</v>
-      </c>
-      <c r="J88" s="4">
-        <v>1</v>
-      </c>
-      <c r="K88" s="4">
-        <v>0</v>
-      </c>
-      <c r="L88" s="4">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>0</v>
-      </c>
-      <c r="M88" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="N88" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="O88" s="4" cm="1">
-        <f t="array" ref="O88">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",1,1)</f>
-        <v>1E-4</v>
-      </c>
-      <c r="P88" s="4" t="str">
-        <f>data[[#This Row],[factor_name]]</f>
-        <v>TRADEWAR</v>
-      </c>
-      <c r="Q88" s="4"/>
-      <c r="S88" t="b">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A2:Q88">
+  <conditionalFormatting sqref="A82:Q87 A81:F81 H81:Q81 U81 A2:Q80">
     <cfRule type="expression" dxfId="0" priority="8">
       <formula>$S2</formula>
     </cfRule>
@@ -8801,7 +8921,10 @@
   <dimension ref="A1:J70"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B42" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8838,7 +8961,7 @@
         <v>464</v>
       </c>
       <c r="J1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -9468,7 +9591,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="str">
-        <v>AI</v>
+        <v>Artificial Intelligence</v>
       </c>
       <c r="G21" t="str">
         <v>yfinance</v>
@@ -9596,7 +9719,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="str">
-        <v>iShares FTSE United Kingdom ETF</v>
+        <v>FTSE 100</v>
       </c>
       <c r="G25" t="str">
         <v>yfinance</v>
@@ -9660,7 +9783,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="str">
-        <v>iShares MSCI Canada ETF</v>
+        <v>MSCI Canada</v>
       </c>
       <c r="G27" t="str">
         <v>yfinance</v>
@@ -9692,7 +9815,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="str">
-        <v>iShares MSCI Italy ETF</v>
+        <v>MSCI Italy</v>
       </c>
       <c r="G28" t="str">
         <v>yfinance</v>
@@ -9756,7 +9879,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="str">
-        <v>iShares China Large-Cap ETF</v>
+        <v>China Large-Cap</v>
       </c>
       <c r="G30" t="str">
         <v>yfinance</v>
@@ -9788,7 +9911,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="str">
-        <v>Xtrackers Harvest CSI 300 China A-Shares ETF</v>
+        <v>CSI 300 (China)</v>
       </c>
       <c r="G31" t="str">
         <v>yfinance</v>
@@ -9820,7 +9943,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="str">
-        <v>KraneShares CSI China Internet ETF</v>
+        <v>CSI China Internet</v>
       </c>
       <c r="G32" t="str">
         <v>yfinance</v>
@@ -9851,8 +9974,8 @@
       <c r="E33">
         <v>0</v>
       </c>
-      <c r="F33">
-        <v>0</v>
+      <c r="F33" t="str">
+        <v>MSCI EM</v>
       </c>
       <c r="G33" t="str">
         <v>yfinance</v>
@@ -9979,8 +10102,8 @@
       <c r="E37">
         <v>0</v>
       </c>
-      <c r="F37">
-        <v>0</v>
+      <c r="F37" t="str">
+        <v>Hedged LQD</v>
       </c>
       <c r="G37" t="str">
         <v>yfinance</v>
@@ -10011,8 +10134,8 @@
       <c r="E38">
         <v>0</v>
       </c>
-      <c r="F38">
-        <v>0</v>
+      <c r="F38" t="str">
+        <v>Hedged HYG</v>
       </c>
       <c r="G38" t="str">
         <v>yfinance</v>
@@ -10043,8 +10166,8 @@
       <c r="E39">
         <v>0</v>
       </c>
-      <c r="F39">
-        <v>0</v>
+      <c r="F39" t="str">
+        <v>US Agg</v>
       </c>
       <c r="G39" t="str">
         <v>yfinance</v>
@@ -10075,8 +10198,8 @@
       <c r="E40">
         <v>0</v>
       </c>
-      <c r="F40">
-        <v>0</v>
+      <c r="F40" t="str">
+        <v>CBOE Interest Rate 10 Year</v>
       </c>
       <c r="G40" t="str">
         <v>yfinance</v>
@@ -10108,7 +10231,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="str">
-        <v>iShares 1-3 Year Treasury Bond ETF</v>
+        <v>1-3 Year Treasury</v>
       </c>
       <c r="G41" t="str">
         <v>yfinance</v>
@@ -10140,7 +10263,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="str">
-        <v>iShares 3-7 Year Treasury Bond ETF</v>
+        <v>3-7 Year Treasury</v>
       </c>
       <c r="G42" t="str">
         <v>yfinance</v>
@@ -10172,7 +10295,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="str">
-        <v>iShares 7-10 Year Treasury Bond ETF</v>
+        <v>7-10 Year Treasury</v>
       </c>
       <c r="G43" t="str">
         <v>yfinance</v>
@@ -10204,7 +10327,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="str">
-        <v>iShares 20+ Year Treasury Bond ETF</v>
+        <v>20+ Year Treasury</v>
       </c>
       <c r="G44" t="str">
         <v>yfinance</v>
@@ -10267,8 +10390,8 @@
       <c r="E46">
         <v>0</v>
       </c>
-      <c r="F46">
-        <v>0</v>
+      <c r="F46" t="str">
+        <v>Short-Term Inflation-Protected Securities ETF</v>
       </c>
       <c r="G46" t="str">
         <v>yfinance</v>
@@ -10331,8 +10454,8 @@
       <c r="E48">
         <v>0</v>
       </c>
-      <c r="F48">
-        <v>0</v>
+      <c r="F48" t="str">
+        <v>Mortgage-Backed Securities ETF</v>
       </c>
       <c r="G48" t="str">
         <v>yfinance</v>
@@ -10363,8 +10486,8 @@
       <c r="E49">
         <v>0</v>
       </c>
-      <c r="F49">
-        <v>0</v>
+      <c r="F49" t="str">
+        <v>iShares CMBS ETF</v>
       </c>
       <c r="G49" t="str">
         <v>yfinance</v>
@@ -10555,8 +10678,8 @@
       <c r="E55">
         <v>0</v>
       </c>
-      <c r="F55">
-        <v>0</v>
+      <c r="F55" t="str">
+        <v>U.S. Dollar Index</v>
       </c>
       <c r="G55" t="str">
         <v>yfinance</v>
@@ -10811,8 +10934,8 @@
       <c r="E63">
         <v>0</v>
       </c>
-      <c r="F63">
-        <v>0</v>
+      <c r="F63" t="str">
+        <v>TCW MetWest Total Return Bd I</v>
       </c>
       <c r="G63" t="str">
         <v>yfinance</v>
@@ -10843,8 +10966,8 @@
       <c r="E64">
         <v>1</v>
       </c>
-      <c r="F64">
-        <v>0</v>
+      <c r="F64" t="str">
+        <v>XLF 1.5, ICLN -1, IWM 1.5, FEZ -1</v>
       </c>
       <c r="G64" t="str">
         <v>composite</v>
@@ -10875,8 +10998,8 @@
       <c r="E65">
         <v>1</v>
       </c>
-      <c r="F65">
-        <v>0</v>
+      <c r="F65" t="str">
+        <v>SHY 1, BSV 1</v>
       </c>
       <c r="G65" t="str">
         <v>composite</v>
@@ -10907,8 +11030,8 @@
       <c r="E66">
         <v>1</v>
       </c>
-      <c r="F66">
-        <v>0</v>
+      <c r="F66" t="str">
+        <v>AIQ 1, QQQ 0.25, IWM -0.25</v>
       </c>
       <c r="G66" t="str">
         <v>composite</v>
@@ -10939,8 +11062,8 @@
       <c r="E67">
         <v>1</v>
       </c>
-      <c r="F67">
-        <v>0</v>
+      <c r="F67" t="str">
+        <v>GLD 0.75, USO 0.25</v>
       </c>
       <c r="G67" t="str">
         <v>composite</v>
@@ -10971,8 +11094,8 @@
       <c r="E68">
         <v>1</v>
       </c>
-      <c r="F68">
-        <v>0</v>
+      <c r="F68" t="str">
+        <v>SHY -3.86, IEF 1</v>
       </c>
       <c r="G68" t="str">
         <v>composite</v>
@@ -11035,8 +11158,8 @@
       <c r="E70">
         <v>1</v>
       </c>
-      <c r="F70">
-        <v>0</v>
+      <c r="F70" t="str">
+        <v>GLD 0.21, FXY 0.30, FXF 0.37, ^VIX3M -0.04, XLP 0.15, XLY -0.15</v>
       </c>
       <c r="G70" t="str">
         <v>composite</v>
@@ -11098,7 +11221,7 @@
         <v>464</v>
       </c>
       <c r="J1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -11728,7 +11851,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="str">
-        <v>AI</v>
+        <v>Artificial Intelligence</v>
       </c>
       <c r="G21" t="str">
         <v>yfinance</v>
@@ -11856,7 +11979,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="str">
-        <v>iShares FTSE United Kingdom ETF</v>
+        <v>FTSE 100</v>
       </c>
       <c r="G25" t="str">
         <v>yfinance</v>
@@ -11920,7 +12043,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="str">
-        <v>iShares MSCI Canada ETF</v>
+        <v>MSCI Canada</v>
       </c>
       <c r="G27" t="str">
         <v>yfinance</v>
@@ -11952,7 +12075,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="str">
-        <v>iShares MSCI Italy ETF</v>
+        <v>MSCI Italy</v>
       </c>
       <c r="G28" t="str">
         <v>yfinance</v>
@@ -12016,7 +12139,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="str">
-        <v>iShares China Large-Cap ETF</v>
+        <v>China Large-Cap</v>
       </c>
       <c r="G30" t="str">
         <v>yfinance</v>
@@ -12048,7 +12171,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="str">
-        <v>Xtrackers Harvest CSI 300 China A-Shares ETF</v>
+        <v>CSI 300 (China)</v>
       </c>
       <c r="G31" t="str">
         <v>yfinance</v>
@@ -12080,7 +12203,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="str">
-        <v>KraneShares CSI China Internet ETF</v>
+        <v>CSI China Internet</v>
       </c>
       <c r="G32" t="str">
         <v>yfinance</v>
@@ -12111,8 +12234,8 @@
       <c r="E33">
         <v>0</v>
       </c>
-      <c r="F33">
-        <v>0</v>
+      <c r="F33" t="str">
+        <v>MSCI EM</v>
       </c>
       <c r="G33" t="str">
         <v>yfinance</v>
@@ -12239,8 +12362,8 @@
       <c r="E37">
         <v>0</v>
       </c>
-      <c r="F37">
-        <v>0</v>
+      <c r="F37" t="str">
+        <v>Hedged LQD</v>
       </c>
       <c r="G37" t="str">
         <v>yfinance</v>
@@ -12271,8 +12394,8 @@
       <c r="E38">
         <v>0</v>
       </c>
-      <c r="F38">
-        <v>0</v>
+      <c r="F38" t="str">
+        <v>Hedged HYG</v>
       </c>
       <c r="G38" t="str">
         <v>yfinance</v>
@@ -12303,8 +12426,8 @@
       <c r="E39">
         <v>0</v>
       </c>
-      <c r="F39">
-        <v>0</v>
+      <c r="F39" t="str">
+        <v>US Agg</v>
       </c>
       <c r="G39" t="str">
         <v>yfinance</v>
@@ -12335,8 +12458,8 @@
       <c r="E40">
         <v>0</v>
       </c>
-      <c r="F40">
-        <v>0</v>
+      <c r="F40" t="str">
+        <v>CBOE Interest Rate 10 Year</v>
       </c>
       <c r="G40" t="str">
         <v>yfinance</v>
@@ -12368,7 +12491,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="str">
-        <v>iShares 1-3 Year Treasury Bond ETF</v>
+        <v>1-3 Year Treasury</v>
       </c>
       <c r="G41" t="str">
         <v>yfinance</v>
@@ -12400,7 +12523,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="str">
-        <v>iShares 3-7 Year Treasury Bond ETF</v>
+        <v>3-7 Year Treasury</v>
       </c>
       <c r="G42" t="str">
         <v>yfinance</v>
@@ -12432,7 +12555,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="str">
-        <v>iShares 7-10 Year Treasury Bond ETF</v>
+        <v>7-10 Year Treasury</v>
       </c>
       <c r="G43" t="str">
         <v>yfinance</v>
@@ -12464,7 +12587,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="str">
-        <v>iShares 20+ Year Treasury Bond ETF</v>
+        <v>20+ Year Treasury</v>
       </c>
       <c r="G44" t="str">
         <v>yfinance</v>
@@ -12527,8 +12650,8 @@
       <c r="E46">
         <v>0</v>
       </c>
-      <c r="F46">
-        <v>0</v>
+      <c r="F46" t="str">
+        <v>Short-Term Inflation-Protected Securities ETF</v>
       </c>
       <c r="G46" t="str">
         <v>yfinance</v>
@@ -12591,8 +12714,8 @@
       <c r="E48">
         <v>0</v>
       </c>
-      <c r="F48">
-        <v>0</v>
+      <c r="F48" t="str">
+        <v>Mortgage-Backed Securities ETF</v>
       </c>
       <c r="G48" t="str">
         <v>yfinance</v>
@@ -12623,8 +12746,8 @@
       <c r="E49">
         <v>0</v>
       </c>
-      <c r="F49">
-        <v>0</v>
+      <c r="F49" t="str">
+        <v>iShares CMBS ETF</v>
       </c>
       <c r="G49" t="str">
         <v>yfinance</v>
@@ -12815,8 +12938,8 @@
       <c r="E55">
         <v>0</v>
       </c>
-      <c r="F55">
-        <v>0</v>
+      <c r="F55" t="str">
+        <v>U.S. Dollar Index</v>
       </c>
       <c r="G55" t="str">
         <v>yfinance</v>
@@ -13071,8 +13194,8 @@
       <c r="E63">
         <v>0</v>
       </c>
-      <c r="F63">
-        <v>0</v>
+      <c r="F63" t="str">
+        <v>TCW MetWest Total Return Bd I</v>
       </c>
       <c r="G63" t="str">
         <v>yfinance</v>
@@ -13095,13 +13218,13 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2977BD7F-9323-4F6D-98BF-C1B39119DCDE}">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:J70"/>
+  <dimension ref="A1:J69"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B60" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G69" sqref="G69"/>
+      <selection pane="bottomRight" activeCell="B63" sqref="B63:G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13138,16 +13261,16 @@
         <v>464</v>
       </c>
       <c r="J1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="str" cm="1">
-        <f t="array" ref="A2:A70">_xlfn._xlws.FILTER(data[factor_name],data[Active]*(data[client]=0))</f>
+        <f t="array" ref="A2:A69">_xlfn._xlws.FILTER(data[factor_name],data[Active]*(data[client]=0))</f>
         <v>SPY</v>
       </c>
       <c r="B2" t="str" cm="1">
-        <f t="array" ref="B2:J70">INDEX(data[],_xlfn.XMATCH(_xlfn.ANCHORARRAY(A2),data[factor_name]),_xlfn.XMATCH(B1:J1,data[#Headers]))</f>
+        <f t="array" ref="B2:J69">INDEX(data[],_xlfn.XMATCH(_xlfn.ANCHORARRAY(A2),data[factor_name]),_xlfn.XMATCH(B1:J1,data[#Headers]))</f>
         <v>Equities</v>
       </c>
       <c r="C2" t="str">
@@ -13768,7 +13891,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="str">
-        <v>AI</v>
+        <v>Artificial Intelligence</v>
       </c>
       <c r="G21" t="str">
         <v>yfinance</v>
@@ -13896,7 +14019,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="str">
-        <v>iShares FTSE United Kingdom ETF</v>
+        <v>FTSE 100</v>
       </c>
       <c r="G25" t="str">
         <v>yfinance</v>
@@ -13960,7 +14083,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="str">
-        <v>iShares MSCI Canada ETF</v>
+        <v>MSCI Canada</v>
       </c>
       <c r="G27" t="str">
         <v>yfinance</v>
@@ -13992,7 +14115,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="str">
-        <v>iShares MSCI Italy ETF</v>
+        <v>MSCI Italy</v>
       </c>
       <c r="G28" t="str">
         <v>yfinance</v>
@@ -14056,7 +14179,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="str">
-        <v>iShares China Large-Cap ETF</v>
+        <v>China Large-Cap</v>
       </c>
       <c r="G30" t="str">
         <v>yfinance</v>
@@ -14088,7 +14211,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="str">
-        <v>Xtrackers Harvest CSI 300 China A-Shares ETF</v>
+        <v>CSI 300 (China)</v>
       </c>
       <c r="G31" t="str">
         <v>yfinance</v>
@@ -14120,7 +14243,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="str">
-        <v>KraneShares CSI China Internet ETF</v>
+        <v>CSI China Internet</v>
       </c>
       <c r="G32" t="str">
         <v>yfinance</v>
@@ -14151,8 +14274,8 @@
       <c r="E33">
         <v>0</v>
       </c>
-      <c r="F33">
-        <v>0</v>
+      <c r="F33" t="str">
+        <v>MSCI EM</v>
       </c>
       <c r="G33" t="str">
         <v>yfinance</v>
@@ -14279,8 +14402,8 @@
       <c r="E37">
         <v>0</v>
       </c>
-      <c r="F37">
-        <v>0</v>
+      <c r="F37" t="str">
+        <v>Hedged LQD</v>
       </c>
       <c r="G37" t="str">
         <v>yfinance</v>
@@ -14311,8 +14434,8 @@
       <c r="E38">
         <v>0</v>
       </c>
-      <c r="F38">
-        <v>0</v>
+      <c r="F38" t="str">
+        <v>Hedged HYG</v>
       </c>
       <c r="G38" t="str">
         <v>yfinance</v>
@@ -14343,8 +14466,8 @@
       <c r="E39">
         <v>0</v>
       </c>
-      <c r="F39">
-        <v>0</v>
+      <c r="F39" t="str">
+        <v>US Agg</v>
       </c>
       <c r="G39" t="str">
         <v>yfinance</v>
@@ -14375,8 +14498,8 @@
       <c r="E40">
         <v>0</v>
       </c>
-      <c r="F40">
-        <v>0</v>
+      <c r="F40" t="str">
+        <v>CBOE Interest Rate 10 Year</v>
       </c>
       <c r="G40" t="str">
         <v>yfinance</v>
@@ -14408,7 +14531,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="str">
-        <v>iShares 1-3 Year Treasury Bond ETF</v>
+        <v>1-3 Year Treasury</v>
       </c>
       <c r="G41" t="str">
         <v>yfinance</v>
@@ -14440,7 +14563,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="str">
-        <v>iShares 3-7 Year Treasury Bond ETF</v>
+        <v>3-7 Year Treasury</v>
       </c>
       <c r="G42" t="str">
         <v>yfinance</v>
@@ -14472,7 +14595,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="str">
-        <v>iShares 7-10 Year Treasury Bond ETF</v>
+        <v>7-10 Year Treasury</v>
       </c>
       <c r="G43" t="str">
         <v>yfinance</v>
@@ -14504,7 +14627,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="str">
-        <v>iShares 20+ Year Treasury Bond ETF</v>
+        <v>20+ Year Treasury</v>
       </c>
       <c r="G44" t="str">
         <v>yfinance</v>
@@ -14567,8 +14690,8 @@
       <c r="E46">
         <v>0</v>
       </c>
-      <c r="F46">
-        <v>0</v>
+      <c r="F46" t="str">
+        <v>Short-Term Inflation-Protected Securities ETF</v>
       </c>
       <c r="G46" t="str">
         <v>yfinance</v>
@@ -14631,8 +14754,8 @@
       <c r="E48">
         <v>0</v>
       </c>
-      <c r="F48">
-        <v>0</v>
+      <c r="F48" t="str">
+        <v>Mortgage-Backed Securities ETF</v>
       </c>
       <c r="G48" t="str">
         <v>yfinance</v>
@@ -14663,8 +14786,8 @@
       <c r="E49">
         <v>0</v>
       </c>
-      <c r="F49">
-        <v>0</v>
+      <c r="F49" t="str">
+        <v>iShares CMBS ETF</v>
       </c>
       <c r="G49" t="str">
         <v>yfinance</v>
@@ -14855,8 +14978,8 @@
       <c r="E55">
         <v>0</v>
       </c>
-      <c r="F55">
-        <v>0</v>
+      <c r="F55" t="str">
+        <v>U.S. Dollar Index</v>
       </c>
       <c r="G55" t="str">
         <v>yfinance</v>
@@ -15097,10 +15220,10 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="str">
-        <v>MWTIX</v>
+        <v>ELECTION</v>
       </c>
       <c r="B63" t="str">
-        <v>Portfolio</v>
+        <v>Theme</v>
       </c>
       <c r="C63" t="str">
         <v>USD</v>
@@ -15109,16 +15232,16 @@
         <v>1</v>
       </c>
       <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F63" t="str">
+        <v>XLF 1.5, ICLN -1, IWM 1.5, FEZ -1</v>
       </c>
       <c r="G63" t="str">
-        <v>yfinance</v>
+        <v>composite</v>
       </c>
       <c r="H63" t="str">
-        <v>MWTIX</v>
+        <v>ELECTION</v>
       </c>
       <c r="I63" t="str">
         <v>lognormal</v>
@@ -15129,7 +15252,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" t="str">
-        <v>ELECTION</v>
+        <v>FED</v>
       </c>
       <c r="B64" t="str">
         <v>Theme</v>
@@ -15143,14 +15266,14 @@
       <c r="E64">
         <v>1</v>
       </c>
-      <c r="F64">
-        <v>0</v>
+      <c r="F64" t="str">
+        <v>SHY 1, BSV 1</v>
       </c>
       <c r="G64" t="str">
         <v>composite</v>
       </c>
       <c r="H64" t="str">
-        <v>ELECTION</v>
+        <v>FED</v>
       </c>
       <c r="I64" t="str">
         <v>lognormal</v>
@@ -15161,7 +15284,7 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" t="str">
-        <v>FED</v>
+        <v>AI</v>
       </c>
       <c r="B65" t="str">
         <v>Theme</v>
@@ -15175,14 +15298,14 @@
       <c r="E65">
         <v>1</v>
       </c>
-      <c r="F65">
-        <v>0</v>
+      <c r="F65" t="str">
+        <v>AIQ 1, QQQ 0.25, IWM -0.25</v>
       </c>
       <c r="G65" t="str">
         <v>composite</v>
       </c>
       <c r="H65" t="str">
-        <v>FED</v>
+        <v>AI</v>
       </c>
       <c r="I65" t="str">
         <v>lognormal</v>
@@ -15193,7 +15316,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" t="str">
-        <v>AI</v>
+        <v>GEOPOLITICS</v>
       </c>
       <c r="B66" t="str">
         <v>Theme</v>
@@ -15207,14 +15330,14 @@
       <c r="E66">
         <v>1</v>
       </c>
-      <c r="F66">
-        <v>0</v>
+      <c r="F66" t="str">
+        <v>GLD 0.75, USO 0.25</v>
       </c>
       <c r="G66" t="str">
         <v>composite</v>
       </c>
       <c r="H66" t="str">
-        <v>AI</v>
+        <v>GEOPOLITICS</v>
       </c>
       <c r="I66" t="str">
         <v>lognormal</v>
@@ -15225,10 +15348,10 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" t="str">
-        <v>GEOPOLITICS</v>
+        <v>2s10s</v>
       </c>
       <c r="B67" t="str">
-        <v>Theme</v>
+        <v>Rates</v>
       </c>
       <c r="C67" t="str">
         <v>USD</v>
@@ -15239,14 +15362,14 @@
       <c r="E67">
         <v>1</v>
       </c>
-      <c r="F67">
-        <v>0</v>
+      <c r="F67" t="str">
+        <v>SHY -3.86, IEF 1</v>
       </c>
       <c r="G67" t="str">
         <v>composite</v>
       </c>
       <c r="H67" t="str">
-        <v>GEOPOLITICS</v>
+        <v>2s10s</v>
       </c>
       <c r="I67" t="str">
         <v>lognormal</v>
@@ -15257,10 +15380,10 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" t="str">
-        <v>2s10s</v>
+        <v>XLPXLY</v>
       </c>
       <c r="B68" t="str">
-        <v>Rates</v>
+        <v>Equities</v>
       </c>
       <c r="C68" t="str">
         <v>USD</v>
@@ -15271,14 +15394,14 @@
       <c r="E68">
         <v>1</v>
       </c>
-      <c r="F68">
-        <v>0</v>
+      <c r="F68" t="str">
+        <v>Staples/Discretionary</v>
       </c>
       <c r="G68" t="str">
         <v>composite</v>
       </c>
       <c r="H68" t="str">
-        <v>2s10s</v>
+        <v>XLPXLY</v>
       </c>
       <c r="I68" t="str">
         <v>lognormal</v>
@@ -15289,10 +15412,10 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" t="str">
-        <v>XLPXLY</v>
+        <v>TRADEWAR</v>
       </c>
       <c r="B69" t="str">
-        <v>Equities</v>
+        <v>Theme</v>
       </c>
       <c r="C69" t="str">
         <v>USD</v>
@@ -15304,50 +15427,18 @@
         <v>1</v>
       </c>
       <c r="F69" t="str">
-        <v>Staples/Discretionary</v>
+        <v>GLD 0.21, FXY 0.30, FXF 0.37, ^VIX3M -0.04, XLP 0.15, XLY -0.15</v>
       </c>
       <c r="G69" t="str">
         <v>composite</v>
       </c>
       <c r="H69" t="str">
-        <v>XLPXLY</v>
+        <v>TRADEWAR</v>
       </c>
       <c r="I69" t="str">
         <v>lognormal</v>
       </c>
       <c r="J69">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A70" t="str">
-        <v>TRADEWAR</v>
-      </c>
-      <c r="B70" t="str">
-        <v>Theme</v>
-      </c>
-      <c r="C70" t="str">
-        <v>USD</v>
-      </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
-      <c r="E70">
-        <v>1</v>
-      </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-      <c r="G70" t="str">
-        <v>composite</v>
-      </c>
-      <c r="H70" t="str">
-        <v>TRADEWAR</v>
-      </c>
-      <c r="I70" t="str">
-        <v>lognormal</v>
-      </c>
-      <c r="J70">
         <v>1E-4</v>
       </c>
     </row>
@@ -15937,7 +16028,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="str">
-        <v>AI</v>
+        <v>Artificial Intelligence</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -16005,7 +16096,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="str">
-        <v>iShares FTSE United Kingdom ETF</v>
+        <v>FTSE 100</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -16039,7 +16130,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="str">
-        <v>iShares MSCI Canada ETF</v>
+        <v>MSCI Canada</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -16056,7 +16147,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="str">
-        <v>iShares MSCI Italy ETF</v>
+        <v>MSCI Italy</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -16090,7 +16181,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="str">
-        <v>iShares China Large-Cap ETF</v>
+        <v>China Large-Cap</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -16107,7 +16198,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="str">
-        <v>Xtrackers Harvest CSI 300 China A-Shares ETF</v>
+        <v>CSI 300 (China)</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -16124,7 +16215,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="str">
-        <v>KraneShares CSI China Internet ETF</v>
+        <v>CSI China Internet</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -16140,8 +16231,8 @@
       <c r="D33">
         <v>0</v>
       </c>
-      <c r="E33">
-        <v>0</v>
+      <c r="E33" t="str">
+        <v>MSCI EM</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -16208,8 +16299,8 @@
       <c r="D37">
         <v>1</v>
       </c>
-      <c r="E37">
-        <v>0</v>
+      <c r="E37" t="str">
+        <v>Hedged LQD</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -16225,8 +16316,8 @@
       <c r="D38">
         <v>0</v>
       </c>
-      <c r="E38">
-        <v>0</v>
+      <c r="E38" t="str">
+        <v>Hedged HYG</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -16242,8 +16333,8 @@
       <c r="D39">
         <v>0</v>
       </c>
-      <c r="E39">
-        <v>0</v>
+      <c r="E39" t="str">
+        <v>US Agg</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -16259,8 +16350,8 @@
       <c r="D40">
         <v>0</v>
       </c>
-      <c r="E40">
-        <v>0</v>
+      <c r="E40" t="str">
+        <v>CBOE Interest Rate 10 Year</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -16277,7 +16368,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="str">
-        <v>iShares 1-3 Year Treasury Bond ETF</v>
+        <v>1-3 Year Treasury</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -16294,7 +16385,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="str">
-        <v>iShares 3-7 Year Treasury Bond ETF</v>
+        <v>3-7 Year Treasury</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -16311,7 +16402,7 @@
         <v>1</v>
       </c>
       <c r="E43" t="str">
-        <v>iShares 7-10 Year Treasury Bond ETF</v>
+        <v>7-10 Year Treasury</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -16328,7 +16419,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="str">
-        <v>iShares 20+ Year Treasury Bond ETF</v>
+        <v>20+ Year Treasury</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -16361,8 +16452,8 @@
       <c r="D46">
         <v>0</v>
       </c>
-      <c r="E46">
-        <v>0</v>
+      <c r="E46" t="str">
+        <v>Short-Term Inflation-Protected Securities ETF</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -16395,8 +16486,8 @@
       <c r="D48">
         <v>0</v>
       </c>
-      <c r="E48">
-        <v>0</v>
+      <c r="E48" t="str">
+        <v>Mortgage-Backed Securities ETF</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -16412,8 +16503,8 @@
       <c r="D49">
         <v>0</v>
       </c>
-      <c r="E49">
-        <v>0</v>
+      <c r="E49" t="str">
+        <v>iShares CMBS ETF</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -16514,8 +16605,8 @@
       <c r="D55">
         <v>0</v>
       </c>
-      <c r="E55">
-        <v>0</v>
+      <c r="E55" t="str">
+        <v>U.S. Dollar Index</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -16650,8 +16741,8 @@
       <c r="D63">
         <v>1</v>
       </c>
-      <c r="E63">
-        <v>0</v>
+      <c r="E63" t="str">
+        <v>TCW MetWest Total Return Bd I</v>
       </c>
     </row>
   </sheetData>
@@ -20531,7 +20622,7 @@
         <v>86</v>
       </c>
       <c r="D27" t="str">
-        <v>iShares FTSE United Kingdom ETF</v>
+        <v>FTSE 100</v>
       </c>
       <c r="E27" t="str">
         <v>iShares FTSE United Kingdom ETF</v>
@@ -20585,7 +20676,7 @@
         <v>89</v>
       </c>
       <c r="D29" t="str">
-        <v>iShares MSCI Canada ETF</v>
+        <v>MSCI Canada</v>
       </c>
       <c r="E29" t="str">
         <v>iShares MSCI Canada ETF</v>
@@ -20666,7 +20757,7 @@
         <v>93</v>
       </c>
       <c r="D32" t="str">
-        <v>iShares MSCI Italy ETF</v>
+        <v>MSCI Italy</v>
       </c>
       <c r="E32" t="str">
         <v>iShares MSCI Italy ETF</v>
@@ -20696,17 +20787,17 @@
         <v>IBEX 35 (Spain)</v>
       </c>
       <c r="E33" t="str">
-        <v>iShares MSCI Spain ETF</v>
+        <v>IBEX 35 ETF</v>
       </c>
       <c r="F33" t="e">
         <v>#N/A</v>
       </c>
       <c r="G33" s="7"/>
-      <c r="M33" t="b">
-        <v>1</v>
-      </c>
-      <c r="N33" t="str">
-        <v>iShares MSCI Spain ETF</v>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O33" t="str">
         <v>IBEX 35 ETF</v>
@@ -20720,7 +20811,7 @@
         <v>91</v>
       </c>
       <c r="D34" t="str">
-        <v>iShares MSCI Spain ETF</v>
+        <v>MSCI Spain</v>
       </c>
       <c r="E34" t="str">
         <v>iShares MSCI Spain ETF</v>
@@ -20801,7 +20892,7 @@
         <v>80</v>
       </c>
       <c r="D37" t="str">
-        <v>iShares China Large-Cap ETF</v>
+        <v>China Large-Cap</v>
       </c>
       <c r="E37" t="str">
         <v>iShares China Large-Cap ETF</v>
@@ -20828,7 +20919,7 @@
         <v>82</v>
       </c>
       <c r="D38" t="str">
-        <v>Xtrackers Harvest CSI 300 China A-Shares ETF</v>
+        <v>CSI 300 (China)</v>
       </c>
       <c r="E38" t="str">
         <v>Xtrackers Harvest CSI 300 China A-Shares ETF</v>
@@ -20855,7 +20946,7 @@
         <v>400</v>
       </c>
       <c r="D39" t="str">
-        <v>KraneShares CSI China Internet ETF</v>
+        <v>CSI China Internet</v>
       </c>
       <c r="E39" t="str">
         <v>KraneShares CSI China Internet ETF</v>
@@ -20935,8 +21026,8 @@
       <c r="C42" t="s">
         <v>347</v>
       </c>
-      <c r="D42">
-        <v>0</v>
+      <c r="D42" t="str">
+        <v>Hedged LQD</v>
       </c>
       <c r="E42" t="str">
         <v>iShares Interest Rate Hedged Corporate Bond ETF</v>
@@ -20962,8 +21053,8 @@
       <c r="C43" t="s">
         <v>348</v>
       </c>
-      <c r="D43">
-        <v>0</v>
+      <c r="D43" t="str">
+        <v>Hedged HYG</v>
       </c>
       <c r="E43" t="str">
         <v>iShares Interest Rate Hedged High Yield Bond ETF</v>
@@ -20990,7 +21081,7 @@
         <v>51</v>
       </c>
       <c r="D44" t="str">
-        <v>iShares 1-3 Year Treasury Bond ETF</v>
+        <v>1-3 Year Treasury</v>
       </c>
       <c r="E44" t="str">
         <v>iShares 1-3 Year Treasury Bond ETF</v>
@@ -21017,7 +21108,7 @@
         <v>126</v>
       </c>
       <c r="D45" t="str">
-        <v>iShares 3-7 Year Treasury Bond ETF</v>
+        <v>3-7 Year Treasury</v>
       </c>
       <c r="E45" t="str">
         <v>iShares 3-7 Year Treasury Bond ETF</v>
@@ -21044,7 +21135,7 @@
         <v>131</v>
       </c>
       <c r="D46" t="str">
-        <v>iShares 7-10 Year Treasury Bond ETF</v>
+        <v>7-10 Year Treasury</v>
       </c>
       <c r="E46" t="str">
         <v>iShares 7-10 Year Treasury Bond ETF</v>
@@ -21071,7 +21162,7 @@
         <v>49</v>
       </c>
       <c r="D47" t="str">
-        <v>iShares 20+ Year Treasury Bond ETF</v>
+        <v>20+ Year Treasury</v>
       </c>
       <c r="E47" t="str">
         <v>iShares 20+ Year Treasury Bond ETF</v>
@@ -21124,8 +21215,8 @@
       <c r="C49" t="s">
         <v>344</v>
       </c>
-      <c r="D49">
-        <v>0</v>
+      <c r="D49" t="str">
+        <v>Short-Term Inflation-Protected Securities ETF</v>
       </c>
       <c r="E49" t="str">
         <v>Vanguard Short-Term Inflation-Protected Securities ETF</v>
@@ -21232,8 +21323,8 @@
       <c r="C53" t="s">
         <v>346</v>
       </c>
-      <c r="D53">
-        <v>0</v>
+      <c r="D53" t="str">
+        <v>Mortgage-Backed Securities ETF</v>
       </c>
       <c r="E53" t="str">
         <v>Vanguard Mortgage-Backed Securities ETF</v>
@@ -21315,8 +21406,8 @@
       <c r="C56" t="s">
         <v>349</v>
       </c>
-      <c r="D56">
-        <v>0</v>
+      <c r="D56" t="str">
+        <v>iShares JP Morgan EM High Yield Bond ETF</v>
       </c>
       <c r="E56" t="str">
         <v>iShares Emerging Markets High Yield Bond ETF</v>
@@ -21862,7 +21953,9 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -22118,10 +22211,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75C34FC6-78FE-492E-BECF-2EB9A04778A9}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:W31"/>
+  <dimension ref="A1:AG31"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C17" sqref="A17:C22"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22129,9 +22222,11 @@
     <col min="1" max="1" width="15.44140625" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="12" customWidth="1"/>
+    <col min="19" max="19" width="29.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>449</v>
       </c>
@@ -22141,16 +22236,16 @@
       <c r="C1" t="s">
         <v>448</v>
       </c>
-      <c r="D1" t="s">
+      <c r="K1" t="s">
         <v>435</v>
       </c>
-      <c r="E1" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="L1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B2" t="s">
         <v>175</v>
@@ -22158,26 +22253,38 @@
       <c r="C2">
         <v>1.5</v>
       </c>
-      <c r="K2" t="b" cm="1">
-        <f t="array" aca="1" ref="K2:K22" ca="1">composities[portfolio_name]&lt;&gt;OFFSET(composities[portfolio_name],-1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="E2" t="str" cm="1">
+        <f t="array" ref="E2:E22">TEXT(composities[weight],IF(INT(composities[weight]*100)/100=composities[weight],"General","0.00"))</f>
+        <v>1.5</v>
+      </c>
+      <c r="F2" t="str" cm="1">
+        <f t="array" ref="F2:F8">_xlfn.UNIQUE(composities[portfolio_name])</f>
+        <v>ELECTION</v>
+      </c>
+      <c r="G2" t="str" cm="1">
+        <f t="array" ref="G2:G8">_xlfn.BYROW(_xlfn.ANCHORARRAY(F2),_xlfn.LAMBDA(_xlpm.portfolio,_xlfn.TEXTJOIN(", ",,_xlfn.BYROW(_xlfn._xlws.FILTER(_xlfn.HSTACK(composities[factor_name],_xlfn.ANCHORARRAY($E$2)),composities[portfolio_name]=_xlpm.portfolio),_xlfn.LAMBDA(_xlpm.factor,_xlfn.TEXTJOIN(" ",,_xlpm.factor))))))</f>
+        <v>XLF 1.5, ICLN -1, IWM 1.5, FEZ -1</v>
+      </c>
+      <c r="U2" t="b" cm="1">
+        <f t="array" aca="1" ref="U2:U22" ca="1">composities[portfolio_name]&lt;&gt;OFFSET(composities[portfolio_name],-1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AB2" t="s">
         <v>430</v>
       </c>
-      <c r="S2" t="s">
+      <c r="AC2" t="s">
         <v>433</v>
       </c>
-      <c r="V2" t="s">
+      <c r="AF2" t="s">
         <v>421</v>
       </c>
-      <c r="W2" t="s">
+      <c r="AG2" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B3" t="s">
         <v>431</v>
@@ -22185,23 +22292,32 @@
       <c r="C3">
         <v>-1</v>
       </c>
-      <c r="K3" t="b">
+      <c r="E3" t="str">
+        <v>-1</v>
+      </c>
+      <c r="F3" t="str">
+        <v>FED</v>
+      </c>
+      <c r="G3" t="str">
+        <v>SHY 1, BSV 1</v>
+      </c>
+      <c r="U3" t="b">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="AA3" t="s">
         <v>175</v>
       </c>
-      <c r="R3">
-        <v>1</v>
-      </c>
-      <c r="S3" t="s">
+      <c r="AB3">
+        <v>1</v>
+      </c>
+      <c r="AC3" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -22209,26 +22325,35 @@
       <c r="C4">
         <v>1.5</v>
       </c>
-      <c r="K4" t="b">
+      <c r="E4" t="str">
+        <v>1.5</v>
+      </c>
+      <c r="F4" t="str">
+        <v>AI</v>
+      </c>
+      <c r="G4" t="str">
+        <v>AIQ 1, QQQ 0.25, IWM -0.25</v>
+      </c>
+      <c r="U4" t="b">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="AA4" t="s">
         <v>431</v>
       </c>
-      <c r="R4">
+      <c r="AB4">
         <v>-1</v>
       </c>
-      <c r="S4" t="s">
+      <c r="AC4" t="s">
         <v>434</v>
       </c>
-      <c r="T4" t="s">
+      <c r="AD4" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -22236,21 +22361,30 @@
       <c r="C5">
         <v>-1</v>
       </c>
-      <c r="K5" t="b">
+      <c r="E5" t="str">
+        <v>-1</v>
+      </c>
+      <c r="F5" t="str">
+        <v>GEOPOLITICS</v>
+      </c>
+      <c r="G5" t="str">
+        <v>GLD 0.75, USO 0.25</v>
+      </c>
+      <c r="U5" t="b">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="AA5" t="s">
         <v>5</v>
       </c>
-      <c r="R5">
-        <v>1</v>
-      </c>
-      <c r="S5" t="s">
+      <c r="AB5">
+        <v>1</v>
+      </c>
+      <c r="AC5" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>439</v>
       </c>
@@ -22260,21 +22394,30 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="K6" t="b">
+      <c r="E6" t="str">
+        <v>1</v>
+      </c>
+      <c r="F6" t="str">
+        <v>2s10s</v>
+      </c>
+      <c r="G6" t="str">
+        <v>SHY -3.86, IEF 1</v>
+      </c>
+      <c r="U6" t="b">
         <f ca="1"/>
         <v>1</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="AA6" t="s">
         <v>8</v>
       </c>
-      <c r="R6">
+      <c r="AB6">
         <v>-1</v>
       </c>
-      <c r="S6" t="s">
+      <c r="AC6" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>439</v>
       </c>
@@ -22284,24 +22427,33 @@
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="K7" t="b">
+      <c r="E7" t="str">
+        <v>1</v>
+      </c>
+      <c r="F7" t="str">
+        <v>XLPXLY</v>
+      </c>
+      <c r="G7" t="str">
+        <v>XLP 1, XLY -1</v>
+      </c>
+      <c r="U7" t="b">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="AA7" t="s">
         <v>236</v>
       </c>
-      <c r="R7">
-        <v>1</v>
-      </c>
-      <c r="S7" t="s">
+      <c r="AB7">
+        <v>1</v>
+      </c>
+      <c r="AC7" t="s">
         <v>435</v>
       </c>
-      <c r="T7" t="s">
+      <c r="AD7" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>421</v>
       </c>
@@ -22311,27 +22463,36 @@
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="K8" t="b">
+      <c r="E8" t="str">
+        <v>1</v>
+      </c>
+      <c r="F8" t="str">
+        <v>TRADEWAR</v>
+      </c>
+      <c r="G8" t="str">
+        <v>GLD 0.21, FXY 0.30, FXF 0.37, ^VIX3M -0.04, XLP 0.15, XLY -0.15</v>
+      </c>
+      <c r="U8" t="b">
         <f ca="1"/>
         <v>1</v>
       </c>
-      <c r="N8" t="s">
+      <c r="X8" t="s">
         <v>403</v>
       </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-      <c r="Q8" t="s">
+      <c r="Y8">
+        <v>1</v>
+      </c>
+      <c r="AA8" t="s">
         <v>238</v>
       </c>
-      <c r="R8">
+      <c r="AB8">
         <v>-1</v>
       </c>
-      <c r="S8" t="s">
+      <c r="AC8" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>421</v>
       </c>
@@ -22341,24 +22502,27 @@
       <c r="C9">
         <v>0.25</v>
       </c>
-      <c r="K9" t="b">
+      <c r="E9" t="str">
+        <v>0.25</v>
+      </c>
+      <c r="U9" t="b">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="N9" t="s">
+      <c r="X9" t="s">
         <v>7</v>
       </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
-      <c r="Q9" t="s">
+      <c r="Y9">
+        <v>1</v>
+      </c>
+      <c r="AA9" t="s">
         <v>135</v>
       </c>
-      <c r="R9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="AB9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>421</v>
       </c>
@@ -22368,27 +22532,30 @@
       <c r="C10">
         <v>-0.25</v>
       </c>
-      <c r="K10" t="b">
+      <c r="E10" t="str">
+        <v>-0.25</v>
+      </c>
+      <c r="U10" t="b">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="N10" t="s">
+      <c r="X10" t="s">
         <v>5</v>
       </c>
-      <c r="O10">
+      <c r="Y10">
         <v>-1</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="AA10" t="s">
         <v>49</v>
       </c>
-      <c r="R10">
+      <c r="AB10">
         <v>-1</v>
       </c>
-      <c r="T10" t="s">
+      <c r="AD10" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>450</v>
       </c>
@@ -22398,18 +22565,21 @@
       <c r="C11">
         <v>0.75</v>
       </c>
-      <c r="K11" t="b">
+      <c r="E11" t="str">
+        <v>0.75</v>
+      </c>
+      <c r="U11" t="b">
         <f ca="1"/>
         <v>1</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="AA11" t="s">
         <v>403</v>
       </c>
-      <c r="V11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="AF11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>450</v>
       </c>
@@ -22419,18 +22589,21 @@
       <c r="C12">
         <v>0.25</v>
       </c>
-      <c r="K12" t="b">
+      <c r="E12" t="str">
+        <v>0.25</v>
+      </c>
+      <c r="U12" t="b">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="AA12" t="s">
         <v>438</v>
       </c>
-      <c r="V12">
+      <c r="AF12">
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>451</v>
       </c>
@@ -22438,21 +22611,24 @@
         <v>51</v>
       </c>
       <c r="C13">
-        <f>-C14*L14/L13</f>
+        <f>-C14*V14/V13</f>
         <v>-3.8633879781420766</v>
       </c>
-      <c r="K13" t="b">
+      <c r="E13" t="str">
+        <v>-3.86</v>
+      </c>
+      <c r="U13" t="b">
         <f ca="1"/>
         <v>1</v>
       </c>
-      <c r="L13">
+      <c r="V13">
         <v>1.83</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="AA13" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>451</v>
       </c>
@@ -22462,24 +22638,27 @@
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="K14" t="b">
+      <c r="E14" t="str">
+        <v>1</v>
+      </c>
+      <c r="U14" t="b">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="L14">
+      <c r="V14">
         <v>7.07</v>
       </c>
-      <c r="M14">
-        <f>L14/L13</f>
+      <c r="W14">
+        <f>V14/V13</f>
         <v>3.8633879781420766</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="AA14" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B15" t="s">
         <v>182</v>
@@ -22487,23 +22666,32 @@
       <c r="C15" s="8">
         <v>1</v>
       </c>
-      <c r="E15">
+      <c r="D15" s="8"/>
+      <c r="E15" s="8" t="str">
+        <v>1</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="L15">
         <v>3</v>
       </c>
-      <c r="G15" t="s">
-        <v>505</v>
-      </c>
-      <c r="H15">
+      <c r="N15" t="s">
+        <v>504</v>
+      </c>
+      <c r="O15">
         <v>22</v>
       </c>
-      <c r="K15" t="b">
+      <c r="U15" t="b">
         <f ca="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B16" t="s">
         <v>178</v>
@@ -22511,147 +22699,201 @@
       <c r="C16" s="8">
         <v>-1</v>
       </c>
-      <c r="H16">
+      <c r="D16" s="8"/>
+      <c r="E16" s="8" t="str">
+        <v>-1</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="O16">
         <v>16</v>
       </c>
-      <c r="K16" t="b">
+      <c r="U16" t="b">
         <f ca="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B17" t="s">
         <v>57</v>
       </c>
       <c r="C17" s="8" cm="1">
-        <f t="array" ref="C17">E17/D17*$F$17/SUM(ABS(($E$17:$E$21)))</f>
+        <f t="array" ref="C17">L17/K17*$M$17/SUM(ABS(($L$17:$L$21)))</f>
         <v>0.20547945205479451</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="8"/>
+      <c r="E17" s="8" t="str">
+        <v>0.21</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17">
         <v>14.6</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17" s="9">
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17" s="9">
         <v>15</v>
       </c>
-      <c r="J17" cm="1">
-        <f t="array" ref="J17:J20">C17:C20*D17:D20</f>
+      <c r="T17" cm="1">
+        <f t="array" ref="T17:T20">C17:C20*K17:K20</f>
         <v>2.9999999999999996</v>
       </c>
-      <c r="K17" t="b">
+      <c r="U17" t="b">
         <f ca="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B18" t="s">
         <v>72</v>
       </c>
       <c r="C18" s="8">
-        <f>E18/D18*$F$17/COUNT($E$17:$E$21)</f>
+        <f>L18/K18*$M$17/COUNT($L$17:$L$21)</f>
         <v>0.29702970297029702</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="8"/>
+      <c r="E18" s="8" t="str">
+        <v>0.30</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18">
         <v>10.1</v>
       </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="J18">
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="T18">
         <v>2.9999999999999996</v>
       </c>
-      <c r="K18" t="b">
+      <c r="U18" t="b">
         <f ca="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>501</v>
+      </c>
+      <c r="B19" t="s">
+        <v>498</v>
+      </c>
+      <c r="C19" s="8">
+        <f>L19/K19*$M$17/COUNT($L$17:$L$21)</f>
+        <v>0.36585365853658536</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8" t="str">
+        <v>0.37</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>2.9999999999999996</v>
+      </c>
+      <c r="U19" t="b">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
         <v>502</v>
       </c>
-      <c r="B19" t="s">
-        <v>499</v>
-      </c>
-      <c r="C19" s="8">
-        <f>E19/D19*$F$17/COUNT($E$17:$E$21)</f>
-        <v>0.36585365853658536</v>
-      </c>
-      <c r="D19">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <v>2.9999999999999996</v>
-      </c>
-      <c r="K19" t="b">
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>501</v>
+      </c>
+      <c r="B20" t="s">
+        <v>496</v>
+      </c>
+      <c r="C20" s="8">
+        <f>L20/K20*$M$17/COUNT($L$17:$L$21)</f>
+        <v>-3.7499999999999999E-2</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8" t="str">
+        <v>-0.04</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20">
+        <v>80</v>
+      </c>
+      <c r="L20">
+        <v>-1</v>
+      </c>
+      <c r="T20">
+        <v>-3</v>
+      </c>
+      <c r="U20" t="b">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="M19" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>502</v>
-      </c>
-      <c r="B20" t="s">
-        <v>497</v>
-      </c>
-      <c r="C20" s="8">
-        <f>E20/D20*$F$17/COUNT($E$17:$E$21)</f>
-        <v>-3.7499999999999999E-2</v>
-      </c>
-      <c r="D20">
-        <v>80</v>
-      </c>
-      <c r="E20">
-        <v>-1</v>
-      </c>
-      <c r="J20">
-        <v>-3</v>
-      </c>
-      <c r="K20" t="b">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" ref="B21:B22" si="0">B15</f>
         <v>XLP</v>
       </c>
       <c r="C21" s="8">
-        <f>E21/D21*$F$17/COUNT($E$17:$E$21)</f>
+        <f>L21/K21*$M$17/COUNT($L$17:$L$21)</f>
         <v>0.15</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="8"/>
+      <c r="E21" s="8" t="str">
+        <v>0.15</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21">
         <v>20</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="K21" t="b">
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="U21" t="b">
         <f ca="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="0"/>
@@ -22661,122 +22903,199 @@
         <f>-C21</f>
         <v>-0.15</v>
       </c>
-      <c r="K22" t="b">
+      <c r="D22" s="8"/>
+      <c r="E22" s="8" t="str">
+        <v>-0.15</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="U22" t="b">
         <f ca="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C23" s="8"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="N26" t="str">
+        <f>_xlfn.TEXTJOIN(", ",,_xlfn.ANCHORARRAY(N28))</f>
+        <v>XLF, 1.5, ICLN, -1, IWM, 1.5, FEZ, -1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B28" t="s">
         <v>57</v>
       </c>
       <c r="C28" s="8">
-        <f>E28/D28</f>
+        <f>L28/K28</f>
         <v>0.20547945205479454</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28">
         <v>14.6</v>
       </c>
-      <c r="E28">
+      <c r="L28">
         <v>3</v>
       </c>
-      <c r="J28" cm="1">
-        <f t="array" ref="J28:J31">C28:C31*D28:D31</f>
+      <c r="N28" t="str" cm="1">
+        <f t="array" ref="N28:O31">_xlfn._xlws.FILTER(composities[[factor_name]:[weight]],composities[portfolio_name]="ELECTION")</f>
+        <v>XLF</v>
+      </c>
+      <c r="O28">
+        <v>1.5</v>
+      </c>
+      <c r="Q28" t="str" cm="1">
+        <f t="array" ref="Q28:R29">_xlfn._xlws.FILTER(composities[[factor_name]:[weight]],composities[portfolio_name]="2s10s")</f>
+        <v>SHY</v>
+      </c>
+      <c r="R28">
+        <v>-3.8633879781420766</v>
+      </c>
+      <c r="S28" t="str" cm="1">
+        <f t="array" ref="S28">_xlfn.LET(_xlpm.f,_xlfn._xlws.FILTER(composities[[factor_name]:[weight]],composities[portfolio_name]="ELECTION"),_xlfn.TEXTJOIN("; ",,_xlfn.BYROW(_xlpm.f,_xlfn.LAMBDA(_xlpm.row,_xlfn.TEXTJOIN(" ",,_xlpm.row)))))</f>
+        <v>XLF 1.5; ICLN -1; IWM 1.5; FEZ -1</v>
+      </c>
+      <c r="T28" cm="1">
+        <f t="array" ref="T28:T31">C28:C31*K28:K31</f>
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B29" t="s">
         <v>72</v>
       </c>
       <c r="C29" s="8">
-        <f>E29/D29</f>
+        <f>L29/K29</f>
         <v>0.29702970297029702</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29">
         <v>10.1</v>
       </c>
-      <c r="E29">
+      <c r="L29">
         <v>3</v>
       </c>
-      <c r="J29">
+      <c r="N29" t="str">
+        <v>ICLN</v>
+      </c>
+      <c r="O29">
+        <v>-1</v>
+      </c>
+      <c r="Q29" t="str">
+        <v>IEF</v>
+      </c>
+      <c r="R29">
+        <v>1</v>
+      </c>
+      <c r="T29">
         <v>2.9999999999999996</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B30" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C30" s="8">
-        <f>E30/D30</f>
+        <f>L30/K30</f>
         <v>0.36585365853658541</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30">
         <v>8.1999999999999993</v>
       </c>
-      <c r="E30">
+      <c r="L30">
         <v>3</v>
       </c>
-      <c r="J30">
+      <c r="N30" t="str">
+        <v>IWM</v>
+      </c>
+      <c r="O30">
+        <v>1.5</v>
+      </c>
+      <c r="T30">
         <v>3</v>
       </c>
-      <c r="M30" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="W30" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B31" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C31" s="8">
-        <f>E31/D31</f>
+        <f>L31/K31</f>
         <v>-0.1125</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31">
         <v>80</v>
       </c>
-      <c r="E31">
-        <f>-SUM(E28:E30)</f>
+      <c r="L31">
+        <f>-SUM(L28:L30)</f>
         <v>-9</v>
       </c>
-      <c r="J31">
+      <c r="N31" t="str">
+        <v>FEZ</v>
+      </c>
+      <c r="O31">
+        <v>-1</v>
+      </c>
+      <c r="T31">
         <v>-9</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:C14 B15 A15:A16 C15:C16 A28:C31">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>$K2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17:C17 B18:C20 A18:A22 C21">
-    <cfRule type="expression" dxfId="3" priority="1">
-      <formula>$K17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A23:C23">
-    <cfRule type="expression" dxfId="2" priority="23">
-      <formula>$K16</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B21 B22:C22">
-    <cfRule type="expression" dxfId="1" priority="21">
-      <formula>$K19</formula>
+  <conditionalFormatting sqref="A2:C22">
+    <cfRule type="expression" dxfId="1" priority="38">
+      <formula>$Q1048571</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22905,7 +23224,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B15" t="str">
         <v>Currencies</v>

--- a/factor_master.xlsx
+++ b/factor_master.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29011"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bkrai\Source\risk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780C28FC-4A06-46E2-85C7-B7C3FC0CC5CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43EF3926-DEF9-4F30-9E78-DE92A1211D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="4" activeTab="10" xr2:uid="{C31FDC5B-A809-4BFD-99CB-DA02246721F7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="3" activeTab="10" xr2:uid="{C31FDC5B-A809-4BFD-99CB-DA02246721F7}"/>
   </bookViews>
   <sheets>
     <sheet name="legacy" sheetId="5" r:id="rId1"/>
@@ -20,9 +20,9 @@
     <sheet name="read_composites" sheetId="14" r:id="rId5"/>
     <sheet name="composites" sheetId="13" r:id="rId6"/>
     <sheet name="risk_parity" sheetId="20" r:id="rId7"/>
-    <sheet name="Sheet3" sheetId="22" r:id="rId8"/>
-    <sheet name="tradewar" sheetId="23" r:id="rId9"/>
-    <sheet name="tracking" sheetId="21" r:id="rId10"/>
+    <sheet name="tradewar" sheetId="23" r:id="rId8"/>
+    <sheet name="tracking" sheetId="21" r:id="rId9"/>
+    <sheet name="yf_desc" sheetId="24" r:id="rId10"/>
     <sheet name="data" sheetId="3" r:id="rId11"/>
     <sheet name="read_new" sheetId="15" r:id="rId12"/>
     <sheet name="read_tcw" sheetId="17" r:id="rId13"/>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2046" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2426" uniqueCount="683">
   <si>
     <t>SPX</t>
   </si>
@@ -1676,6 +1676,471 @@
   </si>
   <si>
     <t>Hedged LQD</t>
+  </si>
+  <si>
+    <t>Econ</t>
+  </si>
+  <si>
+    <t>UNCERTAINTY</t>
+  </si>
+  <si>
+    <t>fred</t>
+  </si>
+  <si>
+    <t>Economic Policy Uncertainty Index for United States</t>
+  </si>
+  <si>
+    <t>USEPUINDXD</t>
+  </si>
+  <si>
+    <t>shortName</t>
+  </si>
+  <si>
+    <t>longName</t>
+  </si>
+  <si>
+    <t>longBusinessSummary</t>
+  </si>
+  <si>
+    <t>SPDR S&amp;P 500</t>
+  </si>
+  <si>
+    <t>SPDR S&amp;P 500 ETF</t>
+  </si>
+  <si>
+    <t>The trust seeks to achieve its investment objective by holding a portfolio of the common stocks that are included in the index, with the weight of each stock in the portfolio substantially corresponding to the weight of such stock in the index.</t>
+  </si>
+  <si>
+    <t>The fund generally invests at least 80% of its assets in the component securities of its underlying index and in investments that have economic characteristics that are substantially identical to the component securities of its underlying index (i.e., depositary receipts representing securities of the underlying index) and may invest up to 20% of its assets in certain futures, options and swap contracts, cash and cash equivalents.</t>
+  </si>
+  <si>
+    <t>SPDR S&amp;P MIDCAP 400 ETF Trust</t>
+  </si>
+  <si>
+    <t>The Trust seeks to achieve its investment objective by holding a portfolio of the common stocks that are included in the index (the “Portfolio”), with the weight of each stock in the Portfolio substantially corresponding to the weight of such stock in the index.</t>
+  </si>
+  <si>
+    <t>Invesco S&amp;P 500 Equal Weight ET</t>
+  </si>
+  <si>
+    <t>Invesco S&amp;P 500 Equal Weight ETF</t>
+  </si>
+  <si>
+    <t>The fund generally will invest at least 90% of its total assets in securities that comprise the underlying index. Strictly in accordance with its guidelines and mandated procedures, the index provider compiles, maintains and calculates the underlying index, which consists of all of the of the S&amp;P 500® Index.</t>
+  </si>
+  <si>
+    <t>Invesco QQQ Trust, Series 1</t>
+  </si>
+  <si>
+    <t>To maintain the correspondence between the composition and weights of the securities in the trust (the "securities") and the stocks in the NASDAQ-100 Index®, the adviser adjusts the securities from time to time to conform to periodic changes in the identity and/or relative weights of index securities. The composition and weighting of the securities portion of a portfolio deposit are also adjusted to conform to changes in the index.</t>
+  </si>
+  <si>
+    <t>SPDR Dow Jones Industrial Avera</t>
+  </si>
+  <si>
+    <t>The Trust’s Portfolio consists of substantially all of the component common stocks that comprise the DJIA, which are weighted in accordance with the terms of the Trust Agreement.</t>
+  </si>
+  <si>
+    <t>SPDR Select Sector Fund - Techn</t>
+  </si>
+  <si>
+    <t>The Technology Select Sector SPDR Fund</t>
+  </si>
+  <si>
+    <t>In seeking to track the performance of the index, the fund employs a replication strategy, which means that the fund typically invests in substantially all of the securities represented in the index in approximately the same proportions as the index. It generally invests substantially all, but at least 95%, of its total assets in the securities comprising the index. The fund is non-diversified.</t>
+  </si>
+  <si>
+    <t>SPDR Select Sector Fund - Indus</t>
+  </si>
+  <si>
+    <t>The Industrial Select Sector SPDR Fund</t>
+  </si>
+  <si>
+    <t>Under normal market conditions, the fund generally invests substantially all, but at least 95%, of its total assets in the securities comprising the index. The index includes companies that have been identified as Industrial companies by the Global Industry Classification Standard, including securities of companies from the following industries: aerospace and defense; industrial conglomerates; marine transportation. It is non-diversified.</t>
+  </si>
+  <si>
+    <t>SPDR Select Sector Fund - Finan</t>
+  </si>
+  <si>
+    <t>The Financial Select Sector SPDR Fund</t>
+  </si>
+  <si>
+    <t>The fund generally invests substantially all, but at least 95%, of its total assets in the securities comprising the index. The index includes companies that have been identified as Financial companies by the Global Industry Classification Standard, including securities of companies from the following industries: financial services; insurance; banks; capital markets; mortgage real estate investment trusts; and consumer finance. The fund is non-diversified.</t>
+  </si>
+  <si>
+    <t>In seeking to track the performance of the S&amp;P Regional Banks Select Industry Index (the "index"), the fund employs a sampling strategy. It generally invests substantially all, but at least 80%, of its total assets in the securities comprising the index. The index represents the regional banks segment of the S&amp;P Total Market Index ("S&amp;P TMI").</t>
+  </si>
+  <si>
+    <t>The Communication Services Sele</t>
+  </si>
+  <si>
+    <t>The Communication Services Select Sector SPDR ETF Fund</t>
+  </si>
+  <si>
+    <t>Normally, the fund generally invests substantially all, but at least 95%, of its total assets in the securities comprising the index. The index includes companies that have been identified as Communication Services companies by the GICS®, including securities of companies from the following industries: diversified telecommunication services; wireless telecommunication services; media; entertainment; and interactive media &amp; services. The fund is non-diversified.</t>
+  </si>
+  <si>
+    <t>SPDR Select Sector Fund - Energ</t>
+  </si>
+  <si>
+    <t>The Energy Select Sector SPDR Fund</t>
+  </si>
+  <si>
+    <t>In seeking to track the performance of the index, the fund employs a replication strategy. It generally invests substantially all, but at least 95%, of its total assets in the securities comprising the index. The index includes companies that have been identified as Energy companies by the GICS®, including securities of companies from the following industries: oil, gas and consumable fuels; and energy equipment and services. It is non-diversified.</t>
+  </si>
+  <si>
+    <t>SPDR Select Sector Fund - Consu</t>
+  </si>
+  <si>
+    <t>The Consumer Discretionary Select Sector SPDR Fund</t>
+  </si>
+  <si>
+    <t>The Advisor employs a replication strategy. The fund generally invests substantially all, but at least 95%, of its total assets in the securities comprising the index. The index includes companies that have been identified as Consumer Discretionary companies by the Global Industry Classification Standard (GICS®). It is non-diversified.</t>
+  </si>
+  <si>
+    <t>Materials Select Sector SPDR</t>
+  </si>
+  <si>
+    <t>The Materials Select Sector SPDR Fund</t>
+  </si>
+  <si>
+    <t>In seeking to track the performance of the index, the fund employs a replication strategy. It generally invests substantially all, but at least 95%, of its total assets in the securities comprising the index. The index includes securities of companies from the following industries: chemicals; metals and mining; paper and forest products; containers and packaging; and construction materials. The fund is non-diversified.</t>
+  </si>
+  <si>
+    <t>SPDR Select Sector Fund - Healt</t>
+  </si>
+  <si>
+    <t>The Health Care Select Sector SPDR Fund</t>
+  </si>
+  <si>
+    <t>In seeking to track the performance of the index, the fund employs a replication strategy. It generally invests substantially all, but at least 95%, of its total assets in the securities comprising the index. The index includes companies from the following industries: pharmaceuticals; health care equipment &amp; supplies; health care providers &amp; services; biotechnology; life sciences tools &amp; services; and health care technology. The fund is non-diversified.</t>
+  </si>
+  <si>
+    <t>SPDR Select Sector Fund - Utili</t>
+  </si>
+  <si>
+    <t>The Utilities Select Sector SPDR Fund</t>
+  </si>
+  <si>
+    <t>In seeking to track the performance of the index, the fund employs a replication strategy. It generally invests substantially all, but at least 95%, of its total assets in the securities comprising the index. The index includes securities of companies from the following industries: electric utilities; water utilities; multi-utilities; independent power and renewable electricity producers; and gas utilities. The fund is non-diversified.</t>
+  </si>
+  <si>
+    <t>The Consumer Staples Select Sector SPDR Fund</t>
+  </si>
+  <si>
+    <t>In seeking to track the performance of the index, the fund employs a replication strategy. It generally invests substantially all, but at least 95%, of its total assets in the securities comprising the index. The index includes companies that have been identified as Consumer Staples companies by the GICS®. It is non-diversified.</t>
+  </si>
+  <si>
+    <t>The fund seeks to track the investment results of the Dow Jones U.S. Real Estate Capped Index, which measures the performance of the real estate sector of the U.S. equity market, as defined by the "index provider". It generally invests at least 80% of its assets in the component securities of its underlying index and in investments that have economic characteristics that are substantially identical to the component securities of its underlying index.</t>
+  </si>
+  <si>
+    <t>Vanguard Real Estate Index Fund ETF Shares</t>
+  </si>
+  <si>
+    <t>The advisor attempts to track the index by investing all, or substantially all, of its assets-either directly or indirectly through a wholly owned subsidiary, which is itself a registered investment company-in the stocks that make up the index, holding each stock in approximately the same proportion as its weighting in the index. The fund is non-diversified.</t>
+  </si>
+  <si>
+    <t>Global X Artificial Intelligenc</t>
+  </si>
+  <si>
+    <t>The fund invests at least 80% of its total assets in the securities of the underlying index. The underlying index is designed to track the performance of companies involved in the development and utilization of artificial intelligence ("AI") and big data. The fund is non-diversified.</t>
+  </si>
+  <si>
+    <t>iShares Global Clean Energy ETF</t>
+  </si>
+  <si>
+    <t>The index is designed to track the performance of approximately 100 clean energy-related companies. The fund generally invests at least 80% of its assets in the component securities of the index and in investments that have economic characteristics that are substantially identical to the component securities of the index and may invest up to 20% of its assets in certain futures, options and swap contracts, cash and cash equivalents, as well as in securities not included in the index. It is non-diversified.</t>
+  </si>
+  <si>
+    <t>iShares Preferred and Income Se</t>
+  </si>
+  <si>
+    <t>The fund may invest at least 80% of its assets in the component securities of its underlying index and and may invest up to 20% of its assets in certain futures, options and swap contracts, cash and cash equivalents.</t>
+  </si>
+  <si>
+    <t>SPDR DJ Euro STOXX 50 Etf</t>
+  </si>
+  <si>
+    <t>The fund employs a sampling strategy, which means that the fund is not required to purchase all of the securities represented in the index. It generally invests substantially all, but at least 80%, of its total assets in the securities comprising the index. The index is a market capitalization weighted index designed to represent the performance of some of the largest companies across components of the 20 EURO STOXX Supersector Indexes. The EURO STOXX Supersector Indexes are subsets of the EURO STOXX Index.</t>
+  </si>
+  <si>
+    <t>iShares MSCI</t>
+  </si>
+  <si>
+    <t>iShares MSCI United Kingdom ETF</t>
+  </si>
+  <si>
+    <t>The fund generally will invest at least 80% of its assets in the component securities of its underlying index and in investments that have economic characteristics that are substantially identical to the component securities of its underlying index. The underlying index is designed to measure the performance of the large- and mid-capitalization segments of the UK market. The fund is non-diversified.</t>
+  </si>
+  <si>
+    <t>Global X DAX Germany ETF</t>
+  </si>
+  <si>
+    <t>The fund invests at least 80% of its total assets in the securities of the underlying index and in American Depositary Receipts ("ADRs") and Global Depositary Receipts ("GDRs") based on the securities in the underlying index. The index tracks the segment of the largest and most actively traded companies - known as blue chips - on the German equities market. The fund is non-diversified.</t>
+  </si>
+  <si>
+    <t>iShares MSCI Canada Index Fund</t>
+  </si>
+  <si>
+    <t>The fund generally will invest at least 80% of its assets in the component securities of its underlying index and in investments that have economic characteristics that are substantially identical to the component securities of its underlying index. The underlying index is designed to measure broad-based equity performance in Canada. The underlying index includes large- and mid-capitalization companies and may change over time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iShares Inc iShares MSCI Italy </t>
+  </si>
+  <si>
+    <t>The fund generally will invest at least 80% of its assets in the component securities of its underlying index and in investments that have economic characteristics that are substantially identical to the component securities of its underlying index. The underlying index is a free float-adjusted market capitalization-weighted index that is designed to measure the performance of the large- and mid-capitalization segments of the equity market in Italy. The fund is non-diversified.</t>
+  </si>
+  <si>
+    <t>The fund generally will invest at least 80% of its assets in the component securities of its underlying index and in investments that have economic characteristics that are substantially identical to the component securities of its underlying index. The index designed to measure the performance of the largest companies in the Chinese equity market that trade on the Stock Exchange of Hong Kong and are available to international investors. The fund is non-diversified.</t>
+  </si>
+  <si>
+    <t>Xtrackers Harvest CSI 300 China</t>
+  </si>
+  <si>
+    <t>The fund will normally invest at least 80% of its total assets in securities of issuers that comprise the underlying index. The underlying index is designed to reflect the price fluctuation and performance of the China A-Share market and is composed of the 300 largest and most liquid stocks in the China A-Share market. The underlying index includes small-cap, mid-cap, and large-cap stocks. It is non-diversified.</t>
+  </si>
+  <si>
+    <t>KraneShares Trust KraneShares C</t>
+  </si>
+  <si>
+    <t>The fund will invest at least 80% of its net assets in instruments in its underlying index or in instruments that have economic characteristics similar to those in the underlying index. The index is designed to measure the equity market performance of investable publicly traded "China-based companies" whose primary business or businesses are in the Internet and Internet-related sectors, and are listed outside of Mainland China, as determined by the index provider. The fund is non-diversified.</t>
+  </si>
+  <si>
+    <t>iShares MSCI Emerging Index Fun</t>
+  </si>
+  <si>
+    <t>The fund generally will invest at least 80% of its assets in the component securities of its underlying index and in investments that have economic characteristics that are substantially identical to the component securities of its underlying index. The index is designed to measure equity market performance in the global emerging markets. The underlying index includes large- and mid-capitalization companies and may change over time.</t>
+  </si>
+  <si>
+    <t>iShares iBoxx $ Investment Grad</t>
+  </si>
+  <si>
+    <t>The fund will invest at least 80% of its assets in the component securities of the underlying index, and it will invest at least 90% of its assets in fixed income securities of the types included in the underlying index that the advisor believes will help the fund track the underlying index. The underlying index is designed to provide a broad representation of the U.S. dollar-denominated liquid investment-grade corporate bond market.</t>
+  </si>
+  <si>
+    <t>Vanguard Short-Term Bond ETF</t>
+  </si>
+  <si>
+    <t>Vanguard Short-Term Bond Index Fund ETF Shares</t>
+  </si>
+  <si>
+    <t>This index includes all medium and larger issues of U.S. government, investment-grade corporate, and investment-grade international dollar-denominated bonds that have maturities between 1 and 5 years and are publicly issued. All of the fund's investments will be selected through the sampling process, and at least 80% of its assets will be invested in bonds held in the index.</t>
+  </si>
+  <si>
+    <t>iShares iBoxx $ High Yield Corp</t>
+  </si>
+  <si>
+    <t>The underlying index is a rules-based index consisting of U.S. dollar-denominated, high yield corporate bonds for sale in the U.S. The fund will invest at least 80% of its assets in the component securities of the underlying index, and the fund will invest at least 90% of its assets in fixed income securities of the types included in the underlying index that the advisor believes will help the fund track the underlying index.</t>
+  </si>
+  <si>
+    <t>iShares Interest Rate Hedged Co</t>
+  </si>
+  <si>
+    <t>The index is designed to minimize the interest-rate risk exposure of a portfolio composed of U.S. dollar-denominated, investment grade bonds, represented in the index by the underlying fund, by including a series of up to 10 interest rate swap contracts with different maturities. The fund invests, under normal circumstances, at least 80% of its net assets, plus the amount of any borrowings for investment purposes, in component securities and instruments in the index and/or bonds included in the underlying index of the underlying fund.</t>
+  </si>
+  <si>
+    <t>iShares Interest Rate Hedged Hi</t>
+  </si>
+  <si>
+    <t>The fund seeks to track the investment results of the underlying index, which is designed to minimize the interest-rate risk of a portfolio composed of U.S. dollar-denominated, high yield corporate bonds, represented in the underlying index by the underlying fund. It invests at least 80% of its net assets in component securities and instruments in the fund’s underlying index.</t>
+  </si>
+  <si>
+    <t>iShares Core U.S. Aggregate Bon</t>
+  </si>
+  <si>
+    <t>iShares Core U.S. Aggregate Bond ETF</t>
+  </si>
+  <si>
+    <t>The index measures the performance of the total U.S. investment-grade bond market. The fund will invest at least 80% of its assets in the component securities of the underlying index and TBAs that have economic characteristics that are substantially identical to the economic characteristics of the component securities of the underlying index, and the fund will invest at least 90% of its assets in fixed income securities of the types included in the underlying index that the advisor believes will help the fund track the underlying index.</t>
+  </si>
+  <si>
+    <t>CBOE Interest Rate 10 Year T No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iShares 1-3 Year Treasury Bond </t>
+  </si>
+  <si>
+    <t>The fund will invest at least 80% of its assets in the component securities of the underlying index and it will invest at least 90% of its assets in U.S. Treasury securities that BFA believes will help the fund track the underlying index. The underlying index measures the performance of public obligations of the U.S. Treasury that have a remaining maturity of greater than or equal to one year and less than three years.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iShares 3-7 Year Treasury Bond </t>
+  </si>
+  <si>
+    <t>The index measures the performance of public obligations of the U.S. Treasury that have a remaining maturity of greater than or equal to three years and less than seven years. The fund will invest at least 80% of its assets in the component securities of the index, and the fund will invest at least 90% of its assets in U.S. Treasury securities that BFA believes will help the fund track the index.</t>
+  </si>
+  <si>
+    <t>iShares 7-10 Year Treasury Bond</t>
+  </si>
+  <si>
+    <t>The underlying index measures the performance of public obligations of the U.S. Treasury that have a remaining maturity of greater than or equal to seven years and less than ten years. The fund will invest at least 80% of its assets in the component securities of the underlying index, and the fund will invest at least 90% of its assets in U.S. Treasury securities that the advisor believes will help the fund track the underlying index.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iShares 20+ Year Treasury Bond </t>
+  </si>
+  <si>
+    <t>The fund will invest at least 80% of its assets in the component securities of the underlying index, and it will invest at least 90% of its assets in U.S. Treasury securities that the advisor believes will help the fund track the underlying index. The underlying index measures the performance of public obligations of the U.S. Treasury that have a remaining maturity greater than or equal to twenty years.</t>
+  </si>
+  <si>
+    <t>The index tracks the performance of inflation-protected public obligations of the U.S. Treasury, commonly known as “TIPS,” that have a remaining maturity of more than one year. The fund will invest at least 80% of its assets in the component securities of the index, and it will invest at least 90% of its assets in U.S. Treasury securities that BFA believes will help the fund track the index.</t>
+  </si>
+  <si>
+    <t>Vanguard Short-Term Inflation-P</t>
+  </si>
+  <si>
+    <t>Vanguard Short-Term Inflation-Protected Securities Index Fund ETF Shares</t>
+  </si>
+  <si>
+    <t>The index is a market-capitalization-weighted index that includes all inflation-protected public obligations issued by the U.S. Treasury with remaining maturities of less than 5 years.</t>
+  </si>
+  <si>
+    <t>AGNC Investment Corp. provides private capital to housing market in the United States. The company invests in residential mortgage pass-through securities and collateralized mortgage obligations for which the principal and interest payments are guaranteed by the United States government-sponsored enterprise or by the United States government agency. It qualifies as a real estate investment trust for federal income tax purposes. The company generally would not be subject to federal or state corporate income taxes if it distributes at least 90% of its taxable income to its stockholders. The company was formerly known as American Capital Agency Corp. and changed its name to AGNC Investment Corp. in September 2016. AGNC Investment Corp. was incorporated in 2008 and is headquartered in Bethesda, Maryland.</t>
+  </si>
+  <si>
+    <t>Vanguard Mortgage-Backed Securi</t>
+  </si>
+  <si>
+    <t>Vanguard Mortgage-Backed Securities Index Fund ETF Shares</t>
+  </si>
+  <si>
+    <t>The fund employs an indexing investment approach designed to track the performance of the Bloomberg U.S. MBS Float Adjusted Index. This index covers U.S. agency mortgage-backed pass-through securities issued by the GNMA, the FNMA, and the FHLMC. To be included in the index, pool aggregates must have at least $1 billion currently outstanding and a weighted average maturity of at least 1 year. All of the fund's investments will be selected through the sampling process, and at least 80% of the fund's assets will be invested in bonds included in the index.</t>
+  </si>
+  <si>
+    <t>iShares CMBS Bond ETF</t>
+  </si>
+  <si>
+    <t>The index measures the performance of investment-grade commercial mortgage-backed securities ("CMBS"), which are classes of securities (known as "certificates") that represent interests in "pools" of commercial mortgages. The fund will invest at least 80% of its assets in the component securities of the underlying index, and it will invest at least 90% of its assets in fixed income securities of the types included in the underlying index that BFA believes will help the fund track the underlying index.</t>
+  </si>
+  <si>
+    <t>iShares J.P. Morgan USD Emergin</t>
+  </si>
+  <si>
+    <t>The fund will invest at least 80% of its assets in the component securities of the underlying index and will invest at least 90% of its assets in fixed income securities of the types included in the underlying index. The index is a broad, diverse U.S. dollar-denominated emerging markets debt benchmark that tracks the total return of actively traded external debt instruments in emerging market countries.</t>
+  </si>
+  <si>
+    <t>SPDR Gold Trust</t>
+  </si>
+  <si>
+    <t>The Trust holds gold bars and from time to time, issues Baskets in exchange for deposits of gold and distributes gold in connection with redemptions of Baskets. The investment objective of the Trust is for the Shares to reflect the performance of the price of gold bullion, less the Trust’s expenses. The Sponsor believes that, for many investors, the Shares represent a cost-effective investment in gold.</t>
+  </si>
+  <si>
+    <t>The Trust seeks to reflect such performance before payment of the Trust's expenses and liabilities. It is not actively managed. The Trust does not engage in any activities designed to obtain a profit from, or to ameliorate losses caused by, changes in the price of silver.</t>
+  </si>
+  <si>
+    <t>United States Oil Fund, LP</t>
+  </si>
+  <si>
+    <t>USO invests primarily in futures contracts for light, sweet crude oil, other types of crude oil, diesel-heating oil, gasoline, natural gas, and other petroleum-based fuels.</t>
+  </si>
+  <si>
+    <t>Invesco DB USD Index Bullish Fu</t>
+  </si>
+  <si>
+    <t>The fund invests in futures contracts in an attempt to track its index. The index is calculated to reflect the changes in market value over time, whether positive or negative, of long positions in DX Contracts.</t>
+  </si>
+  <si>
+    <t>ICE US Dollar Index - Index - C</t>
+  </si>
+  <si>
+    <t>US Dollar Index</t>
+  </si>
+  <si>
+    <t>Invesco CurrencyShares Euro Cur</t>
+  </si>
+  <si>
+    <t>Invesco CurrencyShares Euro Currency Trust</t>
+  </si>
+  <si>
+    <t>Invesco CurrencyShares Japanese</t>
+  </si>
+  <si>
+    <t>The fund seeks to reflect the price in USD of the Japanese Yen. The sponsor believes that, for many investors, the shares represent a cost-effective investment relative to traditional means of investing in the foreign exchange market.</t>
+  </si>
+  <si>
+    <t>Invesco CurrencyShares Swiss Fr</t>
+  </si>
+  <si>
+    <t>The fund seeks to reflect the price of the Swiss Franc. The sponsor believes that, for many investors, the shares represent a cost-effective investment relative to traditional means of investing in the foreign exchange market.</t>
+  </si>
+  <si>
+    <t>iPath Series B S&amp;P 500 VIX Shor</t>
+  </si>
+  <si>
+    <t>iPath Series B S&amp;P 500 VIX Short-Term Futures ETN</t>
+  </si>
+  <si>
+    <t>The ETN offers exposure to futures contracts of specified maturities on the VIX index and not direct exposure to the VIX index or its spot level. The index is designed to provide investors with exposure to one or more maturities of futures contracts on the CBOE Volatility Index®.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>long_name_yf</t>
+  </si>
+  <si>
+    <t>short_name_yf</t>
+  </si>
+  <si>
+    <t>summary_yf</t>
+  </si>
+  <si>
+    <t>FTSE MIB Index</t>
+  </si>
+  <si>
+    <t>Camden National Corporation</t>
+  </si>
+  <si>
+    <t>Camden National Corporation operates as the bank holding company for Camden National Bank that provides various commercial and consumer banking products and services for consumer, institutional, municipal, non-profit, and commercial customers in the United States. The company accepts checking, savings, time, and brokered deposits, as well as deposits with the certificate of deposit account registry system. Its loan products include non-owner-occupied commercial real estate loans; owner-occupied commercial real estate loans; commercial loans; residential real estate loans, including one- to four-family residences; and consumer and home equity loans. In addition, the company provides brokerage and insurance services through its financial offerings consisting of college, retirement, estate planning, mutual funds, strategic asset management accounts, and variable and fixed annuities. Further, it offers a range of fiduciary and asset management, wealth management, investment management and advisory, financial planning, and trustee services. Camden National Corporation was founded in 1875 and is headquartered in Camden, Maine.</t>
+  </si>
+  <si>
+    <t>IBEX 35...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iShares Inc iShares MSCI Spain </t>
+  </si>
+  <si>
+    <t>The fund generally will invest at least 80% of its assets in the component securities of its underlying index and in investments that have economic characteristics that are substantially identical to the component securities of its underlying index. The index is a free float-adjusted market capitalization-weighted index that is designed to measure the performance of the large- and mid-capitalization segments of the equity market in Spain. The fund is non-diversified.</t>
+  </si>
+  <si>
+    <t>The fund will invest at least 80% of its assets in the component securities of the underlying index and TBAs that have economic characteristics that are substantially identical to the economic characteristics of the component securities of the index, and the fund will invest at least 90% of its assets in fixed income securities of the types included in the underlying index that BFA believes will help the fund track the index.</t>
+  </si>
+  <si>
+    <t>iShares J.P. Morgan EM High Yie</t>
+  </si>
+  <si>
+    <t>iShares J.P. Morgan EM High Yield Bond ETF</t>
+  </si>
+  <si>
+    <t>The fund will invest at least 80% of its assets in the component securities of the underlying index, and the fund will invest at least 90% of its assets in fixed income securities of the types included in the underlying index that BFA believes will help the fund track the underlying index. The index tracks the performance of below investment-grade U.S. dollar-denominated, emerging market fixed and floating-rate debt securities issued by corporate, sovereign, and quasi-sovereign entities.</t>
+  </si>
+  <si>
+    <t>WisdomTree Emerging Currency St</t>
+  </si>
+  <si>
+    <t>WisdomTree Emerging Currency Strategy Fund</t>
+  </si>
+  <si>
+    <t>The fund will invest, under normal circumstances, at least 80% of its net assets, plus the amount of any borrowings for investment purposes, in investments whose combined performance is tied economically to selected emerging market countries. It generally will maintain a weighted average portfolio maturity of 90 days or less with respect to the money market securities in its portfolio. The fund is non-diversified.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iShares International Treasury </t>
+  </si>
+  <si>
+    <t>iShares International Treasury Bond ETF</t>
+  </si>
+  <si>
+    <t>The fund will invest at least 80% of its assets in the component securities of the underlying index and will invest at least 90% of its assets in fixed income securities of the types included in the underlying index. The underlying index measures the performance of fixed-rate, local currency, investment-grade, sovereign bonds from certain developed markets. The fund is non-diversified.</t>
+  </si>
+  <si>
+    <t>Invesco DB Commodity Index Trac</t>
+  </si>
+  <si>
+    <t>The fund pursues its investment objective by investing in a portfolio of exchange-traded futures on Light Sweet Crude Oil (WTI), Heating Oil, RBOB Gasoline, Natural Gas, Brent Crude, Gold, Silver, Aluminum, Zinc, Copper Grade A, Corn, Wheat, Soybeans, and Sugar. The index is composed of notional amounts of each of these commodities.</t>
+  </si>
+  <si>
+    <t>^EVZ,92169,0</t>
   </si>
 </sst>
 </file>
@@ -1765,7 +2230,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1810,31 +2275,12 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1906,6 +2352,10 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2065,8 +2515,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B096ECD9-9D11-4532-B7BB-C59C7AF13EE1}" name="composities" displayName="composities" ref="A1:C22" totalsRowShown="0">
-  <autoFilter ref="A1:C22" xr:uid="{B096ECD9-9D11-4532-B7BB-C59C7AF13EE1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B096ECD9-9D11-4532-B7BB-C59C7AF13EE1}" name="composities" displayName="composities" ref="A1:C24" totalsRowShown="0">
+  <autoFilter ref="A1:C24" xr:uid="{B096ECD9-9D11-4532-B7BB-C59C7AF13EE1}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{871951C6-7319-4AA1-8565-79E8F38A5ACE}" name="portfolio_name"/>
     <tableColumn id="2" xr3:uid="{FF366C7B-7C4B-413F-92EE-C488EBE75CC9}" name="factor_name"/>
@@ -2077,8 +2527,22 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6DAD1482-C63D-400D-9F51-F22A8E35CAD8}" name="data" displayName="data" ref="A1:Q87" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
-  <tableColumns count="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0658964F-7C40-4BD8-BB87-CC3332134B63}" name="yf_desc" displayName="yf_desc" ref="A1:E76" totalsRowShown="0">
+  <autoFilter ref="A1:E76" xr:uid="{0658964F-7C40-4BD8-BB87-CC3332134B63}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{4E84ECC4-B34E-4FFC-B6C9-B8BA42783959}" name="ticker"/>
+    <tableColumn id="2" xr3:uid="{D4972B36-6789-4F92-8304-07BBC9178971}" name="shortName"/>
+    <tableColumn id="3" xr3:uid="{8E686B16-1DCA-416A-9ADD-1AD0560FD4D0}" name="longName"/>
+    <tableColumn id="4" xr3:uid="{976881BC-5D86-4C89-908C-525746AD3386}" name="longBusinessSummary"/>
+    <tableColumn id="5" xr3:uid="{17BE55CE-84EC-4E72-938B-0C3E2B64494B}" name="Column1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6DAD1482-C63D-400D-9F51-F22A8E35CAD8}" name="data" displayName="data" ref="A1:T88" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
+  <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{740DC173-AAC9-4239-A44E-C43F8517304D}" name="asset_class" dataDxfId="34"/>
     <tableColumn id="2" xr3:uid="{A3BC3BB8-0420-458E-AECD-FD567519FA40}" name="region" dataDxfId="33"/>
     <tableColumn id="3" xr3:uid="{0E50B2E3-0362-41DB-ACC2-478CC6F618A4}" name="factor_name" dataDxfId="32"/>
@@ -2090,36 +2554,45 @@
     <tableColumn id="37" xr3:uid="{DE50B7AE-5F67-471C-BE48-8BFA5076EDB0}" name="hyper_factor" dataDxfId="26"/>
     <tableColumn id="10" xr3:uid="{494805E4-EBB6-47FD-9BC2-8DAD9FB9D3FA}" name="composite" dataDxfId="25"/>
     <tableColumn id="14" xr3:uid="{608FE572-4016-436E-8625-08926F3A2371}" name="client" dataDxfId="24"/>
-    <tableColumn id="9" xr3:uid="{5A601067-D384-419C-A711-AD3034F77E28}" name="description" dataDxfId="7">
+    <tableColumn id="9" xr3:uid="{5A601067-D384-419C-A711-AD3034F77E28}" name="description" dataDxfId="23">
       <calculatedColumnFormula array="1">_xlfn.IFS(data[[#This Row],[description_override]]&lt;&gt;"",data[[#This Row],[description_override]],data[[#This Row],[Description_GPT]]&lt;&gt;"",data[[#This Row],[Description_GPT]],data[[#This Row],[Underlying]]&lt;&gt;"",data[[#This Row],[Underlying]],TRUE,"-")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{C400A641-F032-4829-A2CD-62831D657B37}" name="source" dataDxfId="23"/>
-    <tableColumn id="12" xr3:uid="{BC682952-ADA8-4869-A16F-B9E7BC86E430}" name="diffusion_type" dataDxfId="22"/>
-    <tableColumn id="16" xr3:uid="{A99CC35E-FB67-451C-BF9C-DA8D933B1B0C}" name="multiplier" dataDxfId="21">
+    <tableColumn id="11" xr3:uid="{C400A641-F032-4829-A2CD-62831D657B37}" name="source" dataDxfId="22"/>
+    <tableColumn id="12" xr3:uid="{BC682952-ADA8-4869-A16F-B9E7BC86E430}" name="diffusion_type" dataDxfId="21"/>
+    <tableColumn id="16" xr3:uid="{A99CC35E-FB67-451C-BF9C-DA8D933B1B0C}" name="multiplier" dataDxfId="20">
       <calculatedColumnFormula array="1">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{64EF0381-B0C5-4226-B34E-0F9752A4A840}" name="ticker" dataDxfId="20">
+    <tableColumn id="13" xr3:uid="{64EF0381-B0C5-4226-B34E-0F9752A4A840}" name="ticker" dataDxfId="19">
       <calculatedColumnFormula>data[[#This Row],[factor_name]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{D49341AB-DA48-473E-8CCB-3A3D04AED743}" name="note" dataDxfId="19"/>
+    <tableColumn id="18" xr3:uid="{073BDADC-3AC0-4FF9-9654-A316B2345A90}" name="short_name_yf" dataDxfId="4">
+      <calculatedColumnFormula>_xlfn.XLOOKUP(data[[#This Row],[ticker]],yf_desc[ticker],yf_desc[shortName],"-")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="19" xr3:uid="{3A563104-B6B0-465C-9D22-154F5FEA1B83}" name="long_name_yf" dataDxfId="6">
+      <calculatedColumnFormula>_xlfn.XLOOKUP(data[[#This Row],[ticker]],yf_desc[ticker],yf_desc[longName],"-")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="17" xr3:uid="{A3F200A1-E769-49BA-8121-88EAA1180E80}" name="summary_yf" dataDxfId="5">
+      <calculatedColumnFormula>_xlfn.XLOOKUP(data[[#This Row],[ticker]],yf_desc[ticker],yf_desc[longBusinessSummary],"-")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" xr3:uid="{D49341AB-DA48-473E-8CCB-3A3D04AED743}" name="note" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F918301C-859F-40B7-9C3E-90E8F0495E68}" name="data_old" displayName="data_old" ref="A1:I45" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F918301C-859F-40B7-9C3E-90E8F0495E68}" name="data_old" displayName="data_old" ref="A1:I45" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A1:I45" xr:uid="{6DAD1482-C63D-400D-9F51-F22A8E35CAD8}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{B19D2B17-9AC9-4F1B-B32E-D4F72AAE469F}" name="asset_class" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{2C7CF29D-8E72-4B0C-A212-31F2A25D75C9}" name="region" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{C7E89EEC-2B5D-4C94-9327-1AC8E33DE708}" name="factor_name" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{B3F9004A-8BEB-463E-A746-8189A2AC2B3E}" name="factor_name_new" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{51CD7FB3-58FE-4906-B73C-7726C0A9C471}" name="description_override" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{3CFF990B-3164-4533-821F-08CE7C6D82CA}" name="Description_GPT" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{DD86D53E-A9B4-4387-ABF9-F2625E77982D}" name="Underlying" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{D56FFF9A-72FF-42A4-B3D2-2F27AB16AF7A}" name="Active" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{8476DFDE-B4B1-4FD9-99B4-DF1F2ABBD7D5}" name="description" dataDxfId="8">
+    <tableColumn id="1" xr3:uid="{B19D2B17-9AC9-4F1B-B32E-D4F72AAE469F}" name="asset_class" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{2C7CF29D-8E72-4B0C-A212-31F2A25D75C9}" name="region" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{C7E89EEC-2B5D-4C94-9327-1AC8E33DE708}" name="factor_name" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{B3F9004A-8BEB-463E-A746-8189A2AC2B3E}" name="factor_name_new" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{51CD7FB3-58FE-4906-B73C-7726C0A9C471}" name="description_override" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{3CFF990B-3164-4533-821F-08CE7C6D82CA}" name="Description_GPT" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{DD86D53E-A9B4-4387-ABF9-F2625E77982D}" name="Underlying" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{D56FFF9A-72FF-42A4-B3D2-2F27AB16AF7A}" name="Active" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{8476DFDE-B4B1-4FD9-99B4-DF1F2ABBD7D5}" name="description" dataDxfId="7">
       <calculatedColumnFormula>IF(data_old[[#This Row],[description_override]]="",data_old[[#This Row],[Description_GPT]],data_old[[#This Row],[description_override]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3858,183 +4331,1288 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEC776AF-E8A8-4661-B4BA-DFE8D3F65EBD}">
-  <dimension ref="A1:R13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7A99D63-46B6-48B1-A4D5-0446948E9BE8}">
+  <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.109375" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>507</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>465</v>
       </c>
       <c r="B1" t="s">
+        <v>533</v>
+      </c>
+      <c r="C1" t="s">
+        <v>534</v>
+      </c>
+      <c r="D1" t="s">
+        <v>535</v>
+      </c>
+      <c r="E1" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" t="s">
+        <v>536</v>
+      </c>
+      <c r="C2" t="s">
+        <v>537</v>
+      </c>
+      <c r="D2" t="s">
+        <v>538</v>
+      </c>
+      <c r="E2" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
+        <v>539</v>
+      </c>
+      <c r="E3" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>361</v>
+      </c>
+      <c r="B4" t="s">
+        <v>362</v>
+      </c>
+      <c r="C4" t="s">
+        <v>540</v>
+      </c>
+      <c r="D4" t="s">
+        <v>541</v>
+      </c>
+      <c r="E4" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>438</v>
+      </c>
+      <c r="B5" t="s">
+        <v>542</v>
+      </c>
+      <c r="C5" t="s">
+        <v>543</v>
+      </c>
+      <c r="D5" t="s">
+        <v>544</v>
+      </c>
+      <c r="E5" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>545</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" t="s">
+        <v>546</v>
+      </c>
+      <c r="E6" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>547</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" t="s">
+        <v>548</v>
+      </c>
+      <c r="E7" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B8" t="s">
+        <v>549</v>
+      </c>
+      <c r="C8" t="s">
+        <v>550</v>
+      </c>
+      <c r="D8" t="s">
+        <v>551</v>
+      </c>
+      <c r="E8" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B9" t="s">
+        <v>552</v>
+      </c>
+      <c r="C9" t="s">
+        <v>553</v>
+      </c>
+      <c r="D9" t="s">
+        <v>554</v>
+      </c>
+      <c r="E9" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B10" t="s">
+        <v>555</v>
+      </c>
+      <c r="C10" t="s">
+        <v>556</v>
+      </c>
+      <c r="D10" t="s">
+        <v>557</v>
+      </c>
+      <c r="E10" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>176</v>
+      </c>
+      <c r="B11" t="s">
+        <v>376</v>
+      </c>
+      <c r="C11" t="s">
+        <v>376</v>
+      </c>
+      <c r="D11" t="s">
+        <v>558</v>
+      </c>
+      <c r="E11" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>177</v>
+      </c>
+      <c r="B12" t="s">
+        <v>559</v>
+      </c>
+      <c r="C12" t="s">
+        <v>560</v>
+      </c>
+      <c r="D12" t="s">
+        <v>561</v>
+      </c>
+      <c r="E12" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>342</v>
+      </c>
+      <c r="B13" t="s">
+        <v>562</v>
+      </c>
+      <c r="C13" t="s">
+        <v>563</v>
+      </c>
+      <c r="D13" t="s">
+        <v>564</v>
+      </c>
+      <c r="E13" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B14" t="s">
+        <v>565</v>
+      </c>
+      <c r="C14" t="s">
+        <v>566</v>
+      </c>
+      <c r="D14" t="s">
+        <v>567</v>
+      </c>
+      <c r="E14" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>179</v>
+      </c>
+      <c r="B15" t="s">
+        <v>568</v>
+      </c>
+      <c r="C15" t="s">
+        <v>569</v>
+      </c>
+      <c r="D15" t="s">
+        <v>570</v>
+      </c>
+      <c r="E15" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>180</v>
+      </c>
+      <c r="B16" t="s">
+        <v>571</v>
+      </c>
+      <c r="C16" t="s">
+        <v>572</v>
+      </c>
+      <c r="D16" t="s">
+        <v>573</v>
+      </c>
+      <c r="E16" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>181</v>
+      </c>
+      <c r="B17" t="s">
+        <v>574</v>
+      </c>
+      <c r="C17" t="s">
+        <v>575</v>
+      </c>
+      <c r="D17" t="s">
+        <v>576</v>
+      </c>
+      <c r="E17" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>182</v>
+      </c>
+      <c r="B18" t="s">
+        <v>565</v>
+      </c>
+      <c r="C18" t="s">
+        <v>577</v>
+      </c>
+      <c r="D18" t="s">
+        <v>578</v>
+      </c>
+      <c r="E18" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>285</v>
+      </c>
+      <c r="B19" t="s">
+        <v>392</v>
+      </c>
+      <c r="C19" t="s">
+        <v>392</v>
+      </c>
+      <c r="D19" t="s">
+        <v>579</v>
+      </c>
+      <c r="E19" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>364</v>
+      </c>
+      <c r="B20" t="s">
+        <v>365</v>
+      </c>
+      <c r="C20" t="s">
+        <v>580</v>
+      </c>
+      <c r="D20" t="s">
+        <v>581</v>
+      </c>
+      <c r="E20" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>403</v>
+      </c>
+      <c r="B21" t="s">
+        <v>582</v>
+      </c>
+      <c r="C21" t="s">
+        <v>404</v>
+      </c>
+      <c r="D21" t="s">
+        <v>583</v>
+      </c>
+      <c r="E21" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>431</v>
+      </c>
+      <c r="B22" t="s">
+        <v>584</v>
+      </c>
+      <c r="C22" t="s">
+        <v>584</v>
+      </c>
+      <c r="D22" t="s">
+        <v>585</v>
+      </c>
+      <c r="E22" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>367</v>
+      </c>
+      <c r="B23" t="s">
+        <v>586</v>
+      </c>
+      <c r="C23" t="s">
+        <v>368</v>
+      </c>
+      <c r="D23" t="s">
+        <v>587</v>
+      </c>
+      <c r="E23" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B24" t="s">
+        <v>588</v>
+      </c>
+      <c r="C24" t="s">
+        <v>149</v>
+      </c>
+      <c r="D24" t="s">
+        <v>589</v>
+      </c>
+      <c r="E24" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" t="s">
+        <v>590</v>
+      </c>
+      <c r="C25" t="s">
+        <v>591</v>
+      </c>
+      <c r="D25" t="s">
+        <v>592</v>
+      </c>
+      <c r="E25" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" t="s">
+        <v>593</v>
+      </c>
+      <c r="C26" t="s">
+        <v>593</v>
+      </c>
+      <c r="D26" t="s">
+        <v>594</v>
+      </c>
+      <c r="E26" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" t="s">
+        <v>595</v>
+      </c>
+      <c r="C27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" t="s">
+        <v>596</v>
+      </c>
+      <c r="E27" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>327</v>
+      </c>
+      <c r="B28" t="s">
+        <v>664</v>
+      </c>
+      <c r="C28" t="s">
+        <v>664</v>
+      </c>
+      <c r="E28" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" t="s">
+        <v>665</v>
+      </c>
+      <c r="C29" t="s">
+        <v>665</v>
+      </c>
+      <c r="D29" t="s">
+        <v>666</v>
+      </c>
+      <c r="E29" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" t="s">
+        <v>597</v>
+      </c>
+      <c r="C30" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" t="s">
+        <v>598</v>
+      </c>
+      <c r="E30" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>330</v>
+      </c>
+      <c r="B31" t="s">
+        <v>667</v>
+      </c>
+      <c r="C31" t="s">
+        <v>667</v>
+      </c>
+      <c r="E31" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" t="s">
+        <v>668</v>
+      </c>
+      <c r="C32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" t="s">
+        <v>669</v>
+      </c>
+      <c r="E32" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>324</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B33" t="s">
+        <v>141</v>
+      </c>
+      <c r="C33" t="s">
+        <v>141</v>
+      </c>
+      <c r="E33" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" t="s">
+        <v>599</v>
+      </c>
+      <c r="E34" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" t="s">
+        <v>600</v>
+      </c>
+      <c r="C35" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" t="s">
+        <v>601</v>
+      </c>
+      <c r="E35" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>400</v>
+      </c>
+      <c r="B36" t="s">
+        <v>602</v>
+      </c>
+      <c r="C36" t="s">
+        <v>401</v>
+      </c>
+      <c r="D36" t="s">
+        <v>603</v>
+      </c>
+      <c r="E36" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>199</v>
+      </c>
+      <c r="B37" t="s">
+        <v>604</v>
+      </c>
+      <c r="C37" t="s">
+        <v>516</v>
+      </c>
+      <c r="D37" t="s">
+        <v>605</v>
+      </c>
+      <c r="E37" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" t="s">
+        <v>606</v>
+      </c>
+      <c r="C38" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" t="s">
+        <v>607</v>
+      </c>
+      <c r="E38" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>447</v>
+      </c>
+      <c r="B39" t="s">
+        <v>608</v>
+      </c>
+      <c r="C39" t="s">
+        <v>609</v>
+      </c>
+      <c r="D39" t="s">
+        <v>610</v>
+      </c>
+      <c r="E39" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" t="s">
+        <v>611</v>
+      </c>
+      <c r="C40" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" t="s">
+        <v>612</v>
+      </c>
+      <c r="E40" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>347</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B41" t="s">
+        <v>613</v>
+      </c>
+      <c r="C41" t="s">
+        <v>406</v>
+      </c>
+      <c r="D41" t="s">
+        <v>614</v>
+      </c>
+      <c r="E41" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>348</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B42" t="s">
+        <v>615</v>
+      </c>
+      <c r="C42" t="s">
+        <v>408</v>
+      </c>
+      <c r="D42" t="s">
+        <v>616</v>
+      </c>
+      <c r="E42" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>218</v>
+      </c>
+      <c r="B43" t="s">
+        <v>617</v>
+      </c>
+      <c r="C43" t="s">
+        <v>618</v>
+      </c>
+      <c r="D43" t="s">
+        <v>619</v>
+      </c>
+      <c r="E43" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>458</v>
+      </c>
+      <c r="B44" t="s">
+        <v>620</v>
+      </c>
+      <c r="C44" t="s">
+        <v>620</v>
+      </c>
+      <c r="E44" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" t="s">
+        <v>621</v>
+      </c>
+      <c r="C45" t="s">
+        <v>52</v>
+      </c>
+      <c r="D45" t="s">
+        <v>622</v>
+      </c>
+      <c r="E45" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>126</v>
+      </c>
+      <c r="B46" t="s">
+        <v>623</v>
+      </c>
+      <c r="C46" t="s">
+        <v>127</v>
+      </c>
+      <c r="D46" t="s">
+        <v>624</v>
+      </c>
+      <c r="E46" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>131</v>
+      </c>
+      <c r="B47" t="s">
+        <v>625</v>
+      </c>
+      <c r="C47" t="s">
+        <v>132</v>
+      </c>
+      <c r="D47" t="s">
+        <v>626</v>
+      </c>
+      <c r="E47" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" t="s">
+        <v>627</v>
+      </c>
+      <c r="C48" t="s">
+        <v>50</v>
+      </c>
+      <c r="D48" t="s">
+        <v>628</v>
+      </c>
+      <c r="E48" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>135</v>
+      </c>
+      <c r="B49" t="s">
+        <v>136</v>
+      </c>
+      <c r="C49" t="s">
+        <v>136</v>
+      </c>
+      <c r="D49" t="s">
+        <v>629</v>
+      </c>
+      <c r="E49" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>344</v>
+      </c>
+      <c r="B50" t="s">
+        <v>630</v>
+      </c>
+      <c r="C50" t="s">
+        <v>631</v>
+      </c>
+      <c r="D50" t="s">
+        <v>632</v>
+      </c>
+      <c r="E50" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" t="s">
+        <v>54</v>
+      </c>
+      <c r="D51" t="s">
+        <v>670</v>
+      </c>
+      <c r="E51" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" t="s">
+        <v>55</v>
+      </c>
+      <c r="D52" t="s">
+        <v>633</v>
+      </c>
+      <c r="E52" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>346</v>
+      </c>
+      <c r="B53" t="s">
+        <v>634</v>
+      </c>
+      <c r="C53" t="s">
+        <v>635</v>
+      </c>
+      <c r="D53" t="s">
+        <v>636</v>
+      </c>
+      <c r="E53" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>345</v>
+      </c>
+      <c r="B54" t="s">
+        <v>637</v>
+      </c>
+      <c r="C54" t="s">
+        <v>417</v>
+      </c>
+      <c r="D54" t="s">
+        <v>638</v>
+      </c>
+      <c r="E54" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>97</v>
       </c>
-      <c r="H1" t="s">
-        <v>126</v>
-      </c>
-      <c r="I1" t="s">
-        <v>131</v>
-      </c>
-      <c r="J1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="B55" t="s">
+        <v>639</v>
+      </c>
+      <c r="C55" t="s">
+        <v>98</v>
+      </c>
+      <c r="D55" t="s">
+        <v>640</v>
+      </c>
+      <c r="E55" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>349</v>
+      </c>
+      <c r="B56" t="s">
+        <v>671</v>
+      </c>
+      <c r="C56" t="s">
+        <v>672</v>
+      </c>
+      <c r="D56" t="s">
+        <v>673</v>
+      </c>
+      <c r="E56" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>75</v>
+      </c>
+      <c r="B57" t="s">
+        <v>674</v>
+      </c>
+      <c r="C57" t="s">
+        <v>675</v>
+      </c>
+      <c r="D57" t="s">
+        <v>676</v>
+      </c>
+      <c r="E57" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>99</v>
+      </c>
+      <c r="B58" t="s">
+        <v>677</v>
+      </c>
+      <c r="C58" t="s">
+        <v>678</v>
+      </c>
+      <c r="D58" t="s">
+        <v>679</v>
+      </c>
+      <c r="E58" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>641</v>
+      </c>
+      <c r="C59" t="s">
+        <v>58</v>
+      </c>
+      <c r="D59" t="s">
+        <v>642</v>
+      </c>
+      <c r="E59" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60" t="s">
+        <v>60</v>
+      </c>
+      <c r="D60" t="s">
+        <v>643</v>
+      </c>
+      <c r="E60" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61" t="s">
+        <v>644</v>
+      </c>
+      <c r="D61" t="s">
+        <v>645</v>
+      </c>
+      <c r="E61" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" t="s">
+        <v>680</v>
+      </c>
+      <c r="C62" t="s">
+        <v>64</v>
+      </c>
+      <c r="D62" t="s">
+        <v>681</v>
+      </c>
+      <c r="E62" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63" t="s">
+        <v>646</v>
+      </c>
+      <c r="C63" t="s">
+        <v>67</v>
+      </c>
+      <c r="D63" t="s">
+        <v>647</v>
+      </c>
+      <c r="E63" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>492</v>
+      </c>
+      <c r="B64" t="s">
+        <v>648</v>
+      </c>
+      <c r="C64" t="s">
+        <v>649</v>
+      </c>
+      <c r="E64" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
         <v>69</v>
       </c>
-      <c r="L1" t="s">
+      <c r="B65" t="s">
+        <v>650</v>
+      </c>
+      <c r="C65" t="s">
+        <v>651</v>
+      </c>
+      <c r="E65" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
         <v>72</v>
       </c>
-      <c r="M1" t="s">
+      <c r="B66" t="s">
+        <v>652</v>
+      </c>
+      <c r="C66" t="s">
+        <v>73</v>
+      </c>
+      <c r="D66" t="s">
+        <v>653</v>
+      </c>
+      <c r="E66" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>498</v>
       </c>
-      <c r="N1" t="s">
-        <v>135</v>
-      </c>
-      <c r="O1" t="s">
-        <v>346</v>
-      </c>
-      <c r="P1" t="s">
-        <v>345</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>57</v>
-      </c>
-      <c r="R1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" cm="1">
-        <f t="array" ref="A2:A13">DATE(_xlfn.SEQUENCE(12,,2025,-1),1,1)</f>
-        <v>45658</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
-        <v>45292</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
-        <v>44927</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
-        <v>44562</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
-        <v>44197</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
-        <v>43831</v>
-      </c>
-      <c r="R7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
-        <v>43466</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
-        <v>43101</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
-        <v>42736</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
-        <v>42370</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
-        <v>42005</v>
-      </c>
-      <c r="O12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="10">
-        <v>41640</v>
-      </c>
-      <c r="R13">
-        <v>1</v>
+      <c r="B67" t="s">
+        <v>654</v>
+      </c>
+      <c r="C67" t="s">
+        <v>499</v>
+      </c>
+      <c r="D67" t="s">
+        <v>655</v>
+      </c>
+      <c r="E67" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>471</v>
+      </c>
+      <c r="B68" t="s">
+        <v>472</v>
+      </c>
+      <c r="C68" t="s">
+        <v>472</v>
+      </c>
+      <c r="E68" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>494</v>
+      </c>
+      <c r="B69" t="s">
+        <v>656</v>
+      </c>
+      <c r="C69" t="s">
+        <v>657</v>
+      </c>
+      <c r="D69" t="s">
+        <v>658</v>
+      </c>
+      <c r="E69" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>496</v>
+      </c>
+      <c r="B70" t="s">
+        <v>497</v>
+      </c>
+      <c r="C70" t="s">
+        <v>497</v>
+      </c>
+      <c r="E70" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>483</v>
+      </c>
+      <c r="B71" t="s">
+        <v>473</v>
+      </c>
+      <c r="C71" t="s">
+        <v>483</v>
+      </c>
+      <c r="E71" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>474</v>
+      </c>
+      <c r="B72" t="s">
+        <v>476</v>
+      </c>
+      <c r="C72" t="s">
+        <v>476</v>
+      </c>
+      <c r="E72" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>477</v>
+      </c>
+      <c r="B73" t="s">
+        <v>478</v>
+      </c>
+      <c r="C73" t="s">
+        <v>477</v>
+      </c>
+      <c r="E73" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>479</v>
+      </c>
+      <c r="B74" t="s">
+        <v>682</v>
+      </c>
+      <c r="C74" t="s">
+        <v>682</v>
+      </c>
+      <c r="E74" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>481</v>
+      </c>
+      <c r="B75" t="s">
+        <v>482</v>
+      </c>
+      <c r="C75" t="s">
+        <v>481</v>
+      </c>
+      <c r="E75" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>484</v>
+      </c>
+      <c r="B76" t="s">
+        <v>485</v>
+      </c>
+      <c r="C76" t="s">
+        <v>485</v>
+      </c>
+      <c r="E76" t="s">
+        <v>659</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C29859C-7358-4E2F-B5CC-7696F1DAC449}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:V87"/>
+  <dimension ref="A1:Y88"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D60" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D67" sqref="D67"/>
+      <selection pane="bottomRight" activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4046,10 +5624,12 @@
     <col min="6" max="6" width="44.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="59.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="8.44140625" customWidth="1"/>
-    <col min="17" max="17" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="61" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>322</v>
       </c>
@@ -4099,10 +5679,19 @@
         <v>465</v>
       </c>
       <c r="Q1" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="T1" s="5" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>39</v>
       </c>
@@ -4154,14 +5743,26 @@
         <f>data[[#This Row],[factor_name]]</f>
         <v>SPY</v>
       </c>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="2"/>
-      <c r="S2" t="b" cm="1">
-        <f t="array" ref="S2:S87">MOD(_xlfn.SEQUENCE(ROWS(data[])),3)=1</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="Q2" s="4" t="str">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[ticker]],yf_desc[ticker],yf_desc[shortName],"-")</f>
+        <v>SPDR S&amp;P 500</v>
+      </c>
+      <c r="R2" s="4" t="str">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[ticker]],yf_desc[ticker],yf_desc[longName],"-")</f>
+        <v>SPDR S&amp;P 500 ETF</v>
+      </c>
+      <c r="S2" s="4" t="str">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[ticker]],yf_desc[ticker],yf_desc[longBusinessSummary],"-")</f>
+        <v>The trust seeks to achieve its investment objective by holding a portfolio of the common stocks that are included in the index, with the weight of each stock in the portfolio substantially corresponding to the weight of such stock in the index.</v>
+      </c>
+      <c r="T2" s="4"/>
+      <c r="U2" s="2"/>
+      <c r="V2" t="b" cm="1">
+        <f t="array" ref="V2:V88">MOD(_xlfn.SEQUENCE(ROWS(data[])),3)=1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>39</v>
       </c>
@@ -4213,15 +5814,27 @@
         <f>data[[#This Row],[factor_name]]</f>
         <v>IWM</v>
       </c>
-      <c r="Q3" s="4"/>
-      <c r="S3" t="b">
-        <v>0</v>
-      </c>
-      <c r="V3" t="s">
+      <c r="Q3" s="4" t="str">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[ticker]],yf_desc[ticker],yf_desc[shortName],"-")</f>
+        <v>iShares Russell 2000 ETF</v>
+      </c>
+      <c r="R3" s="4" t="str">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[ticker]],yf_desc[ticker],yf_desc[longName],"-")</f>
+        <v>iShares Russell 2000 ETF</v>
+      </c>
+      <c r="S3" s="4" t="str">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[ticker]],yf_desc[ticker],yf_desc[longBusinessSummary],"-")</f>
+        <v>The fund generally invests at least 80% of its assets in the component securities of its underlying index and in investments that have economic characteristics that are substantially identical to the component securities of its underlying index (i.e., depositary receipts representing securities of the underlying index) and may invest up to 20% of its assets in certain futures, options and swap contracts, cash and cash equivalents.</v>
+      </c>
+      <c r="T3" s="4"/>
+      <c r="V3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>39</v>
       </c>
@@ -4273,12 +5886,24 @@
         <f>data[[#This Row],[factor_name]]</f>
         <v>MDY</v>
       </c>
-      <c r="Q4" s="4"/>
-      <c r="S4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="Q4" s="4" t="str">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[ticker]],yf_desc[ticker],yf_desc[shortName],"-")</f>
+        <v>SPDR S&amp;P MidCap 400 ETF Trust</v>
+      </c>
+      <c r="R4" s="4" t="str">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[ticker]],yf_desc[ticker],yf_desc[longName],"-")</f>
+        <v>SPDR S&amp;P MIDCAP 400 ETF Trust</v>
+      </c>
+      <c r="S4" s="4" t="str">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[ticker]],yf_desc[ticker],yf_desc[longBusinessSummary],"-")</f>
+        <v>The Trust seeks to achieve its investment objective by holding a portfolio of the common stocks that are included in the index (the “Portfolio”), with the weight of each stock in the Portfolio substantially corresponding to the weight of such stock in the index.</v>
+      </c>
+      <c r="T4" s="4"/>
+      <c r="V4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>39</v>
       </c>
@@ -4324,15 +5949,27 @@
         <f>data[[#This Row],[factor_name]]</f>
         <v>RSP</v>
       </c>
-      <c r="Q5" s="4"/>
-      <c r="S5" t="b">
-        <v>1</v>
-      </c>
-      <c r="V5" t="s">
+      <c r="Q5" s="4" t="str">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[ticker]],yf_desc[ticker],yf_desc[shortName],"-")</f>
+        <v>Invesco S&amp;P 500 Equal Weight ET</v>
+      </c>
+      <c r="R5" s="4" t="str">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[ticker]],yf_desc[ticker],yf_desc[longName],"-")</f>
+        <v>Invesco S&amp;P 500 Equal Weight ETF</v>
+      </c>
+      <c r="S5" s="4" t="str">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[ticker]],yf_desc[ticker],yf_desc[longBusinessSummary],"-")</f>
+        <v>The fund generally will invest at least 90% of its total assets in securities that comprise the underlying index. Strictly in accordance with its guidelines and mandated procedures, the index provider compiles, maintains and calculates the underlying index, which consists of all of the of the S&amp;P 500® Index.</v>
+      </c>
+      <c r="T5" s="4"/>
+      <c r="V5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y5" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>39</v>
       </c>
@@ -4384,12 +6021,24 @@
         <f>data[[#This Row],[factor_name]]</f>
         <v>QQQ</v>
       </c>
-      <c r="Q6" s="4"/>
-      <c r="S6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="Q6" s="4" t="str">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[ticker]],yf_desc[ticker],yf_desc[shortName],"-")</f>
+        <v>Invesco QQQ Trust, Series 1</v>
+      </c>
+      <c r="R6" s="4" t="str">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[ticker]],yf_desc[ticker],yf_desc[longName],"-")</f>
+        <v>Invesco QQQ Trust</v>
+      </c>
+      <c r="S6" s="4" t="str">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[ticker]],yf_desc[ticker],yf_desc[longBusinessSummary],"-")</f>
+        <v>To maintain the correspondence between the composition and weights of the securities in the trust (the "securities") and the stocks in the NASDAQ-100 Index®, the adviser adjusts the securities from time to time to conform to periodic changes in the identity and/or relative weights of index securities. The composition and weighting of the securities portion of a portfolio deposit are also adjusted to conform to changes in the index.</v>
+      </c>
+      <c r="T6" s="4"/>
+      <c r="V6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>39</v>
       </c>
@@ -4441,12 +6090,24 @@
         <f>data[[#This Row],[factor_name]]</f>
         <v>DIA</v>
       </c>
-      <c r="Q7" s="4"/>
-      <c r="S7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="Q7" s="4" t="str">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[ticker]],yf_desc[ticker],yf_desc[shortName],"-")</f>
+        <v>SPDR Dow Jones Industrial Avera</v>
+      </c>
+      <c r="R7" s="4" t="str">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[ticker]],yf_desc[ticker],yf_desc[longName],"-")</f>
+        <v>SPDR Dow Jones Industrial Average ETF Trust</v>
+      </c>
+      <c r="S7" s="4" t="str">
+        <f>_xlfn.XLOOKUP(data[[#This Row],[ticker]],yf_desc[ticker],yf_desc[longBusinessSummary],"-")</f>
+        <v>The Trust’s Portfolio consists of substantially all of the component common stocks that comprise the DJIA, which are weighted in accordance with the terms of the Trust Agreement.</v>
+      </c>
+      <c r="T7" s="4"/>
+      <c r="V7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
       